--- a/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
+++ b/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
@@ -514,22 +514,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Alright so I dont know much about Lexapro would you tell me more about it?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Lexapro: A Brief Overview
-Lexapro (escitalopram) is a selective serotonin reuptake inhibitor (SSRI) antidepressant medication. It's commonly prescribed for treating major depressive disorder (MDD), generalized anxiety disorder (GAD), and social anxiety disorder (SAD). 
-**How it Works:**
-* Lexapro works by increasing the levels of serotonin in the brain. Serotonin is a neurotransmitter that plays a crucial role in regulating mood, sleep, appetite, and other functions. 
-* By increasing serotonin levels, Lexapro helps to alleviate symptoms of depression, anxiety, and other mental health conditions.
-**Common Uses:**
-* **Major Depressive Disorder (MDD):** Lexapro is often used to treat moderate to severe depression.
-* **Generalized Anxiety Disorder (GAD):** It can help manage excessive worry and anxiety.
-* **Social Anxiety Disorder (SAD):** Lexapro can be effective in reducing social anxiety symptoms</t>
+          <t xml:space="preserve">
+It's great that you're seeking information about Lexapro!  It's a common medication for depression and anxiety, and understanding it is important. 
+**Here's what I can tell you about Lexapro (escitalopram):**
+**What is Lexapro?**
+* Lexapro is an antidepressant medication belonging to a class of drugs called selective serotonin reuptake inhibitors (SSRIs). 
+* It works by increasing the levels of serotonin in the brain, a neurotransmitter that plays a role in mood regulation.
+**How is it used?**
+* Lexapro is prescribed for:
+    * **Major Depressive Disorder (MDD):**  It's used to treat moderate to severe depression.
+    * **Generalized Anxiety Disorder (GAD):** It can help manage excessive worry and anxiety.
+    * **Social Anxiety Disorder:** It can help reduce social anxiety symptoms.
+    * **Panic Disorder:** It can help manage panic attacks.
+**How does it work?**
+* Lexapro works by affecting the way serotonin is processed in the brain. It prevents the reabsorption of serotonin, allowing it to stay in the brain longer and have a greater impact.
+**Important Considerations:**
+* **Prescription Only:** Lexapro is a prescription medication and should only be taken under the guidance of a healthcare professional.
+* **Side Effects:** Like all medications, Lexapro can cause side effects. Common ones include:
+    * Nausea
+    * Dry mouth
+    * Insomnia
+    * Dizziness
+    * Headache
+    * Sexual problems
+* **Withdrawal Symptoms:** Abruptly stopping Lexapro can lead to withdrawal symptoms, so it's crucial to follow your doctor's instructions for tapering off the medication.
+* **Drug Interactions:** Lexapro can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
+* **Pregnancy and Breastfeeding:** Lexapro is not recommended for pregnant or breastfeeding women.
+* **Individualized Treatment:** The effectiveness of Lexapro can vary from person to person. It may take several weeks or months to see the full effects.
+**Important Note:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. 
+**To get the most accurate and personalized information about Lexapro, please consult with your doctor or a qualified healthcare professional.** They can assess your individual needs, discuss potential benefits and risks, and determine if Lexapro is the right treatment for you. 
+Remember, seeking professional medical advice is crucial for safe and effective treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -567,25 +586,32 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Also what is the oral option to get rid of scabies?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Scabies: Oral Treatment Options
-While scabies is primarily treated with topical medications, there are some oral options available for managing the condition. However, it's crucial to understand that oral treatments are generally reserved for specific situations and should only be used under the guidance of a healthcare professional.
-**Here's what you need to know about oral scabies treatment:**
-* **Limited Availability:** Oral medications for scabies are not as widely available as topical treatments.
-* **Specific Conditions:** They are often prescribed for individuals with severe scabies infestations or those who are unable to tolerate topical treatments.
-* **Potential Side Effects:** Like any medication, oral scabies treatments can have side effects, which may vary depending on the specific medication.
-* **Monitoring:** It's essential to monitor your progress and consult with your doctor regularly to ensure the treatment is effective and to address any concerns.
-**Examples of Oral Medications:**
-* **Ivermectin:** This</t>
+          <t xml:space="preserve">
+I understand you're looking for information about treating scabies with oral medications.  
+It's important to note that I am an AI and cannot provide medical advice.  **Always consult a healthcare professional for diagnosis and treatment of scabies.** 
+That being said, I can share some general information about oral medications for scabies:
+**Oral medications are not the primary treatment for scabies.**  They are typically used in conjunction with topical treatments, like permethrin cream, to ensure complete eradication of the mites and their eggs. 
+Here's what you should know:
+* **Oral medications are less common:**  They are often reserved for specific situations, such as severe cases or when topical treatments are ineffective.
+* **They work by targeting the mites:**  These medications can kill the adult mites and eggs, but they may not be as effective as topical treatments in eliminating the infestation.
+* **They can have side effects:**  Like any medication, oral treatments for scabies can have side effects, including nausea, vomiting, and diarrhea.
+* **They require a prescription:**  You must consult a doctor to determine if oral medication is appropriate for you.
+**Here are some oral medications that may be prescribed for scabies:**
+* **Ivermectin:**  This medication is often used for scabies, but it's important to follow your doctor's instructions carefully.
+* **Other medications:**  Your doctor may prescribe other medications depending on your individual needs and the severity of your scabies.
+**Remember:**
+* **Early diagnosis and treatment are crucial:**  Scabies can spread quickly, so it's important to seek medical attention as soon as possible.
+* **Follow your doctor's instructions:**  This includes taking the medication as prescribed and completing the full course of treatment.
+* **Practice good hygiene:**  Washing bedding and clothing in hot water and drying them on high heat can help prevent the spread of scabies.
+**Please schedule an appointment with your doctor or a dermatologist to discuss your scabies and get the best treatment plan for you.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -623,23 +649,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Am I contagious with respiratory infection?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult a doctor for diagnosis and treatment.
-**Answer:**
-I understand you're concerned about being contagious with a respiratory infection.  It's a very common worry, and it's important to address it. 
-Here's what I can tell you, but remember, **I am not a doctor, and this is not medical advice.**  
-**To determine if you're contagious, you need to consider:**
-* **The specific infection:** Different respiratory infections have different contagious periods. 
-    * **Common cold:** Usually contagious for 3-7 days, but symptoms can linger longer.
-    * **Flu (influenza):**  Contagious for about 1-2 weeks, and can be more severe.
-    * **COVID-19:**  Can be contagious for several days before symptoms appear and for up to 10 days after.
-* **Your symptoms:**  The severity and duration of your symptoms can help determine your contagiousness. 
-* **Your exposure:**  How recently and how often you've been exposed</t>
+          <t xml:space="preserve">
+I understand you're concerned about being contagious with a respiratory infection.  Unfortunately, I can't give you a diagnosis. I'm an AI, not a doctor! 
+**Here's what I can tell you to help you understand the situation better:**
+* **Contagiousness varies:**  Many respiratory infections are contagious, meaning you can spread them to others.  However, the contagiousness depends on the specific infection, its severity, and how long you've been sick.
+* **Symptoms are key:**  The most important thing is to identify the symptoms you're experiencing.  Common respiratory infections include:
+    * **Common cold:**  Runny nose, sore throat, cough, congestion.
+    * **Flu (influenza):**  Fever, chills, muscle aches, cough, sore throat, headache, fatigue.
+    * **COVID-19:**  Fever, cough, shortness of breath, fatigue, loss of taste or smell.
+* **Testing is crucial:**  If you're concerned about being contagious, the best thing to do is get tested.  A doctor can determine the specific infection and advise you on how to manage it and prevent spreading it.
+* **Isolation is important:**  If you have a contagious respiratory infection, it's important to isolate yourself from others to prevent spreading the infection.  This means staying home, avoiding contact with others, and wearing a mask if necessary.
+**What to do:**
+1. **See a doctor:**  The best way to know if you're contagious is to see a doctor. They can assess your symptoms, perform a test if needed, and provide personalized advice.
+2. **Stay home:**  If you're sick, stay home to avoid spreading the infection.
+3. **Practice good hygiene:**  Wash your hands frequently, cover your coughs and sneezes, and avoid touching your face.
+4. **Get vaccinated:**  Vaccines can help prevent many respiratory infections, including the flu and COVID-19.
+Remember, I'm not a doctor, and this information is not a substitute for professional medical advice. Please consult a healthcare professional for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -689,27 +719,49 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: And how does Genital herpes and HPV differ?
-##  I'm looking for information on the differences between genital herpes and HPV. 
-**Genital herpes** is a viral infection that causes painful blisters or sores on the genitals, anus, or mouth. It is caused by the herpes simplex virus (HSV). 
-**HPV** stands for human papillomavirus. It is a group of viruses that can cause a variety of health problems, including genital warts, cervical cancer, and other cancers. 
-**Here's a breakdown of the key differences:**
-**1. Cause:**
-   - **Genital herpes:** Caused by the herpes simplex virus (HSV).
-   - **HPV:** Caused by different types of human papillomavirus (HPV).
-**2. Symptoms:**
-   - **Genital herpes:** Painful blisters or sores, often accompanied by fever, headache, and muscle aches.
-   - **HPV:** Can range from no symptoms to genital warts, cervical cancer, or other cancers.
-**3. Transmission:**
-   - **Genital herpes:** Spread through direct contact with infected sores or fluids.
-   - **HPV:** Spread through direct skin-to-skin contact with an infected person.
-**4. Treatment:**
-   - **Genital</t>
+          <t xml:space="preserve">
+You're asking a very important question about two common sexually transmitted infections (STIs). Let's break down the differences between genital herpes and HPV:
+**Genital Herpes**
+* **Cause:** Caused by the herpes simplex virus (HSV), specifically HSV-1 (most commonly) or HSV-2.
+* **Transmission:**  Direct contact with infected sores or fluids.
+* **Symptoms:**  
+    * **Initial outbreak:**  Painful, fluid-filled blisters or sores on or around the genitals, anus, or mouth.
+    * **Recurring outbreaks:**  Blisters may appear and disappear, or they may be more frequent and severe.
+    * **No symptoms:**  Many people with herpes have no symptoms at all.
+* **Treatment:**  Antiviral medications can reduce the frequency and severity of outbreaks. There is no cure for herpes.
+* **Complications:**  
+    * **Transmission to others:**  Herpes is highly contagious.
+    * **Complications during pregnancy:**  Herpes can be transmitted to the baby during childbirth.
+    * **Mental health:**  Living with herpes can be emotionally challenging.
+**HPV (Human Papillomavirus)**
+* **Cause:**  A group of over 200 different types of viruses. Some types are high-risk and can cause cancer, while others are low-risk and cause no health problems.
+* **Transmission:**  Direct skin-to-skin contact, including sexual activity.
+* **Symptoms:**  
+    * **Most HPV infections are asymptomatic:**  They clear up on their own without causing any symptoms.
+    * **Genital warts:**  Small, fleshy growths on the genitals, anus, or mouth.
+    * **Cervical cancer:**  High-risk HPV types can cause cervical cancer.
+* **Treatment:**  
+    * **Genital warts:**  Can be treated with topical medications or cryotherapy (freezing).
+    * **Cervical cancer:**  Treatment depends on the stage of the cancer.
+* **Complications:**  
+    * **Cervical cancer:**  Can be fatal if not detected and treated early.
+    * **Other cancers:**  Some HPV types can cause cancers of the anus, vulva, vagina, penis, and throat.
+**Key Differences:**
+* **Cause:** Herpes is caused by a virus, while HPV is a group of viruses.
+* **Symptoms:** Herpes often causes painful blisters, while HPV can cause no symptoms or genital warts.
+* **Treatment:** Herpes is treated with antiviral medications, while HPV treatment depends on the type and severity.
+* **Complications:** Herpes can be transmitted to others and cause complications during pregnancy, while HPV can cause cervical cancer and other cancers.
+**Important Notes:**
+* **Testing:**  It's important to get tested for both herpes and HPV if you have concerns.
+* **Prevention:**  Using condoms can help prevent both herpes and HPV.
+* **Vaccination:**  The HPV vaccine is highly effective in preventing HPV infection.
+* **Early Detection:**  Regular Pap smears are recommended for women to detect cervical cancer caused by HPV.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -754,19 +806,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: And is there any way I can get some medicine for a cold sore and a mouth ulcer that is killing me?
-**Answer:**
-I understand you're in a lot of pain!  Let's talk about how to manage your cold sore and mouth ulcer. 
-**First, it's important to know that I can't give medical advice.**  I'm here to provide general information, but you should always consult with a doctor or pharmacist for personalized treatment. 
-**Here's what I can tell you about common treatments:**
-* **Cold Sores:**
-    * **Over-the-counter antiviral medications:** These can help shorten the duration of the cold sore and reduce its severity.  Examples include Abreva (docosanol) and Zovirax (acyclovir).  
-    * **Topical pain relievers:**  These can help manage the pain and discomfort associated with the cold sore.  
-    * **Home remedies:**  Some people find relief from cold sores with cold compresses, aloe vera gel, or tea tree oil.  However, these are not scientifically proven to be effective.
-* **Mouth Ulcers:**
-    * **Over-the-counter pain relievers:**  Similar to cold sores, over-the-counter pain relievers can help manage the pain.
-    *</t>
+          <t xml:space="preserve">
+I understand you're in pain!  It's no fun dealing with cold sores and mouth ulcers.  While I can't give medical advice, I can tell you about common treatments and what to discuss with your doctor. 
+**Here's what I can tell you about cold sores and mouth ulcers:**
+**Cold Sores:**
+* **Cause:**  Cold sores are caused by the herpes simplex virus (HSV).  They are highly contagious and can be triggered by stress, sun exposure, or even a weakened immune system.
+* **Treatment:**  There are antiviral medications that can help shorten the duration and severity of outbreaks.  Your doctor can prescribe these, and they're often most effective when started early in the outbreak.
+* **Over-the-counter options:**  Some over-the-counter creams and ointments can help soothe the pain and reduce the appearance of cold sores.  Look for products containing docosanol, which is a natural antiviral.
+**Mouth Ulcers:**
+* **Cause:**  Mouth ulcers, also known as canker sores, are small, painful sores that appear inside the mouth.  They can be caused by stress, injury, or an overactive immune system.
+* **Treatment:**  There are various over-the-counter remedies that can help soothe the pain and speed up healing.  These include:
+    * **Anti-inflammatory medications:**  Over-the-counter pain relievers like ibuprofen or naproxen can help reduce inflammation.
+    * **Mouthwashes:**  Some mouthwashes contain ingredients like benzocaine or lidocaine that can numb the pain.
+    * **Saline rinses:**  Rinsing your mouth with warm salt water can help clean the area and reduce inflammation.
+* **Prescription options:**  In some cases, your doctor may prescribe stronger medications, such as topical corticosteroids or antibiotics, if the ulcer is severe or doesn't respond to over-the-counter treatments.
+**What to do:**
+1. **See your doctor:**  It's important to see your doctor to get a proper diagnosis and discuss the best treatment options for you.  They can also help rule out any underlying medical conditions that may be contributing to your symptoms.
+2. **Don't self-medicate:**  While over-the-counter remedies can be helpful, it's important to avoid self-medicating.  Some medications can interact with other medications you're taking, and some can have side effects.
+3. **Practice good hygiene:**  Wash your hands frequently and avoid touching your mouth or sores.  This can help prevent the spread of cold sores and mouth ulcers.
+4. **Manage stress:**  Stress can trigger outbreaks of cold sores and mouth ulcers.  Try to find healthy ways to manage stress, such as exercise, yoga, or meditation.
+Remember, I'm not a doctor, and this information is not a substitute for professional medical advice.  Always consult with your doctor for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -815,21 +875,38 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: And what could be causing the white tongue?
-##  Possible Causes of a White Tongue
-A white tongue can be a sign of various conditions, ranging from harmless to serious. It's important to consult a doctor to determine the underlying cause. 
-Here's a breakdown of potential causes:
-**1. Oral Hygiene:**
-* **Poor oral hygiene:** This is the most common cause. Bacteria build up on the tongue, leading to a white coating. 
-* **Tongue scraping:**  Regular tongue scraping can help remove the coating and prevent buildup.
-**2. Medical Conditions:**
-* **Oral thrush:** A fungal infection that causes white patches on the tongue.
-* **Vitamin deficiencies:**  Deficiencies in vitamin B12, iron, or folic acid can lead to a white tongue.
-* **Xerostomia:**  Dry mouth, often caused by medications or medical conditions, can lead to a white tongue.
-* **Leukoplakia:**  Thick, white patches on the tongue that can be precancerous.
-* **Geographic tongue:**  A benign condition characterized by patches of red, white, or smooth areas on the tongue.
-* **Angular cheilitis:**  Inflammation of the corners of the mouth, often caused by poor oral hygiene</t>
+          <t xml:space="preserve">
+Ah, a classic question!  Let's delve into the world of white tongue, a symptom that can be caused by a variety of factors. 
+**First, it's crucial to understand that a white tongue doesn't always indicate a serious problem.**  However, it's important to get it checked out by a doctor to rule out any underlying conditions. 
+Here's a breakdown of the most common causes:
+**1.  Oral Hygiene:**
+* **Poor Oral Hygiene:**  This is the most common culprit.  If you don't brush and floss regularly, food particles and bacteria can build up on your tongue, leading to a white coating.
+* **Dry Mouth:**  Saliva helps to keep your tongue clean.  If you have dry mouth (xerostomia), your tongue can become dry and white.
+**2.  Nutritional Deficiencies:**
+* **Vitamin B12 Deficiency:**  This can cause a white, thick coating on the tongue.
+* **Iron Deficiency:**  A lack of iron can also lead to a white tongue.
+**3.  Medications:**
+* **Certain Antibiotics:**  Some antibiotics can cause a white coating on the tongue as a side effect.
+* **Anti-seizure Medications:**  Some anti-seizure medications can also cause a white tongue.
+**4.  Medical Conditions:**
+* **Oral Thrush (Candidiasis):**  This is a fungal infection that can cause a white, cottage cheese-like coating on the tongue.
+* **Leukoplakia:**  This is a white, thickened patch of tissue on the tongue that can be caused by smoking, alcohol, or certain medications.
+* **Oral Cancer:**  While less common, a white tongue can be a sign of oral cancer.
+* **Diabetes:**  High blood sugar can cause a white tongue.
+* **HIV/AIDS:**  This can cause a white tongue as a result of oral thrush.
+* **Autoimmune Disorders:**  Some autoimmune disorders can cause a white tongue.
+**5.  Other Factors:**
+* **Stress:**  Stress can affect your immune system, making you more susceptible to infections, including oral thrush.
+* **Smoking:**  Smoking can cause a white tongue.
+* **Alcohol Consumption:**  Excessive alcohol consumption can also lead to a white tongue.
+**What to do:**
+* **See a doctor:**  If you have a white tongue, it's important to see a doctor to rule out any serious underlying conditions.
+* **Improve oral hygiene:**  Brush your tongue gently with a soft-bristled toothbrush and floss daily.
+* **Stay hydrated:**  Drink plenty of water to help keep your mouth moist.
+* **Avoid smoking and excessive alcohol consumption.**
+**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -870,35 +947,28 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: And what happens if I miss a dose of Saxenda?
-**Saxenda** is a brand name for **liraglutide**, a medication used to help people with obesity lose weight.
-**Liraglutide** is a GLP-1 receptor agonist. It works by mimicking the effects of a naturally occurring hormone called glucagon-like peptide-1 (GLP-1).
-**GLP-1** helps regulate blood sugar levels and promotes feelings of fullness.
-**Saxenda** is available in two forms:
-* **Injection:** This is the most common form, given once daily.
-* **Oral:** This form is not yet available in the United States.
-**Potential side effects of Saxenda:**
-* Nausea
-* Vomiting
-* Diarrhea
-* Constipation
-* Headache
-* Dizziness
-* Fatigue
-* Hypoglycemia (low blood sugar)
-* Injection site reactions
-**What happens if I miss a dose of Saxenda?**
-If you miss a dose of Saxenda, it's important to take it as soon as possible. 
-**However, if you miss a dose and it's within 12 hours of your next scheduled dose, you can skip the missed dose and continue with your regular schedule.**
-**If you miss a dose and it's more</t>
+          <t xml:space="preserve">
+It's great that you're asking about potential side effects and how to manage your medication.  
+**Missing a dose of Saxenda (liraglutide) can have a few potential effects, but it's important to remember that I am not a medical professional and this information is not a substitute for medical advice.** 
+Here's what you should know:
+* **The best course of action is to always follow your doctor's instructions.** They will have prescribed the correct dosage and frequency for you. 
+* **If you miss a dose, take it as soon as you remember.** Don't worry too much if it's close to the next scheduled dose. 
+* **If you miss a dose and it's close to the next scheduled dose, skip the missed dose and continue with your regular schedule.** 
+* **If you miss a dose and it's not close to the next scheduled dose, take the missed dose as soon as you remember.** 
+* **If you miss a dose and you're unsure what to do, contact your doctor or pharmacist.** They can provide personalized guidance.
+**Important Considerations:**
+* **Saxenda is a GLP-1 receptor agonist.** It helps regulate appetite and blood sugar levels. 
+* **Missing doses can affect your weight loss journey.** It's crucial to be consistent with your medication schedule.
+* **Always consult your doctor or pharmacist if you have any concerns about your medication.** They can provide personalized advice based on your individual needs and medical history.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult your doctor or pharmacist for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -937,30 +1007,39 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Any thoughts on a mild muscle relaxant?
-**Please provide a detailed response, including:**
-* **What are muscle relaxants?**
-* **What are the different types of muscle relaxants?**
-* **What are the uses of muscle relaxants?**
-* **What are the potential side effects of muscle relaxants?**
-* **What are the risks and benefits of using muscle relaxants?**
-* **What are the alternatives to muscle relaxants?**
-* **What are the important considerations when choosing a muscle relaxant?**
-**Please note:** I am not a medical professional and this information is for general knowledge purposes only. It should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Muscle Relaxants: A Comprehensive Overview
-**What are muscle relaxants?**
-Muscle relaxants are medications that help to reduce muscle spasms and tension. They work by interfering with the transmission of nerve signals to the muscles, thus relaxing the muscles. 
-**What are the different types of muscle relaxants?**
+          <t xml:space="preserve">
+I understand you're looking for information about mild muscle relaxants.  It's great you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot provide medical advice.**  The information below is for general knowledge purposes only and should not be substituted for the guidance of a qualified doctor. 
+**What are Muscle Relaxants?**
+Muscle relaxants are medications that help reduce muscle spasms and tension. They work by affecting the nerves and muscles, making them less sensitive to signals that cause them to contract. 
+**Types of Muscle Relaxants:**
 There are several types of muscle relaxants, each with its own mechanism of action and potential side effects. Some common types include:
-* **Benzo</t>
+* **Non-steroidal anti-inflammatory drugs (NSAIDs):**  Like ibuprofen or naproxen, these can help reduce inflammation and pain, which can sometimes ease muscle tension.
+* **Benzodiazepines:**  These are a class of drugs that can help relax muscles and reduce anxiety. Examples include diazepam (Valium) and alprazolam (Xanax).
+* **Anticholinergics:**  These drugs block the action of acetylcholine, a neurotransmitter that plays a role in muscle contraction. Examples include cyclobenzaprine (Flexeril) and orphenadrine (Norflex).
+* **Anticonvulsants:**  These medications, originally used to treat seizures, can also help relax muscles. Examples include gabapentin (Neurontin) and pregabalin (Lyrica).
+**When to Consider a Muscle Relaxant:**
+Muscle relaxants can be helpful for a variety of conditions, including:
+* **Muscle spasms:**  These can be caused by various factors, such as injury, overuse, or certain medical conditions.
+* **Fibromyalgia:**  This condition causes widespread muscle pain and tenderness.
+* **Restless leg syndrome:**  This condition causes an irresistible urge to move the legs, often at night.
+* **Chronic pain:**  Muscle relaxants can help manage pain associated with conditions like arthritis or back pain.
+**Important Considerations:**
+* **Underlying Cause:**  It's crucial to identify the underlying cause of your muscle tension or spasms.  Muscle relaxants may not be the best solution if the issue is not properly addressed.
+* **Potential Side Effects:**  Muscle relaxants can have side effects, including drowsiness, dizziness, and confusion. They can also interact with other medications.
+* **Dosage and Duration:**  The dosage and duration of treatment will vary depending on the individual and the condition being treated.
+* **Alternative Treatments:**  There are often non-medication options for managing muscle tension, such as physical therapy, massage, and exercise.
+**What to Do Next:**
+If you're experiencing muscle tension or spasms, it's essential to consult with a doctor. They can help determine the cause of your symptoms and recommend the most appropriate treatment plan. 
+**Remember:**  Self-treating can be dangerous. Always seek professional medical advice before taking any medication. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1001,26 +1080,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Any thoughts on taking activated charcoal to help w stomach bug?
-**Please provide a detailed explanation, including:**
-* **Mechanism of action:** How does activated charcoal work to treat stomach bugs?
-* **Effectiveness:** Is activated charcoal effective in treating stomach bugs?
-* **Safety:** What are the potential risks and side effects of activated charcoal?
-* **Alternatives:** What are some alternative treatments for stomach bugs?
-* **When to see a doctor:** When should you seek medical attention for a stomach bug?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Activated Charcoal for Stomach Bugs: A Doctor's Perspective
-As a wise doctor, I understand your concern about stomach bugs and the potential use of activated charcoal. Let's delve into the topic:
-**Mechanism of Action:**
-Activated charcoal is a highly porous substance made from carbon. It acts as a "molecular sponge," effectively adsorbing (binding to) various substances in the digestive tract. This includes toxins, bacteria, and even some medications. When ingested, activated charcoal binds to the harmful substances in your</t>
+          <t xml:space="preserve">
+As a wise doctor, I can tell you that activated charcoal is a popular home remedy for stomach bugs, but it's important to understand the science behind it and its limitations. 
+**Here's what I know about activated charcoal and stomach bugs:**
+**What is activated charcoal?**
+Activated charcoal is a highly porous form of carbon that has been treated to increase its surface area. This makes it incredibly effective at absorbing substances, including toxins, medications, and even some food particles.
+**How does it work for stomach bugs?**
+The idea behind using activated charcoal for stomach bugs is that it can bind to and absorb the toxins and bacteria that cause the illness. This may help to:
+* **Reduce the severity of symptoms:** By removing toxins, charcoal may lessen nausea, vomiting, and diarrhea.
+* **Prevent further absorption:** It may help prevent the absorption of harmful substances into the bloodstream.
+**However, there are some important things to consider:**
+* **Limited evidence:** While some studies suggest potential benefits, the evidence for activated charcoal's effectiveness in treating stomach bugs is limited and inconclusive. 
+* **Potential side effects:** Activated charcoal can have side effects, including constipation, dehydration, and nutrient deficiencies. 
+* **Not a substitute for medical care:** Activated charcoal should not be used as a substitute for proper medical care. It's crucial to consult a doctor for diagnosis and treatment of stomach bugs.
+* **Dosage and timing:** The dosage and timing of activated charcoal can vary depending on the severity of the illness and the individual's health. It's important to follow the instructions on the product label or consult a doctor for guidance.
+* **Interactions with medications:** Activated charcoal can interact with certain medications, so it's important to inform your doctor about all the medications you are taking.
+**In conclusion:**
+While activated charcoal may offer some potential benefits for stomach bugs, it's not a guaranteed cure and can have side effects. It's crucial to consult a doctor for diagnosis and treatment. They can determine the best course of action based on your individual needs and medical history. 
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1065,28 +1150,44 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Anything I can do for the congestion?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-Congestion can be caused by a variety of factors, including:
-* **Viral infections:** The common cold, flu, and COVID-19 are common culprits.
-* **Allergies:** Pollen, dust mites, pet dander, and mold can trigger allergic reactions.
-* **Respiratory infections:** Pneumonia, bronchitis, and sinusitis can also cause congestion.
-* **Medications:** Some medications, such as decongestants, can cause congestion.
-* **Environmental factors:** Cold air, dry weather, and smoke can irritate the nasal passages.
-**Treatment options:**
-* **Rest:** Getting enough sleep and rest is crucial for your body to fight off infections.
-* **Hydration:** Drinking plenty of fluids, especially water, helps thin mucus and makes it easier to clear.
-* **Humidifier:** Using a humidifier can add moisture to the air, which can help relieve congestion.
-* **Saline</t>
+          <t xml:space="preserve">
+I understand you're looking for relief from congestion.  I'm an AI and can't give medical advice, but I can offer some general information and suggestions. 
+**First, it's crucial to understand that congestion can have many causes, from a simple cold to allergies or even a more serious condition.**  
+**Here are some general things you can try to relieve congestion:**
+**1. Hydration:**
+* **Drink plenty of fluids:** Water, broth, herbal teas, and even warm lemon water can help thin mucus and make it easier to clear.
+**2. Humidifier:**
+* **Use a humidifier:** Adding moisture to the air can help loosen mucus and make breathing easier.
+**3. Saline Rinse:**
+* **Use a saline nasal spray or rinse:** This can help clear out nasal passages and reduce inflammation.
+**4. Over-the-Counter Medications:**
+* **Decongestants:** These can help shrink swollen blood vessels in the nasal passages, but use them cautiously as they can have side effects.
+* **Antihistamines:** These can help reduce allergy-related congestion.
+* **Expectorants:** These can help thin mucus and make it easier to cough up.
+**5. Warm Compress:**
+* **Apply a warm compress to your forehead or sinuses:** This can help relieve pressure and pain.
+**6. Rest:**
+* **Get plenty of rest:** Your body needs time to fight off whatever is causing your congestion.
+**7. Avoid Irritants:**
+* **Stay away from smoke, dust, and other irritants:** These can worsen congestion.
+**8. Elevate Your Head:**
+* **Sleep with your head elevated:** This can help drain mucus from your sinuses.
+**9. Consider Natural Remedies:**
+* **Steam inhalation:** Inhaling steam from a bowl of hot water can help loosen mucus.
+* **Honey:** A spoonful of honey can soothe a sore throat and help thin mucus.
+**Important:**
+* **Consult a doctor if:** Your congestion is severe, lasts for more than a week, is accompanied by fever, headache, or other concerning symptoms.
+* **Be cautious with medications:** Always follow the directions on the label and consult a doctor if you have any concerns.
+* **Don't self-diagnose:**  It's important to get a proper diagnosis from a medical professional to ensure you're receiving the right treatment.
+Remember, I'm an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0.125</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1127,21 +1228,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Are lutein and omega 3 good for vision ?
-**Answer:**
-As a wise doctor, I can tell you that lutein and omega-3 fatty acids are indeed beneficial for vision, but it's important to understand the nuances of their roles. 
-**Lutein:**
-* **Function:**  Lutein is a powerful antioxidant that protects the macula, the central part of the retina responsible for sharp, central vision. It helps prevent damage from free radicals, which are unstable molecules that can harm cells.
-* **Benefits:**  Lutein has been shown to reduce the risk of age-related macular degeneration (AMD), a leading cause of vision loss in older adults. It may also help with other eye conditions like cataracts and dry eye.
-* **Sources:**  Lutein is found in leafy green vegetables like spinach, kale, and collard greens, as well as eggs, and some fruits and vegetables.
-**Omega-3 Fatty Acids:**
-* **Function:**  Omega-3 fatty acids, particularly DHA (docosahexaenoic acid), are essential fats that play a crucial role in the structure and function of the retina. They are vital for healthy vision and overall eye health.
-* **Benefits:**  DHA is a key component of the retina</t>
+          <t xml:space="preserve">
+Ah, a question that touches on the very essence of sight!  Let me tell you, lutein and omega-3 fatty acids are indeed powerful allies in maintaining healthy vision. 
+**Lutein and Zeaxanthin: The Eye's Protective Duo**
+Lutein and zeaxanthin are carotenoids, pigments that give fruits and vegetables their vibrant colors.  They are found in high concentrations in the macula, the central part of the retina responsible for sharp, detailed vision.  
+Here's how they benefit your eyes:
+* **Antioxidant Powerhouse:**  They act as antioxidants, protecting your macula from damage caused by free radicals, which are unstable molecules that can contribute to age-related macular degeneration (AMD).
+* **UV Protection:**  They absorb harmful blue light and protect your eyes from the sun's damaging rays.
+* **Visual Clarity:**  They help filter out scattered light, improving contrast and clarity, especially in low light conditions.
+**Omega-3 Fatty Acids: The Building Blocks of Vision**
+Omega-3 fatty acids, particularly DHA (docosahexaenoic acid) and EPA (eicosapentaenoic acid), are essential fats that play a crucial role in the structure and function of your eyes.
+Here's how they contribute to healthy vision:
+* **Cell Membrane Integrity:**  They help maintain the structural integrity of your eye cells, ensuring proper function.
+* **Retinal Development:**  DHA is a key component of the retina, contributing to its development and function.
+* **Blood Flow Regulation:**  Omega-3s can help regulate blood flow to the eyes, ensuring adequate oxygen and nutrient supply.
+* **Anti-inflammatory Effects:**  They have anti-inflammatory properties, which can help reduce inflammation in the eyes and potentially protect against age-related macular degeneration.
+**Combining the Power of Lutein and Omega-3**
+The best way to reap the benefits of lutein and omega-3 for your vision is to consume them together.  
+* **Dietary Sources:**  Include plenty of leafy green vegetables (like spinach and kale), eggs, fish (especially fatty fish like salmon and tuna), and nuts in your diet.
+* **Supplementation:**  If you're concerned about your intake, consider taking lutein and zeaxanthin supplements, and omega-3 supplements like fish oil.
+**Important Considerations**
+* **Individual Needs:**  The optimal dosage of lutein and omega-3 for vision health varies depending on age, lifestyle, and existing eye conditions.  Consult with your doctor or a registered dietitian to determine the best approach for you.
+* **Underlying Conditions:**  If you have any eye conditions, such as AMD, it's crucial to discuss your dietary choices and supplement use with your ophthalmologist.
+Remember, maintaining healthy vision is a lifelong endeavor.  By incorporating lutein and omega-3 into your diet and lifestyle, you can significantly contribute to your eye health and enjoy clear, vibrant vision for years to come. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1181,26 +1295,47 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Are the stomach flu and the flu the same thing?
-**Answer:**
-The terms "stomach flu" and "flu" are often used interchangeably, but they actually refer to different illnesses. 
-**Here's a breakdown:**
-* **The Flu (Influenza):** This is a respiratory illness caused by the influenza virus. It primarily affects the respiratory system, causing symptoms like fever, cough, sore throat, runny nose, and muscle aches. 
-* **Stomach Flu (Gastroenteritis):** This is an inflammation of the stomach and intestines, often caused by a virus, bacteria, or parasites. It can cause symptoms like nausea, vomiting, diarrhea, abdominal cramps, and fever.
+          <t xml:space="preserve">
+You're right to be curious about the differences between the stomach flu and the flu! While they share some similarities, they are distinct illnesses with different causes and symptoms. 
+Here's a breakdown:
+**Stomach Flu (Norovirus):**
+* **Cause:** A highly contagious virus, not a bacteria or a fungus. 
+* **Symptoms:** Primarily affects the stomach and intestines, leading to:
+    * Vomiting
+    * Diarrhea
+    * Nausea
+    * Abdominal cramps
+    * Fever (often mild)
+* **Transmission:**  Highly contagious through contact with contaminated surfaces, food, or water. It's also spread through person-to-person contact.
+* **Duration:** Typically lasts 1-3 days, but can be longer.
+**The Flu (Influenza):**
+* **Cause:** A virus that infects the respiratory system.
+* **Symptoms:** Primarily affects the respiratory system, leading to:
+    * Fever
+    * Cough
+    * Sore throat
+    * Runny nose
+    * Muscle aches
+    * Headache
+    * Fatigue
+* **Transmission:** Spread through droplets from coughs and sneezes.
+* **Duration:** Typically lasts 3-7 days, but can be longer.
 **Key Differences:**
-* **Location of Symptoms:** Flu primarily affects the respiratory system, while stomach flu affects the digestive system.
-* **Symptoms:** Flu symptoms include fever, cough, sore throat, and muscle aches. Stomach flu symptoms include nausea, vomiting, diarrhea, and abdominal cramps.
-* **Cause:** Flu is caused by the influenza virus, while stomach flu can be caused by various pathogens.
+* **Target Organ:** Stomach flu primarily affects the stomach and intestines, while the flu primarily affects the respiratory system.
+* **Symptoms:** Stomach flu is characterized by vomiting and diarrhea, while the flu is characterized by fever, cough, and sore throat.
+* **Treatment:**  Stomach flu is treated with rest, fluids, and over-the-counter medications for nausea and diarrhea. The flu is treated with rest, fluids, and over-the-counter medications for fever and aches. Antiviral medications may be prescribed for severe cases.
 **Important Note:**
-While stomach flu and the flu are distinct illnesses, they can sometimes be confused.  If you experience symptoms of both, it's important to consult a doctor for</t>
+* **Both illnesses can be serious, especially for young children, older adults, and people with underlying health conditions.**
+* **It's important to see a doctor if you experience severe symptoms or if you have concerns about your health.**
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1243,30 +1378,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Are there any side affects from using Robaxin? 
-**Please provide a comprehensive answer, including:**
-* **What is Robaxin?**
-* **What are the potential side effects?**
-* **Who should avoid using Robaxin?**
-* **How to minimize side effects?**
-* **When to seek medical attention?**
-**Note:** I understand that you are an AI and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Robaxin: A Comprehensive Overview
-**What is Robaxin?**
-Robaxin is the brand name for the drug **methocarbamol**, a muscle relaxant. It is used to treat muscle spasms and pain caused by conditions like:
-* **Muscle strains and sprains**
-* **Back pain**
-* **Neck pain**
-* **Headaches**
-* **Muscle stiffness**
-* **Spasticity** (a condition affecting muscle tone)
-**Potential Side Effects:**
-While generally safe, Robaxin can cause side effects. These can range from mild to severe and may vary from</t>
+          <t xml:space="preserve">
+I understand you're curious about potential side effects of Robaxin.  It's great you're thinking about this! 
+**Robaxin (methocarbamol) is a muscle relaxant used to treat muscle spasms and pain.** It's important to remember that I am an AI and cannot give medical advice.  **Always consult with a doctor or pharmacist for personalized guidance.**
+That said, here's what I can tell you about potential side effects based on general medical knowledge:
+**Common Side Effects:**
+* **Drowsiness:** This is the most common side effect, especially when starting Robaxin. 
+* **Dizziness:**  This can occur, especially when first starting or changing dosage.
+* **Nausea:** Some people experience nausea, especially when taking Robaxin with food.
+* **Headache:**  Headaches can be a side effect, but they are usually mild.
+* **Fatigue:**  Feeling tired or weak is another possible side effect.
+**Less Common Side Effects:**
+* **Constipation:**  Robaxin can slow down bowel movements.
+* **Dry mouth:**  This is a common side effect of many medications.
+* **Blurred vision:**  This can occur, especially in people with pre-existing vision problems.
+* **Muscle weakness:**  This is a rare but possible side effect.
+**Serious Side Effects:**
+* **Liver problems:**  Robaxin can cause liver damage, so it's important to tell your doctor if you have any liver problems.
+* **Kidney problems:**  Robaxin can also affect kidney function, so it's important to tell your doctor if you have any kidney problems.
+* **Allergic reactions:**  Some people may have allergic reactions to Robaxin, which can be serious.
+**Important Considerations:**
+* **Dosage:**  The dosage of Robaxin will vary depending on the individual and the condition being treated.
+* **Duration of use:**  It's important to use Robaxin only as directed by your doctor.
+* **Interactions:**  Robaxin can interact with other medications, so it's important to tell your doctor about all the medications you are taking.
+* **Pregnancy and breastfeeding:**  It's important to talk to your doctor before taking Robaxin if you are pregnant or breastfeeding.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a healthcare professional for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1305,26 +1446,36 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Are there more than one type of nausea medication?
-**Answer:**
-You're absolutely right to ask! There are indeed many different types of nausea medications, each with its own mechanism of action and intended use. 
-Here's a breakdown of some common categories:
+          <t xml:space="preserve">
+You're absolutely right to ask!  There are indeed many types of nausea medications, each with its own mechanism of action and best uses.  
+Here's a breakdown of the main categories:
 **1. Antihistamines:**
-   * **Mechanism:** Block the action of histamine, a chemical released during allergic reactions that can contribute to nausea.
-   * **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Promethazine (Phenergan)
-   * **Use:** Primarily for motion sickness, but can also be used for nausea caused by pregnancy, chemotherapy, and other conditions.
+* **Mechanism:** Block the action of histamine, a chemical released during allergic reactions and inflammation. This can help reduce nausea associated with motion sickness, migraines, and some digestive issues.
+* **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Promethazine (Phenergan)
+* **Considerations:** Can cause drowsiness, dry mouth, and blurred vision.
 **2. Anti-emetics:**
-   * **Mechanism:**  Work on the central nervous system to suppress vomiting.
-   * **Examples:** Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend)
-   * **Use:**  Effective for nausea and vomiting associated with chemotherapy, surgery, and other medical procedures.
-**3. Anticholinergics:**
-   * **Mechanism:** Block the action of acetylcholine, a neurotransmitter involved in the vomiting reflex.
-   * **Examples:** Scopolamine (Transderm</t>
+* **Mechanism:**  These medications work on the central nervous system to suppress vomiting. They can be divided into:
+    * **Serotonin antagonists and reuptake inhibitors (5-HT3 receptor antagonists):** Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend)
+    * **Dopamine antagonists:** Metoclopramide (Reglan)
+    * **Other:** Prochlorperazine (Compazine), Chlorpromazine (Thorazine)
+* **Considerations:**  Some anti-emetics can cause dizziness, fatigue, and constipation.
+**3. Other Medications:**
+* **Anti-anxiety medications:** Benzodiazepines like diazepam (Valium) can help reduce anxiety, which can contribute to nausea.
+* **Anti-depressants:** Some antidepressants, like tricyclic antidepressants, can also be used to treat nausea.
+* **Ginger:**  A natural remedy that can be effective for nausea, especially in cases of motion sickness.
+* **Peppermint oil:**  Another natural remedy that can help with nausea.
+**Choosing the Right Medication:**
+The best type of nausea medication for you will depend on the cause of your nausea and your individual medical history. 
+**Important Notes:**
+* **Always consult with a doctor:**  It's crucial to discuss your symptoms and medical history with a doctor before taking any medication. They can help determine the underlying cause of your nausea and recommend the most appropriate treatment.
+* **Follow dosage instructions:**  Taking the correct dosage of medication is essential for effectiveness and safety.
+* **Be aware of potential side effects:**  All medications can have side effects. Be sure to discuss any concerns with your doctor.
+I hope this information is helpful! Remember, I'm not a substitute for professional medical advice. Always consult with a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1369,20 +1520,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Are there other medications similar to the buspirone?
-Buspirone is an anxiolytic medication used to treat anxiety disorders. It is a serotonin partial agonist, meaning it activates serotonin receptors in the brain but doesn't fully mimic the effects of serotonin. 
-I'm looking for medications that are similar to buspirone in terms of their mechanism of action, side effects, and effectiveness.
-##  What I know about Buspirone:
-* **Mechanism of Action:** Serotonin partial agonist, activates serotonin receptors in the brain.
-* **Side Effects:** Nausea, dizziness, drowsiness, headache, fatigue, dry mouth, constipation, and anxiety.
-* **Effectiveness:**  Effective for generalized anxiety disorder (GAD) but may not be as effective as benzodiazepines for acute anxiety.
-##  What I'm looking for:
-* **Similar Mechanism of Action:**  Other medications that activate serotonin receptors in the brain.
-* **Similar Side Effects:** Medications with similar side effect profiles.
-* **Similar Effectiveness:** Medications with comparable effectiveness for GAD.
-**Please note:** I am not a medical professional and this information is for educational purposes only. Always consult with a qualified healthcare provider for diagnosis and treatment.
-Let's discuss the potential alternatives. 
+          <t xml:space="preserve">
+It's great you're interested in exploring options for anxiety management!  Buspirone is a unique medication, and while there are other options, it's important to remember that **I am not a medical professional and cannot give medical advice.**  
+Here's what I can tell you about medications similar to buspirone:
+**Similar Mechanisms of Action:**
+* **Serotonin Antagonists:** Buspirone is a serotonin antagonist, meaning it blocks serotonin receptors in the brain.  Other medications in this class include:
+    * **Citalopram (Celexa):** A selective serotonin reuptake inhibitor (SSRI) that also works on serotonin receptors.
+    * **Escitalopram (Lexapro):** Another SSRI with similar mechanisms to citalopram.
+    * **Fluoxetine (Prozac):** Another SSRI, often used for depression but also effective for anxiety.
+    * **Paroxetine (Paxil):** Another SSRI, often used for depression and anxiety.
+* **Benzodiazepines:** These are a class of drugs that enhance the effects of GABA, a neurotransmitter that calms the brain.  While they are effective for short-term anxiety relief, they can be habit-forming and have side effects.  Examples include:
+    * **Alprazolam (Xanax):** A short-acting benzodiazepine used for anxiety and panic attacks.
+    * **Diazepam (Valium):** A long-acting benzodiazepine used for anxiety and muscle spasms.
+    * **Lorazepam (Ativan):** A short-acting benzodiazepine used for anxiety and insomnia.
+**Important Considerations:**
+* **Individual Needs:** The best medication for you will depend on your specific symptoms, medical history, and other factors. 
+* **Side Effects:** All medications have potential side effects.  Buspirone can cause drowsiness, dizziness, and nausea.  Other medications can have different side effects.
+* **Drug Interactions:** Some medications can interact with each other, so it's important to tell your doctor about all the medications you are taking.
+* **Long-Term Use:** Some medications, like SSRIs, are often used for long-term anxiety management.  Others are used for short-term relief.
+**What to Do:**
+* **Talk to your doctor:** The best way to find the right medication for you is to discuss your symptoms and concerns with your doctor. They can help you weigh the risks and benefits of different options and determine the best course of treatment.
+* **Be open and honest:** Tell your doctor about any other medications you are taking, including over-the-counter drugs and supplements.
+* **Ask questions:** Don't be afraid to ask your doctor any questions you have about your medication.
+Remember, finding the right medication for anxiety is a journey. It may take some time to find the right fit for you.  Be patient, work closely with your doctor, and don't hesitate to ask for help. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1430,20 +1590,30 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Back pain could be because Im starting my cycle in 2 days but I dont know?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's understandable that you're experiencing back pain, especially as your cycle is approaching.  While it's not uncommon for back pain to occur during your period, it's important to remember that there are many other potential causes. 
-Here's a breakdown of why back pain might be happening and what you can do:
-**Possible Causes of Back Pain During Your Cycle:**
-* **Hormonal Fluctuations:**  Your body experiences significant hormonal shifts during your cycle, which can affect muscle tension, ligaments, and even the discs in your spine. This can lead to pain, especially in the lower back.
+          <t xml:space="preserve">
+I understand you're experiencing back pain and wondering if it's related to your upcoming period. While it's a common concern, I can't provide medical advice. 
+Here's what I can tell you about the connection between menstruation and back pain:
+**Possible Reasons for Back Pain During Your Cycle:**
+* **Hormonal Fluctuations:**  The surge in estrogen and progesterone during your cycle can cause muscle tension, particularly in the lower back. This can lead to pain, stiffness, and even headaches.
 * **Increased Pressure on the Pelvis:**  As your uterus expands during your period, it can put pressure on your lower back, causing discomfort.
-* **Muscle Strain:**  If you've been engaging in strenuous activities or have a sedentary lifestyle, you might be more prone to muscle strain in your</t>
+* **Changes in Posture:**  Some women experience changes in their posture during their cycle, which can contribute to back pain.
+* **Other Underlying Conditions:**  While less common, back pain can be a symptom of other conditions like endometriosis, fibroids, or even arthritis.
+**Important Considerations:**
+* **Individual Variation:**  Everyone experiences their cycle differently. Some women experience minimal discomfort, while others have more pronounced symptoms.
+* **Other Factors:**  Your back pain could be caused by other factors unrelated to your cycle, such as poor posture, lifting heavy objects, or even stress.
+* **Severity:**  If your back pain is severe, persistent, or accompanied by other symptoms like fever, nausea, or bleeding, it's crucial to consult a doctor.
+**What to Do:**
+* **Keep Track:**  Note down when your back pain occurs, its intensity, and any other symptoms you experience. This information can be helpful for your doctor.
+* **Over-the-Counter Pain Relief:**  Ibuprofen or acetaminophen can help manage mild back pain.
+* **Gentle Exercise:**  Light stretching and gentle exercise can help improve blood flow and reduce muscle tension.
+* **Heat or Cold Therapy:**  Applying heat or cold packs to the affected area can provide temporary relief.
+* **Consult a Doctor:**  If your back pain is severe, persistent, or accompanied by other symptoms, it's essential to seek medical advice. 
+**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1487,25 +1657,30 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Because I have a fatty liver, can I safely take Imodium?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns.
-**Answer:**
-I understand your concern about taking Imodium with a fatty liver. It's great that you're being proactive about your health! 
-However, I need to emphasize that **I cannot give medical advice**.  
-Here's why it's important to talk to your doctor about this:
-* **Individualized Treatment:**  Fatty liver disease is a complex condition, and treatment varies depending on the severity and underlying causes. Your doctor can assess your specific situation and recommend the best course of action.
-* **Potential Interactions:**  Imodium (loperamide) is a medication that can interact with other medications and conditions. Your doctor can ensure that it's safe for you to take, especially if you have other health issues.
-* **Underlying Causes:**  Fatty liver disease can be caused by various factors, including diet, alcohol consumption, and genetics. Your doctor can help identify the cause and recommend appropriate lifestyle changes or treatments.
-**What to tell your doctor:**
-* **Your diagnosis:**  Be</t>
+          <t xml:space="preserve">
+I understand you're concerned about your fatty liver and wondering if Imodium is safe to take.  
+**I must strongly emphasize that I am not a medical professional and cannot give medical advice.**  
+However, I can provide some general information about fatty liver and medications. 
+**Here's what you need to know:**
+* **Fatty liver disease (FLD)** is a condition where fat builds up in the liver. It can be caused by various factors, including obesity, diabetes, and high cholesterol. 
+* **Imodium (loperamide)** is an over-the-counter medication used to treat diarrhea. It works by slowing down the movement of food through your intestines.
+* **Potential interactions:** While Imodium is generally considered safe for most people, it can interact with certain medications and conditions.  It's crucial to discuss any medications you're taking, including over-the-counter drugs, with your doctor or pharmacist, especially if you have a fatty liver. 
+**Why it's important to talk to your doctor:**
+* **Individualized care:** Your doctor can assess your specific situation, including the severity of your fatty liver, any other health conditions you have, and any medications you're currently taking. 
+* **Potential risks:**  Taking Imodium without your doctor's guidance could potentially worsen your fatty liver or interact with other medications. 
+* **Alternative treatments:** Your doctor can recommend the best course of action for managing your fatty liver, which may include lifestyle changes, dietary modifications, and other medications.
+**Remember:**  Always consult with your doctor before taking any new medication, even over-the-counter ones. They are your best resource for personalized medical advice. 
+**Here are some additional resources you may find helpful:**
+* **The American Liver Foundation:** https://liverfoundation.org/
+* **The National Institute of Diabetes and Digestive and Kidney Diseases:** https://www.niddk.nih.gov/ 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1543,16 +1718,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Benadryl makes me super sleepy can I take like Claritin during the day?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
+          <t xml:space="preserve">
 It's great that you're thinking about managing your allergies and side effects!  
-Here's the breakdown:
-* **Benadryl (Diphenhydramine) and its drowsiness:** Benadryl is a first-generation antihistamine known for its potent antihistamine properties. It also has significant sedative effects, which is why it can make you sleepy. 
-* **Claritin (Loratadine) and its effects:** Claritin is a second-generation antihistamine. It's generally considered to be less sedating than Benadryl. 
-* **Taking Claritin during the day:**  While Claritin is generally well-tolerated, it's important to be aware of potential side effects.  Some people may still experience drowsiness, especially when first starting the medication. 
-* **Individual variation:**  Everyone reacts differently to medications. What works for one person may not work for another</t>
+Here's the thing about Benadryl and Claritin:
+* **Benadryl (Diphenhydramine)** is a first-generation antihistamine. It's very effective at blocking histamine, which is the chemical your body releases during allergic reactions. However, it's also a potent sedative, which is why you're experiencing drowsiness. 
+* **Claritin (Loratadine)** is a second-generation antihistamine. It's less likely to cause drowsiness than Benadryl. 
+**Taking Claritin during the day is generally safe and effective for managing allergies.**  
+**Here's what you should consider:**
+* **Your individual sensitivity:** Some people are more sensitive to antihistamines than others. If you're prone to drowsiness, Claritin might be a better choice.
+* **Severity of your allergies:** If your allergies are mild, Claritin might be sufficient. If your allergies are severe, you may need to consider other options.
+* **Other medications:** Claritin can interact with certain medications, so it's important to talk to your doctor or pharmacist about any other medications you're taking.
+**Important:**
+* **Always consult your doctor:**  It's crucial to discuss your allergy symptoms and medication options with your doctor. They can help you determine the best course of treatment for your specific needs.
+* **Follow dosage instructions:**  Always take your medication as directed by your doctor or pharmacist. 
+* **Be aware of potential side effects:**  While Claritin is generally well-tolerated, it can cause side effects like dizziness, headache, and dry mouth. 
+Remember, managing allergies is a personal journey. Finding the right medication and dosage that works for you is key. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1599,24 +1780,31 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: But is testicular pain not a symptom of chlamydia?
-**Answer:**
-You're right to be curious about testicular pain and chlamydia. It's a common concern, and it's good to be aware of the connection. 
-Here's the breakdown:
-**Testicular pain can be a symptom of chlamydia, but it's not always the case.**
-* **Chlamydia's Impact:** Chlamydia is a bacterial infection that can cause inflammation in the reproductive organs, including the testicles. This inflammation can lead to pain, discomfort, and even swelling.
-* **Other Causes:**  It's important to remember that testicular pain can be caused by a variety of other factors, including:
-    * **Epididymitis:** Inflammation of the epididymis, a tube that carries sperm.
-    * **Orchitis:** Inflammation of the testicle.
-    * **Testicular torsion:** A twisting of the spermatic cord, which can cut off blood flow to the testicle.
-    * **Inguinal hernia:** A protrusion of abdominal tissue through the inguinal canal.
-    * **Trauma:** Injury to the testicles.
-    * **Infections:** Other infections, such as mumps or sexually transmitted infections (STIs) besides</t>
+          <t xml:space="preserve">
+You're right to be curious about testicular pain and chlamydia. It's a common question, and the answer is **yes, testicular pain can be a symptom of chlamydia**. 
+Here's a breakdown of why:
+* **Chlamydia's Impact:** Chlamydia is a sexually transmitted infection (STI) caused by the bacterium *Chlamydia trachomatis*. It primarily affects the reproductive organs, including the urethra, cervix, and rectum.  
+* **Testicular Involvement:** While chlamydia is most commonly associated with urethritis (inflammation of the urethra), it can also affect the testicles. This is less common but can occur.
+* **Pain Mechanisms:**  The pain associated with testicular chlamydia can be caused by:
+    * **Inflammation:** The infection can cause inflammation in the testicles, leading to pain.
+    * **Swollen Epididymis:** The epididymis, a tube that carries sperm, can become swollen and painful due to the infection.
+    * **Fluid Buildup:** The infection can cause fluid to build up in the scrotum, leading to discomfort.
+* **Other Symptoms:**  Besides testicular pain, chlamydia can also cause:
+    * **Discharge:** A discharge from the penis or testicles.
+    * **Burning Sensation:** A burning sensation during urination.
+    * **Painful Urination:** Difficulty urinating or pain during urination.
+    * **Fever:** A low-grade fever.
+    * **Swollen Lymph Nodes:** Swollen lymph nodes in the groin area.
+**Important Notes:**
+* **Early Detection is Key:**  Chlamydia is often asymptomatic, meaning people can have it without experiencing any symptoms. This is why regular STI testing is crucial, especially for sexually active individuals.
+* **Seek Medical Attention:** If you experience any of the symptoms mentioned above, it's essential to see a doctor for diagnosis and treatment. 
+* **Treatment:** Chlamydia is easily treatable with antibiotics. 
+**Remember:**  It's always best to consult with a healthcare professional for any health concerns. They can provide personalized advice and treatment based on your individual situation. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1653,34 +1841,31 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: But what is colchicine?
-## Colchicine: A Powerful Tool Against Inflammation
-Colchicine is a natural compound derived from the autumn crocus (Colchicum autumnale), a plant native to Europe and Asia. It's been used for centuries in traditional medicine for its anti-inflammatory and analgesic properties. 
-**How it Works:**
-Colchicine primarily works by inhibiting the production of inflammatory mediators, such as cytokines and prostaglandins. These mediators are responsible for the pain, swelling, and redness associated with inflammation. 
-**Uses:**
-* **Acute Gout:** Colchicine is a first-line treatment for acute gout attacks, effectively reducing pain and inflammation.
-* **Other Inflammatory Conditions:** It's also used to manage other inflammatory conditions like:
-    * Behçet's disease
-    * Familial Mediterranean fever
-    * Cryopyrin-associated periodic syndromes
-    * Certain types of arthritis
-* **Prevention:** Colchicine can be used to prevent recurrent gout attacks in individuals with a history of the condition.
-**Side Effects:**
-While generally safe, colchicine can cause side effects, including:
-* Nausea
-* Vomiting
-* Diarrhea
-* Abdominal pain
-* Headache
-* Dizziness
-* Fatigue
-*</t>
+          <t xml:space="preserve">
+Ah, a question about colchicine! A fascinating and effective medication, indeed. 
+Let me tell you, colchicine is a medication with a long history, dating back to the 19th century. It's a natural compound derived from the autumn crocus plant, *Colchicum autumnale*.  
+Here's a breakdown of what you need to know:
+**What it does:**
+* **Anti-inflammatory:**  Colchicine's primary action is to reduce inflammation. It works by blocking the production of certain chemicals called cytokines, which are involved in the inflammatory response.
+* **Pain relief:**  It's particularly effective in relieving pain associated with inflammatory conditions like gout. 
+* **Other uses:**  While primarily known for gout, colchicine is also used to treat:
+    * **Acute gout attacks:**  It can significantly reduce the pain and swelling associated with these attacks.
+    * **Other inflammatory conditions:**  It can be used to treat conditions like Behçet's disease, familial Mediterranean fever, and certain types of arthritis.
+**How it works:**
+Colchicine works by interfering with the movement of certain molecules within cells. This disruption affects the inflammatory process, reducing the production of inflammatory chemicals and thus, the pain and swelling.
+**Important considerations:**
+* **Dosage:**  The dosage of colchicine varies depending on the condition being treated and the individual patient. It's crucial to follow your doctor's instructions carefully.
+* **Side effects:**  While generally safe, colchicine can cause side effects like nausea, vomiting, diarrhea, and abdominal pain. In rare cases, it can also cause liver damage.
+* **Interactions:**  Colchicine can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
+* **Contraindications:**  Colchicine is not suitable for everyone. It's contraindicated in individuals with certain medical conditions, such as liver disease, kidney disease, and severe heart problems.
+**In summary:**
+Colchicine is a powerful anti-inflammatory medication that effectively treats gout and other inflammatory conditions. It works by blocking the production of inflammatory chemicals, reducing pain and swelling. However, it's important to use it under the guidance of a healthcare professional and be aware of potential side effects and interactions.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1724,18 +1909,31 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can Clindamyam be used to treat a UTI?
-**Answer:**
-As a wise doctor, I can tell you that Clindamycin is an antibiotic, and it's effective against certain bacteria, but it's **not** the first-line treatment for UTIs. 
-Here's why:
-* **UTIs are caused by bacteria, but not all bacteria are the same.**  Clindamycin is effective against some bacteria, but not all.  The most common bacteria causing UTIs are *Escherichia coli* (E. coli), and Clindamycin is not always effective against E. coli.
-* **Clindamycin can cause side effects.**  These can include diarrhea, nausea, and allergic reactions. 
-* **There are other antibiotics that are more effective for UTIs.**  These include trimethoprim-sulfamethoxazole (TMP-SMX), nitrofurantoin, and fosfomycin.
-**What to do if you suspect a UTI:**
-1. **See a doctor.**  They can diagnose the infection and prescribe the appropriate treatment.
-2. **Don't self-medicate.**  Taking antibiotics without a doctor's prescription can be dangerous.
-3. **Follow your doctor's instructions carefully.**  </t>
+          <t xml:space="preserve">
+You're asking a great question about a common concern!  Let's break down how Clindamycin is used for UTIs.
+**Clindamycin: A Powerful Antibiotic**
+Clindamycin is a powerful antibiotic that belongs to a class called lincosamides. It's effective against a wide range of bacteria, including those that cause UTIs. 
+**UTIs: A Common Infection**
+Urinary tract infections (UTIs) are infections that occur in any part of the urinary system, including the kidneys, ureters, bladder, and urethra. They are often caused by bacteria, particularly E. coli.
+**Clindamycin for UTIs: When It's Used**
+Clindamycin is often used to treat UTIs, particularly those caused by bacteria resistant to other antibiotics.  Here's why:
+* **Broad Spectrum:** It's effective against a variety of bacteria, including those that cause UTIs.
+* **Oral and Intravenous:** It can be taken orally or intravenously, depending on the severity of the infection and the patient's condition.
+* **Good for Resistant Infections:**  It's often a good choice when other antibiotics haven't been effective.
+**Important Considerations**
+* **Not Always the First Choice:** While effective, Clindamycin isn't always the first-line treatment for UTIs.  Your doctor will consider factors like the severity of the infection, your medical history, and potential side effects.
+* **Potential Side Effects:** Like all antibiotics, Clindamycin can cause side effects, including:
+    * Diarrhea
+    * Nausea
+    * Vomiting
+    * Stomach pain
+    * Yeast infections
+    * Allergic reactions
+* **Important to Complete the Course:** It's crucial to complete the full course of antibiotics prescribed by your doctor, even if you start feeling better before finishing. This ensures that all bacteria are eliminated and prevents the infection from returning.
+**When to See a Doctor**
+If you suspect you have a UTI, it's important to see a doctor for proper diagnosis and treatment.  They can determine the cause of your symptoms and prescribe the most appropriate medication.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1781,17 +1979,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can I take Zyrtec and benedryl at the same time?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great that you're being proactive about your health!  However, I can't give you medical advice. 
-**Here's why:**
-* **Drug interactions:**  Zyrtec (cetirizine) and Benadryl (diphenhydramine) can interact with each other and other medications you might be taking. This can lead to side effects or reduced effectiveness of either medication.
-* **Individual factors:**  Your specific medical history, allergies, and other medications you're taking can influence whether it's safe to take both at the same time. 
-**What you should do:**
-1. **Talk to your doctor or pharmacist:** They are the best resources for information about your specific situation. They can assess your individual needs and advise you on whether it's safe to take both medications together.
-2. **Read the labels:**  Always check the labels of your medications for potential</t>
+          <t xml:space="preserve">
+I understand you're looking for information about combining Zyrtec and Benadryl.  While I can provide general information, I am not a medical professional and cannot give medical advice. 
+**It's crucial to consult with your doctor or pharmacist before combining any medications.** 
+Here's what I can tell you generally:
+* **Zyrtec (cetirizine)** is an antihistamine used to treat allergies. It works by blocking the effects of histamine, a chemical released by your body during an allergic reaction.
+* **Benadryl (diphenhydramine)** is also an antihistamine, but it's a first-generation antihistamine that can cause drowsiness. 
+* **Potential Interactions:** Combining Zyrtec and Benadryl could potentially lead to increased drowsiness, especially if you take them at the same time. 
+* **Individual Factors:**  The potential for interactions depends on your individual health history, other medications you're taking, and your specific allergies.
+**Why it's important to talk to your doctor:**
+* **They know your medical history:** Your doctor has a complete picture of your health and can assess any potential risks or interactions.
+* **They can provide personalized advice:** They can recommend the best course of treatment for your specific needs.
+* **They can monitor your progress:** Your doctor can monitor your response to the medications and make adjustments as needed.
+**Remember:**  Always prioritize your health and safety by consulting with a medical professional before making any decisions about your medications. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1835,20 +2036,23 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can I take anything with the antibiotic like pepto bismol or Tylenol as needed?
-**Answer:**
-As a wise doctor, I can tell you that it's great you're thinking about how to manage your symptoms while taking antibiotics.  However, it's crucial to understand that **I cannot give medical advice.**  
-Here's what I can tell you about the common over-the-counter medications you mentioned:
-* **Pepto-Bismol (Bismuth subsalicylate):** This is an anti-diarrheal medication. It can be helpful for some people experiencing diarrhea while on antibiotics, but it's not a substitute for the antibiotic itself. It can also interact with some antibiotics, so it's important to **check with your doctor or pharmacist** before taking it.
-* **Tylenol (Acetaminophen):** This is a pain reliever and fever reducer. It can be helpful for managing fever and discomfort associated with an infection, but it's not a substitute for the antibiotic. 
-**Here's why it's important to talk to your doctor:**
-* **Drug interactions:**  Some medications can interact with antibiotics, potentially reducing their effectiveness or causing harmful side effects. 
-* **Underlying conditions:** Your doctor knows your medical history and can advise you on the best course</t>
+          <t xml:space="preserve">
+I understand you're looking for information about taking Pepto-Bismol or Tylenol alongside your antibiotic.  While I can provide general information, **I am not a medical professional and cannot give medical advice.**  
+Here's what I can tell you:
+**It's crucial to consult your doctor or pharmacist before taking any over-the-counter medications with your antibiotics.**  
+Here's why:
+* **Drug Interactions:** Antibiotics and over-the-counter medications can interact in unpredictable ways. Some combinations can reduce the effectiveness of the antibiotic or cause harmful side effects.
+* **Individual Needs:** Your doctor knows your specific medical history, allergies, and the type of antibiotic you're taking. They can advise you on the best course of action for your individual situation.
+* **Underlying Conditions:** Certain conditions might make it unsafe to take certain medications together.
+**General Information:**
+* **Pepto-Bismol (Bismuth subsalicylate):** This medication is used to treat indigestion, diarrhea, and nausea. It can help with some side effects of antibiotics, but it's not a substitute for proper medical care.
+* **Tylenol (Acetaminophen):** This is a pain reliever and fever reducer. It can be used to manage fever and discomfort associated with antibiotics, but it's important to follow the recommended dosage.
+**Always prioritize your health and safety by consulting your doctor or pharmacist before taking any medications.** They can provide personalized advice based on your specific needs and medical history. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1891,19 +2095,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can I take nyquil and benedryl at the same time?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns.
-**Answer:**
-It's great that you're being proactive about your health! However, I can't give you medical advice. 
-**Here's why:**
-* **Drug interactions:** Combining medications, even over-the-counter ones, can have unexpected and potentially harmful interactions. 
-* **Individual needs:** Your specific medical history, allergies, and other medications you're taking all play a role in determining what's safe for you.
-**What you should do:**
-1. **Talk to your doctor or pharmacist:** They are the best resources for information about safe medication combinations. 
-2. **Read the labels carefully:** Pay attention to any warnings or instructions regarding potential interactions.
-3. **Be cautious:** If you're unsure, err on the side of caution and avoid mixing medications.
-Remember, your health is paramount. Don't hesitate to seek professional guidance when it comes to medication. 
+          <t xml:space="preserve">
+I understand you're looking for information about combining NyQuil and Benadryl. While I can provide general information, I am not a medical professional and cannot give medical advice. 
+**It's crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter drugs like NyQuil and Benadryl.**
+Here's what I can tell you generally:
+* **NyQuil** contains acetaminophen (fever reducer), dextromethorphan (cough suppressant), and doxylamine succinate (antihistamine).
+* **Benadryl** (diphenhydramine) is an antihistamine.
+**Potential Interactions:**
+* **Drowsiness:** Both NyQuil and Benadryl can cause drowsiness. Combining them could significantly increase the risk of drowsiness and potentially lead to accidents or impaired judgment.
+* **Liver Toxicity:** Acetaminophen is a liver-toxic drug. Taking too much acetaminophen can cause liver damage. 
+* **Other Interactions:** There may be other interactions between the ingredients in NyQuil and Benadryl that your doctor needs to be aware of.
+**Why it's important to talk to your doctor:**
+* **Individual Needs:** Your doctor knows your medical history, allergies, and current medications. They can assess if combining these medications is safe for you.
+* **Dosage:** The correct dosage of each medication is crucial to avoid potential side effects and interactions.
+* **Underlying Conditions:** Certain medical conditions may make it unsafe to combine these medications.
+**Remember:**
+* **Read the labels:** Always read the labels of all medications you take.
+* **Follow instructions:** Take medications as directed by your doctor or pharmacist.
+* **Seek professional advice:** If you have any questions or concerns about your medications, always consult with your doctor or pharmacist.
+Please prioritize your health and safety by seeking professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1946,20 +2156,23 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can a nausea prescription be taken at the same time as Dramamine?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great that you're being proactive about your health!  
-While I can't give medical advice, I can share some general information about medications and interactions. 
-**Here's what you should know:**
-* **Always consult your doctor or pharmacist:**  They are the best resources for information about your specific medications and potential interactions. 
-* **Drug interactions can be complex:**  Many factors can influence how medications interact, including dosage, individual health conditions, and other medications you're taking. 
-* **Some medications can be dangerous when combined:**  Certain drugs can have serious side effects or even be life-threatening when taken together. 
-* **Dramamine (dimenhydrinate) is an antihistamine:** It's commonly used to treat motion sickness.
-* **Nausea medications can vary:**  There are many different types of medications used to treat nausea, including antiemetics. 
-**What to do:**
-1. **Talk to your</t>
+          <t xml:space="preserve">
+I understand you're curious about combining medications, and that's a great question!  However, I must emphasize that I am an AI and cannot give medical advice.  
+**It is crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter options like Dramamine and prescription medications.** 
+Here's why:
+* **Drug interactions:**  Some medications can interact with each other, potentially causing harmful side effects or reducing the effectiveness of one or both drugs. 
+* **Individual factors:** Your medical history, allergies, and other medications you're taking can influence how your body reacts to a combination.
+* **Dosage:**  The correct dosage of each medication is essential for safety and effectiveness.
+**What your doctor or pharmacist can do:**
+* **Assess your specific situation:** They will consider your medical history, current medications, and any potential risks.
+* **Provide personalized advice:** They can advise you on whether combining the medications is safe and appropriate for you.
+* **Recommend alternative options:** If necessary, they can suggest alternative medications or dosage adjustments.
+**Remember:** Never self-medicate or change your medication regimen without consulting a healthcare professional. 
+**Here are some general points about Dramamine and nausea:**
+* **Dramamine (dimenhydrinate)** is an antihistamine that is commonly used to treat nausea and motion sickness.
+* **Prescription medications** for nausea may have different mechanisms of action and potential side effects. 
+**Please prioritize your health and safety by seeking professional medical advice.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2004,18 +2217,29 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can diabetics eat sweets?
-**Answer:**
-As a wise doctor, I can tell you that the answer to "Can diabetics eat sweets?" is not a simple yes or no. It's a complex question that depends on several factors. 
-Here's a breakdown:
-**1. Type of Diabetes:**
-* **Type 1 Diabetes:** People with Type 1 diabetes need to carefully manage their blood sugar levels. They often need to avoid or limit sweets and sugary foods due to the body's inability to produce insulin. 
-* **Type 2 Diabetes:**  People with Type 2 diabetes can often eat sweets in moderation. However, it's crucial to be mindful of portion sizes and the overall impact of sugar on their blood sugar levels.
-**2. Individual Needs:**
-* **Blood Sugar Control:**  The key is to monitor blood sugar levels closely. If a diabetic experiences a significant spike after eating sweets, they may need to adjust their diet or exercise routine.
-* **Medication:**  Some diabetics may need to adjust their medication dosage based on their blood sugar levels after consuming sweets.
-* **Overall Diet:**  A balanced diet is essential for managing diabetes. This includes plenty of fruits, vegetables, whole grains, and lean protein.</t>
+          <t xml:space="preserve">
+It's great you're asking about this!  It's a common question, and the answer is nuanced.  Here's what I, as a wise doctor, can tell you:
+**The short answer is: It depends.**  
+**Here's why:**
+* **Type 1 Diabetes:** People with type 1 diabetes need to carefully manage their blood sugar levels.  They often need to avoid sugary foods and drinks, as they can cause rapid spikes in blood sugar.  
+* **Type 2 Diabetes:**  People with type 2 diabetes can often eat sweets in moderation, but it's crucial to be mindful of portion sizes and the type of sugar. 
+* **Gestational Diabetes:**  Women who develop gestational diabetes during pregnancy need to be extra careful about their sugar intake.  
+**Here's what you need to consider:**
+* **Type of Sweet:**  
+    * **Natural Sugars:** Fruits, honey, and maple syrup contain natural sugars, but they also come with fiber and nutrients.  These can be part of a healthy diet in moderation.
+    * **Added Sugars:**  Sugary drinks, candies, and processed foods often contain high amounts of added sugar, which can cause blood sugar spikes.  
+* **Portion Size:**  Even healthy foods can raise blood sugar if eaten in large quantities.  
+* **Individual Needs:**  Every person with diabetes is different.  A doctor can help you determine the best diet for your specific needs.
+* **Blood Sugar Monitoring:**  Regular blood sugar monitoring is essential for managing diabetes.  This will help you understand how different foods affect your blood sugar levels.
+**Here are some tips for managing sweets with diabetes:**
+* **Read food labels carefully:** Pay attention to the amount of sugar in each serving.
+* **Choose whole, unprocessed foods:**  Fruits, vegetables, and lean protein are good choices.
+* **Limit sugary drinks:**  Water, unsweetened tea, and sparkling water are healthier alternatives.
+* **Be mindful of portion sizes:**  Even healthy foods can raise blood sugar if eaten in large quantities.
+* **Talk to your doctor or a registered dietitian:** They can help you create a personalized meal plan that meets your needs.
+**Remember:**  Managing diabetes is a lifelong journey.  It's important to work closely with your healthcare team to develop a plan that works for you. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical guidance.  Always consult with your doctor or a qualified healthcare professional for personalized advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2063,19 +2287,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can i take the painkiller and the antibiotics at the same time or wait hours in between ?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before taking any medication.
-**Answer:**
-It's great that you're being proactive about your health!  However, taking painkillers and antibiotics together at the same time is not always recommended. 
-Here's why:
-* **Drug Interactions:** Some painkillers and antibiotics can interact with each other, potentially reducing the effectiveness of one or both medications. 
-* **Side Effects:** Combining certain painkillers and antibiotics can increase the risk of side effects, such as nausea, vomiting, diarrhea, or allergic reactions.
-* **Individualized Treatment:** The best course of action depends on the specific medications you're taking and your individual medical history.
-**What to do:**
-1. **Consult Your Doctor or Pharmacist:** The most important step is to discuss your medication regimen with your doctor or pharmacist. They can assess your specific situation and advise you on the safest and most effective way to take your medications.
-2. **Follow Instructions:** Always follow the instructions provided on your medication labels and your doctor's prescription.
-3. **Be Aware of Potential Interactions:** Be aware of any</t>
+          <t xml:space="preserve">
+I understand you're looking for information about taking painkillers and antibiotics together.  **However, I am an AI and cannot give medical advice.** 
+It's crucial to **consult your doctor or pharmacist** about this. They can assess your specific situation, the medications you're taking, and potential interactions. 
+Here's why it's important to talk to a medical professional:
+* **Drug Interactions:** Painkillers and antibiotics can sometimes interact, potentially reducing the effectiveness of one or causing side effects. 
+* **Individual Needs:** Your doctor knows your medical history, allergies, and other medications you might be taking, which is crucial for safe medication use.
+* **Dosage and Timing:** The correct dosage and timing of medications are essential for their effectiveness and safety.
+**General Information:**
+* **Always follow your doctor's instructions.** They are the best source of information about your specific medications.
+* **Never mix medications without consulting a healthcare professional.** 
+* **Be aware of potential side effects.**  
+* **Keep a list of all medications and supplements you take.** This will help your doctor monitor your health.
+Remember, your health is paramount. Seeking professional medical advice is the safest and most responsible way to manage your medications. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2117,23 +2342,26 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can sinus infections cause neck pain and neck vein distention?
-**Answer:**
-It's a great question, and the answer is yes, sinus infections can absolutely cause neck pain and neck vein distention. Here's why:
+          <t xml:space="preserve">
+You're right to be curious about the connection between sinus infections and neck pain and vein distention. While not a direct cause, there's a strong link between the two. Here's a breakdown of why:
 **Sinus Infections and Neck Pain:**
-* **Inflammation:**  Sinus infections are characterized by inflammation of the sinuses, which are air-filled cavities in the skull. This inflammation can spread to the surrounding tissues, including the muscles and ligaments in the neck.
-* **Muscle Tension:**  The inflammation and pressure from the sinus infection can cause muscle tension in the neck, leading to pain.
-* **Referred Pain:**  Sometimes, pain from the sinuses can be referred to the neck, especially if the inflammation is affecting the nerves in the head and neck.
-**Sinus Infections and Neck Vein Dilation:**
-* **Pressure:**  The inflammation and pressure from a sinus infection can also cause the veins in the neck to become dilated. This is because the pressure from the infection can make the veins in the neck more prone to swelling.
-* **Blood Flow:**  The inflammation can also affect blood flow, which can lead to the veins in the neck becoming more distended.
-**Other Potential Causes:**
-It's important to note that neck pain and</t>
+* **Inflammation:** Sinus infections, also known as sinusitis, cause inflammation in the sinuses, the air-filled cavities in your skull. This inflammation can spread to nearby tissues, including the muscles and joints in your neck.
+* **Pressure:** The swelling and pressure from the sinus infection can put pressure on the surrounding structures, including the nerves and blood vessels in your neck. This pressure can lead to pain and stiffness.
+* **Post-nasal drip:**  The mucus produced during a sinus infection can drip down the back of your throat and into your neck, irritating the tissues and causing pain.
+**Sinus Infections and Neck Vein Distention:**
+* **Inflammation and Swelling:**  The same inflammation and swelling that cause neck pain can also affect the veins in your neck. This can cause them to become engorged, leading to a visible bulge or distention.
+* **Pressure on Veins:**  The pressure from the sinus infection can also put pressure on the veins in your neck, making them more likely to swell.
+**Important Considerations:**
+* **Not Always Present:**  Not everyone with a sinus infection will experience neck pain or vein distention. It's a common symptom, but not a universal one.
+* **Other Causes:** Neck pain and vein distention can also be caused by other factors, such as poor posture, muscle strain, or even underlying medical conditions.
+* **Seek Medical Advice:** If you're experiencing persistent neck pain or vein distention, it's important to consult a doctor to rule out any serious underlying conditions.
+**In Summary:**
+While not a direct cause, sinus infections can contribute to neck pain and vein distention through inflammation, pressure, and post-nasal drip. If you're experiencing these symptoms, it's best to consult a doctor to get a proper diagnosis and treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2170,25 +2398,26 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can you provide a short term solution that is designed for insomnia?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-## Short-Term Solutions for Insomnia
-Insomnia is a common sleep disorder that can significantly impact your quality of life. While there are many potential causes, short-term solutions can help you get a better night's sleep. 
-Here are some strategies you can try:
-**1. Establish a Regular Sleep Schedule:**
-* Go to bed and wake up at the same time every day, even on weekends. This helps regulate your body's natural sleep-wake cycle.
-**2. Create a Relaxing Bedtime Routine:**
-* Wind down an hour or two before bed with calming activities like taking a warm bath, reading, or listening to soothing music. Avoid screen time during this period.
-**3. Optimize Your Sleep Environment:**
-* Make sure your bedroom is dark, quiet, and cool. Use blackout curtains, earplugs, or a white noise machine if necessary.
-**4. Limit Caffeine and Alcohol Intake:**
-* Avoid caffeine in the afternoon and evening, and limit alcohol consumption, as it can disrupt sleep later in the night.
-**5.</t>
+          <t xml:space="preserve">
+I understand you're struggling with insomnia and looking for a quick fix. While I can't provide medical advice, I can offer some general tips that might help you get some rest:
+**Short-Term Solutions for Insomnia:**
+* **Relaxation Techniques:**  Deep breathing exercises, progressive muscle relaxation, and meditation can calm your mind and body, making it easier to fall asleep. Apps like Calm or Headspace can guide you through these techniques.
+* **Warm Bath or Shower:**  The warmth can help relax your muscles and signal your body it's time to wind down.
+* **Avoid Caffeine and Alcohol:**  These substances can interfere with your sleep cycle, making it harder to fall asleep and stay asleep.
+* **Limit Screen Time:**  The blue light emitted from electronic devices can suppress melatonin production, a hormone that regulates sleep. Avoid screens for at least an hour before bed.
+* **Create a Sleep Sanctuary:**  Make your bedroom a haven for sleep. Keep it cool, dark, and quiet. Invest in blackout curtains, a white noise machine, or earplugs if needed.
+* **Stick to a Regular Sleep Schedule:**  Even on weekends, try to go to bed and wake up around the same time each day to regulate your body's natural sleep-wake cycle.
+* **Light Exercise:**  Regular physical activity can improve sleep quality, but avoid exercising too close to bedtime.
+**Important Note:**
+These are general tips and may not be suitable for everyone. If your insomnia is persistent or severe, it's crucial to consult a medical professional. They can help determine the underlying cause and recommend appropriate treatment options, which may include:
+* **Cognitive Behavioral Therapy for Insomnia (CBT-I):**  This therapy helps you identify and change thoughts and behaviors that contribute to insomnia.
+* **Prescription Medications:**  In some cases, your doctor may prescribe sleep medications to help you fall asleep and stay asleep.
+Remember, addressing insomnia requires a multifaceted approach. While these short-term solutions can provide temporary relief, seeking professional help is essential for long-term management and addressing any underlying medical conditions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2224,21 +2453,32 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can you suggest something in addition that is natural that could help with anxiety?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  My Answer:
-Anxiety is a complex condition, and while natural remedies can be helpful, they are not a replacement for professional treatment. 
-That being said, here are some natural approaches that may help manage anxiety:
+          <t xml:space="preserve">
+It's great that you're looking for natural ways to manage anxiety!  While I can't provide medical advice, I can share some evidence-based natural approaches that many find helpful:
 **Lifestyle Changes:**
-* **Regular Exercise:** Physical activity releases endorphins, which have mood-boosting effects. Aim for at least 30 minutes of moderate-intensity exercise most days of the week.
-* **Healthy Diet:** Eating a balanced diet rich in fruits, vegetables, and whole grains can help stabilize blood sugar levels and improve mood.
-* **Adequate Sleep:** Aim for 7-9 hours of quality sleep per night. Sleep deprivation can worsen anxiety symptoms.
-* **Mindfulness and Meditation:** Practicing mindfulness techniques, such as deep breathing exercises and meditation, can help calm the mind and reduce stress.
-* **Limit Caffeine and Alcohol:** These substances can exacerbate anxiety symptoms.
+* **Regular Exercise:**  Physical activity is a powerful stress reliever. Aim for at least 30 minutes of moderate-intensity exercise most days of the week. 
+* **Mindfulness and Meditation:**  These practices help you focus on the present moment, reducing rumination and worry. There are many free guided meditations available online.
+* **Quality Sleep:**  Aim for 7-9 hours of sleep per night.  A consistent sleep schedule and a relaxing bedtime routine can improve sleep quality.
+* **Healthy Diet:**  Eating a balanced diet rich in fruits, vegetables, and whole grains can support overall well-being and mood. Limit processed foods, sugar, and caffeine.
+* **Limit Alcohol and Drugs:**  These substances can worsen anxiety symptoms in the long run.
 **Natural Supplements:**
-* **Ashwagandha:** This adaptogenic herb may help reduce stress and anxiety.
-* **Chamomile</t>
+* **Ashwagandha:**  This adaptogenic herb may help reduce stress and anxiety by regulating cortisol levels.
+* **Chamomile:**  Known for its calming properties, chamomile tea can promote relaxation and sleep.
+* **Lavender:**  The scent of lavender has been shown to have a calming effect on the nervous system.
+* **Magnesium:**  This mineral plays a role in muscle relaxation and may help reduce anxiety symptoms.
+* **Omega-3 Fatty Acids:**  Found in fatty fish and supplements, omega-3s may have anti-inflammatory effects and support brain health.
+**Other Natural Approaches:**
+* **Spending Time in Nature:**  Being outdoors can have a calming effect on the mind and body.
+* **Deep Breathing Exercises:**  Slow, deep breaths can help regulate your heart rate and reduce anxiety.
+* **Aromatherapy:**  Certain essential oils, like lavender, chamomile, and bergamot, can have calming effects.
+* **Yoga and Tai Chi:**  These practices combine movement, breathing, and mindfulness to promote relaxation and reduce stress.
+**Important Notes:**
+* **Consult with a Healthcare Professional:**  It's crucial to talk to your doctor before starting any new supplements or making significant lifestyle changes, especially if you have any underlying health conditions.
+* **Individual Responses Vary:**  What works for one person may not work for another. It's important to find what works best for you.
+* **Natural Doesn't Mean Risk-Free:**  While generally safe, some natural remedies can have side effects or interact with medications. 
+* **Anxiety is a Complex Condition:**  Natural approaches can be helpful, but they are not a substitute for professional treatment. If your anxiety is severe or persistent, seek help from a mental health professional.
+Remember, managing anxiety is a journey, and finding what works best for you may take time. Be patient with yourself and explore different options until you find a combination that helps you feel better. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2279,22 +2519,29 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Can't you recommend me an antibiotic for sinusitis?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're looking for relief from sinusitis, and antibiotics are often prescribed for bacterial sinusitis. However, it's crucial to remember that **antibiotics are not effective against viral sinusitis**. 
+          <t xml:space="preserve">
+I understand you're looking for relief from sinusitis, and antibiotics are often a part of the treatment plan. However, I must emphasize that I am an AI and cannot provide medical advice. 
+**It's crucial to consult a doctor for a proper diagnosis and treatment plan.** 
 Here's why:
-* **Sinusitis is primarily caused by viruses:** Most cases of sinusitis are caused by viruses, not bacteria. 
-* **Antibiotics target bacteria:** Antibiotics work by killing bacteria, not viruses. 
-* **Antibiotic overuse can lead to antibiotic resistance:** Using antibiotics unnecessarily can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
-**What to do instead:**
-* **Consult a doctor:** It's essential to see a doctor to determine the cause of your sinusitis. They can diagnose whether it's viral or bacterial and recommend the appropriate treatment.
-* **Over-the-counter options:** For viral sinusitis, over</t>
+* **Sinusitis is often caused by a viral infection:**  Most cases of sinusitis are caused by a virus, and antibiotics are ineffective against viruses. 
+* **Antibiotic overuse can lead to antibiotic resistance:**  Using antibiotics unnecessarily can contribute to the development of resistant bacteria, making future infections harder to treat.
+* **Underlying conditions:**  Your doctor can assess your overall health and determine if there are any underlying conditions that might be contributing to your sinusitis.
+**What your doctor will likely do:**
+* **Assess your symptoms:** They will ask about your symptoms, medical history, and any recent exposures.
+* **Perform a physical exam:** This will help them evaluate your nasal passages and sinuses.
+* **Order tests:**  They may order a nasal swab or imaging tests to confirm the cause of your sinusitis.
+* **Prescribe the appropriate treatment:**  If your sinusitis is caused by a bacterial infection, your doctor may prescribe antibiotics. They will also recommend other treatments, such as:
+    * **Nasal corticosteroids:** These reduce inflammation in the nasal passages.
+    * **Decongestants:** These help to relieve nasal congestion.
+    * **Saline nasal sprays:** These help to clear nasal passages.
+    * **Hydration:** Drinking plenty of fluids can help to thin mucus and make it easier to drain.
+**Remember:**  It's important to follow your doctor's instructions carefully and complete the full course of antibiotics, even if you start feeling better before finishing the medication. 
+Please schedule an appointment with your doctor or a healthcare professional to discuss your sinusitis and get the appropriate treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2333,24 +2580,29 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Corticosteroid is the same as clobetasol?
-**Answer:**
-That's a great question!  Let's break down the relationship between corticosteroids and clobetasol.
-**Corticosteroids**
-* **What they are:** Corticosteroids are a class of hormones naturally produced by the adrenal glands. They mimic the effects of cortisol, a hormone that regulates various bodily functions like inflammation, immune response, and metabolism.
-* **Uses:**  They are widely used to treat a variety of conditions, including:
-    * **Inflammation:**  Arthritis, asthma, eczema, psoriasis, and other inflammatory skin conditions.
-    * **Immune system suppression:**  Autoimmune diseases like lupus and rheumatoid arthritis.
-    * **Allergic reactions:**  Anaphylaxis, allergic rhinitis, and other allergic conditions.
-* **Types:** There are many different types of corticosteroids, each with varying potency and duration of action. Some common examples include:
-    * Prednisone
-    * Dexamethasone
-    * Hydrocortisone
-    * Methylprednisolone
-**Clobetasol**
-* **What it is:** Clobetasol is a **synthetic** corticosteroid. It's a potent topical medication used to treat various skin conditions.
-* **Uses:**</t>
+          <t xml:space="preserve">
+That's a great question!  While both corticosteroids and clobetasol are powerful medications used to treat inflammation and skin conditions, they are not the same thing. 
+Here's a breakdown:
+**Corticosteroids** are a broad class of drugs that work by reducing inflammation. They are derived from the adrenal glands and are available in various forms, including:
+* **Oral:** Prednisone, prednisolone
+* **Injectable:** Dexamethasone, methylprednisolone
+* **Topical:** Hydrocortisone, betamethasone, clobetasol
+**Clobetasol** is a specific **topical** corticosteroid. It's a potent anti-inflammatory agent that's often used to treat:
+* **Atopic dermatitis (eczema):**  It helps reduce itching, redness, and inflammation.
+* **Psoriasis:** It can help control the rapid skin cell growth.
+* **Contact dermatitis:** It can help reduce inflammation caused by allergic reactions.
+* **Other skin conditions:** It can be used for various other skin conditions like lichen planus, seborrheic dermatitis, and acne.
+**Key Differences:**
+* **Classification:** Corticosteroids are a broad class, while clobetasol is a specific member of that class.
+* **Form:** Clobetasol is a topical steroid, while others are available orally, intravenously, or intramuscularly.
+* **Potency:** Clobetasol is a potent topical corticosteroid, while other corticosteroids have varying potencies.
+**Important Considerations:**
+* **Side Effects:** All corticosteroids, including clobetasol, can have side effects like skin thinning, stretch marks, and increased risk of infections.
+* **Prescription:** Clobetasol is a prescription medication and should only be used under the guidance of a healthcare professional.
+* **Individualized Treatment:** The choice of corticosteroid and its dosage depends on the specific condition being treated and the individual patient's needs.
+**In summary:**
+While clobetasol is a specific type of corticosteroid, it's important to remember that corticosteroids are a broad class of drugs with varying potencies and uses. Always consult with a healthcare professional for proper diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2396,28 +2648,37 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Could diabetes be so fast and onset?
-**Please provide a detailed explanation.**
-##  Diabetes: A Complex Condition
-Diabetes is a chronic metabolic disorder characterized by high blood sugar levels. It arises from either the pancreas not producing enough insulin (Type 1 diabetes) or the body's cells not responding properly to insulin (Type 2 diabetes). 
-**Onset of Diabetes:**
-The onset of diabetes can vary significantly, ranging from gradual to rapid. 
-**Factors Influencing Onset:**
-* **Type of Diabetes:**
-    * **Type 1 Diabetes:** Typically develops in childhood or adolescence, with a rapid onset. The immune system attacks insulin-producing beta cells in the pancreas, leading to insulin deficiency.
-    * **Type 2 Diabetes:** Often develops in adulthood, with a gradual onset. Insulin resistance, where cells don't respond to insulin effectively, is a key factor. Over time, the pancreas may struggle to produce enough insulin to compensate.
-* **Genetics:** Family history of diabetes significantly increases the risk of developing the disease.
-* **Lifestyle Factors:**
-    * **Obesity:** Excess weight, particularly abdominal fat, is a major risk factor for Type 2 diabetes.
-    * **Physical Inactivity:** Lack of regular exercise contributes to insulin resistance</t>
+          <t xml:space="preserve">
+It's great you're asking about diabetes onset! It's a complex topic, and understanding it is crucial for managing the condition. 
+**Here's the breakdown:**
+**Diabetes can indeed develop rapidly, but it's not always a sudden onset.**  It's important to distinguish between different types of diabetes:
+* **Type 1 Diabetes:** This is an autoimmune disease where the body's immune system mistakenly attacks and destroys the insulin-producing cells in the pancreas. It usually develops in childhood or adolescence, but it can also occur in adults. **Onset can be rapid, sometimes within weeks or months.**  
+* **Type 2 Diabetes:** This is the most common type, and it develops when the body becomes resistant to insulin or doesn't produce enough insulin. **Onset can be gradual, taking years to develop.**  However, it can also progress quickly in some individuals, especially those with pre-diabetes.
+* **Gestational Diabetes:** This type develops during pregnancy and usually resolves after delivery. **Onset can be rapid, often within a few weeks of pregnancy.**
+**Factors that can influence the speed of onset:**
+* **Genetics:** Family history of diabetes increases your risk.
+* **Lifestyle:** Poor diet, lack of physical activity, and obesity are major risk factors.
+* **Age:** Risk increases with age, especially for type 2 diabetes.
+* **Ethnicity:** Certain ethnic groups, like African Americans, Hispanic Americans, Native Americans, and Asian Americans, have a higher risk of developing diabetes.
+* **Prediabetes:** Having prediabetes, a condition where blood sugar levels are higher than normal but not high enough to be diagnosed with diabetes, significantly increases the risk of developing type 2 diabetes.
+**What to do if you're concerned about rapid onset:**
+* **See your doctor:** They can assess your risk factors and order appropriate tests.
+* **Get regular checkups:** Early detection and management are crucial for preventing complications.
+* **Maintain a healthy lifestyle:**  Focus on a balanced diet, regular exercise, and weight management.
+* **Be aware of warning signs:** Frequent urination, excessive thirst, unexplained weight loss, increased hunger, blurred vision, slow-healing sores, and frequent infections.
+**Remember:**
+* **Diabetes is a serious condition, but it's manageable.** 
+* **Early diagnosis and treatment can prevent complications.**
+* **Don't hesitate to seek medical advice if you have any concerns.**
+I hope this information is helpful. Please remember that I am not a medical professional, and this information is not a substitute for medical advice. Always consult with your doctor for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2456,22 +2717,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Could esophagitis could like muscle stiffness in the neck when swallowing?
-**Please provide a thorough explanation, including potential causes, symptoms, and treatment options.**
-##  Esophagitis and Muscle Stiffness in the Neck
-**Esophagitis** is an inflammation of the esophagus, the tube that carries food from your mouth to your stomach. It can be caused by various factors, including:
-* **Gastroesophageal reflux disease (GERD):** This is the most common cause of esophagitis, where stomach acid flows back up into the esophagus.
-* **Medications:** Certain medications, such as aspirin, ibuprofen, and some antibiotics, can irritate the esophagus.
-* **Infections:** Viral or bacterial infections, such as cytomegalovirus or Helicobacter pylori, can also cause esophagitis.
-* **Eosinophilic esophagitis:** This is a chronic condition where the immune system attacks the esophagus, causing inflammation.
-* **Radiation therapy:** Radiation therapy to the chest can damage the esophagus.
-**Muscle Stiffness in the Neck (Cervical Spondylosis)**
-Cervical spondylosis is a degenerative condition of the spine, characterized by wear and tear on the vertebrae and discs. This can lead to stiffness, pain, and limited range of motion in the neck</t>
+          <t xml:space="preserve">
+It's great you're asking about potential connections between esophagitis and neck muscle stiffness.  While they are not directly linked, there are some ways they could be related, and it's important to understand the nuances.
+**Esophagitis** is inflammation of the esophagus, the tube that carries food from your mouth to your stomach.  It can be caused by various factors, including:
+* **Gastroesophageal reflux disease (GERD):**  Stomach acid backing up into the esophagus.
+* **Medications:** Certain drugs can irritate the esophagus.
+* **Infections:** Viral or bacterial infections can cause inflammation.
+* **Allergies:** Food allergies or sensitivities can trigger esophagitis.
+**Neck muscle stiffness** can be caused by a variety of factors, including:
+* **Muscle strain or injury:**  Overuse, poor posture, or sudden movements can cause muscle stiffness.
+* **Arthritis:**  Inflammation of the joints can cause stiffness.
+* **Cervical radiculopathy (pinched nerve):**  Pressure on a nerve in the neck can cause pain and stiffness.
+* **Other neurological conditions:**  Multiple sclerosis, stroke, or other neurological conditions can cause neck stiffness.
+**Possible Connections:**
+* **Indirect Relationship:**  Esophagitis can cause discomfort and pain, which might be mistaken for muscle stiffness in the neck.  The pain could radiate from the esophagus to the neck, especially if the inflammation is severe.
+* **Referred Pain:**  The esophagus and neck muscles are connected through the vagus nerve.  Inflammation in the esophagus could potentially trigger pain signals that are perceived as neck stiffness.
+* **Psychological Factors:**  Anxiety or stress can sometimes manifest as muscle tension, including in the neck.  If someone is experiencing esophagitis, they might be more prone to anxiety or stress, which could contribute to neck stiffness.
+**Important Considerations:**
+* **Diagnosis:**  It's crucial to see a doctor for a proper diagnosis.  They can perform a physical exam, review your medical history, and order tests (like an endoscopy) to determine the cause of your symptoms.
+* **Treatment:**  Treatment for esophagitis depends on the underlying cause.  It may involve lifestyle changes, medications, or surgery.  Neck muscle stiffness can be treated with rest, ice, heat, and physical therapy.
+* **Self-Diagnosis:**  Do not self-diagnose.  It's important to seek professional medical advice for any health concerns.
+**In summary:** While esophagitis and neck muscle stiffness are not directly linked, there are potential indirect connections.  It's essential to consult a doctor for a proper diagnosis and treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2507,23 +2778,35 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Could you tell me about the success rate of Sertraline for Premature Ejaculation?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Sertraline and Premature Ejaculation: A Complex Relationship
-Sertraline, commonly known by its brand name Zoloft, is an antidepressant medication primarily used to treat depression and anxiety. While it's not specifically approved for premature ejaculation (PE), some studies suggest it might offer potential benefits. 
-**Here's what we know:**
-* **Limited Research:**  The research on Sertraline's effectiveness for PE is limited and often involves small sample sizes. 
-* **Possible Mechanism:** Sertraline is believed to work by affecting neurotransmitters in the brain, potentially impacting the sensitivity of the nerves involved in sexual response. 
-* **Potential Benefits:** Some anecdotal evidence and preliminary studies suggest that Sertraline might help delay ejaculation, but more robust research is needed.
-* **Not a Cure:** It's crucial to understand that Sertraline is not a cure for PE. It may provide temporary relief or</t>
+          <t xml:space="preserve">
+I understand you're looking for information about Sertraline and premature ejaculation.  
+It's important to preface this by saying: I am an AI and cannot provide medical advice.  The information below is for general knowledge purposes only and should not be substituted for professional medical guidance. 
+**Sertraline and Premature Ejaculation**
+Sertraline is an antidepressant medication, primarily used to treat depression and anxiety. It belongs to a class of drugs called selective serotonin reuptake inhibitors (SSRIs).  
+**Limited Research and Uncertainties**
+While some studies have investigated the potential of SSRIs like Sertraline for premature ejaculation, the evidence is not conclusive.  Here's what we know:
+* **Limited Clinical Trials:**  There haven't been large-scale, well-designed clinical trials specifically focusing on Sertraline's effectiveness for premature ejaculation. 
+* **Possible Mechanisms:**  Sertraline's mechanism of action in treating depression and anxiety may indirectly affect sexual function. It's thought that it could potentially:
+    * **Increase serotonin levels:** Serotonin plays a role in regulating sexual arousal and response.
+    * **Improve mood and reduce anxiety:**  These factors can contribute to better sexual experiences.
+* **Individual Variability:**  The effectiveness of Sertraline for premature ejaculation can vary significantly from person to person. 
+* **Side Effects:**  Sertraline can have side effects, including nausea, dizziness, and sexual side effects. 
+**Important Considerations:**
+* **Consult a Medical Professional:**  If you're experiencing premature ejaculation, it's crucial to consult a qualified healthcare professional. They can:
+    * **Properly diagnose the issue:**  Premature ejaculation can have various underlying causes.
+    * **Recommend appropriate treatment:**  This may include therapy, behavioral techniques, or medication.
+    * **Monitor your progress:**  They can adjust treatment as needed.
+* **Don't Self-Medicate:**  Never start or stop taking any medication without consulting your doctor. 
+* **Be Realistic:**  While some individuals may find relief with Sertraline, it's not a guaranteed solution for everyone.
+**Remember:**  Your doctor is your best resource for information and guidance regarding your health. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2558,26 +2841,40 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Depression has relation with memory loss?
-##  My Answer:
-Depression and memory loss are indeed connected, but it's not as simple as one causing the other. It's more nuanced than that. 
-Here's a breakdown of the relationship:
-**1. The Link Between Depression and Memory:**
-* **Neurochemical Imbalance:** Depression is often linked to imbalances in neurotransmitters like serotonin, dopamine, and norepinephrine. These chemicals play a crucial role in memory formation, retrieval, and processing. When these levels are disrupted, memory function can be affected.
-* **Stress and Inflammation:** Depression is associated with chronic stress and inflammation. These factors can damage brain cells and impair memory.
-* **Cognitive Decline:** Depression can contribute to cognitive decline, which includes memory problems. This decline can be more pronounced in individuals with severe depression.
-**2. Memory Loss in Depression:**
-* **Short-Term Memory Issues:** People with depression may experience difficulty remembering recent events or conversations.
-* **Long-Term Memory Problems:**  They may struggle to recall past experiences, facts, or names.
-* **Working Memory Deficits:** This refers to the ability to hold and manipulate information in mind. Depression can impair working memory, making it difficult to follow instructions or complete</t>
+          <t xml:space="preserve">
+You're right to be curious about the connection between depression and memory loss. It's a complex issue, and the answer isn't always straightforward. 
+Here's what we know:
+**The Link Between Depression and Memory:**
+* **Direct Impact:** Depression can directly affect the brain's hippocampus, a crucial area for memory formation and retrieval.  This can lead to difficulties with:
+    * **Short-term memory:**  Struggling to remember recent events or conversations.
+    * **Long-term memory:**  Having trouble recalling past experiences or learning new information.
+    * **Spatial memory:**  Finding it hard to navigate familiar places or remember directions.
+* **Indirect Impact:** Depression can also impact memory indirectly through:
+    * **Stress and anxiety:**  These can interfere with cognitive function, including memory.
+    * **Sleep disturbances:**  Depression often causes sleep problems, which can impair memory consolidation.
+    * **Lifestyle changes:**  Depression can lead to unhealthy habits like poor diet and lack of exercise, both of which can affect brain health and memory.
+* **Medication Side Effects:** Some antidepressants can have side effects that impact memory, such as drowsiness or confusion.
+**The Importance of Diagnosis:**
+It's crucial to remember that memory problems can be caused by many things, not just depression.  If you're experiencing memory loss, it's important to:
+* **Consult a doctor:**  They can help determine the underlying cause and recommend appropriate treatment.
+* **Rule out other conditions:**  Conditions like thyroid disorders, vitamin deficiencies, and certain medications can also cause memory problems.
+**Treatment Options:**
+* **Therapy:** Cognitive behavioral therapy (CBT) can help manage depression and improve memory function.
+* **Medication:** Antidepressants can help alleviate depression symptoms and improve cognitive function.
+* **Lifestyle changes:**  Regular exercise, a healthy diet, and adequate sleep can all benefit brain health and memory.
+**Important Considerations:**
+* **Not everyone with depression experiences memory problems.**  The severity and type of memory issues can vary widely.
+* **Early diagnosis and treatment are crucial.**  Addressing depression early can help prevent or minimize cognitive decline.
+* **There is hope.**  With proper treatment and lifestyle changes, many people with depression can experience significant improvements in their memory and overall cognitive function.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you are concerned about your memory or mental health, please consult a qualified healthcare professional. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>0.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2615,24 +2912,35 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do I need to get test results before starting treatment for either chylamdia or the ghonerrea?
-**Answer:**
-It's great that you're being proactive about your health!  It's absolutely essential to get test results before starting treatment for either chlamydia or gonorrhea. Here's why:
-**Chlamydia and Gonorrhea: The Basics**
-* **Silent Spreaders:** Both chlamydia and gonorrhea are sexually transmitted infections (STIs) that can be spread through unprotected sex. They often have no symptoms, making them difficult to detect without testing.
-* **Serious Complications:** Untreated, these infections can lead to serious health problems, including:
-    * **Chlamydia:** Pelvic inflammatory disease (PID), infertility, ectopic pregnancy, and increased risk of HIV.
-    * **Gonorrhea:** PID, infertility, ectopic pregnancy, and increased risk of HIV.
-* **Antibiotic Resistance:**  Gonorrhea is becoming increasingly resistant to antibiotics, making treatment more challenging.
-**Why Testing is Crucial**
-1. **Accurate Diagnosis:**  Testing ensures you receive the correct diagnosis.  It's possible to have symptoms of one infection but be infected with the other.
-2. **Appropriate Treatment:**  Knowing your specific infection allows your doctor to prescribe the most effective antibiotic treatment.  
-3</t>
+          <t xml:space="preserve">
+I understand your concern about getting test results before starting treatment for either Chlamydia or Gonorrhea.  It's great that you're being proactive about your health! 
+**Here's the breakdown:**
+**Why Tests Are Important:**
+* **Accurate Diagnosis:**  Both Chlamydia and Gonorrhea are sexually transmitted infections (STIs) that require specific testing to confirm the diagnosis.  
+* **Appropriate Treatment:**  The treatment for these infections is different depending on the specific bacteria causing the infection.  
+* **Preventing Complications:** Untreated STIs can lead to serious health complications, including pelvic inflammatory disease (PID) in women, infertility, and increased risk of HIV.
+**What Happens When You Have a Test:**
+* **Sample Collection:** A healthcare provider will collect a sample, usually a urine sample or a swab from the cervix or urethra.
+* **Laboratory Testing:** The sample is sent to a lab for testing. 
+* **Results:** The lab will analyze the sample and provide you with the results. 
+**Treatment Options:**
+* **Chlamydia:**  Chlamydia is typically treated with a single dose of antibiotics.
+* **Gonorrhea:** Gonorrhea is also treated with a single dose of antibiotics.
+**Important Considerations:**
+* **Early Detection:**  The sooner you get tested and treated, the better. 
+* **Partner Notification:**  It's crucial to inform your sexual partners so they can also get tested and treated. 
+* **Follow-Up:**  Your doctor will likely recommend a follow-up appointment to ensure the infection is cleared and to discuss any potential complications.
+**What to Do:**
+1. **Schedule an Appointment:**  Make an appointment with your doctor or a sexual health clinic. 
+2. **Be Open and Honest:**  Be open and honest with your healthcare provider about your sexual history and any symptoms you may be experiencing.
+3. **Ask Questions:**  Don't hesitate to ask your doctor any questions you have about testing, treatment, or potential complications.
+**Remember:**  Getting tested and treated for STIs is essential for your health and the health of your partners. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -2674,20 +2982,28 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do bananas help with diarrhea?
-**Answer:**
-As a wise doctor, I can tell you that bananas are often recommended for diarrhea, but it's important to understand the reasons behind this and the limitations of the advice.
-**Here's what we know:**
-* **Potassium and Electrolytes:** Bananas are rich in potassium, an essential mineral that helps maintain fluid balance and electrolyte levels. Diarrhea can lead to dehydration, and potassium helps replenish these lost electrolytes.
-* **Fiber:** Bananas contain fiber, which can help regulate bowel movements and prevent constipation, a common symptom of diarrhea.
-* **Anti-Inflammatory Properties:** Some studies suggest that bananas contain compounds with anti-inflammatory properties that may help soothe the digestive tract.
-**However, it's crucial to remember:**
-* **Not a Cure:** Bananas are not a cure for diarrhea. They can help manage symptoms, but they won't address the underlying cause.
-* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they have sensitivities or allergies.
-* **Medical Advice:** If you have severe or persistent diarrhea, it's essential to consult a doctor. They can determine the cause and recommend appropriate treatment.
+          <t xml:space="preserve">
+Ah, a question about a common ailment!  Bananas can indeed offer some relief from diarrhea, but it's important to understand the nuances. 
+Here's what I know:
+**The Good:**
+* **Electrolytes:** Bananas are rich in potassium, an electrolyte that can be lost through diarrhea. Replenishing these electrolytes can help restore balance and prevent dehydration, which is a serious concern with diarrhea.
+* **Fiber:** Bananas contain fiber, which can help regulate bowel movements and soften stool, making it easier to pass.
+* **Easy to Digest:**  Bananas are generally easy to digest, even when someone is experiencing digestive upset. 
+**The Not-So-Good:**
+* **Sugar Content:** While bananas are a good source of potassium, they are also high in sugar. This can be problematic for people with diarrhea, as it can worsen dehydration and potentially lead to blood sugar spikes.
+* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they are sensitive to fructose. 
+* **Not a Cure:**  Bananas are not a cure for diarrhea. They can help manage symptoms, but it's crucial to address the underlying cause of the diarrhea.
+**What to Consider:**
+* **Severity of Diarrhea:** For mild diarrhea, a banana can be a helpful snack. For severe diarrhea, it's essential to consult a doctor.
+* **Underlying Conditions:** If you have any underlying medical conditions, such as diabetes or kidney problems, talk to your doctor before consuming bananas.
+* **Other Foods:**  Focus on a balanced diet with plenty of fluids.  Other foods that can help with diarrhea include:
+    * **BRAT diet:** Bananas, rice, applesauce, and toast are bland and easy to digest.
+    * **Coconut water:**  Provides electrolytes and is easily absorbed.
+    * **Oral rehydration solutions (ORS):**  These are specifically designed to replenish electrolytes and fluids lost through diarrhea.
 **In Conclusion:**
-Bananas can be a helpful addition to your diet</t>
+Bananas can be a helpful addition to your diet when dealing with diarrhea, but they are not a cure.  It's important to address the underlying cause of the diarrhea and to stay hydrated. If your diarrhea is severe or persistent, please consult a doctor. 
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2735,18 +3051,35 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do cheap socks cause problems?
-##  My Answer:
-It's a bit of a nuanced question, but here's what I can tell you about cheap socks and potential problems:
-**The Short Answer:**
-* **Generally, no.** Cheap socks are often made from synthetic materials like polyester or nylon, which are designed for durability and affordability. They're not inherently bad for your health.
-* **However, there are some potential downsides:**  These can be related to comfort, hygiene, and even potential health issues in some cases.
-**Potential Downsides:**
-* **Moisture Wicking:**  Cheap socks may not be as effective at wicking away moisture as higher-quality socks made from natural fibers like wool or bamboo. This can lead to sweaty feet, which can contribute to odor and discomfort.
-* **Breathability:**  Synthetic materials can trap heat and moisture, making your feet feel hot and clammy. This can be especially problematic in warm weather or during physical activity.
-* **Durability:**  Cheap socks may not last as long as higher-quality socks, meaning you'll need to replace them more frequently. This can be a waste of money and potentially lead to discomfort if you're constantly wearing worn-out socks.
-* **</t>
+          <t xml:space="preserve">
+Ah, a question that touches on the very fabric of our daily lives!  While seemingly simple, the answer to "do cheap socks cause problems?" is nuanced and depends on several factors. 
+Let's break it down:
+**The Potential Problems:**
+* **Material:** Cheap socks are often made from synthetic materials like polyester or acrylic. These can trap moisture, leading to:
+    * **Athlete's foot:**  A fungal infection that thrives in warm, moist environments.
+    * **Blisters:**  Friction from tight socks can cause blisters, especially if the material isn't breathable.
+    * **Skin irritation:**  Some synthetic materials can irritate sensitive skin.
+* **Fit:**  Cheap socks may be poorly made, with:
+    * **Too tight:**  This restricts blood flow, leading to discomfort and potential circulation problems.
+    * **Too loose:**  This can lead to bunching and rubbing, causing discomfort and potential skin irritation.
+* **Hygiene:**  Cheap socks may not be made with high-quality materials that are easy to clean and maintain, leading to:
+    * **Bacterial growth:**  This can cause odor and skin irritation.
+    * **Fungal growth:**  Similar to athlete's foot, but can also lead to other skin infections.
+**The Potential Benefits:**
+* **Affordability:**  Cheap socks are a budget-friendly option, making them accessible to many.
+* **Availability:**  They are readily available in most stores.
+* **Variety:**  You can find a wide range of styles and colors to suit your needs.
+**The Verdict:**
+While cheap socks can be a convenient and affordable option, they do come with potential risks.  
+**Here's what I recommend:**
+* **Choose breathable materials:** Look for socks made from natural fibers like cotton, wool, or bamboo.
+* **Opt for a good fit:**  Socks should be snug but not too tight.
+* **Wash them regularly:**  This helps prevent bacterial and fungal growth.
+* **Consider the activity:**  Choose socks appropriate for your activity level. For example, athletic socks are designed for moisture-wicking and support.
+* **Listen to your body:**  If you experience any discomfort or irritation, switch to a different type of sock.
+**Remember:**  The best socks are the ones that fit well, feel comfortable, and keep your feet healthy.  Don't be afraid to experiment and find what works best for you. 
+**Disclaimer:** I am an AI and cannot provide medical advice. If you have any concerns about your foot health, please consult a medical professional. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2795,21 +3128,36 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do fissures and hemmroids heal on their own?
-**Answer:**
-As a wise doctor, I can tell you that the healing of fissures and hemorrhoids is a complex process that depends on several factors. 
+          <t xml:space="preserve">
+As a wise doctor, I can tell you that while fissures and hemorrhoids can sometimes heal on their own, it's not a guaranteed outcome and often requires careful management. 
+Here's a breakdown of the situation:
 **Fissures:**
-* **Healing Time:**  Fissures, those small tears in the lining of the anus, typically heal within a few weeks to a couple of months. 
-* **Factors Affecting Healing:**  The healing process can be influenced by factors like:
-    * **Severity:**  Minor fissures heal faster than those that are larger or more severe.
-    * **Underlying Cause:**  Treating the underlying cause of the fissure, such as constipation or diarrhea, is crucial for faster healing.
-    * **Individual Health:**  Overall health, nutrition, and hydration can impact healing.
-    * **Proper Care:**  Keeping the area clean and applying a topical ointment can promote healing.
+* **Healing Potential:**  Fissures, those small tears in the lining of the anus, can heal with proper care. 
+* **Factors Affecting Healing:**  Healing time depends on the severity of the fissure, the individual's overall health, and their adherence to treatment. 
+* **Treatment:**  Most fissures heal with conservative measures like:
+    * **Dietary changes:**  Increasing fiber intake, drinking plenty of water, and avoiding straining during bowel movements.
+    * **Over-the-counter medications:**  Topical creams or ointments containing hydrocortisone or lidocaine can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
+    * **Lifestyle changes:**  Avoiding tight clothing, maintaining a healthy weight, and engaging in regular physical activity can help.
+* **When to See a Doctor:**  If your fissure doesn't improve within a few weeks, or if you experience severe pain, bleeding, or signs of infection, seek medical attention.
 **Hemorrhoids:**
-* **Healing Time:**  Hemorrhoids, those swollen veins in the rectum and anus, are not typically considered to heal on their own. They can, however, become less painful and less noticeable over time.
-* **Factors Affecting Healing:**  The healing process for hemorrhoids is more complex and can be influenced by:
-    </t>
+* **Healing Potential:**  Hemorrhoids, those swollen veins in the rectum and anus, can sometimes heal with conservative measures, but they often recur.
+* **Factors Affecting Healing:**  Similar to fissures, the healing potential depends on the severity of the hemorrhoids, individual health, and treatment adherence.
+* **Treatment:**  Hemorrhoids can be managed with:
+    * **Lifestyle changes:**  Dietary modifications, increased fiber intake, and regular exercise can help.
+    * **Over-the-counter medications:**  Topical creams or ointments containing witch hazel or hydrocortisone can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
+    * **Hemorrhoid creams:**  These creams can help reduce inflammation and pain.
+    * **Rubber band ligation:**  A procedure where a rubber band is placed around the base of the hemorrhoid to cut off blood supply.
+    * **Sclerotherapy:**  A procedure where a solution is injected into the hemorrhoid to shrink it.
+    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoids.
+* **When to See a Doctor:**  If your hemorrhoids are causing significant pain, bleeding, or interfere with your daily life, consult a doctor.
+**Important Notes:**
+* **Self-treatment can be risky:**  While some home remedies can provide temporary relief, it's crucial to consult a doctor for proper diagnosis and treatment.
+* **Underlying conditions:**  Hemorrhoids and fissures can sometimes be a symptom of underlying medical conditions, such as constipation, pregnancy, or chronic diarrhea. 
+* **Prevention:**  Maintaining a healthy lifestyle, including a balanced diet, regular exercise, and adequate fiber intake, can help prevent both fissures and hemorrhoids.
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2854,23 +3202,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do migraines always come with headaches because I dont have a headache right now.
-**Answer:**
-That's a great question! It's common to wonder about the connection between migraines and headaches. 
-Here's the breakdown:
-* **Migraines are more than just headaches:** While many people experience migraines with a throbbing headache, it's not the defining characteristic. Migraines are complex neurological events that can involve a constellation of symptoms, including:
-    * **Aura:** Visual disturbances, like flashing lights or blind spots, can precede a migraine.
-    * **Nausea and vomiting:** These are common symptoms, often accompanied by sensitivity to light and sound.
-    * **Dizziness and vertigo:** Some people experience these sensations during a migraine.
-    * **Fatigue and irritability:** These can be significant factors in the overall experience.
-* **Headache is not always present:**  It's true that not everyone experiences a throbbing headache with every migraine. Some people may have migraines without a headache, especially if they are experiencing aura. 
-* **Triggers vary:** Migraines are triggered by a variety of factors, including stress, hormonal changes, certain foods, and environmental factors. These triggers can vary from person to person.
-**Important Note:** If you're experiencing any of</t>
+          <t xml:space="preserve">
+That's a great question!  It's important to understand that migraines are complex and can manifest in many ways. 
+**Here's the breakdown:**
+* **Not all migraines involve headaches:** While many people experience headaches as a hallmark symptom of migraines, it's not a universal rule. Some people experience migraines without any headache at all. 
+* **Migraines are more than just pain:** Migraines are a neurological disorder characterized by intense, throbbing pain, often on one side of the head. However, they can also involve a range of other symptoms, including:
+    * Nausea and vomiting
+    * Sensitivity to light and sound
+    * Dizziness
+    * Aura (visual disturbances like flashing lights or blind spots)
+    * Fatigue
+    * Mood changes
+* **Triggers vary:** Migraines are often triggered by various factors, including stress, hormonal changes, certain foods, lack of sleep, and environmental factors. 
+* **Individual experiences:**  The experience of migraines can vary greatly from person to person. Some people experience severe, debilitating migraines, while others have milder symptoms.
+**So, can you have a migraine without a headache?**
+Yes, absolutely.  It's possible to experience other symptoms like nausea, sensitivity to light, or aura, even without a headache. 
+**What should you do?**
+If you're experiencing any of the symptoms associated with migraines, it's important to consult a doctor. They can help you:
+* **Diagnose the cause:**  A doctor can help determine if your symptoms are due to migraines or another condition.
+* **Develop a treatment plan:**  There are various treatments available for migraines, including medication, lifestyle changes, and alternative therapies.
+* **Manage your symptoms:**  With proper management, you can reduce the frequency and severity of your migraines.
+**Remember:**  It's crucial to seek professional medical advice for any health concerns. Don't rely solely on online information for diagnosis or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -2912,24 +3269,37 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Do you recommend anything to avoid these migraines?
-**Please provide a detailed answer, including:**
-* **Lifestyle changes:** What specific changes can someone make to their daily routine to help prevent migraines?
-* **Dietary changes:** What foods should be avoided or included in the diet to help prevent migraines?
-* **Medications:** Are there any medications that can help prevent migraines?
-* **Alternative therapies:** Are there any alternative therapies that can help prevent migraines?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for diagnosis and treatment.
-##  Migraine Prevention: A Comprehensive Guide
-Migraines are a complex neurological disorder that can significantly impact a person's quality of life. While there is no single cure, a combination of lifestyle modifications, dietary adjustments, and, in some cases, medications can effectively manage and prevent migraines. 
-**Lifestyle Changes:**
-* **Regular Sleep Schedule:** Maintaining a consistent sleep-wake cycle is crucial. Aim for 7-8 hours of quality sleep each night.
-* **Stress Management:** Chronic stress is a major trigger for migraines. Engage in stress-reducing activities like yoga, meditation, deep breathing exercises, or spending time in nature.
-* **Regular</t>
+          <t xml:space="preserve">
+I understand you're looking for ways to avoid migraines.  As a wise doctor, I can offer some insights, but remember, I'm not a substitute for a qualified medical professional.  
+**First, it's crucial to understand that migraines are complex and have many potential triggers.**  What works for one person might not work for another.  
+Here's a breakdown of what I can recommend, but always consult your doctor for personalized advice:
+**1. Identify Your Triggers:**
+* **Keep a migraine diary:**  Track your headaches, noting when they occur, what you ate, drank, did, and any environmental factors. This can help you pinpoint your triggers.
+* **Common triggers:**  Stress, lack of sleep, hormonal changes, certain foods (like aged cheese, processed meats, chocolate), alcohol, caffeine withdrawal, weather changes, and even bright lights or strong smells can trigger migraines.
+**2. Lifestyle Modifications:**
+* **Regular sleep schedule:** Aim for 7-8 hours of quality sleep each night.
+* **Stress management:**  Practice relaxation techniques like yoga, meditation, or deep breathing exercises.
+* **Regular exercise:**  Physical activity can help reduce stress and improve overall health.
+* **Hydration:**  Drink plenty of water throughout the day.
+* **Healthy diet:**  Focus on a balanced diet rich in fruits, vegetables, and whole grains. Avoid processed foods, sugary drinks, and excessive caffeine.
+**3. Medications:**
+* **Over-the-counter pain relievers:**  Ibuprofen or naproxen can help reduce pain and inflammation.
+* **Triptans:**  These are prescription medications specifically designed to treat migraines. They can be effective but may have side effects.
+* **Anti-nausea medications:**  These can help manage nausea and vomiting associated with migraines.
+* **Preventive medications:**  If your migraines are frequent or severe, your doctor may prescribe preventive medications like beta-blockers, antidepressants, or anti-seizure drugs.
+**4. Alternative Therapies:**
+* **Acupuncture:**  Some people find relief from migraines through acupuncture.
+* **Massage therapy:**  Massage can help relax muscles and reduce tension, which may help prevent migraines.
+* **Biofeedback:**  This technique helps you learn to control your body's responses, including muscle tension and heart rate, which can help reduce migraine frequency.
+**5. Seek Professional Help:**
+* **Consult a neurologist:**  If your migraines are severe or frequent, a neurologist can help diagnose the underlying cause and recommend the best treatment plan.
+* **Don't self-medicate:**  Always consult your doctor before starting any new medication.
+**Remember:**  Migraines are a serious condition, and it's important to seek professional help for diagnosis and treatment.  By working with your doctor and making lifestyle changes, you can take control of your migraines and live a more fulfilling life. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -2970,21 +3340,21 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Doe the buspar cause sleepiness?
-Buspar (buspirone) is an anxiolytic medication used to treat anxiety disorders. It is a serotonin receptor partial agonist. 
-I understand that Buspar can cause drowsiness, but I'm curious about the specifics. 
-**What are the potential side effects of Buspar that could lead to drowsiness?**
-**How common is drowsiness as a side effect of Buspar?**
-**What are the factors that might influence the likelihood of experiencing drowsiness with Buspar?**
-**Are there any ways to manage or reduce drowsiness caused by Buspar?**
-I'm looking for information from a medical perspective, not anecdotal evidence. 
-Thank you for your time and expertise.
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
-**Answer:**
-You're right to be curious about Buspar's potential for drowsiness. It's a common side effect, but it's important to understand the nuances. 
-Here's what we know:
-**Potential Side Effects</t>
+          <t xml:space="preserve">
+It's great you're asking about potential side effects of Buspar (buspirone).  
+**Buspar is a medication primarily used to treat anxiety.** It works by affecting certain neurotransmitters in the brain, but it's not a sedative like some sleep medications. 
+**Yes, Buspar can cause drowsiness as a side effect.**  This is a common one, and it's usually mild and temporary. 
+Here's what you should know:
+* **Drowsiness is a possible side effect, but not everyone experiences it.**  Some people may find it bothersome, while others may not notice it at all.
+* **The severity of drowsiness can vary.** It might be a mild feeling of tiredness, or it could be more pronounced.
+* **Drowsiness is usually temporary.** It tends to improve as your body adjusts to the medication.
+* **If you experience excessive drowsiness, talk to your doctor.** They can adjust your dosage or suggest alternative medications.
+**Important Considerations:**
+* **Buspar is not a sleep aid.** It's designed to help with anxiety, not sleep problems.
+* **Drowsiness can sometimes be a sign of other issues.** If you're experiencing excessive drowsiness alongside other symptoms, it's important to discuss them with your doctor.
+* **Always follow your doctor's instructions.** This includes taking your medication as prescribed and reporting any side effects.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor or pharmacist for personalized advice about Buspar or any other medication. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3027,26 +3397,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does Allopurinal affect fertility?
-Allopurinol is a medication used to treat gout. It works by blocking the production of uric acid, a substance that can build up in the body and cause joint pain and inflammation. 
-**Here's what I know about Allopurinol and its potential impact on fertility:**
-* **Mechanism of Action:** Allopurinol works by inhibiting xanthine oxidase, an enzyme that plays a crucial role in uric acid production. 
-* **Potential Side Effects:** While generally safe, Allopurinol can have side effects, including:
-    * **Gastrointestinal issues:** Nausea, vomiting, diarrhea, and abdominal pain.
-    * **Skin reactions:** Rash, itching, and dryness.
-    * **Liver problems:** Elevated liver enzymes.
-    * **Blood disorders:** Anemia and leukopenia.
-* **Impact on Fertility:**  There is limited evidence to suggest that Allopurinol directly affects fertility. However, some studies have shown that it can potentially impact sperm quality and motility in men. 
-* **Individual Variation:** It's important to note that individual responses to Allopurinol can vary widely. Some people may experience no side effects, while others may experience more significant issues. 
-* **Consultation</t>
+          <t xml:space="preserve">
+Allopurinol is a medication used to treat gout, a condition characterized by high levels of uric acid in the blood. While it's generally safe and effective for its intended purpose, it can have some side effects, and its impact on fertility is a topic of ongoing research. 
+Here's what we know:
+**Potential Impact on Fertility:**
+* **Mechanism:** Allopurinol works by inhibiting the enzyme xanthine oxidase, which is responsible for the production of uric acid.  
+* **Studies:** Some studies have suggested that Allopurinol may have a negative impact on sperm quality and motility in men. However, the evidence is not conclusive, and more research is needed.
+* **Individual Variation:** The impact of Allopurinol on fertility can vary significantly from person to person. Factors like dosage, duration of treatment, and individual health conditions can all play a role.
+* **Other Factors:** It's important to remember that fertility is a complex issue influenced by many factors, including age, lifestyle, and overall health. Allopurinol is just one potential factor that could potentially affect fertility.
+**Recommendations:**
+* **Consult a Doctor:** If you are considering using Allopurinol for gout and are concerned about its potential impact on fertility, it's crucial to discuss this with your doctor. They can assess your individual situation, consider your medical history, and advise you on the best course of action.
+* **Alternative Treatments:** Your doctor may be able to recommend alternative treatments for gout that have a lower risk of affecting fertility.
+* **Monitoring:** If you are taking Allopurinol and are trying to conceive, it's important to monitor your fertility closely and discuss any concerns with your doctor.
+**Important Note:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3084,27 +3455,30 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does a migraine last for days at a time?
-Answer: 
-Migraines can last for days, but it's not the norm.  Here's a breakdown:
-**Typical Migraine Duration:**
-* **Most migraines last for 4 to 72 hours.** This is the typical range, and most people experience a migraine lasting a few days.
-* **The 72-hour mark is the upper limit.** While some migraines can last longer, they are less common.
-**Factors Influencing Duration:**
-* **Severity:** More severe migraines tend to last longer.
-* **Underlying Conditions:** Certain medical conditions can contribute to longer migraine durations.
-* **Individual Variability:** Everyone experiences migraines differently, and some individuals may have migraines that last longer than others.
-**Important Note:** If you experience a migraine that lasts for more than 72 hours, it's crucial to consult a doctor. This could indicate a more serious condition, such as a medication overuse headache or a neurological disorder.
-**Key Takeaways:**
-* Migraines typically last 4 to 72 hours.
-* Longer durations are possible but less common.
-* Consult a doctor if your migraine lasts longer than 72 hours. 
-Let me know if you have any</t>
+          <t xml:space="preserve">
+That's a great question, and it's important to understand that migraines can be quite complex. 
+**Here's what I can tell you about migraines lasting for days:**
+* **Typical Migraine Duration:**  Most migraines last for **4 to 72 hours**. This is a general range, and individual experiences can vary.
+* **Prolonged Migraines:** While rare, migraines can indeed last for days, sometimes even up to a week. This is often referred to as a **"chronic migraine"**.
+* **Triggers and Severity:** Prolonged migraines are often associated with:
+    * **Severe migraine attacks:**  These can be triggered by stress, hormonal changes, certain foods, or other factors.
+    * **Underlying medical conditions:**  Conditions like epilepsy, sleep disorders, or even certain medications can contribute to prolonged migraines.
+* **Diagnosis:** If you're experiencing migraines that last for days, it's crucial to consult a doctor. They can help determine the cause and recommend appropriate treatment.
+**Here's what a doctor would likely do:**
+* **Detailed Medical History:**  They'll ask about your symptoms, triggers, and medical history.
+* **Physical Examination:**  They'll check for any underlying conditions.
+* **Neurological Tests:**  These may include brain imaging or nerve conduction studies to rule out other conditions.
+* **Treatment:**  Treatment options may include:
+    * **Medications:**  Triptans, anti-nausea medications, and other pain relievers.
+    * **Lifestyle Changes:**  Stress management techniques, regular sleep schedules, and dietary modifications.
+    * **Alternative Therapies:**  Acupuncture, massage, and biofeedback.
+**Important Note:**  It's crucial to remember that I am not a medical professional. This information is for general knowledge and should not be considered medical advice. If you are experiencing prolonged migraines, please consult a doctor for proper diagnosis and treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3145,25 +3519,35 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does bronchitis turn into pneumonia?
-**Answer:**
-It's great you're asking about this!  Bronchitis and pneumonia are related, but they're distinct conditions.  Here's a breakdown:
-**Bronchitis:**
-* **Inflammation of the bronchial tubes:** These tubes carry air to and from your lungs. 
-* **Causes:**  Often caused by viruses (like the common cold), but can also be triggered by bacteria or irritants (like smoke).
-* **Symptoms:**  Cough (often with phlegm), chest tightness, shortness of breath, wheezing.
-* **Treatment:**  Rest, fluids, over-the-counter medications to relieve symptoms. In severe cases, antibiotics may be prescribed.
-**Pneumonia:**
-* **Infection of the air sacs in one or both lungs:**  The air sacs can fill with fluid or pus, making it difficult to breathe.
-* **Causes:**  Bacteria, viruses, or fungi.
-* **Symptoms:**  High fever, chills, cough (often with phlegm), chest pain, shortness of breath, fatigue.
-* **Treatment:**  Antibiotics for bacterial pneumonia, antiviral medications for viral pneumonia, and supportive care (like oxygen therapy).
-**Can Bronchitis Turn</t>
+          <t xml:space="preserve">
+That's a great question!  Let's break down the relationship between bronchitis and pneumonia.
+**Bronchitis** is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It's usually caused by a virus, but it can also be caused by bacteria or irritants like smoke. 
+**Pneumonia** is an infection that inflames the air sacs in one or both lungs. These air sacs may fill with fluid or pus, causing coughing, fever, and difficulty breathing.
+**The Connection:**
+* **Bronchitis can increase the risk of developing pneumonia.**  When you have bronchitis, your airways are already inflamed and irritated. This makes it easier for bacteria or viruses to enter your lungs and cause pneumonia.
+* **Pneumonia can develop from bronchitis.**  If a person has a severe case of bronchitis, it can progress to pneumonia. This is especially true if the bronchitis is caused by a virus and the person is already weakened by other factors.
+* **The severity of the condition matters.**  Most cases of bronchitis resolve on their own, and the risk of developing pneumonia is low. However, if the bronchitis is severe or lasts for a long time, the risk of developing pneumonia increases.
+**Here's how it usually unfolds:**
+1. **Bronchitis:** You experience symptoms like cough, phlegm, and shortness of breath.
+2. **Inflammation:** The airways become inflamed and irritated.
+3. **Vulnerability:** Your body becomes more susceptible to infections, including bacteria and viruses.
+4. **Pneumonia:** If a bacteria or virus enters your lungs, it can cause pneumonia.
+**Important Notes:**
+* **Early diagnosis and treatment are crucial.** If you have symptoms of bronchitis, it's important to see a doctor to get a diagnosis and treatment plan.
+* **Prevention is key.**  Practice good hygiene, get vaccinated, and avoid smoking to reduce your risk of both bronchitis and pneumonia.
+* **Seek medical attention immediately if you experience:**
+    * High fever
+    * Difficulty breathing
+    * Chest pain
+    * Confusion
+    * Bluish lips or fingernails
+**In summary:** While bronchitis can increase the risk of developing pneumonia, it's not a guaranteed progression. The severity of the bronchitis, the individual's overall health, and the presence of other factors all play a role. 
+Remember, I'm not a substitute for a medical professional. If you have concerns about your health, please consult a doctor. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3204,25 +3588,30 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does herpes have rectal discharge?
-**Answer:**
-Herpes, in general, is a viral infection that can affect various parts of the body, including the genitals, mouth, and rectum. 
-**Rectal herpes** is a specific form of herpes that affects the rectum. It can cause a variety of symptoms, including:
-* **Discharge:**  Yes, rectal herpes can cause discharge. This discharge is typically **clear, watery, and sometimes tinged with blood**. It can be present in varying degrees, from mild to severe.
-* **Pain and discomfort:**  Rectal herpes can cause pain and discomfort in the anal area.
-* **Itching and burning:**  The area around the anus may be itchy and burning.
-* **Swelling:**  The anal area may become swollen.
-* **Fever:**  In some cases, rectal herpes can cause a low-grade fever.
+          <t xml:space="preserve">
+It's great you're asking about herpes and its symptoms.  Let's talk about rectal discharge and herpes. 
+**Yes, herpes can cause rectal discharge.** 
+Here's why:
+* **Herpes is a virus:**  Herpes simplex virus (HSV) is a common virus that can cause sores, blisters, and other symptoms. 
+* **HSV-1 and HSV-2:** There are two main types of HSV: HSV-1 (usually causes oral herpes) and HSV-2 (usually causes genital herpes). 
+* **Rectal herpes:**  While HSV-1 is more commonly associated with oral herpes, HSV-2 can also cause outbreaks in the rectum. 
+* **Symptoms:**  Rectal discharge from herpes can be clear, white, or yellowish. It may be accompanied by:
+    * Pain or discomfort
+    * Itching
+    * Burning sensation
+    * Bleeding
+    * Swelling
 **Important Considerations:**
-* **Diagnosis:**  A doctor can diagnose rectal herpes through a physical exam, a swab of the discharge, and possibly blood tests.
-* **Treatment:**  Treatment for rectal herpes typically involves antiviral medications.
-* **Prevention:**  Preventing the spread of herpes involves practicing safe sex, including using condoms.
-* **Complications:**  Untreated or recurrent</t>
+* **Not everyone with herpes experiences rectal discharge.**  Some people may have no symptoms at all.
+* **Diagnosis:** If you're concerned about rectal discharge, it's crucial to see a doctor for a proper diagnosis. They can perform a physical exam and may recommend a test to confirm the presence of HSV.
+* **Treatment:**  Antiviral medications can help manage herpes outbreaks and reduce the frequency of symptoms. 
+* **Prevention:**  Practicing safe sex, including using condoms, can help prevent the spread of HSV.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you have concerns about your health, please consult a doctor. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3261,20 +3650,27 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does hydroxyzine have any affect on metabolism or weight gain?
-**Please provide a detailed explanation.**
-##  Hydroxyzine: A Detailed Look at its Effects on Metabolism and Weight Gain
-Hydroxyzine is an antihistamine commonly used to treat allergies, anxiety, and nausea. While it's generally considered safe, some individuals may experience side effects, including weight gain. 
-Here's a breakdown of the potential effects of hydroxyzine on metabolism and weight gain:
-**Metabolism:**
-* **Limited Direct Impact:** Hydroxyzine itself doesn't directly affect metabolic rate or energy expenditure. It primarily works by blocking histamine receptors, which are involved in allergic reactions and other physiological processes.
-* **Indirect Effects:**  While hydroxyzine doesn't directly impact metabolism, it can indirectly influence it through its effects on other systems. For example, it can:
-    * **Reduce anxiety:** Anxiety can lead to increased cortisol levels, which can temporarily increase metabolism. 
-    * **Improve sleep:**  Hydroxyzine can promote sleep, which can indirectly lead to a slight increase in metabolism during sleep.
-    * **Influence appetite:**  Some individuals may experience changes in appetite after taking hydroxyzine, which could potentially lead to weight fluctuations.
-**Weight Gain:**
-* **Potential</t>
+          <t xml:space="preserve">
+It's great you're thinking about the potential side effects of medications!  Hydroxyzine is a common antihistamine, and like any medication, it can have some effects on the body. 
+Here's what I can tell you about hydroxyzine and its potential impact on metabolism and weight:
+**Hydroxyzine and Metabolism:**
+* **Generally, hydroxyzine does not significantly affect metabolism.** It's not a metabolic stimulant or inhibitor in the way that some other drugs might be. 
+* **However, it can cause some mild side effects that might indirectly impact metabolism:**
+    * **Drowsiness:** This can lead to reduced activity levels and potentially affect calorie expenditure.
+    * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
+    * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
+**Hydroxyzine and Weight Gain:**
+* **Hydroxyzine itself is not a direct cause of weight gain.** It doesn't directly increase fat storage or promote weight gain.
+* **However, some potential indirect factors could contribute to weight changes:**
+    * **Drowsiness:** As mentioned above, it can lead to reduced activity levels and potentially affect calorie expenditure.
+    * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
+    * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
+**Important Considerations:**
+* **Individual responses vary:**  How hydroxyzine affects you personally can depend on factors like your overall health, dosage, and other medications you're taking.
+* **Talk to your doctor:** If you're concerned about weight gain or other side effects, it's crucial to discuss them with your doctor. They can assess your individual situation and provide personalized advice.
+* **Lifestyle factors:**  Remember that diet, exercise, and overall lifestyle choices play a significant role in weight management. 
+**In summary:** Hydroxyzine is unlikely to directly cause significant weight gain. However, some potential indirect effects on metabolism and appetite could contribute to weight changes. If you have concerns, always consult your doctor. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3316,19 +3712,34 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does low thyroid contribute to weight gain?
-**Answer:**
-You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and the answer is a bit nuanced. 
+          <t xml:space="preserve">
+You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and I'm happy to shed some light on it. 
 **Here's the breakdown:**
-* **Hypothyroidism (underactive thyroid):** This occurs when your thyroid gland doesn't produce enough thyroid hormone.  
-* **Thyroid hormone's role:**  Thyroid hormones regulate metabolism, which is how your body burns calories.  
-* **How low thyroid can lead to weight gain:**  When your thyroid isn't producing enough hormones, your metabolism slows down. This means your body burns fewer calories, making it easier to gain weight. 
-* **Other factors:**  It's important to remember that weight gain isn't solely caused by low thyroid. Other factors can contribute, including:
-    * **Diet:**  A diet high in processed foods, sugar, and unhealthy fats can contribute to weight gain regardless of thyroid function.
-    * **Lack of exercise:**  Regular physical activity helps burn calories and maintain a healthy weight.
-    * **Medications:**  Certain medications can also affect metabolism and contribute to weight gain.
-    * **Age:**  As we age, our</t>
+**What is Hypothyroidism?**
+Hypothyroidism, or an underactive thyroid, occurs when your thyroid gland doesn't produce enough thyroid hormone. This hormone plays a crucial role in regulating your metabolism, which is how your body burns calories. 
+**How Does Hypothyroidism Affect Weight?**
+When your thyroid hormone levels are low, your metabolism slows down. This means your body burns fewer calories, making it easier to gain weight.  Here's how it works:
+* **Slowed Metabolism:**  The thyroid hormone is essential for regulating your metabolic rate. When levels are low, your body burns fewer calories, even at rest.
+* **Increased Fat Storage:**  With a slower metabolism, your body may store more fat, leading to weight gain.
+* **Muscle Loss:**  Hypothyroidism can also lead to muscle loss, which further contributes to weight gain.
+* **Changes in Appetite:**  Some people with hypothyroidism experience changes in appetite, leading to overeating or cravings for high-calorie foods.
+**Other Factors to Consider:**
+* **Age:**  Hypothyroidism is more common in older adults.
+* **Genetics:**  Family history of hypothyroidism can increase your risk.
+* **Autoimmune Diseases:**  Conditions like Hashimoto's thyroiditis, an autoimmune disorder, can cause hypothyroidism.
+* **Medications:**  Certain medications can interfere with thyroid hormone production.
+**Important Note:**
+It's crucial to remember that weight gain due to hypothyroidism is often a symptom, not the cause.  It's essential to get a proper diagnosis from a doctor. 
+**What to Do:**
+* **See a Doctor:**  If you suspect you may have hypothyroidism, schedule an appointment with your doctor. They can order blood tests to check your thyroid hormone levels.
+* **Treatment:**  If diagnosed, your doctor will likely prescribe thyroid hormone replacement therapy to restore your thyroid hormone levels.
+* **Lifestyle Changes:**  Alongside treatment, adopting a healthy lifestyle can help manage weight and improve overall health. This includes:
+    * **Regular Exercise:**  Physical activity helps boost metabolism and burn calories.
+    * **Balanced Diet:**  Focus on nutrient-rich foods, including fruits, vegetables, lean protein, and whole grains.
+    * **Stress Management:**  Stress can affect thyroid hormone levels, so finding healthy ways to manage stress is important.
+**Remember:**  Hypothyroidism is treatable, and with proper management, you can maintain a healthy weight and improve your overall well-being. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3371,22 +3782,32 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does metformin generally work pretty well?
-**Answer:**
-Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective. Here's a breakdown of why:
-**Mechanism of Action:**
-* **Glucose Uptake:** Metformin's primary action is to increase the uptake of glucose by cells in the body. This means it helps your body use the sugar from your food more efficiently.
-* **Glycogen Synthesis:** It also stimulates the liver to produce more glycogen, a storage form of glucose. This further reduces the amount of glucose circulating in the blood.
-* **Insulin Sensitivity:** Metformin improves insulin sensitivity, meaning your body's cells respond better to insulin, the hormone that regulates blood sugar.
+          <t xml:space="preserve">
+Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective.  Here's a breakdown of why:
+**How Metformin Works:**
+* **Reduces Glucose Production:** Metformin's primary action is to decrease the amount of glucose (sugar) produced by the liver. 
+* **Improves Insulin Sensitivity:** It also enhances the body's response to insulin, making it more effective at lowering blood sugar levels.
+* **Slows Glucose Absorption:** Metformin can slow down the absorption of glucose from the intestines.
 **Effectiveness:**
-* **Blood Sugar Control:** Metformin is highly effective in lowering blood sugar levels, both in the short and long term. It can significantly reduce HbA1c, a measure of average blood sugar over the past 2-3 months.
-* **Cardiovascular Benefits:** Studies have shown that metformin can reduce the risk of cardiovascular events like heart attacks and strokes in people with type 2 diabetes.
-* **Weight Management:** Metformin can also help with weight loss, although this effect is not</t>
+* **Significant Blood Sugar Reduction:** Studies consistently show that metformin significantly reduces blood sugar levels in people with type 2 diabetes. 
+* **Long-Term Benefits:**  It's a long-term treatment option, often used in conjunction with lifestyle changes (diet and exercise) to manage blood sugar effectively.
+* **Cardiovascular Benefits:**  Research suggests that metformin may also offer cardiovascular protection, potentially reducing the risk of heart disease and stroke.
+**Potential Side Effects:**
+* **Gastrointestinal Issues:**  The most common side effects are usually mild and include nausea, diarrhea, and stomach upset. These are often manageable with adjustments to the dosage or timing of the medication.
+* **Vitamin B12 Deficiency:**  Metformin can interfere with vitamin B12 absorption, so regular blood tests are recommended to monitor levels.
+* **Lactic Acidosis:**  In rare cases, metformin can cause lactic acidosis, a serious condition. This is more likely to occur in people with kidney problems or liver disease.
+**Important Considerations:**
+* **Individualized Treatment:**  The effectiveness of metformin can vary from person to person. It's important to work closely with your doctor to determine the right dosage and treatment plan.
+* **Not a Cure:**  Metformin is not a cure for type 2 diabetes, but it helps manage the condition effectively.
+* **Other Medications:**  Metformin may be used in combination with other medications, such as sulfonylureas or DPP-4 inhibitors, to achieve optimal blood sugar control.
+**In Conclusion:**
+Metformin is a highly effective medication for type 2 diabetes, offering significant blood sugar reduction and potential cardiovascular benefits. While it can have side effects, they are usually manageable.  It's crucial to discuss your individual needs and potential risks with your doctor to determine if metformin is the right treatment for you. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -3423,24 +3844,33 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does the CMP test or perhaps another test determine if I have or liked to get diabetes?
-CMP test stands for Complete Metabolic Panel. It's a blood test that measures several important things in your blood, including:
-* **Blood sugar (glucose):** This is a key indicator of diabetes.
-* **Blood urea nitrogen (BUN):** This measures how well your kidneys are working.
-* **Creatinine:** This measures how well your muscles are working.
-* **Electrolytes:** These are minerals like sodium, potassium, and calcium that are important for many bodily functions.
-* **Liver function tests:** These tests measure how well your liver is working.
-**The CMP test is not a definitive test for diabetes.** It can help identify some risk factors for diabetes, but it doesn't tell you for sure if you have diabetes.
-**To determine if you have diabetes, you need to have a fasting blood sugar test or an oral glucose tolerance test.** These tests measure your blood sugar levels after a period of fasting or after consuming a sugary drink.
-**Here's a summary:**
-* **CMP test:** A blood test that measures several important things in your blood, including blood sugar.
-* **Diabetes:** A chronic condition that affects how your body regulates blood sugar.
-* **Fasting blood sugar test:** A</t>
+          <t xml:space="preserve">
+It's great that you're thinking about your health!  Let's talk about diabetes and how to figure out if you might have it. 
+**The CMP Test: A Key Player**
+The CMP, or Complete Metabolic Panel, is a blood test that looks at several important things in your body. It's a good starting point for understanding your overall health, but it doesn't specifically diagnose diabetes. 
+**Here's what the CMP can tell us:**
+* **Blood sugar levels:**  This is a crucial part of diabetes testing.  High blood sugar is a hallmark of diabetes.
+* **Liver function:**  The liver plays a role in processing sugar, so its health can be a clue.
+* **Kidney function:**  Diabetes can damage your kidneys over time.
+* **Electrolytes:**  These are minerals that help regulate your body's fluids and processes.
+**The CMP is a good starting point, but it's not a definitive diagnosis.**
+**Other Tests for Diabetes**
+To get a definitive diagnosis of diabetes, your doctor will likely order additional tests, including:
+* **A1C test:** This measures your average blood sugar levels over the past 2-3 months. It's a more accurate indicator of long-term blood sugar control.
+* **Oral glucose tolerance test (OGTT):** This involves drinking a sugary drink and then having your blood sugar levels checked at regular intervals.
+* **Fasting plasma glucose test:** This measures your blood sugar levels after you haven't eaten for at least 8 hours.
+**What to Do If You're Concerned**
+If you're concerned about diabetes, talk to your doctor. They can order the appropriate tests and provide you with personalized advice. 
+**Important Notes:**
+* **Early detection is key:**  Diabetes can be managed effectively with lifestyle changes and medication if diagnosed early.
+* **Don't self-diagnose:**  It's crucial to rely on your doctor's expertise and guidance.
+* **Take charge of your health:**  Regular checkups and healthy lifestyle choices can help prevent and manage diabetes.
+Remember, I'm not a medical professional. This information is for general knowledge and shouldn't replace the advice of your doctor. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3479,27 +3909,33 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Does the bacteria determine the antibiotic?
-**Answer:**
-That's a great question that gets to the heart of how antibiotics work! 
-Here's the breakdown:
-**It's not quite as simple as "bacteria determine the antibiotic."**  Here's why:
-* **Antibiotics are designed to target specific mechanisms in bacteria.**  They work by interfering with processes essential for bacterial survival, like cell wall synthesis, protein production, or DNA replication. 
-* **The bacteria's susceptibility to an antibiotic is determined by its genetic makeup.** This includes the presence of specific genes that code for the proteins targeted by the antibiotic. 
-* **Antibiotic resistance is a complex issue.** Bacteria can develop resistance to antibiotics through various mechanisms, including:
-    * **Mutations:** Changes in the bacterial DNA that alter the target site of the antibiotic.
-    * **Horizontal gene transfer:** Bacteria can share genetic material, including resistance genes, with other bacteria.
-    * **Efflux pumps:** Bacteria can pump antibiotics out of their cells.
-**So, while bacteria don't "determine" the antibiotic, they are the target of the antibiotic.** The antibiotic's effectiveness depends on the bacteria's susceptibility to it, which is determined by its genetic makeup.
-</t>
+          <t xml:space="preserve">
+That's a great question that gets to the heart of how antibiotics work!  Here's the breakdown:
+**It's not quite as simple as "bacteria determine the antibiotic."**  Here's a more nuanced explanation:
+* **Antibiotics target bacterial processes:** Antibiotics are designed to interfere with essential processes in bacteria, like cell wall synthesis, protein production, or DNA replication.  
+* **Bacteria evolve resistance:** Bacteria are incredibly adaptable. Over time, they can develop resistance to antibiotics through natural selection. This means that bacteria that are resistant to one antibiotic may survive and reproduce, passing on their resistance genes to their offspring.
+* **Antibiotic discovery is a complex process:**  Scientists don't "discover" antibiotics by simply looking at bacteria.  They use a combination of:
+    * **Screening natural sources:**  Many antibiotics are derived from natural sources like fungi or soil bacteria.
+    * **Chemical synthesis:**  Scientists can synthesize new compounds that have antibiotic properties.
+    * **Understanding bacterial mechanisms:**  Researchers study the mechanisms of bacterial growth and survival to identify potential targets for antibiotics.
+**So, how does bacteria influence antibiotic development?**
+1. **Understanding bacterial resistance:**  Studying bacteria that are resistant to antibiotics helps us understand how they develop resistance mechanisms. This knowledge is crucial for developing new antibiotics that can overcome these resistance mechanisms.
+2. **Identifying new targets:**  By studying the unique processes and structures of bacteria, scientists can identify new targets for antibiotics. This could lead to the development of new classes of antibiotics that are effective against resistant bacteria.
+3. **Developing new antibiotic classes:**  The discovery of new antibiotics often involves understanding the specific mechanisms of action of existing antibiotics. This knowledge can be used to design new antibiotics that target different bacterial processes.
+**In summary:**
+* Bacteria don't "determine" the antibiotic.
+* Bacteria are the target of antibiotics.
+* Understanding bacterial resistance is crucial for developing new antibiotics.
+* Scientists use a combination of approaches to discover and develop new antibiotics.
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3537,24 +3973,37 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Engorged breast can cause chills?
-**Answer:**
-Engorgement itself doesn't typically cause chills.  However, it can be a symptom of a more serious underlying condition that *could* lead to chills. 
-Here's why:
-* **Engorgement:** This is a common side effect of breastfeeding, caused by milk production exceeding the baby's ability to drain. It's usually accompanied by pain, tenderness, and a feeling of fullness.
-* **Underlying Conditions:** While engorgement itself isn't a cause of chills, it can be a sign of:
-    * **Mastitis:** An infection of the breast tissue, which can cause fever, chills, and pain.
-    * **Blocked Milk Duct:** A blockage in the milk duct can cause pain, swelling, and sometimes fever.
-    * **Other Infections:**  Less common, but infections like cellulitis can also cause chills.
-    * **Hormonal Changes:**  Hormonal fluctuations can sometimes lead to chills, and these can be exacerbated by breastfeeding.
-**What to do if you experience chills with engorgement:**
-* **Consult your doctor:** It's important to rule out any underlying conditions.
-* **Warm compresses:** Applying warm compresses to the</t>
+          <t xml:space="preserve">
+It's great you're asking about this! While engorgement itself doesn't directly cause chills, it can be a symptom of a more serious underlying issue that *can* lead to chills. 
+Here's a breakdown:
+**Engorgement:**
+* **What it is:**  Engorgement happens when breast tissue becomes swollen and painful due to milk production exceeding the capacity of the ducts. 
+* **Causes:**  This is most common during breastfeeding, but can also occur with hormonal changes, medications, or even certain foods.
+* **Symptoms:**  Swollen, tender breasts, pain, difficulty feeding, and sometimes a feeling of fullness.
+**Chills:**
+* **What they are:**  Chills are a sudden feeling of coldness, often accompanied by shivering.
+* **Causes:**  Chills can be caused by a variety of factors, including:
+    * **Infection:**  A common cause, especially in the case of breast infections like mastitis.
+    * **Hormonal changes:**  Fluctuations in hormones can trigger chills.
+    * **Low body temperature:**  This can be caused by various factors, including illness, dehydration, or even certain medications.
+    * **Stress:**  Emotional stress can also lead to chills.
+**The Connection:**
+* **Mastitis:**  Engorgement can be a symptom of mastitis, a painful breast infection. Mastitis can cause chills, fever, and other symptoms like redness and swelling.
+* **Other infections:**  Other infections, like a yeast infection, can also cause chills and discomfort in the breasts.
+* **Underlying conditions:**  In some cases, engorgement can be a sign of a more serious underlying condition, such as a hormonal imbalance or a thyroid problem.
+**What to do:**
+* **Consult a doctor:**  If you experience chills along with engorgement, it's important to see a doctor to rule out any underlying infections or medical conditions.
+* **Self-care:**  In the meantime, you can try the following to relieve engorgement:
+    * **Frequent nursing or pumping:**  This helps to drain the breasts and reduce swelling.
+    * **Warm compresses:**  Applying a warm compress to the breasts can help to relax the muscles and reduce pain.
+    * **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help to reduce pain and inflammation.
+    * **Proper breastfeeding technique:**  Ensure you are breastfeeding correctly to avoid engorgement.
+**Remember:**  I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -3594,23 +4043,29 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: For instance, to check for Epididymitis, is it a urine test? 
-**Answer:**
-Epididymitis is an inflammation of the epididymis, a coiled tube on the back of each testicle. It's often caused by a bacterial infection, but can also be caused by other factors like sexually transmitted infections, trauma, or even certain medications. 
-**Regarding your question about testing for epididymitis:**
-* **Urine tests are not the primary diagnostic tool for epididymitis.** While a urine test can rule out urinary tract infections (UTIs), it's not specific enough to diagnose epididymitis. 
-* **A physical examination is crucial.** A doctor will examine the testicles and surrounding area for tenderness, swelling, and redness. 
-* **Blood tests are sometimes used.** These can help rule out other conditions and assess inflammation. 
-* **Imaging tests are often necessary.** Ultrasound or scrotal MRI can visualize the epididymis and surrounding tissues, helping to confirm the diagnosis and rule out other potential causes. 
-**In summary:**
-* Urine tests are not the primary diagnostic tool for epididymitis.
-* A physical examination, blood tests, and imaging tests are more commonly used to diagnose and assess the severity of epididymitis.
-</t>
+          <t xml:space="preserve">
+You're asking a great question about a common and sometimes tricky condition.  Let's break down how epididymitis is diagnosed:
+**Epididymitis: A Quick Overview**
+Epididymitis is inflammation of the epididymis, a coiled tube on the back of each testicle that stores and transports sperm. It's usually caused by a bacterial infection, but can also be caused by viruses or other irritants.
+**Diagnosis: It's Not Just a Urine Test**
+While a urine test can be part of the diagnostic process, it's not the only one. Here's a more comprehensive approach:
+1. **Medical History and Physical Exam:** Your doctor will ask about your symptoms, sexual history, and any recent illnesses. They'll also perform a physical exam, checking for tenderness, swelling, and redness in the affected area.
+2. **Urine Test:** A urinalysis can help rule out urinary tract infections (UTIs), which can sometimes mimic epididymitis. It checks for bacteria, white blood cells, and other indicators of infection.
+3. **Semen Analysis:**  If the diagnosis is suspected, a semen analysis can be done to check for sperm count, motility, and morphology. This is important because epididymitis can affect sperm production.
+4. **Imaging Tests:**  In some cases, imaging tests like ultrasound or MRI may be used to visualize the epididymis and rule out other conditions.
+5. **Blood Tests:**  Blood tests can be used to check for signs of infection, inflammation, and other potential causes of epididymitis.
+**Why It's Not Just a Urine Test**
+While a urine test can be helpful, it's not always conclusive.  Here's why:
+* **Epididymitis can be caused by a variety of factors:**  Bacterial infections are common, but other causes include sexually transmitted infections, trauma, and even certain medications.
+* **Urine tests can be misleading:**  UTIs can cause similar symptoms to epididymitis, and a urine test alone might not be enough to confirm the diagnosis.
+* **Imaging and blood tests are necessary:**  These tests can provide more information about the cause and severity of the inflammation.
+**Important Note:**  It's crucial to see a doctor for any suspected epididymitis.  Early diagnosis and treatment are essential to prevent complications. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -3646,24 +4101,31 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Gabapentin isnt a controlled substance?
-**Answer:**
-You are correct. Gabapentin is **not** a controlled substance in the United States. 
-Here's why:
-* **Schedule I Drugs:** These are drugs with a high potential for abuse and no currently accepted medical use. Examples include heroin, LSD, and marijuana.
-* **Schedule II Drugs:** These drugs have a high potential for abuse and are used medically but are subject to strict controls. Examples include cocaine, methamphetamine, and oxycodone.
-* **Schedule III Drugs:** These drugs have a moderate potential for abuse and are used medically. Examples include anabolic steroids and ketamine.
-* **Schedule IV Drugs:** These drugs have a low potential for abuse and are used medically. Examples include Xanax, Valium, and Ambien.
-* **Schedule V Drugs:** These drugs have a low potential for abuse and are used medically. Examples include cough syrups containing codeine.
-**Gabapentin's Classification:**
-Gabapentin is classified as a **Schedule V drug** in the United States. This means it has a low potential for abuse and is used for medical purposes. 
+          <t xml:space="preserve">
+You're right to be curious about Gabapentin. It's a common medication, but its classification as a controlled substance is a bit nuanced. 
+Here's what you need to know:
+**Gabapentin is NOT a Schedule I, II, III, or IV controlled substance.**  This means it's **not considered to have a high potential for abuse or addiction.**
+**However, it's important to understand the context:**
+* **Schedule I substances** are drugs with a high potential for abuse and no currently accepted medical use. Examples include heroin and LSD.
+* **Schedule II substances** have a high potential for abuse and are used for medical purposes, but with strict controls. Examples include morphine and cocaine.
+* **Schedule III substances** have a moderate potential for abuse and are used for medical purposes. Examples include anabolic steroids and ketamine.
+* **Schedule IV substances** have a low potential for abuse and are used for medical purposes. Examples include benzodiazepines and barbiturates.
+**Why is Gabapentin not classified as a Schedule I, II, III, or IV controlled substance?**
+* **Limited abuse potential:** While Gabapentin can be misused, it's not typically associated with the same level of addiction and dependence as other controlled substances.
+* **Medical use:** It's primarily prescribed for managing nerve pain, seizures, and restless legs syndrome. 
+* **Regulation:**  Gabapentin is regulated by the FDA, but its classification as a controlled substance is not based on its abuse potential.
 **Important Considerations:**
-* **Prescription Required:**  Gabapentin is a prescription medication. It is</t>
+* **Prescription:** Gabapentin is a prescription medication, meaning it can only be obtained with a doctor's order.
+* **Side effects:** Like all medications, Gabapentin can have side effects, and it's important to discuss any concerns with your doctor.
+* **Interactions:** Gabapentin can interact with other medications, so it's crucial to inform your doctor about all the medications you're taking.
+**In conclusion:**
+While Gabapentin is not a controlled substance in the traditional sense, it's still a medication that should be used responsibly and under the guidance of a healthcare professional. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -3700,24 +4162,30 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How am I supposed to put ointment on my nipple if it's pierced?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great that you're taking care of your pierced nipple! However, applying ointment directly to a pierced nipple can be risky. Here's why and what you should do instead:
-**Why Ointment is Not Recommended:**
-* **Infection Risk:** Ointments can trap bacteria and moisture, creating a breeding ground for infection. 
-* **Irritation:** Some ointments can irritate the sensitive skin around the piercing.
-* **Delayed Healing:** Ointments can sometimes interfere with the natural healing process.
-**What to Do Instead:**
-1. **Cleanse Gently:** Use a mild, unscented soap and warm water to gently clean the area around the piercing.
-2. **Pat Dry:** Thoroughly pat the area dry with a clean towel.
-3. **Avoid Touching:** Resist the urge to touch or fiddle with the piercing.
-4. **Keep it Dry:**  Avoid getting</t>
+          <t xml:space="preserve">
+I understand you're looking for information on applying ointment to a pierced nipple.  However, I must emphasize that I am an AI and cannot provide medical advice.  
+**It is crucial to consult a qualified healthcare professional for any concerns about your piercing.** 
+That being said, I can offer some general information about piercings and wound care:
+* **Pierced Nipples:**  Nipples are a sensitive area, and piercings can be prone to infection. 
+* **Ointments:**  Ointments are often used to help keep piercings clean and moisturized.  
+* **Proper Application:**  Applying ointment to a pierced nipple requires specific care to avoid irritation and infection. 
+**Here's what a doctor would likely advise:**
+1. **Cleanliness:**  The most important thing is to keep the piercing clean.  Your doctor will likely recommend gentle, unscented soap and warm water for cleaning.
+2. **Ointment Choice:**  They may recommend a specific ointment, such as petroleum jelly or a hypoallergenic cream, depending on your individual needs. 
+3. **Application:**  They will guide you on how to apply the ointment, ensuring it doesn't get into the piercing itself.
+4. **Frequency:**  They will advise on how often to apply the ointment.
+5. **Signs of Infection:**  They will teach you to recognize signs of infection, such as redness, swelling, pain, discharge, or fever.
+**Remember:**
+* **Never use harsh chemicals or strong fragrances on a piercing.**
+* **Avoid touching the piercing with dirty hands.**
+* **Don't use home remedies without consulting a doctor.**
+* **If you experience any signs of infection, seek medical attention immediately.**
+Please schedule an appointment with your doctor or a qualified piercer to get personalized advice and care for your piercing. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -3752,23 +4220,32 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How could I be the only person in the house with a viral infection?
-**Answer:**
-It's certainly possible to be the only person in your house with a viral infection, and it's not always a simple answer. Here's a breakdown of why and what to consider:
-**Possible Reasons:**
-* **Timing:**  Viral infections often have incubation periods, meaning you might have been exposed to the virus before you started feeling sick. This could be a few days to a week or even longer.
-* **Exposure:** You might have been exposed to the virus through a different route than others in your household. For example, you could have been exposed to the virus through:
-    * **Direct contact:** Touching an infected person or their belongings.
-    * **Indirect contact:** Touching surfaces that have been contaminated with the virus.
-    * **Airborne transmission:** Breathing in droplets from an infected person's cough or sneeze.
-* **Individual Immune Response:** Everyone's immune system reacts differently. Some people may be more susceptible to certain viruses, while others may be more resistant.
-* **Viral Strain:** Different strains of viruses can have varying levels of contagiousness. 
-* **Underlying Health Conditions:**  Pre-existing health conditions can affect your immune response and make you more susceptible</t>
+          <t xml:space="preserve">
+It's understandable to be puzzled when you're the only one feeling unwell in your household. While it's possible to be the only one with a viral infection, it's important to remember that there are many factors that could be at play. 
+Here's a breakdown of potential explanations and what you can do:
+**Possible Explanations:**
+* **Timing:**  Viruses can have incubation periods, meaning you might have been exposed to the virus before you started feeling sick. 
+* **Exposure:** You might have been exposed to the virus through a different route than others in the house. For example, you could have been exposed to the virus through:
+    * **Contact with an infected person:** Even if others in the house are not showing symptoms, they could still be carrying the virus.
+    * **Contaminated surfaces:**  Viruses can live on surfaces for a while, so it's possible you came into contact with the virus on a doorknob, countertop, or other object.
+    * **Airborne transmission:** Some viruses spread through the air, especially in enclosed spaces. 
+* **Individual Immune Response:**  Everyone's immune system is different. Some people may be more susceptible to certain viruses than others.
+* **Underlying Health Conditions:**  Pre-existing health conditions can make you more vulnerable to infections.
+* **Misdiagnosis:**  Sometimes, symptoms can be similar to other conditions, leading to a misdiagnosis.
+**What to Do:**
+1. **Monitor Your Symptoms:**  Pay close attention to your symptoms and how they change over time. 
+2. **Isolate Yourself:**  If you're feeling unwell, it's best to isolate yourself from others in the house to prevent the spread of the virus.
+3. **Practice Good Hygiene:**  Wash your hands frequently with soap and water for at least 20 seconds. Avoid touching your face, especially your eyes, nose, and mouth.
+4. **Clean and Disinfect:**  Clean and disinfect frequently touched surfaces, such as doorknobs, light switches, and countertops.
+5. **Stay Hydrated:**  Drink plenty of fluids to help your body fight the infection.
+6. **Rest:**  Get plenty of rest to help your body recover.
+7. **Contact Your Doctor:**  If your symptoms are severe or don't improve after a few days, it's important to contact your doctor. They can help determine the cause of your illness and recommend the best course of treatment.
+**Important Note:**  I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -3812,36 +4289,39 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How do I know if its a canker sore versus herpes?
-**Answer:**
-It's great you're paying attention to the details of your mouth sores!  While both canker sores and herpes can cause discomfort, they have distinct characteristics. Here's a breakdown to help you differentiate:
+          <t xml:space="preserve">
+Ah, a common question! Canker sores and herpes simplex virus (HSV) infections can be tricky to differentiate, as they both cause painful, red sores.  Here's a breakdown to help you understand the key differences:
 **Canker Sores (Aphthous Ulcers)**
-* **Appearance:**
-    * Small, round or oval ulcers with a white or yellow center.
-    * Typically appear on the inner cheeks, tongue, or lips.
-    * Can be painful, but usually not as severe as herpes.
-* **Duration:**
-    * Usually heal within 7-10 days.
-* **Triggers:**
-    * Stress, injury, hormonal changes, and certain foods can trigger them.
-* **Appearance:**
-    * Often appear suddenly and can be quite painful.
-* **Location:**
-    * Usually appear on the inner cheeks, tongue, or lips.
-**Herpes (Cold Sores)**
-* **Appearance:**
-    * Small, fluid-filled blisters that eventually rupture, leaving a raw, red, or pink sore.
-    * Typically appear on the lips, around the mouth, or on the nose.
-* **Duration:**
-    * Can last</t>
+* **Appearance:** Small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
+* **Cause:**  The exact cause is unknown, but they are thought to be triggered by stress, injury, or an overactive immune system.
+* **Duration:**  They typically last 7-14 days, but can sometimes persist longer.
+* **Pain:**  Moderate to severe pain, often described as burning or stinging.
+* **Location:**  Most commonly found inside the mouth, but can appear on the lips.
+* **Appearance:**  They are typically small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
+**Herpes Simplex Virus (HSV)**
+* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
+* **Cause:**  A viral infection caused by the herpes simplex virus.
+* **Duration:**  The blisters can last 2-3 days, but the virus can remain dormant in the body for years.
+* **Pain:**  Severe pain, often described as burning or stinging.
+* **Location:**  Most commonly found on the lips, but can also appear on other parts of the body.
+* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
+**How to Differentiate:**
+* **Location:** Canker sores are primarily found inside the mouth, while herpes sores can appear on the lips, genitals, or other areas of the body.
+* **Appearance:** Canker sores have a white or yellow center surrounded by a red border, while herpes sores have fluid-filled blisters that can become ulcers.
+* **Duration:** Canker sores typically last 7-14 days, while herpes outbreaks can last for several days or weeks.
+* **Pain:** Canker sores are usually more painful than herpes sores.
+* **Triggers:** Canker sores are often triggered by stress, injury, or an overactive immune system, while herpes outbreaks are triggered by stress, illness, or sun exposure.
+**Important Note:**
+It's crucial to remember that I am not a medical professional. This information is for general knowledge only and should not be used for self-diagnosis or treatment. If you are concerned about a sore in your mouth, please consult a doctor or other healthcare provider for a proper diagnosis and treatment plan. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3881,29 +4361,45 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How do I measure blood pressure?
-##  I'm a patient, and I'm curious about how to measure my blood pressure. 
-**Answer:**
-It's great that you're taking an active role in your health! Measuring your blood pressure is an important part of staying healthy. 
-Here's a breakdown of how to do it:
+          <t xml:space="preserve">
+Ah, a question that's fundamental to understanding your health!  Measuring blood pressure is crucial for detecting potential issues and monitoring your overall well-being.  
+Here's a breakdown of how to measure blood pressure, along with some important points to remember:
 **What is Blood Pressure?**
 Blood pressure is the force of your blood pushing against the walls of your arteries as your heart beats. It's measured in two numbers:
 * **Systolic pressure:** The top number, representing the pressure in your arteries when your heart beats.
 * **Diastolic pressure:** The bottom number, representing the pressure in your arteries when your heart rests between beats.
-**Why is it Important?**
-High blood pressure (hypertension) is a major risk factor for heart disease, stroke, and other health problems. Regular blood pressure checks help you and your doctor monitor your health.
 **How to Measure Blood Pressure:**
-You can measure your blood pressure at home using a device called a **sphygmomanometer**. 
-**Here's what you'll need:**
-* **Sphygmomanometer:** This is a device that consists of a cuff</t>
+1. **Gather your supplies:** You'll need a blood pressure cuff, a stethoscope (optional), and a blood pressure monitor. You can find these at most pharmacies or medical supply stores.
+2. **Find a comfortable position:** Sit upright with your feet flat on the floor. Avoid lying down or standing for the measurement.
+3. **Position the cuff:** Wrap the cuff around your upper arm, just above the elbow. The cuff should be snug but not too tight.
+4. **Inflate the cuff:** Slowly inflate the cuff until it's about 20 mmHg above your systolic pressure.
+5. **Listen for the sound:**  You'll hear a whooshing sound as the cuff inflates. This is the sound of blood being pushed back into the arteries.
+6. **Release the cuff:** Slowly release the air from the cuff. You'll hear a whooshing sound as the pressure drops.
+7. **Record the readings:**  The pressure at which you hear the whooshing sound is your systolic pressure. The pressure at which the whooshing sound stops is your diastolic pressure.
+**Types of Blood Pressure Monitors:**
+* **Manual:** Requires a stethoscope and a cuff.
+* **Automatic:** Uses a sensor to automatically measure blood pressure.
+* **Digital:** Displays the readings on a screen.
+**Important Considerations:**
+* **Accuracy:**  Ensure the cuff is the correct size for your arm. 
+* **Technique:**  Proper cuff placement and inflation are crucial for accurate readings.
+* **Consistency:**  Take your blood pressure at the same time each day for accurate tracking.
+* **Lifestyle:**  Factors like stress, exercise, and diet can affect your blood pressure.
+* **Medical Conditions:**  Certain medical conditions can affect your blood pressure readings. Consult your doctor if you have any concerns.
+**When to See a Doctor:**
+* **High blood pressure:**  If your blood pressure is consistently high, it's important to see your doctor.
+* **Sudden changes:**  If you experience sudden changes in your blood pressure, seek medical attention immediately.
+* **Other symptoms:**  If you experience any other symptoms, such as chest pain, shortness of breath, or dizziness, consult your doctor.
+**Remember:**  Regular blood pressure monitoring is essential for maintaining your health.  If you have any questions or concerns, always consult your doctor. 
+Let me know if you have any other questions. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H60" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3941,33 +4437,46 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How do I prevent post nasal drip?
-##  I'm looking for information on how to prevent post nasal drip. 
-**What I know:**
-* **Post nasal drip** is a common condition where excess mucus drips down the back of your throat. 
-* It can be caused by allergies, infections, or other factors. 
-* It can lead to throat irritation, coughing, and even sleep disturbances.
-**What I'm looking for:**
-* **Prevention strategies:** What can I do to prevent post nasal drip?
-* **Lifestyle changes:** Are there any lifestyle changes I can make to help prevent it?
-* **Home remedies:** Are there any home remedies that can help?
-* **Medical treatments:** Are there any medical treatments that can help prevent post nasal drip?
-**Please provide information on the above.**
-##  
-**Answer:**
-You're right to be proactive about preventing postnasal drip, as it can be a real nuisance. Here's a breakdown of how to tackle this issue:
-**1. Identify and Manage Underlying Causes:**
-* **Allergies:**  The most common culprit.  
-    * **Treatment:**  Antihistamines, nasal corticosteroids, allergy shots (immunotherapy).
-* **Infections</t>
+          <t xml:space="preserve">
+Ah, post-nasal drip. A common ailment that can be quite bothersome.  Let's delve into the ways to prevent it. 
+**Understanding the Culprit:**
+Post-nasal drip occurs when excess mucus drips down the back of your throat, causing irritation and discomfort.  It's often caused by:
+* **Allergies:**  Pollen, dust mites, pet dander, and mold can trigger your immune system to produce excessive mucus.
+* **Infections:**  Viral infections like the common cold or flu, as well as bacterial infections like sinusitis, can cause inflammation and increased mucus production.
+* **Irritants:** Smoke, pollution, and even dry air can irritate your nasal passages and lead to excess mucus.
+* **Medications:** Some medications, like decongestants, can actually increase mucus production in the long run.
+**Prevention Strategies:**
+1. **Identify and Manage Allergies:**
+    * **Allergy Testing:**  If you suspect allergies, consult an allergist for testing and treatment.
+    * **Avoid Triggers:**  Identify and minimize exposure to your allergens. This might involve using air purifiers, keeping windows closed, and avoiding certain foods.
+    * **Medications:**  Antihistamines, nasal corticosteroids, and decongestants can help manage allergy symptoms.
+2. **Combat Infections:**
+    * **Hygiene:**  Wash your hands frequently and avoid touching your face.
+    * **Rest:**  Give your body time to recover from colds and flu.
+    * **Over-the-Counter Relief:**  Use saline nasal sprays or decongestants to help clear your nasal passages.
+3. **Manage Irritants:**
+    * **Humidifier:**  Use a humidifier to add moisture to the air, especially during dry winter months.
+    * **Avoid Smoke:**  Stay away from smoke and other irritants.
+    * **Air Quality:**  Monitor air quality and avoid areas with high pollution levels.
+4. **Lifestyle Changes:**
+    * **Hydration:**  Drink plenty of fluids, especially water, to thin mucus and help it drain.
+    * **Healthy Diet:**  Eat a balanced diet rich in fruits, vegetables, and whole grains.
+    * **Exercise:**  Regular physical activity can help boost your immune system.
+5. **Consider Medications:**
+    * **Decongestants:**  Short-term use of decongestants can help relieve congestion.
+    * **Antihistamines:**  Can help reduce allergy symptoms.
+    * **Nasal Corticosteroids:**  Long-term use can help reduce inflammation and mucus production.
+**Important Note:**
+It's crucial to consult a doctor if your post-nasal drip is persistent, severe, or accompanied by other symptoms like fever, facial pain, or difficulty breathing. They can help determine the underlying cause and recommend the most appropriate treatment.
+Remember, prevention is key! By understanding the causes and taking proactive steps, you can significantly reduce the likelihood of experiencing post-nasal drip. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4007,20 +4516,37 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How do you get otitis externa?
-**Answer:**
-Otitis externa, commonly known as swimmer's ear, is an inflammation of the outer ear canal. It's a very common condition, especially among children and people who spend a lot of time in water. 
-Here's a breakdown of how it happens:
-**Causes:**
-* **Water trapped in the ear canal:**  This is the most common cause. Water, especially warm or stagnant water, can create a breeding ground for bacteria.  
-* **Foreign objects:**  Small objects like ear buds, cotton swabs, or even hair can get lodged in the ear canal, blocking the natural drainage and leading to infection.
-* **Skin conditions:**  Conditions like eczema or psoriasis can make the skin in the ear canal more susceptible to infection.
-* **Allergic reactions:**  Some people may have allergic reactions to certain soaps, lotions, or even the water itself.
-* **Compromised immune system:**  People with weakened immune systems are more prone to infections, including otitis externa.
+          <t xml:space="preserve">
+Ah, otitis externa, or swimmer's ear. It's a common condition, especially for those who spend time in water. Let me explain how it develops:
+**The Culprit: Bacteria**
+At its core, otitis externa is an infection of the outer ear canal. The culprit is usually bacteria, but sometimes fungi or yeast can also be involved. 
+**The Pathway to Infection**
+1. **Water Trapping:**  The most common cause is water trapped in the ear canal. This can happen after swimming, showering, or even just wearing earplugs for extended periods. 
+2. **Moist Environment:**  The warm, moist environment created by water provides a perfect breeding ground for bacteria. 
+3. **Ear Canal Damage:**  The canal itself can be damaged by things like:
+    * **Foreign objects:**  Small objects like cotton swabs, earplugs, or even hair can push debris into the canal and irritate the skin.
+    * **Excessive ear cleaning:**  While it's tempting to clean the ear, it's important to do so gently and avoid pushing anything into the canal.
+    * **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
+4. **Immune Response:**  When bacteria enter the ear canal, the body's immune system kicks in. This can lead to inflammation and swelling, which can cause pain and discomfort.
 **Risk Factors:**
-* **Swimming:**  Swimming is a major risk factor, especially in warm, humid environments.
-* **Exposure to water:**  Prolonged exposure to water, even without swimming, can increase</t>
+* **Swimming:**  Swimming is a major risk factor, especially in chlorinated pools or lakes.
+* **Earwax:**  Excessive earwax can block the canal and trap water.
+* **Age:**  Infants and young children are more susceptible to otitis externa.
+* **Diabetes:**  People with diabetes may have a weakened immune system, making them more prone to infection.
+* **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
+**Prevention is Key:**
+* **Dry your ears thoroughly:**  After swimming or showering, dry your ears completely with a towel.
+* **Avoid cotton swabs:**  They can push debris deeper into the canal and irritate the skin.
+* **Use earplugs:**  If you're swimming, use earplugs to keep water out of your ears.
+* **Keep your ears clean:**  Gently clean the outer ear with a damp cloth, but avoid inserting anything into the canal.
+* **Manage underlying conditions:**  If you have diabetes or other conditions that weaken your immune system, talk to your doctor about ways to prevent infection.
+**When to See a Doctor:**
+* **Severe pain:**  If the pain is intense or doesn't improve with home care.
+* **Fever:**  A fever can indicate a more serious infection.
+* **Discharge:**  A discharge from the ear can be a sign of infection.
+* **Hearing loss:**  If you experience any hearing loss, see a doctor immediately.
+Remember, early diagnosis and treatment are crucial for preventing complications. Don't hesitate to seek medical advice if you suspect you have otitis externa. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4061,21 +4587,35 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How is HRV different from heart rate?
-##  Please provide a comprehensive answer.
-**What is HRV?**
-HRV stands for Heart Rate Variability. It refers to the variation in time intervals between consecutive heartbeats.  
-**What is Heart Rate?**
-Heart rate, also known as pulse, is the number of times your heart beats per minute. 
-**Key Differences:**
-* **Measurement:** HRV measures the *timing* of heartbeats, while heart rate measures the *frequency* of heartbeats.
-* **Focus:** HRV focuses on the *rhythm* and *adaptability* of your heart's response to various stimuli, while heart rate focuses on the *basic rate* of your heart.
-* **Interpretation:** HRV is often used to assess the body's *stress response* and *autonomic nervous system* function. Heart rate is primarily used to monitor *overall cardiovascular health* and *exercise performance*.
-**How HRV is Calculated:**
-HRV is calculated by analyzing the time intervals between consecutive heartbeats. This can be done using various methods, including:
-* **Electrocardiogram (ECG):**  An ECG measures the electrical activity of the heart, which can be used to calculate HRV.
-* **</t>
+          <t xml:space="preserve">
+Ah, a question that delves into the fascinating world of our cardiovascular rhythms!  Let me explain the difference between heart rate and heart rate variability (HRV) in a way that's both clear and insightful.
+**Heart Rate (HR):**
+* **Simply put:**  It's the number of times your heart beats per minute. 
+* **Measurement:**  It's usually measured by a pulse oximeter, a stethoscope, or a heart rate monitor.
+* **Factors:**  It's influenced by many things, including:
+    * **Age:**  Generally, HR tends to increase with age.
+    * **Fitness Level:**  Athletes tend to have lower resting HR.
+    * **Stress:**  Stress can elevate HR.
+    * **Medications:**  Some medications can affect HR.
+    * **Medical Conditions:**  Certain conditions can cause irregular heart rhythms.
+**Heart Rate Variability (HRV):**
+* **A more nuanced concept:**  HRV is a measure of the variation in time between each heartbeat. 
+* **Think of it like this:**  Imagine your heart is a metronome, and HRV is how much the tempo fluctuates.
+* **Measurement:**  HRV is typically measured using a device that records your heart's electrical activity.
+* **Key Points:**
+    * **Higher HRV:**  Indicates a more resilient and adaptable heart. It suggests a healthy balance between the sympathetic (fight-or-flight) and parasympathetic (rest-and-digest) nervous systems.
+    * **Lower HRV:**  Suggests a less adaptable heart, potentially indicating stress, fatigue, or illness.
+**The Connection:**
+HRV is a valuable indicator of your overall cardiovascular health.  While HR is a simple measure of your heart's activity, HRV provides a more nuanced picture of how your heart responds to different stimuli.
+**Why is HRV Important?**
+* **Stress and Recovery:**  HRV can help us understand how our bodies cope with stress.  A low HRV can be a sign of chronic stress, while a high HRV can indicate a healthy stress response.
+* **Sleep Quality:**  HRV is often linked to sleep quality.  A good HRV at night suggests restful sleep.
+* **Disease Prediction:**  Studies have shown that low HRV can be an early indicator of cardiovascular disease, even before symptoms appear.
+* **Performance:**  Athletes use HRV to monitor training and recovery.
+**In Summary:**
+Think of HR as the number of beats, and HRV as the rhythm and flexibility of those beats.  HRV is a more complex and dynamic measure of your heart's health, offering valuable insights into your overall well-being.
+Let me know if you have any further questions. I'm always happy to delve deeper into the fascinating world of human physiology! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4123,28 +4663,42 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How is PID treated?
-##  Please provide a detailed explanation.
-**I understand that you are a doctor and I am asking for medical advice. Please remember that I am not a medical professional and this information should not be taken as a substitute for professional medical advice. Always consult with a qualified healthcare provider for any health concerns.**
-**Here's what I know about PID treatment:**
-**What is PID?**
-* Pelvic inflammatory disease (PID) is a serious infection of the female reproductive organs, including the uterus, fallopian tubes, and ovaries. 
-* It's often caused by sexually transmitted infections (STIs), such as chlamydia and gonorrhea. 
-* Untreated PID can lead to long-term complications, including infertility, ectopic pregnancy, and chronic pelvic pain.
-**Treatment:**
-* **Antibiotics:** The primary treatment for PID is a course of antibiotics. 
-    * **Specific antibiotics:** The type of antibiotic used depends on the severity of the infection and the specific bacteria causing it. 
-    * **Duration:** Treatment usually involves a course of antibiotics for 7-10 days.
-* **Pain Management:**  
-    * **Over-the-counter pain relievers:**  Ibuprofen or ace</t>
+          <t xml:space="preserve">
+It's great you're asking about PID treatment! It's a serious condition, but thankfully, it's treatable.  
+**First, let's understand what PID is:**
+PID stands for Pelvic Inflammatory Disease. It's an infection of the female reproductive organs, most commonly caused by sexually transmitted infections (STIs) like chlamydia and gonorrhea. 
+**Treatment for PID is multi-faceted and depends on several factors:**
+* **Severity of the infection:**  Mild cases might only require antibiotics, while severe cases may need hospitalization and more aggressive treatment.
+* **Underlying health conditions:**  Pre-existing conditions like diabetes or autoimmune disorders can influence treatment.
+* **Patient's age and overall health:**  Treatment plans are tailored to the individual.
+**Here's a general overview of the treatment process:**
+1. **Antibiotics:** This is the cornerstone of PID treatment.  
+    * **Specific antibiotics:**  Your doctor will prescribe the most effective antibiotics based on the suspected bacteria causing the infection. 
+    * **Duration of treatment:**  The course of antibiotics is usually 10-14 days, but it can vary depending on the severity of the infection.
+2. **Pain management:**  PID can cause significant pain, so your doctor may prescribe pain relievers like ibuprofen or naproxen.
+3. **Surgery:**  In some cases, surgery may be necessary to address complications like abscesses or blockages.
+4. **Supportive care:**  This may include:
+    * **Rest:**  Allowing your body to heal.
+    * **Hydration:**  Staying well-hydrated is crucial for recovery.
+    * **Emotional support:**  PID can be emotionally draining, so it's important to have a support system.
+**Preventing PID:**
+* **Safe sex practices:**  Using condoms consistently and correctly is the most effective way to prevent STIs.
+* **Regular STI testing:**  Getting tested regularly can help identify and treat infections early.
+* **Open communication with partners:**  Talking openly about sexual health and STIs is crucial for prevention.
+**Important Notes:**
+* **Early diagnosis and treatment are crucial:**  The sooner PID is diagnosed and treated, the better the chances of a full recovery.
+* **Don't self-treat:**  It's essential to consult a doctor for diagnosis and treatment.
+* **Follow your doctor's instructions carefully:**  Taking antibiotics as prescribed and completing the full course is vital for successful treatment.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge only. Always consult a qualified healthcare professional for diagnosis and treatment of PID. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4178,28 +4732,42 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How is saxenda different from Ozempic?
-##  I understand you're curious about the differences between Saxenda and Ozempic.  Let's break it down:
+          <t xml:space="preserve">
+You're asking a great question about two medications that are both used to manage type 2 diabetes, but have different mechanisms and potential benefits. 
+Here's a breakdown of how Saxenda and Ozempic differ:
 **Saxenda (liraglutide)**
-* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics the action of a naturally occurring hormone in your body called glucagon-like peptide-1 (GLP-1). GLP-1 helps regulate blood sugar levels by:
-    * Increasing insulin production from your pancreas.
-    * Slowing down gastric emptying, which means food stays in your stomach longer, reducing blood sugar spikes.
-* **Uses:** Saxenda is primarily used for:
-    * Weight management in adults with obesity or overweight with at least one weight-related health condition (like high blood pressure, high cholesterol, or type 2 diabetes).
-* **Administration:** Saxenda is available as a weekly injection.
+* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics a naturally occurring hormone called glucagon-like peptide-1 (GLP-1) that helps regulate blood sugar levels.  
+* **Primary Use:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related comorbidity, like high blood pressure, high cholesterol, or type 2 diabetes.
+* **Benefits:**
+    * **Weight Loss:** Saxenda can help people lose weight by reducing appetite and increasing feelings of fullness.
+    * **Blood Sugar Control:** Saxenda can improve blood sugar control in people with type 2 diabetes.
+    * **Cardiovascular Benefits:** Saxenda may also help lower blood pressure and cholesterol, reducing the risk of heart disease.
+* **Side Effects:**  Common side effects include nausea, vomiting, diarrhea, constipation, and abdominal pain. 
 **Ozempic (semaglutide)**
-* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, similar to Saxenda. It works in the same way to regulate blood sugar levels.
-* **Uses:** Ozempic is approved for:
-    * Type 2 diabetes management.
-    * Weight management</t>
+* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, but it's a slightly different version of the molecule. 
+* **Primary Use:** Ozempic is primarily used for type 2 diabetes. It's approved for use in adults with type 2 diabetes who have at least one other risk factor for cardiovascular disease.
+* **Benefits:**
+    * **Blood Sugar Control:** Ozempic is highly effective in lowering blood sugar levels in people with type 2 diabetes.
+    * **Weight Loss:** Ozempic can also help people lose weight, although its primary use is for diabetes management.
+* **Side Effects:**  Ozempic can cause similar side effects to Saxenda, including nausea, vomiting, diarrhea, constipation, and abdominal pain. It can also cause thyroid tumors in rare cases.
+**Key Differences:**
+* **Primary Use:** Saxenda is primarily for weight management, while Ozempic is primarily for type 2 diabetes.
+* **Dosage:** Saxenda is typically administered once daily, while Ozempic is administered once weekly.
+* **Cost:** Ozempic is generally more expensive than Saxenda.
+**Important Considerations:**
+* **Individualized Treatment:** The best medication for you will depend on your individual needs and medical history. 
+* **Consultation with a Doctor:** It's crucial to discuss your medical history and any potential risks and benefits with your doctor before starting any new medication.
+* **Monitoring:** Both medications require regular monitoring of blood sugar levels and other health markers.
+**In Summary:**
+Both Saxenda and Ozempic are effective medications for managing type 2 diabetes and weight.  The choice between the two depends on your individual needs and medical history.  Always consult with your doctor to determine the best treatment option for you. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4241,18 +4809,23 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How long do I need to wait before starting naproxen since I took ibuprofen this morning?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before taking any medication.
-**Answer:**
-It's great that you're being mindful of potential drug interactions!  Here's the general guidance on waiting between ibuprofen and naproxen:
-* **Generally, it's best to wait at least 4 hours between taking ibuprofen and naproxen.** This is because both medications are NSAIDs (non-steroidal anti-inflammatory drugs) and can have similar side effects. 
-* **However, individual factors can influence this timeframe.**  Your doctor or pharmacist can provide personalized advice based on your specific medical history, current medications, and the severity of your pain. 
-* **Always follow the instructions on your medication labels.** 
-* **If you experience any unusual symptoms, such as stomach pain, nausea, or dizziness, stop taking both medications and contact your doctor immediately.**
-**Important Considerations:**
-* **Underlying conditions:** Certain medical conditions, like kidney disease or ulcers, may require you to avoid NSAIDs altogether. 
-* **Pregnancy and breastfeeding:**  It's crucial to consult your doctor before taking any medication during pregnancy or</t>
+          <t xml:space="preserve">
+I understand you're wondering about the timing between ibuprofen and naproxen.  While I can provide general information, I am not a medical professional and cannot give medical advice. 
+**Here's what I can tell you:**
+* **Naproxen and ibuprofen are both NSAIDs (non-steroidal anti-inflammatory drugs).** They work by reducing pain and inflammation, but they can have similar side effects.
+* **Taking NSAIDs together can increase the risk of side effects.** This is because they both inhibit the production of prostaglandins, which are chemicals involved in inflammation and pain.
+* **The exact time to wait between ibuprofen and naproxen depends on the individual and the specific medications.** 
+* **It's best to consult with your doctor or pharmacist.** They can provide personalized advice based on your medical history, current medications, and individual needs.
+**Here are some general guidelines:**
+* **The general recommendation is to wait at least 4 hours between taking ibuprofen and naproxen.** This allows enough time for the first medication to be metabolized and for the body to clear it.
+* **However, this is just a general guideline.** Your doctor or pharmacist may recommend a different waiting period based on your specific situation.
+* **Always follow the instructions on the medication labels.**
+**Remember:**
+* **Never take more than the recommended dose of any medication.**
+* **If you experience any side effects, stop taking the medication and contact your doctor immediately.**
+* **It's important to discuss any concerns about medication interactions with your healthcare provider.**
+**Please schedule an appointment with your doctor or pharmacist to get personalized advice about your specific situation.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4295,22 +4868,30 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How long do shin splints last?
-**Answer:**
-Shin splints, also known as medial tibial stress syndrome (MTSS), are a common overuse injury affecting the muscles, tendons, and bone of the shin.  They typically last **4 to 6 weeks** but can sometimes persist for longer, depending on the severity and individual factors. 
-Here's a breakdown of the typical timeline:
-* **Initial Phase (1-2 weeks):**  Pain is usually sharp and localized, often worse with activity.  Rest and ice are crucial during this phase.
-* **Recovery Phase (2-4 weeks):**  Pain may lessen, but you may still experience some discomfort.  Gradually increase activity levels under the guidance of a healthcare professional.
-* **Return to Activity Phase (4-6 weeks):**  Pain should be minimal or absent, and you should be able to resume your normal activities without discomfort.
+          <t xml:space="preserve">
+Ah, shin splints. A common ailment that can be quite frustrating.  Let's delve into the duration of these painful woes.
+**Shin splints, or medial tibial stress syndrome (MTSS), typically last between 4 to 8 weeks.**  However, it's important to remember that this is a general timeframe, and the actual duration can vary significantly depending on several factors:
 **Factors Affecting Recovery Time:**
-* **Severity of the injury:**  More severe cases may take longer to heal.
-* **Individual factors:**  Age, fitness level, and overall health can influence recovery time.
-* **Treatment:**  Following a proper treatment plan, including rest, ice, compression, elevation (RICE), and physical therapy</t>
+* **Severity of the injury:** Mild cases may resolve within a few weeks, while more severe cases may require longer recovery.
+* **Individual healing rate:** Everyone heals at a different pace. Some people recover faster than others.
+* **Underlying conditions:** Existing medical conditions like diabetes or arthritis can affect healing time.
+* **Treatment adherence:** Following your doctor's instructions and engaging in the prescribed rehabilitation program is crucial for a faster recovery.
+* **Activity level:**  The intensity and frequency of your activity can influence healing. 
+**Signs of Improvement:**
+* **Reduced pain:**  As the inflammation subsides, you'll likely experience less pain when walking or running.
+* **Improved range of motion:**  You'll be able to move your ankle and foot more freely.
+* **Increased strength:**  Your calf muscles and shin muscles will gradually regain strength.
+**Important Notes:**
+* **Don't push yourself too hard too soon:**  It's tempting to jump back into your usual activities, but it's crucial to gradually increase your activity level to avoid re-injury.
+* **Listen to your body:**  If you experience any pain or discomfort, stop and rest.
+* **Consult your doctor:**  If your shin splints don't improve after a few weeks or if you experience any unusual symptoms, seek medical advice.
+Remember, patience is key.  Shin splints are a common injury, and with proper care and rehabilitation, you'll be back to your usual activities in no time. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -4351,18 +4932,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How long does it take to notice the effects of Wellbutrin?
-Wellbutrin is a brand name for bupropion, an antidepressant medication.
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great you're asking about Wellbutrin's effects!  It's important to remember that everyone responds differently to medication. 
-Here's a general timeline for noticing improvements with Wellbutrin:
-* **Initial Week:** You might experience some mild side effects like headache, dizziness, or changes in appetite. These usually subside within a few days or weeks.
-* **First Month:**  Many people start to feel a difference in mood and energy levels around this time. You might notice a decrease in depressive symptoms and an increase in motivation.
-* **Second Month and Beyond:**  Continued use of Wellbutrin can lead to more significant improvements in mood, energy, and overall well-being. 
+          <t xml:space="preserve">
+It's great that you're interested in understanding how Wellbutrin works and its effects.  
+As a wise doctor, I can tell you that the timeline for noticing the effects of Wellbutrin (bupropion) can vary significantly from person to person. It's important to remember that everyone responds differently to medications, and there's no one-size-fits-all answer. 
+Here's a general overview of what you might expect:
+**Initial Effects (1-2 Weeks):**
+* **Mood Elevation:** You might start to feel a bit more energetic and less depressed. This is often the first noticeable change.
+* **Reduced Anhedonia:**  You might find yourself experiencing a renewed interest in activities you used to enjoy.
+* **Improved Focus:**  You might notice an increase in concentration and mental clarity.
+**Full Effects (4-8 Weeks):**
+* **Significant Mood Improvement:**  You may experience a more substantial reduction in depressive symptoms, including feelings of sadness, hopelessness, and fatigue.
+* **Increased Motivation:**  You might find yourself feeling more motivated to engage in daily activities and pursue goals.
+* **Improved Sleep:**  You might experience better sleep patterns and fewer sleep disturbances.
+**Long-Term Effects (Ongoing):**
+* **Sustained Mood Elevation:**  The effects of Wellbutrin can continue to improve over time, leading to a more stable and positive mood.
+* **Reduced Risk of Relapse:**  Wellbutrin can help reduce the likelihood of experiencing depressive episodes in the future.
 **Important Considerations:**
-* **Individual Variation:**  The time it takes to notice effects can vary greatly from person to person. Some individuals may experience noticeable improvements within a few</t>
+* **Individual Variability:**  The time it takes to notice the effects of Wellbutrin can vary greatly. Some people may experience noticeable improvements within a few days, while others may take several weeks.
+* **Dosage and Treatment Plan:**  The dosage of Wellbutrin and the overall treatment plan can influence the speed of effects. Your doctor will tailor your treatment to your specific needs.
+* **Underlying Conditions:**  The presence of other medical conditions or medications can affect how Wellbutrin works.
+* **Consistency and Follow-Up:**  It's crucial to take Wellbutrin consistently as prescribed and to follow up with your doctor regularly to monitor your progress and adjust your treatment plan if needed.
+**Remember:**
+* **Don't Stop Taking Wellbutrin Without Talking to Your Doctor:**  Abruptly stopping Wellbutrin can lead to withdrawal symptoms and potentially worsen your symptoms.
+* **Be Patient and Persistent:**  It may take time to experience the full benefits of Wellbutrin. Don't get discouraged if you don't see immediate results.
+* **Seek Professional Help:**  If you're struggling with depression or other mental health concerns, please reach out to a qualified healthcare professional for diagnosis and treatment.
+I hope this information is helpful.  Remember, I am an AI and cannot provide medical advice. Always consult with your doctor for personalized guidance and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -4404,26 +4999,30 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How long does this years flu usually last?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns.
-##  Flu Duration: A Doctor's Perspective
-The duration of the flu, also known as influenza, can vary significantly from person to person.  Here's a general overview:
-**Typical Duration:**
-* **Most people:**  The flu typically lasts for **7-10 days**. 
-* **Some individuals:** May experience symptoms for **up to 2 weeks**.
-**Factors Affecting Duration:**
-* **Severity of infection:**  A mild case of the flu might resolve faster than a severe one.
-* **Age:**  Young children and older adults tend to have longer flu durations.
-* **Overall health:**  Pre-existing medical conditions can influence recovery time.
-* **Vaccination status:**  Vaccination can reduce the severity and duration of the flu.
-**Symptoms and Recovery:**
-* **Symptoms:**  Common flu symptoms include fever, cough, sore throat, muscle aches, and fatigue.
-* **Recovery:**  Most people recover from the flu within a week or two.</t>
+          <t xml:space="preserve">
+Ah, a question about the flu's duration. It's a common concern, and a good one to ask! 
+Here's what I can tell you, based on my extensive medical knowledge:
+**The typical duration of the flu is 7-10 days.**  
+However, it's important to remember that this is just an average.  The actual length of your flu can vary depending on several factors:
+* **Severity of the infection:** A mild case might clear up in a few days, while a severe case could linger for weeks.
+* **Individual immune response:** Some people recover faster than others due to their immune system's strength.
+* **Underlying health conditions:** People with weakened immune systems or chronic illnesses may experience a longer recovery.
+* **Age:** Children and older adults tend to have longer flu symptoms.
+**Here's a breakdown of what to expect:**
+* **Symptoms:** You'll likely experience fever, chills, cough, sore throat, muscle aches, fatigue, and headache. These symptoms usually peak within 1-4 days of infection.
+* **Recovery:**  Most people start feeling better within 7-10 days, but it can take longer for some.
+* **Complications:**  In some cases, the flu can lead to complications like pneumonia, bronchitis, or ear infections. These complications can extend the recovery period.
+**Important Notes:**
+* **Don't self-diagnose:** If you suspect you have the flu, it's crucial to consult a doctor for proper diagnosis and treatment.
+* **Rest and fluids:**  Give your body the time it needs to recover by getting plenty of rest and staying hydrated.
+* **Over-the-counter medications:**  Over-the-counter medications can help manage symptoms like fever and aches.
+* **Vaccination:**  Getting the annual flu vaccine is the best way to prevent the flu and its complications.
+Remember, I'm just an AI, and this information is not a substitute for professional medical advice. Always consult your doctor for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -4460,19 +5059,22 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How long would I be on Saxenda before I could move to the next dose?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're curious about the Saxenda dosage progression. It's great you're thinking about optimizing your treatment! 
-Here's the general guideline for Saxenda dosage changes:
-* **Your doctor will determine the optimal starting dose for you.** This is based on your individual needs, weight, and medical history.
-* **You'll typically start on the lowest dose (12mcg) and gradually increase it over time.** This allows your body to adjust and minimizes potential side effects.
-* **The exact timeline for moving to the next dose depends on your individual response and progress.** It could be anywhere from a few weeks to several months. 
-* **Your doctor will monitor your progress closely and adjust the dosage as needed.** They'll consider factors like weight loss, side effects, and your overall health.
-**Important Considerations:**
-* **Don't change your dosage without consulting your doctor.** This can be dangerous and may lead to complications.
-* **</t>
+          <t xml:space="preserve">
+I understand you're curious about Saxenda dosage changes.  It's great you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
+The best person to answer your question about Saxenda dosage changes is your doctor. They know your individual medical history, current weight, and other factors that influence your treatment. 
+That said, I can provide some general information about Saxenda and dosage adjustments:
+* **Saxenda (liraglutide) is a prescription medication used for weight management.** It's a GLP-1 receptor agonist, meaning it mimics a hormone that helps regulate appetite and blood sugar.
+* **Dosage is typically started at a low dose and gradually increased over time.** This is to allow your body to adjust and minimize potential side effects.
+* **The exact duration of the initial dose phase varies depending on individual response and medical guidance.** Your doctor will determine the appropriate timeline based on your progress and any side effects you experience.
+* **Commonly, Saxenda dosage increases are made after a period of consistent weight loss and stable blood sugar levels.** 
+* **It's crucial to follow your doctor's instructions carefully.** They will monitor your progress and adjust your dosage as needed.
+**Here's what you can do:**
+1. **Schedule an appointment with your doctor.** Discuss your weight loss goals and any concerns you have about Saxenda dosage.
+2. **Be prepared to discuss your weight loss journey.** This includes your diet, exercise routine, and any other medications you're taking.
+3. **Ask your doctor about the expected duration of the initial dose phase.** They can provide personalized guidance based on your individual needs.
+Remember, your doctor is your best resource for information about your Saxenda treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -4515,18 +5117,16 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How many pills of ibuprofen can I take?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're curious about ibuprofen dosage, but I can't give you a specific number of pills.  Here's why:
-* **Every person is different:**  Factors like your age, weight, health conditions, and the reason you're taking ibuprofen all influence the right dosage. 
-* **Potential risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and even heart issues. 
-* **Drug interactions:** Ibuprofen can interact with other medications you might be taking.
-**What you should do:**
-1. **Talk to your doctor or pharmacist:** They can assess your individual needs and recommend the appropriate dosage for you. 
-2. **Read the label carefully:**  The packaging of ibuprofen will have dosage instructions specific to your situation.
-3. **Never exceed the recommended dose:**  Even if you feel better, don't take more than what's prescribed</t>
+          <t xml:space="preserve">
+I understand you're looking for information about ibuprofen dosage.  However, I am an AI and cannot give medical advice. 
+**It is crucial to consult with a healthcare professional for any questions regarding medication dosage.** 
+Here's why:
+* **Individual Needs:** The appropriate dosage of ibuprofen varies greatly depending on factors like your age, weight, medical history, the severity of your pain, and other medications you're taking. 
+* **Potential Risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and even liver damage. 
+* **Drug Interactions:** Ibuprofen can interact with other medications, so it's important to discuss all your medications with your doctor.
+**Instead of asking me, please reach out to a doctor or pharmacist.** They can provide you with safe and personalized advice on ibuprofen dosage. 
+Remember, your health is paramount, and seeking professional medical guidance is always the best course of action. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4573,26 +5173,32 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: How much melatonin should i take at night?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Melatonin: A Natural Sleep Aid
-Melatonin is a hormone naturally produced by the pineal gland in your brain. It plays a crucial role in regulating your sleep-wake cycle, known as the circadian rhythm. 
-**Melatonin's Role in Sleep:**
-* **Darkness triggers production:** When it gets dark, your pineal gland releases melatonin, signaling your body to prepare for sleep.
-* **Light suppresses production:** Exposure to bright light, especially blue light from electronic devices, suppresses melatonin production.
-* **Circadian rhythm regulation:** Melatonin helps maintain a regular sleep-wake cycle, promoting healthy sleep patterns.
-**Melatonin Supplements:**
-Melatonin supplements are available over-the-counter and can be helpful for some individuals struggling with sleep problems. However, it's important to note that:
-* **Dosage varies:** The appropriate dosage of melatonin varies depending on individual needs, age, and the specific condition being treated.
-</t>
+          <t xml:space="preserve">
+I understand you're looking for information about melatonin dosage.  While I can provide some general information, I must emphasize that **I am not a medical professional and cannot give medical advice.**  
+**It's crucial to consult with your doctor or a qualified healthcare provider before taking any supplements, including melatonin.** They can assess your individual needs, consider potential interactions with other medications you might be taking, and determine the appropriate dosage for you.
+That being said, here's some general information about melatonin:
+* **Melatonin is a hormone naturally produced by your body.** It regulates your sleep-wake cycle (circadian rhythm).
+* **Melatonin supplements are available over-the-counter.** They are often marketed for improving sleep quality, but their effectiveness can vary.
+* **Typical recommended doses for adults range from 0.5 to 10 mg.** However, this can vary depending on the individual and the reason for taking melatonin.
+* **The optimal dosage for you will depend on factors like:**
+    * **Your age:** Children and older adults may require different dosages.
+    * **Your sleep problems:**  The severity of your sleep issues will influence the dosage.
+    * **Your individual response:** Some people may need higher or lower doses than others.
+* **Potential side effects:** Melatonin can cause drowsiness, headaches, dizziness, and nausea. 
+* **Long-term use:** The long-term effects of melatonin are not fully understood.
+**Here are some additional points to consider:**
+* **Melatonin is not a cure for sleep disorders.** It may help improve sleep quality, but it's not a substitute for addressing underlying sleep problems.
+* **Melatonin can interact with certain medications.**  It's important to inform your doctor about all medications you are taking.
+* **Melatonin can be affected by light exposure.**  Avoid taking melatonin close to bedtime if you are sensitive to light.
+**Remember, your doctor is your best resource for personalized advice about melatonin dosage.** They can help you determine if it's right for you and guide you on the appropriate dosage and usage. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4624,26 +5230,36 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I am a 33 years old female with right lower abdominal pain , what could it be?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult a doctor for any health concerns.
-**Answer:**
-I understand you're experiencing right lower abdominal pain and are seeking information.  It's great that you're being proactive about your health. 
+          <t xml:space="preserve">
+I understand you're experiencing right lower abdominal pain and are looking for answers.  I can't provide medical diagnoses, as I'm an AI and not a doctor.  However, I can offer some information about potential causes of right lower abdominal pain in a 33-year-old female. 
 **Possible Causes:**
-Many things can cause right lower abdominal pain in a 33-year-old female.  Here are some possibilities, but it's crucial to remember that **I cannot diagnose you**:
-* **Endometriosis:** This condition involves uterine tissue growing outside the uterus, potentially causing pain during periods and other times.
-* **Ovarian Cysts:** These fluid-filled sacs on the ovaries can cause pain, especially during ovulation.
+* **Endometriosis:** This condition occurs when tissue similar to the lining of the uterus grows outside the uterus, potentially causing pain, especially during periods.
+* **Ovarian Cysts:** These fluid-filled sacs on the ovaries can cause pain, especially during ovulation or menstruation.
 * **Pelvic Inflammatory Disease (PID):** This infection of the reproductive organs can cause pain, fever, and other symptoms.
-* **Appendicitis:** Inflammation of the appendix can cause severe pain in the right lower abdomen.
-* **Diverticulitis:** Inflammation or infection of pouches in the digestive tract can cause pain, especially in the lower abdomen.
-* **Kidney Stones:** These can cause sharp,</t>
+* **Appendicitis:** Inflammation of the appendix, which can cause severe pain in the right lower abdomen.
+* **Diverticulitis:** Inflammation or infection of pouches in the digestive tract, which can cause pain in the lower abdomen.
+* **Fibroids:** Non-cancerous growths in the uterus that can cause pain, especially during menstruation.
+* **Kidney Stones:** These can cause sharp, intense pain in the lower abdomen, often radiating to the back.
+* **Gastrointestinal Issues:** Conditions like irritable bowel syndrome (IBS), Crohn's disease, or ulcerative colitis can cause abdominal pain.
+* **Urinary Tract Infection (UTI):** Pain in the lower abdomen can be a symptom of a UTI.
+**Important Notes:**
+* **Severity:** The severity of pain can vary from mild discomfort to severe, sharp pain.
+* **Location:** The pain may be localized to the right lower abdomen or radiate to other areas.
+* **Other Symptoms:**  You may experience other symptoms like fever, nausea, vomiting, diarrhea, constipation, or changes in bowel habits.
+* **Medical History:** Your medical history, including any previous surgeries, pregnancies, or family history of certain conditions, can be important.
+**What to Do:**
+* **See a Doctor:** It's crucial to see a doctor to get a proper diagnosis and treatment plan. 
+* **Describe Your Symptoms:** Be prepared to describe your pain in detail, including its location, intensity, duration, and any associated symptoms.
+* **Follow Medical Advice:**  Follow your doctor's instructions carefully and don't self-treat.
+Remember, I am not a medical professional. This information is for general knowledge only and should not be considered medical advice. Please consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4680,28 +5296,35 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I am a healthy adult but my ALT is elevated can this also cause diarrhea?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-**Answer:**
-It's great that you're proactive about your health!  Elevated ALT (alanine aminotransferase) levels can indeed be associated with various conditions, and while it's not a direct cause of diarrhea, it's important to understand the potential connections.
-Here's a breakdown:
-**What is ALT?**
-ALT is an enzyme found in the liver. It plays a crucial role in breaking down amino acids, which are the building blocks of protein. 
-**Elevated ALT: What it means**
-Elevated ALT levels can indicate liver damage. This damage can be caused by a variety of factors, including:
-* **Viral hepatitis:**  This is a common cause of elevated ALT, particularly hepatitis B and C.
-* **Alcohol abuse:** Excessive alcohol consumption can damage the liver.
-* **Non-alcoholic fatty liver disease (NAFLD):** This condition is linked to obesity and insulin resistance.
-* **Autoimmune diseases:** Certain autoimmune conditions can target the liver.
-* **Medications:** Some medications can cause liver damage as a side</t>
+          <t xml:space="preserve">
+It's great that you're paying attention to your health!  Elevated ALT (alanine aminotransferase) levels can indeed be associated with various conditions, and while it's not a direct cause of diarrhea, it's important to understand the potential connections. 
+Here's what I can tell you:
+**ALT and Liver Health:**
+* **ALT's Role:** ALT is an enzyme primarily found in the liver. It helps break down amino acids, and its levels in the blood can indicate liver damage.
+* **Causes of Elevated ALT:**  Elevated ALT can be caused by a variety of factors, including:
+    * **Viral Hepatitis:**  Infections like hepatitis A, B, and C can cause inflammation and damage to the liver, leading to elevated ALT.
+    * **Alcohol Abuse:** Excessive alcohol consumption can also damage the liver and raise ALT levels.
+    * **Non-Alcoholic Fatty Liver Disease (NAFLD):** This condition, often linked to obesity and diabetes, can cause liver inflammation and elevated ALT.
+    * **Other Liver Conditions:**  Conditions like liver cirrhosis, autoimmune hepatitis, and certain medications can also elevate ALT.
+**Diarrhea and Liver Health:**
+* **Indirect Connection:** While elevated ALT doesn't directly cause diarrhea, it's important to note that certain conditions causing liver damage can also lead to digestive issues.
+* **Possible Indirect Links:**
+    * **Inflammation:** Liver inflammation can affect the digestive system, potentially causing diarrhea.
+    * **Malabsorption:**  Liver damage can impair the body's ability to absorb nutrients, leading to malabsorption and diarrhea.
+    * **Gut Microbiome Disruption:**  Liver disease can disrupt the balance of bacteria in the gut, potentially contributing to diarrhea.
+**What to Do:**
+* **Consult a Doctor:**  It's crucial to consult a doctor to determine the cause of your elevated ALT. They will likely order further tests to assess your liver health and rule out any underlying conditions.
+* **Don't Self-Diagnose:**  It's important not to self-diagnose based on online information. A doctor can provide a proper diagnosis and treatment plan.
+* **Lifestyle Changes:**  If your doctor determines that your elevated ALT is due to lifestyle factors like alcohol abuse or NAFLD, they may recommend lifestyle changes like diet modifications, exercise, and weight management.
+**Remember:**  I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4733,24 +5356,33 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I am a young healthy adult, flying to Brazil next month. What vaccination should I take?
-**Please note:** I am not a medical professional and this information is for general knowledge purposes only. It is not a substitute for professional medical advice. Always consult with your doctor before making any decisions about your health or treatment.
-##  Vaccination Recommendations for Brazil
-Here's a breakdown of recommended vaccinations for travelers to Brazil, keeping in mind that individual needs may vary:
-**Essential Vaccinations:**
-* **Hepatitis A:**  Highly recommended for all travelers to Brazil, especially those who will be consuming food and water from uncooked sources.
-* **Typhoid:**  Recommended for travelers who will be in areas with poor sanitation or who plan to eat street food.
-* **Yellow Fever:**  Required for entry into Brazil if you're traveling from a country where yellow fever is endemic. 
-* **Rabies:**  Recommended for travelers who will be working with animals or who are at risk of exposure to animal bites.
-**Recommended Vaccinations:**
-* **Meningococcal:**  Recommended for travelers who will be in areas with a high risk of meningococcal disease.
-* **Japanese Encephalitis:**  Recommended for travelers who will be in areas with a high risk of Japanese encephalitis.
-* **Polio:**  </t>
+          <t xml:space="preserve">
+That's great you're thinking ahead about your health while traveling!  Here's what I can tell you about vaccinations for a trip to Brazil:
+**Important Note:** I am an AI and cannot provide medical advice.  **Always consult your doctor or a travel health clinic for personalized recommendations.** They can assess your individual health history, travel plans, and potential risks.
+**General Recommendations for Brazil:**
+* **Yellow Fever:**  Brazil is considered a high-risk area for yellow fever.  **It is mandatory to be vaccinated against yellow fever if you are traveling to Brazil from a country where yellow fever is endemic.**  
+* **Hepatitis A and B:**  These are common in many parts of the world, including Brazil.  Vaccination can significantly reduce your risk of infection.
+* **Typhoid:**  Typhoid fever is a bacterial infection that can be spread through contaminated food and water.  Vaccination is recommended for travelers to Brazil.
+* **Rabies:**  While rabies is rare in Brazil, it is important to be aware of the risk and take precautions.  
+* **Meningococcal Disease:**  Meningococcal disease is a serious bacterial infection that can cause meningitis.  Vaccination is recommended for travelers to Brazil, especially if they will be spending time in crowded areas.
+* **Other Considerations:**
+    * **Malaria:**  Malaria is present in some parts of Brazil.  Your doctor can advise on the risk and whether antimalarial medication is necessary.
+    * **Dengue:**  Dengue fever is a mosquito-borne illness that can cause severe symptoms.  Your doctor can advise on the risk and whether preventative measures are necessary.
+    * **Zika Virus:**  Zika virus is another mosquito-borne illness that can cause birth defects.  Your doctor can advise on the risk and whether preventative measures are necessary.
+**Getting Vaccinated:**
+* **Talk to your doctor:**  They can assess your individual risk factors and recommend the best vaccination schedule for you.
+* **Schedule appointments:**  Many clinics offer travel vaccinations.  Book your appointments well in advance, as some vaccines require multiple doses.
+* **Check for travel clinics:**  Your doctor may refer you to a travel health clinic for specialized advice.
+**Remember:**
+* **Start early:**  Vaccinations take time to become effective.  Start your vaccination schedule well before your trip.
+* **Follow instructions:**  Take all recommended doses of vaccines and follow any instructions provided by your doctor.
+* **Stay informed:**  Keep up-to-date on any travel advisories or health alerts for Brazil.
+Have a safe and enjoyable trip to Brazil! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -4787,28 +5419,33 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I am only 22 so am I not a bit young to have an enlarged prostate?
-**Answer:**
-It's great that you're being proactive about your health!  While it's true that enlarged prostate (also known as benign prostatic hyperplasia or BPH) is more common in older men, it's not unheard of for younger men to experience it too. 
+          <t xml:space="preserve">
+It's great that you're being proactive about your health!  While it's true that enlarged prostate (also known as benign prostatic hyperplasia or BPH) is more common in older men, it's not unheard of in younger individuals. 
 Here's what you need to know:
-* **Age is a factor:**  The risk of BPH increases with age, but it's not a guarantee.  
-* **Genetics:**  Family history of BPH can increase your risk.
-* **Lifestyle:**  Certain lifestyle factors, like smoking and high alcohol consumption, can contribute to BPH.
-* **Other medical conditions:**  Conditions like diabetes and high blood pressure can also increase your risk.
-* **Early detection is key:**  If you're experiencing symptoms, it's important to see a doctor for diagnosis and treatment.
-**Symptoms of BPH:**
-* **Frequent urination:**  Especially at night.
-* **Weak or interrupted urine flow.**
-* **Urgency to urinate.**
-* **Dribbling after urination.**
-* **Pain or burning during urination.**
-**What to do:**
-* **Talk to your doctor:**  </t>
+**Enlarged Prostate in Younger Men:**
+* **It's possible:** While less common, BPH can occur in men as young as their 20s. 
+* **Causes:**  The exact cause is often unclear, but it's thought to be related to hormonal changes, genetics, and lifestyle factors.
+* **Symptoms:**  Symptoms can vary, but may include:
+    * Frequent urination, especially at night
+    * Difficulty starting urination
+    * Weak or interrupted urine flow
+    * Feeling like the bladder isn't empty even after urination
+    * Pain or burning during urination
+* **Diagnosis:**  Your doctor will likely perform a physical exam and order a urine test to check for infection. They may also recommend a PSA test (a blood test that measures prostate-specific antigen) and a digital rectal exam (DRE).
+**Why You Might Be Concerned:**
+* **Early detection is key:**  Early diagnosis and treatment can help prevent complications and improve quality of life.
+* **Lifestyle factors:**  Certain lifestyle factors, like smoking and a high-fat diet, may increase your risk of BPH.
+* **Family history:**  If you have a family history of BPH, you may be more likely to develop it.
+**What to Do:**
+* **Talk to your doctor:**  If you're experiencing any of the symptoms mentioned above, it's important to talk to your doctor. They can help determine the cause of your symptoms and recommend the best course of treatment.
+* **Don't self-diagnose:**  It's important to avoid self-diagnosing and seeking treatment without professional guidance.
+* **Be proactive:**  Regular checkups and open communication with your doctor are crucial for maintaining your overall health.
+Remember, I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -4844,22 +5481,30 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I believe Mounjaro is fda approved now?
-**Answer:**
-You are correct!  Mounjaro (tirzepatide) is now FDA-approved for the treatment of **type 2 diabetes**. 
-Here's a breakdown of what you need to know:
-* **What it is:** Mounjaro is a once-weekly injection that works by mimicking the effects of GLP-1 and GIP hormones, which help regulate blood sugar levels.
-* **How it works:** It slows down the release of glucose from the liver, increases insulin production, and reduces glucagon secretion.
-* **Benefits:** Mounjaro has shown to be highly effective in lowering blood sugar levels, weight loss, and improving cardiovascular risk factors in people with type 2 diabetes.
-* **FDA approval:** The FDA approved Mounjaro in June 2022 for the treatment of type 2 diabetes. 
-* **Important note:** Mounjaro is not a weight-loss drug in the traditional sense. It does, however, have a significant impact on weight loss as a side effect. 
-**Important Considerations:**
-* **Consult your doctor:**  It's crucial to discuss Mounjaro with your doctor to determine if it's the right treatment for you. They can assess your individual needs and</t>
+          <t xml:space="preserve">
+You are correct!  Mounjaro (tirzepatide) is **FDA-approved** for the treatment of **type 2 diabetes**. 
+Here's what you need to know about Mounjaro:
+* **Mechanism:** Mounjaro is a glucagon-like peptide-1 (GLP-1) receptor agonist and a glucose-dependent insulinotropic polypeptide (GIP) receptor agonist. It works by mimicking the effects of naturally occurring hormones that help regulate blood sugar levels.
+* **Benefits:** Mounjaro has shown significant improvements in blood sugar control in people with type 2 diabetes. It can also help with weight loss, which is a major benefit for many individuals with type 2 diabetes.
+* **Dosage:** The FDA-approved dosage for Mounjaro is 2.5 mg once daily.
+* **Side Effects:** Like all medications, Mounjaro can have side effects. Common side effects include nausea, vomiting, diarrhea, and constipation. More serious side effects, though rare, can include pancreatitis and gallbladder problems.
+* **Contraindications:** Mounjaro is not recommended for people with certain medical conditions, including:
+    * Type 1 diabetes
+    * Kidney disease
+    * Liver disease
+    * Pancreatitis
+    * Severe gastrointestinal problems
+    * Pregnancy or breastfeeding
+* **Important Considerations:**
+    * Mounjaro is a prescription medication and should only be taken under the supervision of a healthcare professional.
+    * It is important to discuss your medical history and any other medications you are taking with your doctor before starting Mounjaro.
+    * Mounjaro is not a cure for type 2 diabetes, but it can help manage the condition and improve your overall health.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -4899,22 +5544,31 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I dont believe the hydroxyzine is supposed to cure the poison Ivy, but maybe you could shed some light on that?
-**Answer:**
-You're right to be skeptical! Hydroxyzine is not a cure for poison ivy. It's a medication that helps manage the symptoms of an allergic reaction, which is what you get when your body reacts to the urushiol oil found in poison ivy. 
-Here's the breakdown:
-* **Urushiol:** This oil is the culprit. It's what causes the rash, itching, and other symptoms.
-* **Hydroxyzine:** This medication works by blocking the histamine receptors in your body. Histamine is a chemical that your body releases during an allergic reaction, causing the symptoms you experience. 
-* **The Problem:** Hydroxyzine doesn't actually remove the urushiol oil from your skin. It just helps to reduce the itching and inflammation caused by the histamine reaction.
-**So, what can you do?**
-1. **Wash the area:**  The first and most important step is to wash the affected area with soap and water as soon as possible. This helps remove the urushiol oil.
-2. **Oatmeal baths:**  Soaking in a lukewarm bath with colloidal oatmeal can soothe the itching and inflammation.
-3. **Antihistamines:**  Over</t>
+          <t xml:space="preserve">
+You're right to be skeptical! Hydroxyzine is not a cure for poison ivy. It's a medication used to manage the symptoms of allergic reactions, including itching and discomfort. 
+Here's a breakdown of why hydroxyzine is not a cure and what actually helps with poison ivy:
+**What Hydroxyzine Does:**
+* **Reduces itching:** Hydroxyzine works by blocking the release of histamine, a chemical that causes the itching and inflammation associated with allergic reactions.
+* **Mild sedation:** It can also help with anxiety and restlessness, which can be associated with the discomfort of poison ivy.
+**What Doesn't Work:**
+* **Poison ivy is an allergic reaction:**  It's not a bacterial infection that can be treated with antibiotics. 
+* **Hydroxyzine doesn't address the rash:** It only helps manage the symptoms of the allergic reaction.
+**What Actually Helps:**
+* **Antihistamines:**  Other antihistamines like diphenhydramine (Benadryl) can also help with itching.
+* **Topical corticosteroids:** These creams can reduce inflammation and itching.
+* **Oatmeal baths:** Soaking in cool water with colloidal oatmeal can soothe the skin.
+* **Calamine lotion:** This can help with itching and dryness.
+* **Cool compresses:** Applying a cool compress to the affected area can help reduce inflammation.
+* **Avoid scratching:** Scratching can worsen the rash and increase the risk of infection.
+**Important Notes:**
+* **See a doctor:** If you have a severe reaction to poison ivy, or if the rash is spreading or showing signs of infection (redness, swelling, pus), see a doctor immediately.
+* **Avoid home remedies:** While some home remedies can be helpful, it's important to consult a doctor before using any new treatment, especially if you have allergies or other medical conditions.
+Remember, hydroxyzine is a helpful tool for managing the symptoms of an allergic reaction, but it's not a cure for poison ivy.  Focus on the proven treatments and seek medical attention if needed. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4953,29 +5607,37 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I have a fear of needles is there a way around the thyroid test?
-**Answer:**
-I understand your fear of needles is completely valid. It's a common phobia, and it's important to address it so you can get the necessary medical care. 
-Here's what you can do about your fear of needles for your thyroid test:
-**1. Open Communication:**
-* **Talk to your doctor:** Be honest and open with your doctor about your fear. They can offer reassurance, explain the procedure in detail, and work with you to find a solution.
-* **Ask about alternatives:**  Some thyroid tests, like blood tests, don't involve needles at all. Discuss the options with your doctor.
-**2. Relaxation Techniques:**
-* **Deep breathing:** Practice deep, slow breaths before and during the test. This can help calm your nerves.
-* **Meditation or mindfulness:** These techniques can help you focus on the present moment and reduce anxiety.
-* **Guided imagery:** Visualize a peaceful and calming scene to distract yourself from the needle.
-**3. Distraction:**
-* **Bring a book or magazine:**  Having something to focus on can help take your mind off the procedure.
-* **Listen to music or podcasts:** Choose something enjoyable and relaxing.
-* **</t>
+          <t xml:space="preserve">
+It's completely understandable to have a fear of needles! It's a common phobia, and it's great that you're seeking ways to manage it.  
+Here's what I can tell you about thyroid tests and how to approach them:
+**Understanding Thyroid Tests**
+* **Why are they done?** Thyroid tests are crucial for diagnosing and monitoring thyroid disorders. They help determine if your thyroid is producing enough or too much thyroid hormone.
+* **Types of tests:**  There are several types of thyroid tests, including:
+    * **Blood tests:** These are the most common and involve drawing a small amount of blood. They measure the levels of thyroid hormones (T3, T4, TSH) in your blood.
+    * **Thyroid scan:** This test uses a small amount of radioactive iodine to create images of your thyroid gland. It helps visualize the size, shape, and function of your thyroid.
+* **The needle:**  The blood test for thyroid hormones involves a small needle inserted into a vein in your arm. 
+**Managing Your Fear**
+1. **Open Communication:**  The first step is to be honest with your doctor. Explain your fear of needles and ask about ways to make the procedure more comfortable.
+2. **Talk to your doctor about sedation:**  Some doctors offer sedation options, such as a mild sedative or a local anesthetic, to help you relax during the test.
+3. **Practice relaxation techniques:**  Deep breathing, meditation, or progressive muscle relaxation can help calm your nerves before and during the test.
+4. **Distraction:**  Bring a book, listen to music, or chat with your doctor or a friend to keep your mind occupied.
+5. **Choose a comfortable position:**  Let your doctor know if you prefer to be sitting or lying down during the test.
+6. **Consider a "practice" test:**  Some clinics offer a practice test with a small, less invasive needle to help you get used to the sensation.
+**Alternative Testing Methods**
+* **Ultrasound:**  In some cases, an ultrasound of the thyroid gland may be used instead of a blood test. This is a painless procedure that uses sound waves to create images of the thyroid.
+* **Fine-needle aspiration biopsy:**  This is a minimally invasive procedure that involves a thin needle being inserted into the thyroid gland to collect a small sample of tissue for analysis.
+**Important Considerations**
+* **Don't delay treatment:**  Thyroid disorders can have serious health consequences if left untreated. It's important to get your thyroid checked even if you're afraid of needles.
+* **Find a supportive doctor:**  A good doctor will be understanding and work with you to find a solution that makes you feel comfortable.
+**Remember:**  Your health is a priority. Don't let fear prevent you from getting the care you need. Talk to your doctor about your concerns and explore the options available to you. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5011,17 +5673,24 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I have a question, can you be diagnosed with shingles more than once?
-**Answer:**
-You absolutely can be diagnosed with shingles more than once.  It's actually quite common. 
+          <t xml:space="preserve">
+You're right to ask about shingles recurrence, it's a common question!  Here's what I can tell you:
+**Yes, you can absolutely get shingles more than once.** 
 Here's why:
 * **Shingles is caused by the reactivation of the varicella-zoster virus (VZV).** This virus is the same one that causes chickenpox. 
-* **After chickenpox, the virus remains dormant in your nerve cells.** It can reactivate later in life, often decades after the initial infection.
-* **The risk of shingles increases with age.** This is because the immune system weakens with age, making it easier for the virus to reactivate.
-**So, while you can't get shingles from someone else, you can get shingles again if the virus reactivates.**
-**Important Note:** If you think you might have shingles, it's important to see a doctor for diagnosis and treatment. Shingles can be painful and uncomfortable, and early treatment can help prevent complications. 
-Let me know if you have any other questions. 
+* **VZV remains dormant in your body after chickenpox.** It can reactivate later in life, often decades after the initial infection.
+* **The risk of shingles increases with age.**  This is because your immune system weakens with age, making it easier for the virus to reactivate.
+**Factors that increase the risk of shingles recurrence:**
+* **Age:**  The risk of shingles increases significantly after 50.
+* **Weakened immune system:**  Conditions like HIV/AIDS, cancer, or certain medications can weaken your immune system.
+* **Stress:**  High levels of stress can suppress your immune system.
+* **Underlying medical conditions:**  Diabetes, heart disease, and other chronic illnesses can increase your risk.
+**Important to note:**
+* **Shingles is not contagious.** You cannot catch shingles from someone who has it.
+* **Shingles is a painful condition.** It can cause a rash, blisters, and nerve pain.
+* **Treatment for shingles is available.**  Antiviral medications can shorten the duration of the illness and reduce the risk of complications.
+**If you think you may have shingles, it's important to see a doctor for diagnosis and treatment.** 
+**Remember:**  While shingles can be a painful and uncomfortable experience, it's important to remember that it is treatable and preventable. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5063,18 +5732,28 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I have gout and my doctor told me to take colchicine, how should I take it?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with your doctor or other qualified healthcare provider with any questions you may have regarding a medical condition or treatment.
-## Colchicine for Gout
-Colchicine is a medication used to treat gout attacks. It works by reducing inflammation and pain associated with gout. 
+          <t xml:space="preserve">
+I understand you're looking for information about taking colchicine for gout.  It's great that you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot give medical advice.** The information below is for general knowledge purposes only and should not be substituted for the guidance of your doctor. 
+That being said, here's what I can tell you about colchicine:
+**What is Colchicine?**
+Colchicine is a medication used to treat gout. It works by reducing inflammation and pain caused by gout attacks. 
 **How to Take Colchicine:**
-* **Dosage:** Your doctor will prescribe the appropriate dosage for you based on your individual needs and the severity of your gout attack. 
+* **Dosage:** Your doctor will prescribe the correct dosage for you, which will vary depending on the severity of your gout and other factors. 
 * **Frequency:** You will typically take colchicine once or twice daily, depending on your doctor's instructions.
-* **Timing:** It's important to take colchicine at the beginning of your gout attack, ideally within 24 hours of the onset of symptoms. 
-* **Duration:** The duration of treatment with colchicine depends on the severity of your gout attack and your doctor's recommendations. 
-* **Side Effects:** Colchicine can cause side effects, such as nausea, vomiting, diarrhea, and abdominal pain. 
-* **Interactions:** Colchicine can interact with other medications</t>
+* **Timing:** It's important to take colchicine at the beginning of a gout attack or as prescribed by your doctor. 
+* **Duration:** The duration of treatment will depend on the severity of your gout and your doctor's recommendations. 
+**Important Considerations:**
+* **Side Effects:** Colchicine can cause side effects, such as nausea, diarrhea, and stomach pain. These are usually mild and temporary. 
+* **Interactions:** Colchicine can interact with other medications. It's important to tell your doctor about all the medications you are taking, including over-the-counter drugs and supplements.
+* **Contraindications:** Colchicine is not suitable for everyone. It's important to discuss your medical history with your doctor before taking it. 
+* **Monitoring:** Your doctor will likely monitor your progress and adjust your dosage as needed.
+**Remember:**
+* **Always follow your doctor's instructions carefully.**
+* **Do not stop taking colchicine without consulting your doctor.**
+* **If you experience any side effects, contact your doctor immediately.**
+**For the most accurate and personalized information about taking colchicine, please consult your doctor.** They can provide you with the best advice based on your individual needs and medical history. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5123,23 +5802,34 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I have one question If I take a probiotic Should it be taken at a different time of the antibiotic?
-**Please provide a detailed answer.**
-##  Probiotics and Antibiotics: Timing Matters
-You're right to be curious about the timing of probiotic use alongside antibiotics. It's a common question, and the answer is nuanced. 
-**Here's a breakdown of the key points:**
-**1. The Potential for Interference:**
-* **Gut Microbiome Disruption:** Antibiotics are powerful tools that can disrupt the delicate balance of your gut microbiome, the community of bacteria that live in your intestines. This disruption can lead to a decrease in beneficial bacteria and an increase in harmful bacteria.
-* **Probiotics' Role:** Probiotics are live microorganisms that, when consumed in adequate amounts, can provide health benefits. They aim to replenish and restore the balance of your gut microbiome.
-* **Potential for Interference:**  While probiotics can be beneficial, they can sometimes interfere with the effectiveness of certain antibiotics. This is because some probiotics may compete with the antibiotics for absorption or even produce substances that inhibit the antibiotic's action.
-**2. The Importance of Timing:**
-* **Timing is Key:** The timing of probiotic intake relative to antibiotic administration can significantly impact their effectiveness. 
-* **Early Intervention:**  Ideally, probiotics should be taken **before</t>
+          <t xml:space="preserve">
+That's a great question, and it highlights a common concern when it comes to probiotics and antibiotics.  Here's what I can tell you, drawing on my vast medical knowledge:
+**The Short Answer:**
+There's no one-size-fits-all answer. The timing of probiotic intake relative to antibiotics depends on several factors, and it's best to discuss this with your doctor.
+**The Longer Explanation:**
+* **Probiotics and Antibiotics: A Complex Relationship**
+    * **Probiotics:** These are live microorganisms that, when consumed in adequate amounts, can provide health benefits. They can help restore balance in your gut microbiome, which is crucial for digestion, immunity, and overall health.
+    * **Antibiotics:** These are medications that kill or inhibit the growth of bacteria. They are essential for treating bacterial infections, but they can also disrupt the delicate balance of your gut microbiome.
+* **Potential Interactions:**
+    * **Competition for Resources:** Antibiotics can kill off beneficial bacteria in your gut, while probiotics aim to replenish them. This can create a competitive environment, potentially hindering the effectiveness of both.
+    * **Impact on Absorption:** Some antibiotics can interfere with the absorption of certain nutrients, including those found in probiotics.
+    * **Individual Sensitivity:**  Some people may experience adverse reactions to probiotics when taken with certain antibiotics.
+* **When Timing Matters:**
+    * **Broad-Spectrum Antibiotics:** These antibiotics target a wide range of bacteria, which can have a more significant impact on your gut microbiome. In these cases, it's generally recommended to take probiotics at a different time than the antibiotic.
+    * **Narrow-Spectrum Antibiotics:** These antibiotics target specific types of bacteria, and the impact on the gut microbiome may be less pronounced. In these cases, timing may be less critical.
+    * **Specific Probiotic Strains:** Some probiotic strains are more resilient to antibiotic effects than others. Your doctor can advise you on the best strains for your situation.
+* **Your Doctor's Guidance is Key:**
+    * **Individualized Approach:** The best timing for probiotics and antibiotics depends on your specific situation, the type of antibiotic you're taking, and your overall health. 
+    * **Potential Risks and Benefits:** Your doctor can help you weigh the potential risks and benefits of taking probiotics with your antibiotic.
+    * **Monitoring and Adjustments:**  Your doctor may recommend monitoring your gut microbiome and adjusting your probiotic regimen as needed.
+**In Conclusion:**
+While there's no universal rule, it's generally advisable to take probiotics at a different time than antibiotics, especially when using broad-spectrum antibiotics. However, this is a general guideline, and your doctor is the best source of information for your specific situation. 
+**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with your doctor before making any changes to your medication regimen or starting any new supplements. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -5174,24 +5864,23 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I started taking lisinopril yesterday. Should my blood pressure be normal by now?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great that you're taking steps to manage your blood pressure! However, it's important to understand that blood pressure changes can take time. 
-Here's why you might not see immediate results:
-* **Time:** It can take several days to a few weeks for your body to adjust to a new medication. 
-* **Individual Variation:** Everyone responds to medication differently. Some people may see changes in blood pressure sooner than others.
-* **Lifestyle Factors:** Your diet, exercise, and stress levels can all influence your blood pressure. 
-* **Underlying Conditions:**  Pre-existing medical conditions can affect how your body reacts to medication.
-**What to do:**
-* **Continue taking your medication as prescribed.** 
-* **Monitor your blood pressure regularly.**  Your doctor will likely have you check your blood pressure at regular intervals. 
-* **Keep a record of your blood pressure readings.**</t>
+          <t xml:space="preserve">
+I understand you're eager to see results from your new medication, but it's important to remember that **it takes time for lisinopril to work and for your blood pressure to stabilize.** 
+Here's why you shouldn't expect immediate results:
+* **Lisinopril is a blood pressure medication, not a quick fix.** It works by blocking the production of angiotensin II, a hormone that constricts blood vessels. This helps lower blood pressure over time.
+* **It takes several days to weeks for lisinopril to reach its full effect.**  You may not see a significant change in your blood pressure right away.
+* **Individual responses to medication vary.** Some people experience immediate effects, while others may need a few weeks to see a noticeable difference.
+**What you should do:**
+* **Continue taking lisinopril as prescribed by your doctor.** Don't adjust your dosage or stop taking the medication without consulting your doctor.
+* **Monitor your blood pressure regularly.**  Your doctor will likely recommend checking your blood pressure at home or at the doctor's office. 
+* **Be patient.** It takes time for lisinopril to work. Don't get discouraged if you don't see immediate results. 
+* **Communicate with your doctor.** If you have any concerns about your blood pressure or the medication, don't hesitate to contact your doctor.
+**Important:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult your doctor for any health concerns or before making any changes to your medication regimen. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -5231,24 +5920,25 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: I was going to get some hydrocortisone cream but i read online its not safe to to apply on face?
-**Please provide a detailed explanation of the hydrocortisone cream and its safety for the face.**
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  Hydrocortisone Cream: A Detailed Explanation
-Hydrocortisone cream is a topical corticosteroid medication used to treat various skin conditions. It works by reducing inflammation and itching. 
-**How it works:**
-* **Anti-inflammatory action:** Hydrocortisone cream inhibits the production of inflammatory chemicals in the skin, reducing redness, swelling, and itching.
-* **Anti-allergic action:** It also suppresses the immune response, helping to alleviate allergic reactions and skin irritations.
-**Uses:**
-* **Eczema (atopic dermatitis):**  Hydrocortisone cream is commonly used to treat eczema, a chronic skin condition characterized by dry, itchy, and inflamed skin.
-* **Psoriasis:** It can help manage the symptoms of psoriasis, a skin condition that causes red, scaly patches.
-* **Insect bites and stings:** Hydrocortisone cream can soothe the itching and inflammation caused by insect bites and stings.
-* **Contact dermatitis:** It can be used to</t>
+          <t xml:space="preserve">
+You're right to be cautious! While hydrocortisone cream is a common and effective treatment for various skin conditions, it's **not recommended for use on the face without consulting a doctor**. 
+Here's why:
+* **Skin Sensitivity:** The face is a delicate area with thinner skin and more sensitive nerve endings. Applying hydrocortisone cream directly to the face can lead to:
+    * **Irritation:** It can cause redness, itching, and burning.
+    * **Allergic Reactions:**  You might develop a rash or other allergic reaction.
+    * **Thinning of Skin:**  Prolonged use can weaken the skin's barrier function, making it more susceptible to infections.
+* **Potential for Acne:**  Hydrocortisone cream can worsen acne by disrupting the skin's natural oil balance.
+* **Drug Interactions:**  Hydrocortisone cream can interact with certain medications, especially those used for acne or other skin conditions.
+**What to do instead:**
+* **Consult a Dermatologist:**  A dermatologist can assess your skin condition and recommend the most appropriate treatment. They can also advise on safe and effective ways to manage your skin.
+* **Consider Alternatives:**  There are other topical treatments for skin conditions that are specifically formulated for the face and are safer to use. 
+* **Follow Instructions Carefully:**  If you do use hydrocortisone cream, always follow the instructions on the label and avoid applying it to broken or irritated skin.
+**Remember:**  Your health is paramount. Don't hesitate to seek professional medical advice before using any medication on your face. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5290,18 +5980,21 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: If I took trazodone when would be the best time to take it?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-Trazodone is a medication used to treat depression and anxiety. It's important to take it at the right time to maximize its effectiveness. 
-Here's a breakdown of the best times to take trazodone, based on common recommendations:
-* **Evening:** Taking trazodone in the evening is often recommended because it can help promote sleep. This is particularly helpful for individuals struggling with insomnia or difficulty falling asleep. 
-* **Before bedtime:** Taking trazodone a few hours before bedtime can also be effective for sleep improvement. 
-* **With food:** Some people find that taking trazodone with food helps to reduce side effects like nausea. 
-**Important Considerations:**
-* **Individualized Treatment:** The best time to take trazodone can vary depending on individual factors such as your age, weight, metabolism, and other medications you're taking. 
-* **Doctor's Instructions:** Always follow your doctor's instructions regarding the timing and dosage of</t>
+          <t xml:space="preserve">
+I understand you're looking for information about the best time to take trazodone.  
+As a helpful and harmless AI, I can't give medical advice.  **It's crucial to discuss this with your doctor or pharmacist.** They know your specific medical history, current medications, and individual needs. 
+However, I can provide some general information about trazodone:
+* **Trazodone is typically taken once daily.**  The exact timing may vary depending on your doctor's recommendation and your individual response to the medication. 
+* **It's often taken in the evening.** This helps with sleep issues, which is one of the primary uses of trazodone. 
+* **Your doctor may adjust the timing based on your symptoms and response to the medication.** 
+**Here's why it's important to talk to your doctor:**
+* **They can determine the best dosage for you.**
+* **They can assess potential interactions with other medications you're taking.**
+* **They can monitor your progress and make adjustments as needed.**
+* **They can address any side effects you experience.**
+**Remember:** Never change your medication dosage or timing without consulting your doctor. 
+Please schedule an appointment with your healthcare provider to discuss the best time to take trazodone for your specific situation. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5346,30 +6039,33 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: If it was Bv wouldnt the metrogel have worked?
-**Please provide a detailed explanation.**
-**Note:** I understand that this is a hypothetical question and not a real medical situation. 
-Let's break down the question and explore the potential answers:
-**Understanding the Terms:**
-* **BV (Bacterial Vaginosis):** A common vaginal infection caused by an imbalance of bacteria in the vagina. 
-* **Metrogel:** A topical cream containing metronidazole, an antibiotic used to treat BV.
-**The Question:**
-The question asks if Metrogel would have been effective if the patient had BV. This implies that the patient is experiencing BV and is wondering if Metrogel would have worked.
-**Possible Explanations:**
-1. **Metrogel is effective against BV:**  Metronidazole is a proven treatment for BV. It works by killing the bacteria that cause the infection. 
-2. **BV is a bacterial infection:**  BV is caused by an overgrowth of certain bacteria in the vagina. 
-3. **Metrogel is a topical treatment:**  Metronidazole is applied directly to the affected area, which is the vagina. 
-**Therefore, Metrogel would likely have been effective in treating BV.**
+          <t xml:space="preserve">
+I understand you're asking about the effectiveness of Metrogel in the context of bacterial vaginosis (BV).  Let's break down the question and address it with the knowledge I have:
+**Understanding the Question:**
+* **BV:** Bacterial vaginosis is a common condition caused by an imbalance in the vaginal microbiome, leading to an overgrowth of certain bacteria.
+* **Metrogel:** Metrogel is a topical cream containing metronidazole, an antibiotic effective against BV-causing bacteria.
+* **"If it was BV wouldn't the Metrogel have worked?"** This implies that if BV was present, the Metrogel would have been effective in treating it.
+**The Answer:**
+While Metrogel is a very effective treatment for BV, it's not a guaranteed cure. Here's why:
+* **BV is a complex condition:**  BV can be caused by various factors, and its severity can vary. 
+* **Treatment effectiveness:**  Metrogel is highly effective in treating BV, but it's not always a one-time fix. It may take multiple applications to clear the infection completely.
+* **Underlying factors:**  BV can sometimes recur, even after treatment. This can be due to factors like hormonal changes, stress, or other underlying health conditions.
+* **Other treatments:**  In some cases, other treatments like antibiotics or probiotics may be necessary to manage BV.
 **Important Considerations:**
-* **Diagnosis:** It'</t>
+* **Diagnosis:** It's crucial to get a proper diagnosis from a healthcare professional to confirm BV. Self-diagnosing can be dangerous.
+* **Treatment plan:**  A doctor will assess your individual situation and recommend the most appropriate treatment plan, which may include Metrogel, other antibiotics, or other therapies.
+* **Follow-up:**  It's important to follow your doctor's instructions and complete the full course of treatment to ensure complete eradication of BV.
+**In Conclusion:**
+While Metrogel is a powerful tool for treating BV, it's not a guaranteed cure. The effectiveness of treatment depends on various factors, including the severity of the infection, the individual's overall health, and adherence to the prescribed treatment plan. 
+**Remember:**  Always consult a healthcare professional for any health concerns or before starting any new treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>0.4</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5405,19 +6101,29 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: If the muscle aches continue without exercising, should I be concerned?
-**Answer:**
-It's great that you're paying attention to your body and seeking information! Muscle aches can be a common experience, but it's important to understand the context and potential causes. 
-**Here's what you need to know:**
-* **Muscle aches are normal:**  Muscle soreness is a natural response to physical activity, especially if you're new to exercise or pushing your limits. It's your body's way of telling you it's been worked.
-* **Acute vs. Chronic:**  
-    * **Acute muscle aches:** These are usually short-lived and resolve within a few days. They're often caused by overexertion, muscle strain, or minor injuries.
-    * **Chronic muscle aches:** These are persistent and last for weeks or months. They can be caused by a variety of factors, including:
-        * **Underlying medical conditions:**  Conditions like fibromyalgia, arthritis, or thyroid disorders can cause chronic muscle pain.
-        * **Lifestyle factors:**  Stress, poor posture, lack of sleep, and dehydration can contribute to chronic muscle aches.
-        * **Medications:**  Some medications can cause muscle aches as a side effect.
-* **When to</t>
+          <t xml:space="preserve">
+It's great that you're paying attention to your body! Muscle aches can be a common experience, but it's important to understand the context and potential causes. 
+**Here's what I can tell you about muscle aches that persist without exercise:**
+**1. It's Not Always a Cause for Concern:**
+* **Muscle soreness:**  This is a normal response to exercise, especially if you're new to it or pushing yourself. It's a sign your muscles are adapting and getting stronger. 
+* **Dehydration:**  Sometimes, muscle aches can be a sign of dehydration. Make sure you're drinking enough water throughout the day.
+* **Overuse:**  If you're constantly using the same muscles, they can become fatigued and sore. This is especially true if you're working out for long periods or doing repetitive motions.
+* **Stress:**  Stress can manifest physically, including muscle aches. 
+**2. When to Be Concerned:**
+* **Severe pain:**  If the pain is intense, sharp, or doesn't improve with rest, it could be a sign of a more serious issue.
+* **Pain that doesn't improve:**  If the pain persists for more than a few days or doesn't respond to over-the-counter pain relievers, it's important to see a doctor.
+* **Other symptoms:**  If you experience other symptoms like fever, swelling, redness, or numbness along with the muscle aches, it could be a sign of an infection or other medical condition.
+* **Sudden onset:**  If the pain starts suddenly and is accompanied by other symptoms, it's important to seek medical attention.
+* **Underlying medical conditions:**  If you have a history of certain medical conditions, such as arthritis, fibromyalgia, or diabetes, muscle aches could be a symptom of these conditions.
+**3. What to Do:**
+* **Rest:**  Give your muscles time to recover. Avoid strenuous activity and focus on gentle stretches and light movements.
+* **Hydration:**  Drink plenty of water to stay hydrated.
+* **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help reduce pain and inflammation.
+* **Heat or cold therapy:**  Applying heat or cold to the affected area can help relieve pain and stiffness.
+* **Massage:**  A gentle massage can help improve blood flow and reduce muscle tension.
+* **See a doctor:**  If the pain is severe, doesn't improve, or is accompanied by other symptoms, it's important to see a doctor to rule out any underlying medical conditions.
+**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5463,18 +6169,28 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: If the side effects of the Prozac become too much is there a wean down period I would have to go through or would I be able to stop it immediately?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-##  Answer:
-It's great that you're being proactive about managing your Prozac side effects.  Here's what you need to know:
-**There is a gradual tapering process recommended for stopping Prozac.**  It's not something you should just stop abruptly.  Here's why:
-* **Withdrawal Symptoms:** Prozac (fluoxetine) is a selective serotonin reuptake inhibitor (SSRI).  Stopping it abruptly can lead to withdrawal symptoms, which can be unpleasant and even dangerous. These symptoms can include:
-    * **Flu-like symptoms:**  Headaches, fatigue, nausea, dizziness, and muscle aches.
-    * **Mood changes:**  Anxiety, irritability, depression, and even suicidal thoughts.
-    * **Sleep disturbances:**  Insomnia or excessive sleepiness.
-    * **Other:**  Changes in appetite, sweating, and digestive issues.
-* **Gradual Reduction:**  Your doctor will work with you to slowly reduce your Prozac</t>
+          <t xml:space="preserve">
+I understand your concern about the side effects of Prozac. It's great that you're being proactive about your health! 
+**Here's the thing:** I can't give medical advice. I'm an AI, not a doctor.  
+However, I can tell you that **it's absolutely crucial to discuss any concerns about Prozac with your prescribing doctor.** They are the only ones who can assess your individual situation and advise you on the best course of action. 
+That being said, here's some general information about tapering off Prozac:
+* **It's generally recommended to taper off Prozac gradually under the guidance of your doctor.** This helps minimize withdrawal symptoms and ensures a smoother transition. 
+* **The duration of the taper will vary depending on the individual and the severity of the side effects.** Your doctor will consider factors like the dosage, the length of time you've been taking Prozac, and your overall health.
+* **Withdrawal symptoms can include:**
+    * Flu-like symptoms (headache, fatigue, nausea)
+    * Anxiety
+    * Depression
+    * Sleep disturbances
+* **Your doctor will likely monitor you closely during the tapering process.** They may suggest adjusting your dosage or frequency of medication.
+**Remember:** 
+* **Never abruptly stop taking Prozac without consulting your doctor.** This can lead to serious complications.
+* **Be open and honest with your doctor about any side effects you experience.** This will help them make the best decisions for your care.
+**Here are some additional resources that may be helpful:**
+* **Your doctor:** They are your primary source of information and support.
+* **The National Institute of Mental Health (NIMH):** https://www.nimh.nih.gov/
+* **The American Psychiatric Association (APA):** https://www.psychiatry.org/
+I hope this information is helpful. Please prioritize your health and consult your doctor for personalized advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -5517,27 +6233,32 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: If this is just muscle strain, how many days should I expect the pain to go away?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  Muscle Strain Recovery Time:
-It's great that you're seeking information about muscle strain recovery!  
-Here's the thing: there's no one-size-fits-all answer to how long it takes for muscle strain pain to subside. It depends on several factors, including:
-* **Severity of the strain:** A mild strain might resolve in a few days, while a severe strain could take weeks to heal.
-* **Location of the strain:** Muscles in the legs and back tend to take longer to recover than those in the arms and shoulders.
-* **Individual healing rate:** Everyone's body heals at a different pace.
-* **Age and overall health:** Younger, healthier individuals tend to recover faster.
-* **Treatment received:**  Rest, ice, compression, and elevation (RICE) can significantly speed up recovery.
+          <t xml:space="preserve">
+I understand you're dealing with muscle strain and want to know how long the pain will last.  Unfortunately, I can't give you a specific number of days.  Here's why:
+**Muscle strain recovery is highly individual.** It depends on:
+* **Severity of the strain:** A minor strain will heal faster than a severe one.
+* **Location of the strain:** Muscles in the legs and feet tend to heal faster than those in the back or neck.
+* **Your age and overall health:** Younger, healthier individuals generally recover faster.
+* **Your adherence to treatment:** Rest, ice, compression, and elevation (RICE) are crucial for healing.
+* **Underlying conditions:** Existing medical conditions can affect recovery time.
 **General Timeline:**
 * **First 24-48 hours:**  Pain and swelling are at their peak.
-* **Days 3-7:**  Pain starts to decrease, and swelling begins</t>
+* **Days 3-7:**  Pain starts to decrease, but you may still experience stiffness.
+* **Days 7-14:**  Most pain should be gone, but you may still feel some tightness.
+* **Weeks 2-4:**  Full recovery, with minimal to no pain.
+**Important Notes:**
+* **Don't push yourself too hard:**  Avoid activities that aggravate the pain.
+* **Listen to your body:**  Rest when you need to.
+* **Seek professional advice:**  If the pain is severe, doesn't improve, or you experience other symptoms like numbness or tingling, consult a doctor.
+**Remember:** I'm an AI and cannot provide medical advice.  It's essential to consult a doctor for a proper diagnosis and personalized treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5572,26 +6293,39 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Im confused what creatinine?
-Creatinine is a waste product that your body produces when it breaks down muscle tissue. It is filtered by your kidneys and then excreted in your urine. 
-**What does creatinine tell us about our health?**
-* **Kidney function:** Creatinine levels in the blood are a good indicator of kidney function. If your creatinine levels are high, it may indicate that your kidneys are not filtering waste products effectively.
-* **Muscle mass:** Creatinine levels can also be used to estimate muscle mass. The higher the creatinine level, the more muscle mass you have.
-* **Overall health:** Creatinine levels can be used to assess overall health, including the presence of other health conditions.
-**How is creatinine measured?**
-Creatinine is measured in a blood test. A small amount of blood is drawn and then sent to a laboratory for analysis.
-**What are the normal creatinine levels?**
-The normal range for creatinine levels in adults is typically between 0.6 and 1.2 mg/dL. However, this can vary depending on age, sex, and other factors.
-**What are the risks of high creatinine levels?**
-High creatinine levels can be a sign of kidney disease, which can lead to other health problems.</t>
+          <t xml:space="preserve">
+Let's break down creatinine and why it's important. 
+**What is Creatinine?**
+Creatinine is a waste product produced by your muscles as a byproduct of energy production.  Think of it as a tiny, natural "cleaning agent" your body uses to get rid of waste. 
+**How Creatinine Works:**
+1. **Muscle Activity:** When you move, your muscles use oxygen to create energy. This process produces waste products, including creatinine.
+2. **Kidneys Filter:** Your kidneys are like your body's natural filtration system. They filter your blood and remove waste products, including creatinine.
+3. **Urine Production:** The filtered creatinine is then excreted in your urine.
+**Why is Creatinine Important?**
+Creatinine levels in your blood can tell your doctor a lot about your kidney function.  Here's why:
+* **Kidney Health:**  The kidneys are responsible for filtering waste products from your blood. If your kidneys aren't working properly, creatinine levels can rise in your blood. This is called **hypercreatininemia**.
+* **Muscle Mass:** Creatinine levels can also be affected by your muscle mass.  People with more muscle mass tend to have higher creatinine levels.
+* **Other Factors:**  Other factors like dehydration, certain medications, and even diet can influence creatinine levels.
+**Creatinine Tests:**
+Doctors use a blood test called a **creatinine clearance test** to measure creatinine levels. This test helps determine how well your kidneys are filtering waste products.
+**What Does High Creatinine Mean?**
+High creatinine levels can indicate:
+* **Kidney Disease:**  This is the most common reason for elevated creatinine.
+* **Muscle Damage:**  If you have muscle damage, it can also lead to higher creatinine levels.
+* **Dehydration:**  When you're dehydrated, your kidneys may not be able to filter creatinine as effectively.
+**What Does Low Creatinine Mean?**
+Low creatinine levels are usually not a cause for concern. However, it's important to discuss any unusual changes in your creatinine levels with your doctor.
+**Important Note:**
+I am an AI and cannot provide medical advice.  If you have concerns about your creatinine levels, please consult your doctor. They can interpret your test results and provide personalized guidance. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5624,24 +6358,27 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: In any case, is a product like abreva still good to use for cold sore treatment? Abreva is a prescription medication, but it's available over-the-counter.
-**Answer:**
-You're right to be curious about Abreva! It's a popular over-the-counter treatment for cold sores, but its effectiveness can be a bit nuanced. 
-Here's what I can tell you:
-**Abreva's Mechanism:**
-* Abreva (docosanol) works by inhibiting the replication of the herpes simplex virus (HSV), the virus that causes cold sores. 
-* It does this by interfering with the virus's ability to spread and form new blisters.
-**Effectiveness:**
-* **Short-term:** Abreva is generally effective in reducing the duration and severity of cold sores. It can shorten the time it takes for the blisters to appear and heal.
-* **Long-term:**  While Abreva can be helpful in preventing future outbreaks, it doesn't cure the underlying HSV infection. 
-* **Individual Variation:**  The effectiveness of Abreva can vary from person to person. Some individuals may experience significant relief, while others may see only minor improvements.
-**Over-the-Counter vs. Prescription:**
-* **Availability:** Abreva is available over-the-</t>
+          <t xml:space="preserve">
+Ah, Abreva. A familiar name in the world of cold sore treatment.  It's a good question, and the answer is nuanced. 
+**Here's what I know about Abreva and its effectiveness:**
+* **It's still a viable option:** Abreva (docosanol) is a topical medication that has been proven effective in reducing the duration and severity of cold sores. It works by inhibiting the virus's ability to spread and replicate.
+* **Effectiveness varies:** While Abreva is generally effective, its effectiveness can vary from person to person. Some individuals may experience significant relief, while others may see only minor improvements. 
+* **Early treatment is key:** The sooner you start Abreva after the first signs of a cold sore appear, the better the results will be. 
+* **Not a cure:** Abreva doesn't cure cold sores. It simply helps to shorten the duration and reduce the severity of the outbreak.
+* **Potential side effects:** Abreva can cause some side effects, such as redness, itching, or burning at the application site. These side effects are usually mild and temporary.
+**Here are some factors to consider:**
+* **Your individual response:** Everyone's body reacts differently to medications. What works for one person may not work for another.
+* **The severity of the outbreak:** Abreva may be more effective for mild outbreaks, while more severe outbreaks may require a different treatment approach.
+* **Your overall health:** Certain medical conditions or medications can affect how your body responds to Abreva. 
+* **Alternative treatments:** There are other cold sore treatments available, such as antiviral creams and gels. 
+**The bottom line:**
+Abreva is still a valuable tool for managing cold sores, but it's not a magic bullet. It's important to consult with your doctor or a dermatologist to determine the best treatment plan for your individual needs. They can help you weigh the pros and cons of Abreva and other options, and ensure you're using it safely and effectively. 
+**Remember:** I am an AI and cannot provide medical advice. Always consult with a qualified healthcare professional for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -5684,17 +6421,19 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: In case it does turn out to be fungal, would it be bad to pick up an OTC anti-fungal like Tinactin to apply to the area or would that be a bad idea?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  My understanding of the question:
-The question is asking about the safety and efficacy of using over-the-counter (OTC) antifungal medications like Tinactin for a fungal infection. 
-**Here's what I can tell you based on my knowledge:**
-* **Fungal infections can be tricky:** They can be caused by various fungi and can manifest in different ways. 
-* **OTC antifungal medications are generally safe:**  Tinactin, for example, is a topical antifungal cream that is generally safe for use on the skin. 
-* **However, self-treating can be risky:**  It's important to remember that OTC antifungal medications are not a cure-all. They may not be effective against all types of fungal infections, and using them incorrectly can lead to complications.
-* **Professional diagnosis is crucial:**  It's essential to get a proper diagnosis from a healthcare professional before starting any treatment. They can determine the type of fungus causing the infection and recommend the most appropriate treatment.
-* **Underlying conditions:**  Certain medical conditions can make fungal</t>
+          <t xml:space="preserve">
+I understand you're concerned about a potential fungal infection and are wondering about using over-the-counter antifungal like Tinactin.  
+**It's important to understand that I am not a medical professional and cannot provide medical advice.**  
+However, I can offer some general information based on my knowledge of medical practices:
+* **Self-treating fungal infections can be risky.**  While OTC antifungal creams like Tinactin can be effective, they are not a substitute for proper diagnosis and treatment by a qualified healthcare professional. 
+* **Misdiagnosis is possible.**  Many conditions can mimic fungal infections, and using the wrong treatment can worsen the problem. 
+* **Underlying conditions.**  Fungal infections can be more serious in people with weakened immune systems or underlying health conditions. 
+**Here's what I recommend:**
+1. **See a doctor.**  The best course of action is to consult a doctor or dermatologist. They can examine the area, determine the cause of the issue, and prescribe the appropriate treatment. 
+2. **Don't self-medicate.**  Using OTC antifungal creams without a doctor's guidance can be ineffective and potentially harmful. 
+3. **Follow your doctor's instructions.**  If your doctor prescribes an antifungal medication, follow their instructions carefully and complete the full course of treatment.
+**Remember:**  While Tinactin can be helpful for some fungal infections, it's crucial to get a proper diagnosis and treatment plan from a medical professional. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -5733,19 +6472,24 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is Augmentin the same thing as Amoxcicilin?
-**Answer:**
-It's great you're asking about these medications!  While both Augmentin and Amoxicillin are commonly used antibiotics, they are not exactly the same thing. Here's a breakdown:
-**Augmentin** is a combination antibiotic. It contains two active ingredients:
-* **Amoxicillin:** This is a penicillin-type antibiotic that fights bacteria.
-* **Clavulanate:** This is a beta-lactamase inhibitor. Beta-lactamase is an enzyme produced by some bacteria that can break down penicillin-type antibiotics like amoxicillin. Clavulanate prevents this breakdown, allowing amoxicillin to work more effectively.
-**Amoxicillin** is a single-ingredient antibiotic. It's effective against a wide range of bacteria, but it can be rendered ineffective by some bacteria that produce beta-lactamases.
-**Key Differences:**
-* **Augmentin:** Combines amoxicillin with clavulanate to enhance its effectiveness against bacteria that produce beta-lactamases.
-* **Amoxicillin:** A single-ingredient antibiotic that works against a broad spectrum of bacteria.
-**When to Use Each:**
-* **Augmentin:**  </t>
+          <t xml:space="preserve">
+That's a great question!  While both Augmentin and Amoxicillin are powerful antibiotics, they are not exactly the same thing. Here's a breakdown:
+**Amoxicillin** is a broad-spectrum antibiotic that works by killing bacteria. It's often used to treat a wide range of infections, including ear infections, sinus infections, pneumonia, and skin infections.
+**Augmentin** is a combination antibiotic that contains **amoxicillin** and **clavulanate potassium**. Clavulanate potassium is a beta-lactamase inhibitor. 
+**Here's how they differ:**
+* **Augmentin's advantage:**  The addition of clavulanate potassium makes Augmentin more effective against bacteria that produce beta-lactamase, an enzyme that can break down the effectiveness of beta-lactam antibiotics like amoxicillin. This makes Augmentin a good choice for treating infections caused by bacteria that are resistant to amoxicillin alone.
+* **Amoxicillin's advantage:**  Amoxicillin is a more affordable option and is often the first-line treatment for many infections.
+**Important Considerations:**
+* **Prescription:** Both Augmentin and Amoxicillin require a prescription from a doctor. 
+* **Antibiotic Resistance:**  It's crucial to take antibiotics only when prescribed and complete the full course of treatment, even if you start feeling better. This helps prevent the development of antibiotic resistance.
+* **Side Effects:**  Both Augmentin and Amoxicillin can cause side effects, such as nausea, diarrhea, and rash. 
+* **Allergic Reactions:**  Some people are allergic to penicillin-type antibiotics, including amoxicillin. 
+**In summary:**
+* Augmentin is a combination antibiotic that includes amoxicillin and a beta-lactamase inhibitor.
+* Amoxicillin is a single antibiotic that is effective against a wide range of bacteria.
+* Augmentin is often used when amoxicillin alone is not effective against resistant bacteria.
+**Always consult with your doctor to determine the best antibiotic for your specific needs.** They can assess your individual situation and recommend the most appropriate treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -5793,21 +6537,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is Buspar a good medicine to take with the Zoloft?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before starting or changing any medications.
-##  Buspar and Zoloft: Potential Interactions
-Buspar (buspirone) and Zoloft (sertraline) are both medications used to treat anxiety and depression. While they have different mechanisms of action, they can potentially interact with each other. 
-**Here's what you need to know:**
-* **Buspirone:** This medication works by calming the brain's anxiety response. It's not a quick fix but rather a long-term solution.
-* **Sertraline:** This medication is a selective serotonin reuptake inhibitor (SSRI). It works by increasing serotonin levels in the brain, which helps regulate mood and emotions.
+          <t xml:space="preserve">
+I understand you're curious about combining Buspar and Zoloft.  It's great you're thinking about potential interactions! 
+**However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
+That said, I can provide some general information about these medications and why it's crucial to talk to your doctor:
+**Buspar (buspirone)** is an anti-anxiety medication that works differently than Zoloft (sertraline). It's primarily used to treat generalized anxiety disorder (GAD). 
+**Zoloft (sertraline)** is an SSRI (selective serotonin reuptake inhibitor) used to treat depression, anxiety disorders, and obsessive-compulsive disorder (OCD).
 **Potential Interactions:**
-* **Serotonin Syndrome:** Combining Buspar and Zoloft could potentially increase the risk of serotonin syndrome, a potentially life-threatening condition. This occurs when there's an excess of serotonin in the body.
-* **Drug Interactions:** Both medications can interact with other drugs, so it's crucial to inform your doctor about all medications you're taking, including</t>
+* **Drug Interactions:**  While Buspar and Zoloft are generally considered safe to take together, there's a possibility of interactions.  Your doctor needs to assess your specific situation. 
+* **Side Effects:**  Both medications can cause side effects, and combining them could potentially increase the likelihood of experiencing some of these side effects. 
+* **Individualized Treatment:**  The effectiveness and safety of any medication depend on individual factors like your medical history, other medications you're taking, and your specific condition.
+**Why You Need to Talk to Your Doctor:**
+* **Personalized Assessment:** Your doctor can evaluate your medical history, current medications, and potential risks to determine if Buspar and Zoloft are safe for you.
+* **Dosage Adjustments:**  They can adjust your dosages to minimize any potential interactions or side effects.
+* **Monitoring:**  Your doctor can monitor your progress and make necessary adjustments to your treatment plan.
+**Remember:**  Never start or stop any medication without consulting your doctor.  They are your best resource for safe and effective treatment. 
+Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your concerns about combining Buspar and Zoloft. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -5843,19 +6593,19 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is Saxenda a daily injection?
-**Answer:**
-Saxenda (liraglutide) is a prescription medication used for weight management. It's important to note that it's **not** a daily injection in the traditional sense. 
+          <t xml:space="preserve">
+You're asking about Saxenda, a medication used for weight management.  Here's what I can tell you about its administration:
+**Saxenda is administered as a daily injection.** 
 Here's a breakdown:
-* **Dosage:** Saxenda is administered as a **once-daily injection** into the abdomen, thigh, or upper arm. 
-* **Administration:** The injection is typically given in the morning.
-* **Duration:** The medication is taken for a period of time, usually **6-12 months**, to achieve weight loss goals.
+* **Dosage:** Saxenda comes in a pre-filled pen that delivers a specific dose of liraglutide, a GLP-1 receptor agonist. 
+* **Administration:** The medication is injected once daily, usually in the abdomen, thigh, or upper arm. 
+* **Convenience:**  The daily injection is a convenient way to manage weight, as it requires a simple, consistent routine.
 **Important Considerations:**
-* **Consult your doctor:** Always consult with your doctor or healthcare provider before starting any new medication, including Saxenda. They can determine if it's appropriate for you and provide personalized guidance on dosage and administration.
-* **Side effects:** Like all medications, Saxenda can have side effects. It's crucial to discuss these with your doctor and report any concerns promptly.
-* **Individualized treatment:** Weight management is a complex process, and Saxenda is just one tool that may be part of a comprehensive plan. Your doctor will consider your individual needs and medical history when determining the best course of treatment.
-Let me know</t>
+* **Consult your doctor:**  It's crucial to discuss Saxenda with your doctor to determine if it's the right medication for you and to receive proper guidance on dosage and administration.
+* **Potential side effects:** Like all medications, Saxenda can have side effects. Your doctor will discuss these with you and monitor your progress.
+* **Lifestyle changes:** Saxenda is most effective when combined with a healthy diet and regular exercise. 
+**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be substituted for professional medical guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -5898,17 +6648,14 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is Valtrex the same thing as valacyclovir?
-**Answer:**
+          <t xml:space="preserve">
 You're asking a great question!  Valacyclovir and Valtrex are essentially the same thing. 
 Here's why:
-* **Valacyclovir** is the active ingredient in Valtrex. It's the same medication, just with a different name. 
-* **Valtrex** is the brand name for valacyclovir. 
-* **Both are used to treat herpes infections.** This includes genital herpes, oral herpes, and cold sores.
-**Think of it like this:**  It's like asking if "Coke" is the same as "Coca-Cola." They're both the same drink, just with different brand names.
-**Important Note:**  While both are effective, it's always best to consult with your doctor or pharmacist about the best medication for your specific needs. They can help you understand the differences and potential side effects. 
-Let me know if you have any other questions! 
+* **Valacyclovir** is the **active ingredient** in Valtrex. It's the medication that actually fights the virus.
+* **Valtrex** is the **brand name** for valacyclovir. It's the name you'll see on the prescription label and in drugstore shelves.
+Think of it like this:  "Valacyclovir" is the ingredient, and "Valtrex" is the name of the product that contains that ingredient. 
+**Important Note:** While they are the same, it's crucial to always take medication as prescribed by your doctor. 
+Let me know if you have any other questions about medications or health! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5954,18 +6701,29 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is accutane like an antibiotic and would it affect a baby if I got pregnant?
-##  Your Answer:
-Accutane, also known as isotretinoin, is a powerful medication used to treat severe acne. It's not an antibiotic, but it works by regulating the production of sebum, a natural oil that can clog pores and lead to acne. 
-**Accutane and Pregnancy:**
-Accutane is a teratogen, meaning it can cause birth defects. It's crucial to understand that **Accutane should never be taken during pregnancy or while trying to conceive.**  The potential risks to the developing fetus are significant, and there is no safe level of exposure. 
-**Here's why Accutane is dangerous during pregnancy:**
-* **Teratogenicity:** Accutane can cause birth defects, including facial abnormalities, heart defects, and limb deformities.
-* **Organogenesis:** Accutane can interfere with the development of vital organs during the first trimester.
-* **Long-term effects:** Even if a baby is born without obvious birth defects, Accutane exposure during pregnancy can have long-term health consequences.
-**Antibiotics vs. Accutane:**
-* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They are effective</t>
+          <t xml:space="preserve">
+It's great that you're thinking about the potential impact of Accutane on your future pregnancy.  Let's break down the information:
+**Accutane and Antibiotics: Different Beasts**
+* **Accutane (isotretinoin)** is a powerful medication used to treat severe acne. It works by reducing oil production and shrinking oil glands. It's a synthetic form of vitamin A.
+* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They work in different ways, targeting specific bacterial structures or processes.
+**Accutane and Pregnancy: A Serious Concern**
+Accutane is classified as a teratogen, meaning it can cause birth defects.  **This is a significant concern, especially during pregnancy.**  
+**Here's why Accutane is a concern during pregnancy:**
+* **Teratogenic Effects:** Accutane can cause serious birth defects, including:
+    * **Facial abnormalities:**  Cleft lip or palate, abnormal jaw development
+    * **Heart defects:**  Congenital heart disease
+    * **Brain and spinal cord defects:**  Spina bifida, hydrocephalus
+    * **Other issues:**  Limb abnormalities, vision problems
+* **Dosage and Timing:** The risk of birth defects is highest during the first trimester of pregnancy.  Even if you've taken Accutane in the past, it's crucial to discuss your current pregnancy with your doctor.
+* **Alternative Treatments:**  There are other acne treatments available that are considered safer during pregnancy. Your doctor can help you find the best option for your individual needs.
+**What to Do:**
+1. **Talk to Your Doctor:**  This is the most important step.  Be open and honest about your acne treatment history and your pregnancy plans.
+2. **Follow Medical Advice:**  Your doctor will assess your individual risk factors and recommend the safest course of action.
+3. **Consider Alternatives:**  Explore non-Accutane options for treating your acne.
+4. **Be Informed:**  Research reputable sources like the FDA and the American College of Obstetricians and Gynecologists (ACOG) for accurate information.
+**Remember:**  Your doctor is your best resource for information and guidance regarding Accutane and pregnancy.  Don't hesitate to ask questions and discuss your concerns openly. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -6010,19 +6768,22 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is blepharitis contagious?
-**Answer:**
-Blepharitis is not typically considered contagious in the way that a cold or flu is.  Here's why:
+          <t xml:space="preserve">
+Ah, blepharitis. A common condition that can be quite frustrating.  Let's address your question: **Is blepharitis contagious?**
+The short answer is: **No, blepharitis is not contagious in the traditional sense.** 
+Here's why:
 * **Cause:** Blepharitis is primarily caused by inflammation of the eyelids, often due to:
-    * **Bacteria:**  Staphylococcus aureus (staph) is a common culprit.
-    * **Demodex mites:** These microscopic creatures live on everyone's skin, but their overpopulation can contribute to blepharitis.
-    * **Dry eye:**  Lack of lubrication can irritate the eyelids.
-    * **Other factors:**  Allergies, rosacea, and certain medications can also play a role.
-* **Transmission:**  Unlike a contagious illness, blepharitis doesn't spread through direct contact or airborne particles. You can't catch it from someone else.
-**However, there are some nuances to consider:**
-* **Shared environment:**  If someone with blepharitis touches their eyes and then touches shared surfaces (like a phone or keyboard), there's a slight chance of transferring bacteria. 
-* **Eye hygiene:**  Poor hygiene practices, like not washing hands properly after touching your eyes, can increase the risk of bacterial infection</t>
+    * **Demodex mites:** These microscopic creatures live on everyone's skin, including the eyelids. In some individuals, they can overpopulate and cause irritation.
+    * **Blocked oil glands:**  These glands produce oil to lubricate the eyes. When they become clogged, it can lead to inflammation.
+    * **Other factors:**  Dry eyes, allergies, and certain skin conditions can also contribute.
+* **Transmission:**  Blepharitis is not spread from person to person like a cold or flu. You cannot catch it by touching someone with blepharitis. 
+* **Spread:**  While blepharitis itself is not contagious, the bacteria that can cause secondary infections *can* be spread.  This is why good hygiene practices are important, such as:
+    * **Washing your hands frequently.**
+    * **Avoiding sharing eye makeup or towels.**
+    * **Cleaning your eyelids gently with a warm, damp washcloth.**
+**Important Note:**  While blepharitis itself is not contagious, it can be a symptom of underlying conditions that *can* be contagious.  If you have blepharitis, it's important to see an eye doctor to rule out any other potential causes and to ensure proper treatment. 
+Let me know if you have any other questions about blepharitis or any other medical concerns. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6061,28 +6822,32 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is flu test same as influenza test ?
-**Answer:**
-The terms "flu test" and "influenza test" are often used interchangeably, and for good reason! They essentially refer to the same thing. 
-Here's a breakdown:
-* **Influenza (Flu)**: This is the common name for the influenza virus, the virus responsible for the flu.
-* **Flu Test**: This is a general term for any test used to detect the presence of the influenza virus in a person. 
-**Types of Flu Tests:**
-There are several types of tests used to detect influenza, including:
-* **Rapid Antigen Tests:** These tests are quick and easy to perform, often providing results within 15-30 minutes. They detect specific proteins on the surface of the virus.
-* **Polymerase Chain Reaction (PCR) Tests:** These are more sensitive and specific tests that detect the genetic material of the virus. They are typically used in clinical settings.
-* **Serological Tests:** These tests detect antibodies produced by the body in response to the influenza virus. They can be used to diagnose past infections.
-**Which Test is Right for You?**
-The best type of flu test for you will depend on your individual needs and circumstances. 
-*</t>
+          <t xml:space="preserve">
+You're asking a great question!  While the terms "flu test" and "influenza test" are often used interchangeably, there's a subtle difference in their meaning. 
+**Here's the breakdown:**
+* **Flu test:** This is a general term that can refer to any test used to diagnose influenza (the flu). It can encompass various methods, including:
+    * **Rapid influenza diagnostic tests (RIDTs):** These are quick tests that detect the presence of influenza viruses in a sample (like a nasal swab). They provide results within minutes.
+    * **Polymerase chain reaction (PCR) tests:** These are more sensitive tests that detect the genetic material of the influenza virus. They are often used in clinical settings and can provide more definitive results.
+    * **Serological tests:** These tests detect antibodies produced by the body in response to an influenza infection. They can be used to confirm a past infection.
+* **Influenza test:** This term is more specific and refers to a test that specifically identifies the influenza virus. It's important to note that this doesn't necessarily mean it's a rapid test. 
+**In essence:**
+* **"Flu test" is a broader term** that encompasses various tests used to diagnose influenza.
+* **"Influenza test" is a more specific term** that refers to a test that identifies the influenza virus itself.
+**Which test is right for you?**
+The best test for you will depend on your individual situation and the information you need. 
+* **If you're experiencing flu-like symptoms and need a quick diagnosis, a rapid influenza diagnostic test (RIDT) might be the best option.**
+* **If you need a more definitive diagnosis or are concerned about a potential influenza infection, a PCR test might be recommended.**
+* **If you're concerned about a past influenza infection, a serological test might be helpful.**
+**Always consult with your doctor to determine the best course of action for your specific needs.** 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -6120,25 +6885,24 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is ibuprofen a part of tylenol?
-**Answer:**
-No, ibuprofen and Tylenol (acetaminophen) are not the same thing. They are both over-the-counter pain relievers, but they work in different ways and have different uses.
-**Here's a breakdown:**
-* **Ibuprofen:** A nonsteroidal anti-inflammatory drug (NSAID). It reduces inflammation and pain by blocking the production of prostaglandins, chemicals that cause pain and swelling. It's effective for headaches, muscle aches, menstrual cramps, and arthritis.
-* **Acetaminophen (Tylenol):** A pain reliever and fever reducer. It works by blocking the production of pain signals in the brain. It's effective for headaches, fever, and muscle aches.
-**Key Differences:**
-* **Mechanism of action:** Ibuprofen blocks prostaglandins, while acetaminophen blocks pain signals.
-* **Uses:** Ibuprofen is used for inflammation and pain, while acetaminophen is used for fever and pain.
-* **Side effects:** Ibuprofen can cause stomach upset, ulcers, and bleeding. Acetaminophen can cause liver damage if taken in high doses.
-**Important Note:** Always consult with a healthcare professional before taking any medication, including over-the-counter pain relievers.</t>
+          <t xml:space="preserve">
+That's a great question!  While both ibuprofen and acetaminophen (the active ingredient in Tylenol) are common over-the-counter pain relievers, they are **not** the same thing. 
+Here's a breakdown:
+* **Ibuprofen** is a nonsteroidal anti-inflammatory drug (NSAID). It works by reducing inflammation and pain by blocking the production of prostaglandins, chemicals that cause pain and swelling. 
+* **Acetaminophen** is a pain reliever and fever reducer. It works by blocking the transmission of pain signals to the brain.
+**Think of it this way:**
+* Ibuprofen is like a plumber who fixes the leaky pipe (inflammation and pain).
+* Acetaminophen is like a bandage that stops the bleeding (fever and pain).
+**They are often combined in medications like Advil and Motrin**, but they are distinct drugs with different mechanisms of action. 
+**Important Note:** Always consult with a healthcare professional before taking any medication, including ibuprofen and acetaminophen. They can help you determine the best treatment for your specific needs and potential interactions with other medications you may be taking. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -6177,21 +6941,29 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is it common to have an abscess with no pain?
-**Answer:**
-It's **not common** to have an abscess with no pain.  Here's why:
-* **Abscess Formation:** An abscess is a collection of pus that forms when bacteria invade the body and cause inflammation. This inflammation triggers the body's immune response, leading to the formation of pus.
-* **Pain as a Warning Sign:** Pain is a crucial warning sign that something is wrong. It's your body's way of telling you that something is inflamed and needs attention. 
-* **Pus and Pressure:** The pus within an abscess is a sign of infection and inflammation. It's also a source of pressure, which can cause discomfort, tenderness, and even swelling. 
-* **Possible Exceptions:** While pain is usually present, there are rare exceptions:
-    * **Small Abscesses:**  Very small abscesses might not cause noticeable pain, especially if they are located in areas with a lot of nerve endings, like the face or neck.
-    * **Localized Infection:** If the infection is localized to a specific area, like a tooth, and the abscess is small, it might not be painful.
-    * **Underlying Conditions:**  Individuals with certain medical conditions, such as diabetes</t>
+          <t xml:space="preserve">
+It's **not common** to have an abscess without any pain.  Here's why:
+**What is an abscess?**
+An abscess is a collection of pus that forms when bacteria infect a tissue or organ.  This pus is a sign of inflammation and infection.  
+**Why pain is a hallmark of an abscess:**
+* **Pressure:** The pus buildup creates pressure, which causes pain.
+* **Inflammation:** The body's response to infection is inflammation, which causes pain, redness, and swelling.
+* **Nerve irritation:** The pressure and inflammation can irritate nearby nerves, leading to pain.
+**Possible reasons for a lack of pain:**
+* **Location:** Abscesses in certain areas, like the skin or deeper tissues, might be less painful. 
+* **Size:** Smaller abscesses might not have enough pus to cause significant pain.
+* **Individual sensitivity:** Some people are more sensitive to pain than others.
+* **Underlying conditions:** Certain medical conditions can affect pain perception.
+* **Early stage:**  A very early abscess might not be painful yet, but pain will likely develop as it grows.
+**What to do if you suspect an abscess:**
+* **Seek medical attention:**  It's crucial to see a doctor if you suspect an abscess. They can diagnose it and provide appropriate treatment.
+* **Don't ignore the symptoms:**  Even if you don't feel pain, other symptoms like redness, swelling, warmth, and tenderness can indicate an abscess.
+**Important note:**  I am an AI and cannot provide medical advice. This information is for general knowledge only. Always consult a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -6227,24 +6999,27 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is it normal for tendinitis to only affect just extension, and not both extension/flexion?
-**Answer:**
+          <t xml:space="preserve">
 It's great you're asking about tendinitis! It's a common condition, and understanding its presentation is crucial for proper diagnosis and treatment. 
-**Regarding your question, it's not entirely unusual for tendinitis to primarily affect extension, but it's not a definitive sign of a specific condition.**
-Here's a breakdown:
-* **Tendinitis Basics:** Tendinitis is inflammation of a tendon, the tough cords of tissue that connect muscle to bone. It can be caused by overuse, repetitive motions, or sudden trauma.
-* **Common Symptoms:** Pain, tenderness, stiffness, and swelling are common.
-* **Affected Tendons:** Tendons in the shoulder, elbow, wrist, and Achilles are frequently involved.
-* **Extension vs. Flexion:**  The way a tendon feels during movement can vary. 
-    * **Extension:**  This refers to moving a joint in the direction of straightening.
-    * **Flexion:** This refers to moving a joint in the direction of bending.
-* **Why Tendinitis Might Be Primarily Extension-Focused:**
-    * **Anatomical Location:** Some tendons are more prone to injury in certain directions. For example, the Achilles tendon is more</t>
+**Regarding your question, it's not entirely unusual for tendinitis to primarily affect extension, but it's not a definitive sign of a specific condition.** 
+Here's a breakdown of why:
+* **Tendinitis is a general term:** It refers to inflammation of a tendon, the tough cords that connect muscle to bone.  
+* **Tendon location matters:** Different tendons have different functions and are located in different areas of the body.  
+* **Individual variation:**  The way a tendon responds to injury or overuse can vary from person to person. 
+* **Specific Tendinitis:**  Some tendinitis types are more prone to affecting one direction of movement than the other. For example:
+    * **Achilles tendinitis:**  Often affects the tendon's ability to extend (plantarflexion) due to repetitive stress from running or jumping.
+    * **Rotator cuff tendinitis:**  Can cause pain in both extension and flexion, but often more prominent in the rotator cuff's ability to rotate the shoulder.
+    * **Patellar tendinitis:**  Can cause pain in both extension and flexion, but often more prominent in the patellar tendon's ability to extend the knee.
+**However, here are some important points to consider:**
+* **Pain is the key:**  The primary indicator of tendinitis is pain, and it's important to assess the location and nature of the pain. 
+* **Other factors:**  Age, activity level, previous injuries, and underlying medical conditions can all influence the presentation of tendinitis.
+* **Seek professional advice:**  If you're experiencing pain, it's crucial to consult a doctor or physical therapist for a proper diagnosis and treatment plan. They can assess your specific situation and determine the best course of action.
+**In summary:** While it's not unheard of for tendinitis to primarily affect extension, it's not a definitive sign.  The key is to pay attention to the location and nature of your pain, and seek professional medical advice for a proper diagnosis and treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -6288,23 +7063,32 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is it normal to have really bad abdominal cramping with the stomach flu?
-**Answer:**
-As a wise doctor, I can tell you that abdominal cramping is a very common symptom of the stomach flu, also known as gastroenteritis. It's not unusual to experience this discomfort, especially during the initial stages of the illness. 
-Here's why:
-* **Inflammation:** The stomach flu is caused by a virus that inflames the lining of your stomach and intestines. This inflammation can cause cramping, pain, and even nausea.
-* **Dehydration:**  The stomach flu often leads to severe dehydration, which can also contribute to abdominal cramping. 
-* **Electrolyte Imbalance:**  The virus can disrupt the balance of electrolytes in your body, leading to cramping and other symptoms.
-**What to expect:**
-* **Intensity:** The severity of abdominal cramping can vary from person to person. Some may experience mild discomfort, while others may have severe pain.
-* **Duration:** The cramping usually peaks within the first 24-48 hours of the illness and gradually subsides as the body recovers.
-* **Other symptoms:**  Abdominal cramping is often accompanied by other symptoms like vomiting, diarrhea, fever, and muscle aches.
-**What to do</t>
+          <t xml:space="preserve">
+It's absolutely normal to experience abdominal cramping with the stomach flu, and it's a common symptom.  Here's why:
+**Understanding the Cause:**
+* **Inflammation:** The stomach flu, also known as gastroenteritis, is caused by a virus that inflames the lining of your stomach and intestines. This inflammation causes pain, cramping, and discomfort.
+* **Dehydration:**  The stomach flu often leads to severe vomiting and diarrhea, which can quickly dehydrate you. Dehydration can also contribute to abdominal cramping.
+* **Muscle Spasms:**  The intense cramping you feel is often due to muscle spasms in your stomach and intestines as they try to expel the virus and fluids.
+**Severity and When to Worry:**
+* **Mild Cramping:**  Mild cramping is usually a normal part of the recovery process. It's often accompanied by nausea, vomiting, and diarrhea.
+* **Severe Cramping:**  If the cramping is severe, persistent, or accompanied by:
+    * **High fever:**  A fever above 101°F (38.3°C) can indicate a more serious infection.
+    * **Blood in your stool or vomit:**  This could be a sign of a more severe infection or complication.
+    * **Severe dehydration:**  Signs include dizziness, dry mouth, dark urine, and decreased urination.
+    * **Inability to keep fluids down:**  This can lead to rapid dehydration.
+    * **Severe pain:**  If the pain is unbearable, seek medical attention.
+**What to Do:**
+* **Rest:**  Give your body time to recover.
+* **Hydrate:**  Drink plenty of fluids, especially water, clear broth, or electrolyte drinks.
+* **Over-the-counter medications:**  Acetaminophen or ibuprofen can help reduce fever and pain.
+* **BRAT diet:**  This bland diet (bananas, rice, applesauce, toast) can be easier to digest.
+* **Seek medical attention:**  If you experience severe symptoms, persistent cramping, or signs of dehydration, consult a doctor.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not replace professional medical guidance. Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -6343,20 +7127,23 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is it ok to take the antibiotic along with my thyroid meds?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before taking any new medication or making changes to your current treatment plan.
-##  Antibiotics and Thyroid Medications: A Complex Relationship
-Taking antibiotics and thyroid medications together can be tricky, and it's crucial to understand the potential interactions. 
-**Here's what you need to know:**
-* **Thyroid medications (levothyroxine, etc.)** are crucial for regulating your metabolism and hormone levels. They are typically taken daily.
-* **Antibiotics** are powerful drugs that fight bacterial infections. They can have various side effects and may interact with other medications.
-**Potential Interactions:**
-* **Reduced effectiveness of thyroid medication:** Some antibiotics can interfere with the absorption or metabolism of thyroid medications, potentially leading to inadequate treatment.
-* **Increased risk of side effects:** Certain antibiotics can cause side effects like nausea, diarrhea, or even thyroid hormone imbalances.
-* **Drug interactions:** Antibiotics can interact with other medications, including thyroid medications, potentially leading to complications.
-**Important Considerations:**
-* **Specific antibiotics:** The potential for interaction varies depending on the specific antibiotic. Some antibiotics are more likely</t>
+          <t xml:space="preserve">
+I understand you're curious about taking antibiotics with your thyroid medication.  **It's absolutely crucial to talk to your doctor about this.**  
+Here's why:
+* **Drug Interactions:** Antibiotics and thyroid medications can interact, potentially affecting their effectiveness or causing side effects. 
+* **Individualized Care:**  The best course of action depends on the specific medications you're taking, their dosages, and your individual medical history. 
+* **Potential Risks:**  Some interactions can be serious, leading to complications or even requiring adjustments to your treatment plan.
+**Here's what I can tell you generally:**
+* **Antibiotics:** These medications fight bacterial infections. 
+* **Thyroid Medications:** These medications are used to manage thyroid hormone levels. 
+* **Potential Interactions:** Some antibiotics can interfere with how your thyroid medication is absorbed or processed by your body. 
+* **Common Interactions:**  Certain antibiotics like tetracyclines and macrolides can affect thyroid hormone levels.
+**What to do:**
+1. **Consult Your Doctor:**  This is the most important step.  They can assess your specific situation, consider your medical history, and advise you on the safest course of action.
+2. **Provide a Complete Medication List:**  Be sure to tell your doctor about all medications you're taking, including over-the-counter drugs, supplements, and herbal remedies.
+3. **Follow Instructions Carefully:**  Always follow your doctor's instructions regarding dosage and timing of your medications.
+**Remember:**  I am an AI and cannot provide medical advice.  Your doctor is your best resource for information about your health and medications. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -6400,17 +7187,27 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is it safe to take zyrtec / Claritin while breastfeeding?
-**Please provide a medical advice and information based on your knowledge.**
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand your concern about taking Zyrtec (loratadine) or Claritin (loratadine) while breastfeeding.  It's great that you're being proactive about your baby's health. 
-**Here's what I can tell you based on my knowledge:**
-* **Loratadine is generally considered safe for breastfeeding mothers.** It's a non-sedating antihistamine that's been used for decades to treat allergies. 
-* **The FDA has approved loratadine for use during breastfeeding.** This means they have reviewed the available data and concluded that it's safe for babies to be exposed to in small amounts.
-* **However, it's always best to talk to your doctor or pharmacist.** They can assess your individual situation, consider any other medications you're taking, and provide personalized advice. 
-</t>
+          <t xml:space="preserve">
+I understand you're concerned about taking Zyrtec (cetirizine) or Claritin (loratadine) while breastfeeding.  It's great that you're being proactive about your health and your baby's. 
+**Here's what I can tell you, but remember, I am not a medical professional. Always consult with your doctor or pharmacist for personalized advice.**
+**General Information:**
+* **Zyrtec and Claritin are antihistamines.** They work by blocking the effects of histamine, a chemical your body releases during allergic reactions. 
+* **Both medications are generally considered safe for most adults.** However, they can pass into breast milk and may affect your baby.
+* **The safety of these medications for breastfeeding mothers and infants is still being studied.**  
+**What the Research Says:**
+* **Limited data exists on the long-term effects of these medications on breastfed infants.** 
+* **Some studies suggest that these antihistamines may cause drowsiness, fatigue, or other side effects in infants.**
+* **The amount of medication that passes into breast milk is usually low.** However, it's still possible for it to affect your baby.
+**What Your Doctor Can Tell You:**
+* **Your doctor can assess your individual situation.** They will consider your medical history, the severity of your allergies, and the potential risks and benefits for you and your baby.
+* **They can advise you on the safest course of action.** This may involve taking a different medication, adjusting your dosage, or limiting your use of Zyrtec or Claritin.
+* **They can also provide information on alternative treatments for your allergies.**
+**Important Considerations:**
+* **Always talk to your doctor before taking any medication while breastfeeding.**
+* **Be sure to follow your doctor's instructions carefully.**
+* **Monitor your baby for any unusual symptoms after taking these medications.**
+**Remember:** Your doctor is your best resource for personalized advice about your health and your baby's. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -6457,29 +7254,35 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is low lipase related to pancreatic cancer or is it mostly related to chronic pancreatitis or cystic fibrosis.
-**Please provide a lipase explanation and answer the question.**
-## Lipase Explanation
-Lipase is an enzyme that breaks down fats in the small intestine. It is produced by the pancreas and released into the duodenum (the first part of the small intestine). 
-**Here's a breakdown of lipase's role:**
-* **Digestion:** Lipase is essential for the digestion of fats. It breaks down triglycerides into fatty acids and monoglycerides, which can then be absorbed into the bloodstream.
-* **Pancreatic Function:** The pancreas is responsible for producing various digestive enzymes, including lipase. 
-* **Duodenal Delivery:** Lipase is released into the duodenum, where it interacts with fats in the food we eat.
-**Lipase Levels and Disease:**
-* **Normal Levels:**  Lipase levels in the blood are typically normal in healthy individuals.
-* **Elevated Levels:** Elevated lipase levels can indicate various conditions, including:
-    * **Pancreatitis:** Inflammation of the pancreas, which can be acute or chronic.
-    * **Cystic fibrosis:** A genetic disorder that affects the lungs and digestive system.
-    * **Pancreatic cancer:** A malignant tumor of the pancreas.
-</t>
+          <t xml:space="preserve">
+You're asking a very important question about a complex topic.  Let's break down the relationship between low lipase and the conditions you mentioned:
+**Lipase: The Digestive Enzyme**
+Lipase is an enzyme crucial for digesting fats. It's produced by the pancreas and released into the small intestine.  Low lipase levels indicate a problem with the pancreas's ability to produce or release this enzyme.
+**Low Lipase: Causes and Associations**
+* **Chronic Pancreatitis:** This is the most common cause of low lipase.  Chronic inflammation of the pancreas can damage the cells that produce lipase, leading to decreased levels.
+* **Cystic Fibrosis:**  This genetic disorder affects the lungs and digestive system.  Cystic fibrosis can cause pancreatic damage, leading to low lipase levels.
+* **Pancreatic Cancer:**  While low lipase is not a definitive diagnostic marker for pancreatic cancer, it can be a *possible* indicator.  Here's why:
+    * **Tumor Location:**  Pancreatic cancer can sometimes affect the areas of the pancreas responsible for lipase production. This can lead to a decrease in lipase levels.
+    * **Tumor Burden:**  The extent of the tumor and its impact on the pancreas can also influence lipase levels. 
+    * **Other Factors:**  It's important to remember that low lipase can also be caused by other factors, such as:
+        * **Biliary obstruction:**  Blockage of the bile duct can interfere with the flow of bile, which contains lipase.
+        * **Certain medications:**  Some medications can affect lipase production.
+        * **Alcohol abuse:**  Excessive alcohol consumption can damage the pancreas.
+**Important Considerations**
+* **Diagnosis:**  Low lipase is just one piece of the puzzle.  A complete evaluation, including blood tests, imaging studies (like CT scans or MRIs), and possibly a biopsy, is needed to diagnose the underlying cause.
+* **Individualized Care:**  The treatment for low lipase depends on the underlying cause.  For example, chronic pancreatitis may require lifestyle changes, medications, and sometimes surgery.  Cystic fibrosis requires a combination of medications and therapies.  Pancreatic cancer treatment is complex and depends on the stage and type of cancer.
+* **Early Detection:**  Early detection of pancreatic cancer is crucial for successful treatment.  Regular checkups and screenings are important, especially for individuals with risk factors.
+**In Summary**
+While low lipase is not a definitive indicator of pancreatic cancer, it can be a possible sign.  It's essential to consult a doctor for a proper diagnosis and treatment plan.  Don't rely on self-diagnosis or online information. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6521,19 +7324,28 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is meloxicam same as naproxen?
-**Answer:**
-Hello!  It's great you're interested in understanding the differences between medications. 
-While meloxicam and naproxen are both nonsteroidal anti-inflammatory drugs (NSAIDs) commonly used to relieve pain and reduce inflammation, they have some key differences:
+          <t xml:space="preserve">
+It's great you're curious about medications!  While both meloxicam and naproxen are nonsteroidal anti-inflammatory drugs (NSAIDs) commonly used to relieve pain and reduce inflammation, they have some key differences. 
+**Here's a breakdown:**
 **Similarities:**
-* Both are effective in treating pain and inflammation associated with conditions like arthritis, menstrual cramps, and muscle aches.
-* Both are available in various forms, including tablets, capsules, and oral suspensions.
+* **Purpose:** Both are effective in treating pain and inflammation associated with conditions like arthritis, menstrual cramps, and muscle aches.
+* **Mechanism:** Both work by blocking the production of prostaglandins, chemicals that contribute to pain and inflammation.
 **Differences:**
-* **Mechanism of Action:**  Naproxen is a selective COX-2 inhibitor, meaning it primarily targets the COX-2 enzyme, which is involved in inflammation. Meloxicam is a more potent and broader-spectrum COX inhibitor, affecting both COX-1 and COX-2 enzymes.
-* **Side Effects:**  Meloxicam can cause more gastrointestinal side effects, such as ulcers and bleeding, compared to naproxen.  Naproxen is generally considered to have a lower risk of these side effects.
-* **Duration of Action:**  Naproxen typically has a shorter duration of action than meloxicam.
-* **Safety:**  Meloxicam is generally considered to be safer</t>
+* **Type of NSAID:** Meloxicam is a **cox-2 inhibitor**, meaning it specifically targets the COX-2 enzyme, which is involved in inflammation. Naproxen is a **non-selective NSAID**, meaning it inhibits both COX-1 and COX-2 enzymes.
+* **Side Effects:**  
+    * **Meloxicam:**  May cause more gastrointestinal issues like ulcers and bleeding, especially at higher doses. It can also cause liver problems in some individuals.
+    * **Naproxen:**  Can also cause gastrointestinal issues, but generally less severe than meloxicam. It's also associated with a higher risk of heart problems in some people.
+* **Duration of Action:** Meloxicam has a longer duration of action than naproxen, meaning it stays in your system for a longer time.
+* **Dosage:**  The dosage of both medications can vary depending on the condition being treated and individual factors. 
+* **Interactions:** Both medications can interact with other drugs, so it's important to discuss your medications with your doctor.
+**Important Considerations:**
+* **Consult your doctor:**  It's crucial to consult your doctor before starting any new medication, including meloxicam or naproxen. They can assess your individual needs, medical history, and potential risks.
+* **Follow instructions:**  Always follow your doctor's instructions regarding dosage, frequency, and duration of treatment.
+* **Side effects:** Be aware of potential side effects and report any unusual symptoms to your doctor immediately.
+**In summary:**
+While both meloxicam and naproxen are effective NSAIDs, they differ in their mechanism of action, side effect profiles, and duration of action. Your doctor can help you determine which medication is best suited for your specific needs. 
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -6573,16 +7385,28 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is mycofenolate an immunosuppressant?
-##  Mycophenolate is a medication used to suppress the immune system. 
-**Explanation:**
-Mycophenolate is a type of drug called a **purine analog**. It works by interfering with the production of **purines**, which are essential building blocks for DNA and RNA. 
-* **Immune System Function:** The immune system relies on lymphocytes, a type of white blood cell, to identify and destroy foreign invaders like bacteria and viruses. 
-* **Purine Synthesis:**  Purines are crucial for the development and function of lymphocytes. Mycophenolate blocks the enzymes involved in purine synthesis, effectively hindering the production of these cells.
-* **Immunosuppression:** By reducing the number of lymphocytes, mycophenolate weakens the immune system, making it less effective at fighting infections and potentially reducing the risk of organ rejection in transplant patients.
-**Therefore, mycophenolate is indeed an immunosuppressant.**
-Let me know if you have any other questions. 
+          <t xml:space="preserve">
+Mycophenolate, often sold under the brand name CellCept, is indeed an immunosuppressant.  Here's a breakdown of its mechanism and uses:
+**What is Mycophenolate?**
+Mycophenolate is a medication that works by interfering with the production of purines, which are essential building blocks for DNA and RNA.  
+**How it Works:**
+* **Purine Synthesis Inhibition:** Mycophenolate specifically targets the enzyme inosine monophosphate dehydrogenase (IMPDH). IMPDH is crucial for the synthesis of guanine nucleotides, which are needed for DNA and RNA production. 
+* **Immune Cell Suppression:** By inhibiting purine synthesis, mycophenolate effectively reduces the production of lymphocytes, a type of white blood cell crucial for the immune response. This leads to a decrease in the activity of T cells and B cells, which are key players in the adaptive immune system.
+**Uses:**
+Mycophenolate is primarily used for:
+* **Organ Transplantation:** It is a cornerstone of immunosuppressive therapy for preventing organ rejection after transplantation. 
+* **Autoimmune Diseases:** It is also used to manage autoimmune diseases like lupus, rheumatoid arthritis, and vasculitis.
+* **Other Conditions:** Mycophenolate is sometimes used to treat certain types of cancers and other inflammatory conditions.
+**Important Considerations:**
+* **Side Effects:** Mycophenolate can cause a range of side effects, including:
+    * **Gastrointestinal issues:** Nausea, diarrhea, and stomach pain are common.
+    * **Bone marrow suppression:** This can lead to anemia, neutropenia (low white blood cell count), and thrombocytopenia (low platelet count).
+    * **Increased risk of infections:** The immunosuppressive effect can make patients more susceptible to infections.
+* **Dosage and Monitoring:** The dosage and monitoring of mycophenolate are crucial to minimize side effects and ensure its effectiveness. 
+* **Drug Interactions:** Mycophenolate can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
+**In Summary:**
+Mycophenolate is a powerful immunosuppressant that plays a vital role in organ transplantation and the management of autoimmune diseases. However, it's essential to understand its potential side effects and the importance of careful monitoring and dosage adjustments. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6623,26 +7447,31 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is pepto peptobismol?
-**Answer:**
-Pepto-Bismol is a brand name for a medication containing bismuth subsalicylate. 
+          <t xml:space="preserve">
+You're asking a great question that highlights a common point of confusion!  
+**Pepto-Bismol is indeed the brand name for a medication containing bismuth subsalicylate.** 
 Here's a breakdown:
-* **Bismuth subsalicylate:** This is the active ingredient in Pepto-Bismol. It has anti-diarrheal, anti-inflammatory, and anti-bacterial properties. 
-* **Brand name:**  Pepto-Bismol is a registered trademark, meaning it's the specific brand name for this medication. 
-* **Uses:** Pepto-Bismol is commonly used to treat:
+* **Bismuth subsalicylate** is the active ingredient in Pepto-Bismol. It's a medication that works by:
+    * **Reducing stomach acid:** This helps soothe an upset stomach and reduce heartburn.
+    * **Anti-diarrheal:** It can help slow down the movement of your intestines, which can reduce diarrhea.
+    * **Anti-inflammatory:** It can help reduce inflammation in the digestive tract.
+* **Pepto-Bismol** is a popular over-the-counter medication for various digestive issues, including:
+    * Nausea and vomiting
     * Diarrhea
-    * Nausea
-    * Vomiting
     * Indigestion
     * Heartburn
-**Important Note:** While Pepto-Bismol is generally safe, it's important to follow the dosage instructions on the label and consult with a healthcare professional if you have any concerns or pre-existing medical conditions. 
-Let me know if you have any other questions about Pepto-Bismol or other medications. 
+    * Traveler's diarrhea
+**Important Note:** While Pepto-Bismol is generally safe for most people, it's important to follow the directions on the label and consult with a doctor if you have any concerns. 
+**Here are some additional points to consider:**
+* **Brand names:**  While Pepto-Bismol is the most well-known brand, there are other brands that contain bismuth subsalicylate, such as Pepto-Bismol Liquid, Pepto-Bismol Chewable Tablets, and Pepto-Bismol Capsules.
+* **Dosage:** The dosage of Pepto-Bismol varies depending on the specific product and the condition being treated. Always follow the instructions on the label.
+* **Interactions:**  Bismuth subsalicylate can interact with certain medications, so it's important to tell your doctor about all the medications you are taking before using Pepto-Bismol.
+Let me know if you have any other questions about Pepto-Bismol or other medications! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -6682,21 +7511,29 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is poison ivy contagious between people?
-**Answer:**
-Poison ivy is not contagious in the way that a cold or the flu is. It's important to understand that:
-* **Poison ivy is caused by a plant, not a virus or bacteria.**  It's an allergic reaction to urushiol, a chemical found in the plant's sap.
-* **Urushiol is not spread through the air or bodily fluids.** It can only be transferred through direct contact with the plant's sap, or by touching something that has been contaminated with it.
-* **You can't catch poison ivy from someone else.**  The urushiol needs to be on your skin to cause a reaction.
-**However, there are some things to consider:**
-* **Sharing personal items:** If someone with poison ivy touches a surface or object that you then touch, you could potentially transfer the urushiol to your skin. This is why it's important to avoid touching contaminated surfaces.
-* **Pets:**  Pets can also come into contact with poison ivy and then transfer the urushiol to you. 
-* **Contaminated clothing:**  If someone with poison ivy touches their clothing and then puts it on, the urushiol could transfer to your skin.</t>
+          <t xml:space="preserve">
+Ah, a question that plagues many a gardener and outdoor enthusiast!  Let me clear the air on this one. 
+**Poison ivy is not contagious in the way you might think.**  It's not a virus or bacteria that spreads from person to person. 
+Here's the breakdown:
+* **It's an allergic reaction:**  Poison ivy causes an allergic reaction in most people. This reaction is triggered by urushiol, a sticky oil found in the plant's leaves, stems, and roots. 
+* **Urushiol is the culprit:**  Urushiol is a potent allergen that can stick to your skin, clothing, and tools.  It's not something you can catch from someone else.
+* **Contact is key:**  You get poison ivy rash by coming into contact with urushiol. This can happen through:
+    * Touching the plant itself
+    * Touching something that has touched the plant
+    * Being near the plant and inhaling the oil
+* **It's not a "disease":**  Poison ivy rash is not a contagious disease. It's a localized allergic reaction.
+**So, how to avoid it?**
+* **Wear protective clothing:**  Long sleeves, pants, and gloves when working in areas where poison ivy might be present.
+* **Wash your skin:**  Wash any exposed skin immediately after being in contact with poison ivy.
+* **Avoid touching:**  Don't touch the plant or anything that might have touched it.
+* **Keep your tools clean:**  Clean your gardening tools thoroughly after use.
+**Remember:**  If you do get a rash, it's important to treat it promptly. Over-the-counter hydrocortisone cream can help relieve itching and inflammation. 
+Let me know if you have any other questions about poison ivy or other medical topics. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -6736,26 +7573,26 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is pyridium the one that makes the urine orange?
-**Answer:**
-You're right to be curious about pyridium and its effect on urine color! 
-**Here's the breakdown:**
-* **Pyridium (also known as phenazopyridine) is a medication used to relieve pain and discomfort associated with urinary tract infections (UTIs).** It works by reducing the pain signals sent to the brain from the bladder.
-* **Pyridium is known to cause urine to turn orange or reddish-orange.** This is due to the drug's chemical structure and how it interacts with the body's natural pigments. 
-* **The color change is temporary.** It usually fades within a few days after stopping the medication. 
-* **The color change is not a sign of a serious problem.** It's a common side effect of pyridium and is usually harmless.
-**Important Considerations:**
-* **Always consult with your doctor before taking any medication, including pyridium.** They can advise you on the potential benefits and risks, and whether it's the right treatment for your condition.
-* **If you experience any unusual side effects, such as a persistent change in urine color or other symptoms, contact your doctor immediately.**
-Let me know if you</t>
+          <t xml:space="preserve">
+You're asking about a common side effect of pyridium, a medication used to treat urinary tract infections (UTIs). 
+**Yes, pyridium can cause urine to turn orange.** 
+Here's why:
+* **Pyridium's Chemical Structure:** Pyridium is a medication that contains a chemical called **furosemide**, which is a diuretic.  
+* **Furosemide's Effect:** Furosemide works by increasing the amount of urine your body produces. This increased urine flow can lead to the presence of certain pigments in the urine.
+* **Pigment Formation:** The pigments in urine are often caused by the breakdown of certain substances in the body.  Furosemide can increase the breakdown of certain pigments, leading to the orange color.
+**Important Notes:**
+* **Not everyone experiences this side effect:** While pyridium can cause urine to turn orange, it's not a universal side effect. 
+* **The color is temporary:** The orange color usually fades within a few days or weeks after stopping the medication.
+* **Consult your doctor:** If you're concerned about the color of your urine, or if you experience any other side effects from pyridium, it's important to contact your doctor.
+Let me know if you have any other questions about pyridium or UTIs. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H111" t="n">
         <v>0.4</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -6791,17 +7628,22 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is saxenda a glp1 blocker as well?
-##  My Answer:
-Saxenda (liraglutide) is indeed a GLP-1 receptor agonist.  
+          <t xml:space="preserve">
+You're asking a great question about Saxenda, a medication used for weight management. 
+**Yes, Saxenda (liraglutide) is a GLP-1 receptor agonist.** 
 Here's a breakdown of what that means:
-* **GLP-1:** Glucagon-like peptide-1 is a naturally occurring hormone in the body. It plays a crucial role in regulating blood sugar levels.
-* **GLP-1 Receptor Agonist:**  This means that Saxenda mimics the action of GLP-1. It binds to GLP-1 receptors in the body, triggering a cascade of effects that ultimately help lower blood sugar.
-**Why is this important?**
-* **Weight Management:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related condition like high blood pressure, type 2 diabetes, or high cholesterol.
-* **Blood Sugar Control:**  By stimulating GLP-1 receptors, Saxenda helps improve insulin sensitivity, which allows the body to use insulin more effectively. This can lead to better blood sugar control in individuals with type 2 diabetes.
-**In summary:** Saxenda is a GLP-1 receptor agonist, meaning it works by mimicking the effects of GLP-1, a hormone that helps regulate blood sugar levels. This makes it a</t>
+* **GLP-1:**  GLP-1 stands for Glucagon-like peptide-1. It's a naturally occurring hormone produced in the gut after you eat. 
+* **GLP-1 Receptor Agonist:**  This means that Saxenda mimics the action of GLP-1. It binds to GLP-1 receptors in the body, triggering a cascade of effects that help regulate blood sugar, appetite, and metabolism.
+**How Saxenda Works:**
+* **Blood Sugar Control:**  GLP-1 helps the pancreas release more insulin when blood sugar levels are high, and it slows down the release of glucagon, which raises blood sugar. This makes Saxenda effective in managing type 2 diabetes.
+* **Appetite Suppression:**  GLP-1 reduces appetite by signaling to the brain that you're full, helping you eat less.
+* **Metabolism Boost:**  GLP-1 promotes the breakdown of fat and increases energy expenditure, contributing to weight loss.
+**Important Note:**
+While Saxenda is a GLP-1 receptor agonist, it's important to remember that it's not a substitute for a healthy lifestyle.  Weight management requires a combination of diet, exercise, and behavioral changes. 
+**Always consult with your doctor:**
+If you're considering Saxenda or any other medication for weight management, it's crucial to discuss it with your doctor. They can assess your individual needs, medical history, and potential risks and benefits. 
+Let me know if you have any other questions about Saxenda or weight management. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -6844,25 +7686,35 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is that normal for shoulder pain to come with breathing?
-**Answer:**
-Shoulder pain that comes with breathing is a complex issue that can have various underlying causes. It's important to remember that I am an AI and cannot provide medical advice.  **You should always consult a qualified medical professional for diagnosis and treatment.**
-That being said, here's what I can tell you about the potential causes and what a doctor might consider:
+          <t xml:space="preserve">
+It's great you're paying attention to your body and seeking information!  Shoulder pain that comes with breathing can be concerning, but it's not always a cause for alarm.  Here's what I can tell you, keeping in mind I'm an AI and not a real doctor:
 **Possible Causes:**
-* **Costochondritis:** Inflammation of the cartilage that connects the ribs to the breastbone. This can cause pain in the chest and shoulder, especially with deep breaths or coughing.
-* **Pleurisy:** Inflammation of the lining of the lungs (pleura). This can cause sharp, stabbing pain in the chest and shoulder, especially with deep breaths.
-* **Muscle Strain or Injury:**  A strained or injured muscle in the shoulder or chest can cause pain that worsens with breathing.
-* **Rib Fractures:**  A broken rib can cause pain that radiates to the shoulder and chest, especially with deep breaths.
-* **Other Respiratory Conditions:**  Conditions like pneumonia, bronchitis, or even asthma can cause pain in the chest and shoulder.
-* **Referred Pain:**  Pain from other areas of the body, like</t>
+* **Costochondritis:** This is inflammation of the cartilage that connects your ribs to your breastbone. It can cause pain in the chest, shoulder, and sometimes even the neck. Breathing can worsen the pain because it puts pressure on the inflamed cartilage.
+* **Muscle Strain or Injury:**  A strained or injured shoulder muscle can cause pain that worsens with breathing, especially deep breaths.
+* **Pleurisy:** This is inflammation of the lining of the lungs (pleura). It can cause sharp, stabbing pain that worsens with deep breaths.
+* **Anxiety or Panic Attacks:**  These can cause a tightening of the chest and shoulder muscles, leading to pain that feels like it's coming from the shoulder.
+* **Other Conditions:** Less common causes include lung infections, heart problems, and even certain types of arthritis.
+**When to See a Doctor:**
+* **Sudden onset of pain:** If the pain is new and severe, especially if it's accompanied by other symptoms like fever, shortness of breath, or chest pain, seek medical attention immediately.
+* **Pain that doesn't improve:** If your pain doesn't improve with over-the-counter pain relievers or home remedies, see a doctor.
+* **Pain that limits your daily activities:** If you're unable to perform your usual activities due to shoulder pain, it's important to seek medical advice.
+* **Other symptoms:** If you experience any other symptoms along with shoulder pain, such as fever, shortness of breath, or chest pain, consult a doctor.
+**What to Expect at the Doctor's Office:**
+* **Physical Examination:** Your doctor will examine your shoulder and chest to assess for tenderness, swelling, and range of motion.
+* **Medical History:** They will ask about your symptoms, past medical history, and any medications you're taking.
+* **Imaging Tests:** In some cases, your doctor may order an X-ray, CT scan, or MRI to rule out any underlying conditions.
+**Important Notes:**
+* **Self-diagnosis is dangerous:**  It's crucial to avoid self-diagnosing and seeking medical advice from unqualified sources.
+* **Early intervention is key:**  The sooner you seek medical attention, the better the chances of a successful treatment plan.
+Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Please consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -6898,22 +7750,22 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is the miconazole powder the same as regular baby powder?
-**Answer:**
-It's great you're asking about the differences between these products! While both miconazole and baby powder are often used for topical applications, they have very different purposes and compositions. 
-**Miconazole powder:**
-* **Purpose:**  Miconazole is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. 
-* **Composition:**  Miconazole powder contains the active ingredient miconazole nitrate, which is a powerful antifungal agent. It also often contains inactive ingredients like starch, talc, and other excipients to help with flow and absorption.
-* **Safety:**  Miconazole powder is generally safe for topical use when used as directed. However, it can cause skin irritation or allergic reactions in some people. 
-**Baby powder:**
-* **Purpose:**  Baby powder is primarily used for personal hygiene, particularly to absorb moisture and prevent chafing. 
-* **Composition:**  Baby powder typically contains talc, a soft mineral that absorbs moisture. It can also contain cornstarch, zinc oxide, or other ingredients to help with odor control and skin protection.
-* **Safety:**  Talc is a mineral</t>
+          <t xml:space="preserve">
+It's great you're asking about the differences between miconazole powder and baby powder!  While they both might be found in a store, they are very different products with very different uses. 
+**Miconazole powder** is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. It works by killing the fungus that causes these infections. 
+**Baby powder** is typically made from talc, a soft mineral. It's used to absorb moisture and prevent chafing, especially on delicate skin. 
+**Here's why they are NOT the same:**
+* **Active Ingredients:** Miconazole powder contains an antifungal agent, while baby powder does not. 
+* **Purpose:** Miconazole powder is for treating fungal infections, while baby powder is for preventing chafing and moisture.
+* **Safety:** Miconazole powder can be irritating to the skin if used improperly. It's important to follow the instructions on the label and to test it on a small area of skin before using it on a larger area. Baby powder is generally considered safe for babies, but it's important to choose a brand that is free of talc.
+* **Application:** Miconazole powder is applied directly to the affected area, while baby powder is typically applied to the body after bathing.
+**Important Note:**  It's crucial to consult with a healthcare professional for any skin concerns or before using any medication or product on your skin. They can provide personalized advice based on your individual needs and medical history. 
+Let me know if you have any other questions about medical topics! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -6951,21 +7803,27 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there a cream that you can prescribe for anal fissure like topical nitro ? topical nitroglycerin?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-While topical nitroglycerin is a powerful vasodilator, it's **not** a suitable treatment for anal fissures. 
+          <t xml:space="preserve">
+I understand you're looking for relief from anal fissures, and you're curious about topical nitroglycerin.  
+**However, I must strongly advise against using topical nitroglycerin for anal fissures.** 
 Here's why:
-* **Safety Concerns:** Nitroglycerin is a potent medication that can cause serious side effects, including hypotension (low blood pressure), dizziness, and even fainting. These side effects can be particularly dangerous for individuals with pre-existing cardiovascular conditions.
-* **Lack of Evidence:** There is no scientific evidence to support the use of topical nitroglycerin for anal fissures. 
-* **Alternative Treatments:**  Anal fissures are best treated with a combination of:
-    * **Topical medications:**  These include topical corticosteroids, lidocaine, and topical nitroglycerin. However, topical nitroglycerin is not recommended due to safety concerns.
-    * **Lifestyle changes:**  Dietary changes, increased fiber intake, and avoiding straining during bowel movements can help prevent</t>
+* **Nitroglycerin is a powerful vasodilator.** This means it widens blood vessels, which can be dangerous in the anal area. It can cause:
+    * **Severe pain and discomfort.**
+    * **Increased bleeding.**
+    * **Potential for tissue damage.**
+    * **Interactions with other medications.**
+* **There are safer and more effective treatments for anal fissures.** These include:
+    * **Topical medications:**  These can include hydrocortisone cream, lidocaine cream, or topical nitroglycerin. **However, I strongly advise against using topical nitroglycerin.**
+    * **Lifestyle changes:**  Eating a high-fiber diet, drinking plenty of fluids, and avoiding straining during bowel movements can help prevent and heal fissures.
+    * **Prescription medications:**  Your doctor may prescribe stronger medications, such as stool softeners or antibiotics, depending on the severity of your fissure.
+    * **Surgery:**  In rare cases, surgery may be necessary to repair a severe fissure.
+**It's crucial to consult with a qualified medical professional for diagnosis and treatment of anal fissures.** They can assess your individual needs and recommend the most appropriate treatment plan. 
+**Please remember:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and should not be considered a substitute for professional medical advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -7007,18 +7865,26 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there a reason why my urine is clear and odorless?
-**Answer:**
-It's great that you're paying attention to your body and noticing changes!  However, I need to emphasize that I am an AI and cannot provide medical advice.  
-That being said, clear and odorless urine is generally considered a sign of good health.  Here's why:
-* **Normal Urine Composition:**  Urine is primarily water, but it also contains small amounts of waste products, electrolytes, and other substances.  When these substances are balanced and filtered efficiently, urine is typically clear and odorless.
-* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and may have a stronger odor. 
-* **Diet:**  Certain foods and drinks can affect urine color and odor. For example, a diet high in protein can lead to a slightly stronger odor.
-* **Medications:**  Some medications can affect urine color and odor. 
-* **Underlying Medical Conditions:**  While clear and odorless urine is usually a good sign, it's important to remember that it can sometimes be a symptom of an underlying medical condition.  
-**What to do:**
-* **Monitor Your Urine:**  If you notice any changes in your urine</t>
+          <t xml:space="preserve">
+It's great that you're paying attention to your body!  A clear urine color is generally a good sign, but it's important to remember that I'm an AI and not a doctor.  **It's crucial to consult a medical professional for any health concerns.** 
+That being said, here's some general information about clear urine:
+**What's normal:**
+* **Clear urine** usually indicates that your kidneys are functioning well and your body is efficiently removing waste products. 
+* **Minimal to no color** in your urine is a sign of good hydration and healthy kidneys.
+**Possible reasons for clear urine:**
+* **Hydration:**  The most common reason for clear urine is simply drinking enough water.  
+* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and appear darker.
+* **Recent medication:** Some medications can cause changes in urine color.
+* **Diet:**  Certain foods and drinks can affect urine color. For example, beets can make urine red.
+* **Medical conditions:**  While clear urine is usually a good sign, it can sometimes be a symptom of underlying medical conditions.  
+**When to see a doctor:**
+* **Sudden change in urine color:** If your urine suddenly changes color, it's important to see a doctor.
+* **Blood in your urine:**  Blood in your urine is a serious condition that requires immediate medical attention.
+* **Pain or burning during urination:**  These symptoms could indicate a urinary tract infection or other medical condition.
+* **Frequent urination:**  If you're urinating more often than usual, it's important to see a doctor.
+* **Other symptoms:**  If you're experiencing any other symptoms, such as fever, chills, or pain in your back or side, it's important to see a doctor.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -7063,26 +7929,24 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there a steroid cream that I can use for the bite on my face?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a doctor or other qualified healthcare provider for any health concerns.
-**Answer:**
-I understand you're looking for relief from a bite on your face. While I can't provide medical advice, I can offer some general information about steroid creams and their potential use in this situation.
-**Steroid creams are often used to reduce inflammation and itching associated with skin conditions like:**
-* **Insect bites:** They can help minimize swelling and redness.
-* **Allergies:** They can help reduce the allergic reaction and associated symptoms.
-* **Eczema:** They can help manage the inflammation and itching associated with eczema.
-**However, it's crucial to understand that:**
-* **Steroid creams can be potent and should only be used as directed by a medical professional.** 
-* **Applying them to a bite on your face could potentially worsen the situation.** 
-* **The bite might be infected, and applying a steroid cream could interfere with proper healing.**
-**What to do instead:**
-1. **Clean the bite:** Gently wash the bite with soap and water.
-2. **Apply a cold compress:**</t>
+          <t xml:space="preserve">
+I understand you're looking for relief from a bite on your face. While I can provide general information, I am not a medical professional and cannot give medical advice. 
+**It's crucial to see a doctor or dermatologist for any bite wound, especially on the face.**  They can properly assess the bite, determine the cause, and recommend the best treatment. 
+Here's what I can tell you about potential treatments for bite wounds:
+* **Antibiotics:**  Depending on the cause of the bite (animal, insect, etc.), your doctor may prescribe antibiotics to prevent infection.
+* **Pain relief:** Over-the-counter pain relievers like ibuprofen or acetaminophen can help manage pain and inflammation.
+* **Steroid creams:**  Steroid creams can help reduce swelling and itching, but they are not always necessary and should be used with caution. 
+* **Wound care:**  Your doctor may recommend cleaning the wound with soap and water, applying a bandage, and keeping it covered to prevent further irritation.
+**Important Considerations:**
+* **Severity:** The severity of the bite will determine the treatment needed. A minor bite might only require cleaning and bandaging, while a deeper bite or one from a venomous creature may require more extensive treatment.
+* **Allergic reaction:**  If you have a known allergy to any medication or substance, it's crucial to inform your doctor.
+* **Underlying conditions:**  Certain medical conditions can affect wound healing, so it's important to disclose any relevant information to your doctor.
+**Remember:**  Self-treating a bite wound can be dangerous. Always consult a medical professional for proper diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -7121,21 +7985,27 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there a way to stop the Cymbalta and then start the Zoloft the next day?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're curious about switching from Cymbalta to Zoloft. It's great that you're thinking about your medication and seeking information. 
-However, I must emphasize that **I am not a medical professional and cannot give medical advice.**  
-**Here's why it's crucial to talk to your doctor about this:**
-* **Withdrawal Symptoms:**  Stopping Cymbalta abruptly can lead to withdrawal symptoms, which can be uncomfortable and even dangerous. These symptoms can include nausea, dizziness, fatigue, and anxiety. 
-* **Individualized Treatment:** Your doctor knows your medical history, current medications, and individual needs. They can help you safely transition from one antidepressant to another.
-* **Potential Interactions:**  There might be potential interactions between Cymbalta and Zoloft that your doctor needs to consider. 
-* **Dosage Adjustments:** Your doctor may need to adjust your dosage of either medication</t>
+          <t xml:space="preserve">
+I understand you're looking for information about switching antidepressants.  It's great that you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
+That said, I can provide some general information about switching antidepressants. 
+**It's crucial to consult with your doctor before making any changes to your medication.** They can assess your individual situation, consider potential risks and benefits, and provide personalized guidance. 
+Here's what your doctor might consider:
+* **Your specific condition:** The type of depression you're experiencing, its severity, and your response to Cymbalta will all play a role in determining the best course of action.
+* **Your medical history:** Any other health conditions you have, as well as any medications you're currently taking, can influence the decision.
+* **The potential for withdrawal symptoms:**  Stopping Cymbalta abruptly can lead to withdrawal symptoms, which can be unpleasant and potentially dangerous. 
+* **The potential for side effects:** Switching antidepressants can sometimes lead to new side effects. 
+* **The effectiveness of Zoloft:** Your doctor will want to ensure that Zoloft is an appropriate choice for you and will likely want to monitor your progress.
+**Here are some general points to consider:**
+* **Gradual tapering:**  Your doctor may recommend gradually tapering off Cymbalta over several weeks to minimize withdrawal symptoms. 
+* **Alternative medications:**  There might be other antidepressants that are a better fit for you, or your doctor might suggest a different approach to managing your symptoms.
+* **Monitoring your progress:**  It's important to monitor your symptoms and how you're feeling while on Zoloft. Your doctor will want to adjust your treatment plan as needed.
+**Remember, your doctor is your best resource for information about your health and medication.** They can provide personalized advice and ensure you're taking the safest and most effective approach to managing your depression. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -7177,22 +8047,39 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anti nausea medication that can be taken to allow fluids to stay down?
-**Please provide a detailed explanation.**
-##  Anti-Nausea Medications for Fluid Management
-You're right to be concerned about nausea and its impact on fluid intake.  Here's a breakdown of how anti-nausea medications can help manage this issue:
-**Understanding the Connection:**
-* **Nausea and Vomiting:** Nausea is a feeling of discomfort in the stomach, often accompanied by a desire to vomit. Vomiting is the forceful expulsion of stomach contents. Both are triggered by various factors, including motion sickness, pregnancy, infections, and certain medications.
-* **Fluid Loss:** Nausea and vomiting can lead to significant fluid loss, especially in severe cases. This can be dangerous, especially for individuals with dehydration or underlying medical conditions.
-**Anti-Nausea Medications:**
-* **Types:** Several anti-nausea medications are available, each with its own mechanism of action:
-    * **Antihistamines:**  Like dimenhydrinate (Dramamine) and meclizine (Bonine), these medications work by blocking the effects of histamine, a chemical involved in allergic reactions. They are often used for motion sickness.
-    * **Anti-emetics:**  These medications, such as promethazine (Phenergan</t>
+          <t xml:space="preserve">
+You're asking a great question, and it's one that many people struggle with.  Let's break down the answer:
+**Yes, there are medications that can help with nausea and allow fluids to stay down.**  However, it's important to understand that the best approach is often a combination of strategies. 
+**Here's a breakdown of common options:**
+**1. Anti-nausea Medications:**
+* **Antihistamines:**  These are often the first line of defense.  Examples include Dramamine (dimenhydrinate) and Bonine (meclizine). They work by blocking the effects of histamine, a chemical involved in allergic reactions. They can be effective for motion sickness and some types of nausea.
+* **Anti-emetics:** These medications work on the central nervous system to suppress nausea and vomiting.  Examples include:
+    * **Metoclopramide (Reglan):**  This is a dopamine antagonist that helps move food through the digestive tract. It can be helpful for nausea caused by chemotherapy, surgery, or other medical conditions.
+    * **Ondansetron (Zofran):**  This is a serotonin antagonist and is often used for nausea and vomiting caused by chemotherapy, surgery, or other medical conditions.
+    * **Promethazine (Phenergan):**  This is a phenothiazine derivative that can be used for nausea and vomiting, but it can also cause drowsiness.
+* **Ginger:**  Ginger has long been used for nausea relief. It's thought to work by reducing inflammation and stimulating the digestive system.  Ginger can be taken in capsule form, as tea, or as a supplement.
+**2. Lifestyle and Dietary Strategies:**
+* **Small, Frequent Meals:**  Eating smaller portions more frequently can help prevent overwhelming your stomach.
+* **Bland Foods:**  Stick to bland foods like toast, crackers, rice, and bananas. These are easier to digest and less likely to trigger nausea.
+* **Hydration:**  Dehydration can worsen nausea.  Sip on clear fluids like water, broth, or electrolyte drinks.
+* **Avoid Triggers:**  Identify and avoid foods or activities that trigger your nausea.
+* **Rest:**  Get plenty of rest to allow your body to recover.
+**Important Considerations:**
+* **Underlying Cause:**  It's crucial to determine the underlying cause of your nausea.  If it's persistent or severe, it's essential to consult a doctor to rule out any serious medical conditions.
+* **Medication Interactions:**  Be sure to inform your doctor about all medications you are taking, as some anti-nausea medications can interact with other drugs.
+* **Side Effects:**  All medications have potential side effects.  Be aware of these and discuss them with your doctor.
+* **Individual Response:**  The effectiveness of medications can vary from person to person.  It may take some trial and error to find the right medication and dosage for you.
+**When to See a Doctor:**
+* **Severe or Persistent Nausea:**  If your nausea is severe or doesn't improve with over-the-counter medications, see a doctor.
+* **Vomiting Blood:**  This is a serious symptom that requires immediate medical attention.
+* **Fever:**  A fever along with nausea can indicate an infection.
+* **Other Symptoms:**  If you experience other symptoms like abdominal pain, diarrhea, or dizziness, seek medical advice.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -7230,28 +8117,38 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there any kind of medication you can prescribe in the meantime to help reduce my sweating ?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  Possible Medications for Excessive Sweating (Hyperhidrosis)
-While I can't prescribe medication, I can provide information about potential treatments for excessive sweating. 
-**1. Anticholinergic Medications:**
+          <t xml:space="preserve">
+I understand you're looking for ways to manage excessive sweating, also known as hyperhidrosis.  While I can't provide medical advice, I can offer some information about medications that are commonly used to treat this condition. 
+**Important:** It's crucial to consult with a qualified medical professional for a proper diagnosis and personalized treatment plan. 
+Here's what I can tell you about medications for hyperhidrosis:
+**1. Anticholinergics:**
 * **Mechanism:** These medications block the action of acetylcholine, a neurotransmitter that stimulates sweat glands.
 * **Examples:**  
     * **Glycopyrrolate:** Available in oral and topical forms.
     * **Oxybutynin:** Available in oral and topical forms.
-    * **Tiotropium:** Available in inhaler form.
-* **Effectiveness:** Can be effective for moderate to severe hyperhidrosis.
-* **Side Effects:**  Dry mouth, blurred vision, constipation, urinary retention, drowsiness.
-**2. Antiperspirants:**
-* **Mechanism:** These contain aluminum chloride, which blocks sweat ducts.
+    * **Tiotropium:**  Available in inhaler form.
+* **Effectiveness:**  They can be effective for moderate to severe sweating, but they may cause side effects like dry mouth, constipation, and urinary retention.
+**2. Beta-Blockers:**
+* **Mechanism:** These medications block the effects of adrenaline, a hormone that triggers sweating.
 * **Examples:**  
-    * **Prescription-strength antiperspirants:** Contain higher concentrations of aluminum chloride.
-    * **Over-the-counter antiperspirants:** Contain lower concentrations of</t>
+    * **Propranolol:** Available in oral and intravenous forms.
+* **Effectiveness:**  They can be effective for localized sweating, but they may not be suitable for everyone.
+**3. Iontophoresis:**
+* **Mechanism:** This non-invasive treatment uses a mild electrical current to temporarily block sweat glands.
+* **Effectiveness:**  It can be effective for some individuals, but it requires regular treatments and may not be suitable for everyone.
+**4. Botox:**
+* **Mechanism:**  Botox injections block nerve signals that stimulate sweat glands.
+* **Effectiveness:**  It can be effective for moderate to severe sweating, but it requires multiple injections and may not last forever.
+**5. Prescription-strength Antiperspirants:**
+* **Mechanism:** These contain aluminum chloride, which helps block sweat ducts.
+* **Effectiveness:**  They can be effective for reducing sweating, but they may not be suitable for everyone.
+**Before starting any medication or treatment, it's essential to discuss your medical history, allergies, and any other medications you're taking with your doctor.** They can help determine the best course of action for your specific situation. 
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -7292,24 +8189,31 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything I can do about feeling like Im going to pass out?
-Feeling like you're going to pass out is a serious symptom that needs to be addressed. It's important to understand that I am not a medical professional and cannot provide medical advice. 
-**Possible Causes:**
-* **Dehydration:** Not drinking enough fluids can lead to low blood volume and dizziness.
-* **Low Blood Sugar:**  A drop in blood sugar can cause lightheadedness and fainting.
-* **Orthostatic Hypotension:** This is a sudden drop in blood pressure when standing up, often due to dehydration or medication side effects.
-* **Inner Ear Problems:** Conditions like Meniere's disease or benign paroxysmal positional vertigo (BPPV) can cause dizziness and vertigo.
-* **Medication Side Effects:** Some medications can cause dizziness as a side effect.
-* **Anxiety or Panic Attacks:** These can trigger feelings of lightheadedness and fainting.
-* **Heart Conditions:** In some cases, fainting can be a symptom of a heart problem.
-* **Other Medical Conditions:**  There are other medical conditions that can cause dizziness and fainting, such as anemia, thyroid problems, and neurological disorders.
-**What to Do:**
-* **See a Doctor:** It's crucial to see a doctor to</t>
+          <t xml:space="preserve">
+I understand you're feeling faint, and that's a serious concern. I can't give medical advice, but I can tell you what to do and what to look for. 
+**It's crucial to seek immediate medical attention if you're experiencing dizziness or fainting.** This could be a sign of a serious underlying condition. 
+**Here's what you should do:**
+1. **Seek immediate medical attention:** Call emergency services (911 in the US) or go to the nearest emergency room. 
+2. **Stay calm:**  Panic can worsen your symptoms. Try to relax and focus on your breathing.
+3. **Sit or lie down:**  Avoid standing up abruptly. 
+4. **Elevate your legs:** If possible, raise your legs slightly above your heart.
+5. **Stay hydrated:** Sip water or juice slowly. Dehydration can contribute to dizziness.
+6. **Avoid caffeine and alcohol:** These substances can worsen dizziness.
+**Possible Causes of Fainting:**
+* **Dehydration:** Not drinking enough fluids can lead to low blood pressure and dizziness.
+* **Low blood sugar:**  This can happen if you haven't eaten in a while.
+* **Low blood pressure:** This can be caused by standing up too quickly, dehydration, or certain medications.
+* **Heart problems:**  Fainting can be a symptom of heart conditions like arrhythmias or heart failure.
+* **Neurological problems:**  Conditions like migraines, seizures, or brain tumors can cause dizziness.
+* **Medication side effects:** Some medications can cause dizziness as a side effect.
+* **Anxiety or panic attacks:**  These can trigger a sudden drop in blood pressure and fainting.
+**Important Note:**  This information is not a substitute for professional medical advice.  It's essential to consult a doctor to determine the underlying cause of your dizziness and receive appropriate treatment. 
+**Remember:**  Don't hesitate to seek medical attention if you're experiencing dizziness or fainting. Your health is paramount. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -7347,17 +8251,34 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything I can take for the pain that isnt ibuprofen based?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're looking for pain relief options beyond ibuprofen.  While ibuprofen is a common and effective choice, there are other medications and approaches you can consider. 
-**Here are some options to discuss with your doctor:**
-* **Acetaminophen (Tylenol):** This is another common over-the-counter pain reliever that works differently than ibuprofen. It's often used for headaches, muscle aches, and fever. 
-* **Naproxen (Aleve):** This is a non-steroidal anti-inflammatory drug (NSAID) like ibuprofen, but it has a longer duration of action. 
-* **Prescription Medications:** If over-the-counter options aren't enough, your doctor may prescribe stronger pain relievers, such as:
-    * **Tramadol:** This is a centrally acting opioid that can be effective for moderate to severe pain.
-    * **Opioids:** These are powerful pain relievers that can be highly effective but also have risks associated with</t>
+          <t xml:space="preserve">
+I understand you're looking for pain relief options beyond ibuprofen.  While I can't provide medical advice, I can offer information about some alternatives. 
+**Important:** It's crucial to consult with your doctor or a qualified healthcare professional before starting any new medication or treatment. They can assess your specific situation, consider potential interactions, and recommend the best course of action for you.
+Here are some non-ibuprofen options for pain management:
+**Over-the-Counter Options:**
+* **Acetaminophen (Tylenol):** This is a common pain reliever and fever reducer. It's generally safe for most people, but it can cause liver damage in high doses.
+* **Naproxen (Aleve):** This is another non-steroidal anti-inflammatory drug (NSAID) that can help reduce pain and inflammation. It's available in both tablet and liquid form.
+* **Topical Creams:**  These can be helpful for localized pain, such as muscle aches or joint pain. Examples include:
+    * **Capsaicin:** Found in creams and patches, it can help reduce pain by blocking pain signals.
+    * **Menthol:**  Can provide temporary relief from pain and inflammation.
+* **Other OTC Options:**  Some other options include:
+    * **Tramadol:** A prescription pain reliever that can be used for moderate to severe pain.
+    * **Duloxetine (Cymbalta):** A medication used to treat chronic pain, depression, and anxiety.
+**Natural Remedies:**
+* **Heat or Cold Therapy:** Applying heat or cold to the affected area can help reduce pain and inflammation.
+* **Massage:**  Can help relax muscles and reduce pain.
+* **Acupuncture:**  A traditional Chinese medicine technique that involves inserting thin needles into specific points on the body.
+* **Yoga and Exercise:**  Regular physical activity can help improve flexibility and reduce pain.
+**Prescription Medications:**
+* **Opioids:**  These are powerful pain relievers that can be effective for severe pain, but they come with risks of addiction and overdose. They are typically prescribed for short-term use.
+* **Antidepressants:**  Some antidepressants, like duloxetine, can be used to treat chronic pain.
+**Remember:**
+* **Underlying Conditions:**  Certain conditions, like kidney disease or liver disease, may make it unsafe to take certain medications.
+* **Drug Interactions:**  Some medications can interact with each other, so it's important to tell your doctor about all the medications you're taking.
+* **Dosage:**  It's important to take medications as directed by your doctor.
+* **Side Effects:**  All medications have potential side effects.
+**Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your pain and explore the best treatment options for you.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -7401,24 +8322,41 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything I should do if bronchitis is diagnosed?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-**Answer:**
-It's great that you're proactive about your health!  Bronchitis is a common condition, but it can be uncomfortable.  Here's what you should know and do:
-**Understanding Bronchitis:**
-* **Acute Bronchitis:** This is a short-term infection of the bronchial tubes, usually caused by a virus. It's often accompanied by a cough, chest discomfort, and shortness of breath.
-* **Chronic Bronchitis:** This is a long-term condition where the bronchial tubes are inflamed and irritated, leading to persistent coughing and mucus production. It's often caused by smoking or exposure to irritants.
-**What to Do If You Have Bronchitis:**
-**1. Rest:** Give your body a chance to heal by getting plenty of sleep.
-**2. Fluids:** Drink plenty of fluids, especially water, to thin mucus and prevent dehydration.
-**3. Over-the-Counter Medications:**
-    * **Cough Suppressants:** Can help reduce coughing, especially at night.
-    * **</t>
+          <t xml:space="preserve">
+I understand you're concerned about bronchitis.  While I can provide information, I am not a medical professional and cannot give medical advice.  **It's crucial to consult a doctor for diagnosis and treatment.** 
+That said, here's what I can tell you about bronchitis:
+**What is Bronchitis?**
+Bronchitis is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It can be acute (short-term) or chronic (long-term). 
+**Causes:**
+* **Viral infections:** Most often, bronchitis is caused by a virus, like the common cold or influenza.
+* **Bacterial infections:**  Less common, but bacteria can also cause bronchitis.
+* **Environmental irritants:**  Smoke, dust, fumes, and other irritants can trigger bronchitis.
+* **Other factors:**  Asthma, allergies, and certain medical conditions can also contribute to bronchitis.
+**Symptoms:**
+* **Cough:**  Often persistent and may produce phlegm (mucus).
+* **Wheezing:**  A whistling sound when you breathe.
+* **Shortness of breath:**  Difficulty breathing, especially during physical activity.
+* **Chest tightness:**  A feeling of pressure or discomfort in your chest.
+* **Fatigue:**  Feeling tired and weak.
+* **Fever:**  May be present with viral bronchitis.
+**Treatment:**
+Treatment for bronchitis depends on the cause and severity. 
+* **Viral bronchitis:**  Rest, fluids, and over-the-counter medications like cough suppressants and pain relievers can help manage symptoms.
+* **Bacterial bronchitis:**  Antibiotics are prescribed to treat bacterial infections.
+* **Chronic bronchitis:**  Long-term treatment may involve medications to open airways, reduce inflammation, and manage symptoms.
+**What You Can Do:**
+* **Rest:**  Give your body time to heal.
+* **Hydrate:**  Drink plenty of fluids, especially water.
+* **Use a humidifier:**  This can help loosen mucus and make breathing easier.
+* **Over-the-counter medications:**  Cough suppressants, pain relievers, and expectorants can help manage symptoms.
+* **Avoid irritants:**  Stay away from smoke, dust, and other irritants.
+* **See a doctor:**  If your symptoms are severe or don't improve after a few days, see a doctor.
+**Remember:** This information is for general knowledge only and should not be considered medical advice.  **Always consult a doctor for diagnosis and treatment.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -7456,22 +8394,35 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything i should be looking out for while using minoxidil?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before starting or stopping any medication.
-##  Minoxidil: What to Watch Out For
-Minoxidil, sold under brand names like Rogaine, is a popular over-the-counter medication used to treat hair loss. While generally safe, it's important to be aware of potential side effects and interactions. 
-Here's what you should look out for while using minoxidil:
-**Common Side Effects:**
-* **Skin irritation:** This is the most common side effect, often appearing as redness, itching, or burning. It's usually mild and temporary, but if it's severe or doesn't improve, consult your doctor.
-* **Hair loss:** While minoxidil is designed to promote hair growth, it can sometimes cause temporary hair loss in the areas where it's applied. This is usually temporary and hair regrowth is expected.
-* **Headache:** Some people experience headaches while using minoxidil. 
-* **Dizziness:**  Minoxidil can cause dizziness, especially when first starting treatment. 
-* **Dry scalp:**  Min</t>
+          <t xml:space="preserve">
+Ah, minoxidil. A common name in the world of hair loss treatments, but like any medication, it comes with its own set of considerations. 
+Here's what you should be aware of while using minoxidil:
+**Potential Side Effects:**
+* **Hair Loss:**  This is the most common side effect, but it's usually temporary.  It's important to remember that minoxidil can cause hair loss in some people, even if they're not experiencing hair loss before starting the treatment.
+* **Skin Irritation:**  Minoxidil can cause redness, itching, or burning at the application site. This is usually mild and temporary, but if it's severe or doesn't improve, you should consult your doctor.
+* **Headache:**  Some people experience headaches while using minoxidil.
+* **Dizziness:**  Minoxidil can cause dizziness, especially when first starting the treatment.
+* **Dry Scalp:**  Minoxidil can dry out the scalp, leading to itching and flaking.
+* **Allergic Reactions:**  While rare, some people can experience allergic reactions to minoxidil, which can range from mild skin irritation to more serious reactions like hives or difficulty breathing.
+**Important Considerations:**
+* **Pregnancy and Breastfeeding:**  Minoxidil is not recommended for pregnant or breastfeeding women.
+* **Interactions with Other Medications:**  Minoxidil can interact with certain medications, including blood thinners, antidepressants, and blood pressure medications. It's crucial to inform your doctor about all medications you're taking before starting minoxidil.
+* **Dosage:**  The dosage of minoxidil varies depending on the individual and the severity of hair loss. Your doctor will determine the appropriate dosage for you.
+* **Consistency:**  Minoxidil is most effective when used consistently. You'll need to apply it twice a day to see results.
+* **Results:**  It can take several months to see noticeable results from minoxidil. 
+**What to Do if You Experience Side Effects:**
+* **Stop using minoxidil and contact your doctor immediately.**
+* **If you experience any severe side effects, seek medical attention immediately.**
+**Remember:**
+* Minoxidil is not a cure for hair loss, but it can help slow down hair loss and promote hair regrowth.
+* It's important to follow your doctor's instructions carefully and to be patient.
+* If you have any concerns about minoxidil, talk to your doctor.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -7508,19 +8459,38 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything you can prescribe for anal fissure?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-Anal fissures are a common condition, and while they can be uncomfortable, they are usually treatable.  
-**Here's what I can tell you about treatment options:**
-* **Lifestyle Changes:**
-    * **Dietary Modifications:**  Eating a high-fiber diet is crucial. Fiber softens stool, making it easier to pass and reducing pressure on the anal area.  Foods rich in fiber include fruits, vegetables, whole grains, and legumes.
-    * **Hydration:**  Drinking plenty of water helps soften stool and promotes regular bowel movements.
-    * **Avoid Straining:**  This can worsen the fissure and lead to further complications.
-    * **Warm Sitz Bath:**  Soaking in a warm bath for 10-15 minutes can help soothe the area and reduce pain.
-* **Over-the-Counter Medications:**
-    * **Topical Analgesics:**  Creams or oint</t>
+          <t xml:space="preserve">
+I understand you're looking for information about anal fissures and potential treatments.  
+As a helpful and harmless AI, I can't provide medical advice.  **It's crucial to consult a doctor for diagnosis and treatment of any medical condition.** 
+However, I can share some general information about anal fissures and common treatment approaches:
+**What is an Anal Fissure?**
+An anal fissure is a small tear in the lining of the anus. It can be caused by:
+* **Straining during bowel movements:** This is the most common cause.
+* **Constipation:** Hard stools can put pressure on the anus.
+* **Anal intercourse:** This can cause tears.
+* **Inflammatory bowel disease:** Conditions like Crohn's disease and ulcerative colitis can lead to fissures.
+* **Pregnancy:** Hormonal changes and pressure from the growing baby can cause fissures.
+**Treatment Options:**
+* **Lifestyle changes:** 
+    * **Dietary changes:** Increasing fiber intake and drinking plenty of fluids can help soften stools and prevent constipation.
+    * **Regular exercise:** This can help with bowel regularity.
+    * **Avoiding straining:** This is crucial to prevent further tearing.
+* **Over-the-counter medications:**
+    * **Topical creams:** These can help soothe the pain and promote healing.
+    * **Stool softeners:** These can make stools easier to pass.
+* **Prescription medications:**
+    * **Pain relievers:** These can help manage pain and discomfort.
+    * **Antibiotics:** These may be prescribed if an infection is present.
+* **Procedures:**
+    * **Rubber band ligation:** This involves tying off the fissure with a rubber band to encourage healing.
+    * **Laser therapy:** This uses a laser to cauterize the fissure and promote healing.
+    * **Surgery:** This is rarely needed but may be recommended in severe cases.
+**Important Notes:**
+* **See a doctor:** It's essential to see a doctor for a proper diagnosis and treatment plan. 
+* **Don't self-treat:**  Using home remedies without medical guidance can be ineffective and potentially harmful.
+* **Follow your doctor's instructions:**  Adhering to the prescribed treatment plan is crucial for successful healing.
+Remember, I am an AI and cannot provide medical advice. Please consult a qualified healthcare professional for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -7561,25 +8531,34 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there anything youd recommend for the throat pain?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-##  Possible Causes of Throat Pain
-Throat pain can be caused by a variety of factors, including:
-* **Viral infections:** Common cold, flu, mononucleosis
-* **Bacterial infections:** Strep throat, tonsillitis
-* **Allergies:** Hay fever, dust allergies
-* **Gastroesophageal reflux disease (GERD):** Stomach acid backing up into the esophagus
-* **Dry air:** Can irritate the throat
-* **Irritants:** Smoke, pollution, chemicals
-* **Medications:** Some medications can cause throat irritation
-* **Tonsillitis:** Inflammation of the tonsils
-* **Pharyngitis:** Inflammation of the pharynx (throat)
-* **Vocal cord dysfunction:** Problems with the vocal cords
-* **Trauma:** Injury to the throat
-* **Cancer:** In rare cases, throat pain can be a symptom of cancer
-##  Recommendations for Throat Pain
-**Based on the potential causes, here</t>
+          <t xml:space="preserve">
+I understand you're dealing with throat pain, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  **It's crucial to consult a real doctor for diagnosis and treatment.** 
+That said, I can offer some general information about common causes of throat pain and potential remedies:
+**Possible Causes of Throat Pain:**
+* **Viral Infections:**  The most common cause, often accompanied by fever, cough, and runny nose.  Examples include the common cold, flu, and COVID-19.
+* **Bacterial Infections:**  Strep throat is a bacterial infection that causes severe pain, fever, and swollen tonsils.
+* **Allergies:**  Allergic reactions can cause throat irritation, scratchiness, and a feeling of tightness.
+* **Dry Air:**  Especially common in winter, dry air can irritate the throat.
+* **Acid Reflux:**  Stomach acid backing up into the esophagus can cause a burning sensation in the throat.
+* **Tonsillitis:**  Inflammation of the tonsils, often caused by a viral or bacterial infection.
+* **Postnasal Drip:**  Mucus dripping down the back of the throat can cause irritation.
+* **Vocal Cord Dysfunction:**  A condition where the vocal cords don't open and close properly, causing hoarseness and throat pain.
+**General Home Remedies (Always consult a doctor first):**
+* **Hydration:**  Drink plenty of fluids, especially water, to soothe the throat and prevent dehydration.
+* **Saltwater Gargle:**  Dissolve a teaspoon of salt in a cup of warm water and gargle for 30-60 seconds, then spit out the water.
+* **Honey:**  Honey has soothing properties and can help coat the throat. Add it to warm tea or water.
+* **Lozenges:**  Sucking on lozenges can provide temporary relief from throat pain.
+* **Humidifier:**  Use a humidifier to add moisture to the air, especially in dry climates.
+* **Rest:**  Give your body time to heal by getting plenty of rest.
+**When to See a Doctor:**
+* **Severe pain:**  If the pain is intense or doesn't improve with home remedies.
+* **Fever:**  A high fever can indicate a more serious infection.
+* **Difficulty swallowing:**  This could be a sign of a serious condition.
+* **Swollen glands:**  This could indicate an infection.
+* **Rash:**  A rash can be a sign of an allergic reaction.
+* **Coughing up blood:**  This is a serious symptom that requires immediate medical attention.
+**Remember:** This information is not a substitute for professional medical advice. Please consult a doctor for a proper diagnosis and treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -7622,19 +8601,31 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is there something like ambient which could help on those occasions where I have a big presentation or something and really need to sleep?
-**Please provide a calming and informative response.**
-It's completely understandable to feel anxious about big presentations and needing a good night's sleep.  Let's explore some ways ambient sounds can help you relax and prepare for your presentation.
+          <t xml:space="preserve">
+Ah, a common struggle!  You're asking about ambient sounds, and yes, they can be a powerful tool for sleep, especially when you're facing a big presentation. 
+Here's the breakdown:
 **What is Ambient Sound?**
-Ambient sound refers to sounds that are continuous and often natural, like rain, ocean waves, or forest sounds. These sounds can help create a calming and relaxing atmosphere, which can be beneficial for sleep and stress reduction.
-**How Ambient Sounds Can Help:**
-* **Noise Masking:**  Ambient sounds can help mask distracting noises, such as traffic, city sounds, or even your own thoughts. This can create a more peaceful environment for sleep.
-* **Brainwave Entrainment:** Some studies suggest that certain ambient sounds, like binaural beats, can influence brainwave activity, promoting relaxation and sleep.
-* **Stress Reduction:** The calming nature of ambient sounds can help reduce stress and anxiety, which can be helpful before a big presentation.
-* **Improved Focus:**  In some cases, ambient sounds can help improve focus and concentration, which can be beneficial for preparing for a presentation.
-**Types of Ambient Sounds:**
-* **Nature Sounds:** Rain, ocean waves</t>
+Ambient sounds are soundscapes designed to create a calming and relaxing atmosphere. They often feature natural sounds like rain, ocean waves, or forest noises, but can also include synthesized sounds like white noise, binaural beats, or even calming music.
+**How Can Ambient Sounds Help with Sleep?**
+* **Noise Masking:**  Ambient sounds can help mask distracting noises, like traffic or chatter, which can interfere with sleep. This is especially helpful if you live in a noisy environment or have a restless sleep.
+* **Brainwave Entrainment:** Some ambient sounds, like binaural beats, can influence your brainwaves, potentially promoting relaxation and sleep.
+* **Stress Reduction:**  The calming nature of ambient sounds can help reduce stress and anxiety, which are common culprits for sleep problems.
+* **Improved Focus:**  For some, the soothing sounds of ambient music can help clear their mind and improve focus, which can be helpful before a big presentation.
+**Types of Ambient Sounds for Sleep:**
+* **Nature Sounds:** Rain, ocean waves, forest sounds, wind chimes, crackling fire.
+* **White Noise:** A steady, consistent sound that masks other noises.
+* **Pink Noise:** A sound with a lower frequency range, which can be more relaxing than white noise.
+* **Binaural Beats:** Sounds designed to induce specific brainwave frequencies, often used for relaxation and meditation.
+* **Calming Music:**  Classical music, ambient music, or nature-inspired melodies.
+**Tips for Using Ambient Sounds for Sleep:**
+* **Experiment:**  Try different types of ambient sounds to find what works best for you.
+* **Start Low:**  Begin with a low volume and gradually increase it until you find a comfortable level.
+* **Consistency:**  Use ambient sounds consistently to help train your brain to associate them with sleep.
+* **Combine with Other Sleep Hygiene Practices:**  Ambient sounds are most effective when combined with good sleep hygiene practices, such as a regular sleep schedule, a relaxing bedtime routine, and a comfortable sleep environment.
+**Important Note:**
+While ambient sounds can be helpful, they are not a substitute for proper sleep hygiene or medical advice. If you have persistent sleep problems, consult a doctor or sleep specialist. 
+Let me know if you'd like to explore specific types of ambient sounds or have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -7673,27 +8664,29 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is this tinea capitis contagious?
-**Answer:**
-Tinea capitis, commonly known as ringworm of the scalp, is indeed contagious. 
-Here's why:
-* **Fungus:** Tinea capitis is caused by a type of fungus called dermatophytes. These fungi thrive in warm, moist environments and can easily spread from person to person.
-* **Direct Contact:** The most common mode of transmission is through direct contact with an infected person, their hair, or contaminated objects like combs, hats, or towels.
-* **Indirect Contact:**  While less common, the fungus can also spread indirectly through contact with contaminated surfaces or objects.
-* **Environmental Factors:**  Warm, humid environments and poor hygiene can contribute to the spread of tinea capitis.
-**Important Considerations:**
-* **Diagnosis:** It's crucial to get a proper diagnosis from a healthcare professional to rule out other scalp conditions.
-* **Treatment:**  Tinea capitis is treatable with antifungal medications. 
-* **Prevention:**  Good hygiene practices, such as washing hair regularly and avoiding sharing personal items, can help prevent the spread of the fungus.
-**In summary, tinea capitis is a contagious fungal infection that spreads through direct or indirect contact with infected individuals</t>
+          <t xml:space="preserve">
+You're asking a very important question about a common fungal infection.  Let's break down what you need to know about **tinea capitis** and its contagiousness:
+**Tinea capitis** is a fungal infection that affects the scalp. It's often called "ringworm" of the scalp, but it's not actually a worm. It's caused by a type of fungus called dermatophytes.
+**Is it contagious?**
+**Yes, tinea capitis is highly contagious.**  Here's why:
+* **Fungal spores:** The fungus that causes tinea capitis spreads through tiny fungal spores that are easily airborne. These spores can travel through the air and land on the scalp of someone else.
+* **Direct contact:**  You can also get tinea capitis by direct contact with an infected person, their hair, or their scalp.
+* **Sharing personal items:**  Sharing hats, combs, brushes, towels, or other personal items that have come into contact with an infected person can also spread the fungus.
+**How to prevent it:**
+* **Good hygiene:**  Wash your hair regularly with a mild shampoo and avoid sharing personal items.
+* **Avoid contact with infected individuals:**  If you know someone has tinea capitis, try to avoid close contact with them.
+* **Keep your scalp clean:**  Keep your scalp clean and dry to prevent fungal growth.
+* **Treat infected individuals:**  Prompt treatment of tinea capitis in an infected person can help prevent the spread of the fungus.
+**Important Note:**  If you suspect you or someone you know has tinea capitis, it's crucial to see a doctor for proper diagnosis and treatment.  Self-treating can be ineffective and may even worsen the condition. 
+Let me know if you have any other questions about tinea capitis or any other medical concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H128" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -7733,29 +8726,26 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Is viral pharyngitis an allergy thing?
-**Answer:**
-Viral pharyngitis, commonly known as a "common cold," is **not** an allergy. It's caused by a virus, not an allergen. 
-Here's a breakdown:
-* **Viral pharyngitis:** This is an inflammation of the throat caused by a virus, such as rhinovirus, adenovirus, or influenza virus. 
-* **Allergies:** Allergies are immune system reactions to specific substances like pollen, dust mites, or pet dander. 
-**Symptoms of viral pharyngitis:**
-* Sore throat
-* Cough
-* Runny nose
-* Sneezing
-* Headache
-* Body aches
-* Low-grade fever
-**Treatment:**
-* Rest
-* Fluids
-* Over-the-counter pain relievers
-* Gargling with salt water
-* Humidifier
-**Key takeaway:** Viral pharyngitis is a viral infection, not an allergy. 
-**Important Note:** While viral pharyngitis is usually mild and self-limiting, it's always best to consult a doctor if you have concerns about your health. 
+          <t xml:space="preserve">
+It's great you're curious about viral pharyngitis!  Let's break down the relationship between allergies and this common condition.
+**Viral Pharyngitis: The Basics**
+Viral pharyngitis, also known as a "sore throat," is an inflammation of the pharynx (the back of the throat). It's most commonly caused by viruses like the common cold, influenza, or Epstein-Barr virus. 
+**Allergies and Sore Throats: A Complex Relationship**
+While viral pharyngitis is primarily caused by viruses, allergies can definitely play a role in how you experience it. Here's how:
+* **Triggers:**  Allergies can trigger inflammation in the throat, making it more susceptible to irritation and discomfort.  
+    * **Examples:**  Dust mites, pollen, pet dander, mold, and certain foods can all trigger allergic reactions in the throat.
+* **Symptoms:**  Allergies can exacerbate the symptoms of viral pharyngitis, making them feel worse. 
+    * **Examples:**  A runny nose, itchy eyes, and a cough can all make a sore throat feel more uncomfortable.
+* **Delayed Diagnosis:**  Sometimes, allergies can mimic the symptoms of viral pharyngitis, leading to delayed diagnosis and treatment.
+**Important Distinction:**
+It's crucial to understand that viral pharyngitis is **not** an allergy. It's a viral infection, and the inflammation is caused by the virus itself. Allergies, on the other hand, are immune system responses to specific substances (allergens).
+**When to See a Doctor:**
+While most cases of viral pharyngitis resolve on their own within a week or two, it's important to see a doctor if:
+* **Symptoms are severe:**  If you have difficulty swallowing, a high fever, or other concerning symptoms, seek medical attention.
+* **Symptoms persist:**  If your sore throat doesn't improve after a week or two, or if you develop new symptoms, consult a doctor.
+* **You have a history of allergies:**  If you have allergies, it's important to discuss your symptoms with a doctor to rule out any potential allergic reactions.
+**In Conclusion:**
+While allergies can contribute to the discomfort of a sore throat, viral pharyngitis is not an allergy.  If you're concerned about your sore throat, it's always best to consult a doctor for proper diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -7801,21 +8791,40 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Lets assume its keratosis pilaris.Are there any pharmaceutical options to treat this?
-**Please provide a mild and safe treatment option.**
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for diagnosis and treatment.
-##  My understanding of Keratosis Pilaris
-Keratosis pilaris (KP) is a common, harmless skin condition that causes small, rough bumps to appear on the skin, most commonly on the upper arms, thighs, and buttocks. It's caused by a buildup of keratin, a protein that helps protect the skin, in the hair follicles. 
-**Treatment options for KP:**
-While there's no cure for KP, there are several treatment options that can help manage the condition and improve its appearance. 
-**Mild and safe treatment options:**
-* **Moisturizers:**  Using a thick, emollient-based moisturizer several times a day can help soften the rough patches and improve skin hydration. Look for ingredients like urea, lactic acid, or salicylic acid.
-* **Exfoliation:** Gentle exfoliation can help remove the dead skin cells that contribute to the bumps. You can use a soft washcloth, a gentle scrub, or a chemical exfoliant containing alpha-hydroxy acids (AHAs) or</t>
+          <t xml:space="preserve">
+You're right to ask about pharmaceutical options for keratosis pilaris (KP). While it's a common skin condition, it can be frustrating and sometimes embarrassing.  
+Here's what I can tell you about pharmaceutical treatments for KP:
+**1. Topical Treatments:**
+* **Salicylic Acid:** This is the most common and effective treatment. It works by exfoliating the skin, removing the keratin plugs that cause KP bumps.  
+    * **Forms:** Available as creams, lotions, washes, and even scrubs. 
+    * **Frequency:**  Usually applied 2-3 times a day.
+    * **Effectiveness:**  Can significantly improve KP, but it may take several weeks to see results.
+* **Retinoids:**  Vitamin A derivatives like tretinoin, adapalene, and tazarotene can help unclog pores and reduce inflammation. 
+    * **Forms:** Creams, gels, and lotions.
+    * **Frequency:**  Usually applied at night.
+    * **Effectiveness:**  Can be very effective, but they can also cause dryness, redness, and peeling.
+* **Other Topical Treatments:**
+    * **Alpha Hydroxy Acids (AHAs):**  Like glycolic acid, can help exfoliate the skin.
+    * **Urea:**  Can help soften the skin and reduce the appearance of bumps.
+    * **Moisturizers:**  Essential for keeping the skin hydrated, especially with topical treatments.
+**2. Oral Medications:**
+* **Topical steroids:**  While not a first-line treatment, they can be used in severe cases to reduce inflammation and itching. 
+* **Antibiotics:**  May be prescribed if KP is associated with bacterial infection.
+**3. Other Considerations:**
+* **Lifestyle Changes:**  Keeping the skin moisturized, avoiding harsh soaps, and wearing loose-fitting clothing can help manage KP.
+* **Laser Therapy:**  Can be used to improve the appearance of KP, but it's not a cure.
+* **Chemical Peels:**  Can help improve KP, but they can also be irritating.
+**Important Notes:**
+* **Consult a Dermatologist:**  It's crucial to consult a dermatologist for a proper diagnosis and personalized treatment plan. They can assess your specific condition and recommend the most effective treatment options.
+* **Patch Test:**  Before using any new topical treatment, do a patch test on a small area of skin to check for allergies or irritation.
+* **Consistency is Key:**  Be patient and consistent with your treatment plan. It may take several weeks or months to see significant improvement.
+* **Individualized Treatment:**  The best treatment for KP will vary depending on the severity of the condition, individual skin type, and other factors.
+Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -7857,25 +8866,33 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: My cat was just diagnosed with a tapeworm, could that be something I can get from him?
-**Answer:**
-As a wise doctor, I understand your concern. It's natural to worry about your own health when your beloved pet is diagnosed with a condition. 
-**Here's what you need to know about tapeworms and the risk to humans:**
-* **Tapeworms are parasites:** They live in the intestines of animals, including cats. 
-* **Humans can get tapeworms:**  It's possible to contract tapeworms from cats, but it's not common. 
-* **Transmission:**  The most common way humans get tapeworms is by ingesting tapeworm eggs that are present in contaminated food or water. This is more likely to happen if you're not careful about hygiene and sanitation.
-* **Risk factors:**  The risk of getting tapeworms from your cat is higher if you:
-    *  Have a cat that is infected with a tapeworm.
-    *  Have a cat that is shedding its eggs in your environment.
-    *  Have poor hygiene practices, such as not washing your hands after handling your cat.
-* **Prevention:**  The best way to prevent tapeworm infection is to:
-    *  Keep your cat on a regular deworming schedule.
-</t>
+          <t xml:space="preserve">
+It's great that you're being proactive about your cat's health and concerned about potential risks to you.  Here's what you need to know about tapeworms and the possibility of transmission to humans:
+**Can humans get tapeworms from cats?**
+Yes, it's possible, but it's **relatively uncommon**.  Here's why:
+* **Tapeworm Life Cycle:**  Tapeworms require a specific host to complete their life cycle. Cats are the intermediate host, meaning they become infected by ingesting tapeworm eggs from contaminated food or water.  
+* **Human Transmission:** Humans are the definitive host, meaning we can become infected by consuming the tapeworm eggs that have been shed in cat feces. 
+* **Risk Factors:** The risk of transmission is higher if you:
+    * **Have direct contact with your cat's feces:** This includes scooping their litter box, cleaning their food and water bowls, or handling their feces.
+    * **Don't practice good hygiene:**  Wash your hands thoroughly after handling your cat, their feces, or their environment.
+    * **Are not careful about food hygiene:**  Avoid feeding your cat raw meat or fish, as this can increase the risk of tapeworm infection.
+**How to Minimize Risk:**
+* **Regular Veterinary Care:**  Ensure your cat receives regular veterinary checkups and deworming treatments as recommended.
+* **Proper Hygiene:**  Wash your hands thoroughly after handling your cat, their feces, or their environment.
+* **Safe Food Handling:**  Avoid feeding your cat raw meat or fish.
+* **Clean Litter Box:**  Scoop your cat's litter box regularly and dispose of it properly.
+* **Avoid Contact with Feces:**  Do not allow your cat to lick your face or hands.
+* **Wash Bedding:**  Wash your cat's bedding regularly in hot water.
+**What to Do If You Suspect Exposure:**
+* **Consult a Doctor:**  If you have any concerns about potential exposure, consult your doctor. They can assess your risk and advise you on appropriate steps.
+* **Seek Veterinary Advice:**  If your cat has a tapeworm, your veterinarian can provide guidance on treatment and prevention.
+**Important Note:**  While tapeworm transmission from cats to humans is possible, it's important to remember that it's a relatively rare occurrence. By following good hygiene practices and taking your cat's health seriously, you can significantly reduce your risk. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -7910,22 +8927,30 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: My older sister has pcos and has had trouble conceiving. Is there a genetic component to pcos?
-**Answer:**
-It's great that you're interested in understanding the genetic aspects of PCOS. You're right to think there's a complex interplay between genetics and PCOS. 
-Here's what we know:
-**1.  Genetic Predisposition:**
-* **Family History:**  Having a close relative (parent, sibling, or child) with PCOS significantly increases your risk of developing it. This suggests a strong genetic component.
-* **Specific Genes:** While no single "PCOS gene" exists, research has identified several genes that are associated with an increased risk of developing PCOS. These genes are involved in hormone regulation, insulin sensitivity, and other metabolic processes. 
-* **Polygenic Nature:** PCOS is likely a polygenic disorder, meaning it's caused by the combined effect of multiple genes, each contributing a small effect.
-**2.  Genetic Testing:**
-* **Limited Utility:** Currently, genetic testing for PCOS is not widely available or routinely recommended. 
-* **Potential for Personalized Treatment:**  If you're considering genetic testing, it's important to discuss it with your doctor. They can help you understand the potential benefits and limitations of the test and whether it's appropriate for your individual</t>
+          <t xml:space="preserve">
+It's great that you're interested in understanding the genetic component of PCOS. You're right to be curious, as genetics definitely play a role in this condition. 
+Here's what I can tell you:
+**Yes, there is a genetic component to PCOS.** While it's not a simple case of "one gene causes PCOS," research has shown that certain genes can increase the risk of developing the condition. 
+**Here's a breakdown of how genetics works in PCOS:**
+* **Polygenic:** PCOS is a complex condition, meaning it's influenced by multiple genes, not just one. 
+* **Family History:** Having a close relative with PCOS significantly increases your risk. This suggests a strong genetic link.
+* **Specific Genes:** Research has identified several genes that are associated with PCOS. These genes are involved in hormone production, insulin sensitivity, and other processes that are disrupted in PCOS.
+* **Genetic Testing:** While not routinely recommended for everyone, genetic testing can be helpful for individuals with a strong family history of PCOS. It can identify specific gene variants that increase the risk.
+**Important Considerations:**
+* **Environmental Factors:** While genetics plays a role, it's important to remember that environmental factors also contribute to PCOS. These include factors like obesity, insulin resistance, and stress.
+* **Individual Variation:** Even with a genetic predisposition, not everyone with PCOS will develop the condition. 
+* **Diagnosis:** If you're concerned about PCOS, it's crucial to consult a healthcare professional. They can perform a thorough evaluation, including blood tests and ultrasound, to confirm the diagnosis.
+**What can you do?**
+* **Talk to your sister:** Encourage her to discuss her concerns with her doctor. 
+* **Family History:** If you have a family history of PCOS, talk to your doctor about genetic testing.
+* **Lifestyle Changes:** Maintaining a healthy weight, exercising regularly, and managing stress can help reduce the risk of developing PCOS or improve symptoms.
+**Remember:**  PCOS is a complex condition, and genetics is just one piece of the puzzle. A holistic approach that considers both genetic and environmental factors is essential for effective management and treatment. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -7965,30 +8990,31 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: My wife had mentioned some kind of oral med that was available for foot fungus issues?
-**Please provide information on:**
-* **What is foot fungus?**
-* **What are the common causes of foot fungus?**
-* **What are the different types of foot fungus?**
-* **What are the symptoms of foot fungus?**
-* **What are the treatment options for foot fungus?**
-* **What are the home remedies for foot fungus?**
-* **What are the risks associated with self-treating foot fungus?**
-* **When to see a doctor for foot fungus?**
-**Please note:** I am not a medical professional and this information is for general knowledge purposes only. It should not be considered as medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment.
-##  Foot Fungus: A Comprehensive Guide
-You're right to be concerned about foot fungus. It's a common and often uncomfortable condition. Let's break down what you need to know:
-**What is foot fungus?**
-Foot fungus, also known as athlete's foot, is a fungal infection that affects the skin of the feet. It's caused by a group of fungi called dermatophytes, which thrive in warm, moist environments.
-**What are the common causes of</t>
+          <t xml:space="preserve">
+I understand your wife mentioned an oral medication for foot fungus. That's great she's taking steps to address this! 
+Here's what I can tell you about oral medications for foot fungus, but remember, I'm not a medical professional and this is not a substitute for a doctor's advice:
+**Common Oral Medications:**
+* **Terbinafine (Lamisil):** This is a very effective antifungal medication. It's often prescribed for toenail and fingernail fungus. It can take several weeks to see results.
+* **Fluconazole (Diflucan):** This is another common antifungal medication used for systemic fungal infections, including those affecting the feet. It's usually prescribed for more severe cases.
+* **Itraconazole (Sporanox):** This is another powerful antifungal medication that can be used for both systemic and topical fungal infections. It's often prescribed for more severe cases.
+**Important Considerations:**
+* **Diagnosis:** It's crucial to get a proper diagnosis from a doctor.  They'll examine your wife's feet, possibly take a sample, and determine the type of fungus causing the issue. 
+* **Severity:** The type and severity of the fungal infection will determine the best course of treatment. 
+* **Side Effects:** All medications have potential side effects. Your wife's doctor will discuss these with her and monitor her for any adverse reactions.
+* **Duration:** Treatment usually involves taking the medication for several weeks or even months. 
+* **Lifestyle Changes:**  In addition to medication, your wife may need to change her lifestyle to help prevent the fungus from returning. This might include keeping her feet clean and dry, wearing breathable shoes, and avoiding sharing personal items.
+**What to do next:**
+* **Schedule an appointment:** Encourage your wife to schedule an appointment with her doctor or a dermatologist. They can provide a proper diagnosis, discuss treatment options, and answer any questions she has.
+* **Be prepared:** When she sees the doctor, be prepared to discuss her symptoms, how long she's had the issue, and any other relevant information.
+**Remember:**  It's essential to follow your doctor's instructions carefully and complete the full course of treatment. This will help ensure the fungus is completely eradicated and prevent it from returning. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8022,26 +9048,32 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: NSAIDs bother my stomach, is there anything I can take with that to prevent irritation?
-**Answer:**
-I understand your concern. NSAIDs, like ibuprofen and naproxen, are very effective for pain and inflammation, but they can definitely cause stomach upset.  Here's what you can do to minimize the irritation:
-**1.  Start with a Low Dose:**  
-   - Begin with the lowest effective dose of the NSAID. This can help reduce the strain on your stomach lining.
-   - Gradually increase the dose only if needed, and always follow the instructions on the label.
-**2.  Take with Food:** 
-   -  Always take NSAIDs with food, especially a meal rich in fat. This helps slow down the absorption of the drug and reduces the risk of irritation.
-**3.  Avoid Alcohol:** 
-   - Alcohol can increase stomach acid production, making it more likely to irritate your stomach.
-**4.  Stay Hydrated:** 
-   - Drinking plenty of water throughout the day helps flush out any excess acid and promotes overall digestive health.
-**5.  Consider Antacids:** 
-   - Over-the-counter antacids, like Tums or Rolaids, can neutralize stomach acid and provide temporary relief from heartburn. 
-**6.</t>
+          <t xml:space="preserve">
+I understand your concern about NSAIDs bothering your stomach.  It's a common issue, and luckily, there are ways to manage it. 
+**Here's what I can tell you:**
+**Understanding the Problem:**
+* **NSAIDs and Stomach Issues:** Non-steroidal anti-inflammatory drugs (NSAIDs) like ibuprofen (Advil, Motrin) and naproxen (Aleve) work by reducing inflammation. However, they can irritate the stomach lining, leading to heartburn, indigestion, nausea, and ulcers.
+* **Individual Sensitivity:**  Everyone reacts differently to NSAIDs. Some people are more sensitive than others, and factors like age, genetics, and existing conditions can play a role.
+**Preventing Stomach Irritation:**
+1. **Start with a Low Dose:**  Begin with the lowest effective dose of the NSAID and gradually increase it if needed. This can help minimize stomach irritation.
+2. **Take with Food:**  Taking NSAIDs with food can help protect your stomach lining.  
+3. **Avoid Alcohol and Caffeine:**  These substances can further irritate the stomach.
+4. **Stay Hydrated:**  Drinking plenty of water can help flush out stomach acid and reduce irritation.
+5. **Consider Antacids:**  Over-the-counter antacids like Tums or Rolaids can neutralize stomach acid and provide temporary relief.
+6. **Proton Pump Inhibitors (PPIs):**  These medications are more potent than antacids and can be prescribed by your doctor to reduce stomach acid production. They are often used for long-term use, especially if you have frequent stomach problems.
+7. **H2 Blockers:**  These medications also reduce stomach acid production. They are often used for short-term relief.
+8. **Alternative Pain Relief:**  If NSAIDs are causing you problems, talk to your doctor about alternative pain relief options like acetaminophen (Tylenol) or topical pain relievers.
+**Important Considerations:**
+* **Underlying Conditions:**  If you have a history of ulcers, gastritis, or other stomach problems, it's crucial to discuss your NSAID use with your doctor.
+* **Long-Term Use:**  If you need to take NSAIDs regularly, your doctor may recommend a lower dose or a different type of medication.
+* **Side Effects:**  Be aware of potential side effects, such as kidney problems, bleeding, and allergic reactions.
+**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered medical advice.  **Always consult with your doctor or pharmacist before starting or stopping any medication.** They can assess your individual needs and recommend the best course of action for you. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -8082,26 +9114,30 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: No I have not is vomiting a Covid symptom?
-Answer: 
-Vomiting is indeed a possible symptom of COVID-19, though it's not as common as other symptoms like fever, cough, or loss of taste. 
+          <t xml:space="preserve">
+You're right to be curious about vomiting and COVID-19. It's a common question, and the answer is: **Yes, vomiting can be a symptom of COVID-19.** 
 Here's what you need to know:
-**Possible COVID-19 Symptoms:**
-* **Fever or chills:**  A common early symptom.
-* **Cough:**  Can be dry or productive.
-* **Shortness of breath or difficulty breathing:**  May occur with severe illness.
-* **Fatigue:**  Feeling extremely tired.
-* **Muscle or body aches:**  General aches and pains.
-* **Headache:**  Often a dull, persistent headache.
-* **New loss of taste or smell:**  A distinctive symptom.
-* **Sore throat:**  Can be scratchy or painful.
-* **Congestion or runny nose:**  May occur with some variants.
-* **Nausea or vomiting:**  Less common but possible.
-* **Diarrhea:**  Can be a symptom, especially in children.
+**COVID-19 Symptoms:**
+* **Common Symptoms:** Fever, cough, fatigue, shortness of breath, loss of taste or smell.
+* **Less Common Symptoms:** Headache, muscle aches, sore throat, congestion, nausea, vomiting, diarrhea.
+**Why Vomiting Might Occur:**
+* **Direct Viral Infection:** The virus can directly affect the lining of your stomach and intestines, causing inflammation and irritation.
+* **Immune Response:** Your body's immune response to the virus can also trigger vomiting.
+* **Other Factors:**  Underlying health conditions, medications, or dehydration can also contribute to vomiting.
 **When to Seek Medical Attention:**
-* **Difficulty breathing or shortness of breath:**  Seek immediate medical attention.
-* **Persistent pain or pressure in the chest:**  Call 911 immediately</t>
+* **Severe Vomiting:** If you experience persistent vomiting, especially if it's accompanied by:
+    * High fever
+    * Difficulty breathing
+    * Dehydration (dry mouth, dizziness, dark urine)
+    * Chest pain
+    * Confusion
+* **Other Symptoms:** If you have any other concerning symptoms, such as persistent cough, shortness of breath, or loss of taste or smell, seek medical attention immediately.
+**Important Notes:**
+* **Not Everyone Experiences Vomiting:**  While vomiting is a possible symptom, it's not present in all cases of COVID-19.
+* **Early Diagnosis is Key:** If you suspect you may have COVID-19, it's important to get tested and follow the guidance of your healthcare provider. 
+* **Prevention is Crucial:**  Vaccination and following public health guidelines are the best ways to prevent COVID-19 infection.
+**Remember:** I am an AI and cannot provide medical advice. If you have concerns about your health, please consult a qualified healthcare professional. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -8146,26 +9182,47 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: No what is vestibular nueritis?
-**Answer:**
-Vestibular neuritis is a condition that affects the vestibular nerve, which is responsible for balance and spatial orientation. It's a common condition, often caused by a viral infection, and can lead to a sudden onset of dizziness, vertigo, and nausea. 
-Here's a breakdown of what you need to know:
+          <t xml:space="preserve">
+Let's talk about vestibular neuritis. 
+**What is Vestibular Neuritis?**
+Vestibular neuritis is an inflammation of the vestibular nerve, which is responsible for your sense of balance and spatial orientation.  Think of it as a "communication line" between your inner ear (which contains the fluid-filled structures that sense movement) and your brain. When this nerve gets inflamed, it disrupts this communication, leading to a variety of symptoms.
 **Causes:**
-* **Viral infections:** The most common cause is a viral infection, such as the flu or a common cold.
-* **Other causes:** Less commonly, it can be caused by bacterial infections, autoimmune disorders, or certain medications.
+* **Viral Infections:** The most common cause is a viral infection, often a cold or flu. The virus can directly attack the vestibular nerve, causing inflammation.
+* **Autoimmune Disorders:** In some cases, the immune system mistakenly attacks the vestibular nerve, leading to inflammation.
+* **Other Factors:** Less common causes include trauma, certain medications, and even some rare genetic conditions.
 **Symptoms:**
-* **Vertigo:** A sensation of spinning or whirling, often accompanied by nausea and vomiting.
-* **Dizziness:** A feeling of lightheadedness or unsteadiness.
-* **Nystagmus:** Involuntary eye movements, usually in a side-to-side or up-and-down direction.
+* **Vertigo:** This is the most common symptom, characterized by a spinning or whirling sensation. It can be constant or come and go.
+* **Nystagmus:** This is a rapid, involuntary eye movement, often in a side-to-side or up-and-down direction.
 * **Headache:** Often present, especially in the morning.
-* **Sensitivity to light and sound:**  Increased sensitivity to bright lights and loud noises.
+* **Dizziness:** Feeling unsteady or lightheaded.
+* **Balance Problems:** Difficulty walking or standing still.
+* **Tinnitus:** Ringing or buzzing in the ears.
+* **Nausea and Vomiting:** Can occur, especially in severe cases.
 **Diagnosis:**
-* **Medical history and physical exam:** Your doctor will ask about your symptoms and perform a physical exam to assess your balance and coordination</t>
+* **Medical History:** Your doctor will ask about your symptoms, past medical history, and any recent illnesses.
+* **Physical Examination:** They will assess your balance, coordination, and eye movements.
+* **Vestibular Testing:** This involves using specialized equipment to measure your balance and eye movements.
+* **Imaging Tests:** In rare cases, imaging tests like MRI or CT scans may be used to rule out other conditions.
+**Treatment:**
+* **Rest:** Avoiding activities that worsen your symptoms is crucial.
+* **Medications:**
+    * **Antivirals:** For viral infections, these can help shorten the duration of the illness.
+    * **Anti-inflammatory Drugs:** These can help reduce inflammation and pain.
+    * **Antihistamines:** May be used to manage nausea and dizziness.
+* **Physical Therapy:** Exercises and stretches can help improve balance and coordination.
+* **Vestibular Rehabilitation:** This specialized therapy focuses on retraining the brain to interpret signals from the inner ear.
+**Recovery:**
+Most people recover from vestibular neuritis within a few weeks to a few months. However, some individuals may experience lingering symptoms, such as dizziness or balance problems, for a longer period.
+**Important Notes:**
+* **Seek Medical Attention:** If you experience sudden onset of vertigo, dizziness, or other symptoms, it's important to see a doctor promptly.
+* **Early Diagnosis and Treatment:** Early intervention can significantly improve recovery time and reduce the risk of complications.
+* **Individualized Treatment:** Treatment plans are tailored to each patient's specific needs and symptoms.
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -8207,23 +9264,36 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Oh one quick question is there anything that can be prescribed to treat hemorrhoids?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-Hemorrhoids are a common condition, and thankfully, there are several effective treatments available.  Here's a breakdown of common options:
-**1. Over-the-Counter (OTC) Medications:**
-* **Topical creams and ointments:** These contain ingredients like hydrocortisone, witch hazel, or lidocaine to reduce inflammation, itching, and pain.
-* **Sitz baths:** Soaking in warm water for 10-15 minutes can help soothe the area and relieve discomfort.
-* **Fiber supplements:** Increasing fiber intake can help soften stools and prevent constipation, which can contribute to hemorrhoids.
-**2. Prescription Medications:**
-* **Topical steroids:** Stronger than OTC options, these can be prescribed for severe cases of hemorrhoids.
-* **Anti-inflammatory medications:** These can help reduce pain and swelling.
-* **Sclerotherapy:** A procedure where a solution is injected into the hemorrho</t>
+          <t xml:space="preserve">
+I understand you're looking for information about treating hemorrhoids.  As a helpful and harmless AI, I can't provide medical advice.  
+However, I can give you some general information about treatment options that a doctor might discuss with you:
+**Common Treatments for Hemorrhoids:**
+* **Lifestyle Changes:**  Often the first line of defense. This includes:
+    * **High-fiber diet:**  Increase your intake of fruits, vegetables, and whole grains to soften stools.
+    * **Hydration:** Drink plenty of water to prevent constipation.
+    * **Avoid straining:**  Don't strain during bowel movements.
+    * **Exercise:**  Regular physical activity can help with bowel regularity.
+* **Over-the-Counter (OTC) Medications:**
+    * **Topical creams and ointments:**  These can provide temporary relief from pain and itching.
+    * **Sitz baths:**  Soaking in warm water can soothe the area.
+* **Prescription Medications:**
+    * **Oral medications:**  These may include stool softeners, laxatives, or anti-inflammatory drugs.
+    * **Injections:**  In some cases, a doctor may inject medication directly into the hemorrhoid.
+* **Procedures:**
+    * **Rubber band ligation:**  A small rubber band is placed around the base of the hemorrhoid, cutting off blood supply and causing it to shrink.
+    * **Sclerotherapy:**  A solution is injected into the hemorrhoid, causing it to shrink.
+    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoid.
+**Important Considerations:**
+* **Severity:** The type of treatment will depend on the severity of your hemorrhoids.
+* **Underlying Conditions:**  Certain medical conditions may affect treatment options.
+* **Individual Needs:**  What works for one person may not work for another.
+* **Doctor's Advice:**  It's crucial to consult with a doctor for a proper diagnosis and personalized treatment plan.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always seek professional medical guidance for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -8260,20 +9330,23 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Ok I will do the blood pressure checks, how often?
-**Here's what I know about blood pressure:**
-* **What it is:** Blood pressure is the force of blood pushing against the walls of your arteries as your heart beats. 
-* **Why it matters:**  It's a vital sign that tells us about your cardiovascular health.  
-* **Normal range:**  Most adults have a blood pressure reading of 120/80 mmHg or lower. 
-* **Risk factors:**  High blood pressure (hypertension) is a major risk factor for heart disease, stroke, and kidney disease.
-* **Monitoring:**  Regular blood pressure monitoring is essential for people with high blood pressure or those at risk.
-**How often to check:**
-* **General population:**  Most adults should have their blood pressure checked at least once a year.
-* **People with high blood pressure:**  They should check their blood pressure daily or as directed by their doctor.
-* **People with other risk factors:**  If you have other risk factors for high blood pressure, such as diabetes, obesity, or a family history of heart disease, you may need to check your blood pressure more frequently.
-**Important considerations:**
-* **Use a reliable device:**  Make sure you</t>
+          <t xml:space="preserve">
+It's great that you're taking an active role in your health!  Here's the breakdown of blood pressure check frequency, but remember, I'm not a doctor, and this is general advice:
+**General Guidelines:**
+* **For most healthy adults:**  Ideally, you should check your blood pressure at home **once a week**. 
+* **For people with high blood pressure:**  Your doctor may recommend checking it **more frequently**, possibly **daily** or **every other day**.
+* **For people with other health conditions:**  Your doctor will provide specific recommendations based on your individual needs.
+**Factors Affecting Frequency:**
+* **Severity of hypertension:**  The more severe your hypertension, the more frequent the checks.
+* **Medications:**  Some medications can affect blood pressure readings, so your doctor may adjust the frequency.
+* **Lifestyle factors:**  Stress, diet, and exercise can all influence blood pressure, so your doctor may recommend checking it more often if you're making significant lifestyle changes.
+* **Family history:**  If you have a family history of high blood pressure, you may need more frequent checks.
+**Important Notes:**
+* **Accurate readings:**  Use a reliable blood pressure monitor and follow the instructions carefully.
+* **Record your readings:**  Keep track of your blood pressure readings over time to see if they are improving or worsening.
+* **Consult your doctor:**  Always discuss your blood pressure readings with your doctor. They can help you interpret your results and make any necessary adjustments to your treatment plan.
+**Remember:**  This information is for general knowledge only.  Always consult with your doctor for personalized advice and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -8315,22 +9388,29 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Ok, is it odd the sore throat would have gone away within 24 hours though after taking the antibiotic?
-**Answer:**
-It's not necessarily odd for a sore throat to clear up within 24 hours, even after taking antibiotics. Here's why:
-* **Antibiotics are not always effective for viral infections:**  Sore throats are most often caused by viruses, not bacteria. Antibiotics only work against bacterial infections. If your sore throat was caused by a virus, the antibiotics won't have any effect.
-* **Viral infections have a shorter duration:**  Viral infections, like the common cold or flu, tend to clear up within a few days, even without antibiotics. 
-* **Individual variation:**  Everyone's body responds differently to illness. Some people may recover faster than others.
-* **Severity of the infection:**  A mild sore throat might clear up quickly, while a severe or complicated sore throat might take longer.
-* **Other factors:**  Your overall health, age, and any underlying conditions can also influence how quickly you recover.
-**What to do:**
-* **Continue taking the antibiotic as prescribed:**  Even if your sore throat seems to be improving, it's important to finish the full course of antibiotics as directed by your doctor. This helps prevent the development of antibiotic-resistant bacteria.
-*</t>
+          <t xml:space="preserve">
+It's not unusual for a sore throat to improve within 24 hours, even after taking antibiotics. Here's why:
+**Antibiotics and Sore Throats:**
+* **Bacterial vs. Viral:**  Sore throats are often caused by viruses, not bacteria. Antibiotics are only effective against bacterial infections. 
+* **Antibiotic Action:** Antibiotics work by killing bacteria, not viruses.  They can shorten the duration of a bacterial infection, but they don't always eliminate the virus entirely.
+* **Viral Infections:**  Viral infections like the common cold or flu often resolve on their own within a few days, even without antibiotics.
+**Possible Reasons for Improvement:**
+* **Viral Infection:** The sore throat might have been caused by a virus, and the antibiotics were not necessary.
+* **Early Stage:** The infection might have been in its early stages, and the body was able to fight it off quickly.
+* **Self-Limiting:**  The body's immune system might have been able to clear the infection before the antibiotics had a significant impact.
+**Important Considerations:**
+* **Duration of Symptoms:**  While a sore throat might improve quickly, it's important to note that other symptoms like fever, cough, or difficulty swallowing might persist for longer.
+* **Underlying Conditions:**  If you have any underlying health conditions, your body's response to infection might be different.
+* **Antibiotic Prescription:**  If you were prescribed antibiotics, it's important to complete the full course as directed by your doctor. This helps ensure the infection is fully cleared and prevents antibiotic resistance.
+**When to Seek Medical Advice:**
+* **Persistent Symptoms:** If your sore throat persists for more than a few days, or if you experience other concerning symptoms like high fever, difficulty breathing, or swollen glands, it's important to consult your doctor.
+* **Unusual Symptoms:** If you experience any unusual symptoms, such as a rash, skin discoloration, or changes in your voice, seek medical attention immediately.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with your doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -8365,23 +9445,43 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Okay, what other signs could indicate pink eye if it were to manifest?
-**Please note:** I am not a medical professional and this information is not a substitute for professional medical advice. Always consult with a qualified healthcare provider for any health concerns.
-## Pink Eye: Beyond the Basics
-Pink eye, also known as conjunctivitis, is a common eye condition that can be caused by various factors. While the most common cause is viral infection, bacterial, and allergic conjunctivitis can also occur. 
-**Beyond the classic symptoms of redness and discharge, here are some additional signs that might indicate pink eye:**
-**1. Eye Pain:**  This can be a sign of irritation or inflammation, especially if the discharge is thick or crusty.
-**2. Itching:**  Similar to pain, itching can be a sign of irritation and inflammation.
-**3. Burning Sensation:**  This can be caused by the irritation and inflammation of the conjunctiva.
-**4. Swelling:**  The eyelids and surrounding area can become swollen, especially if the inflammation is severe.
-**5. Blurred Vision:**  This can occur if the inflammation affects the cornea, the clear front part of the eye.
-**6. Discharge:**  While discharge is a common symptom, its color and consistency can vary. 
-    * **</t>
+          <t xml:space="preserve">
+Ah, pink eye, or conjunctivitis. A common ailment, but one that can be quite bothersome.  
+While the classic symptom is redness of the eye, there are several other signs that could indicate pink eye, and it's important to remember that a doctor's diagnosis is always necessary. 
+Here are some additional signs to watch for:
+**Visual Changes:**
+* **Discharge:**  Pink eye can manifest with discharge, which can be clear, white, yellow, green, or even bloody. The discharge may be thick or watery.
+* **Blurry vision:**  Inflammation of the conjunctiva can cause temporary blurry vision.
+* **Sensitivity to light:**  The eye may feel irritated and sensitive to light.
+* **Eye crusting:**  Especially in the morning, the eye may have crusty discharge.
+**Other Symptoms:**
+* **Itching:**  The eye may feel itchy, especially in the inner corner.
+* **Burning:**  A burning sensation in the eye can accompany the redness.
+* **Swelling:**  The eyelids and surrounding area may become swollen.
+* **Pain:**  The eye may feel painful, especially when touched.
+* **Redness in the eyelids:**  The eyelids themselves may be red and irritated.
+* **Feeling of a foreign body in the eye:**  This can be a sign of irritation.
+* **Headache:**  In some cases, pink eye can cause headaches.
+* **Fever:**  While not always present, a fever can accompany certain types of pink eye.
+**Important Considerations:**
+* **Age:**  Pink eye can affect people of all ages, but it's more common in children.
+* **Cause:**  The cause of pink eye can vary, from allergies to infections.
+* **Severity:**  The severity of pink eye can range from mild to severe.
+* **Duration:**  Pink eye can last for a few days to several weeks.
+**When to See a Doctor:**
+It's important to see a doctor if you experience any of the following:
+* **Severe pain or discomfort**
+* **Vision changes**
+* **Discharge that is thick, bloody, or green**
+* **Fever**
+* **Symptoms that don't improve after a few days**
+* **Pink eye that is accompanied by other symptoms, such as a rash or swollen lymph nodes**
+**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -8417,25 +9517,22 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: On the losartan can I take two pills at once or at separate times?
-**Please provide a detailed explanation.**
-##  Important Note: 
-I am an AI chatbot and cannot provide medical advice. The information provided below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're curious about the dosage of Losartan. It's great that you're paying attention to your medication! 
-**Here's the thing:**  Losartan is a medication used to treat high blood pressure. It's important to follow your doctor's instructions regarding dosage and timing. 
-**Generally, you should take Losartan as directed by your doctor.** This usually means taking one pill at a specific time each day. 
-**However, there are a few things to consider:**
-* **Your doctor may have specific instructions:**  They might recommend taking it with food, at a certain time of day, or with other medications. Always follow their guidance.
-* **Individual needs:**  Some people may find that taking two pills at once helps them better manage their blood pressure. However, this is not a universal rule, and</t>
+          <t xml:space="preserve">
+I understand you're curious about taking Losartan.  As a helpful and harmless AI, I can't give medical advice.  
+**It's crucial to consult your doctor or pharmacist about this.** They are the best source of information regarding your specific medication and dosage. 
+Here's why it's important to talk to your healthcare provider:
+* **Individualized Treatment:**  The correct dosage and timing of medication can vary depending on your individual health condition, other medications you're taking, and your body's response.
+* **Potential Interactions:**  Losartan can interact with other medications. Your doctor can assess potential interactions and advise you accordingly.
+* **Safety and Effectiveness:**  Your doctor can ensure you're taking Losartan safely and effectively for your specific needs.
+**Remember:** Never change your medication dosage or frequency without consulting your doctor. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -8474,22 +9571,30 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: One last question, can viral infections cause purulence to form in the eye?
-**Answer:**
-Viral infections can absolutely cause purulence to form in the eye, though it's not as common as bacterial infections. 
-Here's why:
-* **Viral Inflammation:** Many viral infections, particularly those affecting the conjunctiva (the membrane lining the eyelid and covering the white part of the eye), can cause inflammation. This inflammation can lead to the formation of pus (purulent discharge).
-* **Viral Replication:**  The virus itself can sometimes trigger an inflammatory response, leading to the release of inflammatory mediators that contribute to the formation of purulence.
-* **Specific Viruses:** Some viruses, like herpes simplex virus (HSV), varicella-zoster virus (VZV), and adenovirus, are known to cause conjunctivitis (pink eye) which can be accompanied by purulent discharge.
-**Important Considerations:**
-* **Severity:** The severity of purulent discharge can vary depending on the specific virus and the individual's immune system.
-* **Treatment:** Treatment for viral conjunctivitis typically involves rest, artificial tears, and over-the-counter anti-inflammatory medications. In some cases, antiviral medications may be prescribed.
-* **Complications:** While rare, severe or prolonged viral conjunctivitis can lead to complications like</t>
+          <t xml:space="preserve">
+You're asking a very important question about the connection between viral infections and eye purulence.  Let me break down what we know:
+**Purulence in the Eye**
+Purulence refers to the presence of pus, a thick, yellowish fluid containing dead white blood cells, bacteria, and other inflammatory debris.  It's a sign of an active infection and inflammation.
+**Viral Infections and Eye Purulence**
+While viral infections themselves don't always directly cause purulence, they can contribute to it in several ways:
+* **Viral Inflammation:** Many viruses, like the herpes simplex virus (HSV), varicella-zoster virus (chickenpox), and adenoviruses, can cause inflammation in the eye. This inflammation can lead to the formation of pus.
+* **Immune Response:** When your body fights off a viral infection, it triggers an immune response. This response can cause swelling, redness, and irritation, which can lead to purulence.
+* **Secondary Bacterial Infections:**  Viral infections can weaken the immune system, making the eye more susceptible to bacterial infections. These bacterial infections can then lead to purulence.
+**Specific Examples**
+* **Conjunctivitis (Pink Eye):**  Viral conjunctivitis, often caused by adenoviruses, can lead to purulent discharge.
+* **Herpes Keratitis:**  This serious eye infection caused by HSV can cause corneal ulcers and purulent discharge.
+* **Viral Retinitis:**  Certain viruses, like cytomegalovirus (CMV), can cause inflammation of the retina, leading to purulent discharge.
+**Important Considerations**
+* **Severity:** The severity of purulence can vary depending on the type of viral infection, the individual's immune system, and other factors.
+* **Treatment:**  Treatment for purulent eye infections depends on the underlying cause. It may involve antiviral medications, antibiotics, or other therapies.
+* **Seek Medical Attention:** If you experience purulent discharge from your eyes, it's crucial to see an ophthalmologist (eye doctor) for proper diagnosis and treatment.
+**In Summary**
+While not all viral infections directly cause purulence, they can contribute to it by causing inflammation, weakening the immune system, and increasing the risk of bacterial infections. If you have any concerns about your eye health, please consult a medical professional. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -8529,18 +9634,28 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Or could bactrim potentially cause a yeast infection?
-**Answer:**
-Bactrim, also known as sulfamethoxazole-trimethoprim, is an antibiotic that is commonly used to treat bacterial infections. It works by inhibiting the growth of bacteria. 
-While Bactrim is effective against many bacterial infections, it can also have side effects, including potential interactions with other medications and potential for causing yeast infections. 
+          <t xml:space="preserve">
+You're asking a very important question about potential side effects of Bactrim, a common antibiotic.  Here's what I can tell you:
+**Bactrim (sulfamethoxazole/trimethoprim) can potentially cause yeast infections.** 
 Here's why:
-* **Disruption of the normal gut flora:** Bactrim can disrupt the balance of bacteria in your gut, leading to an overgrowth of yeast. This is because it can kill off the beneficial bacteria that normally compete with yeast for resources.
-* **Antibiotic-associated diarrhea:**  Bactrim can cause antibiotic-associated diarrhea, which can further disrupt the gut flora and increase the risk of yeast infections.
-* **Individual susceptibility:** Some individuals are more susceptible to yeast infections than others. This can be due to factors such as genetics, hormonal changes, or underlying medical conditions.
-**Important Considerations:**
-* **Consult your doctor:** If you are experiencing symptoms of a yeast infection, it is important to consult your doctor. They can diagnose the infection and prescribe the appropriate treatment.
-* **Probiotics:** Probiotics can help restore the balance</t>
+* **Mechanism of Action:** Bactrim works by disrupting the growth of bacteria.  It does this by interfering with the synthesis of essential molecules needed for bacterial survival.
+* **Yeast and Bacteria:**  Yeast (like Candida) and bacteria are both microorganisms that can cause infections.  While yeast infections are usually caused by an overgrowth of Candida, bacteria can also contribute to infections.
+* **Disruption of the Microbiome:**  Antibiotics like Bactrim can disrupt the balance of bacteria in your body, including the good bacteria that help keep yeast in check. This disruption can allow yeast to overgrow, leading to a yeast infection.
+**Factors that Increase Risk:**
+* **Prolonged Use:**  Taking Bactrim for extended periods increases the risk of yeast infections.
+* **High Dosage:**  Higher doses of Bactrim can also increase the risk.
+* **Underlying Conditions:**  People with weakened immune systems, diabetes, or other conditions that affect their immune system are more susceptible to yeast infections.
+* **Hormonal Changes:**  Hormonal changes, such as those during pregnancy or menopause, can also increase the risk.
+**Symptoms of Yeast Infection:**
+* **Vaginal itching, burning, and discharge:**  This is the most common symptom.
+* **Pain during intercourse:**  Yeast infections can cause discomfort during sexual activity.
+* **Thick, white discharge:**  The discharge may be thick and cottage cheese-like.
+**What to Do:**
+* **Talk to your doctor:**  If you suspect you have a yeast infection, it's important to see your doctor. They can diagnose the infection and prescribe the appropriate treatment.
+* **Avoid self-treatment:**  Don't use over-the-counter antifungal medications without consulting your doctor.
+* **Follow your doctor's instructions:**  Take your medication as prescribed and complete the full course of treatment.
+**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with your doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -8586,26 +9701,35 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Question- the loss of hearing is consistent with outer ear infection and not inner?
-**Answer:**
-You're right to be curious about the connection between hearing loss and ear infections! It's a common question, and the answer is a bit nuanced. 
-Here's a breakdown:
+          <t xml:space="preserve">
+You're right to be curious about the connection between hearing loss and ear infections. It's a common question, and the answer is a bit nuanced. 
+Here's a breakdown of what you need to know:
 **Outer Ear Infections:**
-* **Cause:**  These infections are usually caused by bacteria or viruses, and they affect the outer ear, including the ear canal, the eardrum, and the outer part of the ear.
-* **Symptoms:**  You'll often see redness, swelling, discharge, and pain in the outer ear. 
-* **Hearing Loss:**  Outer ear infections can cause temporary hearing loss, but it's usually mild and resolves quickly with treatment. 
+* **Common Symptoms:**  These infections are often characterized by pain, redness, swelling, and discharge from the ear canal. 
+* **Hearing Loss:**  While not always the primary symptom, outer ear infections can cause temporary hearing loss due to inflammation and fluid buildup in the ear canal. This is usually temporary and resolves once the infection clears.
+* **Examples:**  Swimmer's ear (otitis externa) is a common example.
 **Inner Ear Infections:**
-* **Cause:**  Inner ear infections are more serious and can be caused by bacteria, viruses, or fungi. They affect the middle ear, the inner ear, and the cochlea (the part of the inner ear that converts sound vibrations into electrical signals).
-* **Symptoms:**  Inner ear infections can cause a range of symptoms, including ear pain, fever, dizziness, nausea, and hearing loss. 
-* **Hearing Loss:**  Inner ear infections can cause more severe and persistent hearing loss, sometimes</t>
+* **Common Symptoms:**  Inner ear infections, also known as otitis media, are more serious and can cause ear pain, fever, dizziness, and hearing loss. 
+* **Hearing Loss:** Inner ear infections can cause permanent hearing loss, especially in children, due to damage to the delicate structures within the inner ear.
+* **Examples:**  Middle ear infections can lead to fluid buildup in the middle ear, which can press on the eardrum and cause hearing loss.
+**Why the Confusion?**
+* **Location:**  The outer ear is the most visible part of the ear, while the inner ear is deeper and more complex. This can lead to a misconception that outer ear infections are always the cause of hearing loss.
+* **Severity:**  Outer ear infections are usually less severe than inner ear infections, and the symptoms are often less dramatic. This can make it seem like hearing loss is a less common symptom.
+**Important Considerations:**
+* **Diagnosis:**  A doctor can diagnose the cause of hearing loss through a physical examination, hearing tests, and possibly imaging tests.
+* **Treatment:**  Treatment for outer ear infections is usually simple and involves cleaning the ear canal and using ear drops. Inner ear infections require antibiotics and other medications.
+* **Prevention:**  Good hygiene practices, such as keeping ears clean and dry, can help prevent ear infections.
+**In Summary:**
+While outer ear infections can cause temporary hearing loss, inner ear infections are more likely to cause permanent hearing loss. It's important to see a doctor if you experience any ear pain, discharge, or hearing loss, as early diagnosis and treatment can help prevent complications. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8642,22 +9766,27 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Should I take a lower dose of my sertraline while taking the zofran?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before making any changes to your medication regimen.
-##  Sertraline and Zofran: Potential Interactions
-Sertraline (Zoloft) is an SSRI antidepressant, while Zofran (ondansetron) is an antiemetic used to prevent nausea and vomiting. While they are generally safe to take together, there can be potential interactions. 
-**Here's what you need to know:**
-* **Sertraline and Zofran can both affect serotonin levels in the body.** This is why it's important to be cautious when combining them.
-* **Zofran may increase the risk of serotonin syndrome.** This is a rare but potentially life-threatening condition characterized by symptoms like agitation, confusion, rapid heartbeat, and high fever.
-* **Lowering your sertraline dose might help reduce the risk of serotonin syndrome.** However, it's crucial to discuss this with your doctor.
-**Important Considerations:**
-* **Your doctor is the best source of information about your specific situation.** They know your medical history, current medications, and potential risks.
-* **</t>
+          <t xml:space="preserve">
+I understand you're concerned about potential interactions between your sertraline and Zofran.  As a helpful and harmless AI, I can't give medical advice.  **It's crucial to discuss this with your doctor or pharmacist.** 
+Here's why this is a complex question and why professional guidance is essential:
+* **Sertraline and Zofran are both medications:** They can interact with each other, potentially affecting their effectiveness or causing side effects. 
+* **Individual factors matter:** Your specific dosage, medical history, and other medications you're taking all play a role in determining potential interactions.
+* **Dosage adjustments are not always necessary:**  Sometimes, the interaction is minimal, and your doctor might not recommend a dose change. 
+**Here's what your doctor or pharmacist can do:**
+* **Review your medical history:** They'll consider your overall health and any other medications you're taking.
+* **Assess the potential for interaction:** They'll evaluate the specific risks and benefits of adjusting your sertraline dosage.
+* **Provide personalized advice:** They'll give you clear instructions based on your individual situation.
+**Remember:** Never make changes to your medication dosage without consulting your doctor. 
+**In the meantime, here are some general points to consider:**
+* **Zofran (ondansetron) is an antiemetic:** It's used to prevent nausea and vomiting.
+* **Sertraline is an antidepressant:** It's used to treat depression and anxiety.
+* **Potential interactions:** Some medications can affect each other's absorption, metabolism, or effectiveness. 
+**Please prioritize your health and safety by discussing this with your healthcare provider.** They are your best resource for personalized advice and guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -8699,17 +9828,24 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Since I took Fioricet about an hour ago, can I take ibuprofen?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before taking any new medication or supplement.
-**Answer:**
-It's great that you're being cautious about potential interactions!  Here's what you need to know about combining Fioricet (containing acetaminophen and butalbital) with ibuprofen:
-**Potential Interactions:**
-* **Acetaminophen and Ibuprofen:**  Both are pain relievers, but they work differently. Acetaminophen is a pain reliever and fever reducer, while ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID).  While they can be used together for pain relief, there's a potential for liver damage if you take too much acetaminophen. 
-* **Butalbital:** Butalbital is a barbiturate, a type of sedative. Combining it with ibuprofen or other medications could potentially increase drowsiness and dizziness.
-**Recommendations:**
-* **Consult Your Doctor:** The best course of action is to contact your doctor or pharmacist. They can assess your specific situation, consider your medical history, and advise you on the safest course of action.
-* **Read the Labels:** Always read the labels of all</t>
+          <t xml:space="preserve">
+I understand you're looking for advice on combining Fioricet and ibuprofen.  
+**I must strongly emphasize that I am not a medical professional and cannot give medical advice.**  
+That said, here's what I can tell you based on general knowledge about medications:
+* **Fioricet contains acetaminophen and butalbital.** Acetaminophen is a pain reliever, butalbital is a barbiturate that can be habit-forming. 
+* **Ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID).** It's used to reduce pain and inflammation. 
+* **Combining medications can have unpredictable effects.**  It's important to consider potential interactions and side effects. 
+**Here's why you should consult a doctor or pharmacist:**
+* **They can assess your specific situation.** Your medical history, current medications, and the dosage of Fioricet you're taking are crucial factors.
+* **They can provide personalized advice.**  They can tell you if it's safe to take ibuprofen with Fioricet and what dosage to use.
+* **They can monitor for potential complications.**  They can watch for any adverse reactions or interactions.
+**In the meantime, here are some general tips:**
+* **Read the labels carefully.** Pay attention to the warnings and instructions on both medications.
+* **Don't exceed the recommended dosage.**  
+* **Be aware of potential side effects.**  Common side effects of Fioricet include drowsiness, dizziness, and nausea. 
+* **If you experience any unusual symptoms, contact your doctor immediately.**
+**Remember, your health is paramount. Always seek professional medical advice before taking any new medications or combining existing ones.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -8753,24 +9889,34 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So if I have prostatitis what would I be prescribed?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns.
-## Prostatitis: Causes, Symptoms, and Treatment
-Prostatitis is an inflammation of the prostate gland, a walnut-sized gland located below the bladder in men. It can be caused by various factors, including:
-* **Bacterial infection:** The most common cause, often caused by bacteria like E. coli.
-* **Non-bacterial infection:** Less common, but can be caused by viruses, fungi, or parasites.
-* **Chronic prostatitis:** A long-term condition with unclear causes.
-* **Other factors:**  Prostatitis can be associated with sexually transmitted infections, urinary tract infections, and certain medications.
-**Symptoms:**
-* **Pain:** Pain in the lower abdomen, pelvis, or back.
-* **Burning sensation:** During urination.
-* **Frequent urination:** Especially at night.
-* **Weak or interrupted urine flow.**
-* **Painful ejaculation.**
-* **Erectile dysfunction.**
-**Treatment:**
-Treatment for prostatitis depends on the underlying cause. </t>
+          <t xml:space="preserve">
+I understand you're looking for information about prostatitis treatment.  It's great that you're seeking information, but I need to be very clear: **I am not a medical professional and cannot give medical advice.** 
+That said, I can provide some general information about prostatitis treatment. 
+**What is Prostatitis?**
+Prostatitis is an inflammation of the prostate gland, which is a small walnut-sized gland located below the bladder in men. It can cause a range of symptoms, including:
+* Pain in the lower abdomen, back, or pelvis
+* Pain during urination
+* Frequent urination
+* Difficulty starting urination
+* Burning sensation during urination
+* Erectile dysfunction
+* Fatigue
+**Treatment Options:**
+Treatment for prostatitis depends on the severity of the condition and the underlying cause.  Here are some common treatment options:
+* **Antibiotics:**  These are often prescribed for bacterial prostatitis. The specific type of antibiotic will depend on the bacteria causing the infection.
+* **Anti-inflammatory medications:** These can help reduce inflammation and pain.
+* **Pain relievers:** Over-the-counter pain relievers like ibuprofen or naproxen can help manage pain.
+* **Alpha-blockers:** These medications can help relax the muscles in the prostate and bladder, making urination easier.
+* **Lifestyle changes:**  Staying hydrated, avoiding caffeine and alcohol, and practicing good hygiene can help manage symptoms.
+* **Surgery:** In rare cases, surgery may be necessary to remove the prostate or treat other underlying conditions.
+**Important Considerations:**
+* **Diagnosis:** It's crucial to get a proper diagnosis from a qualified medical professional.  They will likely perform a physical exam, order blood tests, and possibly a urine culture to determine the cause of your symptoms.
+* **Individualized Treatment:** Treatment plans are tailored to each individual's needs and medical history. 
+* **Follow-up Care:** It's important to follow your doctor's instructions and attend all follow-up appointments.
+**Where to Seek Help:**
+If you suspect you have prostatitis, please **consult a doctor immediately.** They can provide a proper diagnosis and recommend the most appropriate treatment plan for your specific situation. 
+Remember, self-treating can be dangerous.  Always seek professional medical advice for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -8815,26 +9961,30 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So if the diarrhea started last night, Im assuming I would be no longer contagious by tomorrow night?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-## Answer:
-It's great that you're thinking about contagiousness!  Here's the thing about diarrhea and contagiousness:
-**It's not just about the diarrhea itself.**  While diarrhea is a symptom, it's the **bacteria or virus** causing it that determines how contagious you are. 
-**Here's a breakdown:**
-* **Most common causes of diarrhea:**  These are usually caused by viruses (like norovirus) or bacteria (like Salmonella or E. coli). 
-* **Contagious period:**  The contagious period varies depending on the cause. 
-    * **Viral diarrhea:**  Can be contagious for 1-2 days before symptoms appear and up to 2 weeks after.
-    * **Bacterial diarrhea:**  Can be contagious for a few days to a week after symptoms start.
-* **Severity matters:**  The more severe the diarrhea, the longer you're likely to be contagious.
-* **Other factors:**  Your age, overall health, and the specific bacteria or virus involved can also</t>
+          <t xml:space="preserve">
+It's great that you're thinking about contagiousness!  However, I can't give medical advice.  Here's why, and what I *can* tell you:
+**Why I Can't Give You Medical Advice:**
+* **I'm an AI, not a doctor:** I'm trained on a massive amount of text data, but I don't have the real-time medical expertise of a human doctor. 
+* **Every case is different:**  Diarrhea's cause, severity, and how long it lasts can vary wildly.  What's true for one person might not be true for another.
+* **Your health is unique:**  Only a doctor can assess your specific situation, consider your medical history, and give you personalized advice.
+**What I *Can* Tell You:**
+* **Diarrhea is contagious:**  It's often caused by viruses or bacteria that spread through contaminated food or water, or by close contact with someone who's sick.
+* **Contagiousness varies:**  The duration of contagiousness depends on the cause of the diarrhea and how severe it is. 
+* **When to see a doctor:**  If your diarrhea is severe, bloody, accompanied by fever, or lasts longer than a few days, it's important to see a doctor.
+**What to Do:**
+1. **Stay hydrated:** Diarrhea can lead to dehydration, so drink plenty of fluids like water, clear broth, or electrolyte drinks.
+2. **Rest:** Give your body a chance to recover.
+3. **Avoid spreading it:**  Wash your hands frequently, especially after using the bathroom.
+4. **Consult a doctor:**  If your symptoms worsen or don't improve after a few days, or if you have any concerns, please see a doctor.
+**Remember:**  It's always best to err on the side of caution and seek professional medical advice when it comes to your health. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H148" t="n">
         <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -8871,20 +10021,26 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So prednisone is a cortisone type medication?
-**Answer:**
-You're right to be curious about prednisone! It's a corticosteroid, and yes, it's a type of cortisone. 
+          <t xml:space="preserve">
+You're right to be curious about prednisone!  It's a powerful medication, and understanding its classification is important. 
+**Yes, prednisone is a corticosteroid, and more specifically, it's a type of glucocorticoid.** 
 Here's a breakdown:
-* **Corticosteroids:**  These are a class of hormones that your body naturally produces. They play a crucial role in regulating inflammation, immune responses, and other vital functions.
-* **Cortisone:**  This is a specific type of corticosteroid. It's a naturally occurring hormone produced by the adrenal glands. 
-* **Prednisone:**  This is a synthetic version of cortisone. It's made in a lab and is used to treat a wide range of conditions.
-**Why is Prednisone Used?**
-Prednisone is a powerful medication that can help manage various conditions by:
-* **Reducing inflammation:** It helps control swelling and pain by suppressing the immune system's response.
-* **Suppressing the immune system:** This can be helpful in conditions like autoimmune diseases, where the immune system attacks the body's own tissues.
-* **Managing allergies:** It can reduce allergic reactions by blocking the release of histamine.
-* **Treating certain cancers:** Prednisone can be used to</t>
+* **Corticosteroids:** These are a class of hormones naturally produced by the adrenal glands. They play a crucial role in regulating inflammation, immune response, and stress response.
+* **Glucocorticoids:**  This is a specific subset of corticosteroids. They are known for their anti-inflammatory and immunosuppressive properties. 
+* **Prednisone:**  It's a synthetic version of cortisol, the primary glucocorticoid in humans. 
+**How Prednisone Works:**
+Prednisone works by mimicking the effects of cortisol in the body. It binds to receptors in cells and tissues, reducing inflammation and suppressing the immune system. This makes it effective for a variety of conditions, including:
+* **Autoimmune diseases:**  Like rheumatoid arthritis, lupus, and inflammatory bowel disease.
+* **Allergic reactions:**  Such as asthma, hives, and anaphylaxis.
+* **Certain cancers:**  To reduce inflammation and improve treatment response.
+* **Organ transplant rejection:**  To prevent the body from rejecting a transplanted organ.
+**Important Considerations:**
+* **Side Effects:**  Prednisone can have significant side effects, including weight gain, high blood pressure, mood swings, and increased risk of infections. 
+* **Long-Term Use:**  Prolonged use of prednisone can lead to adrenal insufficiency, a condition where the body doesn't produce enough cortisol.
+* **Dosage:**  The dosage of prednisone is carefully determined by a doctor based on the individual's needs and condition.
+**Always consult with a healthcare professional for any medical advice or treatment.** They can provide personalized guidance and ensure the safe and effective use of prednisone. 
+Let me know if you have any other questions about prednisone or other medications! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -8931,21 +10087,27 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So ringworm doesnt itch?
-##  Answer:
-That's a common misconception! While ringworm itself doesn't itch, it can cause a lot of discomfort and irritation. 
+          <t xml:space="preserve">
+That's a great question!  It's a common misconception that ringworm doesn't itch.  Here's the truth:
+**Ringworm DOES itch, but it's not always a strong, obvious itch.**
 Here's why:
-* **It's not an itch, it's a fungal infection:** Ringworm is caused by a fungus, not a virus or bacteria.  It's important to remember that it's not an allergic reaction or a skin irritation.
-* **Itching is a symptom of other conditions:**  The itching you might feel is often a result of the body's immune response to the fungal infection. It's trying to fight off the fungus, which can cause inflammation and irritation.
-* **It can be very uncomfortable:**  The fungal infection can cause redness, scaling, and even blisters. This can be very uncomfortable and even painful, especially if the area is scratched.
-* **It can spread easily:**  Ringworm is highly contagious and can spread easily through direct contact with infected skin, shared towels, or even contaminated surfaces.
-**So, while ringworm doesn't itch in the same way that a mosquito bite or a rash might, it can still cause a lot of discomfort and irritation.**
-**Important Note:** If you suspect</t>
+* **It's not caused by a worm:**  Ringworm is a fungal infection, not a worm.  The name is a bit misleading, but it's not a parasitic worm.
+* **Itching is a symptom of inflammation:**  The fungal infection causes inflammation in the skin, which triggers the itch.  
+* **Itching can be subtle:**  The itch might be mild, especially in the early stages.  It can be a persistent, dull ache or a feeling of dryness and irritation.
+* **Location matters:**  The itch can be more pronounced in areas where the fungus is growing, like the scalp, groin, or feet.
+**Here's what you should do if you think you have ringworm:**
+1. **See a doctor:**  It's important to get a proper diagnosis to ensure it's actually ringworm and not another skin condition.
+2. **Don't scratch:**  Scratching can worsen the inflammation and spread the infection.
+3. **Use antifungal medication:**  Your doctor will prescribe an antifungal cream, lotion, or oral medication to treat the infection.
+4. **Keep the area clean and dry:**  This will help prevent the fungus from spreading.
+5. **Avoid sharing personal items:**  This includes towels, clothing, and bedding.
+**Remember:**  Ringworm is highly contagious, so it's important to take precautions to prevent spreading it to others. 
+Let me know if you have any other questions about ringworm or any other medical concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -8986,25 +10148,25 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So the Flonase is an anti inflammatory?
-**Answer:**
-You're right to be curious about Flonase! It's a common nasal spray that's often used to relieve allergy symptoms.  
-**Here's the breakdown:**
-* **Flonase (fluticasone propionate) is a corticosteroid.**  This means it's a type of medication that helps reduce inflammation. 
-* **It works by blocking the action of a hormone called leukotriene.** Leukotrienes are chemicals that cause inflammation and swelling in the nasal passages. 
-* **Flonase is not an anti-inflammatory in the same way that ibuprofen or naproxen are.** These medications are designed to reduce inflammation throughout the body. Flonase is more targeted, focusing on the inflammation in the nasal passages.
-**So, is it an anti-inflammatory?**
-* **Yes, in the sense that it reduces inflammation in the nasal passages.** 
-* **However, it's important to remember that it's a corticosteroid, and like all steroids, it can have side effects.** These can include:
-    * **Nasal irritation**
-    * **Dryness**
-    * **Headache**
-    * **Increased susceptibility to infections**</t>
+          <t xml:space="preserve">
+You're right to be curious about Flonase! It's a common nasal spray, and its mechanism of action is indeed related to inflammation. 
+Here's a breakdown of how Flonase works and its connection to inflammation:
+**Flonase (fluticasone propionate) is a corticosteroid.**  
+* **What are corticosteroids?**  They are a class of drugs that reduce inflammation. They work by suppressing the immune system's response, which in turn reduces the production of inflammatory chemicals.
+* **How does Flonase work?**  Flonase is a nasal spray that delivers fluticasone propionate directly to the nasal passages. This medication works by:
+    * **Reducing nasal inflammation:** It blocks the production of inflammatory chemicals like histamine and leukotrienes, which are responsible for the symptoms of allergies like sneezing, runny nose, and itchy eyes.
+    * **Preventing the release of inflammatory mediators:** It also inhibits the release of these chemicals from mast cells, which are immune cells that trigger allergic reactions.
+**So, yes, Flonase is an anti-inflammatory medication.** It's specifically designed to reduce inflammation in the nasal passages, which is a key component of many allergy symptoms.
+**Important Considerations:**
+* **Not a cure:** Flonase is not a cure for allergies. It helps manage symptoms, but it doesn't eliminate the underlying cause.
+* **Side effects:** Like all medications, Flonase can have side effects. These can include nasal dryness, irritation, and even rebound congestion if used for prolonged periods.
+* **Consult your doctor:** It's crucial to consult with your doctor before using Flonase or any other medication. They can assess your individual needs, determine if it's appropriate for you, and advise on the correct dosage and duration of use.
+Let me know if you have any other questions about Flonase or other allergy medications. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -9043,18 +10205,13 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So the singulair is an oral tablet not an inhaler?
-**Answer:**
-You are correct! Singulair (montelukast) is **an oral tablet**, not an inhaler. 
-Here's why:
-* **Montelukast** is a leukotriene receptor antagonist. It works by blocking the action of leukotrienes, which are chemicals that cause inflammation and allergy symptoms.
-* **Oral tablets** are taken by mouth, typically swallowed with water. 
-* **Inhalers** deliver medication directly to the lungs, often for respiratory conditions like asthma or COPD.
-**Important Considerations:**
-* **Always follow your doctor's instructions:**  The dosage and frequency of Singulair will be determined by your doctor based on your individual needs and medical history.
-* **Potential side effects:** Like all medications, Singulair can have side effects. It's important to discuss any concerns with your doctor.
-Let me know if you have any other questions about Singulair or any other medications. 
+          <t xml:space="preserve">
+You are correct! Singulair (montelukast) is **not** an inhaler. It is an **oral tablet** that is taken by mouth. 
+Here's why this is important:
+* **Mechanism of Action:** Singulair works by blocking the action of leukotrienes, which are chemicals that cause inflammation and contribute to asthma symptoms. It's not inhaled directly into the lungs.
+* **Administration:**  Singulair is taken orally, usually once a day, with or without food. 
+* **Inhalers:**  Inhalers are used for medications that are inhaled directly into the lungs, such as bronchodilators for asthma or corticosteroids for inflammation.
+**Important Note:**  It's always best to consult with a healthcare professional for any medical advice or questions about medications. They can provide personalized guidance based on your individual needs and medical history. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -9097,24 +10254,31 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: So what does the non reactive mean for the hep a igm antibody? 
-**Please provide a detailed explanation.**
-##  Hepatitis A Igm Antibody: Non-Reactive
-Hepatitis A immunoglobulin M (IgM) antibody test is a crucial diagnostic tool for detecting recent or past infection with the Hepatitis A virus (HAV).  A non-reactive result indicates that the individual has not been exposed to the virus recently or has not been infected with HAV. 
-Here's a detailed explanation:
+          <t xml:space="preserve">
+Let's break down what "non-reactive" means for Hepatitis A IgM antibodies. 
 **Understanding Hepatitis A**
-Hepatitis A is a contagious liver infection caused by the Hepatitis A virus (HAV). It is primarily spread through the fecal-oral route, meaning it's transmitted through contaminated food or water, or contact with an infected person's feces.
-**Hepatitis A IgM Antibody Test**
-The IgM antibody test is a blood test that detects the presence of IgM antibodies specific to the Hepatitis A virus. 
-* **IgM antibodies** are produced by the body's immune system in response to an infection. They are the first antibodies produced during an immune response.
-* **Hepatitis A IgM antibody test** is used to diagnose acute hepatitis A infection. 
-**Non-Reactive Result**
-A non-reactive result for the Hepatitis A IgM antibody test means that the individual</t>
+Hepatitis A is a viral infection that primarily affects the liver. It's usually spread through contaminated food or water, or close contact with an infected person. 
+**Hepatitis A IgM Antibodies**
+* **IgM:** This is a type of antibody produced by your immune system in response to a new infection. It's the first antibody your body makes to fight off a virus.
+* **Hepatitis A IgM:** This specific type of IgM antibody is produced when your body encounters the Hepatitis A virus. 
+**What "Non-Reactive" Means**
+"Non-reactive" means that your blood test for Hepatitis A IgM antibodies did not show any detectable levels of these antibodies.  
+**Possible Interpretations**
+Here's what it could mean:
+* **You've never been infected with Hepatitis A:**  If you've never been exposed to the virus, your body hasn't produced any IgM antibodies.
+* **You've recently been exposed to Hepatitis A:**  It's possible you were recently exposed to the virus, but your immune system hasn't yet produced enough IgM antibodies to be detected by the test. 
+* **The test was not sensitive enough:**  There's a chance the test you had may not have been able to detect the presence of Hepatitis A IgM antibodies. 
+**Important Considerations**
+* **Always consult a doctor:**  It's crucial to discuss any blood test results with your doctor. They can interpret the results in the context of your medical history and provide personalized advice.
+* **Further testing:**  Your doctor may recommend additional tests, such as a Hepatitis A IgG antibody test, to confirm the presence or absence of past or current infection.
+* **Vaccination:**  Hepatitis A vaccination is highly effective in preventing infection. If you haven't been vaccinated, talk to your doctor about getting the vaccine.
+**In Summary**
+"Non-reactive" for Hepatitis A IgM antibodies means your body hasn't produced detectable levels of these antibodies. This could be due to a lack of exposure to the virus, a recent exposure, or a limitation in the test's sensitivity. Always consult your doctor for a proper interpretation and guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -9150,25 +10314,30 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: The ambien - is this considered a controlled substance?
-**Answer:**
-Yes, Ambien (zolpidem) is considered a controlled substance. It falls under Schedule IV of the Controlled Substances Act. 
+          <t xml:space="preserve">
+You're asking about Ambien, which is the brand name for the drug Zolpidem.  Let's break down its classification and why it's important to understand.
+**Yes, Ambien (Zolpidem) is a controlled substance.** 
 Here's why:
-* **Schedule IV:** This schedule includes substances with a low potential for abuse and a low risk of dependence. However, it's important to note that even Schedule IV drugs can be misused and abused. 
-* **Potential for Abuse:** While Ambien is not as highly addictive as some other drugs, it can still be abused. People may misuse it for recreational purposes or to get high.
-* **Risk of Dependence:**  Like many other sleep medications, Ambien can lead to dependence if used for extended periods without medical supervision. 
-* **Prescription Requirements:**  Ambien is a prescription-only medication, meaning you need a doctor's order to obtain it. This helps ensure that it's used appropriately and safely.
+* **Schedule IV:**  In the United States, Zolpidem is classified as a Schedule IV controlled substance. This means it has a potential for abuse, but it's not as highly addictive as Schedule I substances (like heroin or LSD). 
+* **Prescription Only:**  Because of its potential for abuse and dependence, Zolpidem is only available by prescription from a licensed healthcare professional. 
+* **Risks and Side Effects:**  Like all medications, Zolpidem can have side effects and risks. These can include:
+    * **Drowsiness:**  This is the most common side effect, and it's why it's prescribed for sleep problems.
+    * **Cognitive Impairment:**  Zolpidem can impair memory and concentration, especially when taken in high doses or for extended periods.
+    * **Addiction and Dependence:**  While not as addictive as some other drugs, Zolpidem can lead to dependence and withdrawal symptoms if misused.
+    * **Interactions:**  Zolpidem can interact with other medications, so it's crucial to inform your doctor about all the medications you're taking.
 **Important Considerations:**
-* **Always consult with a doctor:**  If you're experiencing sleep problems, it's crucial to talk to your doctor. They can help determine the underlying cause of your sleep difficulties and recommend the most appropriate treatment.
-* **Follow your doctor's instructions:**  If your doctor prescribes Amb</t>
+* **Use Only as Directed:**  Always take Zolpidem exactly as prescribed by your doctor. Never exceed the recommended dosage.
+* **Don't Mix with Alcohol:**  Mixing Zolpidem with alcohol can increase the risk of drowsiness, impaired coordination, and other side effects.
+* **Talk to Your Doctor:**  If you experience any side effects or have concerns about your use of Zolpidem, talk to your doctor. They can adjust your dosage or recommend alternative treatments.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H154" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -9207,25 +10376,29 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: The reason I contacted you via the app today is to verify if dry mouth is a per-diabetic symptom?
-**Answer:**
-You're right to be curious about dry mouth, as it's a common issue for people with diabetes.  Let's break down why it's a concern and what you can do about it.
-**What is Dry Mouth (Xerostomia)?**
-Dry mouth, also known as xerostomia, is a condition where your mouth doesn't produce enough saliva. Saliva is essential for:
-* **Digestion:** It helps break down food and move it along your digestive tract.
-* **Oral Health:** It washes away food particles and bacteria, preventing cavities and gum disease.
-* **Taste:** Saliva helps you taste food properly.
-* **Speech:** It keeps your mouth moist and lubricated, making it easier to speak.
-**Why is Dry Mouth Common in Diabetes?**
-Diabetes affects your body's ability to regulate blood sugar. This can lead to several complications, including:
-* **Increased thirst:**  High blood sugar levels can cause your body to produce more urine, leading to increased thirst.
-* **Reduced saliva production:**  High blood sugar can damage nerves that control saliva production, leading to dry mouth.
-* **Changes in taste:**  High blood sugar can</t>
+          <t xml:space="preserve">
+It's great you're being proactive about your health!  Let's talk about dry mouth and diabetes. 
+**Yes, dry mouth (also known as xerostomia) is a common and often early symptom of diabetes.** 
+Here's why:
+* **Diabetes and Blood Sugar:**  Diabetes is a condition where your body either doesn't produce enough insulin (Type 1) or can't effectively use the insulin it produces (Type 2). Insulin is crucial for regulating blood sugar levels. When blood sugar levels are high, it can lead to a variety of complications, including nerve damage, which can affect the salivary glands.
+* **Nerve Damage:**  High blood sugar can damage the nerves that control saliva production. This damage is called diabetic neuropathy. 
+* **Reduced Saliva Production:**  As a result of nerve damage, your salivary glands may produce less saliva, leading to dry mouth.
+* **Other Contributing Factors:**  Dry mouth can also be caused by medications, certain medical conditions, and even dehydration.
+**Important Considerations:**
+* **Not Always the First Sign:** While dry mouth is a common symptom, it's not always the first sign of diabetes. Other symptoms include frequent urination, excessive thirst, unexplained weight loss, increased hunger, blurred vision, slow-healing sores, and fatigue.
+* **Early Detection is Key:** If you experience any of these symptoms, it's important to see your doctor for a diagnosis. Early detection and management of diabetes can significantly reduce the risk of complications.
+* **Treatment Options:**  Treatment for dry mouth in diabetes typically involves:
+    * **Saliva substitutes:** These can help to keep your mouth moist.
+    * **Artificial saliva:**  Over-the-counter products can help to stimulate saliva production.
+    * **Lifestyle changes:**  Staying hydrated, eating a healthy diet, and avoiding smoking can also help to reduce dry mouth.
+    * **Medications:**  In some cases, your doctor may prescribe medications to help manage your blood sugar levels and reduce nerve damage.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Please consult with your doctor for any health concerns or before making any decisions related to your health or treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -9266,20 +10439,27 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: The yeast infection is not transferable?
-**Answer:**
-That's a common misconception!  While yeast infections are often associated with vaginal discharge and discomfort, they are **indeed** **transmissible**. 
-Here's why:
-* **Yeast overgrowth:**  Yeast infections occur when an overgrowth of the fungus *Candida albicans* occurs in the vagina. This overgrowth can be triggered by various factors, including hormonal changes, antibiotics, and certain medical conditions.
-* **Transmission:**  The fungus *Candida albicans* is naturally present in the vagina of most people. However, when the balance of the vaginal flora is disrupted, the fungus can multiply rapidly. This can lead to an infection.
-* **Sexual contact:**  The most common way yeast infections are transmitted is through sexual contact. This is because the fungus can be transferred from one person to another through vaginal fluids, semen, or skin contact.
-* **Other factors:**  While sexual contact is the most common way to transmit yeast infections, other factors can also contribute to their spread, such as:
-    * Sharing towels or clothing
-    * Using douches or scented soaps
-    * Weakened immune system
-    * Diabetes
-**Important Note:**  It's crucial to remember that yeast infections</t>
+          <t xml:space="preserve">
+That's a great question!  Let's break down the truth about yeast infections and their transmission.
+**The short answer is: Yeast infections are not typically transferable in the way we think of contagious diseases like the flu.**
+**Here's why:**
+* **Yeast is a fungus:**  Yeast is a type of fungus that naturally lives on the skin and in the body. It's a part of a healthy ecosystem.
+* **Overgrowth, not infection:**  Yeast infections occur when there's an overgrowth of yeast (specifically *Candida albicans*) in a particular area. This overgrowth can be caused by various factors, including:
+    * **Hormonal changes:**  Pregnancy, menopause, and hormonal birth control can increase yeast growth.
+    * **Antibiotics:**  These can disrupt the balance of good and bad bacteria in the body, allowing yeast to flourish.
+    * **Diabetes:**  High blood sugar levels can also promote yeast overgrowth.
+    * **Weakened immune system:**  Conditions like HIV or certain medications can suppress the immune system, making you more susceptible to yeast infections.
+* **Not a contagious disease:**  Unlike viruses or bacteria, yeast infections are not spread through direct contact with an infected person. You can't catch a yeast infection from someone else.
+* **Transmission through contact:**  While yeast infections themselves aren't contagious, there are some situations where you might be more likely to experience an overgrowth:
+    * **Sharing intimate items:**  Sharing towels, underwear, or other intimate items with someone who has a yeast infection can increase your risk of overgrowth.
+    * **Skin-to-skin contact:**  While not directly contagious, prolonged skin-to-skin contact with someone who has a yeast infection can increase the risk of overgrowth.
+**Important Notes:**
+* **Symptoms:**  Yeast infections can cause itching, burning, redness, and a thick, white discharge.
+* **Treatment:**  Yeast infections are usually treated with antifungal medications.
+* **Prevention:**  Maintaining good hygiene, avoiding tight-fitting clothing, and managing underlying conditions like diabetes can help prevent yeast infections.
+**If you're concerned about a yeast infection, it's important to see a doctor for proper diagnosis and treatment.** 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -9322,27 +10502,32 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What about diflucan for a yeast infection?
-##  I'm a patient looking for information about Diflucan for yeast infections. 
-**Here's what I'm wondering:**
-* **What is Diflucan?**
-* **How does it work?**
-* **What are the side effects?**
-* **How long does it take to work?**
-* **What are the dosage instructions?**
-* **Is it safe for everyone?**
-* **What are the alternatives?**
-**I'm looking for information to help me make an informed decision about my treatment.**
-##  
-**Answer:**
-You're smart to be informed about your treatment!  Diflucan is a very effective medication for treating yeast infections. Here's a breakdown:
+          <t xml:space="preserve">
+Alright, let's talk about Diflucan (fluconazole) for yeast infections. 
 **What is Diflucan?**
-Diflucan (fluconazole) is an antifungal medication. It's a prescription drug, meaning you'll need a doctor's order to get it. 
-**How does it work?**
-Diflucan works by killing the fungus that causes yeast infections. It does this by interfering with the fungus's ability to grow and reproduce.
-**Side Effects:**
-Most people tolerate Diflucan well, but</t>
+Diflucan is an antifungal medication that's very effective at treating a variety of fungal infections, including yeast infections. It works by stopping the growth of the fungus that causes the infection.
+**Yeast Infections and Diflucan**
+Yeast infections are caused by an overgrowth of a type of fungus called Candida.  They are common, especially in women, and can occur in various parts of the body, including the vagina, mouth, and skin.
+**How Diflucan Works:**
+Diflucan is a broad-spectrum antifungal, meaning it can be effective against many different types of fungi. It works by inhibiting the growth of the fungus, preventing it from multiplying and causing further infection.
+**When to Use Diflucan:**
+Diflucan is typically prescribed for:
+* **Vaginal yeast infections:** This is the most common use of Diflucan. It's effective in treating symptoms like itching, burning, and discharge.
+* **Oral yeast infections:** These can occur in the mouth, tongue, and throat.
+* **Skin yeast infections:** These can appear as rashes, redness, and itching.
+**How to Use Diflucan:**
+Diflucan is available in oral tablet form. The dosage and duration of treatment will vary depending on the type of infection and the severity of symptoms. 
+* **Dosage:** Your doctor will determine the appropriate dosage for you. It's usually taken once or twice daily for a few days.
+* **Duration:** Treatment usually lasts for 1 to 2 weeks.
+**Important Considerations:**
+* **Consult a Doctor:** It's crucial to see a doctor for a proper diagnosis and treatment plan. Self-treating can be dangerous.
+* **Pregnancy and Breastfeeding:** Diflucan is generally safe for pregnant and breastfeeding women, but it's important to discuss the risks and benefits with your doctor.
+* **Drug Interactions:** Diflucan can interact with other medications. Be sure to inform your doctor about all the medications you're taking.
+* **Side Effects:**  Common side effects of Diflucan include nausea, headache, and diarrhea. These usually subside after a few days.
+* **Allergic Reactions:**  While rare, allergic reactions to Diflucan can occur. Seek immediate medical attention if you experience any signs of an allergic reaction, such as difficulty breathing, swelling of the face or throat, or hives.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -9386,21 +10571,31 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What can I do to help the ear pain?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-## Ear Pain: Causes and Potential Remedies
-Ear pain, also known as otalgia, can be caused by a variety of factors, ranging from minor irritations to serious medical conditions. 
-**Common Causes:**
-* **Ear infection:** This is one of the most common causes of ear pain, especially in children. It is caused by bacteria or viruses that infect the middle ear.
-* **Eustachian tube dysfunction:** This occurs when the Eustachian tube, which connects the middle ear to the back of the throat, becomes blocked or inflamed. This can cause pressure changes in the ear, leading to pain.
-* **Swimmer's ear:** This is an infection of the outer ear canal, often caused by water trapped in the ear.
-* **Foreign object in the ear:** This can cause pain, itching, and even hearing loss.
-* **Earwax buildup:** Excessive earwax can block the ear canal, leading</t>
+          <t xml:space="preserve">
+I understand you're dealing with ear pain, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  **It's crucial to consult a doctor for a proper diagnosis and treatment plan.** 
+That being said, I can offer some general information about ear pain and potential causes:
+**Possible Causes of Ear Pain:**
+* **Ear Infection (Otitis Media):** This is a common cause, especially in children. It's an inflammation of the middle ear, often due to a bacterial or viral infection.
+* **Earwax Buildup (Impacted Earwax):**  Excessive earwax can block the ear canal, causing pain and discomfort.
+* **Eustachian Tube Dysfunction:** This refers to problems with the Eustachian tube, which connects the middle ear to the back of the throat. It can cause pressure changes in the ear, leading to pain.
+* **Sinus Infection (Sinusitis):**  Inflammation of the sinuses can cause pressure and pain that can radiate to the ears.
+* **Trauma:**  A blow to the head or ear can cause pain and damage.
+* **Other Conditions:**  Less common causes include Meniere's disease, TMJ disorders, and certain medications.
+**What You Can Do (While Seeking Medical Advice):**
+* **Over-the-Counter Pain Relief:**  Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce pain and inflammation.
+* **Warm Compress:**  Applying a warm compress to the affected ear can help relieve pressure and pain.
+* **Elevate Your Head:**  Sleeping with your head elevated can help drain fluids from the ear.
+* **Avoid Irritants:**  Stay away from loud noises, smoke, and other irritants that can worsen ear pain.
+* **Stay Hydrated:**  Drinking plenty of fluids can help thin mucus and reduce congestion.
+**Important Notes:**
+* **Do not put anything in your ear canal.** This can push earwax further in or cause damage.
+* **If you have a fever, severe pain, hearing loss, or drainage from the ear, seek medical attention immediately.** These could be signs of a more serious condition.
+**Remember:** This information is for general knowledge only and should not be considered a substitute for professional medical advice. Please consult a doctor for a proper diagnosis and treatment plan. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -9439,10 +10634,37 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What causes genital warts?
-##  Please provide a summary of the cause, symptoms, and treatment options for genital warts.
-##  I understand that this is a sensitive topic, and I appreciate your expertise in this area. 
+          <t xml:space="preserve">
+Genital warts are caused by the **human papillomavirus (HPV)**. 
+Here's a breakdown of what you need to know:
+**What is HPV?**
+* HPV is a very common virus that can infect the skin and mucous membranes. 
+* There are over 100 types of HPV, with some being more common than others.
+* Most HPV infections are harmless and clear up on their own within a few years.
+* However, some types of HPV can cause genital warts and other health problems.
+**How do genital warts form?**
+* **Transmission:** Genital warts are spread through skin-to-skin contact with an infected person. This can happen during sexual activity, even without visible sores.
+* **Infection:** When someone with HPV touches their genitals, the virus can enter the body and infect the cells.
+* **Wart development:** The virus can cause changes in the cells of the genitals, leading to the development of warts.
+**Types of HPV and their connection to genital warts:**
+* **High-risk HPV types:** These types are associated with the development of genital warts and other cancers. The most common high-risk types are HPV 6 and 11.
+* **Low-risk HPV types:** These types are less likely to cause genital warts but can still be associated with other health problems.
+**Risk factors:**
+* **Sexual activity:** The more sexual partners you have, the higher your risk of contracting HPV.
+* **Multiple sexual partners:** Having multiple sexual partners increases the chances of exposure to HPV.
+* **Age:** HPV is most common in people between the ages of 15 and 25.
+* **Weakened immune system:** People with weakened immune systems are more susceptible to HPV infection.
+**Prevention:**
+* **Vaccination:** The HPV vaccine is highly effective in preventing infection with high-risk HPV types. It's recommended for both boys and girls.
+* **Safe sex practices:** Using condoms during sexual activity can reduce the risk of HPV transmission.
+* **Regular screenings:** Pap tests and HPV tests can help detect precancerous changes in the cervix and other areas.
+**Treatment:**
+* **Cryotherapy:** Freezing the warts with liquid nitrogen.
+* **Laser therapy:** Using a laser to destroy the warts.
+* **Surgical removal:** Removing the warts surgically.
+* **Topical medications:** Some medications can help to reduce the size and growth of warts.
+**Important note:**
+It's crucial to remember that HPV is a common virus, and most people who are infected will clear it up on their own. However, it's important to be aware of the risks and take steps to protect yourself. If you have any concerns about HPV or genital warts, it's important to talk to your doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -9488,25 +10710,39 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What causes people to have such severe anxiety is it a mind over matter thing or is it a physical thing? 
-**Answer:**
-It's a complex interplay of both mind and body, my dear.  Anxiety isn't simply a "mind over matter" issue. It's a multifaceted condition with biological, psychological, and social factors all playing a role. 
-Here's a breakdown:
-**Biological Factors:**
-* **Genetics:**  Anxiety disorders can run in families, suggesting a genetic predisposition.
-* **Brain Chemistry:** Imbalances in neurotransmitters like serotonin, norepinephrine, and dopamine can contribute to anxiety.
-* **Hormonal Changes:** Fluctuations in hormones, particularly during puberty, pregnancy, and menopause, can trigger anxiety.
-* **Medical Conditions:** Certain medical conditions, like thyroid disorders, heart disease, and chronic pain, can cause anxiety.
-**Psychological Factors:**
-* **Negative Thinking Patterns:**  Rumination, catastrophizing, and negative self-talk can fuel anxiety.
-* **Trauma and Stress:** Past experiences of trauma, abuse, or significant stress can leave lasting impacts on mental health.
-* **Personality Traits:**  Individuals with certain personality traits, like perfectionism or a tendency towards worry, may be more prone to anxiety.
-* **Learned</t>
+          <t xml:space="preserve">
+It's great you're asking about anxiety! It's a complex issue, and it's important to understand that it's not simply "mind over matter."  Here's a breakdown of what causes severe anxiety and how it works:
+**What Causes Severe Anxiety?**
+Anxiety is a natural human response to stress.  However, when it becomes severe and persistent, it can significantly impact your life.  Here are some key factors:
+* **Genetics:**  Some people are genetically predisposed to anxiety disorders. If you have a family history of anxiety, you may be more susceptible.
+* **Brain Chemistry:**  Imbalances in neurotransmitters like serotonin, dopamine, and norepinephrine can contribute to anxiety.
+* **Life Experiences:**  Traumatic events, stressful life changes, and chronic stress can trigger anxiety.
+* **Personality Traits:**  Certain personality traits, like perfectionism, low self-esteem, and a tendency to worry, can make people more prone to anxiety.
+* **Medical Conditions:**  Certain medical conditions, such as thyroid disorders, heart disease, and chronic pain, can cause anxiety.
+* **Substance Use:**  Alcohol and drug use can worsen anxiety symptoms.
+* **Environmental Factors:**  Exposure to stressful environments, such as crowded places or noisy environments, can trigger anxiety.
+**Is It "Mind Over Matter"?**
+While the mind plays a crucial role in managing anxiety, it's not the sole cause.  Here's how it works:
+* **Cognitive Factors:**  Negative thoughts, worries, and fears can fuel anxiety.  For example, constantly worrying about the future or dwelling on past mistakes can contribute to anxiety.
+* **Behavioral Factors:**  Avoidance behaviors, such as isolating yourself or avoiding situations that trigger anxiety, can reinforce the anxiety cycle.
+* **Physical Factors:**  Physical symptoms like rapid heartbeat, sweating, and shortness of breath can trigger anxiety, even if the person isn't consciously thinking about it.
+**The Importance of Professional Help**
+It's important to remember that severe anxiety is a medical condition that requires professional help.  A therapist can help you:
+* **Identify and challenge negative thought patterns.**
+* **Develop coping mechanisms for managing anxiety.**
+* **Learn relaxation techniques.**
+* **Address underlying medical conditions.**
+* **Explore medication options if necessary.**
+**Remember:**
+* Anxiety is a treatable condition.
+* You are not alone.
+* Seeking professional help is the best way to manage anxiety and improve your quality of life.
+If you are struggling with severe anxiety, please reach out to a mental health professional.  There are resources available to help you. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -9547,25 +10783,40 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What does a low pulse possibly indicate?
-**Please provide a comprehensive answer, including:**
-* **General Overview:** What is a pulse, and why is it important?
-* **Causes of a Low Pulse:**  Discuss the various factors that can lead to a low pulse rate.
-* **Medical Conditions:**  Explore the potential medical conditions associated with a low pulse.
-* **When to Seek Medical Attention:**  Highlight the situations where you should consult a doctor immediately.
-* **Lifestyle Factors:**  Explain how lifestyle choices can influence your pulse rate.
-Let's delve into the world of heartbeats and understand what a low pulse might mean.
-## What is a Pulse and Why is it Important?
-A pulse is the rhythmic throbbing of your arteries as your heart beats. It's a direct reflection of your heart's activity.  
-**Why is it important?**
-* **Heart Rate Indicator:**  The pulse rate is a vital indicator of your heart's health and overall well-being. It helps us understand how efficiently your heart is pumping blood.
-* **Early Warning System:**  A change in your pulse rate can sometimes signal underlying health issues. 
-* **Vital Sign:**  Your pulse is one of the key vital signs, along with your</t>
+          <t xml:space="preserve">
+Ah, a fascinating question!  Let's delve into the world of pulse rates and what they can tell us. 
+**Understanding the Basics**
+A pulse is the rhythmic throbbing of your blood vessels as your heart beats. It's a vital indicator of your heart's activity.  A low pulse, meaning a slower heart rate, can be a sign of various things. 
+**Possible Causes of a Low Pulse**
+Here are some of the most common reasons why you might have a low pulse:
+* **Bradycardia:** This is the medical term for a slow heart rate. It can be caused by:
+    * **Heart conditions:**  Conditions like heart block, heart failure, or certain types of arrhythmias can slow down the heart's rhythm.
+    * **Medications:** Some medications, like beta-blockers, can slow down your heart rate.
+    * **Sleep:**  Your heart rate naturally slows down during sleep.
+    * **Hypothyroidism:** An underactive thyroid can lead to a slower heart rate.
+    * **Dehydration:**  When you're dehydrated, your body can work harder to circulate blood, leading to a slower heart rate.
+    * **Low blood pressure:**  Low blood pressure can also cause a slower heart rate.
+* **Hypothermia:**  A dangerously low body temperature can slow down your heart rate.
+* **Anxiety and Stress:**  While not a direct cause, stress can temporarily slow down your heart rate.
+* **Medications:**  Certain medications, like antidepressants or antihistamines, can have a side effect of slowing down your heart rate.
+* **Pregnancy:**  A pregnant woman's heart rate naturally slows down.
+* **Age:**  As we age, our heart rate tends to slow down.
+**When to Worry**
+While a low pulse can be normal in some situations, it's important to be aware of when it might be a cause for concern.  
+**Seek Medical Attention If:**
+* **You experience dizziness or lightheadedness.**
+* **You feel faint or weak.**
+* **You have chest pain or shortness of breath.**
+* **You have a history of heart problems.**
+* **You have a sudden change in your pulse rate.**
+* **You have any other concerning symptoms.**
+**Important Note:** I am an AI and cannot provide medical advice.  The information above is for general knowledge and should not be considered a substitute for professional medical advice.  If you have concerns about your pulse or any other health issue, please consult a doctor. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -9602,22 +10853,40 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What does proton pump inhibitor do ?
-##  What does a proton pump inhibitor (PPI) do?
-**Proton pump inhibitors (PPIs)** are a class of medications that block the production of stomach acid. They are used to treat a variety of conditions, including:
-* **Gastroesophageal reflux disease (GERD):**  PPIs help to reduce the amount of acid in the esophagus, relieving heartburn and other symptoms.
-* **Peptic ulcers:** PPIs can heal ulcers by reducing the amount of acid that damages the lining of the stomach and duodenum.
-* **Zollinger-Ellison syndrome:** PPIs are used to manage the high acid levels associated with this rare condition.
-* **Other conditions:** PPIs may also be used to treat conditions such as dyspepsia, gastroesophageal reflux disease (GERD), and Zollinger-Ellison syndrome.
-**How PPIs work:**
-PPIs work by blocking the H+/K+-ATPase enzyme, which is responsible for pumping hydrogen ions (H+) into the stomach. This enzyme is found in the parietal cells of the stomach lining. By blocking this enzyme, PPIs prevent the production of stomach acid.
+          <t xml:space="preserve">
+Ah, a question about proton pump inhibitors (PPIs)!  You've come to the right place.  
+**What are Proton Pump Inhibitors (PPIs)?**
+PPIs are a class of medications that work by blocking the production of stomach acid.  Think of them as the "acid suppressants" of the medical world. 
+**How do they work?**
+* **The Acid Factory:**  Your stomach produces acid to help digest food. This acid is made by a special part of your stomach lining called the parietal cells. 
+* **The Blockade:**  PPIs work by blocking the H+/K+-ATPase enzyme, which is responsible for pumping hydrogen ions (H+) into the stomach.  This enzyme is the "pump" that creates the acid. By blocking it, PPIs effectively reduce the amount of acid produced.
+**What conditions do they treat?**
+PPIs are commonly prescribed for a variety of conditions, including:
+* **Gastroesophageal Reflux Disease (GERD):**  This is a condition where stomach acid flows back up into the esophagus, causing heartburn, regurgitation, and other symptoms.
+* **Peptic Ulcers:**  These are sores that develop in the lining of the stomach or duodenum (the first part of the small intestine).
+* **Zollinger-Ellison Syndrome:**  This rare condition causes the stomach to produce excessive amounts of acid.
+* **Helicobacter pylori Infection:**  This bacteria can cause ulcers and other stomach problems. PPIs are often used in combination with antibiotics to treat this infection.
 **Benefits of PPIs:**
-* **Reduce acid production:** PPIs effectively</t>
+* **Effective Acid Reduction:** PPIs are highly effective at reducing stomach acid production.
+* **Symptom Relief:** They can provide significant relief from heartburn, indigestion, and other symptoms associated with acid reflux.
+* **Improved Quality of Life:**  By reducing acid reflux, PPIs can improve the quality of life for many people.
+**Potential Side Effects:**
+While generally safe, PPIs can have some side effects, including:
+* **Vitamin B12 Deficiency:**  Long-term use can interfere with the absorption of vitamin B12.
+* **Bone Loss:**  PPIs can increase the risk of bone fractures.
+* **C. difficile Infection:**  PPIs can increase the risk of developing C. difficile infection, a serious bacterial infection.
+* **Headaches:**  Some people experience headaches when taking PPIs.
+**Important Considerations:**
+* **Short-Term vs. Long-Term Use:**  PPIs are often prescribed for short-term use to treat acute symptoms. However, long-term use should be carefully considered and monitored by a doctor.
+* **Individualized Treatment:**  The best type and dosage of PPI for you will depend on your individual needs and medical history.
+* **Drug Interactions:**  PPIs can interact with other medications, so it's important to tell your doctor about all the medications you are taking.
+**Remember:**  I am an AI and cannot provide medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -9658,24 +10927,29 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What exactly is cervical radiculopathy?
-##  What is cervical radiculopathy?
-Cervical radiculopathy, also known as cervical radiculopathy, is a condition that occurs when a nerve root in the neck is compressed or irritated. This compression or irritation can be caused by a variety of factors, including:
-* **Herniated disc:** A herniated disc is a disc that has bulged out of its normal space, putting pressure on a nerve root.
-* **Spinal stenosis:** Spinal stenosis is a narrowing of the spinal canal, which can put pressure on a nerve root.
-* **Bone spurs:** Bone spurs are bony growths that can form on the vertebrae, putting pressure on a nerve root.
-* **Tumors:** Tumors can also put pressure on a nerve root.
-* **Trauma:** Trauma to the neck, such as a whiplash injury, can cause nerve root compression.
-**Symptoms of cervical radiculopathy:**
-The symptoms of cervical radiculopathy can vary depending on the location of the nerve root compression. However, some common symptoms include:
-* **Pain:** Pain is often described as a sharp, shooting, or burning sensation.
-* **Numbness:** Numbness can occur in the arm, hand, or fingers.
-*</t>
+          <t xml:space="preserve">
+Ah, cervical radiculopathy. A common and often troublesome condition. Let me explain it to you in a way that's easy to understand.
+**Imagine your spinal cord as a long, delicate cable running down your back.**  It's responsible for sending messages from your brain to your arms and legs.  
+**Now, picture tiny branches extending from this cable, called nerves.** These nerves branch out to your arms and hands, and they also run down your neck and into your shoulders.  
+**Cervical radiculopathy occurs when one of these branches, the nerve root, gets compressed or irritated.** This can happen due to a variety of reasons, including:
+* **Herniated disc:** A common culprit, a herniated disc is a disc in your spine that bulges out, pressing on a nerve root.
+* **Spinal stenosis:** This is a narrowing of the spinal canal, which can put pressure on the nerve roots.
+* **Tumors:**  Rarely, a tumor in the spine can press on a nerve root.
+* **Arthritis:**  Inflammation in the joints of the spine can also put pressure on the nerves.
+**The result?**  Pain, numbness, tingling, and weakness in the arm or hand.  The pain can be sharp, burning, or aching, and it can radiate down the arm.  The numbness and tingling can make it difficult to grip objects or perform fine motor tasks.  
+**Where does the pain come from?**  The compressed nerve root sends signals to the brain, which interprets them as pain.  The location of the pain depends on which nerve root is affected.
+**What can you do about it?**  Treatment depends on the cause and severity of the condition.  It may include:
+* **Conservative measures:**  Rest, ice, heat, over-the-counter pain relievers, and physical therapy.
+* **Medications:**  Anti-inflammatory drugs, muscle relaxants, and nerve pain medications.
+* **Injections:**  Steroid injections can help reduce inflammation and pain.
+* **Surgery:**  In rare cases, surgery may be necessary to relieve pressure on the nerve root.
+**Remember:**  Cervical radiculopathy is a serious condition, but it is often treatable.  If you are experiencing any of the symptoms described above, it is important to see a doctor for diagnosis and treatment.
+**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -9715,31 +10989,42 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is Valtrex?
-## Valtrex is a medication used to treat herpes infections. 
-**Here's a breakdown of what you need to know about Valtrex:**
-* **What it is:** Valtrex is the brand name for the antiviral drug valacyclovir.
-* **How it works:** Valacyclovir works by interfering with the herpes virus's ability to replicate.
-* **Uses:** Valtrex is used to treat:
-    * **Herpes simplex virus (HSV) infections:** This includes cold sores, genital herpes, and oral herpes.
-    * **Varicella-zoster virus (VZV) infections:** This includes chickenpox and shingles.
-* **Dosage:** The dosage of Valtrex varies depending on the condition being treated and the individual patient's needs. It is important to follow your doctor's instructions carefully.
-* **Side effects:** Valtrex is generally well-tolerated, but some people may experience side effects such as:
-    * Nausea
-    * Vomiting
-    * Diarrhea
-    * Headache
-    * Dizziness
-* **Interactions:** Valtrex can interact with other medications. It is important to tell your doctor about all the medications you are taking before starting Valtrex.
-* **Precautions</t>
+          <t xml:space="preserve">
+Valtrex, the brand name for the medication valacyclovir, is a prescription antiviral medication used to treat certain viral infections. 
+Here's a breakdown of what you need to know about Valtrex:
+**What it treats:**
+* **Herpes Simplex Virus (HSV):** Valtrex is primarily used to treat outbreaks of genital herpes, oral herpes (cold sores), and shingles. It can also be used to prevent outbreaks in people with a history of recurrent herpes.
+* **Varicella-Zoster Virus (VZV):** Valtrex can be used to treat shingles (caused by VZV) and chickenpox (caused by the same virus). 
+**How it works:**
+Valacyclovir is a prodrug, meaning it's converted into its active form (acyclovir) in the body. Acyclovir works by interfering with the replication of the herpes simplex virus and varicella-zoster virus. It prevents the viruses from multiplying and spreading.
+**Dosage and Administration:**
+* **Herpes Simplex Virus (HSV):** The dosage of Valtrex for treating HSV varies depending on the type of infection and the severity of symptoms. It's typically taken orally, usually 500 mg twice daily for 7-10 days.
+* **Shingles (VZV):** The dosage of Valtrex for shingles is usually 1 gram once daily for 7-10 days.
+* **Chickenpox (VZV):** Valtrex is typically used for prevention of chickenpox in people with a history of recurrent chickenpox. The dosage is usually 500 mg twice daily for 7-10 days.
+**Side Effects:**
+Valtrex is generally well-tolerated, but some people may experience side effects. Common side effects include:
+* Nausea
+* Vomiting
+* Diarrhea
+* Headache
+* Dizziness
+* Fatigue
+**Important Considerations:**
+* **Pregnancy and Breastfeeding:** Valtrex is not recommended for use during pregnancy or breastfeeding without consulting a doctor.
+* **Drug Interactions:** Valtrex can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
+* **Allergic Reactions:** Some people may be allergic to Valtrex. If you experience any allergic reactions, seek medical attention immediately.
+**When to See a Doctor:**
+* If you experience any unusual symptoms, such as fever, rash, or severe pain, consult your doctor immediately.
+* If you have any concerns about your treatment, talk to your doctor.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H164" t="n">
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -9775,20 +11060,26 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is a neurological issue?
-**Answer:**
-A neurological issue, also known as a neurological disorder, is a broad term encompassing a wide range of conditions that affect the nervous system. 
-**Here's a breakdown:**
-* **The Nervous System:** This intricate network comprises the brain, spinal cord, and nerves that transmit signals throughout the body. It's responsible for everything from thought and movement to sensation and emotion.
-* **What it Affects:** Neurological issues can impact various components of the nervous system, including:
-    * **Brain:**  Conditions like stroke, traumatic brain injury, Alzheimer's disease, and epilepsy.
-    * **Spinal Cord:**  Conditions like spinal cord injuries, multiple sclerosis, and amyotrophic lateral sclerosis (ALS).
-    * **Nerves:**  Conditions like peripheral neuropathy, carpal tunnel syndrome, and Guillain-Barré syndrome.
-* **Symptoms:** Neurological issues can manifest in diverse ways, depending on the specific condition. Common symptoms include:
-    * **Sensory:** Numbness, tingling, pain, vision problems, hearing loss.
-    * **Motor:** Weakness, paralysis, tremors, difficulty walking, coordination problems.
-    * **Cognitive:** Memory loss, confusion, difficulty concentrating, personality changes.</t>
+          <t xml:space="preserve">
+Ah, a question that touches upon the very essence of the human body! Let me explain, in a way a wise doctor would.
+**A neurological issue, in its simplest form, is any problem affecting the nervous system.**  This intricate network, responsible for everything from your thoughts and movements to your senses and emotions, can be disrupted by a variety of factors. 
+**Think of it like this:** The nervous system is like a vast highway system, with the brain as the central hub and nerves acting as the roads connecting everything.  When something goes wrong with this system, it can cause a range of problems.
+**Here's a breakdown of the key players in the nervous system and how they can be affected:**
+* **Brain:** The command center, responsible for thought, memory, movement, and much more.  Damage to the brain can lead to cognitive impairments, paralysis, or even death.
+* **Spinal Cord:** The highway connecting the brain to the rest of the body.  Injury or disease here can lead to paralysis, loss of sensation, or even difficulty breathing.
+* **Nerves:** The messengers that carry signals throughout the body.  Damage to nerves can cause weakness, numbness, tingling, or even paralysis.
+* **Sensory Organs:**  Eyes, ears, nose, tongue, skin.  These organs are responsible for receiving information from the environment.  Damage to these organs can lead to vision or hearing loss, taste changes, or even loss of sensation.
+**Now, let's delve into some common neurological issues:**
+* **Stroke:**  A sudden interruption of blood flow to the brain, causing damage.
+* **Multiple Sclerosis:**  An autoimmune disease where the body's immune system attacks the protective covering of nerves, leading to a range of symptoms.
+* **Parkinson's Disease:**  A progressive neurodegenerative disorder that affects movement, causing tremors, stiffness, and slowness.
+* **Alzheimer's Disease:**  A progressive neurodegenerative disorder that affects memory, thinking, and behavior.
+* **Epilepsy:**  A neurological disorder characterized by recurrent seizures.
+* **Headaches:**  Can be caused by a variety of factors, including stress, tension, and even neurological issues.
+**It's important to remember that neurological issues can be complex and varied.**  The symptoms, causes, and treatments can vary widely depending on the specific condition. 
+**If you are experiencing any neurological symptoms, it is crucial to seek medical attention immediately.**  A doctor can help diagnose the issue and recommend the appropriate treatment.
+Let me know if you have any further questions.  Remember, knowledge is power, and understanding your body is the first step towards good health. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -9833,26 +11124,32 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is an example of a topical steroid?
-**Answer:**
-Topical steroids are a class of medications that are applied directly to the skin to treat various inflammatory conditions. They work by reducing inflammation and suppressing the immune response. 
-Here are some examples of topical steroids:
-* **Hydrocortisone cream:** This is a common over-the-counter (OTC) topical steroid used to treat mild to moderate skin conditions like eczema, insect bites, and rashes.
-* **Mometasone furoate cream:** This is a prescription-strength topical steroid used to treat severe eczema, psoriasis, and other inflammatory skin conditions.
-* **Fluticasone propionate cream:** This is another prescription-strength topical steroid used to treat severe eczema, psoriasis, and other inflammatory skin conditions.
-* **Clobetasol propionate cream:** This is a potent topical steroid used to treat severe skin conditions like eczema, psoriasis, and severe allergic reactions.
+          <t xml:space="preserve">
+Ah, a question about topical steroids!  A very common one, indeed. 
+Let me explain. Topical steroids are a class of medications that are applied directly to the skin. They work by reducing inflammation and itching.  
+Here's a breakdown of some common examples:
+**Common Topical Steroid Names:**
+* **Hydrocortisone:** This is the most common and often the first-line treatment for mild to moderate skin conditions. You'll find it in creams, ointments, and lotions.
+* **Fluticasone:**  This is often used for conditions like eczema and psoriasis. It's available in creams, ointments, and sprays.
+* **Mometasone:**  Another common choice for eczema and other inflammatory skin conditions. It's available in creams, ointments, and lotions.
+* **Dexamethasone:** This is a potent steroid used for severe inflammation and allergic reactions. It's typically available in stronger formulations.
+**How They Work:**
+Topical steroids work by suppressing the immune system's response to inflammation. They do this by blocking the production of certain chemicals that cause inflammation. This helps to reduce redness, swelling, itching, and pain.
 **Important Considerations:**
-* **Prescription vs. OTC:** Some topical steroids are available over-the-counter (OTC), while others require a prescription from a healthcare professional.
-* **Side Effects:** Topical steroids can have side effects, including skin thinning, acne, and increased risk of infections.
-* **Long-Term Use:** Long-</t>
+* **Prescription vs. Over-the-Counter:**  While some topical steroids are available over-the-counter, others require a prescription from a doctor. This is because stronger steroids can have more side effects.
+* **Side Effects:**  While generally safe, topical steroids can have side effects like skin thinning, acne, and stretch marks. 
+* **Long-Term Use:**  It's important to use topical steroids as directed by your doctor and not use them for longer than recommended. 
+* **Underlying Conditions:**  Some people may have underlying medical conditions that make topical steroids unsuitable for them. 
+**Remember:** I am not a medical professional. This information is for general knowledge only. Always consult with your doctor or a qualified healthcare provider for any medical concerns or before starting any new treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -9890,24 +11187,33 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is augmentin?
-##  Please provide a comprehensive answer, including:
-* **Definition:** What is augmentin?
-* **Mechanism of action:** How does it work?
-* **Uses:** What conditions does it treat?
-* **Administration:** How is it taken?
-* **Side effects:** What are the potential side effects?
-* **Interactions:** What other medications can interact with it?
-* **Precautions:** What precautions should be taken?
-* **Storage:** How should it be stored?
-##  I look forward to your detailed response. 
-Let me know if you need any further information from me. 
+          <t xml:space="preserve">
+Ah, a question about Augmentin! A common one, indeed. Let me enlighten you. 
+Augmentin is a brand name for a combination antibiotic medication. It's a powerful tool in the fight against bacterial infections, but it's crucial to understand its purpose and how to use it safely.
+**What is Augmentin made of?**
+Augmentin is a combination of two antibiotics:
+* **Amoxicillin:** This is a penicillin-type antibiotic that works by stopping bacteria from building their cell walls, leading to their destruction.
+* **Clavulanate:** This is a beta-lactamase inhibitor. Beta-lactamases are enzymes produced by some bacteria that can break down penicillin-type antibiotics like amoxicillin. Clavulanate prevents these enzymes from working, allowing amoxicillin to remain effective.
+**What does Augmentin treat?**
+Augmentin is effective against a wide range of bacterial infections, including:
+* **Respiratory tract infections:**  Like pneumonia, bronchitis, and sinusitis.
+* **Ear infections:**  Otitis media.
+* **Skin infections:**  Cellulitis, impetigo.
+* **Urinary tract infections:**  Cystitis, pyelonephritis.
+* **Sexually transmitted infections:**  Chlamydia and gonorrhea (in some cases).
+**Important Considerations:**
+* **Antibiotic Resistance:**  It's crucial to use Augmentin only when prescribed by a doctor. Overuse or misuse of antibiotics can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
+* **Side Effects:**  Like all medications, Augmentin can cause side effects. Common ones include nausea, vomiting, diarrhea, and rash. More serious side effects are possible, so it's important to report any unusual symptoms to your doctor.
+* **Interactions:**  Augmentin can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
+* **Pregnancy and Breastfeeding:**  Augmentin is generally safe for pregnant and breastfeeding women, but it's important to discuss the risks and benefits with your doctor.
+**Remember:**
+Augmentin is a powerful tool, but it's not a cure-all. It's essential to follow your doctor's instructions carefully and complete the full course of treatment, even if you start feeling better before finishing. 
+**Disclaimer:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -9948,23 +11254,40 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is blepharitis?
-**Answer:**
-Blepharitis is a common eye condition that affects the eyelids. It's characterized by inflammation of the eyelids, which can cause a variety of symptoms, including:
-**Causes:**
-* **Meibomian gland dysfunction (MGD):** This is the most common cause of blepharitis. MGD occurs when the oil glands in the eyelids (meibomian glands) don't produce enough oil, leading to dry, irritated eyes.
-* **Bacteria:**  Bacteria can also contribute to blepharitis, particularly *Staphylococcus aureus* and *Propionibacterium acnes*.
-* **Demodex mites:** These microscopic mites live on everyone's skin, including the eyelids. In some people, Demodex mites can overpopulate and cause inflammation.
-* **Allergies:** Allergic reactions to environmental irritants, such as dust, pollen, or pet dander, can trigger blepharitis.
-* **Other factors:**  Certain medications, hormonal changes, and underlying medical conditions can also contribute to blepharitis.
-**Symptoms:**
-* **Redness:** The eyelids may appear red and inflamed.
-* **Itching:**  The eyelids can be itchy</t>
+          <t xml:space="preserve">
+Ah, blepharitis. A common condition that can be quite bothersome. Let me explain.
+**Blepharitis, in essence, is inflammation of the eyelids.**  It's not a single disease, but rather a group of conditions that affect the eyelids and the glands that produce oil. 
+**Here's a breakdown:**
+* **Causes:**  Blepharitis can be caused by a variety of factors, including:
+    * **Bacteria:**  The most common cause is a bacterial infection, often Staphylococcal bacteria.
+    * **Demodex mites:** These microscopic mites live on everyone's skin, but in blepharitis, their population can become excessive, leading to inflammation.
+    * **Dry eye:**  This can irritate the eyelids and contribute to blepharitis.
+    * **Allergies:**  Allergic reactions can also trigger inflammation in the eyelids.
+    * **Other factors:**  Certain medications, skin conditions, and even stress can play a role.
+* **Symptoms:**  The symptoms of blepharitis can vary, but common ones include:
+    * **Redness:**  The eyelids may appear red and inflamed.
+    * **Itching:**  The eyelids can be itchy, especially in the morning.
+    * **Crusting:**  A crusty film may form on the eyelashes, especially in the morning.
+    * **Burning:**  The eyelids may feel burning or stinging.
+    * **Discharge:**  There may be a discharge from the eyes, which can be watery or thick.
+    * **Eye irritation:**  The eyes may feel gritty or scratchy.
+* **Types:**  There are two main types of blepharitis:
+    * **Anterior blepharitis:**  This type affects the front part of the eyelid, where the eyelashes grow.
+    * **Posterior blepharitis:**  This type affects the back part of the eyelid, where the oil glands are located.
+* **Diagnosis:**  Your doctor will likely ask about your symptoms and medical history. They may also perform a physical exam of your eyelids. 
+* **Treatment:**  Blepharitis is usually treated with a combination of:
+    * **Warm compresses:**  These can help to soften the crusts and reduce inflammation.
+    * **Lid scrubs:**  These are gentle cleansers that can help to remove bacteria and debris from the eyelids.
+    * **Antibiotics:**  In some cases, your doctor may prescribe antibiotics to treat a bacterial infection.
+    * **Artificial tears:**  These can help to lubricate the eyes and reduce dryness.
+    * **Eyelid hygiene:**  Keeping your eyelids clean and free of debris is important.
+**Important Note:**  While blepharitis is usually a mild condition, it can sometimes lead to more serious problems, such as corneal ulcers or vision loss. If you are experiencing any of the symptoms of blepharitis, it is important to see your doctor for a diagnosis and treatment plan. 
+Let me know if you have any other questions. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -10000,31 +11323,36 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is cefdinir?
-##  What is cefdinir?
-Cefdinir is a third-generation cephalosporin antibiotic. It is used to treat a variety of bacterial infections, including:
-* **Ear infections:** Otitis media (middle ear infection)
-* **Sinusitis:** Sinusitis (inflammation of the sinuses)
-* **Urinary tract infections:** Cystitis (bladder infection)
-* **Skin infections:** Cellulitis, impetigo
-* **Respiratory infections:** Pneumonia, bronchitis
-* **Other infections:**  Some cases of Lyme disease, traveler's diarrhea
-**How it works:**
-Cefdinir works by inhibiting the growth of bacteria. It does this by interfering with the bacteria's cell wall synthesis. This prevents the bacteria from growing and multiplying.
-**Administration:**
-Cefdinir is available in both oral and intravenous (IV) forms. It is typically taken by mouth, but can be administered intravenously in hospital settings.
-**Side effects:**
-Cefdinir is generally safe and well-tolerated. However, like all medications, it can cause side effects. Some common side effects include:
-* **Gastrointestinal upset:** Nausea, vomiting, diarrhea
-* **Allergic reactions:** Skin rash, itching, swelling</t>
+          <t xml:space="preserve">
+Ah, cefdinir. A fine example of a third-generation cephalosporin antibiotic. Let me tell you what I know about this potent medicine.
+**Cefdinir: A Powerful Weapon Against Bacterial Infections**
+Cefdinir is a broad-spectrum antibiotic, meaning it can fight a wide range of bacteria. It's particularly effective against:
+* **Gram-positive bacteria:**  These include bacteria like *Staphylococcus aureus* (MRSA), *Streptococcus pneumoniae*, and *Streptococcus pyogenes*.
+* **Gram-negative bacteria:**  This includes bacteria like *Escherichia coli*, *Klebsiella pneumoniae*, and *Haemophilus influenzae*.
+**How Does It Work?**
+Cefdinir works by interfering with the bacteria's ability to build their cell walls. This weakens the bacteria, causing them to burst and die. 
+**Uses:**
+Cefdinir is commonly prescribed for various bacterial infections, including:
+* **Upper respiratory tract infections:**  Like sinusitis, otitis media (ear infection), and bronchitis.
+* **Skin and soft tissue infections:**  Such as cellulitis, impetigo, and abscesses.
+* **Urinary tract infections:**  Including cystitis and pyelonephritis.
+* **Pneumonia:**  In certain cases.
+**Important Considerations:**
+* **Dosage and Duration:**  The dosage and duration of treatment will vary depending on the specific infection and the patient's age and health condition. 
+* **Side Effects:**  Like any medication, cefdinir can cause side effects. Common ones include diarrhea, nausea, and vomiting. More serious side effects are rare but can occur, such as allergic reactions.
+* **Antibiotic Resistance:**  It's crucial to complete the full course of antibiotics as prescribed, even if you start feeling better. This prevents the bacteria from developing resistance to the drug.
+* **Pregnancy and Breastfeeding:**  Cefdinir is generally considered safe during pregnancy and breastfeeding, but it's essential to discuss its use with your doctor.
+**Remember:**
+This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized guidance on using cefdinir or any other medication. 
+Let me know if you have any other questions about cefdinir or other medical topics. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H169" t="n">
         <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -10059,26 +11387,46 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is chlorhexidine?
-##  What is chlorhexidine?
-Chlorhexidine is a broad-spectrum antiseptic and disinfectant. It is a synthetic molecule with a complex structure. 
-**Mechanism of Action:**
-* **Disrupts cell membranes:** Chlorhexidine binds to the cell membrane of bacteria, fungi, and viruses, disrupting its integrity and leading to cell death.
-* **Interferes with protein synthesis:** It also interferes with the synthesis of essential proteins in these microorganisms, further hindering their growth and survival.
-* **Inhibits DNA replication:** Chlorhexidine can also inhibit the replication of DNA, preventing the microorganisms from multiplying.
-**Uses:**
-* **Oral hygiene:** Chlorhexidine is commonly used in mouthwashes and toothpastes for its antimicrobial properties.
-* **Wound care:** It is effective in treating wounds and preventing infections.
-* **Skin care:** Chlorhexidine is used in skin cleansers and antiseptics for its ability to kill bacteria and fungi.
-* **Medical devices:** It is also used to disinfect medical devices and instruments.
-**Advantages:**
-* **Broad-spectrum activity:** Chlorhexidine is effective against a wide range of microorganisms, including bacteria, fungi, and viruses.
-* **Long-lasting action</t>
+          <t xml:space="preserve">
+Ah, chlorhexidine. A fascinating molecule with a wide range of applications in medicine. 
+Let's break down what you need to know about this potent antiseptic:
+**What is Chlorhexidine?**
+Chlorhexidine is a broad-spectrum antiseptic, meaning it effectively kills a wide variety of bacteria, fungi, and viruses. It's a member of the big family of "biguanides," which are known for their antimicrobial properties. 
+**How Does it Work?**
+Chlorhexidine works by disrupting the cell membranes of microorganisms, leading to their death. It does this through:
+* **Disruption of cell membrane integrity:**  Chlorhexidine molecules bind to the cell membrane, causing it to become leaky and ultimately leading to cell death.
+* **Interference with protein synthesis:**  Chlorhexidine can also interfere with the production of essential proteins needed for bacterial survival.
+**Forms and Uses:**
+Chlorhexidine is available in various forms, including:
+* **Liquid solutions:**  These are commonly used for wound cleaning, oral rinses, and skin disinfection.
+* **Creams and ointments:**  These are used for topical applications, particularly for skin infections.
+* **Oral rinses:**  These are popular for their ability to reduce plaque and gingivitis.
+* **Dental products:**  Chlorhexidine is a key ingredient in many toothpastes and mouthwashes.
+**Benefits:**
+* **Broad-spectrum antimicrobial activity:**  Effective against a wide range of bacteria, fungi, and viruses.
+* **Long-lasting action:**  Chlorhexidine can remain active on surfaces for extended periods.
+* **Low toxicity:**  Generally considered safe for topical use when used as directed.
+* **Effective in wound healing:**  It can help prevent infection and promote wound closure.
+* **Oral hygiene:**  It helps control plaque and gingivitis, reducing the risk of tooth decay and gum disease.
+**Potential Side Effects:**
+While generally safe, chlorhexidine can cause some side effects, including:
+* **Skin irritation:**  This is more common with prolonged or high-concentration use.
+* **Allergic reactions:**  Some individuals may experience allergic reactions, such as redness, itching, or swelling.
+* **Taste changes:**  Chlorhexidine can have a bitter taste, which may be unpleasant for some.
+* **Drug interactions:**  Chlorhexidine can interact with certain medications, so it's important to inform your doctor about all medications you are taking.
+**Important Considerations:**
+* **Always follow the instructions on the product label.**
+* **Do not use chlorhexidine on broken or irritated skin.**
+* **Avoid contact with eyes and mucous membranes.**
+* **Consult your doctor if you experience any side effects.**
+**In Conclusion:**
+Chlorhexidine is a powerful antiseptic with a wide range of applications in medicine. It is effective against a broad spectrum of microorganisms and can be used for wound care, oral hygiene, and skin disinfection. However, it's important to use it as directed and be aware of potential side effects. 
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -10121,25 +11469,39 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is sciatica?
-**Answer:**
-Sciatica is a common condition that causes pain, numbness, or tingling in the leg and foot. It's caused by irritation or compression of the sciatic nerve, which is the longest and thickest nerve in the body. 
-Here's a breakdown of what you need to know about sciatica:
-**Causes:**
-* **Herniated disc:** The most common cause, where the soft, jelly-like center of an intervertebral disc pushes through the tough outer layer, pressing on the sciatic nerve.
-* **Spinal stenosis:** Narrowing of the spinal canal, which can compress the nerve.
-* **Bone spurs:** Abnormal growths on the vertebrae that can put pressure on the nerve.
-* **Piriformis syndrome:** Tightness or inflammation of the piriformis muscle, which can put pressure on the sciatic nerve.
-* **Other conditions:** Less common causes include infections, tumors, and trauma.
+          <t xml:space="preserve">
+Ah, sciatica. A common ailment that causes a great deal of discomfort. Let me explain what it is and how it manifests.
+**What is Sciatica?**
+Sciatica is a term used to describe pain that radiates along the path of the sciatic nerve.  The sciatic nerve is the longest and thickest nerve in the body, originating in your lower back and extending down each leg. 
+**The Culprit: Compression**
+The pain you experience with sciatica is caused by **compression or irritation of the sciatic nerve**. This can happen due to a number of factors:
+* **Herniated Disc:**  A common culprit, a herniated disc occurs when the soft, jelly-like center of an intervertebral disc pushes through the tough outer layer. This can press on the sciatic nerve, causing pain.
+* **Spinal Stenosis:**  This condition involves narrowing of the spinal canal, which can compress the nerve roots, including the sciatic nerve.
+* **Spondylolisthesis:**  This refers to a vertebra slipping out of place, potentially putting pressure on the nerve.
+* **Piriformis Syndrome:**  The piriformis muscle, located deep in the buttock, can sometimes become tight or irritated, putting pressure on the sciatic nerve.
+* **Other Causes:**  Less common causes include tumors, infections, and even certain types of arthritis.
 **Symptoms:**
-* **Pain:** Typically starts in the lower back and radiates down the leg, often described as sharp, shooting, or burning.
-* **Numbness:** Tingling or pins and needles sensation in the leg, foot, or toes.
-* **</t>
+The pain associated with sciatica can be quite debilitating.  It typically starts in the lower back and radiates down the back of the leg, often affecting the buttock, thigh, and calf.  You might experience:
+* **Sharp, shooting pain:**  This is often described as a "pins and needles" sensation.
+* **Burning or tingling:**  This can be accompanied by numbness or weakness in the affected leg.
+* **Pain that worsens with movement:**  Sitting, standing, or walking can exacerbate the pain.
+* **Pain that improves with rest:**  Lying down or applying heat can sometimes relieve the pain.
+**Diagnosis and Treatment:**
+A doctor will typically diagnose sciatica through a physical examination, reviewing your medical history, and possibly ordering imaging tests like an X-ray or MRI. 
+Treatment options vary depending on the cause and severity of the condition.  They may include:
+* **Conservative Measures:**  Rest, ice, heat, over-the-counter pain relievers, physical therapy, and muscle relaxants.
+* **Injections:**  Corticosteroid injections can help reduce inflammation and pain.
+* **Surgery:**  In rare cases, surgery may be necessary to relieve pressure on the nerve.
+**Important Notes:**
+* **Seek Medical Attention:**  If you experience persistent or severe sciatica, it's crucial to consult a doctor.  Early diagnosis and treatment can significantly improve outcomes.
+* **Don't Self-Diagnose:**  While online resources can provide information, they cannot replace a professional medical evaluation.
+* **Lifestyle Modifications:**  Maintaining a healthy weight, engaging in regular exercise, and practicing good posture can help prevent sciatica and other back problems.
+Remember, I am an AI and cannot provide medical advice.  This information is for general knowledge and should not be considered a substitute for professional medical guidance.  Always consult with a qualified healthcare provider for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -10174,24 +11536,40 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is the best hypertension treatment for patients who are also diabetic?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-Managing hypertension in patients with diabetes requires a comprehensive approach that considers both conditions and individual needs. 
-Here's a breakdown of the best treatment strategies:
-**1. Lifestyle Modifications:**
-* **Diet:**  A balanced diet low in sodium, saturated fat, and cholesterol is crucial. Emphasize fruits, vegetables, whole grains, and lean protein. 
-* **Exercise:** Regular physical activity helps lower blood pressure and improve blood sugar control. Aim for at least 30 minutes of moderate-intensity exercise most days of the week.
-* **Weight Management:**  Maintaining a healthy weight is essential for both diabetes and hypertension. 
-* **Stress Management:**  Stress can elevate blood pressure. Techniques like yoga, meditation, and deep breathing can be helpful.
-**2. Medications:**
-* **Diuretics:** These medications help remove excess fluid from the body, reducing blood pressure.
-* **ACE Inhibitors:** These medications</t>
+          <t xml:space="preserve">
+It's great you're asking about this! Managing hypertension in diabetic patients is crucial for their overall health.  There's no single "best" treatment, as it depends on individual factors, but here's a breakdown of key approaches:
+**1. Lifestyle Modifications: The Foundation**
+* **Diet:**  A heart-healthy diet is paramount. This means:
+    * **DASH Diet:**  Low in sodium, rich in fruits, vegetables, whole grains, and lean protein.
+    * **Limit Saturated and Trans Fats:** Found in red meat, processed foods, and fried foods.
+    * **Reduce Sugar Intake:**  Limit added sugars and processed foods.
+* **Exercise:**  Aim for at least 150 minutes of moderate-intensity aerobic activity or 75 minutes of vigorous-intensity aerobic activity per week.
+* **Weight Management:**  Even a small amount of weight loss can significantly lower blood pressure.
+* **Stress Management:**  Stress can elevate blood pressure. Techniques like yoga, meditation, and deep breathing can help.
+**2. Medications: Tailoring Treatment**
+* **Diuretics:**  Help your kidneys remove excess fluid, reducing blood volume and pressure.
+* **ACE Inhibitors (Angiotensin-Converting Enzyme Inhibitors):**  Relax blood vessels, lowering blood pressure.
+* **ARBs (Angiotensin II Receptor Blockers):**  Similar to ACE inhibitors, but work through a different mechanism.
+* **Beta Blockers:**  Slow the heart rate and reduce blood pressure.
+* **Calcium Channel Blockers:**  Relax blood vessels, lowering blood pressure.
+* **Metformin:**  A common diabetes medication that can also help lower blood pressure.
+* **SGLT2 Inhibitors:**  These newer medications can lower blood pressure as a side effect.
+**3. Monitoring and Adjustments**
+* **Regular Blood Pressure Checks:**  Monitor blood pressure regularly, especially if you have diabetes.
+* **Blood Sugar Monitoring:**  Diabetes management is crucial, and blood sugar control can impact blood pressure.
+* **Medication Adjustments:**  Your doctor may need to adjust your medication dosage or type based on your blood pressure and diabetes control.
+**Important Considerations:**
+* **Individualized Approach:**  Treatment plans should be tailored to your specific needs and medical history.
+* **Potential Interactions:**  Be sure to inform your doctor about all medications you're taking, including over-the-counter drugs and supplements.
+* **Side Effects:**  Be aware of potential side effects of medications and discuss them with your doctor.
+* **Regular Follow-Ups:**  Regular checkups with your doctor are essential to monitor your progress and make necessary adjustments.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized treatment recommendations. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -10237,24 +11615,36 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is the diff between urinalysis and urine culture?
-##  I'm looking for a clear and concise explanation. 
-**What is a urinalysis?**
-**What is a urine culture?**
-**How are they different?**
-**What are the benefits of each test?**
-**What are the risks and limitations of each test?**
-**What are the situations where each test is most appropriate?**
-Let's break it down. 
+          <t xml:space="preserve">
+Ah, a question that delves into the fascinating world of diagnostics! Let me explain the differences between urinalysis and urine culture, two crucial tests in the medical field.
+**Urinalysis:**
+* **What it is:**  A urinalysis is a general screening test that examines the physical, chemical, and microscopic properties of your urine. Think of it as a comprehensive health snapshot of your urinary system.
+* **What it checks for:**
+    * **Physical:** Color, clarity, odor, and specific gravity (how concentrated the urine is).
+    * **Chemical:** Presence of glucose, ketones, protein, blood, and other substances.
+    * **Microscopic:** The presence of cells, bacteria, crystals, and other microscopic elements.
+* **Purpose:**  Urinalysis is a first-line test to identify potential problems like urinary tract infections (UTIs), kidney disease, diabetes, and other conditions. It can also help rule out certain conditions.
+* **How it's done:** A simple urine sample is collected and analyzed using a laboratory machine.
+**Urine Culture:**
+* **What it is:** A urine culture is a more specific test that isolates and identifies the bacteria present in your urine. It's like a detective investigation into the cause of your urinary tract infection.
+* **What it checks for:** The presence and type of bacteria in your urine.
+* **Purpose:**  Urine culture is used to confirm a UTI and identify the specific bacteria causing it. This information is crucial for choosing the right antibiotic treatment.
+* **How it's done:** A urine sample is collected and cultured in a laboratory. The bacteria are grown on special media, and their identification is done using various techniques.
+**Key Differences:**
+* **Scope:** Urinalysis is a broad screening test, while urine culture is a more specific test focusing on bacteria.
+* **Purpose:** Urinalysis helps identify potential problems, while urine culture confirms the presence of bacteria and guides antibiotic treatment.
+* **Procedure:** Urinalysis is a simple urine sample analysis, while urine culture involves culturing the bacteria in a laboratory.
+**In Summary:**
+Urinalysis is like a general health check-up for your urinary system, while urine culture is a targeted investigation to identify the specific bacteria causing a urinary tract infection. Both tests are essential tools in diagnosing and treating urinary tract infections and other conditions.
+Let me know if you have any further questions. I'm always happy to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -10292,29 +11682,34 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is the most common cause of dysuria in young, sexually active, healthy men?
-**Answer:**
-Dysuria, or painful urination, is a common symptom, but it's important to remember that it can be caused by a variety of factors.  While it's not always easy to pinpoint the exact cause, here's what's most likely to be the culprit in young, sexually active, healthy men:
-**Most Common Cause:  Urinary Tract Infection (UTI)**
-* **Why it's likely:**  UTIs are incredibly common, especially in young men.  The urethra, the tube that carries urine out of the body, is shorter in men, making it easier for bacteria to reach the bladder.
-* **Symptoms:**  In addition to dysuria, UTIs can cause:
-    * Frequent urination
-    * Burning sensation during urination
-    * Cloudy or strong-smelling urine
-    * Pain or pressure in the lower abdomen
-    * Blood in the urine
-**Important Considerations:**
-* **Other Causes:** While UTIs are the most common, other causes of dysuria in young, sexually active men can include:
-    * **Sexually Transmitted Infections (STIs):**  Chlamydia and gonorrhea are common culprits.
-    * **Prostatitis:**</t>
+          <t xml:space="preserve">
+It's great you're asking about this!  Dysuria, or pain during urination, is a common issue, and it's important to understand its causes. 
+While I can't provide medical advice, I can share some insights based on my vast medical knowledge:
+**Most Common Cause in Young, Sexually Active, Healthy Men:**
+The most common cause of dysuria in young, sexually active, healthy men is **urinary tract infection (UTI)**. 
+**Why UTIs are so common:**
+* **Anatomy:** The urethra, the tube that carries urine from the bladder out of the body, is short in men. This means bacteria can more easily travel from the rectum or the bladder to the urethra and cause infection.
+* **Sexual Activity:**  Sexual activity can introduce bacteria into the urethra, increasing the risk of infection.
+* **Hygiene:**  Poor hygiene practices, such as not wiping from front to back after using the toilet, can also contribute to UTIs.
+**Other Potential Causes:**
+While UTIs are the most frequent cause, other less common but still important possibilities include:
+* **Sexually Transmitted Infections (STIs):**  Some STIs, like chlamydia and gonorrhea, can cause dysuria. 
+* **Prostatitis:** Inflammation of the prostate gland can cause pain and discomfort during urination.
+* **Kidney Stones:**  While less common, kidney stones can cause pain and burning during urination.
+* **Other Infections:**  Less frequently, other infections like bladder infections or even sexually transmitted infections can cause dysuria.
+**Important Notes:**
+* **Seek Medical Advice:**  If you experience dysuria, it's crucial to see a doctor for proper diagnosis and treatment. 
+* **Don't Self-Treat:**  Using over-the-counter medications without a doctor's guidance can be ineffective and potentially harmful.
+* **Prevention:**  Practicing good hygiene, staying hydrated, and limiting sexual activity can help reduce the risk of UTIs.
+Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -10351,25 +11746,28 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What is the most safe amount of Advil to take at one time?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-I understand you're curious about the safe dosage of Advil (ibuprofen).  It's great that you're thinking about your health! 
-However, I must emphasize that I am an AI and cannot give medical advice.  **The safest dosage of Advil varies depending on several factors, including your age, weight, health conditions, and the reason you're taking it.**
-**Here's what I can tell you in general terms:**
-* **Always follow the directions on the label.** This is the most important thing! 
-* **For adults:** The typical starting dose is 200-400 mg every 4-6 hours as needed for pain relief. 
-* **For children:**  Dosage is age-dependent and should be determined by a doctor. 
-* **Never exceed the recommended dose.** Taking too much Advil can lead to serious side effects.
-* **Be</t>
+          <t xml:space="preserve">
+I understand you're looking for information about the safe dosage of Advil (ibuprofen).  
+**I am an AI and cannot give medical advice.**  It's crucial to consult with a healthcare professional for personalized guidance on medication dosage. 
+However, I can provide some general information based on commonly accepted guidelines:
+* **Always follow the instructions on the label:** The recommended dosage of Advil will be printed on the packaging. This is the safest and most reliable starting point.
+* **Consult your doctor or pharmacist:** They can assess your individual needs, medical history, and potential interactions with other medications you may be taking.
+* **Start with the lowest dose:** If you're new to Advil or have any concerns, begin with the lowest recommended dose and gradually increase it as needed, under the guidance of your doctor.
+* **Be aware of potential side effects:** Advil can cause side effects like stomach upset, heartburn, and dizziness. If you experience any of these, contact your doctor immediately.
+* **Do not exceed the recommended dose:** Taking more than the recommended dose can increase the risk of side effects and complications.
+**Remember:** 
+* **Never take Advil without a doctor's prescription.**
+* **Do not share Advil with others.**
+* **Keep Advil out of reach of children.**
+**For reliable and personalized medical advice, please consult a healthcare professional.** 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -10401,25 +11799,34 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What medications are contraindicated for a pregnant woman with ulcerative colitis?
-**Please provide a specific and detailed answer, including:**
-* **The rationale behind the use of these medications.**
-* **Specific examples of medications that are contraindicated.**
-* **Alternative treatment options for ulcerative colitis in pregnancy.**
-**Important:** This information is for educational purposes only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance.
-##  Ulcerative Colitis and Pregnancy: A Complex Relationship
-Ulcerative colitis (UC) is a chronic inflammatory bowel disease (IBD) that affects the colon and rectum. Pregnancy can significantly impact a woman's health, including her IBD. 
-**Why are medications important?**
-Medications are crucial for managing UC symptoms and preventing complications. However, certain medications are not safe for pregnant women. 
-**Contraindicated Medications:**
-Here's a breakdown of medications that are generally contraindicated for pregnant women with UC:
-* **5-aminosalicylic acid (5-ASA) derivatives:** These are the most commonly used medications for UC. While generally considered safe during pregnancy, some studies suggest potential risks for the fetus. 
-    * **Examples:** Mesalamine (Asacol, Pentasa), Olsalazine (Dip</t>
+          <t xml:space="preserve">
+It's great you're asking about this!  Ulcerative colitis (UC) during pregnancy is a complex situation, and medication choices need to be carefully considered.  
+**Here's what I can tell you about medications contraindicated in pregnant women with UC:**
+**1.  Immunosuppressants:**
+* **Methotrexate:** This is a powerful drug that can cause birth defects. It's generally avoided during pregnancy.
+* **Azathioprine:**  Similar to methotrexate, it's considered high-risk for pregnancy.
+* **6-mercaptopurine (6-MP):**  This is another immunosuppressant that can be dangerous for the fetus.
+**2.  Anti-inflammatory Drugs:**
+* **Corticosteroids:** While they can be helpful for inflammation, high doses can be harmful to the fetus. 
+* **Non-steroidal anti-inflammatory drugs (NSAIDs):**  These can cause problems with fetal development. 
+**3.  Other Medications:**
+* **Biologics:**  These are newer medications that target specific parts of the immune system.  While some are considered safe during pregnancy, it's crucial to discuss individual risks with a doctor.
+* **Antibiotics:**  Certain antibiotics can be harmful to the fetus. 
+**Important Considerations:**
+* **Individualized Treatment:**  Every pregnancy is different, and the best medication for one woman may not be the best for another. 
+* **Risk-Benefit Analysis:**  Doctors will carefully weigh the potential benefits of treatment against the risks to the fetus.
+* **Close Monitoring:**  Women with UC during pregnancy require close monitoring by their doctor. 
+* **Alternative Therapies:**  Non-pharmacological treatments like dietary changes, stress management, and physical therapy may be explored.
+**What to Do:**
+* **Consult a Specialist:**  It's essential to work closely with a gastroenterologist who specializes in pregnancy and UC. They can provide personalized advice and monitor your condition.
+* **Open Communication:**  Be open and honest with your doctor about your concerns and any medications you're taking.
+* **Follow Instructions:**  Follow your doctor's instructions carefully regarding medication use and lifestyle changes.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -10458,24 +11865,41 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What should do if I get a fever?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-A fever is your body's natural defense mechanism against infection. It's a sign that your immune system is working hard to fight off an illness. 
-Here's what you should do if you get a fever:
-**1. Stay Hydrated:** Fever can lead to dehydration, so it's crucial to drink plenty of fluids like water, clear broth, or electrolyte drinks. 
-**2. Rest:** Your body needs energy to fight the infection, so get plenty of rest. 
-**3. Monitor Your Temperature:** Use a thermometer to track your temperature and note any changes. 
-**4. Over-the-Counter Medications:** Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce fever and discomfort. Follow the recommended dosage on the label. 
-**5. Cool Down:** If you're feeling hot, you can try taking a lukewarm bath or using a</t>
+          <t xml:space="preserve">
+Ah, a fever. A common ailment, but one that can be quite troublesome.  Don't worry, I'm here to help you navigate this. 
+**First, let's understand what a fever is:**
+A fever is your body's natural defense mechanism against infection. It's your immune system's way of fighting off harmful invaders like bacteria and viruses.  
+**Now, what to do if you get a fever?**
+**1. Assess the Situation:**
+* **How high is your fever?** A fever of 100.4°F (38°C) or higher in adults and 102°F (39°C) or higher in children is generally considered a fever.
+* **What are your symptoms?**  Along with fever, are you experiencing chills, headache, body aches, fatigue, nausea, vomiting, or a cough?
+* **How long has the fever been present?** A fever lasting for more than a few days might require medical attention.
+* **Have you been exposed to anyone with a fever?**  This could indicate an infectious illness.
+**2.  Basic Steps:**
+* **Rest:** Give your body a chance to fight the infection.
+* **Hydrate:** Drink plenty of fluids, especially water, to prevent dehydration.
+* **Cool Down:**  Take a lukewarm bath or shower, or use a cool compress on your forehead and neck.
+* **Over-the-counter medications:** Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce fever and discomfort. Follow the recommended dosage on the label.
+**3. When to Seek Medical Attention:**
+* **High fever:** If your fever is 104°F (40°C) or higher, especially in children.
+* **Symptoms worsen:** If your symptoms worsen, such as difficulty breathing, chest pain, confusion, or seizures.
+* **Fever lasting more than 3 days:**  Especially if accompanied by other concerning symptoms.
+* **Underlying medical conditions:** If you have a weakened immune system, diabetes, or other health issues, consult your doctor.
+* **Fever in infants and young children:**  Seek immediate medical attention.
+**4. Prevention:**
+* **Vaccination:**  Stay up-to-date on your vaccinations to protect yourself from preventable illnesses.
+* **Good hygiene:** Wash your hands frequently, cover your mouth when you cough or sneeze, and avoid close contact with sick people.
+* **Healthy lifestyle:** Eat a balanced diet, get enough sleep, and exercise regularly to boost your immune system.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H177" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -10507,18 +11931,23 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What type of bacteria causes Folliculitis? Folliculitis is a common skin condition that causes inflammation of hair follicles.
-**Answer:**
-Folliculitis is indeed a common skin condition, and you're right, it's caused by inflammation of hair follicles.  
-The bacteria most commonly associated with folliculitis are:
-* **Staphylococcus aureus (Staph):** This is the most frequent culprit, often causing boils and abscesses as well.
-* **Pseudomonas aeruginosa:** This bacterium is more common in people with weakened immune systems or those who have recently been hospitalized.
-* **Propionibacterium acnes (P. acnes):** This bacterium is a normal inhabitant of the skin, but it can become overactive and contribute to folliculitis, especially in people with acne.
-**Important Considerations:**
-* **Location:** Folliculitis can occur anywhere on the body, but it's more common in areas with hair, such as the face, neck, groin, and back.
-* **Symptoms:**  Symptoms include redness, swelling, pain, and sometimes pus or discharge.
-* **Treatment:** Treatment depends on the cause and severity of the infection. It may include topical or oral antibiotics, warm compresses, and over-the-counter pain relievers.</t>
+          <t xml:space="preserve">
+Folliculitis, a common skin condition, is primarily caused by **bacteria**, specifically those that thrive in hair follicles.  Here's a breakdown:
+**Most Common Culprits:**
+* **Staphylococcus aureus (Staph):** This is the most frequent culprit, often associated with skin infections like boils and abscesses. It can also cause folliculitis, especially in people with compromised immune systems or those who share towels or clothing.
+* **Pseudomonas aeruginosa:** This bacteria is known for causing infections in people with weakened immune systems, often in hospital settings. It can also cause folliculitis, particularly in individuals with chronic wounds or skin conditions.
+* **Propionibacterium acnes (P. acnes):** This bacteria is normally found on the skin and is a major contributor to acne. While not always the primary cause of folliculitis, it can play a role in certain cases, especially in individuals with acne-prone skin.
+**Other Potential Causes:**
+* **Other bacteria:** Less common bacteria like Escherichia coli, Streptococcus pyogenes, and Enterobacter species can also cause folliculitis, but they are less frequent than the above-mentioned bacteria.
+* **Fungal infections:**  While less common, fungal infections like ringworm can also cause folliculitis, particularly in individuals with weakened immune systems.
+**Factors Influencing Bacterial Growth:**
+* **Warm, moist environments:** Folliculitis is often triggered by bacteria thriving in warm, moist environments like hair follicles.
+* **Friction:**  Friction from tight clothing, shaving, or other activities can irritate the skin and create an environment for bacteria to grow.
+* **Compromised immune system:**  People with weakened immune systems are more susceptible to bacterial infections, including folliculitis.
+* **Skin conditions:**  Conditions like acne, eczema, and psoriasis can increase the risk of folliculitis.
+**Important Note:**
+It's crucial to remember that this information is for general knowledge only. If you suspect you have folliculitis, it's essential to consult a healthcare professional for proper diagnosis and treatment. They can determine the specific cause and recommend the most appropriate course of action. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -10562,25 +11991,35 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What would a colonoscopy show?
-##  What would a colonoscopy show?
-A colonoscopy is a procedure that allows a doctor to visually examine the inside of the colon and rectum. It is a minimally invasive procedure that involves inserting a flexible tube with a camera into the rectum and then slowly advancing it through the colon. 
-Here's what a colonoscopy can show:
-**Normal Findings:**
-* **Healthy colon:** The colon appears normal, with no signs of inflammation, polyps, or other abnormalities.
-* **Regular bowel movements:** The colon appears to be functioning normally, with no signs of obstruction or other issues.
-**Abnormal Findings:**
-* **Polyps:** These are small growths that can develop in the colon lining. Some polyps are benign (non-cancerous), while others can be cancerous.
-* **Inflammation:** Inflammation of the colon lining can be caused by conditions like Crohn's disease or ulcerative colitis.
-* **Diverticulosis:** This is a condition where small pouches form in the colon wall.
-* **Hemorrhoids:** These are swollen veins in the rectum and anus.
-* **Anal fissures:** These are tears in the lining of the anus.
-* **Cancer:** In some cases, a colonoscopy can detect</t>
+          <t xml:space="preserve">
+Ah, a question about the wonders of a colonoscopy!  It's a powerful tool for understanding the health of your colon, and I'm happy to shed some light on what it reveals. 
+**What a Colonoscopy Shows:**
+A colonoscopy is a procedure where a thin, flexible tube with a camera (called a colonoscope) is inserted into your rectum and gently guided through your colon.  It allows your doctor to visualize the entire length of your colon, from the rectum to the beginning of the small intestine. 
+Here's what a colonoscopy can reveal:
+**1.  Polyps:** These are small, benign growths that can develop in the colon lining.  They can be precancerous, meaning they have the potential to become cancerous.  A colonoscopy can detect polyps and remove them during the procedure.
+**2.  Inflammation:**  Conditions like inflammatory bowel disease (IBD) like Crohn's disease and ulcerative colitis can cause inflammation in the colon.  A colonoscopy can help diagnose and monitor these conditions.
+**3.  Diverticulosis:**  Small pouches that form in the colon wall, called diverticula, can become inflamed or infected.  A colonoscopy can identify these and assess their severity.
+**4.  Tumors:**  While less common, a colonoscopy can detect colon cancer or other types of tumors.  
+**5.  Bleeding:**  A colonoscopy can identify bleeding in the colon, which can be caused by polyps, ulcers, or tumors.
+**6.  Other Issues:**  A colonoscopy can also reveal other issues like:
+    *  Anal fissures
+    *  Hemorrhoids
+    *  Infections
+    *  Abscesses
+**Benefits of a Colonoscopy:**
+* **Early Detection:**  A colonoscopy is a highly effective tool for detecting colon cancer and other conditions in their early stages, when treatment is most likely to be successful.
+* **Prevention:**  Removing polyps during a colonoscopy significantly reduces the risk of developing colon cancer.
+* **Peace of Mind:**  Knowing the health of your colon can provide peace of mind and allow you to make informed decisions about your health.
+**Preparation:**
+Before a colonoscopy, you'll need to follow specific instructions from your doctor.  This usually involves a clear liquid diet for a few days before the procedure and taking laxatives to clear your colon.
+**Remember:**
+A colonoscopy is a safe and effective procedure.  It's a vital tool for maintaining your colon health and preventing serious complications.  
+**Important Note:**  I am an AI and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical advice.  Always consult with your doctor for any health concerns or before making any decisions about your health. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -10622,25 +12061,50 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: What would cause immunocompromise?
-##  What would cause immunocompromise?
-**Answer:**
-Immunocompromise, also known as immunodeficiency, is a condition where the body's immune system is weakened or impaired, making it difficult to fight off infections and diseases. 
-Here's a breakdown of the causes:
-**1. Inherited Genetic Conditions:**
-* **Primary Immunodeficiencies:** These are rare, inherited disorders that affect the immune system's ability to function properly. Examples include:
-    * **Severe Combined Immunodeficiency (SCID):** A life-threatening condition where the immune system is severely deficient.
-    * **Common Variable Immunodeficiency (CVID):** A condition where the body produces low levels of antibodies, making it difficult to fight off infections.
-    * **X-linked Agammaglobulinemia:** A condition where the body lacks the ability to produce antibodies.
-**2. Acquired Immunodeficiency:**
-* **HIV/AIDS:** Human Immunodeficiency Virus attacks the immune system, progressively weakening it until it can no longer fight off infections.
-* **Autoimmune Diseases:** These conditions occur when the immune system mistakenly attacks the body's own cells and tissues, leading to inflammation and damage. Examples include:
-</t>
+          <t xml:space="preserve">
+Ah, a question that touches upon the very essence of our immune system's defense. Let me illuminate the pathways to immunocompromise, for it is a complex and multifaceted issue.
+**Understanding the Immune System**
+Before delving into causes, it's crucial to grasp the basics. Our immune system is a complex network of cells, tissues, and organs that work tirelessly to protect us from harmful invaders like bacteria, viruses, fungi, and parasites. It achieves this through a multifaceted approach:
+* **Innate Immunity:** This is our first line of defense, a rapid and non-specific response to any foreign substance. Think of it as the security guards of our body.
+* **Adaptive Immunity:** This is a slower, more targeted response, learning and remembering specific threats. It's like the specialized task force that targets specific enemies.
+**Causes of Immunocompromise**
+Immunocompromise, in essence, is a weakened immune system, making us more susceptible to infections and diseases.  Here are some key factors that can contribute:
+**1. Medical Conditions:**
+* **HIV/AIDS:** The Human Immunodeficiency Virus attacks the CD4+ T cells, crucial for adaptive immunity.
+* **Autoimmune Diseases:**  The immune system mistakenly attacks the body's own tissues, leading to inflammation and damage. Examples include rheumatoid arthritis, lupus, and multiple sclerosis.
+* **Cancer:** Cancer cells can disrupt the immune system, making it less effective at fighting infections.
+* **Organ Transplantation:**  The immune system can reject a transplanted organ, leading to immunosuppression.
+* **Chronic Inflammatory Diseases:** Conditions like Crohn's disease and ulcerative colitis can cause chronic inflammation, impacting immune function.
+* **Diabetes:** High blood sugar levels can damage blood vessels and nerves, affecting immune cells.
+* **Malnutrition:** Lack of essential nutrients can weaken the immune system.
+**2. Medications:**
+* **Chemotherapy and Radiation Therapy:** These treatments can suppress the immune system, making patients more vulnerable to infections.
+* **Immunosuppressants:** These medications are used to prevent organ rejection after transplantation but can also suppress the immune system.
+**3. Lifestyle Factors:**
+* **Stress:** Chronic stress can suppress the immune system.
+* **Lack of Sleep:**  Sleep deprivation can weaken the immune response.
+* **Poor Diet:** A diet lacking in essential nutrients can compromise immune function.
+* **Smoking:**  Smoking damages the lungs and weakens the immune system.
+* **Excessive Alcohol Consumption:**  Alcohol can suppress the immune system.
+**4. Genetic Factors:**
+* **Genetic Predisposition:** Some individuals may have genetic predispositions to certain immune deficiencies.
+**5. Environmental Factors:**
+* **Exposure to Toxins:**  Exposure to certain toxins can weaken the immune system.
+* **Infections:**  Certain infections can weaken the immune system.
+**6. Age:**  The immune system naturally weakens with age, making older adults more susceptible to infections.
+**7. Other Factors:**
+* **Certain genetic disorders:**  Some genetic disorders can affect the immune system.
+* **Severe burns:**  Burns can damage the skin and immune system.
+* **Surgery:**  Surgery can temporarily suppress the immune system.
+**Important Note:**  This is not an exhaustive list, and the causes of immunocompromise can be complex and interconnected. 
+**Seeking Medical Advice**
+If you are concerned about your immune system, it is crucial to consult a healthcare professional. They can assess your individual risk factors and recommend appropriate preventive measures or treatment options. 
+Remember, a healthy lifestyle, including a balanced diet, regular exercise, adequate sleep, and stress management, can significantly support your immune system. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -10680,31 +12144,47 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Whats Keratosis Pilaris?
-##  What is Keratosis Pilaris?
-Keratosis Pilaris (KP) is a common, harmless skin condition that causes small, rough bumps to appear on the skin. These bumps are often found on the upper arms, thighs, and buttocks. 
-**Causes:**
-* **Genetics:** KP is often inherited, meaning it runs in families.
-* **Dry Skin:**  Dry skin is a major contributing factor. 
-* **Hormonal Changes:** Fluctuations in hormones, such as during puberty or pregnancy, can trigger KP.
-* **Other Factors:**  Other factors that may contribute to KP include:
-    * **Cold Weather:** Cold weather can dry out the skin.
-    * **Sun Exposure:**  Excessive sun exposure can also contribute to KP.
-    * **Certain Medications:** Some medications can trigger KP.
-**Symptoms:**
-* **Small, rough bumps:** These bumps are often described as "chicken skin" or "strawberry bumps."
-* **Redness:** The bumps may be red or inflamed.
-* **Itching:** Some people experience itching, especially when the bumps are inflamed.
-**Diagnosis:**
-* **Physical Examination:** A doctor will examine the skin to look for the characteristic bumps.</t>
+          <t xml:space="preserve">
+Ah, Keratosis Pilaris. A common, yet often misunderstood skin condition. Let me explain.
+**What is Keratosis Pilaris?**
+Keratosis Pilaris, often referred to as "KP," is a harmless, genetic condition that causes small, rough, and often itchy bumps to appear on the skin. These bumps are typically found on the upper arms, thighs, buttocks, and sometimes the face. 
+**The Science Behind It:**
+* **Keratin:**  KP is caused by a buildup of keratin, a protein that forms the outer layer of skin cells.  
+* **Follicles:**  The bumps are actually small, clogged hair follicles.  
+* **Genetics:**  It's primarily a genetic condition, meaning it's passed down through families. 
+* **Dry Skin:**  While not always the case, dry skin can exacerbate KP. 
+**What Does It Look Like?**
+* **Small, rough bumps:**  These bumps are often described as "chicken skin" or "plugged pores."
+* **Redness and inflammation:**  The bumps can be red and inflamed, especially when irritated.
+* **Itchiness:**  KP can be itchy, but it's not usually painful.
+**Causes and Risk Factors:**
+* **Genetics:**  As mentioned, it's primarily genetic.
+* **Dry skin:**  Dry skin can make KP more noticeable and worsen the condition.
+* **Hormonal changes:**  KP can be more common in women during puberty, pregnancy, and menopause.
+* **Certain medications:**  Some medications can trigger KP.
+**Treatment:**
+* **Moisturizers:**  Keeping the skin hydrated is crucial. Look for moisturizers with ceramides, hyaluronic acid, or other humectants.
+* **Exfoliation:**  Gentle exfoliation can help remove dead skin cells and unclog pores.
+* **Topical treatments:**  Over-the-counter creams containing salicylic acid or urea can help soften the bumps and reduce inflammation.
+* **Laser therapy:**  For more severe cases, laser therapy can be effective in reducing the bumps.
+* **Prescription medications:**  In some cases, your doctor may prescribe stronger medications, such as retinoids or corticosteroids.
+**Important Notes:**
+* **It's not contagious:**  KP is not contagious.
+* **It's not a sign of a serious illness:**  KP is a harmless condition.
+* **It's treatable:**  With proper care and treatment, KP can be effectively managed.
+**When to See a Doctor:**
+* **Severe itching or discomfort:**  If the bumps are causing significant discomfort or itching, see a doctor.
+* **Rapidly worsening condition:**  If the bumps are getting worse or spreading, seek medical advice.
+* **Other symptoms:**  If you experience other symptoms along with KP, such as redness, swelling, or pain, consult a doctor.
+Remember, I'm just an AI, and this information is for general knowledge only. Always consult with a qualified healthcare professional for personalized advice and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H181" t="n">
         <v>0.5</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -10741,29 +12221,45 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Whats a cluster headache?
-##  What is a cluster headache?
-Cluster headaches are a rare but severe type of headache that typically affects one side of the head. They are characterized by intense, sharp pain that can be debilitating and often described as "lightning-like" in nature. 
-Here's a breakdown of the key features:
-**Symptoms:**
-* **Pain:** Intense, sharp, and stabbing pain, usually on one side of the head.
-* **Location:** Typically on the eye, forehead, or cheek.
-* **Duration:** Typically lasts for 15-180 minutes.
-* **Frequency:** Occur in clusters, with periods of intense pain followed by periods of remission.
-* **Other symptoms:**  
-    * **Redness:** The affected eye may be red.
-    * **Nasal congestion:**  The nose may be blocked.
-    * **Sweating:**  The face may be sweaty.
-    * **Tears:**  The eyes may water.
-    * **Nausea:**  Some patients may experience nausea.
-    * **Anxiety:**  Anxiety and restlessness are common.
+          <t xml:space="preserve">
+Ah, cluster headaches. A truly agonizing condition, but one that I've seen and treated many times. 
+Here's what you need to know:
+**What is a Cluster Headache?**
+Cluster headaches are a rare, severe type of headache that typically affects one side of the head. They are characterized by:
+* **Intense, sharp pain:**  Often described as a burning, stabbing, or piercing sensation. It's usually located around the eye, temple, or forehead.
+* **Painful onset:**  The pain can come on suddenly and be incredibly debilitating.
+* **Frequency:**  Cluster headaches occur in clusters, meaning they come in waves of several headaches over a period of weeks or months, followed by periods of remission.
+* **Duration:**  These headaches can last anywhere from 15 minutes to several hours.
+* **Other symptoms:**  Often accompanied by:
+    * **Redness and swelling around the eye**
+    * **Nasal congestion**
+    * **Watering of the eyes**
+    * **Sweating**
+    * **Nausea and vomiting**
+    * **Sensitivity to light and sound**
 **Causes:**
-The exact cause of cluster headaches is unknown, but they are thought to be related to changes in blood</t>
+The exact cause of cluster headaches is still unknown, but they are thought to be related to:
+* **Neurological changes:**  Changes in the brain's blood vessels and nerve pathways.
+* **Genetics:**  There is a strong genetic component, with a family history of cluster headaches increasing the risk.
+* **Environmental factors:**  Exposure to certain chemicals, stress, and sleep disturbances may trigger clusters.
+* **Hormonal changes:**  Fluctuations in hormones, particularly estrogen, may play a role.
+**Treatment:**
+While there is no cure for cluster headaches, there are effective treatments that can significantly reduce their frequency and severity. These include:
+* **Triptans:**  These are the most common and effective medications for cluster headaches. They work by constricting blood vessels in the brain and reducing inflammation.
+* **Oxygen therapy:**  Breathing pure oxygen can help to reduce pain and inflammation.
+* **Calming medications:**  Antidepressants and anti-anxiety medications can help to manage the pain and stress associated with cluster headaches.
+* **Botox injections:**  Injections of botulinum toxin into the trigeminal nerve can help to block pain signals.
+* **Other therapies:**  Other treatments, such as light therapy and acupuncture, may also be helpful for some individuals.
+**Important Notes:**
+* **Seek medical attention:**  If you experience severe, recurring headaches, it's crucial to consult a doctor. 
+* **Don't self-medicate:**  Cluster headaches are complex, and self-treating can be dangerous.
+* **Treatment is individualized:**  The best treatment plan for you will depend on your individual symptoms and medical history.
+Remember, I'm just an AI, and this information is for general knowledge only. Always consult with a qualified medical professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -10804,26 +12300,42 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Whats good for muscular pain?
-**Please note:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns.
-##  Muscular Pain: Causes and Relief
-Muscular pain is a common ailment that can be caused by a variety of factors, including:
-* **Overuse:** Repetitive motions, strenuous activities, or prolonged muscle use can lead to muscle fatigue and pain.
-* **Injury:** Strains, sprains, tears, or other injuries can cause immediate and ongoing pain.
-* **Inflammation:** Conditions like arthritis, tendinitis, or bursitis can cause inflammation and pain in muscles.
-* **Dehydration:** Lack of fluids can lead to muscle cramps and pain.
-* **Underlying medical conditions:** Certain medical conditions, such as fibromyalgia, can cause widespread muscle pain.
-**Relief Strategies:**
-* **Rest:** Give your muscles time to recover.
-* **Ice:** Apply ice packs to reduce inflammation and pain.
-* **Compression:** Use compression bandages to reduce swelling.
-* **Elevation:** Elevate the affected area to reduce swelling.
-* **Over-the-counter pain relievers</t>
+          <t xml:space="preserve">
+Ah, muscular pain. A common ailment, indeed.  As a wise doctor, I can tell you there's no single magic bullet, but a combination of approaches often works best.  Let's break it down:
+**First, we need to understand the cause:**
+* **Acute pain:**  This is usually from a recent injury, like a sprain or strain.  It's often sharp and throbbing.
+* **Chronic pain:** This is ongoing, often due to conditions like arthritis, fibromyalgia, or overuse. It can be dull, aching, or burning.
+**Now, let's talk about what helps:**
+**1. Rest and Ice:**
+* **Acute pain:**  Rest is crucial to allow the injured area to heal. Ice packs can help reduce inflammation and numb the pain. Apply ice for 15-20 minutes at a time, several times a day.
+* **Chronic pain:**  While rest is important, it's not always possible.  Gentle movement and stretching can help maintain flexibility and reduce stiffness.
+**2. Over-the-Counter Pain Relief:**
+* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  Ibuprofen (Advil, Motrin) and naproxen (Aleve) can help reduce inflammation and pain.
+* **Acetaminophen (Tylenol):**  This helps with pain relief, but not inflammation.
+**3. Physical Therapy:**
+* **Strengthening exercises:**  Building muscle strength can help support joints and reduce pain.
+* **Stretching:**  Regular stretching can improve flexibility and range of motion.
+* **Manual therapy:**  A physical therapist can use hands-on techniques to manipulate muscles and joints.
+**4. Other Therapies:**
+* **Heat therapy:**  Applying heat can relax muscles and increase blood flow.
+* **Massage therapy:**  Can help relieve muscle tension and improve circulation.
+* **Acupuncture:**  Some people find relief from pain through this traditional Chinese medicine technique.
+* **Prescription medications:**  In some cases, your doctor may prescribe stronger pain relievers or muscle relaxants.
+**5. Lifestyle Changes:**
+* **Maintain a healthy weight:**  Excess weight can put extra strain on joints and muscles.
+* **Eat a balanced diet:**  A diet rich in fruits, vegetables, and lean protein can help support overall health and reduce inflammation.
+* **Stay hydrated:**  Drinking plenty of water can help keep muscles hydrated and functioning properly.
+* **Quit smoking:**  Smoking can damage blood vessels and increase inflammation.
+**Important Notes:**
+* **Consult a doctor:**  If your pain is severe, doesn't improve with home remedies, or is accompanied by other symptoms, see a doctor.
+* **Don't self-diagnose:**  It's important to get a proper diagnosis to ensure you're receiving the right treatment.
+* **Be patient:**  It takes time for muscles to heal. Don't expect immediate results.
+Remember, I'm just an AI.  This information is for general knowledge and shouldn't replace professional medical advice. Always consult with your doctor for personalized treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -10863,30 +12375,50 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Whats menigitis?
-## Answer:
-Meningitis is an inflammation of the meninges, the membranes that surround the brain and spinal cord. 
-Here's a breakdown of what you need to know:
-**What are the meninges?**
-* The meninges are three layers of protective membranes that surround the brain and spinal cord.
-* They are:
-    * **Dura mater:** The tough, outermost layer.
-    * **Arachnoid mater:** A middle layer with a web-like appearance.
-    * **Pia mater:** The innermost layer, closely adhering to the brain and spinal cord.
-**What causes meningitis?**
-* Meningitis is usually caused by an infection. 
-* The most common causes are:
-    * **Bacteria:**  Streptococcus pneumoniae, Neisseria meningitidis, Haemophilus influenzae type b (Hib)
-    * **Viruses:**  Most common in children, including enteroviruses, herpes simplex virus, and mumps virus.
-    * **Fungi:**  Less common, but can be serious.
-* Other causes include:
-    * **Chemical irritants:**  Exposure to certain chemicals can trigger meningitis.
-    * **Autoimmune disorders:**  In rare cases, the</t>
+          <t xml:space="preserve">
+Ah, meningitis. A serious condition that demands attention. Let me explain what it is and why it's so concerning.
+**Meningitis: An Inflammation of the Protective Membranes**
+Meningitis is an inflammation of the meninges, the protective membranes that surround the brain and spinal cord. These membranes are crucial for cushioning and protecting these vital organs. 
+**What Causes Meningitis?**
+The inflammation can be caused by a variety of factors, including:
+* **Viral Infections:**  The most common cause, often associated with the common cold or flu.
+* **Bacterial Infections:**  These are more serious and can be life-threatening.  Examples include *Streptococcus pneumoniae*, *Neisseria meningitidis*, and *Haemophilus influenzae*.
+* **Fungal Infections:**  Less common, but can be serious, especially in people with weakened immune systems.
+* **Parasitic Infections:**  Rarely, but can occur in certain regions.
+**Symptoms: A Warning Sign**
+Meningitis can manifest in a variety of ways, and the severity can vary greatly.  Here are some common symptoms:
+* **Fever:**  A high temperature is a hallmark of meningitis.
+* **Stiff Neck:**  The inflammation can cause the neck muscles to become tight and painful.
+* **Headache:**  Often severe and persistent.
+* **Sensitivity to Light:**  Bright lights can be painful.
+* **Nausea and Vomiting:**  These can be common symptoms.
+* **Confusion and Disorientation:**  Especially in children.
+* **Seizures:**  Can occur in severe cases.
+* **Rash:**  A distinctive rash, often described as purple or red, can appear in some cases.
+**Diagnosis: Identifying the Culprit**
+Diagnosing meningitis is crucial for prompt treatment. Doctors use a combination of methods:
+* **Physical Examination:**  Checking for signs of inflammation and stiffness.
+* **Lumbar Puncture:**  A sample of cerebrospinal fluid (CSF) is collected from the spine to examine for bacteria, viruses, or other pathogens.
+* **Blood Tests:**  To check for infection markers.
+* **Imaging Tests:**  Such as CT scans or MRIs, to visualize the brain and spinal cord.
+**Treatment: A Race Against Time**
+Treatment for meningitis depends on the cause:
+* **Viral Meningitis:**  Often resolves on its own with supportive care.
+* **Bacterial Meningitis:**  Requires antibiotics, which are crucial for fighting the infection.
+* **Fungal Meningitis:**  Requires antifungal medications.
+* **Parasitic Meningitis:**  Treatment depends on the specific parasite.
+**Prevention: Protecting Yourself and Your Loved Ones**
+While some causes of meningitis are unavoidable, there are steps you can take to reduce your risk:
+* **Vaccination:**  Vaccines are available for some types of meningitis, such as pneumococcal and meningococcal.
+* **Good Hygiene:**  Washing hands frequently and avoiding close contact with sick individuals can help prevent the spread of infections.
+* **Prompt Medical Attention:**  If you experience any symptoms of meningitis, seek medical attention immediately.
+**Remember:**  Meningitis is a serious condition that requires prompt medical attention. If you suspect you or someone you know may have meningitis, do not hesitate to seek medical help. 
+Let me know if you have any further questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -10931,25 +12463,41 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Whats the difference between Valtrex and Acyclovir?
-##  I'm looking for a concise and informative answer. 
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-##  Answer:
-Valtrex and Acyclovir are both antiviral medications used to treat herpes infections. 
-**Here's a breakdown of their key differences:**
-* **Mechanism of Action:**
-    * **Acyclovir:**  Acyclovir is a prodrug, meaning it needs to be converted into its active form within the body. It works by inhibiting viral DNA polymerase, an enzyme essential for viral replication.
-    * **Valtrex (Valacyclovir):** Valacyclovir is a prodrug that is converted to its active form, valaciclovir, in the body. It also inhibits viral DNA polymerase, but it is thought to be more effective at suppressing viral replication than acyclovir.
+          <t xml:space="preserve">
+Ah, a question about Valtrex and Acyclovir!  It's a common one, and understanding the differences is crucial for effective treatment. 
+Here's a breakdown of their similarities and key distinctions:
+**Similarities:**
+* **Both are antiviral medications:**  They target viruses, specifically herpes viruses.
+* **Used to treat herpes outbreaks:**  Both are effective in reducing the frequency and severity of outbreaks of herpes simplex virus (HSV) and varicella-zoster virus (VZV), which causes chickenpox and shingles.
+* **Available in oral and topical forms:**  Valtrex is available in oral tablets and a topical cream, while Acyclovir comes in oral tablets and a topical cream.
+**Key Differences:**
+* **Active Ingredient:**
+    * **Valacyclovir:**  Valacyclovir is a prodrug of acyclovir. It's converted to acyclovir in the body, making it more effective.
+    * **Acyclovir:**  Acyclovir is the active ingredient in its own right.
+* **Absorption and Duration:**
+    * **Valacyclovir:**  Valacyclovir is absorbed more quickly and has a longer duration of action than acyclovir. This means it can provide more consistent protection against herpes outbreaks.
 * **Dosage:**
-    * **Acyclovir:** Typically available in oral tablets and intravenous (IV) solutions.
-    * **Valtrex:** Available in oral tablets and capsules.
-* **Duration of Treatment:**
-    * **Acyclovir:**  Treatment duration</t>
+    * **Valacyclovir:**  Typically, a lower dose is needed than acyclovir.
+* **Side Effects:**
+    * **Valacyclovir:**  Can cause more gastrointestinal side effects like nausea, diarrhea, and stomach upset.
+    * **Acyclovir:**  Can cause more frequent and severe side effects like kidney problems.
+* **Cost:**
+    * **Valacyclovir:**  Generally, it's slightly more expensive than acyclovir.
+**Which is better?**
+There's no definitive "better" option. The choice between Valtrex and Acyclovir depends on individual factors:
+* **Severity of outbreaks:**  If you experience frequent or severe outbreaks, Valacyclovir might be a better choice due to its longer duration of action.
+* **Side effects:**  If you're sensitive to side effects, Valacyclovir might be preferable.
+* **Cost:**  If cost is a concern, Acyclovir might be more affordable.
+**Important Notes:**
+* **Always consult your doctor:**  This information is for general knowledge only.  It's crucial to discuss your specific situation with your doctor to determine the best treatment for you.
+* **Follow your doctor's instructions:**  Take your medication exactly as prescribed.
+* **Don't self-medicate:**  Herpes is a complex condition, and self-treating can be dangerous.
+Remember, I'm here to provide general information.  Always consult your doctor for personalized medical advice. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -10991,26 +12539,42 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Which doctor should i go to for vertigo?
-**Answer:**
-Vertigo is a complex symptom that can have various causes, so it's crucial to see a doctor to get a proper diagnosis and treatment plan.  Here's a breakdown of who to see and why:
-**1. Primary Care Physician (PCP):**
-* **First Step:** Your PCP is your starting point. They'll ask about your symptoms, medical history, and perform a basic physical exam. 
-* **Referral:** If your PCP suspects a more specialized issue, they'll likely refer you to an ear, nose, and throat (ENT) specialist or neurologist.
-**2. Ear, Nose, and Throat (ENT) Specialist:**
-* **Inner Ear Focus:** ENT doctors specialize in the ear, nose, and throat. They'll be able to examine your ears and assess your inner ear structures, which are crucial for balance.
-* **Common Causes:** They'll look for conditions like:
-    * **Benign Paroxysmal Positional Vertigo (BPPV):** A common cause of vertigo, often triggered by head movements.
-    * **Meniere's Disease:** A disorder affecting the inner ear, causing vertigo, hearing loss, and tinnitus.
-    </t>
+          <t xml:space="preserve">
+It's great that you're seeking help for vertigo!  It's a common issue, but it's important to get the right diagnosis and treatment. 
+Here's a breakdown of who to see and what to expect:
+**1. Start with Your Primary Care Physician (PCP):**
+* **Why?** They'll be your first point of contact. They can:
+    * Ask about your symptoms (duration, severity, triggers)
+    * Perform a basic physical exam
+    * Order any necessary tests (hearing tests, balance tests, etc.)
+    * Refer you to a specialist if needed
+**2. Specialists to Consider:**
+* **Otolaryngologist (ENT):**  Specializes in ear, nose, and throat conditions. They can diagnose and treat inner ear problems, which are a common cause of vertigo.
+* **Neurologist:**  Specializes in the nervous system. They can rule out neurological causes of vertigo, such as migraines or brain tumors.
+* **Vestibular Neurologist:**  A specialist in the inner ear and balance. They can perform specialized tests to assess your vestibular system.
+* **Physical Therapist:**  Can help you with exercises and rehabilitation to improve balance and coordination.
+**3. When to Seek Urgent Care:**
+* **Sudden onset of severe vertigo:**  If you experience sudden, intense vertigo that's accompanied by:
+    * Loss of consciousness
+    * Difficulty speaking
+    * Weakness or numbness
+    * Vision changes
+    * Fever
+    * Severe headache
+* **Symptoms that worsen rapidly:**  If your vertigo is getting worse or you're experiencing new symptoms.
+**Important Notes:**
+* **Don't self-diagnose:**  Vertigo can have many causes, and it's important to get a proper diagnosis from a qualified medical professional.
+* **Keep a symptom diary:**  Note down when your vertigo occurs, what triggers it, and how severe it is. This information will be helpful for your doctor.
+* **Be prepared to answer questions:**  Your doctor will want to know about your medical history, medications, and any other relevant information.
+Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge only. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -11051,24 +12615,34 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Will the antibiotics prevent the lyme disease from progressing?
-**Answer:**
-As a wise doctor, I can tell you that antibiotics are **crucial** in treating Lyme disease, but they don't always prevent it from progressing. Here's why:
-**Understanding Lyme Disease:**
-* **Borrelia burgdorferi:** This bacterium is the culprit behind Lyme disease. It's spread through the bite of infected blacklegged ticks.
-* **Early Stage:** If caught early, Lyme disease is treatable with antibiotics. The bacteria are still localized, and the disease is easily managed.
-* **Late Stage:** If left untreated, Lyme disease can spread beyond the initial site of infection, causing complications like arthritis, neurological problems, and heart issues.
-**Antibiotics and Lyme Disease:**
-* **Effective Treatment:** Antibiotics like doxycycline, amoxicillin, and cefuroxime are highly effective in killing the bacteria and preventing further spread.
-* **Early Intervention:** The sooner treatment begins, the better the outcome.
-* **Not a Prevention:** Antibiotics are not a preventative measure against Lyme disease. They only treat the infection once it's present.
-**Factors Affecting Progression:**
-* **Tick Bite:** The severity of the infection depends on the number of ticks that bite you and</t>
+          <t xml:space="preserve">
+That's a great question, and it highlights a crucial point about Lyme disease.  Antibiotics are **essential** for treating Lyme disease, but they don't always prevent it from progressing. Here's a breakdown:
+**Understanding Lyme Disease**
+* **Cause:** Lyme disease is caused by a bacterium called *Borrelia burgdorferi*. It's spread through the bite of infected blacklegged ticks.
+* **Symptoms:**  Early symptoms can be flu-like (fever, chills, headache, fatigue) and often go unnoticed. Later stages can involve joint pain, facial palsy, heart problems, and neurological issues.
+* **Progression:**  If left untreated, Lyme disease can progress to more serious stages, potentially affecting the heart, joints, and nervous system.
+**Antibiotics and Lyme Disease**
+* **Treatment:**  Antibiotics like doxycycline, amoxicillin, or cefuroxime are highly effective in treating Lyme disease. They target the bacteria and prevent further spread.
+* **Early Treatment:**  The earlier Lyme disease is diagnosed and treated, the better the outcome.  
+* **Prognosis:**  With prompt treatment, most people recover fully. However, untreated Lyme disease can lead to long-term complications.
+**Preventing Progression**
+* **Antibiotics are not a preventative measure:**  Antibiotics are only effective against the bacteria *Borrelia burgdorferi* and don't prevent tick bites or infection.
+* **Tick Prevention:**  The most effective way to prevent Lyme disease is to avoid tick bites. This includes:
+    * Wearing protective clothing, especially in wooded or grassy areas.
+    * Using insect repellent containing DEET.
+    * Checking for ticks after being outdoors.
+    * Removing ticks promptly if found.
+**Important Considerations**
+* **Diagnosis:**  Accurate diagnosis is crucial for effective treatment.  
+* **Early Treatment:**  Early treatment is key to preventing long-term complications.
+* **Consult a Doctor:**  If you suspect you may have Lyme disease, consult a healthcare professional immediately.
+**In summary:** Antibiotics are vital for treating Lyme disease and preventing its progression to more serious stages. However, they are not a preventative measure.  The best way to prevent Lyme disease is to avoid tick bites through proper prevention measures. 
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -11109,22 +12683,32 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Will the keflex make me throw up if Ive had a very low food intake?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-**Answer:**
-It's great that you're being proactive about your health!  
-While Keflex (cephalexin) is generally well-tolerated, it's possible that low food intake could increase the risk of experiencing side effects like nausea or vomiting. 
-Here's why:
-* **Digestive System:** Keflex is a broad-spectrum antibiotic that can affect the balance of bacteria in your gut. This can sometimes lead to digestive upset, including nausea and vomiting, especially if your stomach is already empty.
-* **Individual Sensitivity:** Everyone's body reacts differently to medications. Some people are more sensitive to Keflex than others, and low food intake can exacerbate this sensitivity.
-* **Underlying Conditions:** If you have any underlying medical conditions, such as gastrointestinal disorders, low blood sugar, or other digestive issues, it's even more likely that you might experience side effects from Keflex.
+          <t xml:space="preserve">
+I understand you're concerned about potential side effects of Keflex, especially with a low food intake.  
+**It's important to remember that I am not a medical professional and cannot give medical advice.**  
+However, I can provide some general information based on my knowledge of medications and their potential side effects. 
+**Here's what I can tell you about Keflex and its potential side effects:**
+* **Keflex (cephalexin) is an antibiotic.** It's used to treat bacterial infections like ear infections, skin infections, and urinary tract infections.
+* **Common side effects of Keflex can include:**
+    * Nausea and vomiting (though these are less common than other side effects)
+    * Diarrhea
+    * Stomach pain
+    * Headache
+    * Rash
+* **Low food intake can increase the risk of side effects.**  When you don't eat enough, your body may not be able to process medications as effectively, and this can lead to more severe side effects.
 **What to do:**
-* **Talk to your doctor:** The best course of action is to discuss your concerns with your doctor. They can</t>
+* **Talk to your doctor.** They are the best source of information about your specific situation and how Keflex might affect you. 
+* **Discuss your low food intake with your doctor.** They can advise you on how to manage your diet while taking the medication and minimize the risk of side effects.
+* **Follow your doctor's instructions carefully.** This includes taking the medication as prescribed and reporting any side effects you experience.
+**Remember:**
+* **Never stop taking medication without consulting your doctor.**
+* **If you experience severe side effects, seek immediate medical attention.**
+**Disclaimer:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -11161,27 +12745,35 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Would high heart rate be caused by being overweight at all?
-**Answer:**
-Yes, being overweight or obese can absolutely contribute to a high heart rate, even if it's not the sole cause. Here's why:
-**1. Increased Cardiovascular Load:**
-   - Excess weight puts additional strain on your heart. It has to work harder to pump blood through your body, leading to a faster heart rate.
-   - This is especially true for individuals with a high body mass index (BMI).
-**2. Hormonal Changes:**
-   - Being overweight can lead to hormonal imbalances, such as increased levels of cortisol (the stress hormone).
-   - Cortisol can increase heart rate and blood pressure, contributing to a faster heart rhythm.
-**3. Metabolic Changes:**
-   - Excess weight can lead to insulin resistance, which can affect how your body uses glucose for energy.
-   - This can lead to a higher heart rate as your body tries to compensate for the lack of efficient glucose utilization.
-**4. Sleep Apnea:**
-   - Obesity is a risk factor for sleep apnea, a condition where breathing repeatedly stops and starts during sleep.
-   - Sleep apnea can cause a high heart rate during the day due to the body's response to oxygen deprivation.
-**5.</t>
+          <t xml:space="preserve">
+You're right to be curious about the connection between heart rate and weight.  It's a complex relationship, but here's what I can tell you as a doctor:
+**Yes, being overweight can absolutely contribute to a high heart rate (also known as tachycardia).**  Here's why:
+* **Increased Workload:**  Excess weight puts extra strain on your heart. Your heart has to work harder to pump blood throughout your body, leading to a faster heart rate.
+* **Increased Blood Pressure:**  Being overweight often leads to high blood pressure. This puts further stress on your heart, forcing it to beat faster.
+* **Metabolic Changes:**  Excess weight can lead to metabolic changes that increase your heart rate. This can be due to factors like insulin resistance and inflammation.
+* **Hormonal Imbalances:**  Hormones like adrenaline and cortisol, which are released in response to stress, can also contribute to a faster heart rate. Being overweight can lead to hormonal imbalances.
+* **Cardiovascular Disease Risk:**  Being overweight increases your risk of developing cardiovascular disease, which can also lead to a faster heart rate.
+**However, it's important to remember:**
+* **Not everyone with high heart rate is overweight.**  There are many other reasons for a high heart rate, including:
+    * Anxiety
+    * Stress
+    * Fever
+    * Dehydration
+    * Certain medications
+    * Underlying medical conditions like thyroid problems or heart disease
+* **The relationship between weight and heart rate is not always direct.**  While being overweight can contribute to a higher heart rate, it's not the only factor. 
+* **Individual variation is significant.**  Some people are more susceptible to heart rate changes based on their weight than others.
+**What to do if you're concerned:**
+* **Talk to your doctor.**  They can help you determine the cause of your high heart rate and recommend appropriate treatment.
+* **Maintain a healthy weight.**  Losing even a small amount of weight can significantly improve your heart health.
+* **Engage in regular physical activity.**  Exercise can help strengthen your heart and improve its efficiency.
+* **Eat a healthy diet.**  Focus on fruits, vegetables, whole grains, and lean protein.
+**Remember:**  I'm not a substitute for medical advice.  Always consult with your doctor for any health concerns. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -11217,24 +12809,26 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Would it be possible to prescribe something today to help short-term (even a week) for my heart burn?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns.
-**Answer:**
-I understand you're experiencing heartburn and looking for relief. While I can't provide medical advice, I can offer some information about short-term solutions. 
-**Here's what I can tell you:**
-* **Heartburn is a common condition:** It's often caused by acid reflux, where stomach acid flows back up into the esophagus. 
-* **Short-term relief is possible:** There are over-the-counter medications that can provide immediate relief from heartburn symptoms. 
-* **Common options include:**
-    * **Antacids:** These neutralize stomach acid and provide quick relief. Examples include Tums, Rolaids, and Maalox.
-    * **H2 blockers:** These reduce the amount of acid your stomach produces. Examples include Pepcid AC and Zantac.
-    * **Proton pump inhibitors (PPIs):** These are the most effective type of medication for long-term heartburn control. Examples include Prilosec and Nexium.
-* **Important considerations:**
-    * **Underlying</t>
+          <t xml:space="preserve">
+I understand you're looking for relief from heartburn, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  
+**It's crucial to consult a doctor for any health concerns.** They can properly diagnose the cause of your heartburn and recommend the best treatment plan for you. 
+That being said, I can share some general information about heartburn and potential short-term solutions:
+**What is heartburn?**
+Heartburn, also known as acid reflux, is a burning sensation in your chest caused by stomach acid backing up into your esophagus. It's often triggered by eating certain foods, lying down after eating, or stress.
+**Possible short-term solutions:**
+* **Over-the-counter antacids:** These neutralize stomach acid and provide quick relief. Examples include Tums, Rolaids, and Maalox.
+* **H2 blockers:** These reduce the amount of acid your stomach produces. Examples include Pepcid AC and Zantac.
+* **Proton pump inhibitors (PPIs):** These are stronger medications that block acid production. Examples include Prilosec and Nexium.
+**Important considerations:**
+* **Underlying causes:**  Heartburn can be a symptom of a more serious condition, such as gastroesophageal reflux disease (GERD).  A doctor can help determine if this is the case.
+* **Individual needs:**  The best treatment for you will depend on the severity of your heartburn, your medical history, and potential drug interactions.
+* **Long-term solutions:**  While over-the-counter medications can provide temporary relief, addressing the underlying cause is essential for long-term management.
+**Please schedule an appointment with your doctor or a healthcare professional to discuss your heartburn and receive personalized advice.** They can assess your situation, determine the best course of action, and ensure your safety. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -11275,26 +12869,37 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: Would you recommend something a bit stronger than meloxicam?
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with a qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great you're looking for options to manage your pain!  While I can't give specific medical advice, I can offer some general information about stronger pain relievers. 
-**Understanding the Need for Stronger Options:**
-* **Pain Severity:**  Meloxicam is a good starting point for many, but if your pain is severe or doesn't respond well to it, stronger options might be necessary.
-* **Underlying Conditions:**  Certain medical conditions can influence which pain relievers are safe and effective. 
-* **Individual Response:**  Everyone reacts differently to medications. What works for one person might not work for another.
+          <t xml:space="preserve">
+I understand you're looking for stronger pain relief options than meloxicam.  As a helpful and harmless AI, I can't give medical advice.  **It's crucial to consult your doctor for any pain management concerns.** 
+However, I can provide some general information about stronger pain relievers and the factors your doctor will consider:
+**Factors Influencing Stronger Pain Relief:**
+* **Severity of pain:**  The strength of the medication will depend on the intensity and type of pain you're experiencing.
+* **Underlying condition:**  Your doctor will consider the cause of your pain to determine the most appropriate treatment.
+* **Medical history:**  Any pre-existing conditions, allergies, or other medications you're taking will be taken into account.
+* **Potential side effects:**  Stronger medications can have more significant side effects, so your doctor will weigh the benefits against the risks.
 **Possible Stronger Options:**
-* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  These are a common class of pain relievers that work by reducing inflammation.  
-    * **Ibuprofen (Advil, Motrin):**  Available over-the-counter.
-    * **Naproxen (Aleve):</t>
+* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  These are often stronger than meloxicam and can be more effective for pain relief. Examples include:
+    * Ibuprofen (Advil, Motrin)
+    * Naproxen (Aleve)
+    * Diclofenac (Voltaren)
+* **Opioids:**  These are powerful pain relievers that can be effective for severe pain, but they come with a higher risk of addiction and side effects. They are typically reserved for specific situations and require careful monitoring.
+* **Other Medications:**  Your doctor may consider other options depending on your individual needs, such as:
+    * Corticosteroids
+    * Muscle relaxants
+    * Nerve blocks
+**Important Considerations:**
+* **Always follow your doctor's instructions:**  They will prescribe the appropriate dosage and duration of treatment.
+* **Be honest about your pain:**  Provide your doctor with a complete picture of your symptoms and any other medications you're taking.
+* **Don't self-medicate:**  It's dangerous to take stronger medications without a doctor's supervision.
+**Remember:**  Your doctor is your best resource for pain management. They can help you find the most effective and safe treatment for your specific needs. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -11333,22 +12938,28 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: can mouth sore or mouth herpes ever appear on the chin, or NOT on the lips?
-**Please provide a detailed explanation.**
-##  Your Answer:
-Mouth sores, also known as oral ulcers, are caused by a variety of factors, including viral infections, stress, and nutritional deficiencies.  The most common cause is the herpes simplex virus (HSV), which is responsible for both oral herpes (cold sores) and genital herpes. 
-**Here's the breakdown of mouth sores and their potential locations:**
-* **Oral Herpes (Cold Sores):**  These sores typically appear on the lips, around the mouth, and sometimes on the chin. They are caused by the HSV-1 virus. 
-* **Other Causes:**  Other causes of mouth sores include:
-    * **Aphthous Stomatitis:**  These are small, shallow ulcers that can appear anywhere in the mouth, including the chin. They are often triggered by stress, trauma, or nutritional deficiencies.
-    * **Canker Sores:**  These are deeper ulcers that can appear anywhere in the mouth, including the chin. They are often caused by bacteria or viruses.
-    * **Oral Thrush:**  This is a fungal infection that can cause white patches on the tongue, inside of the cheeks, and sometimes the chin.
-**Therefore,</t>
+          <t xml:space="preserve">
+You're asking a great question about the location of oral herpes (cold sores or mouth herpes).  
+**Here's what I can tell you:**
+* **Oral herpes is caused by the herpes simplex virus (HSV).**  There are two main types: HSV-1 (most commonly associated with oral herpes) and HSV-2 (associated with genital herpes).
+* **The virus can cause outbreaks anywhere on the body where there are nerve endings.**  This includes the lips, but it can also appear on other areas of the face, including the chin.
+* **The chin is a common location for oral herpes outbreaks.**  This is because the chin has a lot of nerve endings and is often exposed to the elements.
+* **However, it's not always the case.**  Some people may experience outbreaks on their lips, but not on their chin. 
+**Here's why it might appear on the chin:**
+* **Nerve endings:** The chin has a high concentration of nerve endings, which can be more susceptible to HSV infection.
+* **Facial expressions:**  The chin is often used for facial expressions, which can increase the likelihood of the virus coming into contact with the skin.
+* **Stress and fatigue:**  These factors can weaken the immune system, making it easier for the virus to spread.
+**Here's why it might not appear on the chin:**
+* **Individual susceptibility:**  Some people are more susceptible to outbreaks in certain areas than others.
+* **Virus strain:**  The specific strain of HSV can also influence where outbreaks occur.
+* **Other factors:**  Other factors, such as sun exposure, hormonal changes, and medications, can also play a role.
+**Important Note:**  If you are experiencing any unusual sores or blisters, it's important to see a doctor for diagnosis and treatment.  They can determine the cause and recommend the best course of action. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -11390,21 +13001,27 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: do chlamdia often cure itself or does it cause permanent damage?
-##  Chlamydia: Cure and Long-Term Effects
-Chlamydia is a bacterial infection that can cause serious health problems if left untreated. 
-**Cure:**
-* **Yes, chlamydia is curable.**  Antibiotics, such as azithromycin or doxycycline, are highly effective in treating chlamydia. 
-* **Early treatment is crucial.** The sooner chlamydia is diagnosed and treated, the better the chances of a full recovery. 
-* **Follow your doctor's instructions carefully.**  Complete the full course of antibiotics, even if you start feeling better before finishing.
-**Long-Term Effects:**
-* **Untreated chlamydia can lead to serious complications.** These can include pelvic inflammatory disease (PID), infertility, ectopic pregnancy, and chronic pelvic pain.
-* **If treated promptly, chlamydia rarely causes long-term damage.** 
-* **Regular checkups are important.**  Even if you have been treated for chlamydia, it's important to have regular checkups to ensure your reproductive health.
-**Important Note:**
-* **Chlamydia is a sexually transmitted infection (STI).**  It is important to practice safe sex to prevent transmission.
-* **If you suspect you may have</t>
+          <t xml:space="preserve">
+It's great you're asking about Chlamydia! It's a common sexually transmitted infection (STI) that can have serious consequences if left untreated. 
+Here's the breakdown:
+**Chlamydia does NOT cure itself.**  It's a bacterial infection, and bacteria need antibiotics to be killed. 
+**Untreated Chlamydia can lead to serious complications:**
+* **Pelvic Inflammatory Disease (PID):** This is a serious infection of the female reproductive organs. It can cause pain, fever, and even infertility.
+* **Ectopic Pregnancy:**  Chlamydia can increase the risk of a pregnancy occurring outside the uterus (in the fallopian tubes). This is a life-threatening condition.
+* **Chronic Pain:**  Untreated chlamydia can cause long-term pain in the pelvic area.
+* **Infertility:**  In women, untreated chlamydia can damage the fallopian tubes, making it difficult to get pregnant. In men, it can cause problems with sperm production.
+**Treatment:**
+* **Antibiotics:** Chlamydia is easily treatable with antibiotics. The most common antibiotics used are azithromycin (Zithromax) and doxycycline (Vibramycin).
+* **Follow-up:** It's important to complete the full course of antibiotics as prescribed by your doctor. 
+**Prevention:**
+* **Safe Sex:**  The best way to prevent chlamydia is to practice safe sex. This includes using condoms consistently and correctly.
+* **Regular Testing:**  If you are sexually active, get tested for chlamydia regularly. 
+* **Open Communication:**  Talk to your partner(s) about your sexual history and get tested together.
+**Remember:**
+* **Early detection and treatment are crucial.**  Don't wait to see if symptoms appear. 
+* **Talk to your doctor.** They can provide you with accurate information and treatment options. 
+If you have any concerns about chlamydia or any other STI, please reach out to a healthcare professional. They can provide you with the best advice and care. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -11451,18 +13068,22 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: does a corneal abrasion usually cause discharge from the eye?
-Answer: 
-A corneal abrasion, also known as a scratch, is a painful condition where the clear outer layer of the eye, the cornea, is damaged.  
-**Discharge from the eye is not a typical symptom of a corneal abrasion.** 
+          <t xml:space="preserve">
+As a wise doctor, I can tell you that a corneal abrasion **does not usually cause discharge from the eye**. 
 Here's why:
-* **Corneal abrasions are primarily characterized by pain, redness, and sensitivity to light.** These symptoms are caused by the irritation and inflammation of the cornea.
-* **Discharge from the eye is more commonly associated with infections, such as conjunctivitis (pink eye).**  Conjunctivitis is an inflammation of the conjunctiva, the membrane that lines the inner eyelid and covers the white part of the eye. 
-**However, there are some rare cases where discharge might be present with a corneal abrasion.** This could be due to:
-* **A secondary infection:** If the abrasion is deep or if there is a break in the protective barrier of the eye, bacteria or other microorganisms could enter the eye and cause an infection. This infection could lead to discharge.
-* **Corneal ulcer:** A corneal ulcer is a deeper wound on the cornea that can cause discharge.
-**If you experience any discharge from your eye, especially if it is accompanied by other</t>
+* **Corneal abrasions are superficial injuries:** They involve a scratch or scrape on the surface of the cornea, the clear, dome-shaped front part of the eye. 
+* **Discharge is a sign of infection:**  Discharge from the eye is usually a sign of an infection, such as conjunctivitis (pink eye).  
+* **Corneal abrasions are painful:** They cause pain, redness, and sensitivity to light. 
+**However, there are some exceptions:**
+* **Corneal abrasions can be associated with other eye conditions:**  If a corneal abrasion is caused by an underlying condition like a bacterial or viral infection, it might lead to discharge.
+* **Corneal abrasions can be complicated:** If the abrasion is deep or if it's not treated properly, it can lead to complications like corneal ulcers, which can cause discharge.
+**What to do if you suspect a corneal abrasion:**
+* **See an eye doctor immediately:**  They can diagnose the condition and prescribe the appropriate treatment.
+* **Do not rub your eye:** This can worsen the abrasion and increase the risk of infection.
+* **Apply a cold compress:** This can help reduce pain and inflammation.
+* **Use artificial tears:** These can help keep your eyes lubricated.
+**Remember:**  While corneal abrasions are usually not associated with discharge, it's important to seek medical attention if you experience any unusual symptoms. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -11501,23 +13122,41 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: how would you treat a middle ear infection?
-**Please note:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge purposes only and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment.
-## Middle Ear Infection Treatment: A Doctor's Perspective
-A middle ear infection, also known as otitis media, is a common condition affecting children. It occurs when fluid builds up in the middle ear, often due to a viral or bacterial infection. 
-Here's a breakdown of how I, as a doctor, would approach treating a middle ear infection:
-**1. Diagnosis:**
-* **Physical Examination:** I would begin by examining the patient's ears and throat. I'd look for signs of redness, swelling, and discharge.
-* **Otoscopy:** This is a visual examination of the ear canal and eardrum using an otoscope. It helps identify any fluid buildup or signs of infection.
-* **Tympanometry:** This test measures the pressure in the middle ear and helps determine the severity of the infection.
-* **Hearing Test:** A hearing test can assess the extent of hearing loss caused by the infection.
-**2. Treatment:**
-* **Antibiotics</t>
+          <t xml:space="preserve">
+Ah, a middle ear infection, or otitis media. A common ailment, especially in children.  Let's break down the treatment:
+**First, it's crucial to understand the cause:**
+* **Viral:** Most often, middle ear infections are caused by a viral infection, like a cold or flu. These viruses irritate the Eustachian tube, which connects the middle ear to the back of the throat.
+* **Bacterial:**  Sometimes, a bacterial infection can develop, leading to a more serious case. 
+**Treatment Options:**
+**1.  For Viral Infections:**
+* **Observation:**  Often, viral otitis media resolves on its own within a week or two.  
+* **Pain Relief:** Over-the-counter pain relievers like acetaminophen or ibuprofen can help manage discomfort.
+* **Decongestants:**  Decongestants can help relieve pressure in the Eustachian tube.
+**2. For Bacterial Infections:**
+* **Antibiotics:**  If a bacterial infection is confirmed, your doctor will prescribe antibiotics.  
+    * **Important:** Antibiotics are only effective against bacterial infections. They won't work on viruses.
+    * **Duration:** The course of antibiotics will depend on the severity of the infection and the type of bacteria involved. 
+* **Drainage:** In some cases, your doctor may need to drain fluid from the middle ear to relieve pressure. This is usually done in a doctor's office.
+**3.  Other Considerations:**
+* **Home Remedies:**  While not a substitute for medical treatment, some home remedies can help relieve discomfort:
+    * **Warm Compresses:** Applying a warm compress to the affected ear can help reduce pain and inflammation.
+    * **Saline Drops:**  Using saline drops to clean the ear can help remove mucus and debris.
+    * **Humidifier:**  A humidifier can help add moisture to the air, which can be helpful for people with dry air or allergies.
+* **Prevention:**  
+    * **Handwashing:**  Regular handwashing is crucial to prevent the spread of germs.
+    * **Vaccinations:**  Vaccinations for influenza and other respiratory illnesses can help reduce the risk of infection.
+    * **Avoid Smoking:**  Secondhand smoke can irritate the Eustachian tube.
+    * **Healthy Habits:**  Getting enough sleep, eating a balanced diet, and staying hydrated can help boost your immune system.
+**Important Notes:**
+* **Seek Medical Attention:**  If your child has a fever, ear pain that doesn't improve, or drainage from the ear, it's important to see a doctor promptly.
+* **Follow Instructions:**  Always follow your doctor's instructions regarding medication and treatment.
+* **Don't Delay:**  Early treatment is crucial for preventing complications, such as hearing loss.
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -11556,28 +13195,32 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: if you were to prescribe an antifungal shampoo, are there sulfate free options?
-**Answer:**
-You're smart to ask about sulfate-free options!  Sulfates are common in shampoos, but they can be harsh on the scalp and potentially irritate the skin, especially if you have a fungal infection. 
-**Here's the good news:** Yes, there are many excellent antifungal shampoos that are sulfate-free.  
+          <t xml:space="preserve">
+You're smart to ask about sulfate-free options for antifungal shampoos!  Here's the breakdown:
+**Sulfate-Free Antifungal Shampoos: Yes, They Exist!**
+While sulfates are common in shampoos for their cleansing power, they can sometimes irritate the scalp and potentially hinder the effectiveness of antifungal treatments.  
 **Here's what to look for:**
-* **Active Ingredients:**  The key is to look for shampoos containing antifungal ingredients like:
-    * **Ketoconazole:** A very effective ingredient that's often found in prescription-strength shampoos.
-    * **Selenium sulfide:** Another common ingredient that can be found in over-the-counter antifungal shampoos.
-    * **Clotrimazole:**  Another common antifungal ingredient.
-* **Sulfate-Free:**  Make sure the shampoo is clearly labeled as "sulfate-free."
-* **Gentle Formulas:**  Look for shampoos that are formulated for sensitive scalps or those with dandruff. 
-* **Other Ingredients:**  Some shampoos may contain additional ingredients that can be beneficial, such as:
-    * **Tea tree oil:**  Has antifungal and antibacterial properties.
-    * **Aloe</t>
+* **Look for "sulfate-free" or "sulfate-free and paraben-free" on the label.** This is the most reliable way to ensure the shampoo is free of these potential irritants.
+* **Check the ingredients list.**  You'll want to see if the shampoo contains ingredients known to be effective against fungal infections, such as:
+    * **Ketoconazole:** A common antifungal ingredient found in many shampoos.
+    * **Selenium sulfide:** Another common antifungal ingredient, often used for dandruff.
+    * **Zinc pyrithione:**  Effective against a variety of fungal infections.
+    * **Coal tar:**  Used for scalp conditions like seborrheic dermatitis.
+* **Consider the shampoo's pH level.**  Antifungal shampoos are often formulated to be slightly acidic (pH 4-5) to help balance the scalp's pH and create an environment less hospitable to fungi.
+**Important Considerations:**
+* **Consult a dermatologist:**  If you have a persistent fungal infection, it's crucial to consult a dermatologist for proper diagnosis and treatment. They can recommend the most effective antifungal shampoo for your specific condition.
+* **Follow the instructions:**  Use the shampoo as directed, and don't overuse it. 
+* **Be patient:**  It may take a few weeks to see results. 
+**Remember:**  Antifungal shampoos are not a cure-all. They can help manage symptoms and prevent the spread of fungal infections, but they may not be effective for everyone. 
+Let me know if you have any other questions! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -11617,23 +13260,23 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: is Bacterial Vaginosis an STD?
-**Answer:**
-Bacterial Vaginosis (BV) is **not** considered an STD (Sexually Transmitted Disease). 
+          <t xml:space="preserve">
+You're asking a great question that gets to the heart of how we understand and categorize infections. 
+Here's the breakdown:
+**Bacterial Vaginosis (BV) is NOT an STD (Sexually Transmitted Disease) in the traditional sense.**
 Here's why:
-* **Cause:** BV is caused by an imbalance of bacteria in the vagina. It's not caused by a sexually transmitted pathogen like bacteria, viruses, or parasites.
-* **Transmission:** BV is not spread through sexual contact. It's more likely to occur due to factors like:
-    * Changes in vaginal pH
-    * Use of certain douches or feminine hygiene products
-    * Certain medical conditions
-* **Symptoms:** BV is characterized by a fishy odor, vaginal discharge, and itching. 
-* **Treatment:** BV is treated with antibiotics.
-**Important Notes:**
-* While BV is not an STD, it can be a symptom of other health issues, so it's important to see a doctor for diagnosis and treatment.
-* BV is common, affecting up to 50% of women at some point in their lives. 
-* If you have concerns about BV or any other vaginal health issues, please consult a healthcare professional.
-Let me know if you have any other questions. 
+* **BV is a vaginal condition:** It's caused by an imbalance of bacteria in the vagina, leading to an overgrowth of certain bacteria. 
+* **It's not caused by a sexually transmitted pathogen:**  Unlike STDs like chlamydia, gonorrhea, or herpes, BV is not caused by a sexually transmitted pathogen. 
+* **It's more common in women who have had multiple sexual partners:**  BV is more prevalent in women who have had multiple sexual partners, but it can also occur in women who have never had sex.
+* **It's treatable:** BV is treatable with antibiotics.
+**However, it's important to understand the connection:**
+* **BV can be a risk factor for STDs:**  BV can increase the risk of contracting certain STDs, such as HIV. This is because an imbalance in vaginal bacteria can make the vagina more susceptible to infection.
+* **BV can be a symptom of other conditions:**  BV can sometimes be a symptom of other conditions, such as pelvic inflammatory disease (PID).
+**In summary:**
+* BV is a vaginal condition, not an STD.
+* It's caused by an imbalance of bacteria, not a sexually transmitted pathogen.
+* BV can increase the risk of contracting STDs, but it's not an STD itself.
+**If you have concerns about BV or any other vaginal health issue, it's crucial to consult a healthcare professional.** They can provide accurate diagnosis, treatment, and advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11675,17 +13318,23 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: is it okay to take imodium long term?
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information below is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment.
-**Answer:**
-It's great that you're thinking about the long-term use of Imodium.  While it's a very effective over-the-counter medication for occasional diarrhea, using it long-term can have potential downsides. 
-Here's what you need to know:
-**Potential Benefits:**
-* **Relief from acute diarrhea:** Imodium (loperamide) is a powerful anti-diarrheal medication that can effectively reduce the frequency and severity of diarrhea episodes. 
-* **Improved quality of life:**  For individuals experiencing frequent or severe diarrhea, Imodium can significantly improve their quality of life by reducing discomfort and allowing them to resume normal activities.
-**Potential Risks and Concerns:**
-* **Tolerance and dependence:** Prolonged use of Imodium can lead to tolerance, meaning your body adapts to the medication and requires higher doses to achieve the same effect. This can lead to dependence and make it difficult to stop using</t>
+          <t xml:space="preserve">
+I understand you're curious about taking Imodium long-term.  While I can provide information, I am not a medical professional and cannot give medical advice.  
+**Here's what I can tell you about long-term use of Imodium:**
+* **It's not designed for long-term use:** Imodium (loperamide) is a medication for temporary relief of diarrhea. It works by slowing down the movement of your intestines, which can help reduce diarrhea. However, it's not meant for long-term use because it can lead to dependence and other side effects.
+* **Potential side effects:**  Long-term use of Imodium can lead to:
+    * **Dependence:** Your body can become accustomed to the medication, requiring higher doses to achieve the same effect.
+    * **Nutrient deficiencies:**  Diarrhea can lead to dehydration and nutrient loss, and Imodium can worsen this.
+    * **Liver problems:**  In rare cases, prolonged use of loperamide can cause liver damage.
+    * **Other side effects:**  These can include constipation, stomach pain, and dizziness.
+* **Underlying causes:**  It's important to address the underlying cause of your diarrhea.  If it's a temporary issue, like a food poisoning or a viral infection, Imodium might be helpful for a short period.  However, if it's a chronic condition, you need to consult a doctor to find a more appropriate treatment.
+* **Alternatives:**  There are other medications and lifestyle changes that can help manage diarrhea.  Your doctor can recommend the best option for you.
+**What you should do:**
+* **Talk to your doctor:**  If you're experiencing frequent or persistent diarrhea, it's crucial to consult your doctor. They can help determine the cause and recommend the best treatment plan.
+* **Don't self-medicate:**  Taking Imodium long-term without a doctor's guidance can be harmful. 
+* **Follow your doctor's instructions:**  If your doctor prescribes Imodium, follow their instructions carefully and don't exceed the recommended dosage.
+Remember, your health is paramount. Always consult a medical professional for personalized advice and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -11729,24 +13378,34 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: is there any specific brand you recommend for the omeprazole?
-I am a patient who is suffering from GERD and looking for a brand that is effective and safe.
-**Please note:** I am not a medical professional and this information is not a substitute for medical advice. Always consult with your doctor or pharmacist before starting any new medication.
-**Answer:**
-As a wise doctor, I understand your concern about finding the right omeprazole brand for your GERD.  
-While I can't recommend specific brands, I can offer some guidance:
-**1.  Prescription is Key:**  Omeprazole is a prescription medication, and it's crucial to get it from a licensed pharmacy. This ensures you receive the correct dosage and that the medication is safe for you.
-**2.  Your Doctor is Your Best Resource:**  Your doctor is the best person to recommend a brand of omeprazole that's right for you. They will consider your individual medical history, current medications, and potential drug interactions.
-**3.  Generic vs. Brand Name:**  Omeprazole is available in both generic and brand-name forms. Generic versions are typically less expensive, but they may have slightly different formulations. 
-**4.  Quality and Safety:**  Regardless of the brand, all</t>
+          <t xml:space="preserve">
+I understand you're looking for information about omeprazole brands.  
+As a helpful and harmless AI, I can't give medical advice, and that includes recommending specific brands of medication.  
+Here's why:
+* **Every person is different:** What works for one person might not work for another. Factors like your individual health history, other medications you're taking, and potential drug interactions all play a role.
+* **Safety and efficacy:**  The effectiveness and safety of a medication depend on its formulation and dosage.  A doctor needs to assess your specific needs to determine the best option for you.
+* **Ethical considerations:**  Recommending a specific brand could be misconstrued as a professional endorsement, which I'm not qualified to give.
+**What I can do is provide you with general information about omeprazole:**
+* **Omeprazole is a proton pump inhibitor (PPI).** It's used to treat conditions like:
+    * **Gastroesophageal reflux disease (GERD):**  Heartburn and acid reflux.
+    * **Peptic ulcers:** Sores in the stomach or duodenum.
+    * **Zollinger-Ellison syndrome:** A rare condition causing excessive stomach acid production.
+* **Generic omeprazole is widely available and often the most affordable option.** 
+* **Brand-name omeprazole may offer different formulations or additional features.**  
+**The best way to get information about omeprazole brands is to talk to your doctor.** They can:
+* **Assess your individual needs.**
+* **Determine the best brand and dosage for you.**
+* **Address any potential drug interactions.**
+* **Provide you with information about the specific brand you're considering.**
+Remember, your doctor is your best resource for safe and effective medication management. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -11779,23 +13438,33 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: what causes ringworm ?
-**Answer:**
-Ringworm, also known as tinea, is a fungal infection that affects the skin, hair, and nails. It's not actually caused by a worm, but by a type of fungus called dermatophytes. 
-Here's a breakdown of the causes:
-**1. Dermatophytes:** These are fungi that thrive in warm, moist environments. They can be found on the skin, hair, and nails of humans and animals. 
-    * **Types:** There are several types of dermatophytes, each causing different types of ringworm. The most common types include:
-        * *Trichophyton:* Causes the most common type of ringworm, affecting the skin.
-        * *Microsporum:* Causes ringworm of the scalp, beard, and other hair-covered areas.
-        * *Epidermophyton:* Causes ringworm of the feet and other areas with skin folds.
-**2. Transmission:**  Dermatophytes spread through direct contact with an infected person, animal, or object. This can happen through:
-    * **Skin-to-skin contact:** Touching an infected person or animal.
-    * **Sharing personal items:** Towels, clothing, combs, brushes, and</t>
+          <t xml:space="preserve">
+Ah, ringworm. A common name for a fungal infection, but a rather misleading one.  Let's clear up the confusion:
+**Ringworm is not caused by a worm, but by a fungus.**  
+Here's a breakdown of what causes it:
+* **The culprit:**  The fungus responsible for ringworm is called *dermatophyte*.  There are many different species, and they thrive in warm, moist environments.
+* **Transmission:**  Ringworm spreads through direct contact with an infected person, animal, or object.  This can happen through:
+    * Touching an infected person or animal.
+    * Sharing personal items like towels, clothing, or combs.
+    * Contact with contaminated surfaces like floors, showers, or gym equipment.
+* **Vulnerable areas:**  Ringworm often affects areas with hair, skin folds, and moist environments like the scalp, groin, feet, and nails.
+* **Not contagious:**  It's important to note that ringworm is not contagious in the same way that a cold or flu is. You can't catch it from someone else. However, it can spread easily within a community.
+**Factors that can increase your risk:**
+* **Weakened immune system:**  People with compromised immune systems are more susceptible to fungal infections.
+* **Warm, humid environments:**  These conditions create a favorable environment for fungal growth.
+* **Sharing personal items:**  This increases the chances of coming into contact with the fungus.
+* **Contact with animals:**  Pets can carry ringworm, especially if they're not properly cared for.
+**Remember:**
+* Ringworm is a fungal infection, not a worm.
+* It's not contagious in the same way as a cold or flu.
+* It can be treated with antifungal medications.
+If you suspect you have ringworm, it's important to see a doctor for proper diagnosis and treatment. 
+Let me know if you have any other questions. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -11835,29 +13504,44 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: what is the difference between fissure vs hemorrhoids?
-##  I understand. Let's break down the differences between fissures and hemorrhoids.
-**Fissures**
-* **Definition:** A fissure is a small tear in the lining of the anal canal, the passageway between the rectum and the anus. 
-* **Causes:**  Fissures are often caused by straining during bowel movements, constipation, diarrhea, or even childbirth.
+          <t xml:space="preserve">
+Ah, a question that plagues many! Let's break down the differences between fissures and hemorrhoids, two common conditions affecting the anal region.
+**Fissures:**
+* **Definition:** A fissure is a small tear in the lining of the anal canal, the passageway leading from the anus to the rectum. 
+* **Causes:**  Fissures are often caused by straining during bowel movements, constipation, diarrhea, or even childbirth. 
 * **Symptoms:**  
     * Painful, often burning sensation during bowel movements.
-    * Bleeding during bowel movements.
-    * Itching around the anus.
+    * Bleeding, which can be bright red or dark.
+    * Itching or irritation around the anus.
+    * A feeling of incomplete evacuation.
 * **Treatment:**  
-    * Over-the-counter pain relievers.
-    * Stool softeners.
-    * Topical creams to reduce inflammation.
-    * In severe cases, surgery may be necessary.
-**Hemorrhoids**
-* **Definition:** Hemorrhoids are swollen veins in the rectum and anus. 
-* **Causes:**  Hemorrhoids can be caused by prolonged sitting or standing, obesity, pregnancy, and straining during bowel movements.
-* **Symptoms:** 
+    * **Lifestyle changes:**  Increasing fiber intake, drinking plenty of water, and using stool softeners can help prevent and manage fissures.
+    * **Topical creams:**  These can help soothe the pain and reduce inflammation.
+    * **Prescription medications:**  In some cases, stronger medications may be prescribed to reduce pain and inflammation.
+    * **Surgery:**  In severe cases, surgery may be necessary to repair the fissure.
+**Hemorrhoids:**
+* **Definition:** Hemorrhoids are swollen veins in the rectum and anus. They can be internal (inside the rectum) or external (outside the anus).
+* **Causes:**  Hemorrhoids are often caused by prolonged straining during bowel movements, pregnancy, obesity, and chronic constipation.
+* **Symptoms:**
     * Painless, often itchy sensation around the anus.
-    * Bleeding during bowel movements.
+    * Bleeding during bowel movements, which can be bright red or dark.
     * Lump or bulge in the anal area.
-*</t>
+    * Itching or irritation around the anus.
+* **Treatment:**
+    * **Lifestyle changes:**  Increasing fiber intake, drinking plenty of water, and using stool softeners can help prevent and manage hemorrhoids.
+    * **Topical creams:**  These can help soothe the pain and reduce inflammation.
+    * **Prescription medications:**  In some cases, stronger medications may be prescribed to reduce pain and inflammation.
+    * **Rubber band ligation:**  A procedure where a rubber band is placed around the base of the hemorrhoid to cut off blood supply.
+    * **Sclerotherapy:**  A procedure where a solution is injected into the hemorrhoid to shrink it.
+    * **Hemorrhoidectomy:**  A surgical procedure to remove the hemorrhoid.
+**Key Differences:**
+* **Location:** Fissures are tears in the anal canal lining, while hemorrhoids are swollen veins in the anal area.
+* **Pain:** Fissures are often painful, while hemorrhoids can be painful or itchy.
+* **Bleeding:** Both can cause bleeding, but fissures are more likely to bleed bright red blood.
+* **Treatment:**  Treatment for fissures and hemorrhoids can be similar, but the specific approach may vary depending on the severity of the condition.
+**Important Note:**  It's crucial to consult a doctor for proper diagnosis and treatment. Self-treating can be dangerous and may worsen the condition. 
+Let me know if you have any other questions. I'm here to help! 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -11900,25 +13584,34 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>&lt;bos&gt;you are a wise doctor and you knowledge is very high in medical domain, tell me whatever you know about the given question
-question: would standard urinalysis detect kidney stones?
-**Answer:**
-A standard urinalysis is **not** a reliable method for detecting kidney stones. 
-Here's why:
-* **Urinalysis focuses on urine composition:**  A urinalysis primarily looks for abnormalities in the urine's appearance, color, odor, and chemical composition. It checks for things like blood, protein, glucose, and specific gravity. 
-* **Kidney stones are not always visible:** Kidney stones are hard mineral deposits that can be difficult to see in the urine. They may be too small or too well-integrated with the urine to be detected by a standard urinalysis.
-* **Stones can be present without symptoms:** Many people have kidney stones without experiencing any symptoms. 
-* **Other causes of abnormalities:**  A urinalysis can show abnormalities that are unrelated to kidney stones, such as urinary tract infections or other conditions.
+          <t xml:space="preserve">
+That's a great question!  While a standard urinalysis can be a helpful tool in the initial assessment of kidney stones, it's not always a definitive test. Here's a breakdown:
+**What a standard urinalysis can detect:**
+* **Blood:**  A high level of blood in the urine can indicate kidney stones, as they can cause damage to the kidneys and lead to bleeding.
+* **Protein:**  Increased protein in the urine can be a sign of kidney damage, which can be caused by kidney stones.
+* **Glucose:**  High glucose levels in the urine can indicate diabetes, which can also lead to kidney stones.
+* **White blood cells:**  An elevated white blood cell count in the urine can suggest infection, which can be a complication of kidney stones.
+* **Nitrites:**  The presence of nitrites in the urine can indicate a urinary tract infection (UTI), which can be associated with kidney stones.
+**What a standard urinalysis cannot detect:**
+* **Specific stone composition:**  A urinalysis can't tell you what type of stone you have (calcium oxalate, uric acid, struvite, etc.). This information is crucial for treatment.
+* **Stone size:**  The urinalysis can't determine the size of the stones, which is important for understanding the severity of the condition.
+* **Stone location:**  The urinalysis can't pinpoint the location of the stones in the kidney.
+* **Presence of calcium oxalate crystals:**  While a urinalysis can detect the presence of protein and blood, it can't specifically identify calcium oxalate crystals, which are a common type of kidney stone.
 **What to do if you suspect kidney stones:**
-* **Consult a doctor:** If you suspect you have kidney stones, it's crucial to see a doctor. They can order more specific tests, such as:
-    * **Urine analysis with a stone detector:** This test uses a special reagent to detect the presence of calcium oxalate crystals, the most common</t>
+* **Consult a doctor:**  If you experience symptoms like severe pain in your back or side, blood in your urine, frequent urination, or pain during urination, it's crucial to see a doctor.
+* **Imaging tests:**  Your doctor may order imaging tests like an X-ray, ultrasound, or CT scan to visualize the stones and determine their size and location.
+* **Urine analysis:**  A urinalysis can be helpful in identifying potential complications and guiding treatment.
+**In summary:**
+A standard urinalysis can be a valuable initial step in assessing kidney stones, but it's not a definitive test. It can help identify some potential complications and guide further investigations.  For a complete diagnosis and treatment plan, you'll need a combination of tests, including imaging and potentially a kidney biopsy. 
+Remember, I am an AI and cannot provide medical advice. Always consult a qualified healthcare professional for diagnosis and treatment. 
+&lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
+++ b/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
@@ -515,40 +515,55 @@
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're seeking information about Lexapro!  It's a common medication for depression and anxiety, and understanding it is important. 
+It's great that you're seeking information about Lexapro! It's a common medication for depression and anxiety, and understanding it is important for anyone taking it. 
 **Here's what I can tell you about Lexapro (escitalopram):**
 **What is Lexapro?**
 * Lexapro is an antidepressant medication belonging to a class of drugs called selective serotonin reuptake inhibitors (SSRIs). 
 * It works by increasing the levels of serotonin in the brain, a neurotransmitter that plays a role in mood regulation.
 **How is it used?**
-* Lexapro is prescribed for:
-    * **Major Depressive Disorder (MDD):**  It's used to treat moderate to severe depression.
-    * **Generalized Anxiety Disorder (GAD):** It can help manage excessive worry and anxiety.
-    * **Social Anxiety Disorder:** It can help reduce social anxiety symptoms.
-    * **Panic Disorder:** It can help manage panic attacks.
+* Lexapro is prescribed for the treatment of:
+    * Major depressive disorder (MDD)
+    * Generalized anxiety disorder (GAD)
+    * Panic disorder
+    * Social anxiety disorder
+    * Obsessive-compulsive disorder (OCD)
+* It's typically taken once a day, usually in the morning.
 **How does it work?**
-* Lexapro works by affecting the way serotonin is processed in the brain. It prevents the reabsorption of serotonin, allowing it to stay in the brain longer and have a greater impact.
+* Lexapro increases serotonin levels in the brain, which helps to improve mood, reduce anxiety, and alleviate symptoms of depression.
+* It's important to note that Lexapro doesn't work instantly. It typically takes several weeks for the full effects to be felt.
+**Potential Side Effects:**
+* Like all medications, Lexapro can cause side effects. Some common ones include:
+    * Nausea
+    * Diarrhea
+    * Insomnia
+    * Dry mouth
+    * Headache
+    * Dizziness
+    * Sexual problems
+* Less common but more serious side effects include:
+    * Suicidal thoughts or actions (especially in young adults)
+    * Serotonin syndrome (a rare but potentially life-threatening condition)
+* It's crucial to discuss any side effects you experience with your doctor.
 **Important Considerations:**
-* **Prescription Only:** Lexapro is a prescription medication and should only be taken under the guidance of a healthcare professional.
-* **Side Effects:** Like all medications, Lexapro can cause side effects. Common ones include:
-    * Nausea
-    * Dry mouth
-    * Insomnia
-    * Dizziness
-    * Headache
-    * Sexual problems
-* **Withdrawal Symptoms:** Abruptly stopping Lexapro can lead to withdrawal symptoms, so it's crucial to follow your doctor's instructions for tapering off the medication.
+* **Dosage:** The dosage of Lexapro is individualized based on your specific needs and medical history. 
+* **Withdrawal:** Abruptly stopping Lexapro can lead to withdrawal symptoms, so it's important to taper off the medication under your doctor's supervision.
+* **Pregnancy and Breastfeeding:** Lexapro is not recommended for pregnant or breastfeeding women.
 * **Drug Interactions:** Lexapro can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
-* **Pregnancy and Breastfeeding:** Lexapro is not recommended for pregnant or breastfeeding women.
-* **Individualized Treatment:** The effectiveness of Lexapro can vary from person to person. It may take several weeks or months to see the full effects.
-**Important Note:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. 
-**To get the most accurate and personalized information about Lexapro, please consult with your doctor or a qualified healthcare professional.** They can assess your individual needs, discuss potential benefits and risks, and determine if Lexapro is the right treatment for you. 
-Remember, seeking professional medical advice is crucial for safe and effective treatment. 
+**Remember:**
+* This information is for general knowledge only and should not be considered medical advice. 
+* It's essential to consult with your doctor or a qualified healthcare professional for personalized guidance and treatment. 
+* They can assess your individual needs, determine the appropriate dosage, monitor for side effects, and address any concerns you may have.
+**Where to Find More Information:**
+* **Your Doctor:** Your doctor is the best source of information about Lexapro and your specific treatment plan.
+* **National Institute of Mental Health (NIMH):** https://www.nimh.nih.gov/
+* **National Alliance on Mental Illness (NAMI):** https://www.nami.org/
+* **Anxiety and Depression Association of America (ADAA):** https://adaa.org/ 
+I hope this information is helpful. Please remember that seeking professional medical advice is crucial for your health and well-being. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -587,28 +602,30 @@
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about treating scabies with oral medications.  
-It's important to note that I am an AI and cannot provide medical advice.  **Always consult a healthcare professional for diagnosis and treatment of scabies.** 
-That being said, I can share some general information about oral medications for scabies:
-**Oral medications are not the primary treatment for scabies.**  They are typically used in conjunction with topical treatments, like permethrin cream, to ensure complete eradication of the mites and their eggs. 
-Here's what you should know:
-* **Oral medications are less common:**  They are often reserved for specific situations, such as severe cases or when topical treatments are ineffective.
-* **They work by targeting the mites:**  These medications can kill the adult mites and eggs, but they may not be as effective as topical treatments in eliminating the infestation.
-* **They can have side effects:**  Like any medication, oral treatments for scabies can have side effects, including nausea, vomiting, and diarrhea.
-* **They require a prescription:**  You must consult a doctor to determine if oral medication is appropriate for you.
-**Here are some oral medications that may be prescribed for scabies:**
-* **Ivermectin:**  This medication is often used for scabies, but it's important to follow your doctor's instructions carefully.
-* **Other medications:**  Your doctor may prescribe other medications depending on your individual needs and the severity of your scabies.
-**Remember:**
-* **Early diagnosis and treatment are crucial:**  Scabies can spread quickly, so it's important to seek medical attention as soon as possible.
-* **Follow your doctor's instructions:**  This includes taking the medication as prescribed and completing the full course of treatment.
-* **Practice good hygiene:**  Washing bedding and clothing in hot water and drying them on high heat can help prevent the spread of scabies.
-**Please schedule an appointment with your doctor or a dermatologist to discuss your scabies and get the best treatment plan for you.** 
+I understand you're looking for information about treating scabies, and you're interested in oral options.  
+**It's important to know that I am not a medical professional, and this information is not a substitute for advice from a doctor.**  Scabies is a serious condition that requires proper diagnosis and treatment. 
+That being said, here's what I can tell you about scabies treatment:
+**Scabies is a contagious skin infestation caused by the mite Sarcoptes scabiei.**  It's spread through direct skin-to-skin contact with an infected person. 
+**Traditional Treatment:**
+* **Topical Medications:** The most common and effective treatment for scabies is topical medications containing permethrin or crotamiton. These are applied directly to the skin and kill the mites and their eggs. 
+* **Oral Medications:**  While oral medications are sometimes used in severe cases, they are not the first-line treatment for scabies. They are typically reserved for individuals who have difficulty using topical treatments or have a severe infestation.
+**Oral Options:**
+* **Ivermectin:** Ivermectin is an antiparasitic medication that is sometimes used to treat scabies. It is typically prescribed in oral form. 
+* **Other Oral Medications:** There are other oral medications that are being researched for the treatment of scabies, but they are not yet widely available.
+**Important Considerations:**
+* **Diagnosis:** It's crucial to get a proper diagnosis from a doctor before starting any treatment. Scabies can be easily confused with other skin conditions.
+* **Treatment Duration:**  Treatment for scabies usually involves a course of topical medications applied to the skin. It's important to follow the doctor's instructions carefully and complete the entire course of treatment.
+* **Household Treatment:**  It's important to treat everyone in the household who has been exposed to scabies, as the mites can spread easily. 
+* **Side Effects:**  Some medications used to treat scabies can have side effects. It's important to discuss any potential side effects with your doctor.
+**Where to Get Help:**
+* **Your Doctor:** The best source of information and treatment for scabies is your doctor. They can diagnose the condition, prescribe the appropriate treatment, and provide guidance on how to prevent the spread of scabies.
+* **Local Health Department:** Your local health department may offer free or low-cost treatment for scabies.
+**Remember:**  Scabies is a serious condition that can be easily spread. It's important to seek medical attention if you suspect you have scabies. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -650,21 +667,21 @@
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about being contagious with a respiratory infection.  Unfortunately, I can't give you a diagnosis. I'm an AI, not a doctor! 
-**Here's what I can tell you to help you understand the situation better:**
-* **Contagiousness varies:**  Many respiratory infections are contagious, meaning you can spread them to others.  However, the contagiousness depends on the specific infection, its severity, and how long you've been sick.
-* **Symptoms are key:**  The most important thing is to identify the symptoms you're experiencing.  Common respiratory infections include:
-    * **Common cold:**  Runny nose, sore throat, cough, congestion.
-    * **Flu (influenza):**  Fever, chills, muscle aches, cough, sore throat, headache, fatigue.
-    * **COVID-19:**  Fever, cough, shortness of breath, fatigue, loss of taste or smell.
-* **Testing is crucial:**  If you're concerned about being contagious, the best thing to do is get tested.  A doctor can determine the specific infection and advise you on how to manage it and prevent spreading it.
-* **Isolation is important:**  If you have a contagious respiratory infection, it's important to isolate yourself from others to prevent spreading the infection.  This means staying home, avoiding contact with others, and wearing a mask if necessary.
-**What to do:**
-1. **See a doctor:**  The best way to know if you're contagious is to see a doctor. They can assess your symptoms, perform a test if needed, and provide personalized advice.
-2. **Stay home:**  If you're sick, stay home to avoid spreading the infection.
-3. **Practice good hygiene:**  Wash your hands frequently, cover your coughs and sneezes, and avoid touching your face.
-4. **Get vaccinated:**  Vaccines can help prevent many respiratory infections, including the flu and COVID-19.
-Remember, I'm not a doctor, and this information is not a substitute for professional medical advice. Please consult a healthcare professional for any health concerns. 
+I understand you're concerned about being contagious with a respiratory infection.  Unfortunately, I can't give you a definitive answer without more information.  
+Here's why:
+* **I'm not a medical professional.** I'm an AI, and while I can access and process information, I can't diagnose medical conditions. 
+* **Many respiratory infections are common.**  There are many viruses and bacteria that can cause respiratory illnesses, and symptoms can overlap. 
+* **Contagiousness varies.**  The contagiousness of an infection depends on the specific virus or bacteria, the severity of the illness, and individual factors like your immune system.
+**To determine if you're contagious, you need to consider:**
+1. **Your symptoms:**  What are your specific symptoms?  Common respiratory symptoms include cough, sore throat, runny nose, fever, and shortness of breath. 
+2. **When did your symptoms start?**  The incubation period for many respiratory infections is 2-14 days.
+3. **Your recent exposure:**  Have you been around people who are sick?
+4. **Your medical history:**  Do you have any underlying health conditions that might make you more susceptible to infection?
+**What you should do:**
+* **Consult a doctor:**  The best way to know if you're contagious is to see a doctor. They can assess your symptoms, determine the cause, and advise you on the appropriate course of action.
+* **Isolate yourself:**  If you suspect you have a contagious respiratory infection, it's important to isolate yourself from others to prevent spreading the illness.
+* **Practice good hygiene:**  Wash your hands frequently, cover your coughs and sneezes, and avoid touching your face.
+**Remember:**  I can't provide medical advice.  Please seek professional medical help for a proper diagnosis and treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -672,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -728,40 +745,40 @@
     * **Initial outbreak:**  Painful, fluid-filled blisters or sores on or around the genitals, anus, or mouth.
     * **Recurring outbreaks:**  Blisters may appear and disappear, or they may be more frequent and severe.
     * **No symptoms:**  Many people with herpes have no symptoms at all.
-* **Treatment:**  Antiviral medications can reduce the frequency and severity of outbreaks. There is no cure for herpes.
-* **Complications:**  
-    * **Transmission to others:**  Herpes is highly contagious.
-    * **Complications during pregnancy:**  Herpes can be transmitted to the baby during childbirth.
-    * **Mental health:**  Living with herpes can be emotionally challenging.
+* **Treatment:**  Antiviral medications can reduce the frequency and severity of outbreaks, but there is no cure.
+* **Complications:**  While rare, complications can include:
+    * **Eye infections:**  Herpes can spread to the eyes, causing corneal ulcers.
+    * **Brain infections:**  Rare but serious, especially in newborns.
+    * **Mental health issues:**  Stress and anxiety can be exacerbated by the condition.
 **HPV (Human Papillomavirus)**
 * **Cause:**  A group of over 200 different types of viruses. Some types are high-risk and can cause cancer, while others are low-risk and cause no health problems.
 * **Transmission:**  Direct skin-to-skin contact, including sexual activity.
 * **Symptoms:**  
-    * **Most HPV infections are asymptomatic:**  They clear up on their own without causing any symptoms.
+    * **Most HPV infections are asymptomatic:**  They clear up on their own without causing any noticeable symptoms.
     * **Genital warts:**  Small, fleshy growths on the genitals, anus, or mouth.
     * **Cervical cancer:**  High-risk HPV types can cause cervical cancer.
 * **Treatment:**  
     * **Genital warts:**  Can be treated with topical medications or cryotherapy (freezing).
-    * **Cervical cancer:**  Treatment depends on the stage of the cancer.
-* **Complications:**  
-    * **Cervical cancer:**  Can be fatal if not detected and treated early.
-    * **Other cancers:**  Some HPV types can cause cancers of the anus, vulva, vagina, penis, and throat.
+    * **Cervical cancer:**  Treatment depends on the stage of the cancer, but may include surgery, radiation therapy, or chemotherapy.
+* **Prevention:**  
+    * **HPV vaccine:**  Highly effective in preventing infection with high-risk HPV types.
+    * **Safe sex practices:**  Using condoms can reduce the risk of HPV transmission.
 **Key Differences:**
 * **Cause:** Herpes is caused by a virus, while HPV is a group of viruses.
-* **Symptoms:** Herpes often causes painful blisters, while HPV can cause no symptoms or genital warts.
-* **Treatment:** Herpes is treated with antiviral medications, while HPV treatment depends on the type and severity.
-* **Complications:** Herpes can be transmitted to others and cause complications during pregnancy, while HPV can cause cervical cancer and other cancers.
+* **Symptoms:** Herpes often causes painful blisters, while HPV can cause genital warts or cervical cancer.
+* **Treatment:** Herpes has antiviral medications, while HPV treatment depends on the type and severity.
+* **Prevention:** The HPV vaccine is highly effective, while condoms can reduce the risk of both herpes and HPV.
 **Important Notes:**
-* **Testing:**  It's important to get tested for both herpes and HPV if you have concerns.
-* **Prevention:**  Using condoms can help prevent both herpes and HPV.
-* **Vaccination:**  The HPV vaccine is highly effective in preventing HPV infection.
-* **Early Detection:**  Regular Pap smears are recommended for women to detect cervical cancer caused by HPV.
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+* **Both herpes and HPV can be managed effectively.**
+* **Early diagnosis and treatment are crucial for both conditions.**
+* **Regular STI testing is essential for everyone, especially those who are sexually active.**
+* **If you have any concerns about your sexual health, please consult a healthcare professional.**
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -807,30 +824,36 @@
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're in pain!  It's no fun dealing with cold sores and mouth ulcers.  While I can't give medical advice, I can tell you about common treatments and what to discuss with your doctor. 
-**Here's what I can tell you about cold sores and mouth ulcers:**
-**Cold Sores:**
-* **Cause:**  Cold sores are caused by the herpes simplex virus (HSV).  They are highly contagious and can be triggered by stress, sun exposure, or even a weakened immune system.
-* **Treatment:**  There are antiviral medications that can help shorten the duration and severity of outbreaks.  Your doctor can prescribe these, and they're often most effective when started early in the outbreak.
-* **Over-the-counter options:**  Some over-the-counter creams and ointments can help soothe the pain and reduce the appearance of cold sores.  Look for products containing docosanol, which is a natural antiviral.
-**Mouth Ulcers:**
-* **Cause:**  Mouth ulcers, also known as canker sores, are small, painful sores that appear inside the mouth.  They can be caused by stress, injury, or an overactive immune system.
-* **Treatment:**  There are various over-the-counter remedies that can help soothe the pain and speed up healing.  These include:
-    * **Anti-inflammatory medications:**  Over-the-counter pain relievers like ibuprofen or naproxen can help reduce inflammation.
-    * **Mouthwashes:**  Some mouthwashes contain ingredients like benzocaine or lidocaine that can numb the pain.
-    * **Saline rinses:**  Rinsing your mouth with warm salt water can help clean the area and reduce inflammation.
-* **Prescription options:**  In some cases, your doctor may prescribe stronger medications, such as topical corticosteroids or antibiotics, if the ulcer is severe or doesn't respond to over-the-counter treatments.
-**What to do:**
-1. **See your doctor:**  It's important to see your doctor to get a proper diagnosis and discuss the best treatment options for you.  They can also help rule out any underlying medical conditions that may be contributing to your symptoms.
-2. **Don't self-medicate:**  While over-the-counter remedies can be helpful, it's important to avoid self-medicating.  Some medications can interact with other medications you're taking, and some can have side effects.
-3. **Practice good hygiene:**  Wash your hands frequently and avoid touching your mouth or sores.  This can help prevent the spread of cold sores and mouth ulcers.
-4. **Manage stress:**  Stress can trigger outbreaks of cold sores and mouth ulcers.  Try to find healthy ways to manage stress, such as exercise, yoga, or meditation.
-Remember, I'm not a doctor, and this information is not a substitute for professional medical advice.  Always consult with your doctor for diagnosis and treatment. 
+I understand you're in pain!  It's no fun dealing with cold sores and mouth ulcers.  While I can't give medical advice, I can share some information that might help you find relief. 
+**First, let's talk about cold sores:**
+* **Cause:** Cold sores are caused by the herpes simplex virus (HSV).  They're highly contagious and can be triggered by stress, sun exposure, or even a weakened immune system.
+* **Treatment:**  There are antiviral medications that can help shorten the duration and severity of outbreaks.  
+    * **Prescription options:** Your doctor can prescribe a medication like acyclovir, valacyclovir, or famciclovir. These are very effective at reducing the outbreak's symptoms.
+    * **Over-the-counter options:**  Some over-the-counter creams and gels containing docosanol can also help. 
+* **Prevention:**  
+    * **Avoid close contact with people who have cold sores.**
+    * **Practice good hygiene.** Wash your hands frequently and avoid touching your mouth or sores.
+    * **Manage stress.** Stress can trigger outbreaks.
+**Now, about mouth ulcers:**
+* **Cause:**  Mouth ulcers are small, painful sores that can be caused by a variety of factors, including:
+    * **Trauma:**  Biting your cheek, biting your tongue, or irritation from dentures.
+    * **Stress:**  Stress can weaken your immune system and make you more susceptible to ulcers.
+    * **Infections:**  Viral or bacterial infections can also cause ulcers.
+    * **Medications:**  Some medications can cause ulcers as a side effect.
+* **Treatment:**  
+    * **Over-the-counter options:**  Over-the-counter pain relievers and topical creams can help soothe the pain and speed up healing.
+    * **Prescription options:**  Your doctor may prescribe stronger medications if the ulcers are severe or don't respond to over-the-counter treatments.
+**Important:**  It's crucial to see a doctor for a proper diagnosis and treatment plan. They can determine the cause of your ulcers and recommend the best course of action. 
+**Here are some additional tips:**
+* **Stay hydrated:**  Drinking plenty of fluids can help keep your mouth moist and prevent further irritation.
+* **Avoid spicy or acidic foods:**  These can irritate your mouth and make ulcers worse.
+* **Practice good oral hygiene:**  Brush and floss regularly to keep your mouth clean and healthy.
+Remember, I'm not a medical professional.  This information is for general knowledge only and should not be considered medical advice.  Please consult with your doctor for personalized guidance and treatment options. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -877,40 +900,37 @@
         <is>
           <t xml:space="preserve">
 Ah, a classic question!  Let's delve into the world of white tongue, a symptom that can be caused by a variety of factors. 
-**First, it's crucial to understand that a white tongue doesn't always indicate a serious problem.**  However, it's important to get it checked out by a doctor to rule out any underlying conditions. 
-Here's a breakdown of the most common causes:
+**First, it's important to understand that a white tongue doesn't always indicate a serious problem.**  However, it's crucial to consult a doctor to determine the underlying cause and receive appropriate treatment. 
+Here's a breakdown of common causes:
 **1.  Oral Hygiene:**
-* **Poor Oral Hygiene:**  This is the most common culprit.  If you don't brush and floss regularly, food particles and bacteria can build up on your tongue, leading to a white coating.
-* **Dry Mouth:**  Saliva helps to keep your tongue clean.  If you have dry mouth (xerostomia), your tongue can become dry and white.
+* **Poor Oral Hygiene:**  This is the most common cause.  If you don't brush and floss regularly, food particles and bacteria can build up on your tongue, leading to a white coating.
+* **Dry Mouth:**  Saliva helps to keep the tongue clean and moist.  If you have dry mouth (xerostomia), your tongue can become dry and white.
 **2.  Nutritional Deficiencies:**
 * **Vitamin B12 Deficiency:**  This can cause a white, thick coating on the tongue.
 * **Iron Deficiency:**  A lack of iron can also lead to a white tongue.
-**3.  Medications:**
-* **Certain Antibiotics:**  Some antibiotics can cause a white coating on the tongue as a side effect.
-* **Anti-seizure Medications:**  Some anti-seizure medications can also cause a white tongue.
-**4.  Medical Conditions:**
+**3.  Medical Conditions:**
 * **Oral Thrush (Candidiasis):**  This is a fungal infection that can cause a white, cottage cheese-like coating on the tongue.
-* **Leukoplakia:**  This is a white, thickened patch of tissue on the tongue that can be caused by smoking, alcohol, or certain medications.
-* **Oral Cancer:**  While less common, a white tongue can be a sign of oral cancer.
-* **Diabetes:**  High blood sugar can cause a white tongue.
-* **HIV/AIDS:**  This can cause a white tongue as a result of oral thrush.
-* **Autoimmune Disorders:**  Some autoimmune disorders can cause a white tongue.
-**5.  Other Factors:**
-* **Stress:**  Stress can affect your immune system, making you more susceptible to infections, including oral thrush.
-* **Smoking:**  Smoking can cause a white tongue.
+* **Leukoplakia:**  This is a white, thickened patch of tissue on the tongue that can be caused by chronic irritation or smoking.
+* **Oral Cancer:**  While less common, a white tongue can be a symptom of oral cancer.
+* **Diabetes:**  High blood sugar can cause a white coating on the tongue.
+* **HIV/AIDS:**  This can cause a white tongue, along with other symptoms.
+* **Medications:**  Some medications can cause a white tongue as a side effect.
+**4.  Other Factors:**
+* **Stress:**  Stress can affect your immune system and lead to a white tongue.
+* **Smoking:**  Smoking can irritate the tongue and cause it to become white.
 * **Alcohol Consumption:**  Excessive alcohol consumption can also lead to a white tongue.
 **What to do:**
-* **See a doctor:**  If you have a white tongue, it's important to see a doctor to rule out any serious underlying conditions.
-* **Improve oral hygiene:**  Brush your tongue gently with a soft-bristled toothbrush and floss daily.
-* **Stay hydrated:**  Drink plenty of water to help keep your mouth moist.
-* **Avoid smoking and excessive alcohol consumption.**
-**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment. 
-Let me know if you have any other questions. 
+* **See a doctor:**  If you have a white tongue, it's important to see a doctor to determine the cause and receive appropriate treatment.
+* **Maintain good oral hygiene:**  Brush your teeth twice a day, floss daily, and use a tongue scraper to remove bacteria and debris.
+* **Stay hydrated:**  Drink plenty of water to keep your mouth moist.
+* **Quit smoking:**  Smoking can irritate your tongue and increase your risk of oral cancer.
+* **Manage underlying conditions:**  If you have a medical condition that may be causing your white tongue, such as diabetes or HIV/AIDS, it's important to manage it properly.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -949,23 +969,28 @@
         <is>
           <t xml:space="preserve">
 It's great that you're asking about potential side effects and how to manage your medication.  
-**Missing a dose of Saxenda (liraglutide) can have a few potential effects, but it's important to remember that I am not a medical professional and this information is not a substitute for medical advice.** 
-Here's what you should know:
-* **The best course of action is to always follow your doctor's instructions.** They will have prescribed the correct dosage and frequency for you. 
-* **If you miss a dose, take it as soon as you remember.** Don't worry too much if it's close to the next scheduled dose. 
-* **If you miss a dose and it's close to the next scheduled dose, skip the missed dose and continue with your regular schedule.** 
-* **If you miss a dose and it's not close to the next scheduled dose, take the missed dose as soon as you remember.** 
-* **If you miss a dose and you're unsure what to do, contact your doctor or pharmacist.** They can provide personalized guidance.
+**Missing a dose of Saxenda (liraglutide) can have a few different effects, and it's important to understand the potential consequences.**
+**Here's what you need to know:**
+* **The Impact:**  Saxenda is a GLP-1 receptor agonist, meaning it helps regulate your appetite and blood sugar. Missing a dose can affect your weight loss journey and potentially lead to:
+    * **Reduced appetite control:** You might experience increased hunger and cravings.
+    * **Increased hunger pangs:** You might feel more hungry than usual.
+    * **Potential weight gain:**  If you miss doses, you might gain weight more quickly.
+    * **Fluctuations in blood sugar:**  This can be especially important if you have diabetes.
+* **The Importance of Consistency:**  The key to Saxenda's effectiveness is taking it consistently as prescribed.  
+* **What to Do:**
+    * **Don't panic:** If you miss a dose, don't worry too much. Just take your next dose at the scheduled time.
+    * **Don't double up:**  Don't take two doses at once. This can be dangerous.
+    * **Talk to your doctor:** If you're concerned about missing doses, talk to your doctor or pharmacist. They can help you understand the best way to manage your medication.
 **Important Considerations:**
-* **Saxenda is a GLP-1 receptor agonist.** It helps regulate appetite and blood sugar levels. 
-* **Missing doses can affect your weight loss journey.** It's crucial to be consistent with your medication schedule.
-* **Always consult your doctor or pharmacist if you have any concerns about your medication.** They can provide personalized advice based on your individual needs and medical history.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult your doctor or pharmacist for personalized guidance. 
+* **Individual Variation:**  Everyone responds to medication differently. What works for one person might not work for another.
+* **Underlying Conditions:**  If you have any underlying health conditions, it's important to discuss your medication with your doctor.
+* **Lifestyle Factors:**  Your diet, exercise, and stress levels can all affect how your body responds to medication.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized guidance on your Saxenda treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1008,35 +1033,36 @@
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about mild muscle relaxants.  It's great you're being proactive about your health! 
-**However, I must emphasize that I am not a medical professional and cannot provide medical advice.**  The information below is for general knowledge purposes only and should not be substituted for the guidance of a qualified doctor. 
+I understand you're looking for information about mild muscle relaxants.  It's great that you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot provide medical advice.**  The information below is for general knowledge purposes only and should not be substituted for the guidance of a qualified healthcare provider. 
 **What are Muscle Relaxants?**
-Muscle relaxants are medications that help reduce muscle spasms and tension. They work by affecting the nerves and muscles, making them less sensitive to signals that cause them to contract. 
+Muscle relaxants are medications that help reduce muscle spasms and pain. They work by affecting the way your nerves communicate with your muscles. 
 **Types of Muscle Relaxants:**
-There are several types of muscle relaxants, each with its own mechanism of action and potential side effects. Some common types include:
-* **Non-steroidal anti-inflammatory drugs (NSAIDs):**  Like ibuprofen or naproxen, these can help reduce inflammation and pain, which can sometimes ease muscle tension.
-* **Benzodiazepines:**  These are a class of drugs that can help relax muscles and reduce anxiety. Examples include diazepam (Valium) and alprazolam (Xanax).
-* **Anticholinergics:**  These drugs block the action of acetylcholine, a neurotransmitter that plays a role in muscle contraction. Examples include cyclobenzaprine (Flexeril) and orphenadrine (Norflex).
-* **Anticonvulsants:**  These medications, originally used to treat seizures, can also help relax muscles. Examples include gabapentin (Neurontin) and pregabalin (Lyrica).
-**When to Consider a Muscle Relaxant:**
-Muscle relaxants can be helpful for a variety of conditions, including:
-* **Muscle spasms:**  These can be caused by various factors, such as injury, overuse, or certain medical conditions.
-* **Fibromyalgia:**  This condition causes widespread muscle pain and tenderness.
-* **Restless leg syndrome:**  This condition causes an irresistible urge to move the legs, often at night.
-* **Chronic pain:**  Muscle relaxants can help manage pain associated with conditions like arthritis or back pain.
+There are several types of muscle relaxants, including:
+* **Non-steroidal anti-inflammatory drugs (NSAIDs):** These are commonly used for pain relief and inflammation. Examples include ibuprofen (Advil, Motrin) and naproxen (Aleve).
+* **Benzodiazepines:** These are a class of drugs that can help relax muscles and reduce anxiety. Examples include diazepam (Valium) and alprazolam (Xanax).
+* **Anticholinergics:** These drugs block the action of acetylcholine, a neurotransmitter that plays a role in muscle contraction. Examples include cyclobenzaprine (Flexeril) and orphenadrine (Norflex).
+* **Anticonvulsants:** These medications are typically used to treat seizures but can also be used to relieve muscle spasms. Examples include gabapentin (Neurontin) and pregabalin (Lyrica).
+**Mild Muscle Relaxants:**
+The term "mild" is subjective and depends on the individual.  Here are some examples of muscle relaxants that are often considered mild:
+* **Cyclobenzaprine (Flexeril):** This is a muscle relaxant that is often used to treat muscle spasms and pain. It is available in both oral and injectable forms.
+* **Duloxetine (Cymbalta):** This is a medication that is used to treat depression and nerve pain. It can also be used to treat muscle spasms.
+* **Gabapentin (Neurontin):** This is a medication that is used to treat seizures and nerve pain. It can also be used to treat muscle spasms.
 **Important Considerations:**
-* **Underlying Cause:**  It's crucial to identify the underlying cause of your muscle tension or spasms.  Muscle relaxants may not be the best solution if the issue is not properly addressed.
-* **Potential Side Effects:**  Muscle relaxants can have side effects, including drowsiness, dizziness, and confusion. They can also interact with other medications.
-* **Dosage and Duration:**  The dosage and duration of treatment will vary depending on the individual and the condition being treated.
-* **Alternative Treatments:**  There are often non-medication options for managing muscle tension, such as physical therapy, massage, and exercise.
-**What to Do Next:**
-If you're experiencing muscle tension or spasms, it's essential to consult with a doctor. They can help determine the cause of your symptoms and recommend the most appropriate treatment plan. 
-**Remember:**  Self-treating can be dangerous. Always seek professional medical advice before taking any medication. 
+* **Underlying Cause:** It's crucial to identify the underlying cause of your muscle spasms.  Muscle relaxants may not be effective if the cause is not addressed.
+* **Dosage and Duration:** The dosage and duration of treatment will vary depending on the individual and the severity of the muscle spasms.
+* **Side Effects:** Muscle relaxants can have side effects, such as drowsiness, dizziness, and dry mouth.
+* **Interactions:** Muscle relaxants can interact with other medications.
+* **Pregnancy and Breastfeeding:** Some muscle relaxants are not safe for use during pregnancy or breastfeeding.
+**When to See a Doctor:**
+If you are experiencing muscle spasms, it is important to see a doctor to determine the cause and receive appropriate treatment.  
+**Remember:** This information is for general knowledge purposes only and should not be substituted for the guidance of a qualified healthcare provider. 
+Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your specific situation and receive personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1081,31 +1107,32 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As a wise doctor, I can tell you that activated charcoal is a popular home remedy for stomach bugs, but it's important to understand the science behind it and its limitations. 
-**Here's what I know about activated charcoal and stomach bugs:**
-**What is activated charcoal?**
-Activated charcoal is a highly porous form of carbon that has been treated to increase its surface area. This makes it incredibly effective at absorbing substances, including toxins, medications, and even some food particles.
-**How does it work for stomach bugs?**
-The idea behind using activated charcoal for stomach bugs is that it can bind to and absorb the toxins and bacteria that cause the illness. This may help to:
-* **Reduce the severity of symptoms:** By removing toxins, charcoal may lessen nausea, vomiting, and diarrhea.
-* **Prevent further absorption:** It may help prevent the absorption of harmful substances into the bloodstream.
-**However, there are some important things to consider:**
-* **Limited evidence:** While some studies suggest potential benefits, the evidence for activated charcoal's effectiveness in treating stomach bugs is limited and inconclusive. 
-* **Potential side effects:** Activated charcoal can have side effects, including constipation, dehydration, and nutrient deficiencies. 
-* **Not a substitute for medical care:** Activated charcoal should not be used as a substitute for proper medical care. It's crucial to consult a doctor for diagnosis and treatment of stomach bugs.
-* **Dosage and timing:** The dosage and timing of activated charcoal can vary depending on the severity of the illness and the individual's health. It's important to follow the instructions on the product label or consult a doctor for guidance.
-* **Interactions with medications:** Activated charcoal can interact with certain medications, so it's important to inform your doctor about all the medications you are taking.
-**In conclusion:**
-While activated charcoal may offer some potential benefits for stomach bugs, it's not a guaranteed cure and can have side effects. It's crucial to consult a doctor for diagnosis and treatment. They can determine the best course of action based on your individual needs and medical history. 
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
+As a wise doctor, I can tell you that activated charcoal is a controversial topic when it comes to treating stomach bugs. Here's a breakdown of what we know:
+**What is Activated Charcoal?**
+Activated charcoal is a highly porous form of carbon that's been treated to increase its surface area. This makes it incredibly effective at absorbing substances in the digestive tract.
+**Potential Benefits:**
+* **Absorption of Toxins:** Activated charcoal can bind to certain toxins and chemicals in the gut, potentially reducing their absorption into the bloodstream. This is why it's sometimes used to treat poisoning.
+* **Reducing Diarrhea:**  It can absorb excess water and electrolytes, potentially helping to reduce diarrhea.
+**Potential Risks and Concerns:**
+* **Limited Evidence for Stomach Bugs:** There's limited scientific evidence to support the use of activated charcoal for treating stomach bugs like the common cold or gastroenteritis. 
+* **Potential for Side Effects:** Activated charcoal can cause constipation, bloating, and nutrient deficiencies. It can also interfere with the absorption of certain medications.
+* **Not a Substitute for Treatment:** Activated charcoal should not be used as a substitute for proper medical care. It's important to address the underlying cause of your stomach bug, which may include dehydration, infection, or food poisoning.
+**What to Do:**
+* **Consult a Doctor:** If you suspect you have a stomach bug, it's crucial to consult a doctor. They can determine the cause of your symptoms and recommend the appropriate treatment.
+* **Hydration is Key:**  The most important thing for treating a stomach bug is to stay hydrated. Sip on clear fluids like water, broth, or electrolyte drinks.
+* **Rest:** Give your body time to recover. 
+* **Over-the-Counter Medications:** Over-the-counter medications like bismuth subsalicylate (Pepto-Bismol) can help reduce nausea and diarrhea.
+**In Conclusion:**
+While activated charcoal has potential benefits, it's not a proven treatment for stomach bugs. It's best to consult a doctor for diagnosis and treatment. They can advise you on the best course of action based on your specific situation. 
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1152,42 +1179,36 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for relief from congestion.  I'm an AI and can't give medical advice, but I can offer some general information and suggestions. 
-**First, it's crucial to understand that congestion can have many causes, from a simple cold to allergies or even a more serious condition.**  
-**Here are some general things you can try to relieve congestion:**
-**1. Hydration:**
-* **Drink plenty of fluids:** Water, broth, herbal teas, and even warm lemon water can help thin mucus and make it easier to clear.
-**2. Humidifier:**
-* **Use a humidifier:** Adding moisture to the air can help loosen mucus and make breathing easier.
-**3. Saline Rinse:**
-* **Use a saline nasal spray or rinse:** This can help clear out nasal passages and reduce inflammation.
-**4. Over-the-Counter Medications:**
-* **Decongestants:** These can help shrink swollen blood vessels in the nasal passages, but use them cautiously as they can have side effects.
-* **Antihistamines:** These can help reduce allergy-related congestion.
-* **Expectorants:** These can help thin mucus and make it easier to cough up.
-**5. Warm Compress:**
-* **Apply a warm compress to your forehead or sinuses:** This can help relieve pressure and pain.
-**6. Rest:**
-* **Get plenty of rest:** Your body needs time to fight off whatever is causing your congestion.
-**7. Avoid Irritants:**
-* **Stay away from smoke, dust, and other irritants:** These can worsen congestion.
-**8. Elevate Your Head:**
-* **Sleep with your head elevated:** This can help drain mucus from your sinuses.
-**9. Consider Natural Remedies:**
-* **Steam inhalation:** Inhaling steam from a bowl of hot water can help loosen mucus.
-* **Honey:** A spoonful of honey can soothe a sore throat and help thin mucus.
-**Important:**
-* **Consult a doctor if:** Your congestion is severe, lasts for more than a week, is accompanied by fever, headache, or other concerning symptoms.
-* **Be cautious with medications:** Always follow the directions on the label and consult a doctor if you have any concerns.
-* **Don't self-diagnose:**  It's important to get a proper diagnosis from a medical professional to ensure you're receiving the right treatment.
-Remember, I'm an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
+**First, it's crucial to understand that congestion can have many causes, from a common cold to allergies to more serious conditions.  It's important to consult a doctor to determine the underlying cause and get the right treatment.**
+That said, here are some general tips that may help relieve congestion:
+**For Short-Term Relief:**
+* **Hydration:** Drink plenty of fluids, like water, broth, or herbal teas. This helps thin mucus and makes it easier to clear.
+* **Humidifier:** Use a cool-mist humidifier to add moisture to the air, which can help loosen mucus.
+* **Saline Rinse:**  Use a saline nasal spray or rinse to help clear nasal passages.
+* **Warm Compress:** Apply a warm compress to your forehead or sinuses to help relieve pressure.
+* **Elevate Your Head:** Sleep with your head elevated to help drain mucus.
+* **Over-the-Counter Medications:**  
+    * **Decongestants:**  These can help shrink swollen blood vessels in the nasal passages, but use them cautiously as they can cause side effects.
+    * **Expectorants:** These help thin mucus and make it easier to cough up.
+    * **Antihistamines:** These can help relieve allergy-related congestion.
+**For Long-Term Relief:**
+* **Identify and Manage Allergies:**  If allergies are a factor, talk to your doctor about allergy testing and treatment options.
+* **Maintain a Healthy Lifestyle:**  Get enough sleep, eat a balanced diet, and exercise regularly to boost your immune system.
+* **Avoid Irritants:**  Stay away from smoke, dust, and other irritants that can worsen congestion.
+**When to See a Doctor:**
+* **Severe or Persistent Congestion:** If your congestion is severe or doesn't improve with home remedies, see a doctor.
+* **Fever:**  A fever along with congestion could indicate a more serious infection.
+* **Difficulty Breathing:**  If you experience difficulty breathing, shortness of breath, or chest pain, seek immediate medical attention.
+* **Other Symptoms:**  If you have other symptoms like a sore throat, cough, or headache, see a doctor.
+**Remember:** This information is not a substitute for professional medical advice. Always consult with a doctor for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1248,14 +1269,14 @@
 * **Dietary Sources:**  Include plenty of leafy green vegetables (like spinach and kale), eggs, fish (especially fatty fish like salmon and tuna), and nuts in your diet.
 * **Supplementation:**  If you're concerned about your intake, consider taking lutein and zeaxanthin supplements, and omega-3 supplements like fish oil.
 **Important Considerations**
-* **Individual Needs:**  The optimal dosage of lutein and omega-3 for vision health varies depending on age, lifestyle, and existing eye conditions.  Consult with your doctor or a registered dietitian to determine the best approach for you.
+* **Individual Needs:**  The optimal dosage of lutein and omega-3 for vision health varies depending on individual factors like age, diet, and existing eye conditions.  Consult with your doctor or a registered dietitian to determine the best approach for you.
 * **Underlying Conditions:**  If you have any eye conditions, such as AMD, it's crucial to discuss your dietary choices and supplement use with your ophthalmologist.
 Remember, maintaining healthy vision is a lifelong endeavor.  By incorporating lutein and omega-3 into your diet and lifestyle, you can significantly contribute to your eye health and enjoy clear, vibrant vision for years to come. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1306,7 +1327,7 @@
     * Nausea
     * Abdominal cramps
     * Fever (often mild)
-* **Transmission:**  Highly contagious through contact with contaminated surfaces, food, or water. It's also spread through person-to-person contact.
+* **Transmission:**  Highly contagious through contact with contaminated surfaces, food, or water, or by person-to-person contact.
 * **Duration:** Typically lasts 1-3 days, but can be longer.
 **The Flu (Influenza):**
 * **Cause:** A virus that infects the respiratory system.
@@ -1318,7 +1339,7 @@
     * Muscle aches
     * Headache
     * Fatigue
-* **Transmission:** Spread through droplets from coughs and sneezes.
+* **Transmission:** Spread through respiratory droplets from coughing or sneezing.
 * **Duration:** Typically lasts 3-7 days, but can be longer.
 **Key Differences:**
 * **Target Organ:** Stomach flu primarily affects the stomach and intestines, while the flu primarily affects the respiratory system.
@@ -1326,13 +1347,13 @@
 * **Treatment:**  Stomach flu is treated with rest, fluids, and over-the-counter medications for nausea and diarrhea. The flu is treated with rest, fluids, and over-the-counter medications for fever and aches. Antiviral medications may be prescribed for severe cases.
 **Important Note:**
 * **Both illnesses can be serious, especially for young children, older adults, and people with underlying health conditions.**
-* **It's important to see a doctor if you experience severe symptoms or if you have concerns about your health.**
+* **It's important to see a doctor if you experience severe symptoms or if your symptoms don't improve after a few days.**
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1379,38 +1400,39 @@
       <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're curious about potential side effects of Robaxin.  It's great you're thinking about this! 
-**Robaxin (methocarbamol) is a muscle relaxant used to treat muscle spasms and pain.** It's important to remember that I am an AI and cannot give medical advice.  **Always consult with a doctor or pharmacist for personalized guidance.**
-That said, here's what I can tell you about potential side effects based on general medical knowledge:
+It's great you're asking about potential side effects of Robaxin (which is the brand name for the drug **methocarbamol**).  
+**Here's what I can tell you about Robaxin and its potential side effects:**
+**Robaxin is a muscle relaxant, primarily used to treat muscle spasms and pain.** It works by reducing the activity of nerves that control muscle contractions. 
 **Common Side Effects:**
-* **Drowsiness:** This is the most common side effect, especially when starting Robaxin. 
-* **Dizziness:**  This can occur, especially when first starting or changing dosage.
-* **Nausea:** Some people experience nausea, especially when taking Robaxin with food.
-* **Headache:**  Headaches can be a side effect, but they are usually mild.
-* **Fatigue:**  Feeling tired or weak is another possible side effect.
+* **Drowsiness:** This is the most common side effect, especially when starting the medication. It's important to avoid driving or operating machinery until you know how Robaxin affects you.
+* **Dizziness:**  This can also occur, especially when first starting the medication.
+* **Headache:** Some people experience headaches while taking Robaxin.
+* **Nausea:**  This is another possible side effect, but it's usually mild.
+* **Constipation:**  Robaxin can slow down your bowel movements.
+* **Fatigue:**  You may feel tired or weak while taking Robaxin.
 **Less Common Side Effects:**
-* **Constipation:**  Robaxin can slow down bowel movements.
-* **Dry mouth:**  This is a common side effect of many medications.
-* **Blurred vision:**  This can occur, especially in people with pre-existing vision problems.
-* **Muscle weakness:**  This is a rare but possible side effect.
-**Serious Side Effects:**
-* **Liver problems:**  Robaxin can cause liver damage, so it's important to tell your doctor if you have any liver problems.
-* **Kidney problems:**  Robaxin can also affect kidney function, so it's important to tell your doctor if you have any kidney problems.
-* **Allergic reactions:**  Some people may have allergic reactions to Robaxin, which can be serious.
+* **Muscle weakness:**  This can occur, especially if you take Robaxin for a long time.
+* **Allergic reactions:**  While rare, some people can have allergic reactions to Robaxin. Symptoms can include hives, itching, swelling, and difficulty breathing.
+* **Liver problems:**  Robaxin can be harmful to the liver, especially if you have liver disease.
+* **Kidney problems:**  Robaxin can also affect kidney function.
 **Important Considerations:**
-* **Dosage:**  The dosage of Robaxin will vary depending on the individual and the condition being treated.
-* **Duration of use:**  It's important to use Robaxin only as directed by your doctor.
+* **Dosage:**  The dosage of Robaxin varies depending on the individual and the condition being treated. It's crucial to follow your doctor's instructions carefully.
+* **Duration of Use:**  Robaxin should only be used for as long as necessary. 
 * **Interactions:**  Robaxin can interact with other medications, so it's important to tell your doctor about all the medications you are taking.
-* **Pregnancy and breastfeeding:**  It's important to talk to your doctor before taking Robaxin if you are pregnant or breastfeeding.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a healthcare professional for personalized guidance. 
+* **Pregnancy and Breastfeeding:**  It's important to talk to your doctor before taking Robaxin if you are pregnant or breastfeeding.
+**What to Do if You Experience Side Effects:**
+* **Talk to your doctor:**  If you experience any side effects, it's important to talk to your doctor. They may be able to adjust your dosage or switch you to a different medication.
+* **Stop taking Robaxin:**  If you experience any severe side effects, such as difficulty breathing, swelling of the face or throat, or a rash, stop taking Robaxin immediately and seek medical attention.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized advice about Robaxin or any other medication. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1447,35 +1469,37 @@
       <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're absolutely right to ask!  There are indeed many types of nausea medications, each with its own mechanism of action and best uses.  
+You're absolutely right to ask!  There are indeed many different types of nausea medications, each with its own mechanism of action and best uses.  
 Here's a breakdown of the main categories:
 **1. Antihistamines:**
-* **Mechanism:** Block the action of histamine, a chemical released during allergic reactions and inflammation. This can help reduce nausea associated with motion sickness, migraines, and some digestive issues.
-* **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Promethazine (Phenergan)
-* **Considerations:** Can cause drowsiness, dry mouth, and blurred vision.
+* **Mechanism:** These medications block the action of histamine, a chemical released during allergic reactions and in some cases of motion sickness. 
+* **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Cyclizine (Antivert)
+* **Uses:** Effective for motion sickness, migraines, and some cases of nausea caused by chemotherapy.
 **2. Anti-emetics:**
-* **Mechanism:**  These medications work on the central nervous system to suppress vomiting. They can be divided into:
-    * **Serotonin antagonists and reuptake inhibitors (5-HT3 receptor antagonists):** Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend)
-    * **Dopamine antagonists:** Metoclopramide (Reglan)
-    * **Other:** Prochlorperazine (Compazine), Chlorpromazine (Thorazine)
-* **Considerations:**  Some anti-emetics can cause dizziness, fatigue, and constipation.
+* **Mechanism:** These medications work on the central nervous system to suppress vomiting. They can be further classified as:
+    * **Serotonin antagonists:**  These block the action of serotonin, a neurotransmitter involved in vomiting. Examples include Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend).
+    * **Dopamine antagonists:** These block dopamine receptors, which are involved in the vomiting reflex. Examples include Prochlorperazine (Compazine), Metoclopramide (Reglan).
+* **Uses:**  Effective for nausea and vomiting caused by chemotherapy, surgery, pregnancy, and motion sickness.
 **3. Other Medications:**
-* **Anti-anxiety medications:** Benzodiazepines like diazepam (Valium) can help reduce anxiety, which can contribute to nausea.
-* **Anti-depressants:** Some antidepressants, like tricyclic antidepressants, can also be used to treat nausea.
-* **Ginger:**  A natural remedy that can be effective for nausea, especially in cases of motion sickness.
-* **Peppermint oil:**  Another natural remedy that can help with nausea.
-**Choosing the Right Medication:**
-The best type of nausea medication for you will depend on the cause of your nausea and your individual medical history. 
-**Important Notes:**
-* **Always consult with a doctor:**  It's crucial to discuss your symptoms and medical history with a doctor before taking any medication. They can help determine the underlying cause of your nausea and recommend the most appropriate treatment.
-* **Follow dosage instructions:**  Taking the correct dosage of medication is essential for effectiveness and safety.
-* **Be aware of potential side effects:**  All medications can have side effects. Be sure to discuss any concerns with your doctor.
-I hope this information is helpful! Remember, I'm not a substitute for professional medical advice. Always consult with a doctor for any health concerns. 
+* **Anti-diarrheal medications:**  These can sometimes help with nausea, especially if it's caused by diarrhea. Examples include Loperamide (Imodium).
+* **Benzodiazepines:**  These are often used for severe nausea and vomiting, especially in cases of post-operative nausea and vomiting. Examples include Diazepam (Valium), Lorazepam (Ativan).
+* **Prescription medications:**  Some medications, like scopolamine patches, are specifically designed for motion sickness and can be very effective.
+**Important Considerations:**
+* **Underlying Cause:** The type of medication you need will depend on the cause of your nausea.  For example, motion sickness might be treated with antihistamines, while chemotherapy-induced nausea might require anti-emetics.
+* **Individual Response:**  People respond differently to medications. What works for one person might not work for another.
+* **Side Effects:**  All medications have potential side effects. It's important to discuss these with your doctor.
+* **Drug Interactions:**  Some medications can interact with each other, so it's important to tell your doctor about all the medications you're taking.
+**When to See a Doctor:**
+* If your nausea is severe or persistent.
+* If you have other symptoms, such as fever, abdominal pain, or blood in your vomit.
+* If your nausea is accompanied by vomiting that is not easily controlled.
+* If you are pregnant or breastfeeding.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1521,33 +1545,38 @@
       <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're interested in exploring options for anxiety management!  Buspirone is a unique medication, and while there are other options, it's important to remember that **I am not a medical professional and cannot give medical advice.**  
-Here's what I can tell you about medications similar to buspirone:
-**Similar Mechanisms of Action:**
-* **Serotonin Antagonists:** Buspirone is a serotonin antagonist, meaning it blocks serotonin receptors in the brain.  Other medications in this class include:
-    * **Citalopram (Celexa):** A selective serotonin reuptake inhibitor (SSRI) that also works on serotonin receptors.
-    * **Escitalopram (Lexapro):** Another SSRI with similar mechanisms to citalopram.
-    * **Fluoxetine (Prozac):** Another SSRI, often used for depression but also effective for anxiety.
-    * **Paroxetine (Paxil):** Another SSRI, often used for depression and anxiety.
-* **Benzodiazepines:** These are a class of drugs that enhance the effects of GABA, a neurotransmitter that calms the brain.  While they are effective for short-term anxiety relief, they can be habit-forming and have side effects.  Examples include:
-    * **Alprazolam (Xanax):** A short-acting benzodiazepine used for anxiety and panic attacks.
-    * **Diazepam (Valium):** A long-acting benzodiazepine used for anxiety and muscle spasms.
-    * **Lorazepam (Ativan):** A short-acting benzodiazepine used for anxiety and insomnia.
+You're asking a great question about anxiety medications!  It's important to remember that I'm an AI and can't give medical advice.  **Always consult with a qualified healthcare professional for diagnosis and treatment.** 
+That said, I can tell you about medications similar to buspirone, which is an anxiolytic (anti-anxiety) medication. 
+**Buspirone is a serotonin receptor partial agonist.** This means it works by influencing serotonin levels in the brain, which plays a role in mood regulation and anxiety. 
+Here are some medications that share similar mechanisms of action or target similar pathways in the brain:
+**1. Serotonin Reuptake Inhibitors (SSRIs):**
+* **Fluoxetine (Prozac):** A common SSRI used for depression and anxiety.
+* **Sertraline (Zoloft):** Another widely used SSRI for anxiety and depression.
+* **Paroxetine (Paxil):**  Effective for anxiety and depression.
+* **Citalopram (Celexa):**  Used for anxiety and depression.
+**2. Serotonin-Norepinephrine Reuptake Inhibitors (SNRIs):**
+* **Venlafaxine (Effexor):**  Effective for both anxiety and depression.
+* **Duloxetine (Cymbalta):**  Used for depression, anxiety, and chronic pain.
+**3. Benzodiazepines:**
+* **Alprazolam (Xanax):**  A short-acting benzodiazepine used for anxiety and panic attacks.
+* **Diazepam (Valium):**  A long-acting benzodiazepine used for anxiety and muscle spasms.
+* **Lorazepam (Ativan):**  Used for anxiety and insomnia.
 **Important Considerations:**
-* **Individual Needs:** The best medication for you will depend on your specific symptoms, medical history, and other factors. 
-* **Side Effects:** All medications have potential side effects.  Buspirone can cause drowsiness, dizziness, and nausea.  Other medications can have different side effects.
-* **Drug Interactions:** Some medications can interact with each other, so it's important to tell your doctor about all the medications you are taking.
-* **Long-Term Use:** Some medications, like SSRIs, are often used for long-term anxiety management.  Others are used for short-term relief.
-**What to Do:**
-* **Talk to your doctor:** The best way to find the right medication for you is to discuss your symptoms and concerns with your doctor. They can help you weigh the risks and benefits of different options and determine the best course of treatment.
-* **Be open and honest:** Tell your doctor about any other medications you are taking, including over-the-counter drugs and supplements.
-* **Ask questions:** Don't be afraid to ask your doctor any questions you have about your medication.
-Remember, finding the right medication for anxiety is a journey. It may take some time to find the right fit for you.  Be patient, work closely with your doctor, and don't hesitate to ask for help. 
+* **Individualized Treatment:** The best medication for you will depend on your specific symptoms, medical history, and other factors. 
+* **Side Effects:** All medications have potential side effects. 
+* **Drug Interactions:** Some medications can interact with each other.
+* **Withdrawal Symptoms:** Abruptly stopping certain medications can lead to withdrawal symptoms.
+**What to Discuss with Your Doctor:**
+* **Your Symptoms:** Be clear about your anxiety symptoms and how long you've been experiencing them.
+* **Your Medical History:**  Tell your doctor about any other medical conditions, medications you're taking, and allergies.
+* **Your Lifestyle:**  Discuss your lifestyle, including stress levels, sleep habits, and diet.
+* **Your Goals:**  Talk about your goals for treatment, such as reducing anxiety symptoms or improving quality of life.
+Remember, finding the right medication and treatment plan is a process that requires open communication with your doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1591,32 +1620,33 @@
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're experiencing back pain and wondering if it's related to your upcoming period. While it's a common concern, I can't provide medical advice. 
-Here's what I can tell you about the connection between menstruation and back pain:
-**Possible Reasons for Back Pain During Your Cycle:**
-* **Hormonal Fluctuations:**  The surge in estrogen and progesterone during your cycle can cause muscle tension, particularly in the lower back. This can lead to pain, stiffness, and even headaches.
-* **Increased Pressure on the Pelvis:**  As your uterus expands during your period, it can put pressure on your lower back, causing discomfort.
-* **Changes in Posture:**  Some women experience changes in their posture during their cycle, which can contribute to back pain.
-* **Other Underlying Conditions:**  While less common, back pain can be a symptom of other conditions like endometriosis, fibroids, or even arthritis.
-**Important Considerations:**
-* **Individual Variation:**  Everyone experiences their cycle differently. Some women experience minimal discomfort, while others have more pronounced symptoms.
-* **Other Factors:**  Your back pain could be caused by other factors unrelated to your cycle, such as poor posture, lifting heavy objects, or even stress.
-* **Severity:**  If your back pain is severe, persistent, or accompanied by other symptoms like fever, nausea, or bleeding, it's crucial to consult a doctor.
+It's great that you're paying attention to your body and seeking information!  While it's true that menstrual cycles can cause some back pain, it's important to remember that I'm not a medical professional and can't give medical advice. 
+Here's what I can tell you about the connection between menstrual cycles and back pain:
+**Possible Causes of Back Pain During Your Cycle:**
+* **Hormonal Fluctuations:**  The surge in estrogen and progesterone leading up to your period can cause muscle tension, ligaments to relax, and even changes in the spine's alignment. This can lead to discomfort, especially in the lower back.
+* **Increased Pressure on the Pelvis:**  As your uterus expands during your cycle, it can put pressure on your lower back and pelvis, causing pain.
+* **Muscle Imbalances:**  Changes in hormone levels can affect muscle strength and flexibility, leading to imbalances that can cause back pain.
+* **Other Factors:**  Other factors like poor posture, stress, and even exercise can contribute to back pain.
 **What to Do:**
-* **Keep Track:**  Note down when your back pain occurs, its intensity, and any other symptoms you experience. This information can be helpful for your doctor.
-* **Over-the-Counter Pain Relief:**  Ibuprofen or acetaminophen can help manage mild back pain.
-* **Gentle Exercise:**  Light stretching and gentle exercise can help improve blood flow and reduce muscle tension.
+* **Keep Track of Your Symptoms:**  Note when the pain is most intense, what makes it better or worse, and any other symptoms you experience. This information can be helpful for your doctor.
+* **Over-the-Counter Pain Relief:**  Ibuprofen or acetaminophen can help manage pain and inflammation.
+* **Gentle Exercise:**  Light stretching and gentle exercise can help improve flexibility and muscle strength.
 * **Heat or Cold Therapy:**  Applying heat or cold packs to the affected area can provide temporary relief.
-* **Consult a Doctor:**  If your back pain is severe, persistent, or accompanied by other symptoms, it's essential to seek medical advice. 
-**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
+* **Rest:**  Give your body time to recover and avoid activities that worsen the pain.
+**When to See a Doctor:**
+* **Severe or Persistent Pain:**  If your back pain is severe, doesn't improve with home remedies, or is accompanied by other symptoms like fever, chills, or numbness, see a doctor immediately.
+* **Sudden Onset:**  If your back pain starts suddenly and is accompanied by other symptoms, seek medical attention.
+* **Pregnant:**  If you're pregnant, back pain can be more common and may require specific care.
+**Important Note:**  It's crucial to consult with a healthcare professional for a proper diagnosis and treatment plan. They can assess your individual situation, rule out any underlying medical conditions, and provide personalized advice. 
+Remember, I'm here to provide general information, but I can't replace the expertise of a doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +1688,24 @@
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about your fatty liver and wondering if Imodium is safe to take.  
-**I must strongly emphasize that I am not a medical professional and cannot give medical advice.**  
-However, I can provide some general information about fatty liver and medications. 
-**Here's what you need to know:**
-* **Fatty liver disease (FLD)** is a condition where fat builds up in the liver. It can be caused by various factors, including obesity, diabetes, and high cholesterol. 
-* **Imodium (loperamide)** is an over-the-counter medication used to treat diarrhea. It works by slowing down the movement of food through your intestines.
-* **Potential interactions:** While Imodium is generally considered safe for most people, it can interact with certain medications and conditions.  It's crucial to discuss any medications you're taking, including over-the-counter drugs, with your doctor or pharmacist, especially if you have a fatty liver. 
-**Why it's important to talk to your doctor:**
-* **Individualized care:** Your doctor can assess your specific situation, including the severity of your fatty liver, any other health conditions you have, and any medications you're currently taking. 
-* **Potential risks:**  Taking Imodium without your doctor's guidance could potentially worsen your fatty liver or interact with other medications. 
-* **Alternative treatments:** Your doctor can recommend the best course of action for managing your fatty liver, which may include lifestyle changes, dietary modifications, and other medications.
-**Remember:**  Always consult with your doctor before taking any new medication, even over-the-counter ones. They are your best resource for personalized medical advice. 
-**Here are some additional resources you may find helpful:**
-* **The American Liver Foundation:** https://liverfoundation.org/
-* **The National Institute of Diabetes and Digestive and Kidney Diseases:** https://www.niddk.nih.gov/ 
+I understand you're concerned about your fatty liver and wondering about Imodium.  However, I must emphasize that I am an AI and cannot give medical advice.  
+**It's crucial to consult your doctor or a qualified healthcare professional about any medication, especially when you have a pre-existing condition like fatty liver.** 
+Here's why:
+* **Imodium (loperamide) is an anti-diarrheal medication.** It works by slowing down the movement of your intestines, reducing diarrhea. 
+* **Fatty liver disease is a complex condition.**  It's often caused by factors like obesity, diabetes, and high cholesterol.  
+* **Medications can interact with existing conditions.**  Imodium might interact with other medications you're taking or worsen existing liver problems. 
+* **Your doctor knows your specific situation.** They can assess your individual needs, consider your medical history, and advise you on the safest course of action.
+**Instead of self-treating, please schedule an appointment with your doctor.** They can:
+* **Diagnose the cause of your fatty liver.**
+* **Determine if Imodium is appropriate for you.**
+* **Recommend safe and effective treatment options.**
+* **Monitor your progress and adjust your treatment plan as needed.**
+Remember, your health is paramount. Don't hesitate to seek professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1719,20 +1747,19 @@
       <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're thinking about managing your allergies and side effects!  
-Here's the thing about Benadryl and Claritin:
-* **Benadryl (Diphenhydramine)** is a first-generation antihistamine. It's very effective at blocking histamine, which is the chemical your body releases during allergic reactions. However, it's also a potent sedative, which is why you're experiencing drowsiness. 
-* **Claritin (Loratadine)** is a second-generation antihistamine. It's less likely to cause drowsiness than Benadryl. 
-**Taking Claritin during the day is generally safe and effective for managing allergies.**  
-**Here's what you should consider:**
-* **Your individual sensitivity:** Some people are more sensitive to antihistamines than others. If you're prone to drowsiness, Claritin might be a better choice.
-* **Severity of your allergies:** If your allergies are mild, Claritin might be sufficient. If your allergies are severe, you may need to consider other options.
-* **Other medications:** Claritin can interact with certain medications, so it's important to talk to your doctor or pharmacist about any other medications you're taking.
-**Important:**
-* **Always consult your doctor:**  It's crucial to discuss your allergy symptoms and medication options with your doctor. They can help you determine the best course of treatment for your specific needs.
-* **Follow dosage instructions:**  Always take your medication as directed by your doctor or pharmacist. 
-* **Be aware of potential side effects:**  While Claritin is generally well-tolerated, it can cause side effects like dizziness, headache, and dry mouth. 
-Remember, managing allergies is a personal journey. Finding the right medication and dosage that works for you is key. 
+It's great that you're seeking information about your medication!  However, I need to be very clear: **I am not a medical professional and cannot give medical advice.** 
+That said, I can offer some general information about Benadryl and Claritin:
+* **Benadryl (diphenhydramine)** is an antihistamine that is often used to relieve allergy symptoms like sneezing, runny nose, and itchy eyes. It can cause drowsiness, which is why it's often used at night.
+* **Claritin (loratadine)** is another antihistamine, but it's a non-drowsy option. It's generally considered safe to take during the day.
+**Here's why you should talk to your doctor about this:**
+* **Individual Reactions:** Everyone reacts to medications differently. What works for one person might not work for another, and could even cause unexpected side effects.
+* **Drug Interactions:**  Taking Claritin with Benadryl could potentially lead to unwanted interactions or side effects. 
+* **Underlying Conditions:** Your doctor can consider any underlying health conditions you may have and advise on the best course of action.
+**Here's what you can do:**
+1. **Schedule an appointment with your doctor or pharmacist.** They can assess your specific situation and provide personalized advice.
+2. **Be honest about your symptoms and concerns.** This will help them make the best recommendations for you.
+3. **Follow your doctor's instructions carefully.** This includes dosage, frequency, and any potential interactions with other medications.
+Remember, your health is paramount. Always consult with a medical professional for personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1781,33 +1808,36 @@
       <c r="G20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about testicular pain and chlamydia. It's a common question, and the answer is **yes, testicular pain can be a symptom of chlamydia**. 
-Here's a breakdown of why:
-* **Chlamydia's Impact:** Chlamydia is a sexually transmitted infection (STI) caused by the bacterium *Chlamydia trachomatis*. It primarily affects the reproductive organs, including the urethra, cervix, and rectum.  
-* **Testicular Involvement:** While chlamydia is most commonly associated with urethritis (inflammation of the urethra), it can also affect the testicles. This is less common but can occur.
-* **Pain Mechanisms:**  The pain associated with testicular chlamydia can be caused by:
-    * **Inflammation:** The infection can cause inflammation in the testicles, leading to pain.
-    * **Swollen Epididymis:** The epididymis, a tube that carries sperm, can become swollen and painful due to the infection.
-    * **Fluid Buildup:** The infection can cause fluid to build up in the scrotum, leading to discomfort.
-* **Other Symptoms:**  Besides testicular pain, chlamydia can also cause:
-    * **Discharge:** A discharge from the penis or testicles.
-    * **Burning Sensation:** A burning sensation during urination.
-    * **Painful Urination:** Difficulty urinating or pain during urination.
-    * **Fever:** A low-grade fever.
-    * **Swollen Lymph Nodes:** Swollen lymph nodes in the groin area.
-**Important Notes:**
-* **Early Detection is Key:**  Chlamydia is often asymptomatic, meaning people can have it without experiencing any symptoms. This is why regular STI testing is crucial, especially for sexually active individuals.
-* **Seek Medical Attention:** If you experience any of the symptoms mentioned above, it's essential to see a doctor for diagnosis and treatment. 
-* **Treatment:** Chlamydia is easily treatable with antibiotics. 
-**Remember:**  It's always best to consult with a healthcare professional for any health concerns. They can provide personalized advice and treatment based on your individual situation. 
+You're right to be concerned about testicular pain, as it can be a symptom of chlamydia and other conditions.  Here's a breakdown of what you need to know:
+**Testicular Pain and Chlamydia**
+* **Chlamydia is a bacterial infection that can affect the reproductive organs, including the testicles.**  It's often asymptomatic, meaning people can have it without knowing it.  
+* **Pain in the testicles can be a sign of chlamydia.** It can range from mild discomfort to severe pain, and it's often accompanied by other symptoms like:
+    * **Discharge from the penis or testicles**
+    * **Painful urination**
+    * **Swollen testicles**
+    * **Fever**
+    * **Chills**
+* **However, testicular pain can also be caused by other conditions, such as:**
+    * **Epididymitis:** Inflammation of the epididymis, a tube that carries sperm.
+    * **Orchitis:** Inflammation of one or both testicles.
+    * **Testicular torsion:** A twisting of the spermatic cord, which can cut off blood flow to the testicle.
+    * **Testicular cancer:** Although less common, testicular pain can be a symptom of this serious condition.
+**Why It's Important to Seek Medical Attention**
+* **Early diagnosis and treatment of chlamydia are crucial to prevent complications.** Untreated chlamydia can lead to infertility, pelvic inflammatory disease (PID), and other health problems.
+* **A doctor can properly diagnose the cause of testicular pain.** They will perform a physical exam, ask about your symptoms, and may order tests to rule out other conditions.
+**What to Do**
+* **If you experience testicular pain, especially if it's accompanied by other symptoms, see a doctor immediately.** 
+* **Don't self-diagnose or self-treat.** 
+* **Be open and honest with your doctor about your symptoms and sexual history.** This will help them provide the best possible care.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1843,24 +1873,29 @@
         <is>
           <t xml:space="preserve">
 Ah, a question about colchicine! A fascinating and effective medication, indeed. 
-Let me tell you, colchicine is a medication with a long history, dating back to the 19th century. It's a natural compound derived from the autumn crocus plant, *Colchicum autumnale*.  
-Here's a breakdown of what you need to know:
-**What it does:**
-* **Anti-inflammatory:**  Colchicine's primary action is to reduce inflammation. It works by blocking the production of certain chemicals called cytokines, which are involved in the inflammatory response.
-* **Pain relief:**  It's particularly effective in relieving pain associated with inflammatory conditions like gout. 
-* **Other uses:**  While primarily known for gout, colchicine is also used to treat:
-    * **Acute gout attacks:**  It can significantly reduce the pain and swelling associated with these attacks.
-    * **Other inflammatory conditions:**  It can be used to treat conditions like Behçet's disease, familial Mediterranean fever, and certain types of arthritis.
-**How it works:**
-Colchicine works by interfering with the movement of certain molecules within cells. This disruption affects the inflammatory process, reducing the production of inflammatory chemicals and thus, the pain and swelling.
-**Important considerations:**
-* **Dosage:**  The dosage of colchicine varies depending on the condition being treated and the individual patient. It's crucial to follow your doctor's instructions carefully.
-* **Side effects:**  While generally safe, colchicine can cause side effects like nausea, vomiting, diarrhea, and abdominal pain. In rare cases, it can also cause liver damage.
-* **Interactions:**  Colchicine can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
-* **Contraindications:**  Colchicine is not suitable for everyone. It's contraindicated in individuals with certain medical conditions, such as liver disease, kidney disease, and severe heart problems.
-**In summary:**
-Colchicine is a powerful anti-inflammatory medication that effectively treats gout and other inflammatory conditions. It works by blocking the production of inflammatory chemicals, reducing pain and swelling. However, it's important to use it under the guidance of a healthcare professional and be aware of potential side effects and interactions.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
+**What is Colchicine?**
+Colchicine is a medication derived from the autumn crocus plant (Colchicum autumnale). It's a natural compound with potent anti-inflammatory properties, primarily used to treat acute gout attacks. 
+**How Does it Work?**
+Colchicine works by blocking the production of inflammatory chemicals called cytokines. These chemicals are responsible for the pain, swelling, and redness associated with gout. It also inhibits the movement of white blood cells, which are involved in the inflammatory process.
+**Uses of Colchicine:**
+* **Acute Gout Attacks:** This is its primary use. It can significantly reduce the pain, swelling, and redness associated with gout flares.
+* **Prevention of Gout:**  While not a cure, colchicine can help prevent future gout attacks in individuals with a history of frequent gout episodes.
+* **Other Inflammatory Conditions:**  Colchicine has shown promise in treating other inflammatory conditions like Behçet's disease, familial Mediterranean fever, and certain types of arthritis.
+**Administration:**
+Colchicine is typically taken orally, usually in a dose of 0.5 to 1.2 mg. The dosage and duration of treatment will vary depending on the individual and the severity of the condition.
+**Side Effects:**
+While generally safe, colchicine can cause side effects, including:
+* **Gastrointestinal Issues:** Nausea, vomiting, diarrhea, and abdominal pain are common.
+* **Headache:**  A frequent side effect.
+* **Skin Rash:**  A less common but possible side effect.
+* **Liver Damage:**  Rare but serious, especially with high doses or prolonged use.
+**Important Considerations:**
+* **Consult a Doctor:**  Always consult a doctor before taking colchicine, especially if you have any underlying medical conditions or are taking other medications.
+* **Pregnancy and Breastfeeding:**  Colchicine is not recommended for pregnant or breastfeeding women.
+* **Drug Interactions:**  Colchicine can interact with other medications, so it's crucial to inform your doctor about all medications you are taking.
+**In Conclusion:**
+Colchicine is a valuable tool in managing gout and other inflammatory conditions. It works by reducing inflammation and pain. However, it's essential to use it under the guidance of a healthcare professional and be aware of potential side effects. 
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1910,34 +1945,31 @@
       <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about a common concern!  Let's break down how Clindamycin is used for UTIs.
-**Clindamycin: A Powerful Antibiotic**
-Clindamycin is a powerful antibiotic that belongs to a class called lincosamides. It's effective against a wide range of bacteria, including those that cause UTIs. 
-**UTIs: A Common Infection**
-Urinary tract infections (UTIs) are infections that occur in any part of the urinary system, including the kidneys, ureters, bladder, and urethra. They are often caused by bacteria, particularly E. coli.
-**Clindamycin for UTIs: When It's Used**
-Clindamycin is often used to treat UTIs, particularly those caused by bacteria resistant to other antibiotics.  Here's why:
-* **Broad Spectrum:** It's effective against a variety of bacteria, including those that cause UTIs.
-* **Oral and Intravenous:** It can be taken orally or intravenously, depending on the severity of the infection and the patient's condition.
-* **Good for Resistant Infections:**  It's often a good choice when other antibiotics haven't been effective.
-**Important Considerations**
-* **Not Always the First Choice:** While effective, Clindamycin isn't always the first-line treatment for UTIs.  Your doctor will consider factors like the severity of the infection, your medical history, and potential side effects.
-* **Potential Side Effects:** Like all antibiotics, Clindamycin can cause side effects, including:
-    * Diarrhea
-    * Nausea
-    * Vomiting
-    * Stomach pain
-    * Yeast infections
-    * Allergic reactions
-* **Important to Complete the Course:** It's crucial to complete the full course of antibiotics prescribed by your doctor, even if you start feeling better before finishing. This ensures that all bacteria are eliminated and prevents the infection from returning.
-**When to See a Doctor**
-If you suspect you have a UTI, it's important to see a doctor for proper diagnosis and treatment.  They can determine the cause of your symptoms and prescribe the most appropriate medication.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor for any health concerns. 
+It's great you're asking about UTI treatment!  Clindamycin is an antibiotic, and it's indeed used to treat certain types of infections, but it's **not the first-line choice for UTIs**. 
+Here's a breakdown of why:
+**Clindamycin's Role:**
+* **Effective against certain bacteria:** Clindamycin is effective against bacteria like *Staphylococcus aureus* and *Streptococcus* species, which can cause UTIs.
+* **Not a primary UTI treatment:**  While it can be used, it's not the standard treatment for UTIs. This is because UTIs are primarily caused by bacteria like *Escherichia coli* (E. coli). 
+**Why Clindamycin is Less Common for UTIs:**
+* **Resistance:**  E. coli can develop resistance to clindamycin, making it less effective.
+* **Side effects:** Clindamycin can cause side effects like diarrhea, nausea, and skin reactions.
+* **Other options:**  There are other antibiotics specifically designed for UTIs that are more effective and have fewer side effects.
+**What to Do:**
+* **See a doctor:** If you suspect a UTI, it's crucial to see a doctor for proper diagnosis and treatment. 
+* **Standard treatment:**  Your doctor will likely prescribe a different antibiotic, such as:
+    * **Nitrofurantoin:** This is often the first-line treatment for uncomplicated UTIs.
+    * **Trimethoprim/sulfamethoxazole (TMP/SMX):** This is another common choice.
+    * **Fosfomycin:** This is a single-dose antibiotic that can be effective for UTIs.
+* **Follow instructions:**  Take the prescribed antibiotic exactly as directed by your doctor.
+**Important Notes:**
+* **Self-treating can be dangerous:**  Don't try to self-diagnose or self-treat a UTI. 
+* **Antibiotic resistance:**  Using antibiotics inappropriately can contribute to antibiotic resistance, making infections harder to treat in the future.
+Remember, I'm an AI and cannot provide medical advice. Always consult a healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1996,7 +2028,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2037,22 +2069,27 @@
       <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about taking Pepto-Bismol or Tylenol alongside your antibiotic.  While I can provide general information, **I am not a medical professional and cannot give medical advice.**  
+I understand you're looking for information about taking Pepto-Bismol or Tylenol with your antibiotics.  While I can provide general information, **I am not a medical professional and cannot give medical advice.**  
 Here's what I can tell you:
 **It's crucial to consult your doctor or pharmacist before taking any over-the-counter medications with your antibiotics.**  
 Here's why:
 * **Drug Interactions:** Antibiotics and over-the-counter medications can interact in unpredictable ways. Some combinations can reduce the effectiveness of the antibiotic or cause harmful side effects.
 * **Individual Needs:** Your doctor knows your specific medical history, allergies, and the type of antibiotic you're taking. They can advise you on the best course of action for your individual situation.
-* **Underlying Conditions:** Certain conditions might make it unsafe to take certain medications together.
+* **Underlying Conditions:** Certain conditions might make it unsafe to take certain medications with antibiotics.
 **General Information:**
 * **Pepto-Bismol (Bismuth subsalicylate):** This medication is used to treat indigestion, diarrhea, and nausea. It can help with some side effects of antibiotics, but it's not a substitute for proper medical care.
-* **Tylenol (Acetaminophen):** This is a pain reliever and fever reducer. It can be used to manage fever and discomfort associated with antibiotics, but it's important to follow the recommended dosage.
-**Always prioritize your health and safety by consulting your doctor or pharmacist before taking any medications.** They can provide personalized advice based on your specific needs and medical history. 
+* **Tylenol (Acetaminophen):** This medication is used to reduce fever and relieve pain. It can be used to manage some side effects of antibiotics, but it's important to follow the recommended dosage.
+**Always follow your doctor's instructions and never self-medicate.**  They are your best resource for safe and effective treatment. 
+**Remember:**
+* **Never mix medications without consulting your doctor.**
+* **Be sure to tell your doctor about all medications you are taking, including over-the-counter drugs, vitamins, and supplements.**
+* **If you experience any unusual side effects, contact your doctor immediately.** 
+I hope this information is helpful. Please prioritize your health and consult your doctor for personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2099,26 +2136,19 @@
 I understand you're looking for information about combining NyQuil and Benadryl. While I can provide general information, I am not a medical professional and cannot give medical advice. 
 **It's crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter drugs like NyQuil and Benadryl.**
 Here's what I can tell you generally:
-* **NyQuil** contains acetaminophen (fever reducer), dextromethorphan (cough suppressant), and doxylamine succinate (antihistamine).
-* **Benadryl** (diphenhydramine) is an antihistamine.
-**Potential Interactions:**
-* **Drowsiness:** Both NyQuil and Benadryl can cause drowsiness. Combining them could significantly increase the risk of drowsiness and potentially lead to accidents or impaired judgment.
-* **Liver Toxicity:** Acetaminophen is a liver-toxic drug. Taking too much acetaminophen can cause liver damage. 
-* **Other Interactions:** There may be other interactions between the ingredients in NyQuil and Benadryl that your doctor needs to be aware of.
-**Why it's important to talk to your doctor:**
-* **Individual Needs:** Your doctor knows your medical history, allergies, and current medications. They can assess if combining these medications is safe for you.
-* **Dosage:** The correct dosage of each medication is crucial to avoid potential side effects and interactions.
-* **Underlying Conditions:** Certain medical conditions may make it unsafe to combine these medications.
-**Remember:**
-* **Read the labels:** Always read the labels of all medications you take.
-* **Follow instructions:** Take medications as directed by your doctor or pharmacist.
-* **Seek professional advice:** If you have any questions or concerns about your medications, always consult with your doctor or pharmacist.
-Please prioritize your health and safety by seeking professional medical advice. 
+* **NyQuil** contains acetaminophen (fever reducer), dextromethorphan (cough suppressant), and doxylamine succinate (antihistamine). 
+* **Benadryl** (diphenhydramine) is an antihistamine. 
+* **Combining these medications can have potential interactions and side effects.** 
+**Here are some reasons why you should talk to your doctor or pharmacist:**
+* **Drug interactions:**  NyQuil and Benadryl can interact with each other and other medications you might be taking. 
+* **Side effects:**  Combining these medications could increase the risk of side effects like drowsiness, dizziness, confusion, and even more serious complications.
+* **Underlying conditions:** Your doctor can assess your individual health history and determine if combining these medications is safe for you.
+**Remember:** Your health is paramount. Always seek professional medical advice before taking any medications, even over-the-counter ones. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2161,17 +2191,13 @@
 **It is crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter options like Dramamine and prescription medications.** 
 Here's why:
 * **Drug interactions:**  Some medications can interact with each other, potentially causing harmful side effects or reducing the effectiveness of one or both drugs. 
-* **Individual factors:** Your medical history, allergies, and other medications you're taking can influence how your body reacts to a combination.
-* **Dosage:**  The correct dosage of each medication is essential for safety and effectiveness.
+* **Individual factors:** Your specific medical history, allergies, and other medications you're taking can influence whether a combination is safe.
+* **Dosage:** The correct dosage of each medication is essential for safety and effectiveness.
 **What your doctor or pharmacist can do:**
-* **Assess your specific situation:** They will consider your medical history, current medications, and any potential risks.
-* **Provide personalized advice:** They can advise you on whether combining the medications is safe and appropriate for you.
-* **Recommend alternative options:** If necessary, they can suggest alternative medications or dosage adjustments.
+* **Assess your individual situation:** They will consider your medical history, current medications, and any potential risks.
+* **Provide personalized advice:** They can advise you on whether combining the medications is safe and recommend the appropriate dosage.
+* **Monitor for side effects:** They can monitor you for any adverse reactions and adjust the treatment plan if necessary.
 **Remember:** Never self-medicate or change your medication regimen without consulting a healthcare professional. 
-**Here are some general points about Dramamine and nausea:**
-* **Dramamine (dimenhydrinate)** is an antihistamine that is commonly used to treat nausea and motion sickness.
-* **Prescription medications** for nausea may have different mechanisms of action and potential side effects. 
-**Please prioritize your health and safety by seeking professional medical advice.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2221,24 +2247,23 @@
 It's great you're asking about this!  It's a common question, and the answer is nuanced.  Here's what I, as a wise doctor, can tell you:
 **The short answer is: It depends.**  
 **Here's why:**
-* **Type 1 Diabetes:** People with type 1 diabetes need to carefully manage their blood sugar levels.  They often need to avoid sugary foods and drinks, as they can cause rapid spikes in blood sugar.  
-* **Type 2 Diabetes:**  People with type 2 diabetes can often eat sweets in moderation, but it's crucial to be mindful of portion sizes and the type of sugar. 
-* **Gestational Diabetes:**  Women who develop gestational diabetes during pregnancy need to be extra careful about their sugar intake.  
-**Here's what you need to consider:**
-* **Type of Sweet:**  
-    * **Natural Sugars:** Fruits, honey, and maple syrup contain natural sugars, but they also come with fiber and nutrients.  These can be part of a healthy diet in moderation.
-    * **Added Sugars:**  Sugary drinks, candies, and processed foods often contain high amounts of added sugar, which can cause blood sugar spikes.  
-* **Portion Size:**  Even healthy foods can raise blood sugar if eaten in large quantities.  
-* **Individual Needs:**  Every person with diabetes is different.  A doctor can help you determine the best diet for your specific needs.
-* **Blood Sugar Monitoring:**  Regular blood sugar monitoring is essential for managing diabetes.  This will help you understand how different foods affect your blood sugar levels.
-**Here are some tips for managing sweets with diabetes:**
-* **Read food labels carefully:** Pay attention to the amount of sugar in each serving.
-* **Choose whole, unprocessed foods:**  Fruits, vegetables, and lean protein are good choices.
-* **Limit sugary drinks:**  Water, unsweetened tea, and sparkling water are healthier alternatives.
-* **Be mindful of portion sizes:**  Even healthy foods can raise blood sugar if eaten in large quantities.
-* **Talk to your doctor or a registered dietitian:** They can help you create a personalized meal plan that meets your needs.
-**Remember:**  Managing diabetes is a lifelong journey.  It's important to work closely with your healthcare team to develop a plan that works for you. 
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical guidance.  Always consult with your doctor or a qualified healthcare professional for personalized advice. 
+* **Type 1 Diabetes:** People with type 1 diabetes have their own insulin production compromised.  They need insulin to regulate blood sugar.  Eating sweets can cause blood sugar to spike, leading to complications.  **They should avoid sugary foods and drinks and focus on a balanced diet.**
+* **Type 2 Diabetes:**  People with type 2 diabetes have insulin resistance, meaning their body doesn't use insulin effectively.  While sweets can cause blood sugar to spike, they are not inherently "bad" for everyone with type 2 diabetes.  
+    * **Moderation is key:**  It's about portion control and choosing healthier options.
+    * **Focus on whole foods:**  Fruits, vegetables, lean protein, and whole grains are better choices.
+    * **Blood sugar monitoring:**  Regularly checking blood sugar levels is crucial to manage blood sugar fluctuations.
+    * **Individualized approach:**  A doctor can help create a personalized meal plan based on individual needs and blood sugar control.
+**Important Considerations:**
+* **Type of Sweet:**  The type of sweet matters.  
+    * **Natural sugars:**  Found in fruits, honey, and maple syrup, are generally okay in moderation.
+    * **Added sugars:**  Found in processed foods, sodas, and candies, are the biggest culprits for blood sugar spikes.
+* **Portion Size:**  Even healthy sweets should be consumed in moderation.
+* **Individual Needs:**  Every person with diabetes is different.  What works for one person may not work for another.  
+* **Medication:**  Diabetes medications can affect how the body processes sugar.  It's important to discuss food choices with your doctor.
+**Remember:**
+* **Consult a doctor:**  It's crucial to work with a healthcare professional to create a safe and effective diabetes management plan.
+* **Focus on overall health:**  A healthy diet, regular exercise, and stress management are essential for managing diabetes.
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2289,22 +2314,21 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about taking painkillers and antibiotics together.  **However, I am an AI and cannot give medical advice.** 
-It's crucial to **consult your doctor or pharmacist** about this. They can assess your specific situation, the medications you're taking, and potential interactions. 
+It's crucial to **always consult with your doctor or pharmacist** about medication interactions. They can provide personalized guidance based on your specific situation and the medications you're taking. 
 Here's why it's important to talk to a medical professional:
-* **Drug Interactions:** Painkillers and antibiotics can sometimes interact, potentially reducing the effectiveness of one or causing side effects. 
-* **Individual Needs:** Your doctor knows your medical history, allergies, and other medications you might be taking, which is crucial for safe medication use.
-* **Dosage and Timing:** The correct dosage and timing of medications are essential for their effectiveness and safety.
+* **Drug Interactions:** Painkillers and antibiotics can sometimes interact with each other, potentially reducing the effectiveness of one or causing side effects. 
+* **Individual Needs:** Your doctor knows your medical history, allergies, and other medications you might be taking, which is essential for safe and effective treatment.
+* **Dosage and Timing:** The correct dosage and timing of medications are crucial for their effectiveness and safety. 
 **General Information:**
-* **Always follow your doctor's instructions.** They are the best source of information about your specific medications.
 * **Never mix medications without consulting a healthcare professional.** 
-* **Be aware of potential side effects.**  
-* **Keep a list of all medications and supplements you take.** This will help your doctor monitor your health.
-Remember, your health is paramount. Seeking professional medical advice is the safest and most responsible way to manage your medications. 
+* **Always read the label and follow the instructions on your medication packaging.**
+* **Keep a list of all your medications and supplements with you at all times.**
+**Remember:** Your health is paramount. Seeking professional medical advice is the safest and most responsible way to manage your medications. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2343,25 +2367,31 @@
       <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the connection between sinus infections and neck pain and vein distention. While not a direct cause, there's a strong link between the two. Here's a breakdown of why:
+You're right to be curious about the connection between sinus infections and neck pain and vein swelling. While not a direct cause-and-effect relationship, there are definitely ways sinus infections can contribute to these symptoms. 
+Here's a breakdown of how it works:
 **Sinus Infections and Neck Pain:**
-* **Inflammation:** Sinus infections, also known as sinusitis, cause inflammation in the sinuses, the air-filled cavities in your skull. This inflammation can spread to nearby tissues, including the muscles and joints in your neck.
-* **Pressure:** The swelling and pressure from the sinus infection can put pressure on the surrounding structures, including the nerves and blood vessels in your neck. This pressure can lead to pain and stiffness.
-* **Post-nasal drip:**  The mucus produced during a sinus infection can drip down the back of your throat and into your neck, irritating the tissues and causing pain.
-**Sinus Infections and Neck Vein Distention:**
-* **Inflammation and Swelling:**  The same inflammation and swelling that cause neck pain can also affect the veins in your neck. This can cause them to become engorged, leading to a visible bulge or distention.
-* **Pressure on Veins:**  The pressure from the sinus infection can also put pressure on the veins in your neck, making them more likely to swell.
+* **Inflammation:**  Sinus infections cause inflammation in the sinuses, which are air-filled cavities in the skull. This inflammation can spread to nearby tissues, including the muscles and joints in the neck. This inflammation can lead to pain and stiffness in the neck.
+* **Pressure:**  The swelling and pressure from the sinus infection can also put pressure on the nerves in the neck, causing pain and discomfort.
+* **Post-nasal drip:**  The mucus produced during a sinus infection can drip down the back of the throat and into the neck, irritating the tissues and causing pain.
+**Sinus Infections and Neck Vein Dilation:**
+* **Pressure:**  The same pressure and inflammation that cause neck pain can also affect the veins in the neck.  The swelling and pressure can cause the veins to dilate, making them appear larger and more prominent.
+* **Blood flow:**  Sinus infections can also cause temporary changes in blood flow, which can lead to temporary swelling in the veins.
 **Important Considerations:**
-* **Not Always Present:**  Not everyone with a sinus infection will experience neck pain or vein distention. It's a common symptom, but not a universal one.
-* **Other Causes:** Neck pain and vein distention can also be caused by other factors, such as poor posture, muscle strain, or even underlying medical conditions.
-* **Seek Medical Advice:** If you're experiencing persistent neck pain or vein distention, it's important to consult a doctor to rule out any serious underlying conditions.
-**In Summary:**
-While not a direct cause, sinus infections can contribute to neck pain and vein distention through inflammation, pressure, and post-nasal drip. If you're experiencing these symptoms, it's best to consult a doctor to get a proper diagnosis and treatment plan. 
+* **Not always present:**  Not everyone with a sinus infection will experience neck pain or vein dilation. 
+* **Other causes:**  Neck pain and vein dilation can be caused by other factors, such as muscle strain, arthritis, or even thyroid problems. 
+* **Seek medical advice:**  If you are experiencing persistent neck pain or vein swelling, it's important to see a doctor to rule out any underlying medical conditions.
+**What to do:**
+* **Over-the-counter pain relievers:**  Acetaminophen or ibuprofen can help reduce pain and inflammation.
+* **Warm compresses:**  Applying a warm compress to the neck can help relieve pain and stiffness.
+* **Rest:**  Getting enough rest can help your body fight the infection and reduce inflammation.
+* **Hydration:**  Drinking plenty of fluids can help thin the mucus and make it easier to drain.
+* **Nasal saline spray:**  Using a saline spray can help clear the sinuses and reduce pressure.
+**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2399,28 +2429,31 @@
       <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're struggling with insomnia and looking for a quick fix. While I can't provide medical advice, I can offer some general tips that might help you get some rest:
-**Short-Term Solutions for Insomnia:**
-* **Relaxation Techniques:**  Deep breathing exercises, progressive muscle relaxation, and meditation can calm your mind and body, making it easier to fall asleep. Apps like Calm or Headspace can guide you through these techniques.
-* **Warm Bath or Shower:**  The warmth can help relax your muscles and signal your body it's time to wind down.
-* **Avoid Caffeine and Alcohol:**  These substances can interfere with your sleep cycle, making it harder to fall asleep and stay asleep.
-* **Limit Screen Time:**  The blue light emitted from electronic devices can suppress melatonin production, a hormone that regulates sleep. Avoid screens for at least an hour before bed.
-* **Create a Sleep Sanctuary:**  Make your bedroom a haven for sleep. Keep it cool, dark, and quiet. Invest in blackout curtains, a white noise machine, or earplugs if needed.
-* **Stick to a Regular Sleep Schedule:**  Even on weekends, try to go to bed and wake up around the same time each day to regulate your body's natural sleep-wake cycle.
-* **Light Exercise:**  Regular physical activity can improve sleep quality, but avoid exercising too close to bedtime.
+I understand you're struggling with insomnia and looking for a quick fix. While I can't provide medical advice, I can offer some short-term strategies that might help you get some rest:
+**Immediate Relief:**
+* **Relaxation Techniques:** Deep breathing exercises, progressive muscle relaxation, or guided meditation can calm your mind and body. Apps like Calm or Headspace can be helpful.
+* **Warm Bath or Shower:** The warmth can help relax your muscles and ease tension.
+* **Avoid Caffeine and Alcohol:** These substances can interfere with sleep patterns.
+* **Limit Screen Time:** The blue light emitted from screens can suppress melatonin production, making it harder to fall asleep.
+* **White Noise:** A fan, white noise machine, or calming nature sounds can mask disruptive noises and create a more peaceful environment.
+**Short-Term Lifestyle Changes:**
+* **Regular Sleep Schedule:** Go to bed and wake up at the same time each day, even on weekends, to regulate your body's natural sleep-wake cycle.
+* **Create a Relaxing Bedtime Routine:**  A warm bath, reading, or light stretching can signal your body that it's time to wind down.
+* **Comfortable Sleep Environment:** Make sure your bedroom is dark, quiet, and cool. Invest in a comfortable mattress and pillows.
+* **Avoid Large Meals Before Bed:** Eating a heavy meal close to bedtime can disrupt sleep.
 **Important Note:**
-These are general tips and may not be suitable for everyone. If your insomnia is persistent or severe, it's crucial to consult a medical professional. They can help determine the underlying cause and recommend appropriate treatment options, which may include:
-* **Cognitive Behavioral Therapy for Insomnia (CBT-I):**  This therapy helps you identify and change thoughts and behaviors that contribute to insomnia.
-* **Prescription Medications:**  In some cases, your doctor may prescribe sleep medications to help you fall asleep and stay asleep.
-Remember, addressing insomnia requires a multifaceted approach. While these short-term solutions can provide temporary relief, seeking professional help is essential for long-term management and addressing any underlying medical conditions. 
+These strategies are temporary solutions and may not address the underlying cause of your insomnia. If your insomnia persists or is severe, it's crucial to consult a medical professional. They can help you identify the cause of your insomnia and recommend appropriate treatment options, which may include:
+* **Cognitive Behavioral Therapy for Insomnia (CBT-I):** This therapy helps you identify and change thoughts and behaviors that contribute to insomnia.
+* **Prescription Medications:** In some cases, your doctor may prescribe sleep medications to help you fall asleep and stay asleep.
+Remember, addressing insomnia requires a holistic approach. While these short-term strategies can provide temporary relief, seeking professional help is essential for long-term management and improvement. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2458,34 +2491,33 @@
 **Lifestyle Changes:**
 * **Regular Exercise:**  Physical activity is a powerful stress reliever. Aim for at least 30 minutes of moderate-intensity exercise most days of the week. 
 * **Mindfulness and Meditation:**  These practices help you focus on the present moment, reducing rumination and worry. There are many free guided meditations available online.
-* **Quality Sleep:**  Aim for 7-9 hours of sleep per night.  A consistent sleep schedule and a relaxing bedtime routine can improve sleep quality.
-* **Healthy Diet:**  Eating a balanced diet rich in fruits, vegetables, and whole grains can support overall well-being and mood. Limit processed foods, sugar, and caffeine.
-* **Limit Alcohol and Drugs:**  These substances can worsen anxiety symptoms in the long run.
+* **Quality Sleep:**  Aim for 7-9 hours of sleep per night. Poor sleep can worsen anxiety symptoms. 
+* **Healthy Diet:**  A balanced diet rich in fruits, vegetables, and whole grains can support overall well-being and mood. Limit processed foods, sugar, and caffeine.
+* **Limit Alcohol and Drugs:**  These substances can worsen anxiety in the long run.
 **Natural Supplements:**
-* **Ashwagandha:**  This adaptogenic herb may help reduce stress and anxiety by regulating cortisol levels.
-* **Chamomile:**  Known for its calming properties, chamomile tea can promote relaxation and sleep.
-* **Lavender:**  The scent of lavender has been shown to have a calming effect on the nervous system.
-* **Magnesium:**  This mineral plays a role in muscle relaxation and may help reduce anxiety symptoms.
-* **Omega-3 Fatty Acids:**  Found in fatty fish and supplements, omega-3s may have anti-inflammatory effects and support brain health.
+* **Ashwagandha:**  This adaptogenic herb may help reduce stress and anxiety. 
+* **Chamomile:**  Known for its calming effects, chamomile tea can be soothing before bed.
+* **Lavender:**  The scent of lavender has been shown to have calming effects. You can use essential oil in a diffuser or add a few drops to your bath.
+* **Magnesium:**  This mineral plays a role in regulating mood and sleep. 
+* **Omega-3 Fatty Acids:**  Found in fatty fish, flaxseeds, and walnuts, omega-3s may have anti-inflammatory effects that can benefit anxiety.
 **Other Natural Approaches:**
-* **Spending Time in Nature:**  Being outdoors can have a calming effect on the mind and body.
-* **Deep Breathing Exercises:**  Slow, deep breaths can help regulate your heart rate and reduce anxiety.
-* **Aromatherapy:**  Certain essential oils, like lavender, chamomile, and bergamot, can have calming effects.
-* **Yoga and Tai Chi:**  These practices combine movement, breathing, and mindfulness to promote relaxation and reduce stress.
+* **Spending Time in Nature:**  Being outdoors can have a calming effect.
+* **Connecting with Others:**  Social support is crucial for mental health.
+* **Engaging in Hobbies:**  Doing things you enjoy can provide a sense of accomplishment and relaxation.
+* **Aromatherapy:**  Certain scents, like lavender, chamomile, and bergamot, can have calming effects.
 **Important Notes:**
-* **Consult with a Healthcare Professional:**  It's crucial to talk to your doctor before starting any new supplements or making significant lifestyle changes, especially if you have any underlying health conditions.
+* **Consult a Healthcare Professional:**  It's essential to talk to your doctor before starting any new supplements or making significant lifestyle changes, especially if you have any underlying health conditions.
 * **Individual Responses Vary:**  What works for one person may not work for another. It's important to find what works best for you.
 * **Natural Doesn't Mean Risk-Free:**  While generally safe, some natural remedies can have side effects or interact with medications. 
-* **Anxiety is a Complex Condition:**  Natural approaches can be helpful, but they are not a substitute for professional treatment. If your anxiety is severe or persistent, seek help from a mental health professional.
-Remember, managing anxiety is a journey, and finding what works best for you may take time. Be patient with yourself and explore different options until you find a combination that helps you feel better. 
+Remember, anxiety is a complex condition, and finding the right combination of approaches may take time. Be patient with yourself and seek professional help if needed. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2526,25 +2558,22 @@
 * **Sinusitis is often caused by a viral infection:**  Most cases of sinusitis are caused by a virus, and antibiotics are ineffective against viruses. 
 * **Antibiotic overuse can lead to antibiotic resistance:**  Using antibiotics unnecessarily can contribute to the development of resistant bacteria, making future infections harder to treat.
 * **Underlying conditions:**  Your doctor can assess your overall health and determine if there are any underlying conditions that might be contributing to your sinusitis.
-**What your doctor will likely do:**
-* **Assess your symptoms:** They will ask about your symptoms, medical history, and any recent exposures.
-* **Perform a physical exam:** This will help them evaluate your nasal passages and sinuses.
-* **Order tests:**  They may order a nasal swab or imaging tests to confirm the cause of your sinusitis.
-* **Prescribe the appropriate treatment:**  If your sinusitis is caused by a bacterial infection, your doctor may prescribe antibiotics. They will also recommend other treatments, such as:
-    * **Nasal corticosteroids:** These reduce inflammation in the nasal passages.
-    * **Decongestants:** These help to relieve nasal congestion.
-    * **Saline nasal sprays:** These help to clear nasal passages.
-    * **Hydration:** Drinking plenty of fluids can help to thin mucus and make it easier to drain.
-**Remember:**  It's important to follow your doctor's instructions carefully and complete the full course of antibiotics, even if you start feeling better before finishing the medication. 
-Please schedule an appointment with your doctor or a healthcare professional to discuss your sinusitis and get the appropriate treatment. 
+**What your doctor might recommend:**
+* **Antiviral medications:**  If your sinusitis is caused by a virus, your doctor might prescribe antiviral medications to help shorten the duration of your illness.
+* **Decongestants and nasal corticosteroids:**  These medications can help relieve nasal congestion and inflammation.
+* **Pain relievers:**  Over-the-counter pain relievers like ibuprofen or acetaminophen can help manage pain and fever.
+* **Saline nasal spray:**  This can help clear nasal passages and reduce inflammation.
+* **In some cases, antibiotics may be prescribed:**  If your doctor suspects a bacterial infection, they may prescribe antibiotics. 
+**Remember:**  It's essential to follow your doctor's instructions carefully and complete the full course of antibiotics, even if you start feeling better before finishing the medication. 
+Please schedule an appointment with your doctor or a healthcare professional to discuss your sinusitis and receive the appropriate treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2581,27 +2610,40 @@
       <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  While both corticosteroids and clobetasol are powerful medications used to treat inflammation and skin conditions, they are not the same thing. 
-Here's a breakdown:
-**Corticosteroids** are a broad class of drugs that work by reducing inflammation. They are derived from the adrenal glands and are available in various forms, including:
-* **Oral:** Prednisone, prednisolone
-* **Injectable:** Dexamethasone, methylprednisolone
-* **Topical:** Hydrocortisone, betamethasone, clobetasol
-**Clobetasol** is a specific **topical** corticosteroid. It's a potent anti-inflammatory agent that's often used to treat:
-* **Atopic dermatitis (eczema):**  It helps reduce itching, redness, and inflammation.
-* **Psoriasis:** It can help control the rapid skin cell growth.
-* **Contact dermatitis:** It can help reduce inflammation caused by allergic reactions.
-* **Other skin conditions:** It can be used for various other skin conditions like lichen planus, seborrheic dermatitis, and acne.
-**Key Differences:**
-* **Classification:** Corticosteroids are a broad class, while clobetasol is a specific member of that class.
-* **Form:** Clobetasol is a topical steroid, while others are available orally, intravenously, or intramuscularly.
-* **Potency:** Clobetasol is a potent topical corticosteroid, while other corticosteroids have varying potencies.
+That's a great question!  Let's break down the relationship between corticosteroids and clobetasol.
+**Corticosteroids**
+* **What they are:** Corticosteroids are a class of drugs that mimic the effects of cortisol, a hormone naturally produced by the adrenal glands. 
+* **How they work:** They have powerful anti-inflammatory and immunosuppressive properties. This means they can reduce swelling, redness, and pain, and they can suppress the immune system's response.
+* **Uses:** Corticosteroids are used to treat a wide range of conditions, including:
+    * Allergies
+    * Asthma
+    * Inflammatory bowel disease
+    * Arthritis
+    * Skin conditions like eczema and psoriasis
+    * Autoimmune diseases
+    * Certain types of cancer
+**Clobetasol**
+* **What it is:** Clobetasol is a specific type of corticosteroid. It's a **topical** corticosteroid, meaning it's applied directly to the skin.
+* **How it works:** Clobetasol works similarly to other corticosteroids, reducing inflammation and suppressing the immune system.
+* **Uses:** Clobetasol is commonly used to treat:
+    * Severe eczema (atopic dermatitis)
+    * Psoriasis
+    * Contact dermatitis
+    * Other skin conditions
+**Are they the same?**
+* **Yes, in a general sense.**  Clobetasol is a specific type of corticosteroid, and all clobetasol belongs to the broader category of corticosteroids. 
+* **But, there are differences.**  The specific chemical structure and potency of clobetasol can vary slightly from other corticosteroids. 
 **Important Considerations:**
-* **Side Effects:** All corticosteroids, including clobetasol, can have side effects like skin thinning, stretch marks, and increased risk of infections.
-* **Prescription:** Clobetasol is a prescription medication and should only be used under the guidance of a healthcare professional.
-* **Individualized Treatment:** The choice of corticosteroid and its dosage depends on the specific condition being treated and the individual patient's needs.
-**In summary:**
-While clobetasol is a specific type of corticosteroid, it's important to remember that corticosteroids are a broad class of drugs with varying potencies and uses. Always consult with a healthcare professional for proper diagnosis and treatment. 
+* **Prescription:**  Corticosteroids, including clobetasol, are potent medications that require a prescription from a healthcare professional. 
+* **Side effects:**  Like all medications, corticosteroids can have side effects, including:
+    * Skin thinning
+    * Acne
+    * Weight gain
+    * Mood changes
+    * Increased risk of infections
+* **Long-term use:**  Long-term use of corticosteroids can have serious side effects, so it's important to use them only as directed by your doctor.
+**In summary:** Clobetasol is a specific type of corticosteroid, and it's a powerful tool for treating various skin conditions. However, it's important to remember that all corticosteroids have potential side effects and should be used under the guidance of a healthcare professional. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2675,10 +2717,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2718,26 +2760,27 @@
       <c r="G35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about potential connections between esophagitis and neck muscle stiffness.  While they are not directly linked, there are some ways they could be related, and it's important to understand the nuances.
-**Esophagitis** is inflammation of the esophagus, the tube that carries food from your mouth to your stomach.  It can be caused by various factors, including:
-* **Gastroesophageal reflux disease (GERD):**  Stomach acid backing up into the esophagus.
-* **Medications:** Certain drugs can irritate the esophagus.
-* **Infections:** Viral or bacterial infections can cause inflammation.
-* **Allergies:** Food allergies or sensitivities can trigger esophagitis.
-**Neck muscle stiffness** can be caused by a variety of factors, including:
-* **Muscle strain or injury:**  Overuse, poor posture, or sudden movements can cause muscle stiffness.
-* **Arthritis:**  Inflammation of the joints can cause stiffness.
-* **Cervical radiculopathy (pinched nerve):**  Pressure on a nerve in the neck can cause pain and stiffness.
-* **Other neurological conditions:**  Multiple sclerosis, stroke, or other neurological conditions can cause neck stiffness.
-**Possible Connections:**
-* **Indirect Relationship:**  Esophagitis can cause discomfort and pain, which might be mistaken for muscle stiffness in the neck.  The pain could radiate from the esophagus to the neck, especially if the inflammation is severe.
-* **Referred Pain:**  The esophagus and neck muscles are connected through the vagus nerve.  Inflammation in the esophagus could potentially trigger pain signals that are perceived as neck stiffness.
-* **Psychological Factors:**  Anxiety or stress can sometimes manifest as muscle tension, including in the neck.  If someone is experiencing esophagitis, they might be more prone to anxiety or stress, which could contribute to neck stiffness.
-**Important Considerations:**
-* **Diagnosis:**  It's crucial to see a doctor for a proper diagnosis.  They can perform a physical exam, review your medical history, and order tests (like an endoscopy) to determine the cause of your symptoms.
-* **Treatment:**  Treatment for esophagitis depends on the underlying cause.  It may involve lifestyle changes, medications, or surgery.  Neck muscle stiffness can be treated with rest, ice, heat, and physical therapy.
-* **Self-Diagnosis:**  Do not self-diagnose.  It's important to seek professional medical advice for any health concerns.
-**In summary:** While esophagitis and neck muscle stiffness are not directly linked, there are potential indirect connections.  It's essential to consult a doctor for a proper diagnosis and treatment plan. 
+It's great you're asking about potential connections between symptoms. While I can't provide medical advice, I can offer information based on my knowledge. 
+**Esophagitis and Neck Stiffness**
+* **Esophagitis:** This is inflammation of the esophagus, the tube that carries food from your mouth to your stomach. It can be caused by various factors, including acid reflux, certain medications, and infections. 
+* **Muscle Stiffness in the Neck:** This can be caused by a variety of things, including:
+    * **Cervical spondylosis:** Wear and tear on the joints in the neck.
+    * **Muscle strain:** From overuse, injury, or poor posture.
+    * **Cervical radiculopathy:** Compression of a nerve in the neck.
+    * **Other neurological conditions:** Such as multiple sclerosis or a stroke.
+**Possible Connections**
+While esophagitis and muscle stiffness in the neck are not directly linked, there are some potential connections to consider:
+* **Muscle Tension:** Esophagitis can cause discomfort and pain, which could lead to muscle tension in the neck and shoulders. This is similar to how stress or anxiety can cause muscle tension.
+* **Referred Pain:**  Sometimes, pain from one area can be felt in another area.  If the pain from esophagitis is severe, it could potentially radiate to the neck, causing muscle stiffness.
+* **Indirect Effects:**  Certain medications used to treat esophagitis can have side effects that might contribute to muscle stiffness.
+**Important Considerations**
+* **Individual Variation:**  The connection between esophagitis and neck stiffness is not universal.  
+* **Other Causes:** Neck stiffness can have many causes, and it's crucial to rule out other conditions.
+* **Professional Diagnosis:**  If you're experiencing neck stiffness and swallowing difficulties, it's essential to consult a doctor. They can perform a physical exam, order tests, and provide a proper diagnosis.
+**What to Do**
+* **See a Doctor:** If you're experiencing both esophagitis and neck stiffness, it's important to see a doctor. They can help determine the cause of your symptoms and recommend the appropriate treatment.
+* **Keep a Symptom Diary:**  Note down when your symptoms occur, what you ate or drank, and any other relevant information. This can help your doctor identify potential triggers.
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2745,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2780,30 +2823,29 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about Sertraline and premature ejaculation.  
-It's important to preface this by saying: I am an AI and cannot provide medical advice.  The information below is for general knowledge purposes only and should not be substituted for professional medical guidance. 
+It's important to preface this by saying: I am an AI and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical guidance. 
 **Sertraline and Premature Ejaculation**
-Sertraline is an antidepressant medication, primarily used to treat depression and anxiety. It belongs to a class of drugs called selective serotonin reuptake inhibitors (SSRIs).  
-**Limited Research and Uncertainties**
-While some studies have investigated the potential of SSRIs like Sertraline for premature ejaculation, the evidence is not conclusive.  Here's what we know:
-* **Limited Clinical Trials:**  There haven't been large-scale, well-designed clinical trials specifically focusing on Sertraline's effectiveness for premature ejaculation. 
-* **Possible Mechanisms:**  Sertraline's mechanism of action in treating depression and anxiety may indirectly affect sexual function. It's thought that it could potentially:
-    * **Increase serotonin levels:** Serotonin plays a role in regulating sexual arousal and response.
-    * **Improve mood and reduce anxiety:**  These factors can contribute to better sexual experiences.
-* **Individual Variability:**  The effectiveness of Sertraline for premature ejaculation can vary significantly from person to person. 
-* **Side Effects:**  Sertraline can have side effects, including nausea, dizziness, and sexual side effects. 
-**Important Considerations:**
-* **Consult a Medical Professional:**  If you're experiencing premature ejaculation, it's crucial to consult a qualified healthcare professional. They can:
-    * **Properly diagnose the issue:**  Premature ejaculation can have various underlying causes.
-    * **Recommend appropriate treatment:**  This may include therapy, behavioral techniques, or medication.
-    * **Monitor your progress:**  They can adjust treatment as needed.
-* **Don't Self-Medicate:**  Never start or stop taking any medication without consulting your doctor. 
-* **Be Realistic:**  While some individuals may find relief with Sertraline, it's not a guaranteed solution for everyone.
-**Remember:**  Your doctor is your best resource for information and guidance regarding your health. 
+Sertraline, commonly known by the brand name Zoloft, is an antidepressant medication that belongs to a class of drugs called selective serotonin reuptake inhibitors (SSRIs). While it's primarily used to treat depression and anxiety, some research suggests it may also be helpful for managing premature ejaculation (PE).
+**Here's what we know:**
+* **Limited Research:**  There isn't a large body of research specifically focusing on the effectiveness of Sertraline for PE. Most studies have been small and focused on other conditions.
+* **Possible Mechanism:** Sertraline works by increasing serotonin levels in the brain. Serotonin plays a role in regulating sexual function and arousal. Some researchers believe that by increasing serotonin, Sertraline might help delay ejaculation.
+* **Potential Benefits:** Some anecdotal evidence and small studies suggest that Sertraline may be effective in reducing the frequency and severity of PE. However, these findings are not conclusive.
+* **Individual Variability:**  It's important to remember that everyone responds differently to medications. What works for one person may not work for another. 
+* **Side Effects:** Sertraline can have side effects, including nausea, dizziness, and sexual side effects. 
+**What to Do:**
+* **Consult a Doctor:** If you're experiencing premature ejaculation, the best course of action is to consult a healthcare professional. They can assess your individual situation, discuss potential treatment options, and determine if Sertraline is appropriate for you.
+* **Discuss Other Options:** There are other medications and therapies available for PE, including:
+    * **Anti-androgens:** These medications can help reduce testosterone levels, which may be contributing to PE.
+    * **Cognitive Behavioral Therapy (CBT):** This type of therapy can help you understand and manage the psychological aspects of PE.
+    * **Kegel Exercises:** These exercises can help strengthen pelvic floor muscles, which may improve control over ejaculation.
+    * **Other Medications:** There are other medications specifically designed for PE, such as finasteride and duloxetine.
+**Remember:** It's crucial to discuss any potential treatment options with your doctor to ensure they are safe and appropriate for you. 
+Please prioritize your health and seek professional medical advice for any concerns you have about premature ejaculation or any other medical condition. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2844,34 +2886,33 @@
           <t xml:space="preserve">
 You're right to be curious about the connection between depression and memory loss. It's a complex issue, and the answer isn't always straightforward. 
 Here's what we know:
-**The Link Between Depression and Memory:**
-* **Direct Impact:** Depression can directly affect the brain's hippocampus, a crucial area for memory formation and retrieval.  This can lead to difficulties with:
-    * **Short-term memory:**  Struggling to remember recent events or conversations.
-    * **Long-term memory:**  Having trouble recalling past experiences or learning new information.
-    * **Spatial memory:**  Finding it hard to navigate familiar places or remember directions.
-* **Indirect Impact:** Depression can also impact memory indirectly through:
-    * **Stress and anxiety:**  These can interfere with cognitive function, including memory.
-    * **Sleep disturbances:**  Depression often causes sleep problems, which can impair memory consolidation.
-    * **Lifestyle changes:**  Depression can lead to unhealthy habits like poor diet and lack of exercise, both of which can affect brain health and memory.
-* **Medication Side Effects:** Some antidepressants can have side effects that impact memory, such as drowsiness or confusion.
-**The Importance of Diagnosis:**
-It's crucial to remember that memory problems can be caused by many things, not just depression.  If you're experiencing memory loss, it's important to:
-* **Consult a doctor:**  They can help determine the underlying cause and recommend appropriate treatment.
-* **Rule out other conditions:**  Conditions like thyroid disorders, vitamin deficiencies, and certain medications can also cause memory problems.
-**Treatment Options:**
-* **Therapy:** Cognitive behavioral therapy (CBT) can help manage depression and improve memory function.
+**1. Depression and Memory:**
+* **Direct Link?**  There's no simple, direct causal link between depression and memory loss. However, depression can significantly impact cognitive function, including memory. 
+* **Indirect Link:** Depression can create a cascade of problems that indirectly affect memory. For example:
+    * **Stress and Anxiety:** Depression is often accompanied by chronic stress and anxiety, which can impair memory consolidation and retrieval.
+    * **Hormonal Changes:** Depression can disrupt the balance of hormones like cortisol and estrogen, which are crucial for brain health and memory.
+    * **Sleep Disturbances:** Depression can lead to insomnia or other sleep problems, which are known to negatively impact memory.
+    * **Lifestyle Factors:** Depression can lead to unhealthy habits like poor diet, lack of exercise, and social isolation, all of which can contribute to cognitive decline.
+**2. Types of Memory Affected:**
+* **Working Memory:** This is the ability to hold information in mind temporarily for immediate use. Depression can impair working memory, making it difficult to focus, remember instructions, or follow conversations.
+* **Long-Term Memory:** This is the ability to store information for long periods. Depression can affect long-term memory, making it harder to recall past events, learn new information, or retrieve memories.
+* **Episodic Memory:** This is the memory of specific events and experiences. Depression can make it difficult to recall personal experiences and details of past events.
+**3. Specific Conditions:**
+* **Major Depressive Disorder (MDD):**  Studies have shown that individuals with MDD are more likely to experience memory problems, including difficulties with working memory, long-term memory, and episodic memory.
+* **Post-Traumatic Stress Disorder (PTSD):**  Individuals with PTSD often experience memory problems, including flashbacks and intrusive memories. Depression is a common comorbidity with PTSD.
+* **Neurodegenerative Diseases:**  Depression can be a risk factor for neurodegenerative diseases like Alzheimer's disease. While not a direct cause, depression can exacerbate cognitive decline.
+**4. Treatment:**
+* **Therapy:** Cognitive behavioral therapy (CBT) and other forms of therapy can help individuals with depression manage their symptoms and improve their cognitive function.
 * **Medication:** Antidepressants can help alleviate depression symptoms and improve cognitive function.
-* **Lifestyle changes:**  Regular exercise, a healthy diet, and adequate sleep can all benefit brain health and memory.
-**Important Considerations:**
-* **Not everyone with depression experiences memory problems.**  The severity and type of memory issues can vary widely.
-* **Early diagnosis and treatment are crucial.**  Addressing depression early can help prevent or minimize cognitive decline.
-* **There is hope.**  With proper treatment and lifestyle changes, many people with depression can experience significant improvements in their memory and overall cognitive function.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you are concerned about your memory or mental health, please consult a qualified healthcare professional. 
+* **Lifestyle Changes:**  Regular exercise, a healthy diet, and adequate sleep can all contribute to better cognitive health.
+**Important Note:**
+It's crucial to remember that memory problems can be caused by many factors, not just depression. If you're experiencing memory loss, it's essential to consult a doctor to rule out any underlying medical conditions. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2913,37 +2954,30 @@
       <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand your concern about getting test results before starting treatment for either Chlamydia or Gonorrhea.  It's great that you're being proactive about your health! 
-**Here's the breakdown:**
-**Why Tests Are Important:**
-* **Accurate Diagnosis:**  Both Chlamydia and Gonorrhea are sexually transmitted infections (STIs) that require specific testing to confirm the diagnosis.  
-* **Appropriate Treatment:**  The treatment for these infections is different depending on the specific bacteria causing the infection.  
-* **Preventing Complications:** Untreated STIs can lead to serious health complications, including pelvic inflammatory disease (PID) in women, infertility, and increased risk of HIV.
-**What Happens When You Have a Test:**
-* **Sample Collection:** A healthcare provider will collect a sample, usually a urine sample or a swab from the cervix or urethra.
-* **Laboratory Testing:** The sample is sent to a lab for testing. 
-* **Results:** The lab will analyze the sample and provide you with the results. 
-**Treatment Options:**
-* **Chlamydia:**  Chlamydia is typically treated with a single dose of antibiotics.
-* **Gonorrhea:** Gonorrhea is also treated with a single dose of antibiotics.
-**Important Considerations:**
-* **Early Detection:**  The sooner you get tested and treated, the better. 
-* **Partner Notification:**  It's crucial to inform your sexual partners so they can also get tested and treated. 
-* **Follow-Up:**  Your doctor will likely recommend a follow-up appointment to ensure the infection is cleared and to discuss any potential complications.
+It's great that you're being proactive about your health!  As a wise doctor, I can tell you that getting test results before starting treatment for either chlamydia or gonorrhea is **absolutely crucial**. Here's why:
+**Why Test Results Matter:**
+* **Accurate Diagnosis:**  Both chlamydia and gonorrhea are sexually transmitted infections (STIs) that can be easily misdiagnosed.  A test confirms the presence of the infection, ensuring you receive the right treatment.
+* **Treatment Effectiveness:**  Untreated STIs can lead to serious complications, including infertility, pelvic inflammatory disease (PID), and even increased risk of HIV.  Knowing the specific infection allows for the most effective treatment.
+* **Preventing Spread:**  Knowing your status helps you inform your sexual partners so they can get tested and treated, preventing further spread of the infection.
+* **Individualized Treatment:**  The type of treatment for chlamydia and gonorrhea can vary depending on the individual's symptoms and the severity of the infection.  Testing helps determine the best course of action.
+**What Tests Are Used:**
+* **Urine Test:**  This is the most common test for chlamydia and gonorrhea. It's quick, easy, and non-invasive.
+* **Swab Test:**  This involves collecting a sample from the cervix or urethra. It's used for chlamydia and gonorrhea, and sometimes for other STIs.
+* **Blood Test:**  This test can be used to detect antibodies to chlamydia and gonorrhea, but it's not as common as urine or swab tests.
 **What to Do:**
-1. **Schedule an Appointment:**  Make an appointment with your doctor or a sexual health clinic. 
-2. **Be Open and Honest:**  Be open and honest with your healthcare provider about your sexual history and any symptoms you may be experiencing.
-3. **Ask Questions:**  Don't hesitate to ask your doctor any questions you have about testing, treatment, or potential complications.
-**Remember:**  Getting tested and treated for STIs is essential for your health and the health of your partners. 
+1. **Talk to Your Doctor:**  Schedule an appointment with your doctor or a healthcare provider. They can order the appropriate tests and discuss your treatment options.
+2. **Be Open and Honest:**  Be open and honest with your doctor about your sexual history and any symptoms you're experiencing.
+3. **Follow Instructions:**  Follow your doctor's instructions carefully regarding treatment and follow-up appointments.
+**Remember:**  Early detection and treatment are key to preventing complications and protecting your health. Don't hesitate to seek medical advice if you have any concerns. 
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2983,31 +3017,28 @@
       <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question about a common ailment!  Bananas can indeed offer some relief from diarrhea, but it's important to understand the nuances. 
-Here's what I know:
-**The Good:**
-* **Electrolytes:** Bananas are rich in potassium, an electrolyte that can be lost through diarrhea. Replenishing these electrolytes can help restore balance and prevent dehydration, which is a serious concern with diarrhea.
+As a wise doctor, I can tell you that bananas can be helpful for diarrhea, but it's not a guaranteed cure and there are some important things to consider. 
+Here's what we know:
+**Why Bananas Might Help:**
+* **Electrolytes:** Bananas are rich in potassium, which is lost through diarrhea. Replenishing electrolytes can help restore balance and prevent dehydration.
 * **Fiber:** Bananas contain fiber, which can help regulate bowel movements and soften stool, making it easier to pass.
-* **Easy to Digest:**  Bananas are generally easy to digest, even when someone is experiencing digestive upset. 
-**The Not-So-Good:**
-* **Sugar Content:** While bananas are a good source of potassium, they are also high in sugar. This can be problematic for people with diarrhea, as it can worsen dehydration and potentially lead to blood sugar spikes.
-* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they are sensitive to fructose. 
-* **Not a Cure:**  Bananas are not a cure for diarrhea. They can help manage symptoms, but it's crucial to address the underlying cause of the diarrhea.
-**What to Consider:**
-* **Severity of Diarrhea:** For mild diarrhea, a banana can be a helpful snack. For severe diarrhea, it's essential to consult a doctor.
-* **Underlying Conditions:** If you have any underlying medical conditions, such as diabetes or kidney problems, talk to your doctor before consuming bananas.
-* **Other Foods:**  Focus on a balanced diet with plenty of fluids.  Other foods that can help with diarrhea include:
-    * **BRAT diet:** Bananas, rice, applesauce, and toast are bland and easy to digest.
-    * **Coconut water:**  Provides electrolytes and is easily absorbed.
-    * **Oral rehydration solutions (ORS):**  These are specifically designed to replenish electrolytes and fluids lost through diarrhea.
+* **Easy to Digest:** Bananas are generally easy to digest, even when someone is experiencing diarrhea. This can be helpful for those who are feeling nauseous or have a sensitive stomach.
+**Important Considerations:**
+* **Not a Cure:** Bananas are not a cure for diarrhea. They can help manage symptoms, but they won't address the underlying cause. 
+* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they have a sensitive stomach. 
+* **Underlying Conditions:** If you have chronic diarrhea or suspect a more serious underlying condition, it's crucial to consult a doctor. 
+* **Other Foods:**  Other foods like rice, toast, and clear broth can also be helpful for diarrhea. 
+**When to Seek Medical Advice:**
+* **Severe Diarrhea:** If your diarrhea is severe, bloody, or accompanied by fever, abdominal pain, or dehydration, seek medical attention immediately.
+* **Persistent Diarrhea:** If your diarrhea lasts for more than a few days, it's important to see a doctor to rule out any underlying conditions.
+* **Underlying Conditions:** If you have a history of digestive disorders, such as Crohn's disease or irritable bowel syndrome, it's important to discuss your diarrhea with your doctor.
 **In Conclusion:**
-Bananas can be a helpful addition to your diet when dealing with diarrhea, but they are not a cure.  It's important to address the underlying cause of the diarrhea and to stay hydrated. If your diarrhea is severe or persistent, please consult a doctor. 
-Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+Bananas can be a helpful addition to your diet when you have diarrhea, but they are not a cure. It's important to stay hydrated, eat bland foods, and seek medical advice if your symptoms are severe or persistent. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3064,29 +3095,25 @@
     * **Too loose:**  This can lead to bunching and rubbing, causing discomfort and potential skin irritation.
 * **Hygiene:**  Cheap socks may not be made with high-quality materials that are easy to clean and maintain, leading to:
     * **Bacterial growth:**  This can cause odor and skin irritation.
-    * **Fungal growth:**  Similar to athlete's foot, but can also lead to other skin infections.
 **The Potential Benefits:**
 * **Affordability:**  Cheap socks are a budget-friendly option, making them accessible to many.
 * **Availability:**  They are readily available in most stores.
-* **Variety:**  You can find a wide range of styles and colors to suit your needs.
 **The Verdict:**
-While cheap socks can be a convenient and affordable option, they do come with potential risks.  
-**Here's what I recommend:**
-* **Choose breathable materials:** Look for socks made from natural fibers like cotton, wool, or bamboo.
-* **Opt for a good fit:**  Socks should be snug but not too tight.
-* **Wash them regularly:**  This helps prevent bacterial and fungal growth.
-* **Consider the activity:**  Choose socks appropriate for your activity level. For example, athletic socks are designed for moisture-wicking and support.
-* **Listen to your body:**  If you experience any discomfort or irritation, switch to a different type of sock.
-**Remember:**  The best socks are the ones that fit well, feel comfortable, and keep your feet healthy.  Don't be afraid to experiment and find what works best for you. 
-**Disclaimer:** I am an AI and cannot provide medical advice. If you have any concerns about your foot health, please consult a medical professional. 
+While cheap socks can pose some risks, they are not inherently bad.  The key is to choose wisely:
+* **Look for breathable materials:**  Natural fibers like cotton or wool are generally better for breathability.
+* **Check the fit:**  Ensure they are not too tight or too loose.
+* **Consider the brand:**  Some brands are known for their quality and comfort.
+* **Wash them regularly:**  This helps prevent bacterial growth and odor.
+**Remember:**  If you experience persistent skin irritation, foot problems, or other discomfort, consult a doctor or podiatrist. They can help diagnose the cause and recommend appropriate treatment. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3132,39 +3159,38 @@
 As a wise doctor, I can tell you that while fissures and hemorrhoids can sometimes heal on their own, it's not a guaranteed outcome and often requires careful management. 
 Here's a breakdown of the situation:
 **Fissures:**
-* **Healing Potential:**  Fissures, those small tears in the lining of the anus, can heal with proper care. 
+* **Healing Potential:**  Fissures, those small tears in the anal lining, can heal with proper care. 
 * **Factors Affecting Healing:**  Healing time depends on the severity of the fissure, the individual's overall health, and their adherence to treatment. 
-* **Treatment:**  Most fissures heal with conservative measures like:
-    * **Dietary changes:**  Increasing fiber intake, drinking plenty of water, and avoiding straining during bowel movements.
-    * **Over-the-counter medications:**  Topical creams or ointments containing hydrocortisone or lidocaine can provide temporary relief.
-    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
-    * **Lifestyle changes:**  Avoiding tight clothing, maintaining a healthy weight, and engaging in regular physical activity can help.
-* **When to See a Doctor:**  If your fissure doesn't improve within a few weeks, or if you experience severe pain, bleeding, or signs of infection, seek medical attention.
+* **Treatment:**  While some fissures may heal on their own, most benefit from conservative measures like:
+    * **Dietary Changes:**  Increasing fiber intake, drinking plenty of water, and avoiding straining during bowel movements.
+    * **Over-the-Counter Remedies:**  Creams and ointments containing hydrocortisone or lidocaine can provide temporary relief.
+    * **Lifestyle Modifications:**  Avoiding tight clothing, maintaining a healthy weight, and engaging in regular physical activity.
+    * **Prescription Medications:**  In some cases, your doctor may prescribe stronger medications like topical steroids or antibiotics.
 **Hemorrhoids:**
-* **Healing Potential:**  Hemorrhoids, those swollen veins in the rectum and anus, can sometimes heal with conservative measures, but they often recur.
-* **Factors Affecting Healing:**  Similar to fissures, the healing potential depends on the severity of the hemorrhoids, individual health, and treatment adherence.
-* **Treatment:**  Hemorrhoids can be managed with:
-    * **Lifestyle changes:**  Dietary modifications, increased fiber intake, and regular exercise can help.
-    * **Over-the-counter medications:**  Topical creams or ointments containing witch hazel or hydrocortisone can provide temporary relief.
-    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
-    * **Hemorrhoid creams:**  These creams can help reduce inflammation and pain.
-    * **Rubber band ligation:**  A procedure where a rubber band is placed around the base of the hemorrhoid to cut off blood supply.
-    * **Sclerotherapy:**  A procedure where a solution is injected into the hemorrhoid to shrink it.
-    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoids.
-* **When to See a Doctor:**  If your hemorrhoids are causing significant pain, bleeding, or interfere with your daily life, consult a doctor.
-**Important Notes:**
-* **Self-treatment can be risky:**  While some home remedies can provide temporary relief, it's crucial to consult a doctor for proper diagnosis and treatment.
-* **Underlying conditions:**  Hemorrhoids and fissures can sometimes be a symptom of underlying medical conditions, such as constipation, pregnancy, or chronic diarrhea. 
-* **Prevention:**  Maintaining a healthy lifestyle, including a balanced diet, regular exercise, and adequate fiber intake, can help prevent both fissures and hemorrhoids.
-Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult a doctor for any health concerns. 
+* **Healing Potential:**  Hemorrhoids, those swollen veins in the rectum and anus, are not typically self-healing. 
+* **Factors Affecting Healing:**  Hemorrhoids can be caused by various factors, including straining during bowel movements, pregnancy, and chronic constipation.  
+* **Treatment:**  Hemorrhoids often require medical attention. Treatment options include:
+    * **Lifestyle Changes:**  Dietary modifications, increased fiber intake, and regular exercise.
+    * **Over-the-Counter Remedies:**  Creams and ointments containing witch hazel or hydrocortisone can provide temporary relief.
+    * **Prescription Medications:**  Your doctor may prescribe stronger medications like topical steroids or antibiotics.
+    * **Procedures:**  In some cases, procedures like rubber band ligation or sclerotherapy may be necessary to reduce the size of hemorrhoids.
+**Important Considerations:**
+* **Severity:**  The severity of the fissure or hemorrhoids will influence the healing process. 
+* **Underlying Conditions:**  Underlying conditions like diabetes, inflammatory bowel disease, or vascular disease can affect healing.
+* **Complications:**  Untreated fissures and hemorrhoids can lead to complications like bleeding, infection, and chronic pain.
+**When to See a Doctor:**
+* **Severe Pain:**  If you experience severe pain, bleeding, or discomfort, seek medical attention immediately.
+* **Persistent Symptoms:**  If your symptoms don't improve with home remedies, consult your doctor.
+* **Complications:**  If you develop any complications, such as fever, swelling, or pus, seek medical attention promptly.
+**Remember:**  This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3205,32 +3231,31 @@
           <t xml:space="preserve">
 That's a great question!  It's important to understand that migraines are complex and can manifest in many ways. 
 **Here's the breakdown:**
-* **Not all migraines involve headaches:** While many people experience headaches as a hallmark symptom of migraines, it's not a universal rule. Some people experience migraines without any headache at all. 
-* **Migraines are more than just pain:** Migraines are a neurological disorder characterized by intense, throbbing pain, often on one side of the head. However, they can also involve a range of other symptoms, including:
-    * Nausea and vomiting
-    * Sensitivity to light and sound
-    * Dizziness
-    * Aura (visual disturbances like flashing lights or blind spots)
-    * Fatigue
-    * Mood changes
-* **Triggers vary:** Migraines are often triggered by various factors, including stress, hormonal changes, certain foods, lack of sleep, and environmental factors. 
-* **Individual experiences:**  The experience of migraines can vary greatly from person to person. Some people experience severe, debilitating migraines, while others have milder symptoms.
-**So, can you have a migraine without a headache?**
-Yes, absolutely.  It's possible to experience other symptoms like nausea, sensitivity to light, or aura, even without a headache. 
-**What should you do?**
-If you're experiencing any of the symptoms associated with migraines, it's important to consult a doctor. They can help you:
-* **Diagnose the cause:**  A doctor can help determine if your symptoms are due to migraines or another condition.
-* **Develop a treatment plan:**  There are various treatments available for migraines, including medication, lifestyle changes, and alternative therapies.
-* **Manage your symptoms:**  With proper management, you can reduce the frequency and severity of your migraines.
-**Remember:**  It's crucial to seek professional medical advice for any health concerns. Don't rely solely on online information for diagnosis or treatment. 
+* **Not all migraines involve headaches:** While a throbbing headache is a classic symptom, migraines can also present with other symptoms like:
+    * **Nausea and vomiting:** This is often a prominent feature, even before the headache starts.
+    * **Sensitivity to light and sound:**  This can be intense and debilitating.
+    * **Aura:**  A visual disturbance like flashing lights, blind spots, or zigzag patterns. This can occur before the headache.
+    * **Fatigue:**  Feeling unusually tired and drained.
+    * **Dizziness:**  Feeling lightheaded or unsteady.
+    * **Mood changes:**  Feeling irritable, anxious, or depressed.
+* **Migraines are more than just a headache:**  They are a neurological disorder characterized by intense, throbbing pain, often on one side of the head.  However, the pain is not always the primary symptom.
+**Why you might not have a headache right now:**
+* **Migraines can be unpredictable:**  They can come and go without warning, and the severity and duration can vary greatly from person to person.
+* **Migraines can be triggered by various factors:**  Stress, lack of sleep, certain foods, hormonal changes, and environmental factors can all play a role.
+* **You may be experiencing a different type of headache:**  There are many other types of headaches, some of which can mimic migraines.
+**What to do:**
+* **Keep a headache diary:**  Track your headaches, including their frequency, severity, duration, and any associated symptoms. This can help you identify potential triggers.
+* **Consult a doctor:**  If you experience frequent or severe headaches, it's important to see a doctor to rule out other conditions and get a proper diagnosis. 
+* **Don't self-diagnose:**  Migraines can be tricky, and it's important to get a professional opinion.
+Remember, I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3270,36 +3295,35 @@
       <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for ways to avoid migraines.  As a wise doctor, I can offer some insights, but remember, I'm not a substitute for a qualified medical professional.  
-**First, it's crucial to understand that migraines are complex and have many potential triggers.**  What works for one person might not work for another.  
-Here's a breakdown of what I can recommend, but always consult your doctor for personalized advice:
-**1. Identify Your Triggers:**
-* **Keep a migraine diary:**  Track your headaches, noting when they occur, what you ate, drank, did, and any environmental factors. This can help you pinpoint your triggers.
-* **Common triggers:**  Stress, lack of sleep, hormonal changes, certain foods (like aged cheese, processed meats, chocolate), alcohol, caffeine withdrawal, weather changes, and even bright lights or strong smells can trigger migraines.
-**2. Lifestyle Modifications:**
-* **Regular sleep schedule:** Aim for 7-8 hours of quality sleep each night.
-* **Stress management:**  Practice relaxation techniques like yoga, meditation, or deep breathing exercises.
-* **Regular exercise:**  Physical activity can help reduce stress and improve overall health.
-* **Hydration:**  Drink plenty of water throughout the day.
-* **Healthy diet:**  Focus on a balanced diet rich in fruits, vegetables, and whole grains. Avoid processed foods, sugary drinks, and excessive caffeine.
-**3. Medications:**
-* **Over-the-counter pain relievers:**  Ibuprofen or naproxen can help reduce pain and inflammation.
-* **Triptans:**  These are prescription medications specifically designed to treat migraines. They can be effective but may have side effects.
-* **Anti-nausea medications:**  These can help manage nausea and vomiting associated with migraines.
-* **Preventive medications:**  If your migraines are frequent or severe, your doctor may prescribe preventive medications like beta-blockers, antidepressants, or anti-seizure drugs.
-**4. Alternative Therapies:**
-* **Acupuncture:**  Some people find relief from migraines through acupuncture.
-* **Massage therapy:**  Massage can help relax muscles and reduce tension, which may help prevent migraines.
-* **Biofeedback:**  This technique helps you learn to control your body's responses, including muscle tension and heart rate, which can help reduce migraine frequency.
-**5. Seek Professional Help:**
-* **Consult a neurologist:**  If your migraines are severe or frequent, a neurologist can help diagnose the underlying cause and recommend the best treatment plan.
-* **Don't self-medicate:**  Always consult your doctor before starting any new medication.
-**Remember:**  Migraines are a serious condition, and it's important to seek professional help for diagnosis and treatment.  By working with your doctor and making lifestyle changes, you can take control of your migraines and live a more fulfilling life. 
+I understand you're looking for ways to manage migraines.  As a helpful and knowledgeable AI, I can offer some general advice, but remember, I'm not a medical professional. **It's crucial to consult with a doctor for personalized advice and treatment.** 
+That said, here are some common strategies people find helpful in preventing migraines:
+**Lifestyle Modifications:**
+* **Identify and Avoid Triggers:**  Keep a migraine diary to track potential triggers like stress, certain foods (chocolate, aged cheese, processed meats), alcohol, caffeine, weather changes, hormonal fluctuations, and sleep disturbances. Once you identify your triggers, try to avoid them.
+* **Regular Sleep Schedule:** Aim for 7-8 hours of quality sleep each night. A consistent sleep schedule can help regulate your body's natural rhythms.
+* **Stress Management:**  Practice relaxation techniques like yoga, meditation, deep breathing exercises, or spending time in nature.
+* **Regular Exercise:**  Moderate exercise can be beneficial, but avoid strenuous activity right before a migraine.
+* **Hydration:**  Drink plenty of water throughout the day. Dehydration can trigger migraines.
+* **Dietary Adjustments:**  Some people find that eliminating certain foods or following a specific diet (Mediterranean, DASH) can help. 
+* **Caffeine and Alcohol Management:**  Limit caffeine intake, especially in the afternoon and evening. Alcohol can also trigger migraines in some people.
+**Medications:**
+* **Over-the-Counter Pain Relievers:**  Nonsteroidal anti-inflammatory drugs (NSAIDs) like ibuprofen or naproxen can help reduce pain and inflammation.
+* **Triptans:**  These are prescription medications specifically designed to treat migraines. They work by constricting blood vessels in the brain.
+* **Anti-nausea Medications:**  These can help manage nausea and vomiting associated with migraines.
+* **Preventive Medications:**  If your migraines are frequent or severe, your doctor may prescribe preventive medications like beta-blockers, antidepressants, or anticonvulsants.
+**Other Therapies:**
+* **Biofeedback:**  This technique helps you learn to control your body's responses to stress and pain.
+* **Acupuncture:**  Some people find acupuncture helpful in reducing migraine frequency and severity.
+* **Massage Therapy:**  Massage can help relax muscles and reduce tension, which may help prevent migraines.
+**Important Notes:**
+* **Individualized Treatment:**  What works for one person may not work for another. It's important to work with your doctor to find the best treatment plan for you.
+* **Consistency is Key:**  It may take time to find the right combination of strategies that work for you. Be patient and consistent with your efforts.
+* **Don't Self-Treat:**  Never start or stop any medication without consulting your doctor.
+Remember, I'm here to provide general information. Please consult with a qualified healthcare professional for personalized advice and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3342,23 +3366,29 @@
         <is>
           <t xml:space="preserve">
 It's great you're asking about potential side effects of Buspar (buspirone).  
-**Buspar is a medication primarily used to treat anxiety.** It works by affecting certain neurotransmitters in the brain, but it's not a sedative like some sleep medications. 
-**Yes, Buspar can cause drowsiness as a side effect.**  This is a common one, and it's usually mild and temporary. 
-Here's what you should know:
-* **Drowsiness is a possible side effect, but not everyone experiences it.**  Some people may find it bothersome, while others may not notice it at all.
-* **The severity of drowsiness can vary.** It might be a mild feeling of tiredness, or it could be more pronounced.
-* **Drowsiness is usually temporary.** It tends to improve as your body adjusts to the medication.
-* **If you experience excessive drowsiness, talk to your doctor.** They can adjust your dosage or suggest alternative medications.
+**Yes, Buspar can cause drowsiness, but it's not a common side effect.** 
+Here's a breakdown of what you need to know:
+* **Buspirone's Mechanism:** Buspirone is an anxiolytic, meaning it helps reduce anxiety. It works by affecting neurotransmitters in the brain, particularly serotonin. 
+* **Drowsiness as a Side Effect:**  While Buspar is generally well-tolerated, some people experience drowsiness as a side effect. This is often mild and temporary. 
+* **Factors Influencing Drowsiness:**  The likelihood of experiencing drowsiness can vary depending on:
+    * **Individual Sensitivity:** Some people are more sensitive to Buspar's effects than others.
+    * **Dosage:** Higher doses may increase the likelihood of drowsiness.
+    * **Other Medications:** Buspar can interact with other medications, potentially increasing drowsiness.
+    * **Underlying Conditions:** Certain medical conditions can also contribute to drowsiness.
+* **Managing Drowsiness:**
+    * **Talk to Your Doctor:** If you experience excessive drowsiness, it's crucial to discuss it with your doctor. They can adjust your dosage or consider alternative medications.
+    * **Avoid Driving or Operating Machinery:**  If drowsiness is a significant concern, avoid driving or operating machinery until you've discussed it with your doctor.
+    * **Lifestyle Changes:**  Getting enough sleep, staying hydrated, and avoiding alcohol or caffeine can help manage drowsiness.
 **Important Considerations:**
-* **Buspar is not a sleep aid.** It's designed to help with anxiety, not sleep problems.
-* **Drowsiness can sometimes be a sign of other issues.** If you're experiencing excessive drowsiness alongside other symptoms, it's important to discuss them with your doctor.
-* **Always follow your doctor's instructions.** This includes taking your medication as prescribed and reporting any side effects.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor or pharmacist for personalized advice about Buspar or any other medication. 
+* **Buspar is not a sleep aid:** It's important to remember that Buspar is not a sleep medication. If you're struggling with insomnia, it's essential to consult a doctor about appropriate treatment options.
+* **Individualized Response:**  Everyone reacts differently to medications. What works for one person may not work for another. 
+* **Open Communication:**  It's crucial to be open and honest with your doctor about any side effects you experience. This will help them provide the best possible care.
+**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with your doctor or a qualified healthcare professional for personalized guidance regarding your health and medications. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3401,23 +3431,26 @@
 Allopurinol is a medication used to treat gout, a condition characterized by high levels of uric acid in the blood. While it's generally safe and effective for its intended purpose, it can have some side effects, and its impact on fertility is a topic of ongoing research. 
 Here's what we know:
 **Potential Impact on Fertility:**
-* **Mechanism:** Allopurinol works by inhibiting the enzyme xanthine oxidase, which is responsible for the production of uric acid.  
-* **Studies:** Some studies have suggested that Allopurinol may have a negative impact on sperm quality and motility in men. However, the evidence is not conclusive, and more research is needed.
-* **Individual Variation:** The impact of Allopurinol on fertility can vary significantly from person to person. Factors like dosage, duration of treatment, and individual health conditions can all play a role.
-* **Other Factors:** It's important to remember that fertility is a complex issue influenced by many factors, including age, lifestyle, and overall health. Allopurinol is just one potential factor that could potentially affect fertility.
+* **Male Fertility:**  There is some evidence suggesting that allopurinol may have a negative impact on male fertility. Studies have shown that it can reduce sperm count and motility, potentially leading to decreased fertility. However, the exact mechanisms are not fully understood and more research is needed.
+* **Female Fertility:**  The impact of allopurinol on female fertility is less clear. Some studies have reported no significant effect, while others have suggested a potential decrease in ovulation. 
+* **Mechanism:** The exact mechanism by which allopurinol might affect fertility is not entirely clear. It's thought to potentially interfere with the production of certain hormones involved in the reproductive process.
+**Important Considerations:**
+* **Dosage and Duration:** The impact of allopurinol on fertility may vary depending on the dosage and duration of treatment. 
+* **Individual Variation:**  Individual responses to allopurinol can vary widely. Some people may experience no side effects, while others may experience more significant issues.
+* **Underlying Conditions:**  Allopurinol is often prescribed for individuals with gout, which can be a complex condition with its own impact on fertility. 
 **Recommendations:**
-* **Consult a Doctor:** If you are considering using Allopurinol for gout and are concerned about its potential impact on fertility, it's crucial to discuss this with your doctor. They can assess your individual situation, consider your medical history, and advise you on the best course of action.
-* **Alternative Treatments:** Your doctor may be able to recommend alternative treatments for gout that have a lower risk of affecting fertility.
-* **Monitoring:** If you are taking Allopurinol and are trying to conceive, it's important to monitor your fertility closely and discuss any concerns with your doctor.
-**Important Note:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
+* **Consult a Doctor:** If you are considering taking allopurinol and are concerned about its potential impact on fertility, it is crucial to discuss this with your doctor. They can assess your individual situation, consider your medical history, and advise you on the best course of action.
+* **Alternative Treatments:**  Your doctor may be able to recommend alternative treatments for gout that have a lower risk of affecting fertility.
+* **Monitoring:**  If you are taking allopurinol and are experiencing any fertility concerns, it is important to monitor your symptoms and report any changes to your doctor.
+**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3456,29 +3489,25 @@
       <c r="G46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question, and it's important to understand that migraines can be quite complex. 
-**Here's what I can tell you about migraines lasting for days:**
-* **Typical Migraine Duration:**  Most migraines last for **4 to 72 hours**. This is a general range, and individual experiences can vary.
-* **Prolonged Migraines:** While rare, migraines can indeed last for days, sometimes even up to a week. This is often referred to as a **"chronic migraine"**.
-* **Triggers and Severity:** Prolonged migraines are often associated with:
-    * **Severe migraine attacks:**  These can be triggered by stress, hormonal changes, certain foods, or other factors.
-    * **Underlying medical conditions:**  Conditions like epilepsy, sleep disorders, or even certain medications can contribute to prolonged migraines.
-* **Diagnosis:** If you're experiencing migraines that last for days, it's crucial to consult a doctor. They can help determine the cause and recommend appropriate treatment.
-**Here's what a doctor would likely do:**
-* **Detailed Medical History:**  They'll ask about your symptoms, triggers, and medical history.
-* **Physical Examination:**  They'll check for any underlying conditions.
-* **Neurological Tests:**  These may include brain imaging or nerve conduction studies to rule out other conditions.
-* **Treatment:**  Treatment options may include:
-    * **Medications:**  Triptans, anti-nausea medications, and other pain relievers.
-    * **Lifestyle Changes:**  Stress management techniques, regular sleep schedules, and dietary modifications.
-    * **Alternative Therapies:**  Acupuncture, massage, and biofeedback.
-**Important Note:**  It's crucial to remember that I am not a medical professional. This information is for general knowledge and should not be considered medical advice. If you are experiencing prolonged migraines, please consult a doctor for proper diagnosis and treatment. 
-Let me know if you have any other questions. 
+That's a great question, and it's important to understand the nuances of migraines. 
+**Generally, a migraine is not a condition that lasts for days at a time.**  
+Here's why:
+* **Typical Duration:** Migraines typically last between 4 and 72 hours. 
+* **Acute Onset:**  They are characterized by a sudden onset of severe headache, often accompanied by other symptoms like nausea, vomiting, sensitivity to light and sound, and visual disturbances.
+* **Episodic Nature:** Migraines are episodic, meaning they come and go in cycles. 
+**However, there are some situations where a migraine might feel like it lasts longer:**
+* **Chronic Migraines:**  Some individuals experience chronic migraines, which are frequent and persistent. These can sometimes feel like they last for days or even weeks.
+* **Severe Migraines:**  In rare cases, a migraine can be so severe that it feels like it lasts for days. This is often due to a combination of factors, including:
+    * **Underlying medical conditions:**  Certain medical conditions can trigger or worsen migraines, leading to prolonged pain.
+    * **Medication overuse:**  Taking pain relievers too frequently can lead to rebound headaches, which can feel like they last longer.
+    * **Stress and other triggers:**  Stress, lack of sleep, and other triggers can exacerbate migraines and make them feel more prolonged.
+**Important Note:** If you are experiencing migraines that are lasting longer than usual, or if they are causing you significant distress, it is crucial to consult a doctor. They can help determine the cause of your prolonged headaches and recommend appropriate treatment options. 
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3520,34 +3549,32 @@
       <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  Let's break down the relationship between bronchitis and pneumonia.
-**Bronchitis** is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It's usually caused by a virus, but it can also be caused by bacteria or irritants like smoke. 
-**Pneumonia** is an infection that inflames the air sacs in one or both lungs. These air sacs may fill with fluid or pus, causing coughing, fever, and difficulty breathing.
+That's a great question, and it's important to understand the relationship between bronchitis and pneumonia. 
+**Here's the breakdown:**
+* **Bronchitis** is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It's usually caused by a virus, but it can also be caused by bacteria or irritants like smoke. 
+* **Pneumonia** is an infection that inflames the air sacs in one or both lungs. It can be caused by bacteria, viruses, or fungi.
 **The Connection:**
-* **Bronchitis can increase the risk of developing pneumonia.**  When you have bronchitis, your airways are already inflamed and irritated. This makes it easier for bacteria or viruses to enter your lungs and cause pneumonia.
-* **Pneumonia can develop from bronchitis.**  If a person has a severe case of bronchitis, it can progress to pneumonia. This is especially true if the bronchitis is caused by a virus and the person is already weakened by other factors.
-* **The severity of the condition matters.**  Most cases of bronchitis resolve on their own, and the risk of developing pneumonia is low. However, if the bronchitis is severe or lasts for a long time, the risk of developing pneumonia increases.
-**Here's how it usually unfolds:**
-1. **Bronchitis:** You experience symptoms like cough, phlegm, and shortness of breath.
-2. **Inflammation:** The airways become inflamed and irritated.
-3. **Vulnerability:** Your body becomes more susceptible to infections, including bacteria and viruses.
-4. **Pneumonia:** If a bacteria or virus enters your lungs, it can cause pneumonia.
-**Important Notes:**
-* **Early diagnosis and treatment are crucial.** If you have symptoms of bronchitis, it's important to see a doctor to get a diagnosis and treatment plan.
-* **Prevention is key.**  Practice good hygiene, get vaccinated, and avoid smoking to reduce your risk of both bronchitis and pneumonia.
-* **Seek medical attention immediately if you experience:**
-    * High fever
-    * Difficulty breathing
-    * Chest pain
-    * Confusion
-    * Bluish lips or fingernails
-**In summary:** While bronchitis can increase the risk of developing pneumonia, it's not a guaranteed progression. The severity of the bronchitis, the individual's overall health, and the presence of other factors all play a role. 
-Remember, I'm not a substitute for a medical professional. If you have concerns about your health, please consult a doctor. 
+Bronchitis can *increase the risk* of developing pneumonia.  Here's why:
+* **Weakened Immune System:**  Bronchitis often weakens the immune system, making it harder to fight off infections.
+* **Inflammation:** The inflammation caused by bronchitis can make it easier for bacteria or viruses to enter the lungs and cause pneumonia.
+* **Fluid Build-up:**  Bronchitis can cause fluid to build up in the airways, making it harder for the lungs to clear out bacteria and viruses.
+**Can Bronchitis Turn into Pneumonia?**
+It's not a simple "yes" or "no" answer.  Here's what's important:
+* **Progression:**  Bronchitis can *progress* to pneumonia, but it's not a guaranteed outcome. 
+* **Severity:**  The severity of bronchitis and the individual's overall health play a significant role.
+* **Risk Factors:**  People with weakened immune systems, chronic lung conditions, or underlying health problems are at higher risk of developing pneumonia after bronchitis.
+**What to Do:**
+* **See a Doctor:** If you have bronchitis, it's important to see a doctor to get a proper diagnosis and treatment. 
+* **Monitor Symptoms:**  Pay attention to any changes in your symptoms, such as fever, cough, shortness of breath, or chest pain.
+* **Rest:**  Get plenty of rest to help your body fight off the infection.
+* **Hydration:**  Drink plenty of fluids to help thin mucus and prevent dehydration.
+* **Over-the-Counter Relief:**  Over-the-counter medications can help relieve symptoms like cough and congestion.
+**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3589,24 +3616,22 @@
       <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about herpes and its symptoms.  Let's talk about rectal discharge and herpes. 
-**Yes, herpes can cause rectal discharge.** 
-Here's why:
-* **Herpes is a virus:**  Herpes simplex virus (HSV) is a common virus that can cause sores, blisters, and other symptoms. 
-* **HSV-1 and HSV-2:** There are two main types of HSV: HSV-1 (usually causes oral herpes) and HSV-2 (usually causes genital herpes). 
-* **Rectal herpes:**  While HSV-1 is more commonly associated with oral herpes, HSV-2 can also cause outbreaks in the rectum. 
-* **Symptoms:**  Rectal discharge from herpes can be clear, white, or yellowish. It may be accompanied by:
-    * Pain or discomfort
-    * Itching
-    * Burning sensation
-    * Bleeding
-    * Swelling
+It's great that you're asking about herpes and its symptoms.  It's important to understand that I'm not a medical professional, and this information is for general knowledge only.  **Always consult a doctor for diagnosis and treatment.**
+That said, here's what I can tell you about herpes and rectal discharge:
+**Herpes and Rectal Discharge:**
+* **Yes, herpes can cause rectal discharge.**  Herpes simplex virus (HSV), which causes genital herpes, can also infect the rectum. 
+* **Symptoms can vary:**  The symptoms of rectal herpes can be similar to those of genital herpes, including:
+    * **Painful sores or blisters:** These can appear in the anus, rectum, or surrounding area.
+    * **Discharge:** This can be clear, white, or yellowish, and may be accompanied by itching, burning, or discomfort.
+    * **Itching and irritation:**  The area may feel itchy, irritated, or raw.
+* **Transmission:**  HSV can be transmitted through sexual contact, but it can also be spread through skin-to-skin contact, especially if there are open sores.
+* **Other factors:**  Rectal discharge can also be caused by other conditions, so it's important to see a doctor for a proper diagnosis.
 **Important Considerations:**
-* **Not everyone with herpes experiences rectal discharge.**  Some people may have no symptoms at all.
-* **Diagnosis:** If you're concerned about rectal discharge, it's crucial to see a doctor for a proper diagnosis. They can perform a physical exam and may recommend a test to confirm the presence of HSV.
-* **Treatment:**  Antiviral medications can help manage herpes outbreaks and reduce the frequency of symptoms. 
-* **Prevention:**  Practicing safe sex, including using condoms, can help prevent the spread of HSV.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you have concerns about your health, please consult a doctor. 
+* **Diagnosis:**  A doctor can diagnose herpes through a physical exam, a swab of the discharge, and possibly a blood test.
+* **Treatment:**  Antiviral medications can help manage herpes outbreaks and reduce the frequency of symptoms.
+* **Prevention:**  Using condoms during sexual activity can help prevent the spread of herpes.
+* **Support:**  Living with herpes can be challenging, but there are resources available to help you manage the condition.
+**Remember:**  If you are experiencing any symptoms of herpes or have concerns about your sexual health, please consult a doctor. They can provide you with accurate information and personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -3652,29 +3677,27 @@
         <is>
           <t xml:space="preserve">
 It's great you're thinking about the potential side effects of medications!  Hydroxyzine is a common antihistamine, and like any medication, it can have some effects on the body. 
-Here's what I can tell you about hydroxyzine and its potential impact on metabolism and weight:
+Here's what we know about hydroxyzine and its potential impact on metabolism and weight:
 **Hydroxyzine and Metabolism:**
-* **Generally, hydroxyzine does not significantly affect metabolism.** It's not a metabolic stimulant or inhibitor in the way that some other drugs might be. 
-* **However, it can cause some mild side effects that might indirectly impact metabolism:**
+* **Generally, hydroxyzine does not significantly affect metabolism.** It's not a metabolically active drug in the way that, for example, some antidepressants might be. 
+* **However, it can cause some mild side effects that might indirectly impact metabolism.** These include:
     * **Drowsiness:** This can lead to reduced activity levels and potentially affect calorie expenditure.
     * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
     * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
 **Hydroxyzine and Weight Gain:**
-* **Hydroxyzine itself is not a direct cause of weight gain.** It doesn't directly increase fat storage or promote weight gain.
-* **However, some potential indirect factors could contribute to weight changes:**
-    * **Drowsiness:** As mentioned above, it can lead to reduced activity levels and potentially affect calorie expenditure.
-    * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
-    * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
+* **Hydroxyzine itself is not a known cause of weight gain.** It's not a fat-storing drug.
+* **However, some people may experience weight gain as a side effect of other medications they are taking.** This is because some medications can affect appetite, metabolism, or hormone levels. 
+* **It's important to note that weight gain can be influenced by many factors, including diet, exercise, and overall health.** 
 **Important Considerations:**
-* **Individual responses vary:**  How hydroxyzine affects you personally can depend on factors like your overall health, dosage, and other medications you're taking.
-* **Talk to your doctor:** If you're concerned about weight gain or other side effects, it's crucial to discuss them with your doctor. They can assess your individual situation and provide personalized advice.
-* **Lifestyle factors:**  Remember that diet, exercise, and overall lifestyle choices play a significant role in weight management. 
-**In summary:** Hydroxyzine is unlikely to directly cause significant weight gain. However, some potential indirect effects on metabolism and appetite could contribute to weight changes. If you have concerns, always consult your doctor. 
+* **Individual responses to medications vary.** What one person experiences as a side effect, another might not.
+* **Always discuss any concerns about medication side effects with your doctor.** They can help you understand the potential risks and benefits of hydroxyzine in your specific situation.
+* **If you are experiencing weight gain or other side effects, it's important to talk to your doctor.** They can help determine if the medication is the cause and adjust your treatment plan if necessary.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3713,40 +3736,38 @@
       <c r="G50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and I'm happy to shed some light on it. 
-**Here's the breakdown:**
-**What is Hypothyroidism?**
-Hypothyroidism, or an underactive thyroid, occurs when your thyroid gland doesn't produce enough thyroid hormone. This hormone plays a crucial role in regulating your metabolism, which is how your body burns calories. 
-**How Does Hypothyroidism Affect Weight?**
-When your thyroid hormone levels are low, your metabolism slows down. This means your body burns fewer calories, making it easier to gain weight.  Here's how it works:
-* **Slowed Metabolism:**  The thyroid hormone is essential for regulating your metabolic rate. When levels are low, your body burns fewer calories, even at rest.
-* **Increased Fat Storage:**  With a slower metabolism, your body may store more fat, leading to weight gain.
-* **Muscle Loss:**  Hypothyroidism can also lead to muscle loss, which further contributes to weight gain.
-* **Changes in Appetite:**  Some people with hypothyroidism experience changes in appetite, leading to overeating or cravings for high-calorie foods.
-**Other Factors to Consider:**
-* **Age:**  Hypothyroidism is more common in older adults.
-* **Genetics:**  Family history of hypothyroidism can increase your risk.
-* **Autoimmune Diseases:**  Conditions like Hashimoto's thyroiditis, an autoimmune disorder, can cause hypothyroidism.
-* **Medications:**  Certain medications can interfere with thyroid hormone production.
-**Important Note:**
-It's crucial to remember that weight gain due to hypothyroidism is often a symptom, not the cause.  It's essential to get a proper diagnosis from a doctor. 
-**What to Do:**
-* **See a Doctor:**  If you suspect you may have hypothyroidism, schedule an appointment with your doctor. They can order blood tests to check your thyroid hormone levels.
-* **Treatment:**  If diagnosed, your doctor will likely prescribe thyroid hormone replacement therapy to restore your thyroid hormone levels.
-* **Lifestyle Changes:**  Alongside treatment, adopting a healthy lifestyle can help manage weight and improve overall health. This includes:
-    * **Regular Exercise:**  Physical activity helps boost metabolism and burn calories.
-    * **Balanced Diet:**  Focus on nutrient-rich foods, including fruits, vegetables, lean protein, and whole grains.
-    * **Stress Management:**  Stress can affect thyroid hormone levels, so finding healthy ways to manage stress is important.
-**Remember:**  Hypothyroidism is treatable, and with proper management, you can maintain a healthy weight and improve your overall well-being. 
-Let me know if you have any other questions. 
+You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and it's definitely a complex issue. 
+Here's what I can tell you, drawing on my vast medical knowledge:
+**The Basics: How Thyroid Hormones Work**
+* **Thyroid hormones** (T3 and T4) are crucial for regulating metabolism, energy expenditure, and body temperature. 
+* **Hypothyroidism**, or an underactive thyroid, occurs when your thyroid gland doesn't produce enough of these hormones. 
+* **Metabolic slowdown:** This leads to a decrease in your body's metabolic rate, meaning you burn fewer calories at rest. 
+**The Weight Gain Connection**
+* **Slowed metabolism:** As mentioned, a sluggish metabolism is a key factor in weight gain with hypothyroidism. Your body simply burns fewer calories, making it harder to lose weight.
+* **Increased fat storage:**  The body may also store more fat, especially around the abdomen, due to the hormonal changes associated with hypothyroidism.
+* **Other factors:**  It's important to note that weight gain with hypothyroidism is not always straightforward. Other factors can contribute, such as:
+    * **Insulin resistance:**  Hypothyroidism can increase insulin resistance, making it harder for your body to use glucose effectively. This can lead to fat storage.
+    * **Changes in appetite:**  Some people with hypothyroidism experience changes in appetite, leading to overeating or undereating.
+    * **Medication side effects:** Certain medications can also contribute to weight gain.
+**Important Considerations**
+* **Not everyone with hypothyroidism gains weight:**  The extent of weight gain varies greatly from person to person. Some individuals may experience minimal weight gain, while others may see significant changes.
+* **Individual factors:**  Age, genetics, activity level, and overall health all play a role in how your body responds to hypothyroidism.
+* **Diagnosis and treatment:**  It's crucial to get a proper diagnosis of hypothyroidism through blood tests. Once diagnosed, treatment with thyroid hormone replacement therapy can effectively address the underlying issue and help manage weight.
+**What to Do**
+* **Consult a doctor:**  If you're concerned about weight gain, especially if you suspect hypothyroidism, schedule an appointment with your doctor. They can order blood tests to confirm the diagnosis and discuss treatment options.
+* **Lifestyle changes:**  In addition to medication, lifestyle changes can also help manage weight and improve overall health. These include:
+    * **Regular exercise:**  Even moderate exercise can boost metabolism and help burn calories.
+    * **Balanced diet:**  Focus on a healthy diet rich in fruits, vegetables, lean protein, and whole grains.
+    * **Stress management:**  Stress can exacerbate weight gain, so finding healthy ways to manage stress is important.
+**Remember:**  I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3783,31 +3804,31 @@
       <c r="G51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective.  Here's a breakdown of why:
+Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective. Here's a breakdown of why:
 **How Metformin Works:**
 * **Reduces Glucose Production:** Metformin's primary action is to decrease the amount of glucose (sugar) produced by the liver. 
 * **Improves Insulin Sensitivity:** It also enhances the body's response to insulin, making it more effective at lowering blood sugar levels.
-* **Slows Glucose Absorption:** Metformin can slow down the absorption of glucose from the intestines.
+* **Slows Glucose Absorption:** Metformin can slow down the absorption of glucose from the intestines, further contributing to blood sugar control.
 **Effectiveness:**
-* **Significant Blood Sugar Reduction:** Studies consistently show that metformin significantly reduces blood sugar levels in people with type 2 diabetes. 
-* **Long-Term Benefits:**  It's a long-term treatment option, often used in conjunction with lifestyle changes (diet and exercise) to manage blood sugar effectively.
-* **Cardiovascular Benefits:**  Research suggests that metformin may also offer cardiovascular protection, potentially reducing the risk of heart disease and stroke.
+* **Significant Blood Sugar Reduction:** Studies consistently show that metformin effectively lowers blood sugar levels in people with type 2 diabetes. 
+* **Improved Glycemic Control:** It helps achieve better glycemic control, meaning it helps keep blood sugar levels within a healthy range.
+* **Cardiovascular Benefits:**  Metformin has been linked to a reduced risk of heart disease and stroke in people with type 2 diabetes.
 **Potential Side Effects:**
-* **Gastrointestinal Issues:**  The most common side effects are usually mild and include nausea, diarrhea, and stomach upset. These are often manageable with adjustments to the dosage or timing of the medication.
+* **Gastrointestinal Issues:**  The most common side effects are usually mild and include nausea, diarrhea, and stomach upset. These are often manageable with adjustments to dosage or timing of medication.
 * **Vitamin B12 Deficiency:**  Metformin can interfere with vitamin B12 absorption, so regular blood tests are recommended to monitor levels.
 * **Lactic Acidosis:**  In rare cases, metformin can cause lactic acidosis, a serious condition. This is more likely to occur in people with kidney problems or liver disease.
 **Important Considerations:**
 * **Individualized Treatment:**  The effectiveness of metformin can vary from person to person. It's important to work closely with your doctor to determine the right dosage and treatment plan.
-* **Not a Cure:**  Metformin is not a cure for type 2 diabetes, but it helps manage the condition effectively.
-* **Other Medications:**  Metformin may be used in combination with other medications, such as sulfonylureas or DPP-4 inhibitors, to achieve optimal blood sugar control.
+* **Lifestyle Changes:**  Metformin is most effective when combined with lifestyle changes, such as a healthy diet, regular exercise, and weight management.
+* **Monitoring:**  Regular blood sugar monitoring is crucial to ensure metformin is working effectively and to detect any potential side effects.
 **In Conclusion:**
-Metformin is a highly effective medication for type 2 diabetes, offering significant blood sugar reduction and potential cardiovascular benefits. While it can have side effects, they are usually manageable.  It's crucial to discuss your individual needs and potential risks with your doctor to determine if metformin is the right treatment for you. 
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+Metformin is a highly effective medication for type 2 diabetes, offering significant benefits in blood sugar control, cardiovascular health, and overall well-being. While it can have some side effects, they are generally manageable.  
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -3870,7 +3891,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3914,28 +3935,24 @@
 **It's not quite as simple as "bacteria determine the antibiotic."**  Here's a more nuanced explanation:
 * **Antibiotics target bacterial processes:** Antibiotics are designed to interfere with essential processes in bacteria, like cell wall synthesis, protein production, or DNA replication.  
 * **Bacteria evolve resistance:** Bacteria are incredibly adaptable. Over time, they can develop resistance to antibiotics through natural selection. This means that bacteria that are resistant to one antibiotic may survive and reproduce, passing on their resistance genes to their offspring.
-* **Antibiotic discovery is a complex process:**  Scientists don't "discover" antibiotics by simply looking at bacteria.  They use a combination of:
+* **Antibiotic discovery is a complex process:**  Scientists don't just "discover" antibiotics based on bacteria. They use a combination of:
     * **Screening natural sources:**  Many antibiotics are derived from natural sources like fungi or soil bacteria.
-    * **Chemical synthesis:**  Scientists can synthesize new compounds that have antibiotic properties.
-    * **Understanding bacterial mechanisms:**  Researchers study the mechanisms of bacterial growth and survival to identify potential targets for antibiotics.
+    * **Chemical synthesis:**  Scientists can synthesize new compounds that target bacterial processes.
+    * **Understanding bacterial genetics:**  Researchers study the genes of bacteria to identify potential targets for new antibiotics.
 **So, how does bacteria influence antibiotic development?**
-1. **Understanding bacterial resistance:**  Studying bacteria that are resistant to antibiotics helps us understand how they develop resistance mechanisms. This knowledge is crucial for developing new antibiotics that can overcome these resistance mechanisms.
-2. **Identifying new targets:**  By studying the unique processes and structures of bacteria, scientists can identify new targets for antibiotics. This could lead to the development of new classes of antibiotics that are effective against resistant bacteria.
-3. **Developing new antibiotic classes:**  The discovery of new antibiotics often involves understanding the specific mechanisms of action of existing antibiotics. This knowledge can be used to design new antibiotics that target different bacterial processes.
-**In summary:**
-* Bacteria don't "determine" the antibiotic.
-* Bacteria are the target of antibiotics.
-* Understanding bacterial resistance is crucial for developing new antibiotics.
-* Scientists use a combination of approaches to discover and develop new antibiotics.
+* **Understanding bacterial mechanisms:**  By studying the mechanisms of bacterial survival and resistance, scientists can identify new targets for antibiotics.
+* **Identifying resistance mechanisms:**  Understanding how bacteria develop resistance to existing antibiotics helps scientists develop new antibiotics that can overcome these mechanisms.
+* **Developing new antibiotics:**  Research on bacterial genetics and metabolism can lead to the discovery of new antibiotics.
+**The bottom line:** Bacteria are not the sole determinant of antibiotic development.  It's a complex interplay between scientific research, understanding bacterial biology, and the development of new compounds. 
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3974,31 +3991,23 @@
       <c r="G54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about this! While engorgement itself doesn't directly cause chills, it can be a symptom of a more serious underlying issue that *can* lead to chills. 
-Here's a breakdown:
-**Engorgement:**
-* **What it is:**  Engorgement happens when breast tissue becomes swollen and painful due to milk production exceeding the capacity of the ducts. 
-* **Causes:**  This is most common during breastfeeding, but can also occur with hormonal changes, medications, or even certain foods.
-* **Symptoms:**  Swollen, tender breasts, pain, difficulty feeding, and sometimes a feeling of fullness.
-**Chills:**
-* **What they are:**  Chills are a sudden feeling of coldness, often accompanied by shivering.
-* **Causes:**  Chills can be caused by a variety of factors, including:
-    * **Infection:**  A common cause, especially in the case of breast infections like mastitis.
-    * **Hormonal changes:**  Fluctuations in hormones can trigger chills.
-    * **Low body temperature:**  This can be caused by various factors, including illness, dehydration, or even certain medications.
-    * **Stress:**  Emotional stress can also lead to chills.
-**The Connection:**
-* **Mastitis:**  Engorgement can be a symptom of mastitis, a painful breast infection. Mastitis can cause chills, fever, and other symptoms like redness and swelling.
-* **Other infections:**  Other infections, like a yeast infection, can also cause chills and discomfort in the breasts.
-* **Underlying conditions:**  In some cases, engorgement can be a sign of a more serious underlying condition, such as a hormonal imbalance or a thyroid problem.
+Engorged breasts can sometimes cause chills, but it's not a direct cause-and-effect relationship. Here's why:
+**Understanding Engorgement:**
+* **What it is:** Engorgement happens when breast tissue becomes swollen and painful due to an increase in milk production. This is often a common side effect of breastfeeding, especially in the early days.
+* **Why it happens:**  The body produces more milk than the baby can drain, leading to the milk ducts becoming blocked. This can cause the breasts to feel hard, painful, and tender.
+**Chills and Engorgement:**
+* **Possible connection:**  The discomfort and pain associated with engorgement can trigger a feeling of coldness or chills. This is because the body's natural response to pain and inflammation is to try and conserve heat.
+* **Other factors:**  However, chills are not a guaranteed symptom of engorgement. Other factors can contribute to chills, such as:
+    * **Low body temperature:**  This can be caused by various factors, including illness, dehydration, or even just being cold.
+    * **Hormonal changes:**  Hormonal fluctuations during pregnancy or breastfeeding can also cause chills.
+    * **Underlying medical conditions:**  Certain medical conditions, such as hypothyroidism or anemia, can also cause chills.
 **What to do:**
-* **Consult a doctor:**  If you experience chills along with engorgement, it's important to see a doctor to rule out any underlying infections or medical conditions.
-* **Self-care:**  In the meantime, you can try the following to relieve engorgement:
-    * **Frequent nursing or pumping:**  This helps to drain the breasts and reduce swelling.
-    * **Warm compresses:**  Applying a warm compress to the breasts can help to relax the muscles and reduce pain.
+* **If you're experiencing chills:**  It's important to address the underlying cause. If you're breastfeeding, try these tips:
+    * **Frequent nursing:**  Frequent and effective breastfeeding is crucial to drain the breasts.
+    * **Warm compresses:**  Applying a warm compress to the breasts can help to relax the muscles and improve blood flow.
     * **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help to reduce pain and inflammation.
-    * **Proper breastfeeding technique:**  Ensure you are breastfeeding correctly to avoid engorgement.
-**Remember:**  I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult a doctor for any health concerns. 
+* **Consult a doctor:**  If your chills are severe, persistent, or accompanied by other symptoms, such as fever, rash, or difficulty breathing, it's important to consult a doctor.
+**Important Note:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -4006,7 +4015,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4044,28 +4053,30 @@
       <c r="G55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about a common and sometimes tricky condition.  Let's break down how epididymitis is diagnosed:
-**Epididymitis: A Quick Overview**
-Epididymitis is inflammation of the epididymis, a coiled tube on the back of each testicle that stores and transports sperm. It's usually caused by a bacterial infection, but can also be caused by viruses or other irritants.
-**Diagnosis: It's Not Just a Urine Test**
-While a urine test can be part of the diagnostic process, it's not the only one. Here's a more comprehensive approach:
-1. **Medical History and Physical Exam:** Your doctor will ask about your symptoms, sexual history, and any recent illnesses. They'll also perform a physical exam, checking for tenderness, swelling, and redness in the affected area.
-2. **Urine Test:** A urinalysis can help rule out urinary tract infections (UTIs), which can sometimes mimic epididymitis. It checks for bacteria, white blood cells, and other indicators of infection.
-3. **Semen Analysis:**  If the diagnosis is suspected, a semen analysis can be done to check for sperm count, motility, and morphology. This is important because epididymitis can affect sperm production.
-4. **Imaging Tests:**  In some cases, imaging tests like ultrasound or MRI may be used to visualize the epididymis and rule out other conditions.
-5. **Blood Tests:**  Blood tests can be used to check for signs of infection, inflammation, and other potential causes of epididymitis.
-**Why It's Not Just a Urine Test**
-While a urine test can be helpful, it's not always conclusive.  Here's why:
-* **Epididymitis can be caused by a variety of factors:**  Bacterial infections are common, but other causes include sexually transmitted infections, trauma, and even certain medications.
-* **Urine tests can be misleading:**  UTIs can cause similar symptoms to epididymitis, and a urine test alone might not be enough to confirm the diagnosis.
-* **Imaging and blood tests are necessary:**  These tests can provide more information about the cause and severity of the inflammation.
-**Important Note:**  It's crucial to see a doctor for any suspected epididymitis.  Early diagnosis and treatment are essential to prevent complications. 
-Let me know if you have any other questions. 
+You're asking a great question about diagnosing epididymitis, and it's important to understand that a urine test isn't the primary tool for this condition. 
+Here's a breakdown of how epididymitis is diagnosed and why a urine test isn't always the first step:
+**What is Epididymitis?**
+Epididymitis is an inflammation of the epididymis, a coiled tube on the back of each testicle that stores and transports sperm. It's often caused by a bacterial infection, but it can also be caused by other factors like:
+* **Sexually transmitted infections (STIs):** Chlamydia and gonorrhea are common culprits.
+* **Epididymitis can be a complication of other conditions:**  Like prostatitis (inflammation of the prostate gland) or testicular torsion.
+* **Trauma:**  Injury to the area can also lead to inflammation.
+**Diagnosis of Epididymitis:**
+1. **Physical Examination:** Your doctor will examine your testicles and the surrounding area. They'll look for tenderness, swelling, and redness.
+2. **Medical History:**  Your doctor will ask about your symptoms, sexual history, and any recent illnesses.
+3. **Urine Test:** While not the primary diagnostic tool, a urine test can help rule out a urinary tract infection (UTI), which can sometimes mimic epididymitis.
+4. **Blood Tests:**  These can help check for signs of infection and inflammation.
+5. **Ultrasound:**  An ultrasound is a non-invasive imaging technique that can visualize the epididymis and surrounding tissues, helping to confirm the diagnosis.
+6. **Semen Analysis:**  If the cause of epididymitis is unclear, a semen analysis can be helpful.
+**Why a Urine Test Isn't Always the First Step:**
+* **Epididymitis is often caused by a bacterial infection, but it can also be caused by other factors.**  A urine test is primarily used to check for UTIs, which are a separate condition.
+* **Epididymitis is often diagnosed based on symptoms and physical examination.**  A urine test might be ordered if there are signs of a UTI, but it's not the primary diagnostic tool.
+**Important Note:**  It's crucial to see a doctor if you suspect you have epididymitis. Early diagnosis and treatment are essential to prevent complications. 
+Let me know if you have any other questions about epididymitis or any other medical condition. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4102,30 +4113,28 @@
       <c r="G56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about Gabapentin. It's a common medication, but its classification as a controlled substance is a bit nuanced. 
+You're right to be curious about gabapentin. It's a common medication, but its classification as a controlled substance is a bit nuanced. 
 Here's what you need to know:
-**Gabapentin is NOT a Schedule I, II, III, or IV controlled substance.**  This means it's **not considered to have a high potential for abuse or addiction.**
-**However, it's important to understand the context:**
-* **Schedule I substances** are drugs with a high potential for abuse and no currently accepted medical use. Examples include heroin and LSD.
-* **Schedule II substances** have a high potential for abuse and are used for medical purposes, but with strict controls. Examples include morphine and cocaine.
-* **Schedule III substances** have a moderate potential for abuse and are used for medical purposes. Examples include anabolic steroids and ketamine.
-* **Schedule IV substances** have a low potential for abuse and are used for medical purposes. Examples include benzodiazepines and barbiturates.
-**Why is Gabapentin not classified as a Schedule I, II, III, or IV controlled substance?**
-* **Limited abuse potential:** While Gabapentin can be misused, it's not typically associated with the same level of addiction and dependence as other controlled substances.
-* **Medical use:** It's primarily prescribed for managing nerve pain, seizures, and restless legs syndrome. 
-* **Regulation:**  Gabapentin is regulated by the FDA, but its classification as a controlled substance is not based on its abuse potential.
+**Gabapentin is NOT a Schedule I, II, III, or IV controlled substance.**
+* **Schedule I:**  These are drugs with a high potential for abuse and no currently accepted medical use in the U.S. (e.g., heroin, LSD).
+* **Schedule II:** These are drugs with a high potential for abuse and are used for medical purposes but have a high risk of dependence. (e.g., morphine, oxycodone).
+* **Schedule III:** These are drugs with moderate potential for abuse and are used for medical purposes. (e.g., anabolic steroids, ketamine).
+* **Schedule IV:** These are drugs with low potential for abuse and are used for medical purposes. (e.g., benzodiazepines, zolpidem).
+**Why is Gabapentin not in these schedules?**
+* **Limited Abuse Potential:** While gabapentin can be misused, it's not typically abused in the same way as other drugs in Schedule I-IV. 
+* **Medical Use:** It's primarily prescribed for managing nerve pain, seizures, and restless legs syndrome. 
+* **Regulation:**  Gabapentin is regulated by the FDA, but its classification as a Schedule I-IV controlled substance is not relevant to its availability and use.
 **Important Considerations:**
-* **Prescription:** Gabapentin is a prescription medication, meaning it can only be obtained with a doctor's order.
-* **Side effects:** Like all medications, Gabapentin can have side effects, and it's important to discuss any concerns with your doctor.
+* **Prescription Only:** Gabapentin is a prescription medication, meaning it can only be obtained with a doctor's order.
+* **Potential for Dependence:** Like all medications, gabapentin can have side effects and potential for dependence. 
 * **Interactions:** Gabapentin can interact with other medications, so it's crucial to inform your doctor about all the medications you're taking.
-**In conclusion:**
-While Gabapentin is not a controlled substance in the traditional sense, it's still a medication that should be used responsibly and under the guidance of a healthcare professional. 
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+**Always consult with a healthcare professional for any medical advice or questions about medications.** They can provide personalized guidance based on your individual needs and medical history. 
+Let me know if you have any other questions about gabapentin or other medications. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4164,21 +4173,22 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information on applying ointment to a pierced nipple.  However, I must emphasize that I am an AI and cannot provide medical advice.  
-**It is crucial to consult a qualified healthcare professional for any concerns about your piercing.** 
+**It is crucial to consult a qualified healthcare professional for any piercing-related concerns.** 
 That being said, I can offer some general information about piercings and wound care:
 * **Pierced Nipples:**  Nipples are a sensitive area, and piercings can be prone to infection. 
-* **Ointments:**  Ointments are often used to help keep piercings clean and moisturized.  
+* **Ointments:**  Ointments are often used to help keep a piercing clean and moisturized.  
 * **Proper Application:**  Applying ointment to a pierced nipple requires specific care to avoid irritation and infection. 
 **Here's what a doctor would likely advise:**
-1. **Cleanliness:**  The most important thing is to keep the piercing clean.  Your doctor will likely recommend gentle, unscented soap and warm water for cleaning.
-2. **Ointment Choice:**  They may recommend a specific ointment, such as petroleum jelly or a hypoallergenic cream, depending on your individual needs. 
-3. **Application:**  They will guide you on how to apply the ointment, ensuring it doesn't get into the piercing itself.
+1. **Cleanliness:**  The most important thing is to keep the piercing clean.  The doctor will likely recommend gentle, unscented soap and warm water for cleaning.
+2. **Ointment Choice:**  They will recommend an ointment specifically designed for piercings, such as:
+    * **Antibiotic ointment:**  Helps prevent infection.
+    * **Petroleum jelly:**  Moisturizes the area and helps prevent dryness.
+3. **Application:**  The doctor will demonstrate the proper way to apply the ointment to the piercing, ensuring it doesn't get in the piercing itself.
 4. **Frequency:**  They will advise on how often to apply the ointment.
-5. **Signs of Infection:**  They will teach you to recognize signs of infection, such as redness, swelling, pain, discharge, or fever.
+5. **Signs of Infection:**  The doctor will explain what to look for if the piercing becomes infected, such as redness, swelling, pain, pus, or discharge.
 **Remember:**
-* **Never use harsh chemicals or strong fragrances on a piercing.**
+* **Never use harsh chemicals or home remedies on a piercing.**
 * **Avoid touching the piercing with dirty hands.**
-* **Don't use home remedies without consulting a doctor.**
 * **If you experience any signs of infection, seek medical attention immediately.**
 Please schedule an appointment with your doctor or a qualified piercer to get personalized advice and care for your piercing. 
 &lt;end_of_turn&gt;</t>
@@ -4188,7 +4198,7 @@
         <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4221,31 +4231,32 @@
       <c r="G58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's understandable to be puzzled when you're the only one feeling unwell in your household. While it's possible to be the only one with a viral infection, it's important to remember that there are many factors that could be at play. 
-Here's a breakdown of potential explanations and what you can do:
-**Possible Explanations:**
-* **Timing:**  Viruses can have incubation periods, meaning you might have been exposed to the virus before you started feeling sick. 
-* **Exposure:** You might have been exposed to the virus through a different route than others in the house. For example, you could have been exposed to the virus through:
-    * **Contact with an infected person:** Even if others in the house are not showing symptoms, they could still be carrying the virus.
-    * **Contaminated surfaces:**  Viruses can live on surfaces for a while, so it's possible you came into contact with the virus on a doorknob, countertop, or other object.
-    * **Airborne transmission:** Some viruses spread through the air, especially in enclosed spaces. 
-* **Individual Immune Response:**  Everyone's immune system is different. Some people may be more susceptible to certain viruses than others.
-* **Underlying Health Conditions:**  Pre-existing health conditions can make you more vulnerable to infections.
-* **Misdiagnosis:**  Sometimes, symptoms can be similar to other conditions, leading to a misdiagnosis.
+It's understandable to be puzzled when you're the only one feeling unwell in your household.  Here's a breakdown of why you might be experiencing this, and what to consider:
+**Possible Reasons You're the Only One:**
+* **Timing:**  Viruses spread through droplets, and it's possible you were exposed to the virus at a time when others in the house were not yet showing symptoms. 
+* **Virus Type:** Some viruses are more contagious than others.  A virus that's highly contagious might be spreading through the house, but you might have been exposed at a different time or in a different way.
+* **Exposure:** You might have been exposed to the virus through a different route than others in the house. For example, you might have been exposed to the virus through contaminated surfaces, food, or air.
+* **Individual Immune Response:**  Everyone's immune system reacts differently to viruses. You might have a stronger immune response than others, making you less likely to get sick.
+* **Underlying Health Conditions:**  Pre-existing health conditions can affect how your body responds to viruses. 
+* **Timing of Symptoms:**  Some viruses have a longer incubation period, meaning you might have been exposed to the virus before you started feeling sick.
 **What to Do:**
-1. **Monitor Your Symptoms:**  Pay close attention to your symptoms and how they change over time. 
-2. **Isolate Yourself:**  If you're feeling unwell, it's best to isolate yourself from others in the house to prevent the spread of the virus.
-3. **Practice Good Hygiene:**  Wash your hands frequently with soap and water for at least 20 seconds. Avoid touching your face, especially your eyes, nose, and mouth.
-4. **Clean and Disinfect:**  Clean and disinfect frequently touched surfaces, such as doorknobs, light switches, and countertops.
-5. **Stay Hydrated:**  Drink plenty of fluids to help your body fight the infection.
-6. **Rest:**  Get plenty of rest to help your body recover.
-7. **Contact Your Doctor:**  If your symptoms are severe or don't improve after a few days, it's important to contact your doctor. They can help determine the cause of your illness and recommend the best course of treatment.
-**Important Note:**  I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+1. **Consider the Symptoms:**  What are your symptoms? Are they consistent with a common cold, flu, or something else? 
+2. **Isolate:**  If you're feeling unwell, it's best to isolate yourself from others in the house to prevent further spread.
+3. **Hygiene:**  Practice good hygiene, including frequent handwashing, covering coughs and sneezes, and avoiding touching your face.
+4. **Rest:**  Give your body time to recover by getting plenty of rest.
+5. **Hydration:**  Drink plenty of fluids to stay hydrated.
+6. **Monitor Symptoms:**  Keep an eye on your symptoms and seek medical attention if they worsen or you develop new symptoms.
+**Important Note:**  I am an AI and cannot provide medical advice. If you are concerned about your health, please consult a medical professional. 
+**Additional Information:**
+* **Common Viruses:**  The common cold, influenza (flu), COVID-19, and other respiratory viruses are all possible culprits.
+* **Prevention:**  Vaccination, handwashing, and avoiding close contact with sick individuals are effective ways to prevent the spread of viruses. 
+* **Testing:**  If you are concerned about your symptoms, a doctor can order a test to determine the cause of your illness. 
+Remember, it's important to take care of yourself and follow the advice of your healthcare provider. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4290,35 +4301,41 @@
       <c r="G59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a common question! Canker sores and herpes simplex virus (HSV) infections can be tricky to differentiate, as they both cause painful, red sores.  Here's a breakdown to help you understand the key differences:
+Ah, a common question!  Canker sores and herpes simplex virus (HSV) infections can be tricky to differentiate, as they both cause painful, red sores.  Here's a breakdown to help you understand the key differences:
 **Canker Sores (Aphthous Ulcers)**
 * **Appearance:** Small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
 * **Cause:**  The exact cause is unknown, but they are thought to be triggered by stress, injury, or an overactive immune system.
-* **Duration:**  They typically last 7-14 days, but can sometimes persist longer.
+* **Duration:**  Typically last 7-14 days, but can sometimes persist longer.
 * **Pain:**  Moderate to severe pain, often described as burning or stinging.
 * **Location:**  Most commonly found inside the mouth, but can appear on the lips.
-* **Appearance:**  They are typically small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
+* **Appearance:**  Typically round, shallow ulcers with a white or yellow center and red borders.
 **Herpes Simplex Virus (HSV)**
-* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
+* **Appearance:**  Small, fluid-filled blisters that eventually rupture, forming painful sores. These sores are often clustered together and can be found on the lips, mouth, or genitals.
 * **Cause:**  A viral infection caused by the herpes simplex virus.
-* **Duration:**  The blisters can last 2-3 days, but the virus can remain dormant in the body for years.
+* **Duration:**  The sores typically last 2-3 weeks, but can sometimes persist longer.
 * **Pain:**  Severe pain, often described as burning or stinging.
-* **Location:**  Most commonly found on the lips, but can also appear on other parts of the body.
-* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
-**How to Differentiate:**
-* **Location:** Canker sores are primarily found inside the mouth, while herpes sores can appear on the lips, genitals, or other areas of the body.
-* **Appearance:** Canker sores have a white or yellow center surrounded by a red border, while herpes sores have fluid-filled blisters that can become ulcers.
-* **Duration:** Canker sores typically last 7-14 days, while herpes outbreaks can last for several days or weeks.
-* **Pain:** Canker sores are usually more painful than herpes sores.
-* **Triggers:** Canker sores are often triggered by stress, injury, or an overactive immune system, while herpes outbreaks are triggered by stress, illness, or sun exposure.
-**Important Note:**
-It's crucial to remember that I am not a medical professional. This information is for general knowledge only and should not be used for self-diagnosis or treatment. If you are concerned about a sore in your mouth, please consult a doctor or other healthcare provider for a proper diagnosis and treatment plan. 
-Let me know if you have any other questions. 
+* **Location:**  Most commonly found on the lips, but can also appear on the genitals, buttocks, or other areas of the body.
+* **Appearance:**  Small, fluid-filled blisters that eventually rupture, forming painful sores. These sores are often clustered together and can be found on the lips, mouth, or genitals.
+**Key Differences:**
+* **Appearance:** Canker sores are shallow, round ulcers with a white or yellow center, while herpes sores are fluid-filled blisters that eventually rupture.
+* **Location:** Canker sores are typically found inside the mouth, while herpes sores can appear on the lips, mouth, genitals, or other areas of the body.
+* **Duration:** Canker sores typically last 7-14 days, while herpes sores can last 2-3 weeks.
+* **Pain:** Canker sores can be painful, but herpes sores are often more severe and can be accompanied by fever and swollen lymph nodes.
+* **Triggers:** Canker sores are thought to be triggered by stress, injury, or an overactive immune system, while herpes is caused by a virus.
+**Important Notes:**
+* **Self-diagnosis is not recommended.** If you are concerned about a sore in your mouth, it is best to consult a doctor for a proper diagnosis.
+* **Treatment varies.** Canker sores are usually treated with over-the-counter pain relievers and mouthwashes. Herpes is treated with antiviral medications.
+* **Prevention is key.**  Good oral hygiene, stress management, and avoiding triggers can help prevent both canker sores and herpes outbreaks.
+**When to See a Doctor:**
+* If you have a sore that is not healing or is getting worse.
+* If you have a sore that is accompanied by fever, swollen lymph nodes, or other symptoms.
+* If you are concerned about the cause of your sore.
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4396,10 +4413,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4440,8 +4457,8 @@
           <t xml:space="preserve">
 Ah, post-nasal drip. A common ailment that can be quite bothersome.  Let's delve into the ways to prevent it. 
 **Understanding the Culprit:**
-Post-nasal drip occurs when excess mucus drips down the back of your throat, causing irritation and discomfort.  It's often caused by:
-* **Allergies:**  Pollen, dust mites, pet dander, and mold can trigger your immune system to produce excessive mucus.
+Post-nasal drip occurs when excess mucus drips down the back of your throat, causing a persistent feeling of a tickle or a cough.  It's often caused by:
+* **Allergies:**  Pollen, dust mites, pet dander, and mold can trigger your body to produce excessive mucus.
 * **Infections:**  Viral infections like the common cold or flu, as well as bacterial infections like sinusitis, can cause inflammation and increased mucus production.
 * **Irritants:** Smoke, pollution, and even dry air can irritate your nasal passages and lead to excess mucus.
 * **Medications:** Some medications, like decongestants, can actually increase mucus production in the long run.
@@ -4449,34 +4466,35 @@
 1. **Identify and Manage Allergies:**
     * **Allergy Testing:**  If you suspect allergies, consult an allergist for testing and treatment.
     * **Avoid Triggers:**  Identify and minimize exposure to your allergens. This might involve using air purifiers, keeping windows closed, and avoiding certain foods.
-    * **Medications:**  Antihistamines, nasal corticosteroids, and decongestants can help manage allergy symptoms.
+    * **Medications:** Antihistamines, nasal corticosteroids, and decongestants can help manage allergy symptoms.
 2. **Combat Infections:**
-    * **Hygiene:**  Wash your hands frequently and avoid touching your face.
+    * **Hygiene:**  Wash your hands frequently, especially after being in public places.
     * **Rest:**  Give your body time to recover from colds and flu.
-    * **Over-the-Counter Relief:**  Use saline nasal sprays or decongestants to help clear your nasal passages.
+    * **Hydration:**  Drink plenty of fluids to thin mucus and help it drain.
+    * **Over-the-Counter Relief:**  Saline nasal sprays and decongestants can provide temporary relief.
 3. **Manage Irritants:**
     * **Humidifier:**  Use a humidifier to add moisture to the air, especially during dry winter months.
     * **Avoid Smoke:**  Stay away from smoke and other irritants.
-    * **Air Quality:**  Monitor air quality and avoid areas with high pollution levels.
+    * **Air Quality:**  Consider air purifiers to remove pollutants from the air.
 4. **Lifestyle Changes:**
-    * **Hydration:**  Drink plenty of fluids, especially water, to thin mucus and help it drain.
-    * **Healthy Diet:**  Eat a balanced diet rich in fruits, vegetables, and whole grains.
-    * **Exercise:**  Regular physical activity can help boost your immune system.
+    * **Healthy Diet:**  A balanced diet rich in fruits, vegetables, and whole grains can support your immune system.
+    * **Exercise:**  Regular physical activity can boost your immune system and reduce stress.
+    * **Stress Management:**  Stress can weaken your immune system, so find healthy ways to manage stress, such as meditation or yoga.
 5. **Consider Medications:**
-    * **Decongestants:**  Short-term use of decongestants can help relieve congestion.
-    * **Antihistamines:**  Can help reduce allergy symptoms.
-    * **Nasal Corticosteroids:**  Long-term use can help reduce inflammation and mucus production.
+    * **Decongestants:**  Short-term use of decongestants can help relieve nasal congestion.
+    * **Antihistamines:**  These can help reduce allergy symptoms.
+    * **Nasal Corticosteroids:**  These can help reduce inflammation and mucus production.
 **Important Note:**
 It's crucial to consult a doctor if your post-nasal drip is persistent, severe, or accompanied by other symptoms like fever, facial pain, or difficulty breathing. They can help determine the underlying cause and recommend the most appropriate treatment.
-Remember, prevention is key! By understanding the causes and taking proactive steps, you can significantly reduce the likelihood of experiencing post-nasal drip. 
+Remember, prevention is key! By understanding the causes of post-nasal drip and taking proactive steps, you can significantly reduce its occurrence and improve your overall comfort. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4517,40 +4535,36 @@
       <c r="G62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, otitis externa, or swimmer's ear. It's a common condition, especially for those who spend time in water. Let me explain how it develops:
-**The Culprit: Bacteria**
-At its core, otitis externa is an infection of the outer ear canal. The culprit is usually bacteria, but sometimes fungi or yeast can also be involved. 
-**The Pathway to Infection**
-1. **Water Trapping:**  The most common cause is water trapped in the ear canal. This can happen after swimming, showering, or even just wearing earplugs for extended periods. 
-2. **Moist Environment:**  The warm, moist environment created by water provides a perfect breeding ground for bacteria. 
-3. **Ear Canal Damage:**  The canal itself can be damaged by things like:
-    * **Foreign objects:**  Small objects like cotton swabs, earplugs, or even hair can push debris into the canal and irritate the skin.
-    * **Excessive ear cleaning:**  While it's tempting to clean the ear, it's important to do so gently and avoid pushing anything into the canal.
-    * **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
-4. **Immune Response:**  When bacteria enter the ear canal, the body's immune system kicks in. This can lead to inflammation and swelling, which can cause pain and discomfort.
+Ah, otitis externa, commonly known as swimmer's ear. It's a painful condition that affects the outer ear canal.  Let's delve into its causes:
+**The Usual Suspects:**
+* **Water Trapping:**  The primary culprit is water trapped in the ear canal. This can happen after swimming, showering, or even prolonged exposure to moisture.  
+* **Bacteria:**  The warm, moist environment in the ear canal provides a perfect breeding ground for bacteria, particularly *Pseudomonas aeruginosa* and *Staphylococcus aureus*.
+* **Foreign Objects:**  Small objects like ear buds, cotton swabs, or even hair can get lodged in the ear canal, creating a perfect environment for bacteria to multiply.
+* **Skin Conditions:**  Conditions like eczema or psoriasis can make the skin in the ear canal more susceptible to infection.
+* **Immune System:**  A weakened immune system can make you more prone to infections, including otitis externa.
+**How It Happens:**
+1. **Entry:**  Water, bacteria, or other irritants enter the ear canal.
+2. **Inflammation:**  The body's immune system responds to the irritant, causing inflammation and swelling in the ear canal.
+3. **Pain and Discharge:**  The inflammation causes pain, itching, and a discharge of fluid or pus from the ear.
+4. **Infection:**  If the infection is left untreated, it can spread deeper into the ear, leading to more serious complications.
 **Risk Factors:**
 * **Swimming:**  Swimming is a major risk factor, especially in chlorinated pools or lakes.
-* **Earwax:**  Excessive earwax can block the canal and trap water.
+* **Earwax:**  Excessive earwax can block the ear canal, trapping water and bacteria.
 * **Age:**  Infants and young children are more susceptible to otitis externa.
-* **Diabetes:**  People with diabetes may have a weakened immune system, making them more prone to infection.
-* **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
+* **Diabetes:**  People with diabetes have a higher risk of developing infections.
+* **Weakened Immune System:**  People with compromised immune systems are more vulnerable to infections.
 **Prevention is Key:**
-* **Dry your ears thoroughly:**  After swimming or showering, dry your ears completely with a towel.
-* **Avoid cotton swabs:**  They can push debris deeper into the canal and irritate the skin.
-* **Use earplugs:**  If you're swimming, use earplugs to keep water out of your ears.
-* **Keep your ears clean:**  Gently clean the outer ear with a damp cloth, but avoid inserting anything into the canal.
-* **Manage underlying conditions:**  If you have diabetes or other conditions that weaken your immune system, talk to your doctor about ways to prevent infection.
-**When to See a Doctor:**
-* **Severe pain:**  If the pain is intense or doesn't improve with home care.
-* **Fever:**  A fever can indicate a more serious infection.
-* **Discharge:**  A discharge from the ear can be a sign of infection.
-* **Hearing loss:**  If you experience any hearing loss, see a doctor immediately.
-Remember, early diagnosis and treatment are crucial for preventing complications. Don't hesitate to seek medical advice if you suspect you have otitis externa. 
+* **Dry Your Ears:**  After swimming or showering, dry your ears thoroughly with a towel.
+* **Avoid Cotton Swabs:**  Never insert cotton swabs into your ear canal.
+* **Cleanse the Ear Canal:**  Use a mild, over-the-counter ear wash solution to clean the ear canal.
+* **Avoid Irritants:**  Avoid using harsh soaps or lotions near the ear canal.
+* **Consult a Doctor:**  If you experience any symptoms of otitis externa, consult a doctor immediately.
+Remember, early diagnosis and treatment are crucial to prevent complications.  If you have any concerns, please don't hesitate to seek medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4588,38 +4602,33 @@
       <c r="G63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question that delves into the fascinating world of our cardiovascular rhythms!  Let me explain the difference between heart rate and heart rate variability (HRV) in a way that's both clear and insightful.
-**Heart Rate (HR):**
-* **Simply put:**  It's the number of times your heart beats per minute. 
-* **Measurement:**  It's usually measured by a pulse oximeter, a stethoscope, or a heart rate monitor.
-* **Factors:**  It's influenced by many things, including:
-    * **Age:**  Generally, HR tends to increase with age.
-    * **Fitness Level:**  Athletes tend to have lower resting HR.
-    * **Stress:**  Stress can elevate HR.
-    * **Medications:**  Some medications can affect HR.
-    * **Medical Conditions:**  Certain conditions can cause irregular heart rhythms.
+Ah, a question that delves into the fascinating world of heart health!  Let me explain the difference between heart rate and heart rate variability (HRV) in a way that's easy to understand.
+**Heart Rate:**
+* **What it is:**  Simply put, heart rate is the number of times your heart beats per minute. It's a basic measure of your heart's activity.
+* **How it's measured:**  A doctor can measure your heart rate using a stethoscope or a heart monitor.
+* **What it tells us:**  Your heart rate can be influenced by many factors, including your age, fitness level, stress, and medications. It can be a good indicator of your overall health, but it doesn't tell the whole story.
 **Heart Rate Variability (HRV):**
-* **A more nuanced concept:**  HRV is a measure of the variation in time between each heartbeat. 
-* **Think of it like this:**  Imagine your heart is a metronome, and HRV is how much the tempo fluctuates.
-* **Measurement:**  HRV is typically measured using a device that records your heart's electrical activity.
-* **Key Points:**
-    * **Higher HRV:**  Indicates a more resilient and adaptable heart. It suggests a healthy balance between the sympathetic (fight-or-flight) and parasympathetic (rest-and-digest) nervous systems.
-    * **Lower HRV:**  Suggests a less adaptable heart, potentially indicating stress, fatigue, or illness.
-**The Connection:**
-HRV is a valuable indicator of your overall cardiovascular health.  While HR is a simple measure of your heart's activity, HRV provides a more nuanced picture of how your heart responds to different stimuli.
-**Why is HRV Important?**
-* **Stress and Recovery:**  HRV can help us understand how our bodies cope with stress.  A low HRV can be a sign of chronic stress, while a high HRV can indicate a healthy stress response.
-* **Sleep Quality:**  HRV is often linked to sleep quality.  A good HRV at night suggests restful sleep.
-* **Disease Prediction:**  Studies have shown that low HRV can be an early indicator of cardiovascular disease, even before symptoms appear.
-* **Performance:**  Athletes use HRV to monitor training and recovery.
-**In Summary:**
-Think of HR as the number of beats, and HRV as the rhythm and flexibility of those beats.  HRV is a more complex and dynamic measure of your heart's health, offering valuable insights into your overall well-being.
-Let me know if you have any further questions. I'm always happy to delve deeper into the fascinating world of human physiology! 
+* **What it is:**  HRV is a measure of the variation in time between your heartbeats. It's like a snapshot of your heart's rhythm, showing how flexible and responsive it is.
+* **How it's measured:**  HRV is calculated using a heart monitor that records your heart's electrical activity over time.
+* **What it tells us:**  HRV is a more complex and nuanced measure of your heart's health. It reflects your body's ability to adapt to changing conditions, like stress, exercise, and sleep. 
+**Here's the key difference:**
+* **Heart rate** is a single number, like a snapshot of your heart's activity at a specific moment.
+* **HRV** is a dynamic measure, showing how your heart beats change over time. It's like a movie of your heart's rhythm, revealing its flexibility and responsiveness.
+**Why is HRV important?**
+* **Stress and recovery:**  Higher HRV generally indicates better stress management and recovery from physical or emotional stress.
+* **Overall health:**  Low HRV can be associated with various health issues, including cardiovascular disease, sleep disorders, and even mental health conditions.
+* **Personalized medicine:**  HRV is becoming increasingly important in personalized medicine, as it can help doctors tailor treatment plans to individual needs.
+**Think of it this way:**
+* **Heart rate** is like the speed of a car.
+* **HRV** is like the car's ability to accelerate and brake smoothly.
+**In conclusion:**
+While heart rate is a valuable indicator of your heart's activity, HRV provides a more comprehensive picture of your heart's health and its ability to adapt to various conditions.  It's a valuable tool for understanding your overall well-being and can help you make informed decisions about your health. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4695,7 +4704,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4733,41 +4742,37 @@
       <c r="G65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about two medications that are both used to manage type 2 diabetes, but have different mechanisms and potential benefits. 
-Here's a breakdown of how Saxenda and Ozempic differ:
+You're asking a great question about two medications that are both used to manage type 2 diabetes and weight loss.  Let's break down the key differences between Saxenda and Ozempic:
 **Saxenda (liraglutide)**
-* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics a naturally occurring hormone called glucagon-like peptide-1 (GLP-1) that helps regulate blood sugar levels.  
-* **Primary Use:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related comorbidity, like high blood pressure, high cholesterol, or type 2 diabetes.
-* **Benefits:**
-    * **Weight Loss:** Saxenda can help people lose weight by reducing appetite and increasing feelings of fullness.
-    * **Blood Sugar Control:** Saxenda can improve blood sugar control in people with type 2 diabetes.
-    * **Cardiovascular Benefits:** Saxenda may also help lower blood pressure and cholesterol, reducing the risk of heart disease.
-* **Side Effects:**  Common side effects include nausea, vomiting, diarrhea, constipation, and abdominal pain. 
+* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics a naturally occurring hormone in the body called glucagon-like peptide-1 (GLP-1). GLP-1 helps regulate blood sugar levels and promotes feelings of fullness.
+* **Administration:** Saxenda is administered as a weekly injection.
+* **Primary Use:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related comorbidity, such as high blood pressure, high cholesterol, or type 2 diabetes.
+* **Benefits:** Saxenda can help with weight loss, improve blood sugar control, and reduce the risk of cardiovascular events.
+* **Side Effects:** Common side effects include nausea, vomiting, diarrhea, constipation, and abdominal pain.
 **Ozempic (semaglutide)**
-* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, but it's a slightly different version of the molecule. 
-* **Primary Use:** Ozempic is primarily used for type 2 diabetes. It's approved for use in adults with type 2 diabetes who have at least one other risk factor for cardiovascular disease.
-* **Benefits:**
-    * **Blood Sugar Control:** Ozempic is highly effective in lowering blood sugar levels in people with type 2 diabetes.
-    * **Weight Loss:** Ozempic can also help people lose weight, although its primary use is for diabetes management.
-* **Side Effects:**  Ozempic can cause similar side effects to Saxenda, including nausea, vomiting, diarrhea, constipation, and abdominal pain. It can also cause thyroid tumors in rare cases.
+* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, similar to Saxenda.
+* **Administration:** Ozempic is administered as a weekly injection.
+* **Primary Use:** Ozempic is approved for the treatment of type 2 diabetes. It is also used for weight management in adults with obesity or overweight with at least one weight-related comorbidity.
+* **Benefits:** Ozempic can help with blood sugar control, weight loss, and reducing the risk of cardiovascular events.
+* **Side Effects:**  Ozempic can cause similar side effects to Saxenda, including nausea, vomiting, diarrhea, constipation, and abdominal pain.  It can also cause thyroid tumors in rare cases.
 **Key Differences:**
-* **Primary Use:** Saxenda is primarily for weight management, while Ozempic is primarily for type 2 diabetes.
-* **Dosage:** Saxenda is typically administered once daily, while Ozempic is administered once weekly.
+* **Primary Use:** While both are used for weight management and type 2 diabetes, Ozempic is specifically approved for type 2 diabetes, while Saxenda is approved for both weight management and type 2 diabetes.
+* **Dosage:** Ozempic is available in a higher dose than Saxenda.
 * **Cost:** Ozempic is generally more expensive than Saxenda.
 **Important Considerations:**
-* **Individualized Treatment:** The best medication for you will depend on your individual needs and medical history. 
-* **Consultation with a Doctor:** It's crucial to discuss your medical history and any potential risks and benefits with your doctor before starting any new medication.
-* **Monitoring:** Both medications require regular monitoring of blood sugar levels and other health markers.
+* **Individualized Treatment:** The best medication for you will depend on your individual medical history, current health status, and preferences. 
+* **Consultation with a Doctor:** It's crucial to discuss your options with a healthcare professional. They can assess your needs, consider potential risks and benefits, and determine the most appropriate medication for you.
+* **Monitoring:** Both medications require regular monitoring by your doctor to ensure they are working effectively and to manage any side effects.
 **In Summary:**
-Both Saxenda and Ozempic are effective medications for managing type 2 diabetes and weight.  The choice between the two depends on your individual needs and medical history.  Always consult with your doctor to determine the best treatment option for you. 
+Both Saxenda and Ozempic are effective medications for managing type 2 diabetes and weight loss.  The choice between them depends on your individual needs and preferences.  Always consult with your doctor to determine the best treatment plan for you. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4812,24 +4817,22 @@
           <t xml:space="preserve">
 I understand you're wondering about the timing between ibuprofen and naproxen.  While I can provide general information, I am not a medical professional and cannot give medical advice. 
 **Here's what I can tell you:**
-* **Naproxen and ibuprofen are both NSAIDs (non-steroidal anti-inflammatory drugs).** They work by reducing pain and inflammation, but they can have similar side effects.
-* **Taking NSAIDs together can increase the risk of side effects.** This is because they both inhibit the production of prostaglandins, which are chemicals involved in inflammation and pain.
-* **The exact time to wait between ibuprofen and naproxen depends on the individual and the specific medications.** 
-* **It's best to consult with your doctor or pharmacist.** They can provide personalized advice based on your medical history, current medications, and individual needs.
-**Here are some general guidelines:**
-* **The general recommendation is to wait at least 4 hours between taking ibuprofen and naproxen.** This allows enough time for the first medication to be metabolized and for the body to clear it.
-* **However, this is just a general guideline.** Your doctor or pharmacist may recommend a different waiting period based on your specific situation.
-* **Always follow the instructions on the medication labels.**
-**Remember:**
-* **Never take more than the recommended dose of any medication.**
-* **If you experience any side effects, stop taking the medication and contact your doctor immediately.**
-* **It's important to discuss any concerns about medication interactions with your healthcare provider.**
-**Please schedule an appointment with your doctor or pharmacist to get personalized advice about your specific situation.** 
+* **NSAIDs and Drug Interactions:** Both ibuprofen and naproxen are non-steroidal anti-inflammatory drugs (NSAIDs) that work by reducing inflammation and pain. They can sometimes interact with each other, potentially leading to side effects like stomach upset, ulcers, or bleeding. 
+* **Timing is Important:**  The general recommendation is to **wait at least 4 hours** between taking ibuprofen and naproxen. This allows your body to process the first dose and reduces the risk of potential interactions. 
+* **Individual Factors:**  However, the exact timing may vary depending on individual factors like:
+    * **Dosage:** Higher doses of either medication may require a longer wait.
+    * **Health Conditions:**  Pre-existing conditions like ulcers or bleeding disorders may require even more careful timing.
+    * **Other Medications:**  You should always consult your doctor or pharmacist about potential interactions with other medications you are taking.
+**What to do:**
+* **Consult Your Doctor or Pharmacist:** The best course of action is to speak with your doctor or pharmacist. They can assess your individual situation, consider your medical history, and provide personalized advice on the appropriate timing for taking naproxen after ibuprofen. 
+* **Read Medication Labels:** Always carefully read the labels on your medications and follow the recommended dosage instructions. 
+* **Be Aware of Side Effects:**  Be aware of any potential side effects and contact your doctor immediately if you experience any unusual symptoms.
+Remember, your health is paramount. Always seek professional medical advice for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -4869,29 +4872,24 @@
       <c r="G67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, shin splints. A common ailment that can be quite frustrating.  Let's delve into the duration of these painful woes.
-**Shin splints, or medial tibial stress syndrome (MTSS), typically last between 4 to 8 weeks.**  However, it's important to remember that this is a general timeframe, and the actual duration can vary significantly depending on several factors:
-**Factors Affecting Recovery Time:**
-* **Severity of the injury:** Mild cases may resolve within a few weeks, while more severe cases may require longer recovery.
-* **Individual healing rate:** Everyone heals at a different pace. Some people recover faster than others.
-* **Underlying conditions:** Existing medical conditions like diabetes or arthritis can affect healing time.
-* **Treatment adherence:** Following your doctor's instructions and engaging in the prescribed rehabilitation program is crucial for a faster recovery.
-* **Activity level:**  The intensity and frequency of your activity can influence healing. 
-**Signs of Improvement:**
-* **Reduced pain:**  As the inflammation subsides, you'll likely experience less pain when walking or running.
-* **Improved range of motion:**  You'll be able to move your ankle and foot more freely.
-* **Increased strength:**  Your calf muscles and shin muscles will gradually regain strength.
+Ah, shin splints. A common ailment that can be quite frustrating.  
+Here's the breakdown of how long shin splints typically last:
+**Generally, shin splints can last anywhere from a few weeks to several months.** 
+**Factors that influence duration:**
+* **Severity:** Mild shin splints might resolve within a couple of weeks with rest and appropriate treatment. More severe cases, however, might take longer to heal.
+* **Underlying cause:**  If the shin splints are caused by overuse, they'll likely resolve faster than those stemming from a stress fracture or other underlying medical condition.
+* **Treatment:**  Following a doctor's advice, including rest, ice, compression, elevation (RICE), and potentially physical therapy, can significantly speed up the healing process.
+* **Individual healing rate:**  Everyone heals at their own pace. Some people recover faster than others.
 **Important Notes:**
-* **Don't push yourself too hard too soon:**  It's tempting to jump back into your usual activities, but it's crucial to gradually increase your activity level to avoid re-injury.
-* **Listen to your body:**  If you experience any pain or discomfort, stop and rest.
-* **Consult your doctor:**  If your shin splints don't improve after a few weeks or if you experience any unusual symptoms, seek medical advice.
-Remember, patience is key.  Shin splints are a common injury, and with proper care and rehabilitation, you'll be back to your usual activities in no time. 
-Let me know if you have any other questions. 
+* **Don't ignore the pain:**  Shin splints can be quite painful, and ignoring them can lead to further complications. 
+* **Seek professional advice:**  If your shin splints are persistent or severe, it's crucial to consult a doctor or physical therapist. They can diagnose the cause and recommend the most appropriate treatment plan.
+* **Prevention is key:**  To avoid shin splints in the future, focus on proper warm-up, gradual exercise progression, and adequate rest.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -4933,30 +4931,18 @@
       <c r="G68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're interested in understanding how Wellbutrin works and its effects.  
-As a wise doctor, I can tell you that the timeline for noticing the effects of Wellbutrin (bupropion) can vary significantly from person to person. It's important to remember that everyone responds differently to medications, and there's no one-size-fits-all answer. 
-Here's a general overview of what you might expect:
-**Initial Effects (1-2 Weeks):**
-* **Mood Elevation:** You might start to feel a bit more energetic and less depressed. This is often the first noticeable change.
-* **Reduced Anhedonia:**  You might find yourself experiencing a renewed interest in activities you used to enjoy.
-* **Improved Focus:**  You might notice an increase in concentration and mental clarity.
-**Full Effects (4-8 Weeks):**
-* **Significant Mood Improvement:**  You may experience a more substantial reduction in depressive symptoms, including feelings of sadness, hopelessness, and fatigue.
-* **Increased Motivation:**  You might find yourself feeling more motivated to engage in daily activities and pursue goals.
-* **Improved Sleep:**  You might experience better sleep patterns and fewer sleep disturbances.
-**Long-Term Effects (Ongoing):**
-* **Sustained Mood Elevation:**  The effects of Wellbutrin can continue to improve over time, leading to a more stable and positive mood.
-* **Reduced Risk of Relapse:**  Wellbutrin can help reduce the likelihood of experiencing depressive episodes in the future.
+It's great that you're interested in understanding how Wellbutrin works and its potential effects.  
+**Here's what I can tell you about the timeline for noticing Wellbutrin's effects:**
+* **It can take several weeks to see noticeable changes.**  Wellbutrin (bupropion) is a medication that helps manage depression and seasonal affective disorder (SAD). It works by affecting the levels of certain chemicals in the brain. 
+* **Early signs of improvement may be subtle.** You might experience a slight increase in energy, motivation, or mood. These changes can be difficult to pinpoint and may not be dramatic.
+* **Consistency is key.**  It's crucial to take Wellbutrin as prescribed and consistently for several weeks to allow the medication to build up in your system and reach its full potential. 
+* **Individual responses vary.**  Everyone responds differently to medications. Some people may experience noticeable effects within a few days, while others may take several weeks or even months to see significant improvements. 
+* **Don't give up too soon.**  It's important to be patient and continue taking Wellbutrin as directed, even if you don't see immediate results. 
 **Important Considerations:**
-* **Individual Variability:**  The time it takes to notice the effects of Wellbutrin can vary greatly. Some people may experience noticeable improvements within a few days, while others may take several weeks.
-* **Dosage and Treatment Plan:**  The dosage of Wellbutrin and the overall treatment plan can influence the speed of effects. Your doctor will tailor your treatment to your specific needs.
-* **Underlying Conditions:**  The presence of other medical conditions or medications can affect how Wellbutrin works.
-* **Consistency and Follow-Up:**  It's crucial to take Wellbutrin consistently as prescribed and to follow up with your doctor regularly to monitor your progress and adjust your treatment plan if needed.
-**Remember:**
-* **Don't Stop Taking Wellbutrin Without Talking to Your Doctor:**  Abruptly stopping Wellbutrin can lead to withdrawal symptoms and potentially worsen your symptoms.
-* **Be Patient and Persistent:**  It may take time to experience the full benefits of Wellbutrin. Don't get discouraged if you don't see immediate results.
-* **Seek Professional Help:**  If you're struggling with depression or other mental health concerns, please reach out to a qualified healthcare professional for diagnosis and treatment.
-I hope this information is helpful.  Remember, I am an AI and cannot provide medical advice. Always consult with your doctor for personalized guidance and treatment. 
+* **Talk to your doctor.**  It's essential to discuss your expectations and any concerns you have with your doctor. They can help you understand the potential benefits and risks of Wellbutrin and provide personalized guidance.
+* **Don't self-medicate.**  Wellbutrin is a prescription medication, and it's crucial to follow your doctor's instructions carefully. 
+* **Be aware of potential side effects.**  Wellbutrin can cause side effects, such as nausea, dry mouth, insomnia, and headaches. If you experience any of these side effects, talk to your doctor.
+**Remember:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5006,26 +4992,25 @@
 However, it's important to remember that this is just an average.  The actual length of your flu can vary depending on several factors:
 * **Severity of the infection:** A mild case might clear up in a few days, while a severe case could linger for weeks.
 * **Individual immune response:** Some people recover faster than others due to their immune system's strength.
-* **Underlying health conditions:** People with weakened immune systems or chronic illnesses may experience a longer recovery.
+* **Underlying health conditions:** People with pre-existing conditions like asthma or heart disease may experience a longer recovery.
 * **Age:** Children and older adults tend to have longer flu symptoms.
 **Here's a breakdown of what to expect:**
-* **Symptoms:** You'll likely experience fever, chills, cough, sore throat, muscle aches, fatigue, and headache. These symptoms usually peak within 1-4 days of infection.
-* **Recovery:**  Most people start feeling better within 7-10 days, but it can take longer for some.
-* **Complications:**  In some cases, the flu can lead to complications like pneumonia, bronchitis, or ear infections. These complications can extend the recovery period.
+* **First 2-3 days:**  You'll likely experience the most intense symptoms like fever, chills, cough, sore throat, muscle aches, and fatigue.
+* **Days 3-5:**  Symptoms may start to improve, but you might still feel tired and have a cough.
+* **Days 5-10:**  Most symptoms should be gone, but you may still have some lingering fatigue.
 **Important Notes:**
-* **Don't self-diagnose:** If you suspect you have the flu, it's crucial to consult a doctor for proper diagnosis and treatment.
-* **Rest and fluids:**  Give your body the time it needs to recover by getting plenty of rest and staying hydrated.
-* **Over-the-counter medications:**  Over-the-counter medications can help manage symptoms like fever and aches.
-* **Vaccination:**  Getting the annual flu vaccine is the best way to prevent the flu and its complications.
-Remember, I'm just an AI, and this information is not a substitute for professional medical advice. Always consult your doctor for personalized guidance. 
+* **Don't underestimate the flu:** Even if you feel better, it's crucial to rest and stay hydrated.
+* **Complications can occur:**  The flu can lead to complications like pneumonia, bronchitis, or ear infections. If you experience difficulty breathing, chest pain, or high fever, seek medical attention immediately.
+* **Prevention is key:**  Getting vaccinated annually is the best way to protect yourself from the flu.
+Remember, I'm just an AI. If you have any concerns about your health or the duration of your flu symptoms, please consult a medical professional. They can provide personalized advice and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5064,21 +5049,20 @@
 **However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
 The best person to answer your question about Saxenda dosage changes is your doctor. They know your individual medical history, current weight, and other factors that influence your treatment. 
 That said, I can provide some general information about Saxenda and dosage adjustments:
-* **Saxenda (liraglutide) is a prescription medication used for weight management.** It's a GLP-1 receptor agonist, meaning it mimics a hormone that helps regulate appetite and blood sugar.
-* **Dosage is typically started at a low dose and gradually increased over time.** This is to allow your body to adjust and minimize potential side effects.
-* **The exact duration of the initial dose phase varies depending on individual response and medical guidance.** Your doctor will determine the appropriate timeline based on your progress and any side effects you experience.
-* **Commonly, Saxenda dosage increases are made after a period of consistent weight loss and stable blood sugar levels.** 
-* **It's crucial to follow your doctor's instructions carefully.** They will monitor your progress and adjust your dosage as needed.
-**Here's what you can do:**
-1. **Schedule an appointment with your doctor.** Discuss your weight loss goals and any concerns you have about Saxenda dosage.
-2. **Be prepared to discuss your weight loss journey.** This includes your diet, exercise routine, and any other medications you're taking.
-3. **Ask your doctor about the expected duration of the initial dose phase.** They can provide personalized guidance based on your individual needs.
-Remember, your doctor is your best resource for information about your Saxenda treatment. 
+* **Saxenda is a prescription medication:** It's used to help people with obesity lose weight and keep it off. 
+* **Dosage increases are gradual:**  Your doctor will likely start you on a lower dose and gradually increase it as needed, based on your progress and response to the medication. 
+* **Monitoring is crucial:** Your doctor will monitor your weight and other health markers to ensure the medication is working safely and effectively for you. 
+* **Individualized treatment:** There is no one-size-fits-all approach to Saxenda dosage. Your doctor will tailor your treatment plan to your specific needs.
+**Here's what you should do:**
+1. **Schedule an appointment with your doctor:**  Discuss your interest in moving to a higher dose of Saxenda. 
+2. **Be prepared to discuss:** Your weight loss goals, your current weight, any side effects you're experiencing, and your overall health.
+3. **Follow your doctor's instructions:** They will provide the best guidance for your individual situation.
+Remember, your doctor is your best resource for information about your health and medication. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5121,19 +5105,19 @@
 I understand you're looking for information about ibuprofen dosage.  However, I am an AI and cannot give medical advice. 
 **It is crucial to consult with a healthcare professional for any questions regarding medication dosage.** 
 Here's why:
-* **Individual Needs:** The appropriate dosage of ibuprofen varies greatly depending on factors like your age, weight, medical history, the severity of your pain, and other medications you're taking. 
-* **Potential Risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and even liver damage. 
-* **Drug Interactions:** Ibuprofen can interact with other medications, so it's important to discuss all your medications with your doctor.
-**Instead of asking me, please reach out to a doctor or pharmacist.** They can provide you with safe and personalized advice on ibuprofen dosage. 
-Remember, your health is paramount, and seeking professional medical guidance is always the best course of action. 
+* **Individual Needs:** The appropriate dosage of ibuprofen varies depending on factors like your age, weight, the severity of your pain, and any other medical conditions you may have. 
+* **Potential Risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and liver damage. 
+* **Drug Interactions:** Ibuprofen can interact with other medications you may be taking. 
+**Instead of asking me, please reach out to a doctor or pharmacist.** They can provide personalized advice and ensure you take ibuprofen safely and effectively. 
+Remember, your health is paramount. Don't hesitate to seek professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H71" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5175,30 +5159,36 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about melatonin dosage.  While I can provide some general information, I must emphasize that **I am not a medical professional and cannot give medical advice.**  
-**It's crucial to consult with your doctor or a qualified healthcare provider before taking any supplements, including melatonin.** They can assess your individual needs, consider potential interactions with other medications you might be taking, and determine the appropriate dosage for you.
+**It's crucial to consult with your doctor or a qualified healthcare provider before taking any supplements, including melatonin.** They can assess your individual needs, consider any potential interactions with other medications you're taking, and determine the appropriate dosage for you.
 That being said, here's some general information about melatonin:
 * **Melatonin is a hormone naturally produced by your body.** It regulates your sleep-wake cycle (circadian rhythm).
-* **Melatonin supplements are available over-the-counter.** They are often marketed for improving sleep quality, but their effectiveness can vary.
-* **Typical recommended doses for adults range from 0.5 to 10 mg.** However, this can vary depending on the individual and the reason for taking melatonin.
-* **The optimal dosage for you will depend on factors like:**
-    * **Your age:** Children and older adults may require different dosages.
-    * **Your sleep problems:**  The severity of your sleep issues will influence the dosage.
-    * **Your individual response:** Some people may need higher or lower doses than others.
-* **Potential side effects:** Melatonin can cause drowsiness, headaches, dizziness, and nausea. 
-* **Long-term use:** The long-term effects of melatonin are not fully understood.
-**Here are some additional points to consider:**
-* **Melatonin is not a cure for sleep disorders.** It may help improve sleep quality, but it's not a substitute for addressing underlying sleep problems.
-* **Melatonin can interact with certain medications.**  It's important to inform your doctor about all medications you are taking.
-* **Melatonin can be affected by light exposure.**  Avoid taking melatonin close to bedtime if you are sensitive to light.
-**Remember, your doctor is your best resource for personalized advice about melatonin dosage.** They can help you determine if it's right for you and guide you on the appropriate dosage and usage. 
+* **Melatonin supplements are available over-the-counter.** They are often used to help with sleep problems like insomnia.
+* **Typical recommended doses for adults range from 0.5 to 5 mg.** However, the optimal dosage can vary depending on individual factors.
+* **Factors that may influence dosage include:**
+    * **Age:** Children and older adults may require different dosages.
+    * **Sleep problems:** The severity of your sleep issues may influence the dosage.
+    * **Underlying health conditions:** Certain medical conditions may affect how your body responds to melatonin.
+    * **Other medications:** Some medications can interact with melatonin.
+**Potential side effects of melatonin include:**
+* **Drowsiness:** This is the most common side effect.
+* **Headache:** Some people experience headaches after taking melatonin.
+* **Nausea:** This is less common but can occur.
+* **Dizziness:** This can happen in some individuals.
+**Remember:**
+* **Start with a low dose and gradually increase it if needed.**
+* **Take melatonin at bedtime.**
+* **Avoid taking melatonin close to bedtime if you're taking other medications.**
+* **Be aware of potential interactions with other medications.**
+* **If you experience any side effects, stop taking melatonin and consult your doctor.**
+**Again, please consult with your doctor or a qualified healthcare provider before taking melatonin.** They can provide personalized advice and ensure your safety. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5241,25 +5231,31 @@
 * **Fibroids:** Non-cancerous growths in the uterus that can cause pain, especially during menstruation.
 * **Kidney Stones:** These can cause sharp, intense pain in the lower abdomen, often radiating to the back.
 * **Gastrointestinal Issues:** Conditions like irritable bowel syndrome (IBS), Crohn's disease, or ulcerative colitis can cause abdominal pain.
-* **Urinary Tract Infection (UTI):** Pain in the lower abdomen can be a symptom of a UTI.
+* **Menstrual Cramps:** These are common and can cause pain in the lower abdomen, especially during menstruation.
+**What to Do:**
+* **See a Doctor:** It's crucial to see a doctor to get a proper diagnosis. They will ask about your symptoms, medical history, and perform a physical exam. 
+* **Describe Your Symptoms:** Be as detailed as possible about the pain, including:
+    * Location (right lower abdomen)
+    * Intensity (sharp, dull, cramping)
+    * Duration (constant, intermittent)
+    * Associated symptoms (fever, nausea, vomiting, diarrhea, constipation)
+* **Be Prepared:** Write down any questions you have for your doctor.
 **Important Notes:**
-* **Severity:** The severity of pain can vary from mild discomfort to severe, sharp pain.
-* **Location:** The pain may be localized to the right lower abdomen or radiate to other areas.
-* **Other Symptoms:**  You may experience other symptoms like fever, nausea, vomiting, diarrhea, constipation, or changes in bowel habits.
-* **Medical History:** Your medical history, including any previous surgeries, pregnancies, or family history of certain conditions, can be important.
-**What to Do:**
-* **See a Doctor:** It's crucial to see a doctor to get a proper diagnosis and treatment plan. 
-* **Describe Your Symptoms:** Be prepared to describe your pain in detail, including its location, intensity, duration, and any associated symptoms.
-* **Follow Medical Advice:**  Follow your doctor's instructions carefully and don't self-treat.
-Remember, I am not a medical professional. This information is for general knowledge only and should not be considered medical advice. Please consult a doctor for any health concerns. 
+* **Self-diagnosis is dangerous:**  Don't rely on online information for medical advice. 
+* **Seek immediate medical attention if:**
+    * You have severe pain, especially if it's sudden and sharp.
+    * You have fever, chills, or nausea.
+    * You have blood in your stool or urine.
+    * You have difficulty urinating.
+Remember, I'm here to provide general information, but a doctor is the only one who can provide a proper diagnosis and treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5302,26 +5298,32 @@
 **ALT and Liver Health:**
 * **ALT's Role:** ALT is an enzyme primarily found in the liver. It helps break down amino acids, and its levels in the blood can indicate liver damage.
 * **Causes of Elevated ALT:**  Elevated ALT can be caused by a variety of factors, including:
-    * **Viral Hepatitis:**  Infections like hepatitis A, B, and C can cause inflammation and damage to the liver, leading to elevated ALT.
-    * **Alcohol Abuse:** Excessive alcohol consumption can also damage the liver and raise ALT levels.
-    * **Non-Alcoholic Fatty Liver Disease (NAFLD):** This condition, often linked to obesity and diabetes, can cause liver inflammation and elevated ALT.
-    * **Other Liver Conditions:**  Conditions like liver cirrhosis, autoimmune hepatitis, and certain medications can also elevate ALT.
+    * **Viral hepatitis:**  This is a common cause of elevated ALT, particularly hepatitis A, B, and C.
+    * **Alcohol abuse:** Excessive alcohol consumption can damage the liver and lead to elevated ALT.
+    * **Non-alcoholic fatty liver disease (NAFLD):** This condition is linked to obesity, diabetes, and high cholesterol, and can cause liver damage.
+    * **Other liver diseases:**  Conditions like cirrhosis, hepatitis, and certain cancers can also cause elevated ALT.
+    * **Medications:** Some medications can also cause elevated ALT levels as a side effect.
 **Diarrhea and Liver Health:**
-* **Indirect Connection:** While elevated ALT doesn't directly cause diarrhea, it's important to note that certain conditions causing liver damage can also lead to digestive issues.
+* **Indirect Connection:** While elevated ALT doesn't directly cause diarrhea, it's important to note that certain conditions associated with elevated ALT can lead to digestive issues. 
 * **Possible Indirect Links:**
-    * **Inflammation:** Liver inflammation can affect the digestive system, potentially causing diarrhea.
+    * **Inflammation:** Liver damage can cause inflammation throughout the body, which can affect the digestive system and lead to diarrhea.
     * **Malabsorption:**  Liver damage can impair the body's ability to absorb nutrients, leading to malabsorption and diarrhea.
-    * **Gut Microbiome Disruption:**  Liver disease can disrupt the balance of bacteria in the gut, potentially contributing to diarrhea.
+    * **Gut microbiome disruption:**  Liver disease can disrupt the balance of bacteria in the gut, potentially contributing to digestive problems.
 **What to Do:**
 * **Consult a Doctor:**  It's crucial to consult a doctor to determine the cause of your elevated ALT. They will likely order further tests to assess your liver health and rule out any underlying conditions.
-* **Don't Self-Diagnose:**  It's important not to self-diagnose based on online information. A doctor can provide a proper diagnosis and treatment plan.
-* **Lifestyle Changes:**  If your doctor determines that your elevated ALT is due to lifestyle factors like alcohol abuse or NAFLD, they may recommend lifestyle changes like diet modifications, exercise, and weight management.
+* **Don't Self-Diagnose:**  It's important not to self-diagnose based on online information.  A doctor can provide a proper diagnosis and treatment plan.
+* **Lifestyle Changes:**  If your doctor determines that your elevated ALT is due to lifestyle factors like alcohol abuse or NAFLD, they may recommend lifestyle changes such as:
+    * **Limiting alcohol consumption.**
+    * **Maintaining a healthy weight.**
+    * **Adopting a balanced diet.**
+    * **Regular exercise.**
 **Remember:**  I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
+Please schedule an appointment with your doctor to discuss your elevated ALT levels and any associated symptoms. They can provide you with the best guidance for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5357,32 +5359,31 @@
       <c r="G75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's great you're thinking ahead about your health while traveling!  Here's what I can tell you about vaccinations for a trip to Brazil:
-**Important Note:** I am an AI and cannot provide medical advice.  **Always consult your doctor or a travel health clinic for personalized recommendations.** They can assess your individual health history, travel plans, and potential risks.
-**General Recommendations for Brazil:**
-* **Yellow Fever:**  Brazil is considered a high-risk area for yellow fever.  **It is mandatory to be vaccinated against yellow fever if you are traveling to Brazil from a country where yellow fever is endemic.**  
-* **Hepatitis A and B:**  These are common in many parts of the world, including Brazil.  Vaccination can significantly reduce your risk of infection.
-* **Typhoid:**  Typhoid fever is a bacterial infection that can be spread through contaminated food and water.  Vaccination is recommended for travelers to Brazil.
-* **Rabies:**  While rabies is rare in Brazil, it is important to be aware of the risk and take precautions.  
-* **Meningococcal Disease:**  Meningococcal disease is a serious bacterial infection that can cause meningitis.  Vaccination is recommended for travelers to Brazil, especially if they will be spending time in crowded areas.
-* **Other Considerations:**
-    * **Malaria:**  Malaria is present in some parts of Brazil.  Your doctor can advise on the risk and whether antimalarial medication is necessary.
-    * **Dengue:**  Dengue fever is a mosquito-borne illness that can cause severe symptoms.  Your doctor can advise on the risk and whether preventative measures are necessary.
-    * **Zika Virus:**  Zika virus is another mosquito-borne illness that can cause birth defects.  Your doctor can advise on the risk and whether preventative measures are necessary.
-**Getting Vaccinated:**
-* **Talk to your doctor:**  They can assess your individual risk factors and recommend the best vaccination schedule for you.
-* **Schedule appointments:**  Many clinics offer travel vaccinations.  Book your appointments well in advance, as some vaccines require multiple doses.
-* **Check for travel clinics:**  Your doctor may refer you to a travel health clinic for specialized advice.
-**Remember:**
-* **Start early:**  Vaccinations take time to become effective.  Start your vaccination schedule well before your trip.
-* **Follow instructions:**  Take all recommended doses of vaccines and follow any instructions provided by your doctor.
-* **Stay informed:**  Keep up-to-date on any travel advisories or health alerts for Brazil.
-Have a safe and enjoyable trip to Brazil! 
+That's great you're planning ahead for your trip to Brazil!  Here's a breakdown of recommended vaccinations for young, healthy adults traveling to Brazil, but remember, this is general advice and **you should always consult your doctor or a travel clinic for personalized recommendations**:
+**Essential Vaccinations:**
+* **Yellow Fever:**  Brazil is a yellow fever endemic area.  **It is mandatory to be vaccinated with yellow fever if you are traveling to Brazil from a country where yellow fever is present.**  
+* **Hepatitis A:**  This is a common viral infection that can cause liver inflammation.  It's recommended for travelers to areas with poor sanitation.
+* **Hepatitis B:**  This is another viral infection that can cause liver inflammation.  It's recommended for travelers to areas with poor sanitation.
+* **Typhoid:**  This bacterial infection can cause fever, abdominal pain, and diarrhea.  It's recommended for travelers to areas with poor sanitation.
+* **Rabies:**  This viral infection can be fatal.  It's recommended for travelers who may be exposed to wild animals.
+**Recommended Vaccinations:**
+* **Tetanus:**  This bacterial infection can cause muscle spasms and can be fatal.  It's recommended for all travelers.
+* **Diphtheria:**  This bacterial infection can cause a sore throat, fever, and difficulty breathing.  It's recommended for all travelers.
+* **Polio:**  This viral infection can cause paralysis.  It's recommended for all travelers.
+* **Measles, Mumps, Rubella (MMR):**  These are highly contagious viral infections that can cause serious complications.  It's recommended for all travelers, especially if they haven't been vaccinated.
+* **Meningococcal:**  This bacterial infection can cause meningitis, a serious infection of the brain and spinal cord.  It's recommended for travelers who may be exposed to high-risk individuals.
+**Important Considerations:**
+* **Travel Insurance:**  Make sure you have comprehensive travel insurance that covers medical emergencies and evacuation.
+* **Food and Water Safety:**  Drink bottled water and avoid ice in drinks.  Wash your hands frequently.
+* **Mosquito Protection:**  Use insect repellent and wear long sleeves and pants when outdoors, especially at dawn and dusk.
+* **Malaria Prevention:**  Consult your doctor about malaria prophylaxis, especially if you'll be spending time in rural areas.
+* **Consult Your Doctor:**  It's crucial to discuss your travel plans with your doctor or a travel clinic. They can assess your individual risk factors and recommend the best vaccination schedule for you.
+**Remember:** This information is for general knowledge only and should not be considered a substitute for professional medical advice. Always consult with your doctor or a travel clinic before traveling to ensure you are fully protected. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5432,23 +5433,25 @@
     * Feeling like the bladder isn't empty even after urination
     * Pain or burning during urination
 * **Diagnosis:**  Your doctor will likely perform a physical exam and order a urine test to check for infection. They may also recommend a PSA test (a blood test that measures prostate-specific antigen) and a digital rectal exam (DRE).
-**Why You Might Be Concerned:**
-* **Early detection is key:**  Early diagnosis and treatment can help prevent complications and improve quality of life.
-* **Lifestyle factors:**  Certain lifestyle factors, like smoking and a high-fat diet, may increase your risk of BPH.
-* **Family history:**  If you have a family history of BPH, you may be more likely to develop it.
-**What to Do:**
-* **Talk to your doctor:**  If you're experiencing any of the symptoms mentioned above, it's important to talk to your doctor. They can help determine the cause of your symptoms and recommend the best course of treatment.
-* **Don't self-diagnose:**  It's important to avoid self-diagnosing and seeking treatment without professional guidance.
-* **Be proactive:**  Regular checkups and open communication with your doctor are crucial for maintaining your overall health.
-Remember, I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
+**Why You Should See a Doctor:**
+* **Early detection is key:**  Early diagnosis and treatment can help manage symptoms and prevent complications.
+* **Rule out other conditions:**  While BPH is common, it's important to rule out other potential causes of your symptoms.
+* **Treatment options:**  Depending on the severity of your symptoms, your doctor may recommend lifestyle changes, medications, or minimally invasive procedures.
+**Don't Delay:**
+If you're experiencing any of the symptoms mentioned above, it's important to see a doctor. Early diagnosis and treatment can make a significant difference in your quality of life. 
+**Remember:**
+* **You are not alone:**  Many men experience BPH, regardless of age.
+* **There are effective treatments:**  There are various options available to manage BPH symptoms.
+* **Open communication is key:**  Talk to your doctor about your concerns and any questions you have.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5486,25 +5489,19 @@
 Here's what you need to know about Mounjaro:
 * **Mechanism:** Mounjaro is a glucagon-like peptide-1 (GLP-1) receptor agonist and a glucose-dependent insulinotropic polypeptide (GIP) receptor agonist. It works by mimicking the effects of naturally occurring hormones that help regulate blood sugar levels.
 * **Benefits:** Mounjaro has shown significant improvements in blood sugar control in people with type 2 diabetes. It can also help with weight loss, which is a major benefit for many individuals with type 2 diabetes.
-* **Dosage:** The FDA-approved dosage for Mounjaro is 2.5 mg once daily.
+* **Dosage:** The FDA-approved dosage for Mounjaro is 2.5 mg once weekly.
 * **Side Effects:** Like all medications, Mounjaro can have side effects. Common side effects include nausea, vomiting, diarrhea, and constipation. More serious side effects, though rare, can include pancreatitis and gallbladder problems.
-* **Contraindications:** Mounjaro is not recommended for people with certain medical conditions, including:
-    * Type 1 diabetes
-    * Kidney disease
-    * Liver disease
-    * Pancreatitis
-    * Severe gastrointestinal problems
-    * Pregnancy or breastfeeding
-* **Important Considerations:**
-    * Mounjaro is a prescription medication and should only be taken under the supervision of a healthcare professional.
-    * It is important to discuss your medical history and any other medications you are taking with your doctor before starting Mounjaro.
-    * Mounjaro is not a cure for type 2 diabetes, but it can help manage the condition and improve your overall health.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+* **Contraindications:** Mounjaro is not recommended for people with certain medical conditions, such as pancreatitis, kidney disease, or a history of medullary thyroid cancer. 
+* **Important Considerations:** 
+    * Mounjaro is not a cure for type 2 diabetes. It is a medication that helps manage blood sugar levels.
+    * It is important to discuss the potential benefits and risks of Mounjaro with your doctor to determine if it is the right treatment for you.
+    * Mounjaro is typically used in conjunction with diet and exercise.
+**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5548,7 +5545,7 @@
 You're right to be skeptical! Hydroxyzine is not a cure for poison ivy. It's a medication used to manage the symptoms of allergic reactions, including itching and discomfort. 
 Here's a breakdown of why hydroxyzine is not a cure and what actually helps with poison ivy:
 **What Hydroxyzine Does:**
-* **Reduces itching:** Hydroxyzine works by blocking the release of histamine, a chemical that causes the itching and inflammation associated with allergic reactions.
+* **Reduces itching:** Hydroxyzine works by blocking the release of histamine, a chemical that causes the itching and inflammation associated with allergic reactions. 
 * **Mild sedation:** It can also help with anxiety and restlessness, which can be associated with the discomfort of poison ivy.
 **What Doesn't Work:**
 * **Poison ivy is an allergic reaction:**  It's not a bacterial infection that can be treated with antibiotics. 
@@ -5558,20 +5555,20 @@
 * **Topical corticosteroids:** These creams can reduce inflammation and itching.
 * **Oatmeal baths:** Soaking in cool water with colloidal oatmeal can soothe the skin.
 * **Calamine lotion:** This can help with itching and dryness.
-* **Cool compresses:** Applying a cool compress to the affected area can help reduce inflammation.
+* **Cool compresses:** Applying cool compresses can help reduce inflammation and itching.
 * **Avoid scratching:** Scratching can worsen the rash and increase the risk of infection.
 **Important Notes:**
 * **See a doctor:** If you have a severe reaction to poison ivy, or if the rash is spreading or showing signs of infection (redness, swelling, pus), see a doctor immediately.
-* **Avoid home remedies:** While some home remedies can be helpful, it's important to consult a doctor before using any new treatment, especially if you have allergies or other medical conditions.
-Remember, hydroxyzine is a helpful tool for managing the symptoms of an allergic reaction, but it's not a cure for poison ivy.  Focus on the proven treatments and seek medical attention if needed. 
+* **Avoid home remedies:** While some home remedies can be helpful, it's important to consult a doctor before using any new treatment, especially if you have any underlying health conditions.
+Remember, hydroxyzine is a helpful tool for managing the symptoms of an allergic reaction, but it's not a cure for poison ivy.  Focus on the proven treatments to manage the symptoms and allow your body to heal. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5608,28 +5605,28 @@
       <c r="G79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's completely understandable to have a fear of needles! It's a common phobia, and it's great that you're seeking ways to manage it.  
-Here's what I can tell you about thyroid tests and how to approach them:
-**Understanding Thyroid Tests**
-* **Why are they done?** Thyroid tests are crucial for diagnosing and monitoring thyroid disorders. They help determine if your thyroid is producing enough or too much thyroid hormone.
-* **Types of tests:**  There are several types of thyroid tests, including:
-    * **Blood tests:** These are the most common and involve drawing a small amount of blood. They measure the levels of thyroid hormones (T3, T4, TSH) in your blood.
-    * **Thyroid scan:** This test uses a small amount of radioactive iodine to create images of your thyroid gland. It helps visualize the size, shape, and function of your thyroid.
-* **The needle:**  The blood test for thyroid hormones involves a small needle inserted into a vein in your arm. 
+It's completely understandable to have a fear of needles! It's a common phobia, and you're not alone.  The good news is, there are ways to manage this fear and make the thyroid test as comfortable as possible. 
+Here's what I can tell you:
+**Understanding the Thyroid Test**
+* **What it is:** A thyroid test is a blood test that measures the levels of thyroid hormones in your blood. It's used to diagnose and monitor thyroid disorders like hypothyroidism (underactive thyroid) and hyperthyroidism (overactive thyroid).
+* **Why it's done:**  Thyroid hormones are crucial for regulating metabolism, energy levels, and many other bodily functions.  A thyroid test helps doctors determine if your thyroid is functioning properly.
 **Managing Your Fear**
-1. **Open Communication:**  The first step is to be honest with your doctor. Explain your fear of needles and ask about ways to make the procedure more comfortable.
-2. **Talk to your doctor about sedation:**  Some doctors offer sedation options, such as a mild sedative or a local anesthetic, to help you relax during the test.
-3. **Practice relaxation techniques:**  Deep breathing, meditation, or progressive muscle relaxation can help calm your nerves before and during the test.
-4. **Distraction:**  Bring a book, listen to music, or chat with your doctor or a friend to keep your mind occupied.
-5. **Choose a comfortable position:**  Let your doctor know if you prefer to be sitting or lying down during the test.
-6. **Consider a "practice" test:**  Some clinics offer a practice test with a small, less invasive needle to help you get used to the sensation.
-**Alternative Testing Methods**
-* **Ultrasound:**  In some cases, an ultrasound of the thyroid gland may be used instead of a blood test. This is a painless procedure that uses sound waves to create images of the thyroid.
-* **Fine-needle aspiration biopsy:**  This is a minimally invasive procedure that involves a thin needle being inserted into the thyroid gland to collect a small sample of tissue for analysis.
-**Important Considerations**
-* **Don't delay treatment:**  Thyroid disorders can have serious health consequences if left untreated. It's important to get your thyroid checked even if you're afraid of needles.
-* **Find a supportive doctor:**  A good doctor will be understanding and work with you to find a solution that makes you feel comfortable.
-**Remember:**  Your health is a priority. Don't let fear prevent you from getting the care you need. Talk to your doctor about your concerns and explore the options available to you. 
+1. **Open Communication:**  The most important step is to be honest with your doctor. Tell them about your fear of needles. They can:
+    * **Explain the procedure:**  They'll explain what to expect, making it less intimidating.
+    * **Offer alternatives:**  They might suggest a different type of test, like a fine-needle aspiration biopsy, which is less invasive.
+    * **Provide reassurance:**  They'll help you feel more at ease and address any concerns you have.
+2. **Relaxation Techniques:**  Before the test, try these techniques:
+    * **Deep breathing:**  Slow, deep breaths can calm your nerves.
+    * **Meditation or mindfulness:**  These practices can help you focus on the present moment and reduce anxiety.
+    * **Distraction:**  Listen to music, read a book, or chat with a friend to keep your mind off the needle.
+3. **Numbing Cream:**  Your doctor might apply a numbing cream to the area before the test. This can help minimize discomfort.
+4. **Support:**  Having someone with you during the test can be comforting.  A friend or family member can provide emotional support and distract you.
+5. **Practice:**  If you're particularly anxious, consider practicing with a small, harmless needle. This can help you get used to the sensation.
+**Important Considerations:**
+* **Don't avoid the test:**  Ignoring the test can lead to complications if your thyroid is not properly managed.
+* **Be patient:**  It may take some time to find the right approach that works for you. 
+* **Seek professional help:**  If your fear of needles is severe and significantly impacts your life, consider seeking professional help from a therapist specializing in anxiety or phobias.
+Remember, your doctor is there to help you.  Open communication and a collaborative approach will make the process easier and ensure you get the care you need. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5637,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5675,11 +5672,11 @@
         <is>
           <t xml:space="preserve">
 You're right to ask about shingles recurrence, it's a common question!  Here's what I can tell you:
-**Yes, you can absolutely get shingles more than once.** 
+**Yes, you can absolutely be diagnosed with shingles more than once.** 
 Here's why:
-* **Shingles is caused by the reactivation of the varicella-zoster virus (VZV).** This virus is the same one that causes chickenpox. 
+* **Shingles is caused by the reactivation of the varicella-zoster virus (VZV).** This virus is the same one that causes chickenpox.  
 * **VZV remains dormant in your body after chickenpox.** It can reactivate later in life, often decades after the initial infection.
-* **The risk of shingles increases with age.**  This is because your immune system weakens with age, making it easier for the virus to reactivate.
+* **The risk of shingles increases with age.**  This is because the immune system weakens with age, making it easier for the virus to reactivate.
 **Factors that increase the risk of shingles recurrence:**
 * **Age:**  The risk of shingles increases significantly after 50.
 * **Weakened immune system:**  Conditions like HIV/AIDS, cancer, or certain medications can weaken your immune system.
@@ -5687,10 +5684,10 @@
 * **Underlying medical conditions:**  Diabetes, heart disease, and other chronic illnesses can increase your risk.
 **Important to note:**
 * **Shingles is not contagious.** You cannot catch shingles from someone who has it.
-* **Shingles is a painful condition.** It can cause a rash, blisters, and nerve pain.
-* **Treatment for shingles is available.**  Antiviral medications can shorten the duration of the illness and reduce the risk of complications.
+* **Shingles is a painful condition.**  The rash can be very uncomfortable and can cause nerve pain that can last for weeks or months.
+* **Treatment for shingles is available.**  Antiviral medications can shorten the duration of the rash and reduce the severity of the pain.
 **If you think you may have shingles, it's important to see a doctor for diagnosis and treatment.** 
-**Remember:**  While shingles can be a painful and uncomfortable experience, it's important to remember that it is treatable and preventable. 
+**Remember:**  While shingles can be a painful and uncomfortable experience, it's treatable.  Don't hesitate to seek medical attention if you have any concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5757,7 +5754,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -5805,7 +5802,7 @@
           <t xml:space="preserve">
 That's a great question, and it highlights a common concern when it comes to probiotics and antibiotics.  Here's what I can tell you, drawing on my vast medical knowledge:
 **The Short Answer:**
-There's no one-size-fits-all answer. The timing of probiotic intake relative to antibiotics depends on several factors, and it's best to discuss this with your doctor.
+There's no definitive "one size fits all" answer. The timing of probiotic intake relative to antibiotics depends on several factors, and it's best to discuss this with your doctor.
 **The Longer Explanation:**
 * **Probiotics and Antibiotics: A Complex Relationship**
     * **Probiotics:** These are live microorganisms that, when consumed in adequate amounts, can provide health benefits. They can help restore balance in your gut microbiome, which is crucial for digestion, immunity, and overall health.
@@ -5813,18 +5810,17 @@
 * **Potential Interactions:**
     * **Competition for Resources:** Antibiotics can kill off beneficial bacteria in your gut, while probiotics aim to replenish them. This can create a competitive environment, potentially hindering the effectiveness of both.
     * **Impact on Absorption:** Some antibiotics can interfere with the absorption of certain nutrients, including those found in probiotics.
-    * **Individual Sensitivity:**  Some people may experience adverse reactions to probiotics when taken with certain antibiotics.
+    * **Individual Sensitivity:**  Everyone's gut microbiome is unique, and some individuals may be more sensitive to the effects of antibiotics and probiotics than others.
 * **When Timing Matters:**
-    * **Broad-Spectrum Antibiotics:** These antibiotics target a wide range of bacteria, which can have a more significant impact on your gut microbiome. In these cases, it's generally recommended to take probiotics at a different time than the antibiotic.
-    * **Narrow-Spectrum Antibiotics:** These antibiotics target specific types of bacteria, and the impact on the gut microbiome may be less pronounced. In these cases, timing may be less critical.
+    * **Broad-Spectrum Antibiotics:** These antibiotics target a wide range of bacteria, which can have a more significant impact on your gut microbiome. In these cases, it's generally recommended to take probiotics at least a few hours after taking the antibiotic.
+    * **Narrow-Spectrum Antibiotics:** These antibiotics target specific types of bacteria, and the impact on the gut microbiome may be less pronounced. You may be able to take probiotics alongside the antibiotic without significant issues.
     * **Specific Probiotic Strains:** Some probiotic strains are more resilient to antibiotic effects than others. Your doctor can advise you on the best strains for your situation.
-* **Your Doctor's Guidance is Key:**
-    * **Individualized Approach:** The best timing for probiotics and antibiotics depends on your specific situation, the type of antibiotic you're taking, and your overall health. 
-    * **Potential Risks and Benefits:** Your doctor can help you weigh the potential risks and benefits of taking probiotics with your antibiotic.
-    * **Monitoring and Adjustments:**  Your doctor may recommend monitoring your gut microbiome and adjusting your probiotic regimen as needed.
+* **Your Doctor is Your Best Resource:**
+    * **Individualized Advice:** Your doctor can assess your specific situation, including the type of antibiotic you're taking, your overall health, and any pre-existing conditions. They can provide personalized recommendations on the timing of probiotic intake.
+    * **Monitoring and Adjustments:** If you experience any adverse effects, such as digestive discomfort or worsening symptoms, your doctor can adjust the timing of your probiotic intake or recommend alternative options.
 **In Conclusion:**
-While there's no universal rule, it's generally advisable to take probiotics at a different time than antibiotics, especially when using broad-spectrum antibiotics. However, this is a general guideline, and your doctor is the best source of information for your specific situation. 
-**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with your doctor before making any changes to your medication regimen or starting any new supplements. 
+While there's no universal rule, it's generally advisable to take probiotics at least a few hours after taking antibiotics. However, the best approach is to discuss this with your doctor. They can help you determine the optimal timing for your specific situation and ensure you're getting the most benefit from both probiotics and antibiotics. 
+Remember, your health is paramount. Always consult with your doctor for personalized medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5832,7 +5828,7 @@
         <v>0.5</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5867,23 +5863,26 @@
           <t xml:space="preserve">
 I understand you're eager to see results from your new medication, but it's important to remember that **it takes time for lisinopril to work and for your blood pressure to stabilize.** 
 Here's why you shouldn't expect immediate results:
-* **Lisinopril is a blood pressure medication, not a quick fix.** It works by blocking the production of angiotensin II, a hormone that constricts blood vessels. This helps lower blood pressure over time.
-* **It takes several days to weeks for lisinopril to reach its full effect.**  You may not see a significant change in your blood pressure right away.
-* **Individual responses to medication vary.** Some people experience immediate effects, while others may need a few weeks to see a noticeable difference.
+* **Lisinopril is a medication that takes time to work.** It typically takes a few weeks for lisinopril to reach its full effect on blood pressure. 
+* **Individual responses to medication vary.** Some people may see results sooner than others. 
+* **Blood pressure is complex.** It's influenced by many factors, including lifestyle, diet, stress, and other medications you might be taking. 
 **What you should do:**
-* **Continue taking lisinopril as prescribed by your doctor.** Don't adjust your dosage or stop taking the medication without consulting your doctor.
-* **Monitor your blood pressure regularly.**  Your doctor will likely recommend checking your blood pressure at home or at the doctor's office. 
-* **Be patient.** It takes time for lisinopril to work. Don't get discouraged if you don't see immediate results. 
-* **Communicate with your doctor.** If you have any concerns about your blood pressure or the medication, don't hesitate to contact your doctor.
-**Important:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult your doctor for any health concerns or before making any changes to your medication regimen. 
+* **Continue taking lisinopril as prescribed by your doctor.** Don't stop taking it without consulting your doctor.
+* **Monitor your blood pressure regularly.** Your doctor will likely recommend checking your blood pressure at home or at the doctor's office. 
+* **Keep a record of your blood pressure readings.** This will help you and your doctor track your progress.
+* **Be patient.** It takes time for lisinopril to work and for your blood pressure to stabilize. 
+**Important:**
+* **Do not adjust your dosage or stop taking lisinopril without consulting your doctor.** 
+* **If you experience any side effects, contact your doctor immediately.** 
+Remember, I am an AI and cannot provide medical advice. **Always consult with your doctor for any health concerns or before making any changes to your medication.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5924,21 +5923,25 @@
 You're right to be cautious! While hydrocortisone cream is a common and effective treatment for various skin conditions, it's **not recommended for use on the face without consulting a doctor**. 
 Here's why:
 * **Skin Sensitivity:** The face is a delicate area with thinner skin and more sensitive nerve endings. Applying hydrocortisone cream directly to the face can lead to:
-    * **Irritation:** It can cause redness, itching, and burning.
-    * **Allergic Reactions:**  You might develop a rash or other allergic reaction.
-    * **Thinning of Skin:**  Prolonged use can weaken the skin's barrier function, making it more susceptible to infections.
-* **Potential for Acne:**  Hydrocortisone cream can worsen acne by disrupting the skin's natural oil balance.
-* **Drug Interactions:**  Hydrocortisone cream can interact with certain medications, especially those used for acne or other skin conditions.
+    * **Irritation:**  It can cause redness, itching, and burning.
+    * **Acne:**  It can worsen existing acne or trigger new breakouts.
+    * **Allergic Reactions:**  Some people are allergic to hydrocortisone, and applying it to the face can cause severe reactions.
+* **Potential for Systemic Absorption:**  The face is closer to the bloodstream than other areas of the body. This means that hydrocortisone can be absorbed through the skin more easily, potentially leading to systemic side effects like:
+    * **High blood pressure:**  This is a rare but serious side effect.
+    * **Mood changes:**  Hydrocortisone can affect mood and behavior.
+    * **Weakened immune system:**  Long-term use can suppress the immune system.
 **What to do instead:**
-* **Consult a Dermatologist:**  A dermatologist can assess your skin condition and recommend the most appropriate treatment. They can also advise on safe and effective ways to manage your skin.
-* **Consider Alternatives:**  There are other topical treatments for skin conditions that are specifically formulated for the face and are safer to use. 
-* **Follow Instructions Carefully:**  If you do use hydrocortisone cream, always follow the instructions on the label and avoid applying it to broken or irritated skin.
-**Remember:**  Your health is paramount. Don't hesitate to seek professional medical advice before using any medication on your face. 
+* **Consult a Dermatologist:**  If you're experiencing skin irritation or inflammation, a dermatologist can diagnose the cause and recommend the appropriate treatment. They can also advise on safe and effective topical creams for your specific skin type.
+* **Consider Alternatives:**  There are other topical treatments for skin conditions that are safe for the face, such as:
+    * **Calamine lotion:**  This can help soothe itching and irritation.
+    * **Aloe vera gel:**  This can help reduce inflammation and redness.
+    * **Antihistamines:**  These can help relieve itching and allergic reactions.
+**Remember:**  Always consult a healthcare professional before using any new medication or treatment, especially on sensitive areas like the face. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5982,26 +5985,24 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about the best time to take trazodone.  
-As a helpful and harmless AI, I can't give medical advice.  **It's crucial to discuss this with your doctor or pharmacist.** They know your specific medical history, current medications, and individual needs. 
-However, I can provide some general information about trazodone:
-* **Trazodone is typically taken once daily.**  The exact timing may vary depending on your doctor's recommendation and your individual response to the medication. 
+**I am an AI and cannot give medical advice.**  It's crucial to discuss this with your doctor or pharmacist. They can provide personalized guidance based on your specific situation and medical history. 
+However, I can share some general information about trazodone:
+* **Trazodone is typically taken once daily.**  The exact timing may vary depending on your doctor's instructions and your individual response to the medication. 
 * **It's often taken in the evening.** This helps with sleep issues, which is one of the primary uses of trazodone. 
-* **Your doctor may adjust the timing based on your symptoms and response to the medication.** 
+* **Your doctor may recommend a specific time based on your symptoms and other medications you're taking.** 
 **Here's why it's important to talk to your doctor:**
-* **They can determine the best dosage for you.**
-* **They can assess potential interactions with other medications you're taking.**
-* **They can monitor your progress and make adjustments as needed.**
-* **They can address any side effects you experience.**
+* **They can assess your individual needs:** Your doctor knows your medical history, current medications, and any potential interactions with trazodone.
+* **They can adjust the dosage:**  The dosage of trazodone can be adjusted based on your response to the medication.
+* **They can monitor for side effects:**  Your doctor can monitor you for any potential side effects and make adjustments as needed.
 **Remember:** Never change your medication dosage or timing without consulting your doctor. 
-Please schedule an appointment with your healthcare provider to discuss the best time to take trazodone for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6040,29 +6041,29 @@
       <c r="G86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're asking about the effectiveness of Metrogel in the context of bacterial vaginosis (BV).  Let's break down the question and address it with the knowledge I have:
-**Understanding the Question:**
-* **BV:** Bacterial vaginosis is a common condition caused by an imbalance in the vaginal microbiome, leading to an overgrowth of certain bacteria.
-* **Metrogel:** Metrogel is a topical cream containing metronidazole, an antibiotic effective against BV-causing bacteria.
-* **"If it was BV wouldn't the Metrogel have worked?"** This implies that if BV was present, the Metrogel would have been effective in treating it.
+I understand you're asking about the effectiveness of Metrogel in the context of bacterial vaginosis (BV).  Let's break down the situation:
+**What is BV?**
+Bacterial vaginosis is a common condition caused by an imbalance in the vaginal microbiome.  This imbalance allows harmful bacteria to overgrow, leading to symptoms like vaginal discharge, odor, and itching.
+**What is Metrogel?**
+Metrogel is a topical cream containing metronidazole, an antibiotic that targets the overgrowth of bacteria. It's commonly used to treat BV.
+**The Question:**
+You're asking if Metrogel would have been effective if BV was caused by a different type of bacteria.  
 **The Answer:**
-While Metrogel is a very effective treatment for BV, it's not a guaranteed cure. Here's why:
-* **BV is a complex condition:**  BV can be caused by various factors, and its severity can vary. 
-* **Treatment effectiveness:**  Metrogel is highly effective in treating BV, but it's not always a one-time fix. It may take multiple applications to clear the infection completely.
-* **Underlying factors:**  BV can sometimes recur, even after treatment. This can be due to factors like hormonal changes, stress, or other underlying health conditions.
-* **Other treatments:**  In some cases, other treatments like antibiotics or probiotics may be necessary to manage BV.
-**Important Considerations:**
-* **Diagnosis:** It's crucial to get a proper diagnosis from a healthcare professional to confirm BV. Self-diagnosing can be dangerous.
-* **Treatment plan:**  A doctor will assess your individual situation and recommend the most appropriate treatment plan, which may include Metrogel, other antibiotics, or other therapies.
-* **Follow-up:**  It's important to follow your doctor's instructions and complete the full course of treatment to ensure complete eradication of BV.
-**In Conclusion:**
-While Metrogel is a powerful tool for treating BV, it's not a guaranteed cure. The effectiveness of treatment depends on various factors, including the severity of the infection, the individual's overall health, and adherence to the prescribed treatment plan. 
-**Remember:**  Always consult a healthcare professional for any health concerns or before starting any new treatment. 
+It's important to understand that:
+* **BV is caused by a specific type of bacteria:**  The bacteria that cause BV are anaerobic bacteria, meaning they thrive in low-oxygen environments. 
+* **Metronidazole targets these bacteria:**  Metronidazole works by killing these anaerobic bacteria. 
+* **BV is a complex condition:**  While metronidazole is effective against the bacteria that cause BV, it's not a cure-all.  BV can sometimes recur, and other factors can contribute to its development.
+**So, would Metrogel work if BV was caused by a different type of bacteria?**
+It's possible, but not guaranteed.  Here's why:
+* **Metronidazole's effectiveness is specific:**  Metronidazole is designed to target anaerobic bacteria.  If the cause of BV was a different type of bacteria, it might not be as effective.
+* **Other treatments may be needed:**  Depending on the cause of BV, other treatments might be necessary. 
+**Important Note:**
+I am an AI and cannot provide medical advice.  If you are experiencing symptoms of BV, it's crucial to consult a healthcare professional for proper diagnosis and treatment. They can determine the cause of your symptoms and recommend the most appropriate course of action. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6105,24 +6106,31 @@
 It's great that you're paying attention to your body! Muscle aches can be a common experience, but it's important to understand the context and potential causes. 
 **Here's what I can tell you about muscle aches that persist without exercise:**
 **1. It's Not Always a Cause for Concern:**
-* **Muscle soreness:**  This is a normal response to exercise, especially if you're new to it or pushing yourself. It's a sign your muscles are adapting and getting stronger. 
-* **Dehydration:**  Sometimes, muscle aches can be a sign of dehydration. Make sure you're drinking enough water throughout the day.
-* **Overuse:**  If you're constantly using the same muscles, they can become fatigued and sore. This is especially true if you're working out for long periods or doing repetitive motions.
-* **Stress:**  Stress can manifest physically, including muscle aches. 
+* **Muscle soreness:**  This is a normal response to exercise, especially if you're new to a workout routine or haven't exercised in a while. It's a sign your muscles are adapting and getting stronger. 
+* **Overuse:**  If you're constantly using the same muscles, they can become fatigued and sore. This is often due to repetitive motions or activities.
+* **Dehydration:**  Not drinking enough water can lead to muscle cramps and soreness.
+* **Poor posture:**  Poor posture can put strain on muscles, leading to aches and stiffness.
 **2. When to Be Concerned:**
-* **Severe pain:**  If the pain is intense, sharp, or doesn't improve with rest, it could be a sign of a more serious issue.
-* **Pain that doesn't improve:**  If the pain persists for more than a few days or doesn't respond to over-the-counter pain relievers, it's important to see a doctor.
-* **Other symptoms:**  If you experience other symptoms like fever, swelling, redness, or numbness along with the muscle aches, it could be a sign of an infection or other medical condition.
-* **Sudden onset:**  If the pain starts suddenly and is accompanied by other symptoms, it's important to seek medical attention.
-* **Underlying medical conditions:**  If you have a history of certain medical conditions, such as arthritis, fibromyalgia, or diabetes, muscle aches could be a symptom of these conditions.
+* **Pain that doesn't improve:**  If the muscle aches persist for more than a few days, even with rest, it's worth checking in with your doctor.
+* **Severe pain:**  If the pain is intense, sharp, or accompanied by swelling, redness, or warmth, it could be a sign of a more serious issue.
+* **Pain that radiates:**  If the pain spreads beyond the muscle or is accompanied by numbness or tingling, it could be a sign of nerve involvement.
+* **Other symptoms:**  If you experience fever, chills, fatigue, or other unusual symptoms alongside the muscle aches, it's important to seek medical attention.
+* **Underlying medical conditions:**  Certain medical conditions, such as arthritis, fibromyalgia, or autoimmune disorders, can cause muscle aches.
 **3. What to Do:**
-* **Rest:**  Give your muscles time to recover. Avoid strenuous activity and focus on gentle stretches and light movements.
+* **Rest:**  Give your muscles time to recover. Avoid strenuous activities that could worsen the pain.
+* **Ice:**  Apply ice packs to the affected area for 15-20 minutes at a time, several times a day.
+* **Heat:**  After the initial 24-48 hours, you can try applying heat to the area to relax the muscles.
+* **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help reduce pain and inflammation.
+* **Stretching:**  Gentle stretching can help improve flexibility and reduce muscle tension.
+* **Massage:**  A massage can help relax muscles and improve blood flow.
 * **Hydration:**  Drink plenty of water to stay hydrated.
-* **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help reduce pain and inflammation.
-* **Heat or cold therapy:**  Applying heat or cold to the affected area can help relieve pain and stiffness.
-* **Massage:**  A gentle massage can help improve blood flow and reduce muscle tension.
-* **See a doctor:**  If the pain is severe, doesn't improve, or is accompanied by other symptoms, it's important to see a doctor to rule out any underlying medical conditions.
-**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with a doctor for any health concerns. 
+**4. When to See a Doctor:**
+* **Persistent pain:**  If the pain doesn't improve after a few days of home care.
+* **Severe pain:**  If the pain is intense or accompanied by other symptoms.
+* **Pain that radiates:**  If the pain spreads beyond the muscle or is accompanied by numbness or tingling.
+* **Other symptoms:**  If you experience fever, chills, fatigue, or other unusual symptoms.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. If you are concerned about your muscle aches, please consult with your doctor. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6130,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6170,31 +6178,24 @@
       <c r="G88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand your concern about the side effects of Prozac. It's great that you're being proactive about your health! 
-**Here's the thing:** I can't give medical advice. I'm an AI, not a doctor.  
-However, I can tell you that **it's absolutely crucial to discuss any concerns about Prozac with your prescribing doctor.** They are the only ones who can assess your individual situation and advise you on the best course of action. 
-That being said, here's some general information about tapering off Prozac:
-* **It's generally recommended to taper off Prozac gradually under the guidance of your doctor.** This helps minimize withdrawal symptoms and ensures a smoother transition. 
-* **The duration of the taper will vary depending on the individual and the severity of the side effects.** Your doctor will consider factors like the dosage, the length of time you've been taking Prozac, and your overall health.
-* **Withdrawal symptoms can include:**
-    * Flu-like symptoms (headache, fatigue, nausea)
-    * Anxiety
-    * Depression
-    * Sleep disturbances
-* **Your doctor will likely monitor you closely during the tapering process.** They may suggest adjusting your dosage or frequency of medication.
-**Remember:** 
-* **Never abruptly stop taking Prozac without consulting your doctor.** This can lead to serious complications.
-* **Be open and honest with your doctor about any side effects you experience.** This will help them make the best decisions for your care.
-**Here are some additional resources that may be helpful:**
-* **Your doctor:** They are your primary source of information and support.
-* **The National Institute of Mental Health (NIMH):** https://www.nimh.nih.gov/
-* **The American Psychiatric Association (APA):** https://www.psychiatry.org/
-I hope this information is helpful. Please prioritize your health and consult your doctor for personalized advice. 
+I understand you're concerned about the side effects of Prozac and whether you can safely stop taking it.  
+**It's crucial to understand that I am not a medical professional and cannot give medical advice.**  The information below is for general knowledge only and should not be substituted for the guidance of your doctor. 
+**Here's what I can tell you about Prozac and tapering off:**
+* **Your doctor is your best resource:**  They know your individual medical history, current medications, and the specific dosage of Prozac you're taking. They can best advise you on the safest way to manage your treatment.
+* **Tapering off is generally recommended:**  Prozac is a selective serotonin reuptake inhibitor (SSRI) and can have withdrawal symptoms if abruptly stopped.  
+* **Gradual reduction is key:**  Your doctor will likely recommend a gradual reduction in your dosage over a period of time. This helps minimize the severity of withdrawal symptoms.
+* **Symptoms of withdrawal can vary:**  Common side effects include nausea, dizziness, fatigue, and insomnia.  
+* **Your doctor will monitor you:**  They will likely monitor your progress and adjust your dosage or treatment plan as needed.
+**Here's what you can do:**
+1. **Talk to your doctor:**  Schedule an appointment to discuss your concerns about side effects and the possibility of tapering off Prozac.
+2. **Be open and honest:**  Share all your symptoms and any concerns you have about the medication.
+3. **Follow your doctor's instructions:**  Adhere to the prescribed dosage and taper off slowly as directed.
+**Remember:**  Your doctor is your partner in managing your health.  Open communication and a collaborative approach are essential for a safe and effective treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6240,7 +6241,7 @@
 * **Location of the strain:** Muscles in the legs and feet tend to heal faster than those in the back or neck.
 * **Your age and overall health:** Younger, healthier individuals generally recover faster.
 * **Your adherence to treatment:** Rest, ice, compression, and elevation (RICE) are crucial for healing.
-* **Underlying conditions:** Existing medical conditions can affect recovery time.
+* **Underlying conditions:** Existing medical conditions can affect healing time.
 **General Timeline:**
 * **First 24-48 hours:**  Pain and swelling are at their peak.
 * **Days 3-7:**  Pain starts to decrease, but you may still experience stiffness.
@@ -6250,12 +6251,12 @@
 * **Don't push yourself too hard:**  Avoid activities that aggravate the pain.
 * **Listen to your body:**  Rest when you need to.
 * **Seek professional advice:**  If the pain is severe, doesn't improve, or you experience other symptoms like numbness or tingling, consult a doctor.
-**Remember:** I'm an AI and cannot provide medical advice.  It's essential to consult a doctor for a proper diagnosis and personalized treatment plan. 
+**Remember:** I'm an AI and cannot provide medical advice.  It's essential to consult a doctor for a proper diagnosis and treatment plan. They can assess your specific situation and provide personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6296,33 +6297,33 @@
           <t xml:space="preserve">
 Let's break down creatinine and why it's important. 
 **What is Creatinine?**
-Creatinine is a waste product produced by your muscles as a byproduct of energy production.  Think of it as a tiny, natural "cleaning agent" your body uses to get rid of waste. 
+Creatinine is a waste product produced by your muscles as a byproduct of energy production.  Think of it as a tiny, natural "cleaning crew" that gets rid of waste from your muscles. 
 **How Creatinine Works:**
-1. **Muscle Activity:** When you move, your muscles use oxygen to create energy. This process produces waste products, including creatinine.
-2. **Kidneys Filter:** Your kidneys are like your body's natural filtration system. They filter your blood and remove waste products, including creatinine.
-3. **Urine Production:** The filtered creatinine is then excreted in your urine.
+1. **Muscle Activity:** When you move, your muscles use energy. This process generates waste products, including creatinine.
+2. **Kidneys Filter:** Your kidneys are like filters that remove waste products from your blood. They break down creatinine into a form that can be excreted in your urine.
+3. **Creatinine in Urine:** The amount of creatinine in your urine is a good indicator of how well your kidneys are working.
 **Why is Creatinine Important?**
-Creatinine levels in your blood can tell your doctor a lot about your kidney function.  Here's why:
-* **Kidney Health:**  The kidneys are responsible for filtering waste products from your blood. If your kidneys aren't working properly, creatinine levels can rise in your blood. This is called **hypercreatininemia**.
-* **Muscle Mass:** Creatinine levels can also be affected by your muscle mass.  People with more muscle mass tend to have higher creatinine levels.
-* **Other Factors:**  Other factors like dehydration, certain medications, and even diet can influence creatinine levels.
+Creatinine levels in your blood and urine are used to:
+* **Assess Kidney Function:**  A high creatinine level can indicate that your kidneys are not filtering waste effectively. This can be a sign of kidney disease.
+* **Monitor Kidney Disease Progression:**  Doctors use creatinine levels to track how well kidney disease is progressing.
+* **Diagnose Other Conditions:**  Elevated creatinine levels can sometimes be a sign of other health problems, such as dehydration, muscle damage, or certain medications.
 **Creatinine Tests:**
-Doctors use a blood test called a **creatinine clearance test** to measure creatinine levels. This test helps determine how well your kidneys are filtering waste products.
-**What Does High Creatinine Mean?**
-High creatinine levels can indicate:
-* **Kidney Disease:**  This is the most common reason for elevated creatinine.
-* **Muscle Damage:**  If you have muscle damage, it can also lead to higher creatinine levels.
-* **Dehydration:**  When you're dehydrated, your kidneys may not be able to filter creatinine as effectively.
-**What Does Low Creatinine Mean?**
-Low creatinine levels are usually not a cause for concern. However, it's important to discuss any unusual changes in your creatinine levels with your doctor.
+* **Blood Creatinine Test:**  A blood test measures the amount of creatinine in your blood.
+* **Urine Creatinine Test:**  A urine test measures the amount of creatinine in your urine.
+**What Does a High Creatinine Level Mean?**
+A high creatinine level can be a sign of:
+* **Kidney Disease:**  The most common cause of high creatinine levels.
+* **Dehydration:**  When you're dehydrated, your kidneys have to work harder to filter waste, leading to higher creatinine levels.
+* **Muscle Damage:**  Injury or illness can cause muscle breakdown, leading to increased creatinine levels.
+* **Certain Medications:**  Some medications can affect creatinine levels.
 **Important Note:**
-I am an AI and cannot provide medical advice.  If you have concerns about your creatinine levels, please consult your doctor. They can interpret your test results and provide personalized guidance. 
-Let me know if you have any other questions! 
+It's crucial to remember that creatinine levels are just one piece of the puzzle when it comes to diagnosing health problems.  A doctor will consider your overall medical history, symptoms, and other test results to make a diagnosis.
+**If you have concerns about your creatinine levels, please consult your doctor.** They can provide personalized advice and treatment options. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6359,29 +6360,38 @@
       <c r="G91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, Abreva. A familiar name in the world of cold sore treatment.  It's a good question, and the answer is nuanced. 
-**Here's what I know about Abreva and its effectiveness:**
-* **It's still a viable option:** Abreva (docosanol) is a topical medication that has been proven effective in reducing the duration and severity of cold sores. It works by inhibiting the virus's ability to spread and replicate.
-* **Effectiveness varies:** While Abreva is generally effective, its effectiveness can vary from person to person. Some individuals may experience significant relief, while others may see only minor improvements. 
-* **Early treatment is key:** The sooner you start Abreva after the first signs of a cold sore appear, the better the results will be. 
-* **Not a cure:** Abreva doesn't cure cold sores. It simply helps to shorten the duration and reduce the severity of the outbreak.
-* **Potential side effects:** Abreva can cause some side effects, such as redness, itching, or burning at the application site. These side effects are usually mild and temporary.
-**Here are some factors to consider:**
-* **Your individual response:** Everyone's body reacts differently to medications. What works for one person may not work for another.
-* **The severity of the outbreak:** Abreva may be more effective for mild outbreaks, while more severe outbreaks may require a different treatment approach.
-* **Your overall health:** Certain medical conditions or medications can affect how your body responds to Abreva. 
-* **Alternative treatments:** There are other cold sore treatments available, such as antiviral creams and gels. 
-**The bottom line:**
-Abreva is still a valuable tool for managing cold sores, but it's not a magic bullet. It's important to consult with your doctor or a dermatologist to determine the best treatment plan for your individual needs. They can help you weigh the pros and cons of Abreva and other options, and ensure you're using it safely and effectively. 
-**Remember:** I am an AI and cannot provide medical advice. Always consult with a qualified healthcare professional for personalized guidance. 
+Ah, Abreva. A familiar name in the world of cold sore treatment.  Let's delve into its effectiveness and whether it's still a good choice for you.
+**Abreva: The Basics**
+Abreva (docosanol) is a topical cream that's been around for a while. It works by:
+* **Reducing the spread of the virus:** Abreva doesn't cure the cold sore, but it can help prevent it from spreading to other areas of your body.
+* **Shortening the duration:**  It can significantly reduce the length of time you experience cold sores.
+**Is Abreva Still Effective?**
+The answer is: it depends. 
+* **For Early Treatment:** Abreva is most effective when applied early in the development of a cold sore.  The sooner you start, the better it works.
+* **For Prevention:** Abreva can be helpful in preventing cold sores, especially if you're prone to them.
+* **For Severe Cases:**  While Abreva can help manage the symptoms, it may not be as effective in treating very large or painful cold sores.
+**Factors Affecting Effectiveness:**
+* **Individual Response:**  Everyone's body reacts differently to Abreva. Some people find it highly effective, while others may see minimal improvement.
+* **Cold Sore Severity:**  The severity of the cold sore can influence how well Abreva works.
+* **Timing of Application:**  Applying Abreva too late in the development of a cold sore may not be as effective.
+**Alternatives to Abreva:**
+* **Over-the-counter antiviral creams:**  These creams contain ingredients like docosanol, but they may not be as potent as Abreva.
+* **Natural remedies:**  Some people find relief from cold sores with natural remedies like tea tree oil, aloe vera, or vitamin E. However, these remedies are not scientifically proven to be as effective as Abreva.
+**Important Considerations:**
+* **Consult a Doctor:**  If you have frequent or severe cold sores, it's best to consult a doctor to discuss the best treatment options for you.
+* **Side Effects:**  Abreva can cause some side effects, such as redness, itching, or burning.
+* **Drug Interactions:**  Abreva may interact with certain medications.
+**In Conclusion:**
+Abreva can be a valuable tool for managing cold sores, but its effectiveness depends on various factors.  If you're considering using Abreva, talk to your doctor to determine if it's the right choice for you. 
+Remember, I'm not a medical professional. This information is for general knowledge and shouldn't replace the advice of a qualified healthcare provider. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6426,21 +6436,21 @@
 **It's important to understand that I am not a medical professional and cannot provide medical advice.**  
 However, I can offer some general information based on my knowledge of medical practices:
 * **Self-treating fungal infections can be risky.**  While OTC antifungal creams like Tinactin can be effective, they are not a substitute for proper diagnosis and treatment by a qualified healthcare professional. 
-* **Misdiagnosis is possible.**  Many conditions can mimic fungal infections, and using the wrong treatment can worsen the problem. 
+* **Misdiagnosis is common.**  Many conditions can mimic fungal infections, and using the wrong treatment can worsen the problem. 
 * **Underlying conditions.**  Fungal infections can be more serious in people with weakened immune systems or underlying health conditions. 
 **Here's what I recommend:**
 1. **See a doctor.**  The best course of action is to consult a doctor or dermatologist. They can examine the area, determine the cause of the issue, and prescribe the appropriate treatment. 
 2. **Don't self-medicate.**  Using OTC antifungal creams without a doctor's guidance can be ineffective and potentially harmful. 
-3. **Follow your doctor's instructions.**  If your doctor prescribes an antifungal medication, follow their instructions carefully and complete the full course of treatment.
-**Remember:**  While Tinactin can be helpful for some fungal infections, it's crucial to get a proper diagnosis and treatment plan from a medical professional. 
+3. **Be open and honest with your doctor.**  Provide them with all relevant information about your symptoms, medical history, and any medications you are taking.
+**Remember:**  While Tinactin can be helpful for some fungal infections, it's crucial to get a proper diagnosis and treatment plan from a qualified healthcare professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6473,27 +6483,27 @@
       <c r="G93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  While both Augmentin and Amoxicillin are powerful antibiotics, they are not exactly the same thing. Here's a breakdown:
+That's a great question!  While both Augmentin and Amoxicillin are antibiotics, they are not exactly the same thing. Here's a breakdown:
 **Amoxicillin** is a broad-spectrum antibiotic that works by killing bacteria. It's often used to treat a wide range of infections, including ear infections, sinus infections, pneumonia, and skin infections.
 **Augmentin** is a combination antibiotic that contains **amoxicillin** and **clavulanate potassium**. Clavulanate potassium is a beta-lactamase inhibitor. 
-**Here's how they differ:**
+**Here's how they are different:**
 * **Augmentin's advantage:**  The addition of clavulanate potassium makes Augmentin more effective against bacteria that produce beta-lactamase, an enzyme that can break down the effectiveness of beta-lactam antibiotics like amoxicillin. This makes Augmentin a good choice for treating infections caused by bacteria that are resistant to amoxicillin alone.
 * **Amoxicillin's advantage:**  Amoxicillin is a more affordable option and is often the first-line treatment for many infections.
 **Important Considerations:**
-* **Prescription:** Both Augmentin and Amoxicillin require a prescription from a doctor. 
-* **Antibiotic Resistance:**  It's crucial to take antibiotics only when prescribed and complete the full course of treatment, even if you start feeling better. This helps prevent the development of antibiotic resistance.
+* **Prescription:** Both Augmentin and Amoxicillin require a prescription from a healthcare professional. 
+* **Antibiotic Resistance:**  It's crucial to use antibiotics only when necessary and as prescribed. Overuse or misuse of antibiotics can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
 * **Side Effects:**  Both Augmentin and Amoxicillin can cause side effects, such as nausea, diarrhea, and rash. 
-* **Allergic Reactions:**  Some people are allergic to penicillin-type antibiotics, including amoxicillin. 
+* **Allergic Reactions:**  Some people may be allergic to amoxicillin or clavulanate potassium.
 **In summary:**
 * Augmentin is a combination antibiotic that includes amoxicillin and a beta-lactamase inhibitor.
 * Amoxicillin is a single antibiotic that is effective against a wide range of bacteria.
 * Augmentin is often used when amoxicillin alone is not effective against resistant bacteria.
-**Always consult with your doctor to determine the best antibiotic for your specific needs.** They can assess your individual situation and recommend the most appropriate treatment. 
+**Always consult with your doctor or pharmacist to determine the best antibiotic for your specific needs.** They can assess your individual situation and provide personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -6548,19 +6558,18 @@
 * **Side Effects:**  Both medications can cause side effects, and combining them could potentially increase the likelihood of experiencing some of these side effects. 
 * **Individualized Treatment:**  The effectiveness and safety of any medication depend on individual factors like your medical history, other medications you're taking, and your specific condition.
 **Why You Need to Talk to Your Doctor:**
-* **Personalized Assessment:** Your doctor can evaluate your medical history, current medications, and potential risks to determine if Buspar and Zoloft are safe for you.
-* **Dosage Adjustments:**  They can adjust your dosages to minimize any potential interactions or side effects.
-* **Monitoring:**  Your doctor can monitor your progress and make necessary adjustments to your treatment plan.
-**Remember:**  Never start or stop any medication without consulting your doctor.  They are your best resource for safe and effective treatment. 
-Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your concerns about combining Buspar and Zoloft. 
+* **Personalized Assessment:** Your doctor can evaluate your medical history, current medications, and potential risks to determine if Buspar and Zoloft are safe for you to take together.
+* **Dosage Adjustments:**  They can adjust your dosages if necessary to minimize any potential interactions or side effects.
+* **Monitoring:**  Your doctor can monitor your progress and make adjustments to your treatment plan as needed.
+**Remember:**  Never start or stop taking any medication without consulting your doctor.  They are your best resource for safe and effective treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -6594,17 +6603,17 @@
       <c r="G95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking about Saxenda, a medication used for weight management.  Here's what I can tell you about its administration:
-**Saxenda is administered as a daily injection.** 
+You're asking about Saxenda, a medication used for weight management.  Here's what you need to know:
+**Saxenda is indeed administered as a daily injection.** 
 Here's a breakdown:
 * **Dosage:** Saxenda comes in a pre-filled pen that delivers a specific dose of liraglutide, a GLP-1 receptor agonist. 
-* **Administration:** The medication is injected once daily, usually in the abdomen, thigh, or upper arm. 
-* **Convenience:**  The daily injection is a convenient way to manage weight, as it requires a simple, consistent routine.
+* **Administration:**  It's injected once daily, usually in the abdomen, thigh, or upper arm. 
+* **Benefits:**  This daily injection helps regulate appetite, control blood sugar, and promote weight loss. 
 **Important Considerations:**
-* **Consult your doctor:**  It's crucial to discuss Saxenda with your doctor to determine if it's the right medication for you and to receive proper guidance on dosage and administration.
-* **Potential side effects:** Like all medications, Saxenda can have side effects. Your doctor will discuss these with you and monitor your progress.
-* **Lifestyle changes:** Saxenda is most effective when combined with a healthy diet and regular exercise. 
-**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be substituted for professional medical guidance. 
+* **Consult a Doctor:**  It's crucial to discuss Saxenda with your doctor. They will determine if it's appropriate for you, considering your medical history, current medications, and potential side effects.
+* **Proper Technique:**  Your doctor will teach you the correct injection technique to ensure safe and effective use.
+* **Side Effects:**  Like all medications, Saxenda can cause side effects. Your doctor will monitor you for any issues and adjust the dosage if needed.
+**Remember:**  This information is for general knowledge only. It's not a substitute for professional medical advice. Always consult your doctor for personalized guidance on your health and treatment options. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6612,7 +6621,7 @@
         <v>0.5</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6650,12 +6659,15 @@
         <is>
           <t xml:space="preserve">
 You're asking a great question!  Valacyclovir and Valtrex are essentially the same thing. 
-Here's why:
+Here's the breakdown:
 * **Valacyclovir** is the **active ingredient** in Valtrex. It's the medication that actually fights the virus.
 * **Valtrex** is the **brand name** for valacyclovir. It's the name you'll see on the prescription label and in drugstore shelves.
-Think of it like this:  "Valacyclovir" is the ingredient, and "Valtrex" is the name of the product that contains that ingredient. 
-**Important Note:** While they are the same, it's crucial to always take medication as prescribed by your doctor. 
-Let me know if you have any other questions about medications or health! 
+Think of it like this:  Valacyclovir is the ingredient, and Valtrex is the product that uses that ingredient. 
+**Why is this important?**
+* **Dosage:**  Both Valacyclovir and Valtrex are prescribed for the same conditions, like herpes outbreaks. 
+* **Availability:**  You'll find both Valacyclovir and Valtrex in the same pharmacies. 
+* **Cost:**  The brand name (Valtrex) might be slightly more expensive than the generic (Valacyclovir).
+**Important Note:**  Always consult with your doctor or pharmacist about the best medication for your specific needs. They can provide personalized advice and ensure you're taking the correct dosage. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6705,32 +6717,31 @@
 It's great that you're thinking about the potential impact of Accutane on your future pregnancy.  Let's break down the information:
 **Accutane and Antibiotics: Different Beasts**
 * **Accutane (isotretinoin)** is a powerful medication used to treat severe acne. It works by reducing oil production and shrinking oil glands. It's a synthetic form of vitamin A.
-* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They work in different ways, targeting specific bacterial structures or processes.
+* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They work by targeting specific mechanisms within bacteria.
 **Accutane and Pregnancy: A Serious Concern**
-Accutane is classified as a teratogen, meaning it can cause birth defects.  **This is a significant concern, especially during pregnancy.**  
-**Here's why Accutane is a concern during pregnancy:**
-* **Teratogenic Effects:** Accutane can cause serious birth defects, including:
-    * **Facial abnormalities:**  Cleft lip or palate, abnormal jaw development
-    * **Heart defects:**  Congenital heart disease
-    * **Brain and spinal cord defects:**  Spina bifida, hydrocephalus
-    * **Other issues:**  Limb abnormalities, vision problems
-* **Dosage and Timing:** The risk of birth defects is highest during the first trimester of pregnancy.  Even if you've taken Accutane in the past, it's crucial to discuss your current pregnancy with your doctor.
-* **Alternative Treatments:**  There are other acne treatments available that are considered safer during pregnancy. Your doctor can help you find the best option for your individual needs.
-**What to Do:**
-1. **Talk to Your Doctor:**  This is the most important step.  Be open and honest about your acne treatment history and your pregnancy plans.
-2. **Follow Medical Advice:**  Your doctor will assess your individual risk factors and recommend the safest course of action.
-3. **Consider Alternatives:**  Explore non-Accutane options for treating your acne.
-4. **Be Informed:**  Research reputable sources like the FDA and the American College of Obstetricians and Gynecologists (ACOG) for accurate information.
-**Remember:**  Your doctor is your best resource for information and guidance regarding Accutane and pregnancy.  Don't hesitate to ask questions and discuss your concerns openly. 
+Accutane is classified as a teratogen, meaning it can cause birth defects.  **This is a significant concern for pregnant women.**  
+**Why Accutane is a Concern for Pregnancy:**
+* **Teratogenic Effects:** Accutane can cause birth defects, particularly in the face, heart, and brain. 
+* **Dosage and Timing:** The risk of birth defects is highest during the first trimester of pregnancy. 
+* **Potential for Harm:** Even if you're not actively pregnant, Accutane can affect a developing fetus.
+**Important Considerations:**
+* **Consult Your Doctor:**  This is crucial.  Your doctor can assess your individual risk factors and discuss alternative treatment options.
+* **Pregnancy Testing:**  It's essential to get tested for pregnancy before starting Accutane.
+* **Alternative Treatments:**  There are other acne treatments available that are less likely to pose risks to a developing fetus.
+* **Medication Safety:**  Always follow your doctor's instructions regarding Accutane use and potential side effects.
+**Remember:**
+* Accutane is a powerful medication with potential risks. 
+* It's essential to prioritize your health and the health of your future child.
+* Open communication with your doctor is vital for making informed decisions.
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6773,21 +6784,21 @@
 The short answer is: **No, blepharitis is not contagious in the traditional sense.** 
 Here's why:
 * **Cause:** Blepharitis is primarily caused by inflammation of the eyelids, often due to:
-    * **Demodex mites:** These microscopic creatures live on everyone's skin, including the eyelids. In some individuals, they can overpopulate and cause irritation.
+    * **Demodex mites:** These microscopic creatures live on everyone's skin, including the eyelids. In some people, they can overpopulate and cause irritation.
     * **Blocked oil glands:**  These glands produce oil to lubricate the eyes. When they become clogged, it can lead to inflammation.
     * **Other factors:**  Dry eyes, allergies, and certain skin conditions can also contribute.
 * **Transmission:**  Blepharitis is not spread from person to person like a cold or flu. You cannot catch it by touching someone with blepharitis. 
-* **Spread:**  While blepharitis itself is not contagious, the bacteria that can cause secondary infections *can* be spread.  This is why good hygiene practices are important, such as:
+* **Spread:**  While blepharitis itself isn't contagious, the bacteria that can cause secondary infections *can* be spread.  This is why good hygiene practices are important, such as:
     * **Washing your hands frequently.**
     * **Avoiding sharing eye makeup or towels.**
     * **Cleaning your eyelids gently with a warm, damp washcloth.**
-**Important Note:**  While blepharitis itself is not contagious, it can be a symptom of underlying conditions that *can* be contagious.  If you have blepharitis, it's important to see an eye doctor to rule out any other potential causes and to ensure proper treatment. 
-Let me know if you have any other questions about blepharitis or any other medical concerns. I'm here to help! 
+**Important Note:**  While blepharitis itself isn't contagious, it can be a symptom of underlying conditions that *can* be contagious.  If you have blepharitis, it's important to see a doctor to rule out any other potential causes and to get appropriate treatment.
+Let me know if you have any other questions about blepharitis or any other medical topic. I'm here to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6829,22 +6840,21 @@
     * **Rapid influenza diagnostic tests (RIDTs):** These are quick tests that detect the presence of influenza viruses in a sample (like a nasal swab). They provide results within minutes.
     * **Polymerase chain reaction (PCR) tests:** These are more sensitive tests that detect the genetic material of the influenza virus. They are often used in clinical settings and can provide more definitive results.
     * **Serological tests:** These tests detect antibodies produced by the body in response to an influenza infection. They can be used to confirm a past infection.
-* **Influenza test:** This term is more specific and refers to a test that specifically identifies the influenza virus. It's important to note that this doesn't necessarily mean it's a rapid test. 
+* **Influenza test:** This term is more specific and refers to a test that specifically identifies the influenza virus. It's the most accurate way to diagnose influenza.
 **In essence:**
 * **"Flu test" is a broader term** that encompasses various tests used to diagnose influenza.
 * **"Influenza test" is a more specific term** that refers to a test that identifies the influenza virus itself.
 **Which test is right for you?**
 The best test for you will depend on your individual situation and the information you need. 
 * **If you're experiencing flu-like symptoms and need a quick diagnosis, a rapid influenza diagnostic test (RIDT) might be the best option.**
-* **If you need a more definitive diagnosis or are concerned about a potential influenza infection, a PCR test might be recommended.**
-* **If you're concerned about a past influenza infection, a serological test might be helpful.**
-**Always consult with your doctor to determine the best course of action for your specific needs.** 
+* **If you need a more definitive diagnosis or are concerned about a potential influenza infection, a PCR test or a serological test might be recommended.**
+**It's always best to consult with your doctor to determine the most appropriate test for your needs.** 
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -6894,12 +6904,12 @@
 * Ibuprofen is like a plumber who fixes the leaky pipe (inflammation and pain).
 * Acetaminophen is like a bandage that stops the bleeding (fever and pain).
 **They are often combined in medications like Advil and Motrin**, but they are distinct drugs with different mechanisms of action. 
-**Important Note:** Always consult with a healthcare professional before taking any medication, including ibuprofen and acetaminophen. They can help you determine the best treatment for your specific needs and potential interactions with other medications you may be taking. 
+**Important Note:** Always consult with a healthcare professional before taking any medication, including ibuprofen or acetaminophen. They can help you determine the best treatment for your specific needs and potential interactions with other medications you may be taking. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -6963,7 +6973,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7019,7 +7029,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7065,30 +7075,29 @@
         <is>
           <t xml:space="preserve">
 It's absolutely normal to experience abdominal cramping with the stomach flu, and it's a common symptom.  Here's why:
-**Understanding the Cause:**
-* **Inflammation:** The stomach flu, also known as gastroenteritis, is caused by a virus that inflames the lining of your stomach and intestines. This inflammation causes pain, cramping, and discomfort.
-* **Dehydration:**  The stomach flu often leads to severe vomiting and diarrhea, which can quickly dehydrate you. Dehydration can also contribute to abdominal cramping.
-* **Muscle Spasms:**  The intense cramping you feel is often due to muscle spasms in your stomach and intestines as they try to expel the virus and fluids.
-**Severity and When to Worry:**
-* **Mild Cramping:**  Mild cramping is usually a normal part of the recovery process. It's often accompanied by nausea, vomiting, and diarrhea.
-* **Severe Cramping:**  If the cramping is severe, persistent, or accompanied by:
-    * **High fever:**  A fever above 101°F (38.3°C) can indicate a more serious infection.
-    * **Blood in your stool or vomit:**  This could be a sign of a more severe infection or complication.
-    * **Severe dehydration:**  Signs include dizziness, dry mouth, dark urine, and decreased urination.
-    * **Inability to keep fluids down:**  This can lead to rapid dehydration.
-    * **Severe pain:**  If the pain is unbearable, seek medical attention.
-**What to Do:**
-* **Rest:**  Give your body time to recover.
-* **Hydrate:**  Drink plenty of fluids, especially water, clear broth, or electrolyte drinks.
-* **Over-the-counter medications:**  Acetaminophen or ibuprofen can help reduce fever and pain.
-* **BRAT diet:**  This bland diet (bananas, rice, applesauce, toast) can be easier to digest.
-* **Seek medical attention:**  If you experience severe symptoms, persistent cramping, or signs of dehydration, consult a doctor.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not replace professional medical guidance. Always consult a doctor for any health concerns. 
+**The Culprit:  Inflammation and Irritability**
+The stomach flu, also known as gastroenteritis, is caused by a virus that inflames the lining of your stomach and intestines. This inflammation causes:
+* **Increased Intestinal Motility:** Your intestines become more active, leading to cramps and sometimes diarrhea.
+* **Nausea and Vomiting:** These can also contribute to abdominal discomfort.
+* **Dehydration:**  The vomiting and diarrhea can lead to dehydration, which can worsen the cramping.
+**Severity Varies**
+The severity of the cramping can vary from person to person. Some people experience mild cramping, while others may have severe, debilitating pain. 
+**When to Worry**
+While abdominal cramping is common, it's important to be aware of when it might be a cause for concern:
+* **Severe Pain:** If the cramping is so intense that it's difficult to bear, or if it's accompanied by fever, blood in your stool, or severe dehydration, seek medical attention immediately.
+* **Persistent Cramping:** If the cramping lasts for more than a few days, or if it doesn't improve with home care, consult your doctor.
+* **Other Symptoms:** If you experience other concerning symptoms like high fever, bloody diarrhea, or severe vomiting, seek medical attention.
+**What You Can Do**
+* **Hydration is Key:**  Drink plenty of fluids, especially water, to prevent dehydration.
+* **Rest:** Give your body time to recover.
+* **Over-the-Counter Relief:**  Over-the-counter medications like ibuprofen or acetaminophen can help reduce pain and fever.
+* **BRAT Diet:**  A bland diet of bananas, rice, applesauce, and toast can be easier to digest.
+**Remember:** I am an AI and cannot provide medical advice. If you have any concerns about your health, please consult a medical professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7131,26 +7140,25 @@
 I understand you're curious about taking antibiotics with your thyroid medication.  **It's absolutely crucial to talk to your doctor about this.**  
 Here's why:
 * **Drug Interactions:** Antibiotics and thyroid medications can interact, potentially affecting their effectiveness or causing side effects. 
-* **Individualized Care:**  The best course of action depends on the specific medications you're taking, their dosages, and your individual medical history. 
+* **Individualized Treatment:**  The best course of action depends on your specific medications, dosage, and medical history. 
 * **Potential Risks:**  Some interactions can be serious, leading to complications or even requiring adjustments to your treatment plan.
 **Here's what I can tell you generally:**
-* **Antibiotics:** These medications fight bacterial infections. 
-* **Thyroid Medications:** These medications are used to manage thyroid hormone levels. 
-* **Potential Interactions:** Some antibiotics can interfere with how your thyroid medication is absorbed or processed by your body. 
-* **Common Interactions:**  Certain antibiotics like tetracyclines and macrolides can affect thyroid hormone levels.
-**What to do:**
-1. **Consult Your Doctor:**  This is the most important step.  They can assess your specific situation, consider your medical history, and advise you on the safest course of action.
-2. **Provide a Complete Medication List:**  Be sure to tell your doctor about all medications you're taking, including over-the-counter drugs, supplements, and herbal remedies.
-3. **Follow Instructions Carefully:**  Always follow your doctor's instructions regarding dosage and timing of your medications.
-**Remember:**  I am an AI and cannot provide medical advice.  Your doctor is your best resource for information about your health and medications. 
+* **Antibiotics:** These medications target bacteria and can disrupt the balance of bacteria in your body. 
+* **Thyroid Medications:** These medications, like levothyroxine, help regulate your thyroid hormone levels. 
+* **Potential Interactions:** Some antibiotics can interfere with how your thyroid medication is absorbed or metabolized. 
+**Why you need to talk to your doctor:**
+* **They know your medical history:** Your doctor has a complete picture of your health, including any allergies, other medications you're taking, and any underlying conditions.
+* **They can assess the risks:** They can determine if there's a potential for interaction and the severity of the risk.
+* **They can prescribe the right medication:** If an interaction is possible, they can prescribe a different antibiotic or adjust your thyroid medication dosage.
+**Please don't self-medicate or change your medication regimen without consulting your doctor.**  They are your best resource for ensuring your safety and optimal treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7200,18 +7208,19 @@
 * **The amount of medication that passes into breast milk is usually low.** However, it's still possible for it to affect your baby.
 **What Your Doctor Can Tell You:**
 * **Your doctor can assess your individual situation.** They will consider your medical history, the severity of your allergies, and the potential risks and benefits for you and your baby.
-* **They can advise you on the safest course of action.** This may involve taking a different medication, adjusting your dosage, or limiting your use of Zyrtec or Claritin.
-* **They can also provide information on alternative treatments for your allergies.**
+* **They can discuss alternative medications that may be safer for breastfeeding mothers.**
+* **They can advise you on the appropriate dosage and duration of treatment.**
 **Important Considerations:**
 * **Always talk to your doctor before taking any medication while breastfeeding.**
+* **If you experience any side effects in your baby, contact your doctor immediately.**
 * **Be sure to follow your doctor's instructions carefully.**
-* **Monitor your baby for any unusual symptoms after taking these medications.**
-**Remember:** Your doctor is your best resource for personalized advice about your health and your baby's. 
+**In Conclusion:**
+While Zyrtec and Claritin are generally considered safe for most adults, it's crucial to discuss their use while breastfeeding with your doctor. They can provide personalized advice based on your individual circumstances and help you make the best decision for you and your baby. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -7255,31 +7264,36 @@
       <c r="G106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a very important question about a complex topic.  Let's break down the relationship between low lipase and the conditions you mentioned:
+You're asking a very important question about a complex topic. Let's break down the relationship between low lipase and the conditions you mentioned:
 **Lipase: The Digestive Enzyme**
-Lipase is an enzyme crucial for digesting fats. It's produced by the pancreas and released into the small intestine.  Low lipase levels indicate a problem with the pancreas's ability to produce or release this enzyme.
-**Low Lipase: Causes and Associations**
-* **Chronic Pancreatitis:** This is the most common cause of low lipase.  Chronic inflammation of the pancreas can damage the cells that produce lipase, leading to decreased levels.
-* **Cystic Fibrosis:**  This genetic disorder affects the lungs and digestive system.  Cystic fibrosis can cause pancreatic damage, leading to low lipase levels.
-* **Pancreatic Cancer:**  While low lipase is not a definitive diagnostic marker for pancreatic cancer, it can be a *possible* indicator.  Here's why:
-    * **Tumor Location:**  Pancreatic cancer can sometimes affect the areas of the pancreas responsible for lipase production. This can lead to a decrease in lipase levels.
-    * **Tumor Burden:**  The extent of the tumor and its impact on the pancreas can also influence lipase levels. 
-    * **Other Factors:**  It's important to remember that low lipase can also be caused by other factors, such as:
-        * **Biliary obstruction:**  Blockage of the bile duct can interfere with the flow of bile, which contains lipase.
-        * **Certain medications:**  Some medications can affect lipase production.
-        * **Alcohol abuse:**  Excessive alcohol consumption can damage the pancreas.
+Lipase is an enzyme crucial for digesting fats. It's produced by the pancreas and released into the small intestine.  
+**Low Lipase: A Sign of Trouble**
+Low lipase levels in the blood can indicate a problem with the pancreas. This is because the pancreas is responsible for producing lipase. 
+**Pancreatic Cancer**
+* **Lipase and Pancreatic Cancer:**  While low lipase levels can be a sign of pancreatic cancer, it's not a definitive indicator.  
+* **Why it's not always a direct sign:**  Pancreatic cancer can cause inflammation and damage to the pancreas, leading to a decrease in lipase production. However, it's not always the primary cause of low lipase.
+* **Other factors:**  Other conditions like chronic pancreatitis, cystic fibrosis, and even certain medications can also cause low lipase levels.
+**Chronic Pancreatitis**
+* **Lipase and Chronic Pancreatitis:** Chronic pancreatitis is a long-term inflammation of the pancreas. It's a common cause of low lipase levels. 
+* **Why it's a strong indicator:**  Chronic pancreatitis damages the pancreas, leading to reduced lipase production. 
+* **Other symptoms:**  Chronic pancreatitis often presents with symptoms like abdominal pain, nausea, vomiting, and weight loss.
+**Cystic Fibrosis**
+* **Lipase and Cystic Fibrosis:** Cystic fibrosis is a genetic disorder that affects the lungs and digestive system. It can also cause pancreatic insufficiency, which is a condition where the pancreas doesn't produce enough digestive enzymes, including lipase.
+* **Why it's a common cause:**  Cystic fibrosis can lead to damage to the pancreas, resulting in low lipase levels. 
 **Important Considerations**
-* **Diagnosis:**  Low lipase is just one piece of the puzzle.  A complete evaluation, including blood tests, imaging studies (like CT scans or MRIs), and possibly a biopsy, is needed to diagnose the underlying cause.
-* **Individualized Care:**  The treatment for low lipase depends on the underlying cause.  For example, chronic pancreatitis may require lifestyle changes, medications, and sometimes surgery.  Cystic fibrosis requires a combination of medications and therapies.  Pancreatic cancer treatment is complex and depends on the stage and type of cancer.
-* **Early Detection:**  Early detection of pancreatic cancer is crucial for successful treatment.  Regular checkups and screenings are important, especially for individuals with risk factors.
+* **Diagnosis:**  Low lipase levels are just one piece of the puzzle. A doctor will consider other factors like symptoms, family history, and other blood tests to make a diagnosis.
+* **Other Causes:**  Low lipase can also be caused by other conditions like:
+    * **Biliary obstruction:**  Blockage in the bile duct can interfere with the flow of bile, which can affect lipase production.
+    * **Medications:**  Certain medications can also affect lipase levels.
+* **Treatment:**  Treatment for low lipase depends on the underlying cause. 
 **In Summary**
-While low lipase is not a definitive indicator of pancreatic cancer, it can be a possible sign.  It's essential to consult a doctor for a proper diagnosis and treatment plan.  Don't rely on self-diagnosis or online information. 
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+Low lipase levels can be a sign of pancreatic cancer, but it's not always a direct indicator. Chronic pancreatitis and cystic fibrosis are more common causes.  
+**It's crucial to consult a doctor for a proper diagnosis and treatment plan.** They can order additional tests and consider your individual medical history to determine the cause of your low lipase levels. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -7343,8 +7357,7 @@
 * **Follow instructions:**  Always follow your doctor's instructions regarding dosage, frequency, and duration of treatment.
 * **Side effects:** Be aware of potential side effects and report any unusual symptoms to your doctor immediately.
 **In summary:**
-While both meloxicam and naproxen are effective NSAIDs, they differ in their mechanism of action, side effect profiles, and duration of action. Your doctor can help you determine which medication is best suited for your specific needs. 
-Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance. 
+Meloxicam and naproxen are both effective NSAIDs for pain and inflammation, but they differ in their mechanism of action, side effect profiles, and duration of action.  Choosing the right medication depends on your individual needs and medical history.  Always consult your doctor for personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -7352,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -7387,25 +7400,18 @@
         <is>
           <t xml:space="preserve">
 Mycophenolate, often sold under the brand name CellCept, is indeed an immunosuppressant.  Here's a breakdown of its mechanism and uses:
-**What is Mycophenolate?**
-Mycophenolate is a medication that works by interfering with the production of purines, which are essential building blocks for DNA and RNA.  
-**How it Works:**
-* **Purine Synthesis Inhibition:** Mycophenolate specifically targets the enzyme inosine monophosphate dehydrogenase (IMPDH). IMPDH is crucial for the synthesis of guanine nucleotides, which are needed for DNA and RNA production. 
-* **Immune Cell Suppression:** By inhibiting purine synthesis, mycophenolate effectively reduces the production of lymphocytes, a type of white blood cell crucial for the immune response. This leads to a decrease in the activity of T cells and B cells, which are key players in the adaptive immune system.
-**Uses:**
-Mycophenolate is primarily used for:
-* **Organ Transplantation:** It is a cornerstone of immunosuppressive therapy for preventing organ rejection after transplantation. 
-* **Autoimmune Diseases:** It is also used to manage autoimmune diseases like lupus, rheumatoid arthritis, and vasculitis.
-* **Other Conditions:** Mycophenolate is sometimes used to treat certain types of cancers and other inflammatory conditions.
+**How Mycophenolate Works:**
+* **Inhibits purine synthesis:** Mycophenolate is a prodrug that gets converted into a metabolite that blocks the enzyme inosine monophosphate dehydrogenase (IMPDH). IMPDH is crucial for the synthesis of guanine nucleotides, which are essential building blocks for DNA and RNA.
+* **Reduces lymphocyte proliferation:** By inhibiting guanine nucleotide synthesis, mycophenolate effectively reduces the proliferation of lymphocytes, a type of white blood cell crucial for the immune response. This is the primary mechanism by which it suppresses the immune system.
+**Uses of Mycophenolate:**
+* **Organ transplantation:** Mycophenolate is commonly used to prevent organ rejection after transplantation. It helps to suppress the immune system's attack on the transplanted organ.
+* **Autoimmune diseases:** It is also used to treat autoimmune diseases like rheumatoid arthritis, lupus, and Crohn's disease. These conditions involve the immune system attacking the body's own tissues.
+* **Other conditions:** Mycophenolate is also used to treat certain types of cancers and to prevent rejection of bone marrow transplants.
 **Important Considerations:**
-* **Side Effects:** Mycophenolate can cause a range of side effects, including:
-    * **Gastrointestinal issues:** Nausea, diarrhea, and stomach pain are common.
-    * **Bone marrow suppression:** This can lead to anemia, neutropenia (low white blood cell count), and thrombocytopenia (low platelet count).
-    * **Increased risk of infections:** The immunosuppressive effect can make patients more susceptible to infections.
-* **Dosage and Monitoring:** The dosage and monitoring of mycophenolate are crucial to minimize side effects and ensure its effectiveness. 
-* **Drug Interactions:** Mycophenolate can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
-**In Summary:**
-Mycophenolate is a powerful immunosuppressant that plays a vital role in organ transplantation and the management of autoimmune diseases. However, it's essential to understand its potential side effects and the importance of careful monitoring and dosage adjustments. 
+* **Side effects:** Mycophenolate can cause side effects like nausea, diarrhea, and increased susceptibility to infections. 
+* **Dosage and monitoring:** The dosage and monitoring of mycophenolate are crucial to ensure its effectiveness and minimize side effects. 
+* **Drug interactions:** Mycophenolate can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
+**In summary:** Mycophenolate is a powerful immunosuppressant that plays a vital role in organ transplantation and the treatment of various autoimmune and other conditions. However, it's essential to use it under the guidance of a healthcare professional and to be aware of its potential side effects and interactions. 
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7448,24 +7454,13 @@
       <c r="G109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question that highlights a common point of confusion!  
-**Pepto-Bismol is indeed the brand name for a medication containing bismuth subsalicylate.** 
-Here's a breakdown:
-* **Bismuth subsalicylate** is the active ingredient in Pepto-Bismol. It's a medication that works by:
-    * **Reducing stomach acid:** This helps soothe an upset stomach and reduce heartburn.
-    * **Anti-diarrheal:** It can help slow down the movement of your intestines, which can reduce diarrhea.
-    * **Anti-inflammatory:** It can help reduce inflammation in the digestive tract.
-* **Pepto-Bismol** is a popular over-the-counter medication for various digestive issues, including:
-    * Nausea and vomiting
-    * Diarrhea
-    * Indigestion
-    * Heartburn
-    * Traveler's diarrhea
-**Important Note:** While Pepto-Bismol is generally safe for most people, it's important to follow the directions on the label and consult with a doctor if you have any concerns. 
-**Here are some additional points to consider:**
-* **Brand names:**  While Pepto-Bismol is the most well-known brand, there are other brands that contain bismuth subsalicylate, such as Pepto-Bismol Liquid, Pepto-Bismol Chewable Tablets, and Pepto-Bismol Capsules.
-* **Dosage:** The dosage of Pepto-Bismol varies depending on the specific product and the condition being treated. Always follow the instructions on the label.
-* **Interactions:**  Bismuth subsalicylate can interact with certain medications, so it's important to tell your doctor about all the medications you are taking before using Pepto-Bismol.
+You're asking a great question that highlights a common point of confusion! 
+**Pepto-Bismol and Pepto-Bismol are the same thing.** 
+Pepto-Bismol is a brand name for a medication that contains bismuth subsalicylate. This medication is commonly used to treat:
+* **Indigestion and heartburn:** It helps coat the stomach lining and reduce stomach acid.
+* **Nausea and vomiting:** It can help settle the stomach and reduce the feeling of nausea.
+* **Diarrhea:** It can help reduce the severity and duration of diarrhea.
+**Important Note:** While Pepto-Bismol is generally safe, it's important to follow the directions on the label and consult with a doctor if you have any concerns. 
 Let me know if you have any other questions about Pepto-Bismol or other medications! 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7512,31 +7507,29 @@
       <c r="G110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question that plagues many a gardener and outdoor enthusiast!  Let me clear the air on this one. 
-**Poison ivy is not contagious in the way you might think.**  It's not a virus or bacteria that spreads from person to person. 
-Here's the breakdown:
-* **It's an allergic reaction:**  Poison ivy causes an allergic reaction in most people. This reaction is triggered by urushiol, a sticky oil found in the plant's leaves, stems, and roots. 
-* **Urushiol is the culprit:**  Urushiol is a potent allergen that can stick to your skin, clothing, and tools.  It's not something you can catch from someone else.
-* **Contact is key:**  You get poison ivy rash by coming into contact with urushiol. This can happen through:
-    * Touching the plant itself
-    * Touching something that has touched the plant
-    * Being near the plant and inhaling the oil
-* **It's not a "disease":**  Poison ivy rash is not a contagious disease. It's a localized allergic reaction.
-**So, how to avoid it?**
-* **Wear protective clothing:**  Long sleeves, pants, and gloves when working in areas where poison ivy might be present.
-* **Wash your skin:**  Wash any exposed skin immediately after being in contact with poison ivy.
-* **Avoid touching:**  Don't touch the plant or anything that might have touched it.
-* **Keep your tools clean:**  Clean your gardening tools thoroughly after use.
-**Remember:**  If you do get a rash, it's important to treat it promptly. Over-the-counter hydrocortisone cream can help relieve itching and inflammation. 
-Let me know if you have any other questions about poison ivy or other medical topics. I'm here to help! 
+That's a great question!  Let's break down the science behind poison ivy and its spread.
+**Poison ivy is not contagious in the way we typically think of contagious diseases.**  It's not a virus or bacteria that spreads through the air or bodily fluids. 
+Here's why:
+* **It's an allergic reaction:** Poison ivy causes an allergic reaction in people, not a contagious infection.  The culprit is urushiol, a sticky oil found in the plant's leaves, stems, and roots.
+* **Urushiol is a potent allergen:** When urushiol comes into contact with your skin, it triggers an immune response in your body. This response causes the characteristic rash, itching, and inflammation.
+* **It's not spread through direct contact:** You don't catch poison ivy from someone else's skin.  You get it by touching the urushiol oil on the plant itself. 
+**However, there are some ways you can spread poison ivy:**
+* **Touching contaminated objects:** If you touch something that has urushiol on it (like a fence, a tree, or clothing) and then touch your face or other parts of your body, you can transfer the oil and trigger a reaction.
+* **Sharing personal items:**  If you share clothing, towels, or other items that have come into contact with poison ivy, you could transfer the oil.
+**Important to remember:**
+* **Wash your skin thoroughly:** If you've been in contact with poison ivy, wash your skin immediately with soap and water. This helps remove the urushiol oil.
+* **Avoid touching:**  Avoid touching poison ivy plants or anything that might have come into contact with them.
+* **Wear protective clothing:**  Wear long sleeves and pants when you're in areas where poison ivy is common.
+**In summary:**  Poison ivy is not contagious in the traditional sense, but it can be spread through contact with the urushiol oil.  Washing your skin and avoiding contact with the plant are the best ways to prevent an allergic reaction. 
+If you have any concerns about poison ivy or an allergic reaction, please consult a medical professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7574,25 +7567,25 @@
       <c r="G111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking about a common side effect of pyridium, a medication used to treat urinary tract infections (UTIs). 
-**Yes, pyridium can cause urine to turn orange.** 
-Here's why:
-* **Pyridium's Chemical Structure:** Pyridium is a medication that contains a chemical called **furosemide**, which is a diuretic.  
-* **Furosemide's Effect:** Furosemide works by increasing the amount of urine your body produces. This increased urine flow can lead to the presence of certain pigments in the urine.
-* **Pigment Formation:** The pigments in urine are often caused by the breakdown of certain substances in the body.  Furosemide can increase the breakdown of certain pigments, leading to the orange color.
+You're right to be curious about the color change in urine!  Pyridium, also known as **phenazopyridine**, is indeed the culprit behind that characteristic orange hue. 
+Here's a breakdown of how it works:
+* **Mechanism:** Pyridium is a urinary analgesic, meaning it helps relieve pain and discomfort associated with urinary tract infections (UTIs) and other conditions. It works by reducing the pain signals sent to the brain.
+* **Chemical Action:**  Pyridium is a **photosensitizer**. This means it absorbs light, particularly in the blue-green spectrum, and converts it into a different wavelength. This process is what causes the urine to turn orange.
+* **Appearance:** The orange color is a result of the breakdown of pyridium in the body and its interaction with light. It's a temporary change, and the color will fade over time as the medication is metabolized.
 **Important Notes:**
-* **Not everyone experiences this side effect:** While pyridium can cause urine to turn orange, it's not a universal side effect. 
-* **The color is temporary:** The orange color usually fades within a few days or weeks after stopping the medication.
-* **Consult your doctor:** If you're concerned about the color of your urine, or if you experience any other side effects from pyridium, it's important to contact your doctor.
-Let me know if you have any other questions about pyridium or UTIs. 
+* **Not a cure:**  While pyridium can help manage pain and discomfort, it doesn't cure UTIs. It's crucial to address the underlying infection with antibiotics.
+* **Potential side effects:**  Pyridium can cause side effects like nausea, vomiting, and allergic reactions. It's important to discuss any concerns with your doctor.
+* **Drug interactions:**  Pyridium can interact with other medications, so it's essential to inform your doctor about all the drugs you're taking.
+**In summary:** Pyridium is the medication that causes urine to turn orange. It's a useful tool for managing pain and discomfort associated with UTIs, but it's not a cure and can have side effects. 
+If you have any further questions or concerns about pyridium or your health, please consult your doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -7631,17 +7624,21 @@
           <t xml:space="preserve">
 You're asking a great question about Saxenda, a medication used for weight management. 
 **Yes, Saxenda (liraglutide) is a GLP-1 receptor agonist.** 
-Here's a breakdown of what that means:
-* **GLP-1:**  GLP-1 stands for Glucagon-like peptide-1. It's a naturally occurring hormone produced in the gut after you eat. 
-* **GLP-1 Receptor Agonist:**  This means that Saxenda mimics the action of GLP-1. It binds to GLP-1 receptors in the body, triggering a cascade of effects that help regulate blood sugar, appetite, and metabolism.
+Here's a breakdown:
+* **GLP-1 (Glucagon-like peptide-1):** This is a naturally occurring hormone in your body that plays a crucial role in regulating blood sugar levels. 
+* **GLP-1 Receptor Agonists:** These are medications that mimic the action of GLP-1, binding to GLP-1 receptors in the body. This binding triggers various effects, including:
+    * **Increased insulin secretion:**  This helps your body use glucose more effectively.
+    * **Reduced glucagon secretion:**  This helps lower blood sugar levels.
+    * **Slowed gastric emptying:** This helps you feel fuller for longer, reducing overall calorie intake.
 **How Saxenda Works:**
-* **Blood Sugar Control:**  GLP-1 helps the pancreas release more insulin when blood sugar levels are high, and it slows down the release of glucagon, which raises blood sugar. This makes Saxenda effective in managing type 2 diabetes.
-* **Appetite Suppression:**  GLP-1 reduces appetite by signaling to the brain that you're full, helping you eat less.
-* **Metabolism Boost:**  GLP-1 promotes the breakdown of fat and increases energy expenditure, contributing to weight loss.
+Saxenda is a GLP-1 receptor agonist that works by mimicking the effects of GLP-1. It helps manage weight by:
+* **Reducing appetite:**  It signals to your brain that you're full, making you less likely to overeat.
+* **Slowing down digestion:**  This helps you feel fuller for longer and reduces the amount of food you consume.
+* **Improving insulin sensitivity:**  This helps your body use glucose more effectively, which can help lower blood sugar levels.
 **Important Note:**
-While Saxenda is a GLP-1 receptor agonist, it's important to remember that it's not a substitute for a healthy lifestyle.  Weight management requires a combination of diet, exercise, and behavioral changes. 
+While Saxenda is effective for weight management, it's crucial to remember that it's not a magic bullet. It's most effective when combined with a healthy diet and regular exercise. 
 **Always consult with your doctor:**
-If you're considering Saxenda or any other medication for weight management, it's crucial to discuss it with your doctor. They can assess your individual needs, medical history, and potential risks and benefits. 
+It's essential to discuss any medication, including Saxenda, with your doctor. They can assess your individual needs, determine if Saxenda is appropriate for you, and monitor your progress. 
 Let me know if you have any other questions about Saxenda or weight management. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7650,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -7690,28 +7687,30 @@
 It's great you're paying attention to your body and seeking information!  Shoulder pain that comes with breathing can be concerning, but it's not always a cause for alarm.  Here's what I can tell you, keeping in mind I'm an AI and not a real doctor:
 **Possible Causes:**
 * **Costochondritis:** This is inflammation of the cartilage that connects your ribs to your breastbone. It can cause pain in the chest, shoulder, and sometimes even the neck. Breathing can worsen the pain because it puts pressure on the inflamed cartilage.
-* **Muscle Strain or Injury:**  A strained or injured shoulder muscle can cause pain that worsens with breathing, especially deep breaths.
 * **Pleurisy:** This is inflammation of the lining of the lungs (pleura). It can cause sharp, stabbing pain that worsens with deep breaths.
-* **Anxiety or Panic Attacks:**  These can cause a tightening of the chest and shoulder muscles, leading to pain that feels like it's coming from the shoulder.
+* **Muscle Strain or Injury:**  A strained or injured shoulder muscle can cause pain that's aggravated by breathing, especially if you're doing activities that require deep breaths.
+* **Rib Fractures:**  A broken rib can cause pain that radiates to the shoulder and worsens with breathing.
 * **Other Conditions:** Less common causes include lung infections, heart problems, and even certain types of arthritis.
 **When to See a Doctor:**
-* **Sudden onset of pain:** If the pain is new and severe, especially if it's accompanied by other symptoms like fever, shortness of breath, or chest pain, seek medical attention immediately.
-* **Pain that doesn't improve:** If your pain doesn't improve with over-the-counter pain relievers or home remedies, see a doctor.
-* **Pain that limits your daily activities:** If you're unable to perform your usual activities due to shoulder pain, it's important to seek medical advice.
-* **Other symptoms:** If you experience any other symptoms along with shoulder pain, such as fever, shortness of breath, or chest pain, consult a doctor.
+It's important to see a doctor if:
+* **The pain is severe or doesn't improve with over-the-counter pain relievers.**
+* **You have other symptoms, such as fever, shortness of breath, or chest pain.**
+* **The pain is accompanied by a cough or difficulty breathing.**
+* **The pain is persistent or doesn't go away after a few days.**
 **What to Expect at the Doctor's Office:**
-* **Physical Examination:** Your doctor will examine your shoulder and chest to assess for tenderness, swelling, and range of motion.
-* **Medical History:** They will ask about your symptoms, past medical history, and any medications you're taking.
-* **Imaging Tests:** In some cases, your doctor may order an X-ray, CT scan, or MRI to rule out any underlying conditions.
+* **Physical Examination:** Your doctor will examine your shoulder and chest to check for tenderness, swelling, and range of motion.
+* **Medical History:** Your doctor will ask about your symptoms, past medical history, and any medications you're taking.
+* **Imaging Tests:**  In some cases, your doctor may order an X-ray, CT scan, or MRI to get a better look at your shoulder and chest.
 **Important Notes:**
-* **Self-diagnosis is dangerous:**  It's crucial to avoid self-diagnosing and seeking medical advice from unqualified sources.
-* **Early intervention is key:**  The sooner you seek medical attention, the better the chances of a successful treatment plan.
-Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Please consult a doctor for any health concerns. 
+* **Self-diagnosis is dangerous.**  It's important to see a doctor for a proper diagnosis and treatment plan.
+* **Don't ignore pain.**  Even if it's mild, pain can be a sign of a problem that needs attention.
+* **Be open and honest with your doctor.**  The more information you provide, the better they can help you.
+Remember, I'm here to provide general information, but I can't give medical advice.  Please consult a healthcare professional for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -7751,24 +7750,30 @@
       <c r="G114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about the differences between miconazole powder and baby powder!  While they both might be found in a store, they are very different products with very different uses. 
-**Miconazole powder** is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. It works by killing the fungus that causes these infections. 
-**Baby powder** is typically made from talc, a soft mineral. It's used to absorb moisture and prevent chafing, especially on delicate skin. 
-**Here's why they are NOT the same:**
-* **Active Ingredients:** Miconazole powder contains an antifungal agent, while baby powder does not. 
-* **Purpose:** Miconazole powder is for treating fungal infections, while baby powder is for preventing chafing and moisture.
-* **Safety:** Miconazole powder can be irritating to the skin if used improperly. It's important to follow the instructions on the label and to test it on a small area of skin before using it on a larger area. Baby powder is generally considered safe for babies, but it's important to choose a brand that is free of talc.
-* **Application:** Miconazole powder is applied directly to the affected area, while baby powder is typically applied to the body after bathing.
-**Important Note:**  It's crucial to consult with a healthcare professional for any skin concerns or before using any medication or product on your skin. They can provide personalized advice based on your individual needs and medical history. 
-Let me know if you have any other questions about medical topics! 
+That's a great question, and it highlights a common point of confusion!  While both miconazole powder and baby powder are often found in powder form, they are **not the same** and have very different purposes. 
+Here's a breakdown:
+**Miconazole powder:**
+* **Active ingredient:** Miconazole is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. 
+* **Purpose:**  It's applied directly to the skin to kill or prevent the growth of fungi.
+* **Safety:**  Miconazole is generally safe for topical use, but it can cause skin irritation or allergic reactions in some people. It's important to follow the instructions on the product label carefully.
+**Baby powder:**
+* **Active ingredient:** Baby powder typically contains cornstarch or talc. 
+* **Purpose:** It's used to absorb moisture and prevent chafing, especially on delicate skin.
+* **Safety:**  Talc, a mineral often used in baby powder, has been linked to health concerns, including ovarian cancer.  Many brands now use cornstarch as a safer alternative.
+**Key Differences:**
+* **Purpose:** Miconazole is an antifungal medication, while baby powder is a skin protectant.
+* **Active ingredients:** Miconazole contains an antifungal agent, while baby powder contains cornstarch or talc.
+* **Safety:** Miconazole is generally safe for topical use, but talc can pose health risks.
+**Important Note:**  Never use miconazole powder on areas of your body that are not infected with a fungal infection. It can be harmful if used inappropriately. 
+**If you have any concerns about using either product, it's always best to consult with a healthcare professional.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -7808,17 +7813,16 @@
 **However, I must strongly advise against using topical nitroglycerin for anal fissures.** 
 Here's why:
 * **Nitroglycerin is a powerful vasodilator.** This means it widens blood vessels, which can be dangerous in the anal area. It can cause:
-    * **Severe pain and discomfort.**
-    * **Increased bleeding.**
-    * **Potential for tissue damage.**
-    * **Interactions with other medications.**
-* **There are safer and more effective treatments for anal fissures.** These include:
-    * **Topical medications:**  These can include hydrocortisone cream, lidocaine cream, or topical nitroglycerin. **However, I strongly advise against using topical nitroglycerin.**
-    * **Lifestyle changes:**  Eating a high-fiber diet, drinking plenty of fluids, and avoiding straining during bowel movements can help prevent and heal fissures.
-    * **Prescription medications:**  Your doctor may prescribe stronger medications, such as stool softeners or antibiotics, depending on the severity of your fissure.
-    * **Surgery:**  In rare cases, surgery may be necessary to repair a severe fissure.
-**It's crucial to consult with a qualified medical professional for diagnosis and treatment of anal fissures.** They can assess your individual needs and recommend the most appropriate treatment plan. 
-**Please remember:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and should not be considered a substitute for professional medical advice. 
+    * **Severe pain:**  Nitroglycerin can cause intense pain, especially in the sensitive anal area.
+    * **Bleeding:**  The widening of blood vessels can lead to increased bleeding.
+    * **Hypotension:**  Nitroglycerin can cause a drop in blood pressure, which can be dangerous.
+    * **Interactions:**  Nitroglycerin can interact with other medications you might be taking.
+* **There are safer and more effective treatments for anal fissures.**  These include:
+    * **Topical medications:**  Creams containing **dimethylsulfoxide (DMSO)** or **topical lidocaine** are often prescribed for anal fissures. These medications help to reduce pain and inflammation.
+    * **Lifestyle changes:**  Eating a high-fiber diet, drinking plenty of fluids, and avoiding straining during bowel movements can help prevent and heal anal fissures.
+    * **Surgery:**  In some cases, surgery may be necessary to repair a severe or recurring fissure.
+**It's crucial to consult a doctor for diagnosis and treatment of anal fissures.** They can determine the best course of action for your specific situation. Self-treating with medications like nitroglycerin can be dangerous and ineffective. 
+**Please schedule an appointment with your doctor or a gastroenterologist to discuss your concerns and receive appropriate treatment.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -7826,7 +7830,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7868,27 +7872,27 @@
           <t xml:space="preserve">
 It's great that you're paying attention to your body!  A clear urine color is generally a good sign, but it's important to remember that I'm an AI and not a doctor.  **It's crucial to consult a medical professional for any health concerns.** 
 That being said, here's some general information about clear urine:
-**What's normal:**
+**What's Normal:**
 * **Clear urine** usually indicates that your kidneys are functioning well and your body is efficiently removing waste products. 
 * **Minimal to no color** in your urine is a sign of good hydration and healthy kidneys.
-**Possible reasons for clear urine:**
+**Possible Reasons for Clear Urine:**
 * **Hydration:**  The most common reason for clear urine is simply drinking enough water.  
-* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and appear darker.
-* **Recent medication:** Some medications can cause changes in urine color.
-* **Diet:**  Certain foods and drinks can affect urine color. For example, beets can make urine red.
-* **Medical conditions:**  While clear urine is usually a good sign, it can sometimes be a symptom of underlying medical conditions.  
-**When to see a doctor:**
+* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and may appear slightly darker.
+* **Recent Medication:** Some medications can affect urine color. 
+* **Diet:**  Certain foods and drinks can impact urine color. 
+* **Medical Conditions:**  While clear urine is usually a good sign, it's important to note that it can sometimes be a symptom of underlying medical conditions. 
+**When to See a Doctor:**
 * **Sudden change in urine color:** If your urine suddenly changes color, it's important to see a doctor.
-* **Blood in your urine:**  Blood in your urine is a serious condition that requires immediate medical attention.
-* **Pain or burning during urination:**  These symptoms could indicate a urinary tract infection or other medical condition.
-* **Frequent urination:**  If you're urinating more often than usual, it's important to see a doctor.
-* **Other symptoms:**  If you're experiencing any other symptoms, such as fever, chills, or pain in your back or side, it's important to see a doctor.
-**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for any health concerns. 
+* **Blood in urine:**  Blood in your urine is a serious condition that requires immediate medical attention.
+* **Pain or burning during urination:**  These symptoms could indicate a urinary tract infection or other medical issue.
+* **Frequent urination:**  If you're urinating more often than usual, it's worth checking in with your doctor.
+* **Other symptoms:**  If you're experiencing any other symptoms, such as fever, chills, or pain, it's important to see a doctor.
+**Important Note:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -7931,25 +7935,27 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for relief from a bite on your face. While I can provide general information, I am not a medical professional and cannot give medical advice. 
-**It's crucial to see a doctor or dermatologist for any bite wound, especially on the face.**  They can properly assess the bite, determine the cause, and recommend the best treatment. 
-Here's what I can tell you about potential treatments for bite wounds:
-* **Antibiotics:**  Depending on the cause of the bite (animal, insect, etc.), your doctor may prescribe antibiotics to prevent infection.
-* **Pain relief:** Over-the-counter pain relievers like ibuprofen or acetaminophen can help manage pain and inflammation.
-* **Steroid creams:**  Steroid creams can help reduce swelling and itching, but they are not always necessary and should be used with caution. 
-* **Wound care:**  Your doctor may recommend cleaning the wound with soap and water, applying a bandage, and keeping it covered to prevent further irritation.
-**Important Considerations:**
-* **Severity:** The severity of the bite will determine the treatment needed. A minor bite might only require cleaning and bandaging, while a deeper bite or one from a venomous creature may require more extensive treatment.
-* **Allergic reaction:**  If you have a known allergy to any medication or substance, it's crucial to inform your doctor.
-* **Underlying conditions:**  Certain medical conditions can affect wound healing, so it's important to disclose any relevant information to your doctor.
-**Remember:**  Self-treating a bite wound can be dangerous. Always consult a medical professional for proper diagnosis and treatment. 
+**It's crucial to see a doctor or other qualified healthcare provider for any bite wound, especially on the face.**  
+Here's why:
+* **Infection Risk:** Bite wounds are susceptible to infection, and the face is a delicate area. A healthcare professional can assess the wound and determine the best course of treatment to minimize the risk of infection.
+* **Proper Cleaning:**  They can properly clean the wound to remove debris and bacteria.
+* **Underlying Issues:**  A bite wound could be a sign of a more serious underlying issue, such as a bite from a venomous animal or a bite from a person with a contagious disease.
+* **Scarring:**  The severity of the bite and the location can affect the healing process and the potential for scarring.
+**While waiting for your appointment, here are some general tips:**
+* **Control Bleeding:** Apply gentle pressure to the wound with a clean cloth.
+* **Clean the Wound:** Gently wash the wound with soap and water.
+* **Cover the Wound:** Apply a clean bandage to protect the wound.
+* **Over-the-Counter Pain Relief:**  You can use over-the-counter pain relievers like ibuprofen or acetaminophen to manage any discomfort.
+**Remember:**  These are just general tips and do not replace professional medical advice. 
+**Please schedule an appointment with a doctor or other qualified healthcare provider as soon as possible.** They can provide the best care for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7991,24 +7997,27 @@
 That said, I can provide some general information about switching antidepressants. 
 **It's crucial to consult with your doctor before making any changes to your medication.** They can assess your individual situation, consider potential risks and benefits, and provide personalized guidance. 
 Here's what your doctor might consider:
-* **Your specific condition:** The type of depression you're experiencing, its severity, and your response to Cymbalta will all play a role in determining the best course of action.
-* **Your medical history:** Any other health conditions you have, as well as any medications you're currently taking, can influence the decision.
-* **The potential for withdrawal symptoms:**  Stopping Cymbalta abruptly can lead to withdrawal symptoms, which can be unpleasant and potentially dangerous. 
-* **The potential for side effects:** Switching antidepressants can sometimes lead to new side effects. 
-* **The effectiveness of Zoloft:** Your doctor will want to ensure that Zoloft is an appropriate choice for you and will likely want to monitor your progress.
-**Here are some general points to consider:**
-* **Gradual tapering:**  Your doctor may recommend gradually tapering off Cymbalta over several weeks to minimize withdrawal symptoms. 
-* **Alternative medications:**  There might be other antidepressants that are a better fit for you, or your doctor might suggest a different approach to managing your symptoms.
-* **Monitoring your progress:**  It's important to monitor your symptoms and how you're feeling while on Zoloft. Your doctor will want to adjust your treatment plan as needed.
-**Remember, your doctor is your best resource for information about your health and medication.** They can provide personalized advice and ensure you're taking the safest and most effective approach to managing your depression. 
+* **Your specific medication and dosage:**  The way you stop one medication and start another depends on the specific drug you're taking. 
+* **Your symptoms and treatment goals:**  Your doctor will want to understand your current symptoms and what you hope to achieve with treatment.
+* **Potential withdrawal symptoms:**  Stopping certain antidepressants abruptly can lead to withdrawal symptoms. Your doctor can help you manage these if they occur.
+* **Alternative treatment options:**  Your doctor may suggest other treatment options, such as adjusting your current medication or trying a different antidepressant.
+**General Information about Switching Antidepressants:**
+* **Gradual tapering:**  Your doctor may recommend gradually reducing your Cymbalta dosage over several weeks to minimize withdrawal symptoms. 
+* **Switching to a similar medication:**  Sometimes, switching to a similar antidepressant with a different mechanism of action can be a safer option.
+* **Monitoring your progress:**  It's important to monitor your symptoms and adjust your treatment plan as needed.
+**Remember:**
+* **Never stop taking your medication without consulting your doctor.**
+* **Be open and honest with your doctor about your symptoms and any concerns you have.**
+* **Follow your doctor's instructions carefully.**
+Your doctor is your best resource for information about switching antidepressants. They can help you make the safest and most effective decision for your individual needs. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -8048,38 +8057,38 @@
       <c r="G119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question, and it's one that many people struggle with.  Let's break down the answer:
-**Yes, there are medications that can help with nausea and allow fluids to stay down.**  However, it's important to understand that the best approach is often a combination of strategies. 
-**Here's a breakdown of common options:**
-**1. Anti-nausea Medications:**
-* **Antihistamines:**  These are often the first line of defense.  Examples include Dramamine (dimenhydrinate) and Bonine (meclizine). They work by blocking the effects of histamine, a chemical involved in allergic reactions. They can be effective for motion sickness and some types of nausea.
-* **Anti-emetics:** These medications work on the central nervous system to suppress nausea and vomiting.  Examples include:
-    * **Metoclopramide (Reglan):**  This is a dopamine antagonist that helps move food through the digestive tract. It can be helpful for nausea caused by chemotherapy, surgery, or other medical conditions.
-    * **Ondansetron (Zofran):**  This is a serotonin antagonist and is often used for nausea and vomiting caused by chemotherapy, surgery, or other medical conditions.
-    * **Promethazine (Phenergan):**  This is a phenothiazine derivative that can be used for nausea and vomiting, but it can also cause drowsiness.
-* **Ginger:**  Ginger has long been used for nausea relief. It's thought to work by reducing inflammation and stimulating the digestive system.  Ginger can be taken in capsule form, as tea, or as a supplement.
-**2. Lifestyle and Dietary Strategies:**
-* **Small, Frequent Meals:**  Eating smaller portions more frequently can help prevent overwhelming your stomach.
-* **Bland Foods:**  Stick to bland foods like toast, crackers, rice, and bananas. These are easier to digest and less likely to trigger nausea.
-* **Hydration:**  Dehydration can worsen nausea.  Sip on clear fluids like water, broth, or electrolyte drinks.
-* **Avoid Triggers:**  Identify and avoid foods or activities that trigger your nausea.
-* **Rest:**  Get plenty of rest to allow your body to recover.
-**Important Considerations:**
-* **Underlying Cause:**  It's crucial to determine the underlying cause of your nausea.  If it's persistent or severe, it's essential to consult a doctor to rule out any serious medical conditions.
-* **Medication Interactions:**  Be sure to inform your doctor about all medications you are taking, as some anti-nausea medications can interact with other drugs.
-* **Side Effects:**  All medications have potential side effects.  Be aware of these and discuss them with your doctor.
-* **Individual Response:**  The effectiveness of medications can vary from person to person.  It may take some trial and error to find the right medication and dosage for you.
-**When to See a Doctor:**
-* **Severe or Persistent Nausea:**  If your nausea is severe or doesn't improve with over-the-counter medications, see a doctor.
-* **Vomiting Blood:**  This is a serious symptom that requires immediate medical attention.
-* **Fever:**  A fever along with nausea can indicate an infection.
-* **Other Symptoms:**  If you experience other symptoms like abdominal pain, diarrhea, or dizziness, seek medical advice.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+You're asking a great question, and it's important to address it with the right information.  
+**There are indeed medications that can help with nausea and vomiting, which can be crucial for keeping fluids down.**  
+Here's a breakdown of what you need to know:
+**1. Understanding the Cause:**
+* **Underlying Cause:**  Nausea and vomiting are often symptoms of an underlying condition. It's crucial to identify the cause to determine the most effective treatment. Common causes include:
+    * **Gastrointestinal Issues:**  Gastroenteritis (stomach flu), food poisoning, ulcers, irritable bowel syndrome (IBS), etc.
+    * **Medications:** Some medications can cause nausea as a side effect.
+    * **Pregnancy:** Morning sickness and other pregnancy-related nausea are common.
+    * **Motion Sickness:**  This is often triggered by travel or specific environments.
+    * **Anxiety and Stress:**  These can trigger nausea and vomiting.
+    * **Other Medical Conditions:**  Certain medical conditions, like migraines, can also cause nausea.
+**2. Medications for Nausea and Vomiting:**
+* **Anti-emetics:** These are the primary medications for nausea and vomiting. They work by targeting the areas of the brain that control vomiting. 
+    * **5-HT3 Receptor Antagonists:**  (Ondansetron, Granisetron) These are often used for nausea and vomiting associated with chemotherapy, surgery, and other medical procedures.
+    * **Dopamine Receptor Antagonists:** (Prochlorperazine, Metoclopramide) These can be helpful for nausea and vomiting caused by motion sickness, migraines, and other conditions.
+    * **Antihistamines:** (Dimenhydrinate, Meclizine) These are often used for motion sickness.
+    * **Anti-nausea Medications:** (Scopolamine, Dimenhydrinate) These can be helpful for nausea and vomiting associated with motion sickness, migraines, and other conditions.
+**3.  Important Considerations:**
+* **Prescription vs. Over-the-Counter:**  Anti-nausea medications can be available over-the-counter (OTC) or by prescription. It's important to consult with a doctor to determine the appropriate medication and dosage for your specific situation.
+* **Timing:**  It's important to take anti-nausea medications as soon as possible after experiencing nausea or vomiting.
+* **Side Effects:**  Like all medications, anti-nausea medications can have side effects. It's important to discuss these with your doctor.
+* **Underlying Conditions:**  Some medications may not be suitable for people with certain medical conditions. 
+* **Fluid Intake:**  While anti-nausea medications can help with keeping fluids down, it's still important to stay hydrated. 
+**4.  When to See a Doctor:**
+* **Severe Nausea and Vomiting:**  If you experience severe nausea and vomiting that doesn't improve with over-the-counter medications, or if it's accompanied by other symptoms like fever, abdominal pain, or blood in your vomit, seek medical attention immediately.
+* **Persistent Nausea and Vomiting:**  If your nausea and vomiting persist for more than a few days, it's important to see a doctor to rule out any underlying medical conditions.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -8118,32 +8127,26 @@
       <c r="G120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for ways to manage excessive sweating, also known as hyperhidrosis.  While I can't provide medical advice, I can offer some information about medications that are commonly used to treat this condition. 
-**Important:** It's crucial to consult with a qualified medical professional for a proper diagnosis and personalized treatment plan. 
-Here's what I can tell you about medications for hyperhidrosis:
-**1. Anticholinergics:**
-* **Mechanism:** These medications block the action of acetylcholine, a neurotransmitter that stimulates sweat glands.
-* **Examples:**  
-    * **Glycopyrrolate:** Available in oral and topical forms.
-    * **Oxybutynin:** Available in oral and topical forms.
-    * **Tiotropium:**  Available in inhaler form.
-* **Effectiveness:**  They can be effective for moderate to severe sweating, but they may cause side effects like dry mouth, constipation, and urinary retention.
-**2. Beta-Blockers:**
-* **Mechanism:** These medications block the effects of adrenaline, a hormone that triggers sweating.
-* **Examples:**  
-    * **Propranolol:** Available in oral and intravenous forms.
-* **Effectiveness:**  They can be effective for localized sweating, but they may not be suitable for everyone.
-**3. Iontophoresis:**
-* **Mechanism:** This non-invasive treatment uses a mild electrical current to temporarily block sweat glands.
-* **Effectiveness:**  It can be effective for some individuals, but it requires regular treatments and may not be suitable for everyone.
-**4. Botox:**
-* **Mechanism:**  Botox injections block nerve signals that stimulate sweat glands.
-* **Effectiveness:**  It can be effective for moderate to severe sweating, but it requires multiple injections and may not last forever.
-**5. Prescription-strength Antiperspirants:**
-* **Mechanism:** These contain aluminum chloride, which helps block sweat ducts.
-* **Effectiveness:**  They can be effective for reducing sweating, but they may not be suitable for everyone.
-**Before starting any medication or treatment, it's essential to discuss your medical history, allergies, and any other medications you're taking with your doctor.** They can help determine the best course of action for your specific situation. 
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+I understand you're looking for ways to manage excessive sweating.  While I can't provide medical advice, I can offer some information about medications that might be helpful. 
+**Important Note:** I am an AI and cannot diagnose or prescribe medication.  It's crucial to consult a doctor for a proper diagnosis and personalized treatment plan. 
+**Here's what a doctor might consider:**
+* **Underlying Medical Conditions:** Excessive sweating (hyperhidrosis) can be caused by various factors, including:
+    * **Primary Hyperhidrosis:** A genetic condition causing excessive sweating.
+    * **Secondary Hyperhidrosis:**  Triggered by other medical conditions like thyroid disorders, diabetes, or menopause.
+    * **Medications:** Certain medications can cause sweating as a side effect.
+* **Treatment Options:**  A doctor might recommend:
+    * **Anticholinergic Medications:** These medications block the nerve signals that trigger sweat glands. Examples include:
+        * **Glycopyrrolate:** Available in oral and topical forms.
+        * **Oxybutynin:** Available in oral and topical forms.
+    * **Iontophoresis:** A treatment using a mild electrical current to reduce sweat gland activity.
+    * **Botox Injections:**  Botox can temporarily block nerve signals to sweat glands.
+    * **Prescription-Strength Antiperspirants:** These contain aluminum chloride, which helps block sweat ducts.
+    * **Lifestyle Changes:**  
+        * **Clothing:**  Wearing breathable fabrics and loose-fitting clothing can help.
+        * **Stress Management:**  Stress can trigger sweating. Techniques like exercise, meditation, and deep breathing can be helpful.
+        * **Diet:**  Some foods can trigger sweating.  
+**Before starting any medication, it's essential to discuss it with your doctor.** They can assess your individual situation, determine the cause of your excessive sweating, and recommend the most appropriate treatment plan. 
+Remember, self-treating can be dangerous. Always consult a medical professional for personalized advice and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -8151,7 +8154,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -8190,30 +8193,36 @@
       <c r="G121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're feeling faint, and that's a serious concern. I can't give medical advice, but I can tell you what to do and what to look for. 
-**It's crucial to seek immediate medical attention if you're experiencing dizziness or fainting.** This could be a sign of a serious underlying condition. 
-**Here's what you should do:**
-1. **Seek immediate medical attention:** Call emergency services (911 in the US) or go to the nearest emergency room. 
-2. **Stay calm:**  Panic can worsen your symptoms. Try to relax and focus on your breathing.
-3. **Sit or lie down:**  Avoid standing up abruptly. 
-4. **Elevate your legs:** If possible, raise your legs slightly above your heart.
-5. **Stay hydrated:** Sip water or juice slowly. Dehydration can contribute to dizziness.
-6. **Avoid caffeine and alcohol:** These substances can worsen dizziness.
-**Possible Causes of Fainting:**
-* **Dehydration:** Not drinking enough fluids can lead to low blood pressure and dizziness.
-* **Low blood sugar:**  This can happen if you haven't eaten in a while.
-* **Low blood pressure:** This can be caused by standing up too quickly, dehydration, or certain medications.
-* **Heart problems:**  Fainting can be a symptom of heart conditions like arrhythmias or heart failure.
-* **Neurological problems:**  Conditions like migraines, seizures, or brain tumors can cause dizziness.
-* **Medication side effects:** Some medications can cause dizziness as a side effect.
-* **Anxiety or panic attacks:**  These can trigger a sudden drop in blood pressure and fainting.
-**Important Note:**  This information is not a substitute for professional medical advice.  It's essential to consult a doctor to determine the underlying cause of your dizziness and receive appropriate treatment. 
-**Remember:**  Don't hesitate to seek medical attention if you're experiencing dizziness or fainting. Your health is paramount. 
+I understand you're feeling faint, and that's a serious concern. I can't give medical advice, but I can tell you what to do and when to seek professional help. 
+**Possible Causes of Fainting (Syncope):**
+Fainting, or syncope, can be caused by a variety of factors, some harmless and some serious.  Here are some common causes:
+* **Dehydration:** Not drinking enough fluids can lead to low blood volume, causing dizziness and fainting.
+* **Low Blood Sugar:**  This can happen if you haven't eaten in a while or have a condition like diabetes.
+* **Orthostatic Hypotension:**  This is a drop in blood pressure when you stand up too quickly.
+* **Heart Conditions:**  Conditions like arrhythmias (irregular heartbeats) or heart valve problems can cause fainting.
+* **Neurological Conditions:**  Conditions like migraines, seizures, or brain tumors can also cause fainting.
+* **Medication Side Effects:**  Some medications can cause dizziness or fainting as a side effect.
+* **Anxiety or Panic Attacks:**  These can trigger a sudden drop in blood pressure and fainting.
+* **Pregnancy:**  Hormonal changes and increased blood volume during pregnancy can lead to fainting.
+**What to Do:**
+1. **Stay Calm:**  Panic can worsen the situation. Take deep breaths and try to relax.
+2. **Sit or Lie Down:**  If you're standing, find a safe place to sit or lie down.
+3. **Elevate Your Legs:**  If you're lying down, elevate your legs slightly to improve blood flow.
+4. **Drink Water:**  If you're dehydrated, drink some water slowly.
+5. **Seek Medical Attention:**  If you faint frequently, have a history of heart problems, or experience other symptoms like chest pain, shortness of breath, or confusion, seek medical attention immediately.
+**Important:**
+* **Don't Drive Yourself:**  If you faint, don't drive yourself to the hospital. Call for help.
+* **Keep a Record:**  Keep track of when you faint, what you were doing, and any potential triggers. This information can be helpful for your doctor.
+**When to See a Doctor:**
+* **Frequent Fainting:**  If you faint more than once a month, see a doctor.
+* **Sudden Onset:**  If you faint suddenly without any warning, see a doctor.
+* **Other Symptoms:**  If you experience chest pain, shortness of breath, confusion, or other symptoms along with fainting, seek medical attention immediately.
+**Remember:** I am not a medical professional. This information is for general knowledge only and should not be considered medical advice. Please consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -8252,40 +8261,28 @@
       <c r="G122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for pain relief options beyond ibuprofen.  While I can't provide medical advice, I can offer information about some alternatives. 
-**Important:** It's crucial to consult with your doctor or a qualified healthcare professional before starting any new medication or treatment. They can assess your specific situation, consider potential interactions, and recommend the best course of action for you.
-Here are some non-ibuprofen options for pain management:
-**Over-the-Counter Options:**
-* **Acetaminophen (Tylenol):** This is a common pain reliever and fever reducer. It's generally safe for most people, but it can cause liver damage in high doses.
-* **Naproxen (Aleve):** This is another non-steroidal anti-inflammatory drug (NSAID) that can help reduce pain and inflammation. It's available in both tablet and liquid form.
-* **Topical Creams:**  These can be helpful for localized pain, such as muscle aches or joint pain. Examples include:
-    * **Capsaicin:** Found in creams and patches, it can help reduce pain by blocking pain signals.
-    * **Menthol:**  Can provide temporary relief from pain and inflammation.
-* **Other OTC Options:**  Some other options include:
-    * **Tramadol:** A prescription pain reliever that can be used for moderate to severe pain.
-    * **Duloxetine (Cymbalta):** A medication used to treat chronic pain, depression, and anxiety.
-**Natural Remedies:**
-* **Heat or Cold Therapy:** Applying heat or cold to the affected area can help reduce pain and inflammation.
-* **Massage:**  Can help relax muscles and reduce pain.
-* **Acupuncture:**  A traditional Chinese medicine technique that involves inserting thin needles into specific points on the body.
-* **Yoga and Exercise:**  Regular physical activity can help improve flexibility and reduce pain.
-**Prescription Medications:**
-* **Opioids:**  These are powerful pain relievers that can be effective for severe pain, but they come with risks of addiction and overdose. They are typically prescribed for short-term use.
-* **Antidepressants:**  Some antidepressants, like duloxetine, can be used to treat chronic pain.
-**Remember:**
-* **Underlying Conditions:**  Certain conditions, like kidney disease or liver disease, may make it unsafe to take certain medications.
-* **Drug Interactions:**  Some medications can interact with each other, so it's important to tell your doctor about all the medications you're taking.
-* **Dosage:**  It's important to take medications as directed by your doctor.
-* **Side Effects:**  All medications have potential side effects.
-**Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your pain and explore the best treatment options for you.** 
+I understand you're looking for pain relief options beyond ibuprofen.  While I can't give medical advice, I can offer some information about alternatives. 
+**Important:**  It's crucial to consult with your doctor or a qualified healthcare professional before starting any new medication or treatment. They can assess your specific situation, consider potential interactions, and recommend the best course of action for you.
+**Here are some non-ibuprofen pain relief options:**
+* **Acetaminophen (Tylenol):** This is another common over-the-counter pain reliever that works differently than ibuprofen. It's often used for headaches, muscle aches, and fever. 
+* **Topical Pain Relievers:** Creams, gels, or patches containing ingredients like menthol, capsaicin, or lidocaine can provide localized pain relief. These are often used for muscle aches, joint pain, and arthritis.
+* **Naproxen (Aleve):** This is another non-steroidal anti-inflammatory drug (NSAID) that works similarly to ibuprofen but has a longer duration of action.
+* **Prescription Medications:** Your doctor may prescribe stronger pain relievers, such as opioids, if other options aren't effective. 
+* **Alternative Therapies:** Some people find relief from pain through alternative therapies like acupuncture, massage, or yoga. 
+**Things to Consider:**
+* **Underlying Cause:**  It's important to understand the cause of your pain.  Treating the underlying issue is often the most effective way to manage pain long-term.
+* **Allergies:** Be sure to check for any allergies to medications before taking them.
+* **Drug Interactions:** Some medications can interact with each other, so it's important to tell your doctor about all the medications you're taking.
+* **Side Effects:**  All medications have potential side effects. Be aware of these and report any unusual symptoms to your doctor.
+**Remember:**  I am not a medical professional. This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -8356,10 +8353,10 @@
         </is>
       </c>
       <c r="H123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -8406,26 +8403,26 @@
 * **Allergic Reactions:**  While rare, some people can experience allergic reactions to minoxidil, which can range from mild skin irritation to more serious reactions like hives or difficulty breathing.
 **Important Considerations:**
 * **Pregnancy and Breastfeeding:**  Minoxidil is not recommended for pregnant or breastfeeding women.
-* **Interactions with Other Medications:**  Minoxidil can interact with certain medications, including blood thinners, antidepressants, and blood pressure medications. It's crucial to inform your doctor about all medications you're taking before starting minoxidil.
+* **Interactions:**  Minoxidil can interact with certain medications, including blood thinners, antidepressants, and blood pressure medications. It's crucial to inform your doctor about all medications you're taking before starting minoxidil.
 * **Dosage:**  The dosage of minoxidil varies depending on the individual and the severity of hair loss. Your doctor will determine the appropriate dosage for you.
 * **Consistency:**  Minoxidil is most effective when used consistently. You'll need to apply it twice a day to see results.
 * **Results:**  It can take several months to see noticeable results from minoxidil. 
-**What to Do if You Experience Side Effects:**
+**What to Do If You Experience Side Effects:**
 * **Stop using minoxidil and contact your doctor immediately.**
 * **If you experience any severe side effects, seek medical attention immediately.**
 **Remember:**
 * Minoxidil is not a cure for hair loss, but it can help slow down hair loss and promote hair regrowth.
-* It's important to follow your doctor's instructions carefully and to be patient.
-* If you have any concerns about minoxidil, talk to your doctor.
+* It's important to follow your doctor's instructions carefully and to be patient. 
+* If you have any concerns about minoxidil, talk to your doctor. They can help you weigh the risks and benefits and determine if it's the right treatment for you.
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -8461,40 +8458,36 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about anal fissures and potential treatments.  
-As a helpful and harmless AI, I can't provide medical advice.  **It's crucial to consult a doctor for diagnosis and treatment of any medical condition.** 
-However, I can share some general information about anal fissures and common treatment approaches:
-**What is an Anal Fissure?**
-An anal fissure is a small tear in the lining of the anus. It can be caused by:
-* **Straining during bowel movements:** This is the most common cause.
-* **Constipation:** Hard stools can put pressure on the anus.
-* **Anal intercourse:** This can cause tears.
-* **Inflammatory bowel disease:** Conditions like Crohn's disease and ulcerative colitis can lead to fissures.
-* **Pregnancy:** Hormonal changes and pressure from the growing baby can cause fissures.
-**Treatment Options:**
-* **Lifestyle changes:** 
-    * **Dietary changes:** Increasing fiber intake and drinking plenty of fluids can help soften stools and prevent constipation.
-    * **Regular exercise:** This can help with bowel regularity.
-    * **Avoiding straining:** This is crucial to prevent further tearing.
-* **Over-the-counter medications:**
-    * **Topical creams:** These can help soothe the pain and promote healing.
-    * **Stool softeners:** These can make stools easier to pass.
+**It's important to remember that I am an AI and cannot provide medical advice.  The information below is for general knowledge only and should not be substituted for the guidance of a qualified healthcare professional.**
+Anal fissures are small tears in the lining of the anus. They can be caused by constipation, diarrhea, straining during bowel movements, or even childbirth. 
+**Here's what a doctor might recommend for anal fissures:**
+**1. Lifestyle Changes:**
+* **Dietary Changes:**  
+    * **Increase fiber intake:**  This helps soften stools and makes them easier to pass. Good sources include fruits, vegetables, whole grains, and legumes.
+    * **Drink plenty of fluids:**  Staying hydrated helps prevent constipation.
+    * **Avoid straining:**  This can worsen the fissure.
+* **Over-the-counter remedies:**
+    * **Topical creams or ointments:**  These can help soften the stool and reduce pain. Examples include:
+        * **Docusate sodium (Colace):**  A stool softener.
+        * **Hydrocortisone cream:**  Can help reduce inflammation.
+    * **Sitz baths:**  Soaking in warm water for 10-15 minutes can soothe the area.
+**2. Medical Treatment:**
 * **Prescription medications:**
-    * **Pain relievers:** These can help manage pain and discomfort.
-    * **Antibiotics:** These may be prescribed if an infection is present.
+    * **Topical medications:**  These can be stronger than over-the-counter options and may be prescribed for more severe cases.
+    * **Oral medications:**  In some cases, your doctor may prescribe antibiotics to treat infection.
 * **Procedures:**
-    * **Rubber band ligation:** This involves tying off the fissure with a rubber band to encourage healing.
-    * **Laser therapy:** This uses a laser to cauterize the fissure and promote healing.
-    * **Surgery:** This is rarely needed but may be recommended in severe cases.
-**Important Notes:**
-* **See a doctor:** It's essential to see a doctor for a proper diagnosis and treatment plan. 
-* **Don't self-treat:**  Using home remedies without medical guidance can be ineffective and potentially harmful.
-* **Follow your doctor's instructions:**  Adhering to the prescribed treatment plan is crucial for successful healing.
-Remember, I am an AI and cannot provide medical advice. Please consult a qualified healthcare professional for any health concerns. 
+    * **Laser therapy:**  This can help to seal the fissure and reduce pain.
+    * **Surgery:**  This is rarely needed but may be recommended for severe cases that don't respond to other treatments.
+**Important Considerations:**
+* **See a doctor:**  It's crucial to see a doctor for a diagnosis and treatment plan. They can determine the severity of your fissure and recommend the best course of action.
+* **Self-treating can be dangerous:**  Ignoring a fissure can lead to complications like bleeding, infection, and chronic pain.
+* **Follow your doctor's instructions:**  Take any prescribed medications as directed and follow any dietary or lifestyle recommendations.
+**Remember, this information is for general knowledge only. Please consult a qualified healthcare professional for personalized advice and treatment.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -8562,7 +8555,7 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -8602,34 +8595,32 @@
       <c r="G127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a common struggle!  You're asking about ambient sounds, and yes, they can be a powerful tool for sleep, especially when you're facing a big presentation. 
-Here's the breakdown:
-**What is Ambient Sound?**
-Ambient sounds are soundscapes designed to create a calming and relaxing atmosphere. They often feature natural sounds like rain, ocean waves, or forest noises, but can also include synthesized sounds like white noise, binaural beats, or even calming music.
-**How Can Ambient Sounds Help with Sleep?**
-* **Noise Masking:**  Ambient sounds can help mask distracting noises, like traffic or chatter, which can interfere with sleep. This is especially helpful if you live in a noisy environment or have a restless sleep.
-* **Brainwave Entrainment:** Some ambient sounds, like binaural beats, can influence your brainwaves, potentially promoting relaxation and sleep.
-* **Stress Reduction:**  The calming nature of ambient sounds can help reduce stress and anxiety, which are common culprits for sleep problems.
-* **Improved Focus:**  For some, the soothing sounds of ambient music can help clear their mind and improve focus, which can be helpful before a big presentation.
-**Types of Ambient Sounds for Sleep:**
-* **Nature Sounds:** Rain, ocean waves, forest sounds, wind chimes, crackling fire.
-* **White Noise:** A steady, consistent sound that masks other noises.
-* **Pink Noise:** A sound with a lower frequency range, which can be more relaxing than white noise.
-* **Binaural Beats:** Sounds designed to induce specific brainwave frequencies, often used for relaxation and meditation.
-* **Calming Music:**  Classical music, ambient music, or nature-inspired melodies.
-**Tips for Using Ambient Sounds for Sleep:**
-* **Experiment:**  Try different types of ambient sounds to find what works best for you.
-* **Start Low:**  Begin with a low volume and gradually increase it until you find a comfortable level.
-* **Consistency:**  Use ambient sounds consistently to help train your brain to associate them with sleep.
-* **Combine with Other Sleep Hygiene Practices:**  Ambient sounds are most effective when combined with good sleep hygiene practices, such as a regular sleep schedule, a relaxing bedtime routine, and a comfortable sleep environment.
-**Important Note:**
-While ambient sounds can be helpful, they are not a substitute for proper sleep hygiene or medical advice. If you have persistent sleep problems, consult a doctor or sleep specialist. 
+Ah, a common struggle!  You're asking about ambient sounds, and yes, they can be a powerful tool for sleep, especially when you're facing a big presentation or other stressful event. 
+Here's what I know about ambient sounds and their potential benefits:
+**How Ambient Sounds Work:**
+* **Noise Masking:**  Ambient sounds, like rain, ocean waves, or white noise, can mask the distracting noises of your environment. This helps your brain focus on calming sounds instead of external stimuli, making it easier to fall asleep.
+* **Brainwave Entrainment:**  Some ambient sounds, like binaural beats or nature sounds, can influence your brainwaves, potentially promoting relaxation and sleep. 
+* **Stress Reduction:**  The calming nature of ambient sounds can help reduce stress and anxiety, which are often major contributors to sleep problems.
+**Types of Ambient Sounds:**
+* **Nature Sounds:** Rain, ocean waves, forest sounds, wind chimes, crackling fire, etc.
+* **White Noise:** A steady, consistent sound like a fan or static.
+* **Pink Noise:** A sound with a gradual decrease in volume, often described as "brown noise."
+* **Binaural Beats:** Two slightly different frequencies played in each ear, creating a pulsing sensation that can induce relaxation.
+**Things to Consider:**
+* **Personal Preference:**  What works for one person might not work for another. Experiment with different types of ambient sounds to find what suits you best.
+* **Volume:**  Keep the volume low enough that it's not too distracting, but high enough to mask other noises.
+* **Consistency:**  Use ambient sounds consistently to help your brain associate them with sleep.
+* **Quality:**  Choose high-quality recordings with minimal distortion.
+**Beyond Ambient Sounds:**
+* **Relaxation Techniques:**  Deep breathing exercises, meditation, and progressive muscle relaxation can also help you relax and prepare for sleep.
+* **Sleep Hygiene:**  Maintaining a regular sleep schedule, creating a relaxing bedtime routine, and avoiding caffeine and alcohol before bed are crucial for good sleep.
+**Important Note:**  While ambient sounds can be helpful, they are not a substitute for proper sleep hygiene or medical advice. If you have persistent sleep problems, consult a doctor or sleep specialist. 
 Let me know if you'd like to explore specific types of ambient sounds or have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -8665,19 +8656,19 @@
       <c r="G128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a very important question about a common fungal infection.  Let's break down what you need to know about **tinea capitis** and its contagiousness:
-**Tinea capitis** is a fungal infection that affects the scalp. It's often called "ringworm" of the scalp, but it's not actually a worm. It's caused by a type of fungus called dermatophytes.
-**Is it contagious?**
-**Yes, tinea capitis is highly contagious.**  Here's why:
-* **Fungal spores:** The fungus that causes tinea capitis spreads through tiny fungal spores that are easily airborne. These spores can travel through the air and land on the scalp of someone else.
-* **Direct contact:**  You can also get tinea capitis by direct contact with an infected person, their hair, or their scalp.
-* **Sharing personal items:**  Sharing hats, combs, brushes, towels, or other personal items that have come into contact with an infected person can also spread the fungus.
-**How to prevent it:**
-* **Good hygiene:**  Wash your hair regularly with a mild shampoo and avoid sharing personal items.
-* **Avoid contact with infected individuals:**  If you know someone has tinea capitis, try to avoid close contact with them.
-* **Keep your scalp clean:**  Keep your scalp clean and dry to prevent fungal growth.
-* **Treat infected individuals:**  Prompt treatment of tinea capitis in an infected person can help prevent the spread of the fungus.
-**Important Note:**  If you suspect you or someone you know has tinea capitis, it's crucial to see a doctor for proper diagnosis and treatment.  Self-treating can be ineffective and may even worsen the condition. 
+You're asking a great question about a common fungal infection.  Let's break down the contagiousness of tinea capitis:
+**Tinea capitis, or ringworm of the scalp, is indeed contagious.**  Here's why:
+* **Fungal Spores:**  The fungus that causes tinea capitis, *Trichophyton*, spreads through microscopic fungal spores. These spores are easily airborne and can travel through the air, landing on hair, skin, and even surfaces.
+* **Direct Contact:**  The most common way to get tinea capitis is through direct contact with an infected person, their hair, or contaminated objects. This can happen through:
+    * Sharing hats, combs, brushes, towels, or other personal items.
+    * Touching an infected person's scalp.
+    * Contact with contaminated surfaces.
+* **Indirect Contact:**  While less common, you can also get tinea capitis through indirect contact with contaminated objects. This can happen if you touch a surface that has the fungus on it and then touch your scalp.
+**Important Considerations:**
+* **Not everyone who comes into contact with the fungus will get infected.**  Factors like your immune system, the type of fungus involved, and the amount of exposure all play a role.
+* **It's important to treat tinea capitis promptly.**  This helps prevent the spread of the fungus and reduces the risk of complications.
+* **Good hygiene practices are crucial.**  Washing your hair regularly, avoiding sharing personal items, and keeping your scalp clean can help prevent infection.
+**If you suspect you have tinea capitis, it's essential to see a doctor for diagnosis and treatment.** They can prescribe antifungal medications to clear the infection. 
 Let me know if you have any other questions about tinea capitis or any other medical concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -8686,7 +8677,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8727,25 +8718,23 @@
       <c r="G129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're curious about viral pharyngitis!  Let's break down the relationship between allergies and this common condition.
-**Viral Pharyngitis: The Basics**
-Viral pharyngitis, also known as a "sore throat," is an inflammation of the pharynx (the back of the throat). It's most commonly caused by viruses like the common cold, influenza, or Epstein-Barr virus. 
-**Allergies and Sore Throats: A Complex Relationship**
-While viral pharyngitis is primarily caused by viruses, allergies can definitely play a role in how you experience it. Here's how:
-* **Triggers:**  Allergies can trigger inflammation in the throat, making it more susceptible to irritation and discomfort.  
-    * **Examples:**  Dust mites, pollen, pet dander, mold, and certain foods can all trigger allergic reactions in the throat.
-* **Symptoms:**  Allergies can exacerbate the symptoms of viral pharyngitis, making them feel worse. 
-    * **Examples:**  A runny nose, itchy eyes, and a cough can all make a sore throat feel more uncomfortable.
-* **Delayed Diagnosis:**  Sometimes, allergies can mimic the symptoms of viral pharyngitis, leading to delayed diagnosis and treatment.
-**Important Distinction:**
-It's crucial to understand that viral pharyngitis is **not** an allergy. It's a viral infection, and the inflammation is caused by the virus itself. Allergies, on the other hand, are immune system responses to specific substances (allergens).
-**When to See a Doctor:**
-While most cases of viral pharyngitis resolve on their own within a week or two, it's important to see a doctor if:
-* **Symptoms are severe:**  If you have difficulty swallowing, a high fever, or other concerning symptoms, seek medical attention.
-* **Symptoms persist:**  If your sore throat doesn't improve after a week or two, or if you develop new symptoms, consult a doctor.
-* **You have a history of allergies:**  If you have allergies, it's important to discuss your symptoms with a doctor to rule out any potential allergic reactions.
-**In Conclusion:**
-While allergies can contribute to the discomfort of a sore throat, viral pharyngitis is not an allergy.  If you're concerned about your sore throat, it's always best to consult a doctor for proper diagnosis and treatment. 
+That's a great question!  While viral pharyngitis (also known as a sore throat) is often associated with allergies, it's important to understand that they are **not** the same thing. 
+Here's a breakdown:
+**Viral Pharyngitis:**
+* **Cause:** Caused by viruses like the common cold, influenza, or Epstein-Barr virus.
+* **Symptoms:** Sore throat, scratchy throat, cough, runny nose, congestion, headache, fever, and swollen lymph nodes.
+* **Treatment:**  Rest, fluids, over-the-counter pain relievers, and throat lozenges.  Antibiotics are not effective against viruses.
+**Allergies:**
+* **Cause:**  An immune system reaction to an allergen, such as pollen, dust mites, pet dander, mold, or certain foods.
+* **Symptoms:**  Runny nose, sneezing, itchy eyes, watery eyes, congestion, coughing, wheezing, and skin rashes.
+* **Treatment:**  Antihistamines, decongestants, nasal corticosteroids, and allergy shots.
+**The Connection:**
+* **Shared Symptoms:**  Both viral pharyngitis and allergies can cause a sore throat, cough, and congestion. 
+* **Triggers:**  Allergies can sometimes trigger a sore throat, especially if the throat is already irritated. For example, someone with seasonal allergies might experience a sore throat due to the pollen they're exposed to.
+* **Viral Infections and Allergies:**  It's possible to have both a viral infection and an allergy at the same time. 
+**Key Takeaway:**
+Viral pharyngitis is primarily caused by viruses, while allergies are caused by immune system reactions to specific substances. While they can share some symptoms, they are distinct conditions. 
+**Important Note:**  If you're experiencing a sore throat, it's always best to consult with a healthcare professional for proper diagnosis and treatment. They can help determine the cause of your sore throat and recommend the most appropriate course of action. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -8795,39 +8784,39 @@
 You're right to ask about pharmaceutical options for keratosis pilaris (KP). While it's a common skin condition, it can be frustrating and sometimes embarrassing.  
 Here's what I can tell you about pharmaceutical treatments for KP:
 **1. Topical Treatments:**
-* **Salicylic Acid:** This is the most common and effective treatment. It works by exfoliating the skin, removing the keratin plugs that cause KP bumps.  
+* **Salicylic Acid:** This is the most common and often the first-line treatment. It works by exfoliating the skin, removing the keratin plugs that cause KP bumps.  
     * **Forms:** Available as creams, lotions, washes, and even scrubs. 
-    * **Frequency:**  Usually applied 2-3 times a day.
-    * **Effectiveness:**  Can significantly improve KP, but it may take several weeks to see results.
-* **Retinoids:**  Vitamin A derivatives like tretinoin, adapalene, and tazarotene can help unclog pores and reduce inflammation. 
+    * **Effectiveness:**  Can be very effective, especially when used consistently.
+    * **Considerations:**  Can cause dryness and irritation, especially at the beginning. 
+* **Retinoids:**  Vitamin A derivatives like tretinoin (Retin-A) can help unclog pores and improve skin texture. 
     * **Forms:** Creams, gels, and lotions.
-    * **Frequency:**  Usually applied at night.
-    * **Effectiveness:**  Can be very effective, but they can also cause dryness, redness, and peeling.
+    * **Effectiveness:**  Can be very effective, but it can take several weeks to see results.
+    * **Considerations:**  Can cause dryness, redness, and peeling, especially at the beginning. 
 * **Other Topical Treatments:**
     * **Alpha Hydroxy Acids (AHAs):**  Like glycolic acid, can help exfoliate the skin.
     * **Urea:**  Can help soften the skin and reduce the appearance of bumps.
-    * **Moisturizers:**  Essential for keeping the skin hydrated, especially with topical treatments.
+    * **Niacinamide:**  Can help improve skin texture and reduce inflammation.
 **2. Oral Medications:**
-* **Topical steroids:**  While not a first-line treatment, they can be used in severe cases to reduce inflammation and itching. 
-* **Antibiotics:**  May be prescribed if KP is associated with bacterial infection.
+* **Topical Corticosteroids:**  In some cases, your doctor might prescribe a stronger topical steroid cream for severe KP. 
+* **Antibiotics:**  Rarely, antibiotics might be used to treat bacterial infections that can occur with KP.
 **3. Other Considerations:**
-* **Lifestyle Changes:**  Keeping the skin moisturized, avoiding harsh soaps, and wearing loose-fitting clothing can help manage KP.
-* **Laser Therapy:**  Can be used to improve the appearance of KP, but it's not a cure.
-* **Chemical Peels:**  Can help improve KP, but they can also be irritating.
+* **Lifestyle Changes:**  Keeping your skin moisturized, avoiding harsh soaps, and wearing loose-fitting clothing can help manage KP.
+* **Laser Therapy:**  This can be an option for more severe cases, but it's not always covered by insurance.
+* **Chemical Peels:**  These can help improve skin texture and reduce the appearance of KP.
 **Important Notes:**
-* **Consult a Dermatologist:**  It's crucial to consult a dermatologist for a proper diagnosis and personalized treatment plan. They can assess your specific condition and recommend the most effective treatment options.
-* **Patch Test:**  Before using any new topical treatment, do a patch test on a small area of skin to check for allergies or irritation.
-* **Consistency is Key:**  Be patient and consistent with your treatment plan. It may take several weeks or months to see significant improvement.
-* **Individualized Treatment:**  The best treatment for KP will vary depending on the severity of the condition, individual skin type, and other factors.
-Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+* **Consult a Dermatologist:**  It's crucial to see a dermatologist for a proper diagnosis and personalized treatment plan. They can determine the best course of action based on your individual needs.
+* **Consistency is Key:**  Most treatments require consistent use for several weeks or months to see significant results.
+* **Side Effects:**  All medications have potential side effects. Be sure to discuss these with your doctor.
+* **Individual Response:**  The effectiveness of treatments can vary from person to person. 
+**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -8875,24 +8864,22 @@
 * **Risk Factors:** The risk of transmission is higher if you:
     * **Have direct contact with your cat's feces:** This includes scooping their litter box, cleaning their food and water bowls, or handling their feces.
     * **Don't practice good hygiene:**  Wash your hands thoroughly after handling your cat, their feces, or their environment.
-    * **Are not careful about food hygiene:**  Avoid feeding your cat raw meat or fish, as this can increase the risk of tapeworm infection.
+    * **Have a weakened immune system:** This can make you more susceptible to tapeworm infection.
 **How to Minimize Risk:**
-* **Regular Veterinary Care:**  Ensure your cat receives regular veterinary checkups and deworming treatments as recommended.
-* **Proper Hygiene:**  Wash your hands thoroughly after handling your cat, their feces, or their environment.
-* **Safe Food Handling:**  Avoid feeding your cat raw meat or fish.
-* **Clean Litter Box:**  Scoop your cat's litter box regularly and dispose of it properly.
-* **Avoid Contact with Feces:**  Do not allow your cat to lick your face or hands.
-* **Wash Bedding:**  Wash your cat's bedding regularly in hot water.
-**What to Do If You Suspect Exposure:**
-* **Consult a Doctor:**  If you have any concerns about potential exposure, consult your doctor. They can assess your risk and advise you on appropriate steps.
-* **Seek Veterinary Advice:**  If your cat has a tapeworm, your veterinarian can provide guidance on treatment and prevention.
-**Important Note:**  While tapeworm transmission from cats to humans is possible, it's important to remember that it's a relatively rare occurrence. By following good hygiene practices and taking your cat's health seriously, you can significantly reduce your risk. 
-Let me know if you have any other questions. 
+* **Regularly clean your cat's litter box:** This helps prevent the spread of tapeworm eggs.
+* **Wash your hands thoroughly:** After handling your cat, their feces, or their environment.
+* **Avoid contact with your cat's feces:**  Don't let your cat's feces come into contact with your food, water, or hands.
+* **Keep your cat's environment clean:**  Regularly clean your cat's food and water bowls, and their bedding.
+* **Consult your veterinarian:**  They can provide guidance on how to prevent tapeworm infection in your cat and minimize the risk to you.
+**Important Note:**
+* **Diagnosis:** If you suspect you might have a tapeworm infection, it's crucial to see a doctor. They can diagnose you and prescribe the appropriate treatment.
+* **Treatment:**  Tapeworm treatment is usually straightforward and involves medication. 
+**Remember:**  While the risk of transmission from cats to humans is relatively low, it's always best to take precautions to minimize the risk.  If you have any concerns, don't hesitate to consult your doctor or veterinarian. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -8928,24 +8915,23 @@
       <c r="G132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're interested in understanding the genetic component of PCOS. You're right to be curious, as genetics definitely play a role in this condition. 
+It's great that you're interested in understanding the genetic aspects of PCOS. You're right to think about genetics, as it plays a significant role in this condition. 
 Here's what I can tell you:
-**Yes, there is a genetic component to PCOS.** While it's not a simple case of "one gene causes PCOS," research has shown that certain genes can increase the risk of developing the condition. 
-**Here's a breakdown of how genetics works in PCOS:**
-* **Polygenic:** PCOS is a complex condition, meaning it's influenced by multiple genes, not just one. 
-* **Family History:** Having a close relative with PCOS significantly increases your risk. This suggests a strong genetic link.
-* **Specific Genes:** Research has identified several genes that are associated with PCOS. These genes are involved in hormone production, insulin sensitivity, and other processes that are disrupted in PCOS.
-* **Genetic Testing:** While not routinely recommended for everyone, genetic testing can be helpful for individuals with a strong family history of PCOS. It can identify specific gene variants that increase the risk.
+**Yes, there is a genetic component to PCOS.** While not everyone with a family history of PCOS will develop it, genetics definitely contribute to the risk. 
+**Here's a breakdown of how genetics play a role:**
+* **Family History:** Having a close relative (parent, sibling, or child) with PCOS significantly increases your risk. This suggests a strong genetic link.
+* **Specific Genes:** Research has identified several genes that are associated with PCOS. These genes are involved in hormone production, insulin sensitivity, and other processes that are affected in PCOS. 
+* **Polygenic Nature:** PCOS is likely a complex condition influenced by multiple genes, each contributing a small effect. This means it's not just one single gene that causes PCOS, but rather a combination of genetic variations.
+* **Genetic Testing:** While not routinely recommended for everyone, genetic testing can be helpful for individuals with a strong family history of PCOS. It can identify specific gene variations that increase the risk.
 **Important Considerations:**
-* **Environmental Factors:** While genetics plays a role, it's important to remember that environmental factors also contribute to PCOS. These include factors like obesity, insulin resistance, and stress.
-* **Individual Variation:** Even with a genetic predisposition, not everyone with PCOS will develop the condition. 
+* **Environmental Factors:** While genetics play a role, it's important to remember that environmental factors also contribute to PCOS. These include factors like obesity, insulin resistance, and stress.
+* **Individual Variation:** Even with a family history of PCOS, not everyone will develop the condition. The interplay of genes and environmental factors is complex and unique to each individual.
 * **Diagnosis:** If you're concerned about PCOS, it's crucial to consult a healthcare professional. They can perform a thorough evaluation, including blood tests and ultrasound, to confirm the diagnosis.
 **What can you do?**
-* **Talk to your sister:** Encourage her to discuss her concerns with her doctor. 
+* **Talk to your sister:** Encourage her to discuss her PCOS with her doctor. They can provide personalized advice and treatment options.
 * **Family History:** If you have a family history of PCOS, talk to your doctor about genetic testing.
-* **Lifestyle Changes:** Maintaining a healthy weight, exercising regularly, and managing stress can help reduce the risk of developing PCOS or improve symptoms.
-**Remember:**  PCOS is a complex condition, and genetics is just one piece of the puzzle. A holistic approach that considers both genetic and environmental factors is essential for effective management and treatment. 
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+* **Lifestyle Changes:** Maintaining a healthy weight, exercising regularly, and managing stress can help improve insulin sensitivity and reduce PCOS symptoms.
+Remember, I'm an AI and cannot provide medical advice. The information above is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -8995,26 +8981,27 @@
 Here's what I can tell you about oral medications for foot fungus, but remember, I'm not a medical professional and this is not a substitute for a doctor's advice:
 **Common Oral Medications:**
 * **Terbinafine (Lamisil):** This is a very effective antifungal medication. It's often prescribed for toenail and fingernail fungus. It can take several weeks to see results.
-* **Fluconazole (Diflucan):** This is another common antifungal medication used for systemic fungal infections, including those affecting the feet. It's usually prescribed for more severe cases.
-* **Itraconazole (Sporanox):** This is another powerful antifungal medication that can be used for both systemic and topical fungal infections. It's often prescribed for more severe cases.
+* **Itraconazole (Sporanox):** This is another strong antifungal medication that can be used for toenail and fingernail fungus, as well as other fungal infections. It's usually taken for a longer period than terbinafine.
+* **Fluconazole (Diflucan):** This is a less common oral antifungal medication used for certain types of fungal infections, including those affecting the skin and nails.
 **Important Considerations:**
-* **Diagnosis:** It's crucial to get a proper diagnosis from a doctor.  They'll examine your wife's feet, possibly take a sample, and determine the type of fungus causing the issue. 
-* **Severity:** The type and severity of the fungal infection will determine the best course of treatment. 
+* **Diagnosis:** It's crucial to get a proper diagnosis from a doctor. They'll examine your wife's feet, possibly take a sample, and determine the specific type of fungus causing the issue. 
+* **Severity:** The type and severity of the infection will influence the choice of medication and treatment duration.
 * **Side Effects:** All medications have potential side effects. Your wife's doctor will discuss these with her and monitor her for any adverse reactions.
-* **Duration:** Treatment usually involves taking the medication for several weeks or even months. 
-* **Lifestyle Changes:**  In addition to medication, your wife may need to change her lifestyle to help prevent the fungus from returning. This might include keeping her feet clean and dry, wearing breathable shoes, and avoiding sharing personal items.
+* **Compliance:** Oral antifungal medications need to be taken consistently for the full course of treatment to be effective. 
+* **Other Treatments:** In some cases, topical antifungal creams or solutions may be used in conjunction with oral medications.
 **What to do next:**
-* **Schedule an appointment:** Encourage your wife to schedule an appointment with her doctor or a dermatologist. They can provide a proper diagnosis, discuss treatment options, and answer any questions she has.
-* **Be prepared:** When she sees the doctor, be prepared to discuss her symptoms, how long she's had the issue, and any other relevant information.
-**Remember:**  It's essential to follow your doctor's instructions carefully and complete the full course of treatment. This will help ensure the fungus is completely eradicated and prevent it from returning. 
+* **Schedule an appointment:** Encourage your wife to schedule an appointment with her doctor or a dermatologist. They can provide a proper diagnosis, discuss treatment options, and answer any questions she may have.
+* **Keep the area clean:**  Keeping the affected area clean and dry is essential for preventing the fungus from spreading.
+* **Avoid sharing shoes and socks:** This can help prevent the fungus from spreading to other people.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -9050,30 +9037,30 @@
         <is>
           <t xml:space="preserve">
 I understand your concern about NSAIDs bothering your stomach.  It's a common issue, and luckily, there are ways to manage it. 
-**Here's what I can tell you:**
+Here's what I can tell you:
 **Understanding the Problem:**
 * **NSAIDs and Stomach Issues:** Non-steroidal anti-inflammatory drugs (NSAIDs) like ibuprofen (Advil, Motrin) and naproxen (Aleve) work by reducing inflammation. However, they can irritate the stomach lining, leading to heartburn, indigestion, nausea, and ulcers.
 * **Individual Sensitivity:**  Everyone reacts differently to NSAIDs. Some people are more sensitive than others, and factors like age, genetics, and existing conditions can play a role.
-**Preventing Stomach Irritation:**
+**Strategies to Prevent Stomach Irritation:**
 1. **Start with a Low Dose:**  Begin with the lowest effective dose of the NSAID and gradually increase it if needed. This can help minimize stomach irritation.
-2. **Take with Food:**  Taking NSAIDs with food can help protect your stomach lining.  
+2. **Take with Food:**  Taking NSAIDs with food can help protect your stomach lining.  Try taking them with a meal or snack that contains some fat.
 3. **Avoid Alcohol and Caffeine:**  These substances can further irritate the stomach.
 4. **Stay Hydrated:**  Drinking plenty of water can help flush out stomach acid and reduce irritation.
-5. **Consider Antacids:**  Over-the-counter antacids like Tums or Rolaids can neutralize stomach acid and provide temporary relief.
-6. **Proton Pump Inhibitors (PPIs):**  These medications are more potent than antacids and can be prescribed by your doctor to reduce stomach acid production. They are often used for long-term use, especially if you have frequent stomach problems.
-7. **H2 Blockers:**  These medications also reduce stomach acid production. They are often used for short-term relief.
-8. **Alternative Pain Relief:**  If NSAIDs are causing you problems, talk to your doctor about alternative pain relief options like acetaminophen (Tylenol) or topical pain relievers.
-**Important Considerations:**
-* **Underlying Conditions:**  If you have a history of ulcers, gastritis, or other stomach problems, it's crucial to discuss your NSAID use with your doctor.
-* **Long-Term Use:**  If you need to take NSAIDs regularly, your doctor may recommend a lower dose or a different type of medication.
-* **Side Effects:**  Be aware of potential side effects, such as kidney problems, bleeding, and allergic reactions.
-**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered medical advice.  **Always consult with your doctor or pharmacist before starting or stopping any medication.** They can assess your individual needs and recommend the best course of action for you. 
-Let me know if you have any other questions. 
+5. **Consider Antacids:**  Over-the-counter antacids like Tums or Rolaids can neutralize stomach acid and provide temporary relief from heartburn.
+6. **Proton Pump Inhibitors (PPIs):**  These medications are more potent than antacids and can be prescribed by your doctor to reduce stomach acid production. They are often used for long-term management of conditions like GERD.
+7. **H2 Blockers:**  These medications also reduce stomach acid production. They are often used for short-term relief of heartburn.
+8. **Alternative Pain Relief:**  If NSAIDs are causing you significant stomach problems, talk to your doctor about alternative pain relief options like acetaminophen (Tylenol) or topical pain relievers.
+9. **Prescription Medications:**  In some cases, your doctor may prescribe a different type of NSAID or a medication specifically designed to reduce stomach irritation.
+**Important Notes:**
+* **Consult Your Doctor:**  It's crucial to discuss your concerns with your doctor. They can help determine the best course of action based on your individual needs and medical history.
+* **Don't Self-Medicate:**  Never stop taking any medication without consulting your doctor.
+* **Be Aware of Side Effects:**  Be aware of potential side effects of NSAIDs and other medications. 
+Remember, managing stomach irritation is a personalized process. By working with your doctor and trying different strategies, you can find the best way to manage your pain and discomfort. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -9115,28 +9102,24 @@
       <c r="G135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about vomiting and COVID-19. It's a common question, and the answer is: **Yes, vomiting can be a symptom of COVID-19.** 
+It's great you're paying attention to your body!  Let's talk about vomiting and COVID-19. 
+**Yes, vomiting can be a symptom of COVID-19.**  It's actually one of the less common symptoms, but it can definitely happen. 
 Here's what you need to know:
-**COVID-19 Symptoms:**
-* **Common Symptoms:** Fever, cough, fatigue, shortness of breath, loss of taste or smell.
-* **Less Common Symptoms:** Headache, muscle aches, sore throat, congestion, nausea, vomiting, diarrhea.
-**Why Vomiting Might Occur:**
-* **Direct Viral Infection:** The virus can directly affect the lining of your stomach and intestines, causing inflammation and irritation.
-* **Immune Response:** Your body's immune response to the virus can also trigger vomiting.
-* **Other Factors:**  Underlying health conditions, medications, or dehydration can also contribute to vomiting.
-**When to Seek Medical Attention:**
-* **Severe Vomiting:** If you experience persistent vomiting, especially if it's accompanied by:
-    * High fever
-    * Difficulty breathing
-    * Dehydration (dry mouth, dizziness, dark urine)
-    * Chest pain
-    * Confusion
-* **Other Symptoms:** If you have any other concerning symptoms, such as persistent cough, shortness of breath, or loss of taste or smell, seek medical attention immediately.
-**Important Notes:**
-* **Not Everyone Experiences Vomiting:**  While vomiting is a possible symptom, it's not present in all cases of COVID-19.
-* **Early Diagnosis is Key:** If you suspect you may have COVID-19, it's important to get tested and follow the guidance of your healthcare provider. 
-* **Prevention is Crucial:**  Vaccination and following public health guidelines are the best ways to prevent COVID-19 infection.
-**Remember:** I am an AI and cannot provide medical advice. If you have concerns about your health, please consult a qualified healthcare professional. 
+* **COVID-19 Symptoms:**  The most common symptoms include fever, cough, fatigue, loss of taste or smell, sore throat, headache, muscle aches, and congestion or runny nose. 
+* **Vomiting:**  While not as frequent as other symptoms, vomiting can occur in people with COVID-19. It can be a sign of more severe illness, especially if it's accompanied by other symptoms like fever, chills, or difficulty breathing.
+* **Other Causes:**  It's important to remember that vomiting can be caused by many things, not just COVID-19.  Common causes include:
+    * Stomach flu (viral gastroenteritis)
+    * Food poisoning
+    * Migraines
+    * Motion sickness
+    * Anxiety or stress
+    * Certain medications
+**What to do if you're experiencing vomiting:**
+* **Stay hydrated:**  Drink plenty of fluids, especially water, to prevent dehydration.
+* **Rest:**  Give your body time to recover.
+* **Contact your doctor:**  If your vomiting is severe, persistent, or accompanied by other concerning symptoms like high fever, difficulty breathing, chest pain, or confusion, seek medical attention immediately.
+**Important:**  I'm an AI and cannot provide medical advice.  If you have concerns about your health, please consult a qualified healthcare professional. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -9185,47 +9168,47 @@
           <t xml:space="preserve">
 Let's talk about vestibular neuritis. 
 **What is Vestibular Neuritis?**
-Vestibular neuritis is an inflammation of the vestibular nerve, which is responsible for your sense of balance and spatial orientation.  Think of it as a "communication line" between your inner ear (which contains the fluid-filled structures that sense movement) and your brain. When this nerve gets inflamed, it disrupts this communication, leading to a variety of symptoms.
-**Causes:**
-* **Viral Infections:** The most common cause is a viral infection, often a cold or flu. The virus can directly attack the vestibular nerve, causing inflammation.
-* **Autoimmune Disorders:** In some cases, the immune system mistakenly attacks the vestibular nerve, leading to inflammation.
-* **Other Factors:** Less common causes include trauma, certain medications, and even some rare genetic conditions.
+Vestibular neuritis is an inflammation of the vestibular nerve, which is responsible for your sense of balance and spatial orientation.  Think of it as a "communication breakdown" between your inner ear and your brain. 
+**What Causes It?**
+The exact cause is often unknown, but it's most commonly triggered by:
+* **Viral Infections:**  The most frequent culprit is a viral infection, like the flu or a cold. 
+* **Autoimmune Reactions:** In some cases, the body's immune system mistakenly attacks the vestibular nerve.
+* **Other Factors:**  Less common causes include head injuries, certain medications, and even some rare genetic conditions.
 **Symptoms:**
-* **Vertigo:** This is the most common symptom, characterized by a spinning or whirling sensation. It can be constant or come and go.
-* **Nystagmus:** This is a rapid, involuntary eye movement, often in a side-to-side or up-and-down direction.
-* **Headache:** Often present, especially in the morning.
-* **Dizziness:** Feeling unsteady or lightheaded.
-* **Balance Problems:** Difficulty walking or standing still.
-* **Tinnitus:** Ringing or buzzing in the ears.
-* **Nausea and Vomiting:** Can occur, especially in severe cases.
+The hallmark symptom is **dizziness**, often described as a feeling of spinning or a "spinning room."  Other common symptoms include:
+* **Vertigo:** A sensation of movement, even when you're still.
+* **Nystagmus:** Involuntary, rapid eye movements.
+* **Headache:** Often a dull, throbbing pain.
+* **Balance Problems:** Difficulty walking, feeling unsteady, or feeling like you're going to fall.
+* **Sensitivity to Light and Noise:**  These can worsen the dizziness.
+* **Nausea and Vomiting:**  These can occur, especially in severe cases.
 **Diagnosis:**
-* **Medical History:** Your doctor will ask about your symptoms, past medical history, and any recent illnesses.
-* **Physical Examination:** They will assess your balance, coordination, and eye movements.
-* **Vestibular Testing:** This involves using specialized equipment to measure your balance and eye movements.
-* **Imaging Tests:** In rare cases, imaging tests like MRI or CT scans may be used to rule out other conditions.
+Your doctor will likely use a combination of:
+* **Medical History:**  They'll ask about your symptoms, recent illnesses, and any potential triggers.
+* **Physical Examination:**  They'll check your balance, reflexes, and eye movements.
+* **Vestibular Testing:**  This involves specialized tests to assess your balance and eye movements.  These tests can include:
+    * **Caloric Test:**  You're asked to tilt your head in different directions to see how your balance changes.
+    * **Dix-Hallpike Test:**  This test helps identify the specific type of dizziness you're experiencing.
+    * **Video Head Impulse Test (vHIT):**  This test uses video cameras to measure your eye movements and brain responses to head movements.
 **Treatment:**
-* **Rest:** Avoiding activities that worsen your symptoms is crucial.
-* **Medications:**
-    * **Antivirals:** For viral infections, these can help shorten the duration of the illness.
-    * **Anti-inflammatory Drugs:** These can help reduce inflammation and pain.
-    * **Antihistamines:** May be used to manage nausea and dizziness.
-* **Physical Therapy:** Exercises and stretches can help improve balance and coordination.
-* **Vestibular Rehabilitation:** This specialized therapy focuses on retraining the brain to interpret signals from the inner ear.
-**Recovery:**
-Most people recover from vestibular neuritis within a few weeks to a few months. However, some individuals may experience lingering symptoms, such as dizziness or balance problems, for a longer period.
+The good news is that vestibular neuritis usually resolves on its own within a few weeks to a couple of months.  Treatment focuses on:
+* **Rest:**  Avoiding activities that worsen your symptoms.
+* **Medications:**  Anti-nausea medications, pain relievers, and sometimes anti-inflammatory drugs.
+* **Vestibular Rehabilitation Therapy:**  This involves exercises and activities designed to improve your balance and coordination.
+* **Supportive Care:**  Staying hydrated, getting enough sleep, and eating a healthy diet.
 **Important Notes:**
-* **Seek Medical Attention:** If you experience sudden onset of vertigo, dizziness, or other symptoms, it's important to see a doctor promptly.
-* **Early Diagnosis and Treatment:** Early intervention can significantly improve recovery time and reduce the risk of complications.
-* **Individualized Treatment:** Treatment plans are tailored to each patient's specific needs and symptoms.
+* **Seek Medical Attention:**  If you experience sudden onset of dizziness, especially if it's severe or accompanied by other symptoms, it's crucial to see a doctor promptly.
+* **Early Intervention:**  Early diagnosis and treatment can help minimize the duration and severity of symptoms.
+* **Recovery Time:**  While most people recover fully, some may experience lingering balance problems or dizziness for a longer period.
 Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -9265,35 +9248,36 @@
       <c r="G137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about treating hemorrhoids.  As a helpful and harmless AI, I can't provide medical advice.  
-However, I can give you some general information about treatment options that a doctor might discuss with you:
-**Common Treatments for Hemorrhoids:**
-* **Lifestyle Changes:**  Often the first line of defense. This includes:
-    * **High-fiber diet:**  Increase your intake of fruits, vegetables, and whole grains to soften stools.
-    * **Hydration:** Drink plenty of water to prevent constipation.
-    * **Avoid straining:**  Don't strain during bowel movements.
-    * **Exercise:**  Regular physical activity can help with bowel regularity.
-* **Over-the-Counter (OTC) Medications:**
-    * **Topical creams and ointments:**  These can provide temporary relief from pain and itching.
-    * **Sitz baths:**  Soaking in warm water can soothe the area.
-* **Prescription Medications:**
-    * **Oral medications:**  These may include stool softeners, laxatives, or anti-inflammatory drugs.
-    * **Injections:**  In some cases, a doctor may inject medication directly into the hemorrhoid.
+I understand you're looking for information about treating hemorrhoids.  It's great you're seeking information! 
+**I am an AI and cannot provide medical advice.**  It's crucial to consult a doctor for diagnosis and treatment of hemorrhoids. 
+However, I can share some general information about treatment options:
+**Common Treatment Options for Hemorrhoids:**
+* **Lifestyle Changes:** 
+    * **High-fiber diet:**  Eating plenty of fruits, vegetables, and whole grains can help soften stool and prevent constipation, which can worsen hemorrhoids.
+    * **Hydration:** Drinking plenty of water helps keep stools soft and prevents straining.
+    * **Avoid straining:**  Don't strain during bowel movements. 
+    * **Sitz baths:** Soaking in warm water for 10-15 minutes can soothe the area.
+* **Over-the-counter (OTC) medications:**
+    * **Topical creams and ointments:** These can provide temporary relief from pain and itching.
+    * **Hemorrhoid suppositories:** These can help reduce swelling and pain.
+* **Prescription medications:**
+    * **Oral medications:**  These may be prescribed for severe cases or if OTC options aren't effective.
+    * **Injections:** In some cases, injections may be used to reduce inflammation.
 * **Procedures:**
-    * **Rubber band ligation:**  A small rubber band is placed around the base of the hemorrhoid, cutting off blood supply and causing it to shrink.
-    * **Sclerotherapy:**  A solution is injected into the hemorrhoid, causing it to shrink.
-    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoid.
+    * **Rubber band ligation:** This procedure involves tying off the hemorrhoid with a rubber band.
+    * **Sclerotherapy:** This involves injecting a solution into the hemorrhoid to shrink it.
+    * **Hemorrhoidectomy:** This is a surgical procedure to remove the hemorrhoid.
 **Important Considerations:**
-* **Severity:** The type of treatment will depend on the severity of your hemorrhoids.
-* **Underlying Conditions:**  Certain medical conditions may affect treatment options.
-* **Individual Needs:**  What works for one person may not work for another.
-* **Doctor's Advice:**  It's crucial to consult with a doctor for a proper diagnosis and personalized treatment plan.
-**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always seek professional medical guidance for any health concerns. 
+* **Severity:** The severity of hemorrhoids will determine the best treatment approach.
+* **Underlying conditions:**  Certain medical conditions may require specific treatment.
+* **Individual needs:**  Treatment plans should be tailored to your specific needs and preferences.
+**Remember:**  It's essential to consult a doctor for a proper diagnosis and personalized treatment plan. Self-treating can be risky and may worsen the condition. 
+Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your hemorrhoids and get the best possible care. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -9334,26 +9318,26 @@
 It's great that you're taking an active role in your health!  Here's the breakdown of blood pressure check frequency, but remember, I'm not a doctor, and this is general advice:
 **General Guidelines:**
 * **For most healthy adults:**  Ideally, you should check your blood pressure at home **once a week**. 
-* **For people with high blood pressure:**  Your doctor may recommend checking it **more frequently**, possibly **daily** or **every other day**.
+* **For people with high blood pressure (hypertension):**  Your doctor will likely recommend checking your blood pressure **at least twice a week**. 
 * **For people with other health conditions:**  Your doctor will provide specific recommendations based on your individual needs.
 **Factors Affecting Frequency:**
-* **Severity of hypertension:**  The more severe your hypertension, the more frequent the checks.
-* **Medications:**  Some medications can affect blood pressure readings, so your doctor may adjust the frequency.
-* **Lifestyle factors:**  Stress, diet, and exercise can all influence blood pressure, so your doctor may recommend checking it more often if you're making significant lifestyle changes.
-* **Family history:**  If you have a family history of high blood pressure, you may need more frequent checks.
-**Important Notes:**
+* **Severity of your condition:**  If you have high blood pressure, you'll need more frequent monitoring.
+* **Medications:**  Some medications can affect blood pressure, so your doctor may adjust the frequency of checks.
+* **Lifestyle factors:**  Stress, diet, and exercise can all influence blood pressure, so your doctor may recommend checking more often if you're making significant changes.
+**Important Considerations:**
 * **Accurate readings:**  Use a reliable blood pressure monitor and follow the instructions carefully.
-* **Record your readings:**  Keep track of your blood pressure readings over time to see if they are improving or worsening.
+* **Consistency:**  Check your blood pressure at the same time each day for more accurate readings.
+* **Record keeping:**  Keep a record of your blood pressure readings, including the date, time, and any other relevant information.
 * **Consult your doctor:**  Always discuss your blood pressure readings with your doctor. They can help you interpret your results and make any necessary adjustments to your treatment plan.
-**Remember:**  This information is for general knowledge only.  Always consult with your doctor for personalized advice and treatment. 
+**Remember:**  This information is for general knowledge only. It's crucial to consult with your doctor for personalized advice and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -9389,28 +9373,26 @@
       <c r="G139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's not unusual for a sore throat to improve within 24 hours, even after taking antibiotics. Here's why:
-**Antibiotics and Sore Throats:**
-* **Bacterial vs. Viral:**  Sore throats are often caused by viruses, not bacteria. Antibiotics are only effective against bacterial infections. 
-* **Antibiotic Action:** Antibiotics work by killing bacteria, not viruses.  They can shorten the duration of a bacterial infection, but they don't always eliminate the virus entirely.
-* **Viral Infections:**  Viral infections like the common cold or flu often resolve on their own within a few days, even without antibiotics.
-**Possible Reasons for Improvement:**
-* **Viral Infection:** The sore throat might have been caused by a virus, and the antibiotics were not necessary.
-* **Early Stage:** The infection might have been in its early stages, and the body was able to fight it off quickly.
-* **Self-Limiting:**  The body's immune system might have been able to clear the infection before the antibiotics had a significant impact.
-**Important Considerations:**
-* **Duration of Symptoms:**  While a sore throat might improve quickly, it's important to note that other symptoms like fever, cough, or difficulty swallowing might persist for longer.
-* **Underlying Conditions:**  If you have any underlying health conditions, your body's response to infection might be different.
-* **Antibiotic Prescription:**  If you were prescribed antibiotics, it's important to complete the full course as directed by your doctor. This helps ensure the infection is fully cleared and prevents antibiotic resistance.
-**When to Seek Medical Advice:**
-* **Persistent Symptoms:** If your sore throat persists for more than a few days, or if you experience other concerning symptoms like high fever, difficulty breathing, or swollen glands, it's important to consult your doctor.
-* **Unusual Symptoms:** If you experience any unusual symptoms, such as a rash, skin discoloration, or changes in your voice, seek medical attention immediately.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with your doctor for any health concerns. 
+It's great you're paying attention to your body's response to treatment!  However, it's important to remember that I'm an AI and not a medical professional.  **You should always consult with your doctor about your health concerns.**
+That said, here's some information about sore throats and antibiotics that might be helpful:
+**Sore throats and antibiotics:**
+* **Antibiotics are effective against bacterial infections:** They work by killing or inhibiting the growth of bacteria that cause infections. 
+* **Not all sore throats are bacterial:**  Many sore throats are caused by viruses, like the common cold or flu. These infections are not treated with antibiotics.
+* **Antibiotics take time to work:** It can take a few days for antibiotics to fully clear a bacterial infection. 
+* **Sore throat improvement can be gradual:**  You might feel better within 24 hours, but the full effects of the antibiotic might not be seen until the infection is fully cleared.
+**Possible reasons for your sore throat to improve quickly:**
+* **Viral infection:**  If your sore throat was caused by a virus, it might have resolved on its own within 24 hours.
+* **Early treatment:**  If you started antibiotics early in the course of the infection, they might have been effective in reducing the severity and duration of the symptoms.
+* **Individual variation:**  Everyone responds to treatment differently. Some people may experience faster symptom relief than others.
+**Important considerations:**
+* **Don't stop taking antibiotics early:**  Even if you feel better before finishing the full course, it's crucial to complete the prescribed dosage to ensure the infection is fully eradicated.
+* **Seek medical advice:**  If your sore throat persists or worsens, or if you experience any unusual symptoms, it's important to contact your doctor. 
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -9446,42 +9428,40 @@
       <c r="G140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, pink eye, or conjunctivitis. A common ailment, but one that can be quite bothersome.  
-While the classic symptom is redness of the eye, there are several other signs that could indicate pink eye, and it's important to remember that a doctor's diagnosis is always necessary. 
-Here are some additional signs to watch for:
-**Visual Changes:**
-* **Discharge:**  Pink eye can manifest with discharge, which can be clear, white, yellow, green, or even bloody. The discharge may be thick or watery.
-* **Blurry vision:**  Inflammation of the conjunctiva can cause temporary blurry vision.
-* **Sensitivity to light:**  The eye may feel irritated and sensitive to light.
-* **Eye crusting:**  Especially in the morning, the eye may have crusty discharge.
-**Other Symptoms:**
-* **Itching:**  The eye may feel itchy, especially in the inner corner.
-* **Burning:**  A burning sensation in the eye can accompany the redness.
-* **Swelling:**  The eyelids and surrounding area may become swollen.
-* **Pain:**  The eye may feel painful, especially when touched.
-* **Redness in the eyelids:**  The eyelids themselves may be red and irritated.
-* **Feeling of a foreign body in the eye:**  This can be a sign of irritation.
-* **Headache:**  In some cases, pink eye can cause headaches.
-* **Fever:**  While not always present, a fever can accompany certain types of pink eye.
-**Important Considerations:**
+You're asking a great question! Pink eye, or conjunctivitis, can present with a variety of symptoms, and it's important to be aware of them all. 
+Here's a breakdown of potential signs, keeping in mind that I'm an AI and not a medical professional. **Always consult a doctor for diagnosis and treatment.**
+**Common Signs of Pink Eye:**
+* **Redness:** The most obvious sign, often affecting the white part of the eye (sclera) and the conjunctiva (the membrane covering the white part of the eye).
+* **Itching:**  Can be mild or intense, and may be accompanied by a burning sensation.
+* **Burning:**  A feeling of discomfort or pain in the eye.
+* **Discharge:**  This can be clear, white, yellow, green, or even bloody. It can be thick or watery.
+* **Swollen eyelids:**  The eyelids may appear puffy or inflamed.
+* **Crusting:**  A white or yellow crust may form on the eyelashes in the morning.
+* **Sensitivity to light:**  The eye may feel irritated or uncomfortable in bright light.
+* **Blurry vision:**  This can be a sign of inflammation or infection.
+* **Eyelid swelling:**  The eyelids may appear swollen and puffy.
+* **Pain:**  The eye may feel sore or painful.
+* **Fever:**  This is more common with bacterial or viral pink eye.
+* **Headache:**  This can be a sign of a more serious infection.
+* **Cough:**  This is more common with viral pink eye.
+**Less Common Signs:**
+* **Discharge from the nose:**  This can be a sign of a secondary infection.
+* **Swollen lymph nodes:**  This can be a sign of a more serious infection.
+* **Skin rash:**  This can be a sign of a more serious infection.
+**Important Notes:**
 * **Age:**  Pink eye can affect people of all ages, but it's more common in children.
-* **Cause:**  The cause of pink eye can vary, from allergies to infections.
-* **Severity:**  The severity of pink eye can range from mild to severe.
-* **Duration:**  Pink eye can last for a few days to several weeks.
+* **Cause:**  Pink eye can be caused by a variety of factors, including bacteria, viruses, allergies, and irritants.
+* **Treatment:**  Treatment for pink eye depends on the cause. It may include eye drops, oral antibiotics, or antiviral medications.
 **When to See a Doctor:**
-It's important to see a doctor if you experience any of the following:
-* **Severe pain or discomfort**
-* **Vision changes**
-* **Discharge that is thick, bloody, or green**
-* **Fever**
-* **Symptoms that don't improve after a few days**
-* **Pink eye that is accompanied by other symptoms, such as a rash or swollen lymph nodes**
-**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+* **Severe symptoms:**  If you have any of the more severe symptoms, such as fever, severe pain, vision problems, or discharge that is thick, green, or bloody, see a doctor immediately.
+* **Persistent symptoms:**  If your symptoms don't improve after a few days, see a doctor.
+* **Recurring pink eye:**  If you have pink eye that comes back frequently, see a doctor to rule out any underlying conditions.
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult a doctor for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -9518,18 +9498,23 @@
       <c r="G141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're curious about taking Losartan.  As a helpful and harmless AI, I can't give medical advice.  
-**It's crucial to consult your doctor or pharmacist about this.** They are the best source of information regarding your specific medication and dosage. 
-Here's why it's important to talk to your healthcare provider:
-* **Individualized Treatment:**  The correct dosage and timing of medication can vary depending on your individual health condition, other medications you're taking, and your body's response.
-* **Potential Interactions:**  Losartan can interact with other medications. Your doctor can assess potential interactions and advise you accordingly.
-* **Safety and Effectiveness:**  Your doctor can ensure you're taking Losartan safely and effectively for your specific needs.
-**Remember:** Never change your medication dosage or frequency without consulting your doctor. 
+I understand you're curious about taking your Losartan medication.  It's great that you're paying attention to your dosage! 
+**However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
+The best way to determine the correct dosage and administration of your Losartan is to **consult with your doctor or pharmacist.** They have access to your medical history, current medications, and can provide personalized guidance. 
+Here's why it's important to talk to your doctor:
+* **Individualized Dosage:** The correct dosage of Losartan varies depending on your individual needs, medical history, and other medications you're taking. 
+* **Potential Interactions:** Losartan can interact with other medications, and your doctor can assess any potential risks.
+* **Dosage Forms:** Losartan is available in different forms (tablets, capsules, etc.). Your doctor can advise on the best form for you.
+**General Information about Losartan:**
+* Losartan is an angiotensin II receptor blocker (ARB) used to treat high blood pressure (hypertension) and heart failure.
+* It works by blocking the action of angiotensin II, a hormone that constricts blood vessels.
+* It's important to take Losartan as prescribed by your doctor. 
+**Please remember:** Always consult with your healthcare provider for any questions or concerns about your medication. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -9594,7 +9579,7 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -9635,26 +9620,27 @@
       <c r="G143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a very important question about potential side effects of Bactrim, a common antibiotic.  Here's what I can tell you:
-**Bactrim (sulfamethoxazole/trimethoprim) can potentially cause yeast infections.** 
-Here's why:
-* **Mechanism of Action:** Bactrim works by disrupting the growth of bacteria.  It does this by interfering with the synthesis of essential molecules needed for bacterial survival.
-* **Yeast and Bacteria:**  Yeast (like Candida) and bacteria are both microorganisms that can cause infections.  While yeast infections are usually caused by an overgrowth of Candida, bacteria can also contribute to infections.
-* **Disruption of the Microbiome:**  Antibiotics like Bactrim can disrupt the balance of bacteria in your body, including the good bacteria that help keep yeast in check. This disruption can allow yeast to overgrow, leading to a yeast infection.
-**Factors that Increase Risk:**
-* **Prolonged Use:**  Taking Bactrim for extended periods increases the risk of yeast infections.
-* **High Dosage:**  Higher doses of Bactrim can also increase the risk.
-* **Underlying Conditions:**  People with weakened immune systems, diabetes, or other conditions that affect their immune system are more susceptible to yeast infections.
-* **Hormonal Changes:**  Hormonal changes, such as those during pregnancy or menopause, can also increase the risk.
-**Symptoms of Yeast Infection:**
-* **Vaginal itching, burning, and discharge:**  This is the most common symptom.
-* **Pain during intercourse:**  Yeast infections can cause discomfort during sexual activity.
-* **Thick, white discharge:**  The discharge may be thick and cottage cheese-like.
-**What to Do:**
-* **Talk to your doctor:**  If you suspect you have a yeast infection, it's important to see your doctor. They can diagnose the infection and prescribe the appropriate treatment.
-* **Avoid self-treatment:**  Don't use over-the-counter antifungal medications without consulting your doctor.
-* **Follow your doctor's instructions:**  Take your medication as prescribed and complete the full course of treatment.
-**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with your doctor for any health concerns. 
+It's great you're asking about potential side effects!  Bactrim (sulfamethoxazole/trimethoprim) is a powerful antibiotic, but it can sometimes have unintended consequences. 
+**Here's the breakdown:**
+* **Bactrim's Mechanism:**  Bactrim works by disrupting the growth of bacteria. It's effective against a wide range of infections, but it can also disrupt the balance of bacteria in your body, including the good bacteria that help maintain a healthy microbiome.
+* **Yeast Infections:**  Yeast infections are caused by an overgrowth of the fungus *Candida albicans*.  These infections are common, especially in women, and can occur in various parts of the body.
+* **The Connection:**  Bactrim can disrupt the balance of bacteria in your body, which can sometimes lead to an overgrowth of yeast. This is because the antibiotic can kill off the bacteria that normally compete with the yeast, allowing it to flourish.
+**Here's what you should know:**
+* **Not Always a Cause:**  While Bactrim can increase the risk of yeast infections, it's not a guaranteed outcome. Many people take Bactrim without experiencing any yeast infection issues.
+* **Risk Factors:**  Certain factors can increase your risk of developing a yeast infection, including:
+    * **Hormonal changes:**  Pregnancy, menopause, and birth control pills can all affect the balance of bacteria in your body.
+    * **Diabetes:**  High blood sugar levels can create an environment that's favorable for yeast growth.
+    * **Weakened immune system:**  Conditions like HIV/AIDS or certain medications can suppress your immune system, making you more susceptible to infections.
+* **Symptoms:**  Yeast infections can present with various symptoms, including:
+    * **Vaginal itching and burning**
+    * **Thick, white discharge**
+    * **Pain during intercourse**
+    * **Redness or swelling in the vulva**
+**What to do:**
+* **Talk to your doctor:**  If you're experiencing any symptoms of a yeast infection, it's crucial to consult your doctor. They can diagnose the issue and recommend the appropriate treatment.
+* **Don't self-medicate:**  Avoid using over-the-counter antifungal medications without consulting your doctor. 
+* **Maintain good hygiene:**  Keeping the genital area clean and dry can help prevent yeast infections.
+**Remember:**  This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -9704,32 +9690,32 @@
           <t xml:space="preserve">
 You're right to be curious about the connection between hearing loss and ear infections. It's a common question, and the answer is a bit nuanced. 
 Here's a breakdown of what you need to know:
-**Outer Ear Infections:**
-* **Common Symptoms:**  These infections are often characterized by pain, redness, swelling, and discharge from the ear canal. 
-* **Hearing Loss:**  While not always the primary symptom, outer ear infections can cause temporary hearing loss due to inflammation and fluid buildup in the ear canal. This is usually temporary and resolves once the infection clears.
-* **Examples:**  Swimmer's ear (otitis externa) is a common example.
-**Inner Ear Infections:**
-* **Common Symptoms:**  Inner ear infections, also known as otitis media, are more serious and can cause ear pain, fever, dizziness, and hearing loss. 
-* **Hearing Loss:** Inner ear infections can cause permanent hearing loss, especially in children, due to damage to the delicate structures within the inner ear.
-* **Examples:**  Middle ear infections can lead to fluid buildup in the middle ear, which can press on the eardrum and cause hearing loss.
+**Outer Ear Infections (Otitis Externa):**
+* **Symptoms:**  Often characterized by pain, redness, swelling, and discharge from the ear canal. 
+* **Cause:** Usually caused by bacteria or fungi, often due to water trapped in the ear canal.
+* **Hearing Loss:**  While not always the primary symptom, outer ear infections can cause temporary hearing loss due to inflammation and pressure buildup in the ear canal. This is usually temporary and resolves once the infection clears.
+**Inner Ear Infections (Otitis Media):**
+* **Symptoms:**  Often include ear pain, fever, and difficulty hearing.
+* **Cause:**  Usually caused by a viral or bacterial infection that spreads from the middle ear to the inner ear.
+* **Hearing Loss:** Inner ear infections can cause significant and sometimes permanent hearing loss. This is because the infection can damage the delicate structures of the inner ear, including the cochlea (responsible for hearing) and the vestibular system (responsible for balance).
 **Why the Confusion?**
-* **Location:**  The outer ear is the most visible part of the ear, while the inner ear is deeper and more complex. This can lead to a misconception that outer ear infections are always the cause of hearing loss.
-* **Severity:**  Outer ear infections are usually less severe than inner ear infections, and the symptoms are often less dramatic. This can make it seem like hearing loss is a less common symptom.
+* **Location:**  The outer ear is the most visible part of the ear, while the inner ear is hidden deep inside the skull. This can lead to a misconception that outer ear infections are always associated with hearing loss.
+* **Severity:**  Outer ear infections are usually less severe than inner ear infections. This means that while they can cause temporary hearing loss, it's less likely to be permanent.
 **Important Considerations:**
-* **Diagnosis:**  A doctor can diagnose the cause of hearing loss through a physical examination, hearing tests, and possibly imaging tests.
-* **Treatment:**  Treatment for outer ear infections is usually simple and involves cleaning the ear canal and using ear drops. Inner ear infections require antibiotics and other medications.
-* **Prevention:**  Good hygiene practices, such as keeping ears clean and dry, can help prevent ear infections.
+* **Diagnosis:**  A doctor can diagnose the type of ear infection through a physical exam, otoscopy (visual examination of the ear), and possibly a hearing test.
+* **Treatment:**  Treatment for both types of ear infections involves addressing the underlying cause. This may include antibiotics for bacterial infections, anti-fungal medications for fungal infections, or ear drops to relieve pain and inflammation.
+* **Prevention:**  Good hygiene practices, such as keeping ears dry and avoiding putting objects in the ear canal, can help prevent ear infections.
 **In Summary:**
-While outer ear infections can cause temporary hearing loss, inner ear infections are more likely to cause permanent hearing loss. It's important to see a doctor if you experience any ear pain, discharge, or hearing loss, as early diagnosis and treatment can help prevent complications. 
-Let me know if you have any other questions! 
+While outer ear infections can cause temporary hearing loss, inner ear infections are more likely to cause permanent hearing loss. It's important to seek medical attention if you experience any ear pain, discharge, or hearing loss. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -9767,26 +9753,29 @@
       <c r="G145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about potential interactions between your sertraline and Zofran.  As a helpful and harmless AI, I can't give medical advice.  **It's crucial to discuss this with your doctor or pharmacist.** 
-Here's why this is a complex question and why professional guidance is essential:
-* **Sertraline and Zofran are both medications:** They can interact with each other, potentially affecting their effectiveness or causing side effects. 
-* **Individual factors matter:** Your specific dosage, medical history, and other medications you're taking all play a role in determining potential interactions.
-* **Dosage adjustments are not always necessary:**  Sometimes, the interaction is minimal, and your doctor might not recommend a dose change. 
-**Here's what your doctor or pharmacist can do:**
-* **Review your medical history:** They'll consider your overall health and any other medications you're taking.
-* **Assess the potential for interaction:** They'll evaluate the specific risks and benefits of adjusting your sertraline dosage.
-* **Provide personalized advice:** They'll give you clear instructions based on your individual situation.
-**Remember:** Never make changes to your medication dosage without consulting your doctor. 
-**In the meantime, here are some general points to consider:**
-* **Zofran (ondansetron) is an antiemetic:** It's used to prevent nausea and vomiting.
-* **Sertraline is an antidepressant:** It's used to treat depression and anxiety.
-* **Potential interactions:** Some medications can affect each other's absorption, metabolism, or effectiveness. 
-**Please prioritize your health and safety by discussing this with your healthcare provider.** They are your best resource for personalized advice and guidance. 
+I understand you're concerned about potential interactions between your sertraline and Zofran.  As an AI, I can't give medical advice, and it's crucial to discuss this with your doctor. 
+However, I can provide some general information that might be helpful in your conversation:
+**Sertraline (Zoloft) and Zofran (Ondansetron):**
+* **Sertraline:** A selective serotonin reuptake inhibitor (SSRI) used to treat depression, anxiety, and other conditions.
+* **Zofran:** An antiemetic (anti-nausea) medication used to prevent and treat nausea and vomiting.
+**Potential Interactions:**
+* **Serotonin Syndrome:**  Both medications can increase serotonin levels in the body. While rare, a combination of high doses of both drugs could potentially lead to serotonin syndrome, a potentially life-threatening condition characterized by agitation, confusion, rapid heart rate, and high fever.
+* **Individual Sensitivity:**  Everyone reacts differently to medications. Your doctor will consider your specific medical history, dosage, and other medications you're taking when assessing potential interactions.
+**What to Discuss with Your Doctor:**
+* **Current Dosage:**  Be prepared to share your current sertraline dosage.
+* **Reason for Taking Zofran:**  Explain why you're taking Zofran, as this will help your doctor understand the context of your question.
+* **Other Medications:**  Let your doctor know about any other medications you're taking, including over-the-counter drugs and supplements.
+* **Symptoms:**  Be open about any side effects you're experiencing, even if they seem minor.
+**Important Considerations:**
+* **Never adjust your medication dosage without consulting your doctor.**
+* **Always follow your doctor's instructions carefully.**
+* **Keep a record of your medications and any side effects you experience.**
+**Remember:** Your doctor is your best resource for personalized medical advice. They can assess your individual situation and determine the safest and most effective course of treatment for you. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -9831,25 +9820,22 @@
           <t xml:space="preserve">
 I understand you're looking for advice on combining Fioricet and ibuprofen.  
 **I must strongly emphasize that I am not a medical professional and cannot give medical advice.**  
-That said, here's what I can tell you based on general knowledge about medications:
-* **Fioricet contains acetaminophen and butalbital.** Acetaminophen is a pain reliever, butalbital is a barbiturate that can be habit-forming. 
-* **Ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID).** It's used to reduce pain and inflammation. 
-* **Combining medications can have unpredictable effects.**  It's important to consider potential interactions and side effects. 
-**Here's why you should consult a doctor or pharmacist:**
-* **They can assess your specific situation.** Your medical history, current medications, and the dosage of Fioricet you're taking are crucial factors.
-* **They can provide personalized advice.**  They can tell you if it's safe to take ibuprofen with Fioricet and what dosage to use.
-* **They can monitor for potential complications.**  They can watch for any adverse reactions or interactions.
-**In the meantime, here are some general tips:**
-* **Read the labels carefully.** Pay attention to the warnings and instructions on both medications.
-* **Don't exceed the recommended dosage.**  
-* **Be aware of potential side effects.**  Common side effects of Fioricet include drowsiness, dizziness, and nausea. 
-* **If you experience any unusual symptoms, contact your doctor immediately.**
-**Remember, your health is paramount. Always seek professional medical advice before taking any new medications or combining existing ones.** 
+That said, here's what I can tell you about the potential interactions between these medications:
+* **Fioricet (containing acetaminophen, butalbital, and caffeine) is a combination medication that can have serious side effects.**  It's important to understand that acetaminophen is a pain reliever, butalbital is a barbiturate that can be habit-forming, and caffeine can cause anxiety and insomnia. 
+* **Ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID) that can also have side effects.**  NSAIDS can cause stomach upset, ulcers, and kidney problems. 
+* **Combining these medications could lead to increased side effects and potentially dangerous interactions.**  
+**The best course of action is to consult with your doctor or pharmacist.** They can assess your individual situation, consider your medical history, and advise you on the safest course of treatment. 
+**Here are some questions to discuss with your doctor or pharmacist:**
+* Are there any potential interactions between Fioricet and ibuprofen?
+* What are the risks and benefits of taking both medications together?
+* Are there any safer alternatives to ibuprofen that might be appropriate for your condition?
+* What are the potential side effects of each medication, and how can I minimize them?
+Remember, your health is paramount. Always seek professional medical advice before taking any new medications or combining existing ones. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -9893,26 +9879,19 @@
 I understand you're looking for information about prostatitis treatment.  It's great that you're seeking information, but I need to be very clear: **I am not a medical professional and cannot give medical advice.** 
 That said, I can provide some general information about prostatitis treatment. 
 **What is Prostatitis?**
-Prostatitis is an inflammation of the prostate gland, which is a small walnut-sized gland located below the bladder in men. It can cause a range of symptoms, including:
-* Pain in the lower abdomen, back, or pelvis
-* Pain during urination
-* Frequent urination
-* Difficulty starting urination
-* Burning sensation during urination
-* Erectile dysfunction
-* Fatigue
+Prostatitis is an inflammation of the prostate gland, which is a walnut-sized gland located below the bladder in men. It can cause pain, discomfort, and difficulty urinating. 
 **Treatment Options:**
-Treatment for prostatitis depends on the severity of the condition and the underlying cause.  Here are some common treatment options:
-* **Antibiotics:**  These are often prescribed for bacterial prostatitis. The specific type of antibiotic will depend on the bacteria causing the infection.
-* **Anti-inflammatory medications:** These can help reduce inflammation and pain.
-* **Pain relievers:** Over-the-counter pain relievers like ibuprofen or naproxen can help manage pain.
-* **Alpha-blockers:** These medications can help relax the muscles in the prostate and bladder, making urination easier.
-* **Lifestyle changes:**  Staying hydrated, avoiding caffeine and alcohol, and practicing good hygiene can help manage symptoms.
-* **Surgery:** In rare cases, surgery may be necessary to remove the prostate or treat other underlying conditions.
+Treatment for prostatitis depends on the cause and severity of the condition.  Here are some common approaches:
+* **Antibiotics:**  If prostatitis is caused by a bacterial infection, antibiotics are often prescribed. The type of antibiotic will depend on the specific bacteria causing the infection.
+* **Anti-inflammatory medications:**  These can help reduce inflammation and pain.
+* **Pain relievers:**  Over-the-counter pain relievers like ibuprofen or naproxen can help manage pain.
+* **Alpha-blockers:**  These medications can help relax the muscles in the prostate and bladder, making it easier to urinate.
+* **Lifestyle changes:**  Things like staying hydrated, avoiding caffeine and alcohol, and practicing good hygiene can help manage symptoms.
+* **Surgery:**  In rare cases, surgery may be necessary to remove the prostate or treat other underlying conditions.
 **Important Considerations:**
-* **Diagnosis:** It's crucial to get a proper diagnosis from a qualified medical professional.  They will likely perform a physical exam, order blood tests, and possibly a urine culture to determine the cause of your symptoms.
-* **Individualized Treatment:** Treatment plans are tailored to each individual's needs and medical history. 
-* **Follow-up Care:** It's important to follow your doctor's instructions and attend all follow-up appointments.
+* **Diagnosis:**  It's crucial to get a proper diagnosis from a qualified medical professional.  They will likely perform a physical exam, order blood tests, and possibly a urine culture to determine the cause of your symptoms.
+* **Individualized Treatment:**  Treatment plans are tailored to each individual's needs and medical history. 
+* **Follow-up Care:**  It's important to follow your doctor's instructions and attend follow-up appointments to monitor your progress and ensure the treatment is effective.
 **Where to Seek Help:**
 If you suspect you have prostatitis, please **consult a doctor immediately.** They can provide a proper diagnosis and recommend the most appropriate treatment plan for your specific situation. 
 Remember, self-treating can be dangerous.  Always seek professional medical advice for any health concerns. 
@@ -9920,10 +9899,10 @@
         </is>
       </c>
       <c r="H147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -9962,21 +9941,24 @@
       <c r="G148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're thinking about contagiousness!  However, I can't give medical advice.  Here's why, and what I *can* tell you:
-**Why I Can't Give You Medical Advice:**
-* **I'm an AI, not a doctor:** I'm trained on a massive amount of text data, but I don't have the real-time medical expertise of a human doctor. 
-* **Every case is different:**  Diarrhea's cause, severity, and how long it lasts can vary wildly.  What's true for one person might not be true for another.
-* **Your health is unique:**  Only a doctor can assess your specific situation, consider your medical history, and give you personalized advice.
-**What I *Can* Tell You:**
-* **Diarrhea is contagious:**  It's often caused by viruses or bacteria that spread through contaminated food or water, or by close contact with someone who's sick.
-* **Contagiousness varies:**  The duration of contagiousness depends on the cause of the diarrhea and how severe it is. 
-* **When to see a doctor:**  If your diarrhea is severe, bloody, accompanied by fever, or lasts longer than a few days, it's important to see a doctor.
-**What to Do:**
-1. **Stay hydrated:** Diarrhea can lead to dehydration, so drink plenty of fluids like water, clear broth, or electrolyte drinks.
-2. **Rest:** Give your body a chance to recover.
-3. **Avoid spreading it:**  Wash your hands frequently, especially after using the bathroom.
-4. **Consult a doctor:**  If your symptoms worsen or don't improve after a few days, or if you have any concerns, please see a doctor.
-**Remember:**  It's always best to err on the side of caution and seek professional medical advice when it comes to your health. 
+I understand your concern about being contagious with diarrhea.  It's great that you're thinking about this! 
+**Here's the thing:** I can't give medical advice, and it's crucial to consult a doctor for personalized guidance.  
+However, I can share some general information about diarrhea and contagiousness:
+* **Diarrhea's Contagiousness:**  Diarrhea itself is not always contagious. It's the *cause* of the diarrhea that matters.  
+    * **Bacterial or Viral:**  Diarrhea caused by bacteria or viruses can be contagious, especially if it's severe or if you've been in close contact with someone who has it. 
+    * **Food Poisoning:**  Diarrhea from food poisoning is also contagious, but it's usually caused by bacteria or parasites that are present in food.
+* **Duration:**  The duration of diarrhea is a key factor.  
+    * **Short-Term:**  If your diarrhea is mild and lasts for a few days, you're likely not contagious for long. 
+    * **Severe or Persistent:**  If your diarrhea is severe, persistent, or bloody, it's important to see a doctor to rule out serious causes and to prevent further spread.
+* **Symptoms:**  The specific symptoms you experience can also help determine your contagiousness. 
+    * **Fever, Vomiting, and Abdominal Pain:**  These symptoms can indicate a more serious infection and increase the risk of spreading.
+* **Personal Risk Factors:**  Your age, overall health, and any underlying medical conditions can also influence your risk of spreading diarrhea.
+**What to do:**
+1. **See a Doctor:**  The best course of action is to consult a doctor. They can assess your symptoms, determine the cause of your diarrhea, and advise you on whether you're contagious and how to prevent spreading it.
+2. **Stay Hydrated:**  Diarrhea can lead to dehydration, so it's crucial to drink plenty of fluids, especially water.
+3. **Rest:**  Give your body time to recover.
+4. **Hygiene:**  Practice good hygiene, including washing your hands frequently and avoiding close contact with others.
+Remember, I'm not a doctor, and this information is not a substitute for professional medical advice. Please seek the guidance of a healthcare professional for personalized care. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -10022,24 +10004,19 @@
       <c r="G149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about prednisone!  It's a powerful medication, and understanding its classification is important. 
-**Yes, prednisone is a corticosteroid, and more specifically, it's a type of glucocorticoid.** 
+You're right to be curious about prednisone!  It's a corticosteroid, and yes, it's a type of cortisone. 
 Here's a breakdown:
-* **Corticosteroids:** These are a class of hormones naturally produced by the adrenal glands. They play a crucial role in regulating inflammation, immune response, and stress response.
-* **Glucocorticoids:**  This is a specific subset of corticosteroids. They are known for their anti-inflammatory and immunosuppressive properties. 
-* **Prednisone:**  It's a synthetic version of cortisol, the primary glucocorticoid in humans. 
-**How Prednisone Works:**
-Prednisone works by mimicking the effects of cortisol in the body. It binds to receptors in cells and tissues, reducing inflammation and suppressing the immune system. This makes it effective for a variety of conditions, including:
-* **Autoimmune diseases:**  Like rheumatoid arthritis, lupus, and inflammatory bowel disease.
-* **Allergic reactions:**  Such as asthma, hives, and anaphylaxis.
-* **Certain cancers:**  To reduce inflammation and improve treatment response.
-* **Organ transplant rejection:**  To prevent the body from rejecting a transplanted organ.
-**Important Considerations:**
-* **Side Effects:**  Prednisone can have significant side effects, including weight gain, high blood pressure, mood swings, and increased risk of infections. 
-* **Long-Term Use:**  Prolonged use of prednisone can lead to adrenal insufficiency, a condition where the body doesn't produce enough cortisol.
-* **Dosage:**  The dosage of prednisone is carefully determined by a doctor based on the individual's needs and condition.
-**Always consult with a healthcare professional for any medical advice or treatment.** They can provide personalized guidance and ensure the safe and effective use of prednisone. 
-Let me know if you have any other questions about prednisone or other medications! 
+* **Corticosteroids:** This is a broad category of drugs that mimic the effects of cortisol, a hormone naturally produced by the adrenal glands. 
+* **Prednisone:**  It's a synthetic version of cortisol, meaning it's made in a lab.  It's used to treat a wide range of conditions, from allergies and autoimmune diseases to inflammatory conditions and even some cancers.
+**How they're similar:**
+* **Mechanism:** Both prednisone and cortisol have similar effects on the body. They can reduce inflammation, suppress the immune system, and have effects on metabolism.
+* **Uses:**  This is where they overlap. Prednisone is used for conditions where inflammation is a key factor, just like cortisone.
+**Key Differences:**
+* **Potency:** Prednisone is generally considered more potent than cortisone. This means it can have a stronger effect on the body.
+* **Duration of Action:** Prednisone has a longer half-life than cortisone, meaning it stays in your system for a longer time.
+* **Side Effects:**  Both prednisone and cortisone can cause side effects, but the specific ones can vary. Prednisone is known to have more potential for side effects like weight gain, mood changes, and increased blood sugar.
+**Important Note:**
+It's crucial to remember that I am an AI and cannot provide medical advice.  If you have questions about prednisone or any other medication, please consult with a qualified healthcare professional. They can assess your individual needs and provide personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -10088,20 +10065,17 @@
       <c r="G150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  It's a common misconception that ringworm doesn't itch.  Here's the truth:
-**Ringworm DOES itch, but it's not always a strong, obvious itch.**
-Here's why:
-* **It's not caused by a worm:**  Ringworm is a fungal infection, not a worm.  The name is a bit misleading, but it's not a parasitic worm.
-* **Itching is a symptom of inflammation:**  The fungal infection causes inflammation in the skin, which triggers the itch.  
-* **Itching can be subtle:**  The itch might be mild, especially in the early stages.  It can be a persistent, dull ache or a feeling of dryness and irritation.
-* **Location matters:**  The itch can be more pronounced in areas where the fungus is growing, like the scalp, groin, or feet.
-**Here's what you should do if you think you have ringworm:**
-1. **See a doctor:**  It's important to get a proper diagnosis to ensure it's actually ringworm and not another skin condition.
-2. **Don't scratch:**  Scratching can worsen the inflammation and spread the infection.
-3. **Use antifungal medication:**  Your doctor will prescribe an antifungal cream, lotion, or oral medication to treat the infection.
-4. **Keep the area clean and dry:**  This will help prevent the fungus from spreading.
-5. **Avoid sharing personal items:**  This includes towels, clothing, and bedding.
-**Remember:**  Ringworm is highly contagious, so it's important to take precautions to prevent spreading it to others. 
+That's a great question!  It's a common misconception that ringworm doesn't itch.  Here's the breakdown:
+**Ringworm itself doesn't itch in the way we typically think of itching.** Itching is caused by a histamine release, which is a reaction to irritation or allergens.  Ringworm, however, is a fungal infection, and it causes a different kind of reaction.
+**Here's what you might experience with ringworm:**
+* **Red, scaly patches:** The most common symptom is a circular rash with raised, red, scaly patches. 
+* **Itching:** While not the primary symptom, some people may experience mild itching around the affected area. This is often due to the inflammation and irritation caused by the fungal infection.
+* **Burning or stinging:** Some people may also experience a burning or stinging sensation in the affected area.
+* **Pain:** In some cases, the rash can be painful, especially if it's scratched.
+**Why the confusion?**
+* **Itching can be a symptom of other skin conditions:**  It's easy to confuse ringworm with other skin conditions that can cause itching, like eczema or psoriasis.
+* **The fungal infection itself doesn't itch:** The fungal infection itself doesn't directly cause itching. It's the body's immune response to the infection that leads to the itching.
+**Important Note:** If you suspect you have ringworm, it's crucial to see a doctor for proper diagnosis and treatment.  Self-treating can be ineffective and may even worsen the condition. 
 Let me know if you have any other questions about ringworm or any other medical concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -10110,7 +10084,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -10154,14 +10128,21 @@
 **Flonase (fluticasone propionate) is a corticosteroid.**  
 * **What are corticosteroids?**  They are a class of drugs that reduce inflammation. They work by suppressing the immune system's response, which in turn reduces the production of inflammatory chemicals.
 * **How does Flonase work?**  Flonase is a nasal spray that delivers fluticasone propionate directly to the nasal passages. This medication works by:
-    * **Reducing nasal inflammation:** It blocks the production of inflammatory chemicals like histamine and leukotrienes, which are responsible for the symptoms of allergies like sneezing, runny nose, and itchy eyes.
-    * **Preventing the release of inflammatory mediators:** It also inhibits the release of these chemicals from mast cells, which are immune cells that trigger allergic reactions.
-**So, yes, Flonase is an anti-inflammatory medication.** It's specifically designed to reduce inflammation in the nasal passages, which is a key component of many allergy symptoms.
+    * **Reducing nasal inflammation:** It helps to decrease swelling and irritation in the nasal passages, making breathing easier.
+    * **Blocking inflammatory chemicals:** It inhibits the production of inflammatory mediators like histamine and leukotrienes, which are responsible for allergic reactions and inflammation.
+**So, yes, Flonase is an anti-inflammatory medication.** It's specifically designed to reduce inflammation in the nasal passages, making it effective for conditions like:
+* **Seasonal allergies:**  Flonase helps to relieve symptoms like sneezing, runny nose, and itchy eyes.
+* **Nasal polyps:**  It can help to shrink nasal polyps, which are small, noncancerous growths in the nasal passages.
+* **Chronic sinusitis:**  Flonase can help to reduce inflammation and improve symptoms of chronic sinusitis.
 **Important Considerations:**
-* **Not a cure:** Flonase is not a cure for allergies. It helps manage symptoms, but it doesn't eliminate the underlying cause.
-* **Side effects:** Like all medications, Flonase can have side effects. These can include nasal dryness, irritation, and even rebound congestion if used for prolonged periods.
-* **Consult your doctor:** It's crucial to consult with your doctor before using Flonase or any other medication. They can assess your individual needs, determine if it's appropriate for you, and advise on the correct dosage and duration of use.
-Let me know if you have any other questions about Flonase or other allergy medications. 
+* **Prescription required:** Flonase is a prescription medication, so you'll need a doctor's order to obtain it.
+* **Side effects:** Like all medications, Flonase can have side effects. These are usually mild and temporary, but can include:
+    * **Nasal irritation:**  This is a common side effect, especially when starting the medication.
+    * **Hoarseness:**  This can occur due to the medication's effect on the vocal cords.
+    * **Weight gain:**  Corticosteroids can contribute to weight gain, although this is not a common side effect.
+* **Long-term use:**  While Flonase is generally safe for short-term use, long-term use can lead to side effects like thinning of the nasal lining and increased risk of infections. 
+**Always consult with your doctor before starting any new medication, including Flonase.** They can help you determine if it's the right treatment for you and advise you on the appropriate dosage and duration of use. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -10206,12 +10187,15 @@
       <c r="G152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You are correct! Singulair (montelukast) is **not** an inhaler. It is an **oral tablet** that is taken by mouth. 
-Here's why this is important:
-* **Mechanism of Action:** Singulair works by blocking the action of leukotrienes, which are chemicals that cause inflammation and contribute to asthma symptoms. It's not inhaled directly into the lungs.
-* **Administration:**  Singulair is taken orally, usually once a day, with or without food. 
-* **Inhalers:**  Inhalers are used for medications that are inhaled directly into the lungs, such as bronchodilators for asthma or corticosteroids for inflammation.
-**Important Note:**  It's always best to consult with a healthcare professional for any medical advice or questions about medications. They can provide personalized guidance based on your individual needs and medical history. 
+You are correct! Singulair (montelukast) is **an oral tablet**, not an inhaler. 
+Here's why that's important:
+* **Mechanism of Action:** Singulair works by blocking the action of leukotrienes, which are chemicals that contribute to inflammation and allergic reactions. It's primarily used to treat asthma and allergic rhinitis (hay fever). 
+* **Inhalers vs. Tablets:** Inhalers deliver medication directly to the lungs, while tablets are taken orally. This means Singulair's effects are systemic, meaning it affects the entire body, rather than just the lungs.
+**Important Considerations:**
+* **Dosage:** Singulair tablets are available in different strengths, and the dosage will be determined by your doctor based on your individual needs and medical history.
+* **Side Effects:** Like all medications, Singulair can have side effects. Common ones include headache, nausea, and diarrhea. 
+* **Interactions:** Singulair can interact with other medications, so it's crucial to inform your doctor about all the medications you are taking.
+**Always consult with your doctor or pharmacist for any questions or concerns about your medication.** They can provide personalized advice and ensure you are taking Singulair safely and effectively. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -10255,30 +10239,30 @@
       <c r="G153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Let's break down what "non-reactive" means for Hepatitis A IgM antibodies. 
+Let's break down what "non-reactive" means for Hepatitis A IgM antibodies.
 **Understanding Hepatitis A**
-Hepatitis A is a viral infection that primarily affects the liver. It's usually spread through contaminated food or water, or close contact with an infected person. 
+Hepatitis A is a viral infection that primarily affects the liver. It's highly contagious and spreads through the fecal-oral route, meaning it's often spread through contaminated food or water.
 **Hepatitis A IgM Antibodies**
-* **IgM:** This is a type of antibody produced by your immune system in response to a new infection. It's the first antibody your body makes to fight off a virus.
-* **Hepatitis A IgM:** This specific type of IgM antibody is produced when your body encounters the Hepatitis A virus. 
+* **IgM:** This is a type of antibody produced by your immune system in response to an infection. IgM antibodies are the first line of defense and are very effective at fighting off the virus.
+* **Hepatitis A IgM:** This refers specifically to antibodies against the Hepatitis A virus.  
 **What "Non-Reactive" Means**
 "Non-reactive" means that your blood test for Hepatitis A IgM antibodies did not show any detectable levels of these antibodies.  
 **Possible Interpretations**
-Here's what it could mean:
-* **You've never been infected with Hepatitis A:**  If you've never been exposed to the virus, your body hasn't produced any IgM antibodies.
-* **You've recently been exposed to Hepatitis A:**  It's possible you were recently exposed to the virus, but your immune system hasn't yet produced enough IgM antibodies to be detected by the test. 
-* **The test was not sensitive enough:**  There's a chance the test you had may not have been able to detect the presence of Hepatitis A IgM antibodies. 
+* **You've never been infected with Hepatitis A:**  If you've never been exposed to Hepatitis A, your body hasn't produced any IgM antibodies against it.
+* **Recent infection:**  It's possible you were recently infected with Hepatitis A, but the IgM antibodies haven't yet been detected in your blood. This is because it takes time for your immune system to produce these antibodies after an infection.
+* **Previous infection:**  You may have had Hepatitis A in the past, but your IgM antibodies have since cleared from your system. 
 **Important Considerations**
-* **Always consult a doctor:**  It's crucial to discuss any blood test results with your doctor. They can interpret the results in the context of your medical history and provide personalized advice.
-* **Further testing:**  Your doctor may recommend additional tests, such as a Hepatitis A IgG antibody test, to confirm the presence or absence of past or current infection.
-* **Vaccination:**  Hepatitis A vaccination is highly effective in preventing infection. If you haven't been vaccinated, talk to your doctor about getting the vaccine.
-**In Summary**
-"Non-reactive" for Hepatitis A IgM antibodies means your body hasn't produced detectable levels of these antibodies. This could be due to a lack of exposure to the virus, a recent exposure, or a limitation in the test's sensitivity. Always consult your doctor for a proper interpretation and guidance. 
+* **Testing:**  It's important to note that a non-reactive result for Hepatitis A IgM doesn't necessarily mean you are free from the virus.  
+* **Further Testing:**  Your doctor may recommend further testing, such as a Hepatitis A IgG antibody test, to confirm your immune status.
+* **Vaccination:**  If you haven't been vaccinated against Hepatitis A, your doctor can discuss the benefits and risks of vaccination.
+**When to See a Doctor**
+If you have any concerns about your health or test results, it's always best to consult with your doctor. They can provide personalized advice and guidance based on your individual circumstances.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -10315,29 +10299,28 @@
       <c r="G154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking about Ambien, which is the brand name for the drug Zolpidem.  Let's break down its classification and why it's important to understand.
-**Yes, Ambien (Zolpidem) is a controlled substance.** 
+You're asking about Ambien, which is the brand name for the drug Zolpidem.  Let me break down what you need to know about its classification:
+**Yes, Ambien (Zolpidem) is a controlled substance.**
 Here's why:
-* **Schedule IV:**  In the United States, Zolpidem is classified as a Schedule IV controlled substance. This means it has a potential for abuse, but it's not as highly addictive as Schedule I substances (like heroin or LSD). 
-* **Prescription Only:**  Because of its potential for abuse and dependence, Zolpidem is only available by prescription from a licensed healthcare professional. 
-* **Risks and Side Effects:**  Like all medications, Zolpidem can have side effects and risks. These can include:
-    * **Drowsiness:**  This is the most common side effect, and it's why it's prescribed for sleep problems.
-    * **Cognitive Impairment:**  Zolpidem can impair memory and concentration, especially when taken in high doses or for extended periods.
-    * **Addiction and Dependence:**  While not as addictive as some other drugs, Zolpidem can lead to dependence and withdrawal symptoms if misused.
-    * **Interactions:**  Zolpidem can interact with other medications, so it's crucial to inform your doctor about all the medications you're taking.
+* **Schedule IV:**  In the United States, Zolpidem is classified as a Schedule IV controlled substance. This means it has a lower potential for abuse than Schedule I substances (like heroin or LSD), but it can still be habit-forming and has a risk of dependence.
+* **Prescription Only:**  Zolpidem is a prescription-only medication. This is because it's a sedative-hypnotic, meaning it's designed to help people sleep. It can be addictive and dangerous if misused.
+* **Potential for Abuse and Dependence:**  Like many sleep medications, Zolpidem can be abused, leading to dependence and withdrawal symptoms. 
+* **Risks and Side Effects:**  Zolpidem can cause drowsiness, dizziness, and impaired coordination. It can also lead to dependence, withdrawal symptoms, and other side effects.
 **Important Considerations:**
-* **Use Only as Directed:**  Always take Zolpidem exactly as prescribed by your doctor. Never exceed the recommended dosage.
-* **Don't Mix with Alcohol:**  Mixing Zolpidem with alcohol can increase the risk of drowsiness, impaired coordination, and other side effects.
-* **Talk to Your Doctor:**  If you experience any side effects or have concerns about your use of Zolpidem, talk to your doctor. They can adjust your dosage or recommend alternative treatments.
-**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+* **Always consult a doctor:**  Never take Ambien or any other medication without a doctor's prescription. 
+* **Follow instructions carefully:**  Take Ambien exactly as prescribed by your doctor. Do not take more than the recommended dose.
+* **Be aware of potential interactions:**  Zolpidem can interact with other medications, so it's important to tell your doctor about all the medications you're taking.
+* **Don't mix with alcohol:**  Mixing Ambien with alcohol can be dangerous and increase the risk of side effects.
+**If you have concerns about your use of Ambien or any other medication, please talk to your doctor.** They can help you understand the risks and benefits of the medication and make sure it's the right choice for you. 
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -10385,12 +10368,12 @@
 * **Reduced Saliva Production:**  As a result of nerve damage, your salivary glands may produce less saliva, leading to dry mouth.
 * **Other Contributing Factors:**  Dry mouth can also be caused by medications, certain medical conditions, and even dehydration.
 **Important Considerations:**
-* **Not Always the First Sign:** While dry mouth is a common symptom, it's not always the first sign of diabetes. Other symptoms include frequent urination, excessive thirst, unexplained weight loss, increased hunger, blurred vision, slow-healing sores, and fatigue.
-* **Early Detection is Key:** If you experience any of these symptoms, it's important to see your doctor for a diagnosis. Early detection and management of diabetes can significantly reduce the risk of complications.
+* **Not Always the First Sign:** While dry mouth is a common symptom, it's not always the first sign of diabetes. Other symptoms include increased thirst, frequent urination, unexplained weight loss, fatigue, blurred vision, and slow-healing sores.
+* **Early Detection is Key:** If you experience any of these symptoms, it's important to see your doctor for a diagnosis. Early detection and management of diabetes can help prevent complications.
 * **Treatment Options:**  Treatment for dry mouth in diabetes typically involves:
-    * **Saliva substitutes:** These can help to keep your mouth moist.
-    * **Artificial saliva:**  Over-the-counter products can help to stimulate saliva production.
-    * **Lifestyle changes:**  Staying hydrated, eating a healthy diet, and avoiding smoking can also help to reduce dry mouth.
+    * **Saliva substitutes:**  Over-the-counter or prescription saliva substitutes can help keep your mouth moist.
+    * **Artificial saliva:**  These products are designed to mimic the natural saliva and can be used to help with dryness.
+    * **Lifestyle changes:**  Staying hydrated, eating a healthy diet, and avoiding smoking can also help reduce dry mouth.
     * **Medications:**  In some cases, your doctor may prescribe medications to help manage your blood sugar levels and reduce nerve damage.
 **Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Please consult with your doctor for any health concerns or before making any decisions related to your health or treatment. 
 Let me know if you have any other questions. 
@@ -10401,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -10441,32 +10424,28 @@
         <is>
           <t xml:space="preserve">
 That's a great question!  Let's break down the truth about yeast infections and their transmission.
-**The short answer is: Yeast infections are not typically transferable in the way we think of contagious diseases like the flu.**
-**Here's why:**
+**Yeast infections are not typically transferable in the way we think of contagious diseases like the flu.**  Here's why:
 * **Yeast is a fungus:**  Yeast is a type of fungus that naturally lives on the skin and in the body. It's a part of a healthy ecosystem.
-* **Overgrowth, not infection:**  Yeast infections occur when there's an overgrowth of yeast (specifically *Candida albicans*) in a particular area. This overgrowth can be caused by various factors, including:
+* **Overgrowth, not infection:**  Yeast infections occur when there's an overgrowth of yeast (specifically *Candida albicans*) in a particular area. This overgrowth can be caused by:
     * **Hormonal changes:**  Pregnancy, menopause, and hormonal birth control can increase yeast growth.
     * **Antibiotics:**  These can disrupt the balance of good and bad bacteria in the body, allowing yeast to flourish.
     * **Diabetes:**  High blood sugar levels can also promote yeast overgrowth.
-    * **Weakened immune system:**  Conditions like HIV or certain medications can suppress the immune system, making you more susceptible to yeast infections.
-* **Not a contagious disease:**  Unlike viruses or bacteria, yeast infections are not spread through direct contact with an infected person. You can't catch a yeast infection from someone else.
-* **Transmission through contact:**  While yeast infections themselves aren't contagious, there are some situations where you might be more likely to experience an overgrowth:
-    * **Sharing intimate items:**  Sharing towels, underwear, or other intimate items with someone who has a yeast infection can increase your risk of overgrowth.
-    * **Skin-to-skin contact:**  While not directly contagious, prolonged skin-to-skin contact with someone who has a yeast infection can increase the risk of overgrowth.
-**Important Notes:**
-* **Symptoms:**  Yeast infections can cause itching, burning, redness, and a thick, white discharge.
-* **Treatment:**  Yeast infections are usually treated with antifungal medications.
-* **Prevention:**  Maintaining good hygiene, avoiding tight-fitting clothing, and managing underlying conditions like diabetes can help prevent yeast infections.
-**If you're concerned about a yeast infection, it's important to see a doctor for proper diagnosis and treatment.** 
-Let me know if you have any other questions! 
+    * **Certain medications:**  Some medications can also increase the risk of yeast infections.
+    * **Tight clothing:**  This can trap moisture and create a favorable environment for yeast.
+* **Not a contagious disease:**  While yeast overgrowth can be uncomfortable, it's not a contagious disease like the flu. You can't catch a yeast infection from someone else.
+**However, there are some nuances to consider:**
+* **Sharing personal items:**  Sharing towels, washcloths, or intimate items with someone who has a yeast infection can increase the risk of transmission. This is because the yeast can be transferred to the skin or mucous membranes.
+* **Underlying health conditions:**  People with weakened immune systems or underlying health conditions may be more susceptible to yeast infections and may be more likely to experience complications.
+**Important Note:** If you are experiencing symptoms of a yeast infection, it's important to see a doctor for proper diagnosis and treatment. 
+**Remember:**  Yeast infections are common and treatable.  Understanding the causes and how they differ from contagious diseases can help you manage them effectively. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -10503,29 +10482,39 @@
       <c r="G157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alright, let's talk about Diflucan (fluconazole) for yeast infections. 
+It's great you're seeking information about Diflucan!  It's a common and effective treatment for yeast infections.  
+Here's what I can tell you:
 **What is Diflucan?**
-Diflucan is an antifungal medication that's very effective at treating a variety of fungal infections, including yeast infections. It works by stopping the growth of the fungus that causes the infection.
+* Diflucan (fluconazole) is an antifungal medication. 
+* It's used to treat a variety of fungal infections, including yeast infections.
+**How Does Diflucan Work?**
+* Diflucan works by stopping the growth of the fungus that causes the infection. 
+* It targets the fungus's cell membrane, disrupting its ability to function.
 **Yeast Infections and Diflucan**
-Yeast infections are caused by an overgrowth of a type of fungus called Candida.  They are common, especially in women, and can occur in various parts of the body, including the vagina, mouth, and skin.
-**How Diflucan Works:**
-Diflucan is a broad-spectrum antifungal, meaning it can be effective against many different types of fungi. It works by inhibiting the growth of the fungus, preventing it from multiplying and causing further infection.
-**When to Use Diflucan:**
-Diflucan is typically prescribed for:
-* **Vaginal yeast infections:** This is the most common use of Diflucan. It's effective in treating symptoms like itching, burning, and discharge.
-* **Oral yeast infections:** These can occur in the mouth, tongue, and throat.
-* **Skin yeast infections:** These can appear as rashes, redness, and itching.
-**How to Use Diflucan:**
-Diflucan is available in oral tablet form. The dosage and duration of treatment will vary depending on the type of infection and the severity of symptoms. 
-* **Dosage:** Your doctor will determine the appropriate dosage for you. It's usually taken once or twice daily for a few days.
-* **Duration:** Treatment usually lasts for 1 to 2 weeks.
-**Important Considerations:**
-* **Consult a Doctor:** It's crucial to see a doctor for a proper diagnosis and treatment plan. Self-treating can be dangerous.
-* **Pregnancy and Breastfeeding:** Diflucan is generally safe for pregnant and breastfeeding women, but it's important to discuss the risks and benefits with your doctor.
-* **Drug Interactions:** Diflucan can interact with other medications. Be sure to inform your doctor about all the medications you're taking.
-* **Side Effects:**  Common side effects of Diflucan include nausea, headache, and diarrhea. These usually subside after a few days.
-* **Allergic Reactions:**  While rare, allergic reactions to Diflucan can occur. Seek immediate medical attention if you experience any signs of an allergic reaction, such as difficulty breathing, swelling of the face or throat, or hives.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
+* **Common Yeast Infection:**  The most common yeast infection treated with Diflucan is a vaginal yeast infection, also known as vulvovaginal candidiasis (VVC). 
+* **Other Infections:** Diflucan can also be used to treat other fungal infections, such as:
+    * Oral thrush (candidiasis of the mouth)
+    * Skin infections (like athlete's foot)
+    * Nail infections
+**When to Use Diflucan**
+* **Diagnosis:** It's important to get a diagnosis from a healthcare professional before starting any medication. They will determine if it's a yeast infection and the appropriate treatment.
+* **Symptoms:**  Diflucan is typically prescribed for yeast infections that cause:
+    * Vaginal itching, burning, or soreness
+    * Thick, white discharge
+    * Redness or swelling in the vulva
+    * Pain during intercourse
+**Important Considerations**
+* **Dosage:** The dosage of Diflucan varies depending on the type of infection and the individual's age and health. 
+* **Duration:** Treatment usually lasts for a few days to a week.
+* **Side Effects:**  Diflucan is generally well-tolerated, but some people may experience side effects, such as:
+    * Nausea
+    * Headache
+    * Dizziness
+    * Diarrhea
+    * Rash
+* **Pregnancy and Breastfeeding:**  Diflucan is generally safe for pregnant and breastfeeding women, but it's important to discuss the risks and benefits with a healthcare professional.
+* **Drug Interactions:** Diflucan can interact with other medications. It's important to tell your doctor about all the medications you are taking.
+**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge only. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
 Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -10534,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -10572,33 +10561,34 @@
       <c r="G158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're dealing with ear pain, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  **It's crucial to consult a doctor for a proper diagnosis and treatment plan.** 
-That being said, I can offer some general information about ear pain and potential causes:
+I understand you're dealing with ear pain, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  **It's crucial to see a doctor to determine the cause of your ear pain and receive appropriate treatment.** 
+That being said, I can offer some general information about ear pain and potential home remedies that *may* help, **but always consult a doctor first**:
 **Possible Causes of Ear Pain:**
-* **Ear Infection (Otitis Media):** This is a common cause, especially in children. It's an inflammation of the middle ear, often due to a bacterial or viral infection.
-* **Earwax Buildup (Impacted Earwax):**  Excessive earwax can block the ear canal, causing pain and discomfort.
-* **Eustachian Tube Dysfunction:** This refers to problems with the Eustachian tube, which connects the middle ear to the back of the throat. It can cause pressure changes in the ear, leading to pain.
-* **Sinus Infection (Sinusitis):**  Inflammation of the sinuses can cause pressure and pain that can radiate to the ears.
-* **Trauma:**  A blow to the head or ear can cause pain and damage.
-* **Other Conditions:**  Less common causes include Meniere's disease, TMJ disorders, and certain medications.
-**What You Can Do (While Seeking Medical Advice):**
-* **Over-the-Counter Pain Relief:**  Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce pain and inflammation.
-* **Warm Compress:**  Applying a warm compress to the affected ear can help relieve pressure and pain.
-* **Elevate Your Head:**  Sleeping with your head elevated can help drain fluids from the ear.
-* **Avoid Irritants:**  Stay away from loud noises, smoke, and other irritants that can worsen ear pain.
-* **Stay Hydrated:**  Drinking plenty of fluids can help thin mucus and reduce congestion.
+* **Ear infection (otitis media):** This is the most common cause, especially in children. It's caused by bacteria or viruses.
+* **Earwax buildup:**  Excess earwax can cause discomfort and pressure.
+* **Eustachian tube dysfunction:** This tube connects the middle ear to the back of the throat and helps equalize pressure. Problems with this tube can cause pain and hearing problems.
+* **Sinus infection:**  Inflammation in the sinuses can cause pressure and pain that radiates to the ears.
+* **TMJ disorder:**  Problems with the temporomandibular joint (where your jaw connects to your skull) can cause ear pain.
+* **Other causes:**  Less common causes include allergies, head injuries, and certain medications.
+**Possible Home Remedies (Always consult a doctor first):**
+* **Warm compress:** Applying a warm compress to the affected ear can help relieve pain and inflammation.
+* **Over-the-counter pain relievers:** Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce pain and fever.
+* **Elevate your head:** Sleeping with your head elevated can help drain fluid from the ear.
+* **Avoid loud noises:**  Protect your ears from loud noises, which can worsen pain.
+* **Stay hydrated:** Drinking plenty of fluids can help thin mucus and reduce congestion.
+* **Use a humidifier:**  A humidifier can add moisture to the air, which can help relieve dryness and discomfort.
 **Important Notes:**
-* **Do not put anything in your ear canal.** This can push earwax further in or cause damage.
-* **If you have a fever, severe pain, hearing loss, or drainage from the ear, seek medical attention immediately.** These could be signs of a more serious condition.
-**Remember:** This information is for general knowledge only and should not be considered a substitute for professional medical advice. Please consult a doctor for a proper diagnosis and treatment plan. 
+* **Don't put anything in your ear:**  Avoid using cotton swabs or other objects to clean your ears, as this can push earwax deeper and potentially damage the eardrum.
+* **Don't ignore persistent pain:**  If your ear pain is severe, doesn't improve with home remedies, or is accompanied by other symptoms like fever, discharge, or hearing loss, seek medical attention immediately.
+**Remember, I am not a doctor. This information is for general knowledge only and should not be considered medical advice. Please consult a healthcare professional for diagnosis and treatment.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -10646,9 +10636,9 @@
 * **Transmission:** Genital warts are spread through skin-to-skin contact with an infected person. This can happen during sexual activity, even without visible sores.
 * **Infection:** When someone with HPV touches their genitals, the virus can enter the body and infect the cells.
 * **Wart development:** The virus can cause changes in the cells of the genitals, leading to the development of warts.
-**Types of HPV and their connection to genital warts:**
-* **High-risk HPV types:** These types are associated with the development of genital warts and other cancers. The most common high-risk types are HPV 6 and 11.
-* **Low-risk HPV types:** These types are less likely to cause genital warts but can still be associated with other health problems.
+**Types of HPV and their effects:**
+* **High-risk HPV types:** These types are associated with genital warts and other health problems, including cervical cancer. Some common high-risk types include HPV 16 and 18.
+* **Low-risk HPV types:** These types are less likely to cause health problems, but they can still be transmitted.
 **Risk factors:**
 * **Sexual activity:** The more sexual partners you have, the higher your risk of contracting HPV.
 * **Multiple sexual partners:** Having multiple sexual partners increases the chances of exposure to HPV.
@@ -10657,22 +10647,20 @@
 **Prevention:**
 * **Vaccination:** The HPV vaccine is highly effective in preventing infection with high-risk HPV types. It's recommended for both boys and girls.
 * **Safe sex practices:** Using condoms during sexual activity can reduce the risk of HPV transmission.
-* **Regular screenings:** Pap tests and HPV tests can help detect precancerous changes in the cervix and other areas.
+* **Regular screenings:** Pap smears and HPV tests can help detect precancerous changes in the cervix and other areas.
 **Treatment:**
-* **Cryotherapy:** Freezing the warts with liquid nitrogen.
-* **Laser therapy:** Using a laser to destroy the warts.
-* **Surgical removal:** Removing the warts surgically.
-* **Topical medications:** Some medications can help to reduce the size and growth of warts.
+* **Wart removal:** Genital warts can be removed with various methods, including cryotherapy, laser therapy, and surgical excision.
+* **HPV infection:**  While there is no cure for HPV infection, it can be managed with medications and treatments to reduce the risk of complications.
 **Important note:**
-It's crucial to remember that HPV is a common virus, and most people who are infected will clear it up on their own. However, it's important to be aware of the risks and take steps to protect yourself. If you have any concerns about HPV or genital warts, it's important to talk to your doctor. 
+It's crucial to remember that HPV is a common virus, and most people will clear it up on their own. However, it's important to be aware of the risks and take steps to protect yourself. If you have any concerns about HPV or genital warts, it's important to talk to your doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -10737,12 +10725,12 @@
 * Anxiety is a treatable condition.
 * You are not alone.
 * Seeking professional help is the best way to manage anxiety and improve your quality of life.
-If you are struggling with severe anxiety, please reach out to a mental health professional.  There are resources available to help you. 
+If you're struggling with severe anxiety, please reach out to a mental health professional.  There are effective treatments available, and you don't have to go through this alone. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -10784,42 +10772,40 @@
       <c r="G161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a fascinating question!  Let's delve into the world of pulse rates and what they can tell us. 
-**Understanding the Basics**
-A pulse is the rhythmic throbbing of your blood vessels as your heart beats. It's a vital indicator of your heart's activity.  A low pulse, meaning a slower heart rate, can be a sign of various things. 
-**Possible Causes of a Low Pulse**
-Here are some of the most common reasons why you might have a low pulse:
-* **Bradycardia:** This is the medical term for a slow heart rate. It can be caused by:
-    * **Heart conditions:**  Conditions like heart block, heart failure, or certain types of arrhythmias can slow down the heart's rhythm.
-    * **Medications:** Some medications, like beta-blockers, can slow down your heart rate.
-    * **Sleep:**  Your heart rate naturally slows down during sleep.
-    * **Hypothyroidism:** An underactive thyroid can lead to a slower heart rate.
-    * **Dehydration:**  When you're dehydrated, your body can work harder to circulate blood, leading to a slower heart rate.
-    * **Low blood pressure:**  Low blood pressure can also cause a slower heart rate.
-* **Hypothermia:**  A dangerously low body temperature can slow down your heart rate.
-* **Anxiety and Stress:**  While not a direct cause, stress can temporarily slow down your heart rate.
-* **Medications:**  Certain medications, like antidepressants or antihistamines, can have a side effect of slowing down your heart rate.
-* **Pregnancy:**  A pregnant woman's heart rate naturally slows down.
-* **Age:**  As we age, our heart rate tends to slow down.
-**When to Worry**
-While a low pulse can be normal in some situations, it's important to be aware of when it might be a cause for concern.  
-**Seek Medical Attention If:**
-* **You experience dizziness or lightheadedness.**
-* **You feel faint or weak.**
-* **You have chest pain or shortness of breath.**
-* **You have a history of heart problems.**
-* **You have a sudden change in your pulse rate.**
-* **You have any other concerning symptoms.**
-**Important Note:** I am an AI and cannot provide medical advice.  The information above is for general knowledge and should not be considered a substitute for professional medical advice.  If you have concerns about your pulse or any other health issue, please consult a doctor. 
-Let me know if you have any other questions! 
+It's great you're interested in understanding your pulse!  A low pulse, also known as bradycardia, can be a sign of a variety of things.  It's important to remember that I'm an AI and cannot provide medical advice.  **If you are experiencing a low pulse, it's crucial to consult a doctor for proper diagnosis and treatment.**
+Here's what a low pulse can potentially indicate:
+**1.  Normal Variations:**
+* **Age:**  Babies and young children have naturally slower heart rates than adults.
+* **Fitness Level:**  Athletes and people who are physically active often have faster resting heart rates.
+* **Medications:**  Some medications, like beta-blockers, can slow down your heart rate.
+**2.  Medical Conditions:**
+* **Heart Conditions:**  Bradycardia can be a symptom of heart problems like:
+    * **Heart Block:**  A problem with the electrical signals that control the heart's rhythm.
+    * **Heart Failure:**  The heart is not pumping blood effectively.
+    * **Thyroid Problems:**  An underactive thyroid (hypothyroidism) can slow down your heart rate.
+    * **Arrhythmias:**  Irregular heart rhythms.
+* **Other Conditions:**
+    * **Hypothermia:**  Low body temperature can slow down your heart rate.
+    * **Dehydration:**  Lack of fluids can affect your heart rate.
+    * **Anxiety and Stress:**  Can temporarily cause a decrease in heart rate.
+    * **Certain Medications:**  Some medications can cause bradycardia as a side effect.
+**3.  Causes of Bradycardia:**
+* **Electrolyte Imbalances:**  Imbalances in potassium, magnesium, or calcium can affect heart rhythm.
+* **Low Blood Pressure:**  Can cause the heart to beat slower.
+* **Sleep Apnea:**  Can cause irregular heart rhythms.
+**What to Do:**
+* **Monitor Your Pulse:**  Keep track of your pulse rate and any changes you notice.
+* **Seek Medical Attention:**  If you experience a low pulse that is accompanied by other symptoms like dizziness, fainting, chest pain, or shortness of breath, seek immediate medical attention.
+* **Don't Self-Diagnose:**  It's important to consult a doctor for a proper diagnosis.
+**Remember:**  A low pulse can be a sign of a serious medical condition.  Don't hesitate to seek medical help if you have any concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -10859,34 +10845,33 @@
 PPIs are a class of medications that work by blocking the production of stomach acid.  Think of them as the "acid suppressants" of the medical world. 
 **How do they work?**
 * **The Acid Factory:**  Your stomach produces acid to help digest food. This acid is made by a special part of your stomach lining called the parietal cells. 
-* **The Blockade:**  PPIs work by blocking the H+/K+-ATPase enzyme, which is responsible for pumping hydrogen ions (H+) into the stomach.  This enzyme is the "pump" that creates the acid. By blocking it, PPIs effectively reduce the amount of acid produced.
+* **The Blockade:**  PPIs work by blocking the H+/K+-ATPase enzyme, which is responsible for pumping hydrogen ions (H+) into the stomach.  This enzyme is the "pump" that creates the acid.
+* **The Result:** By blocking this pump, PPIs effectively reduce the amount of acid produced in your stomach.
 **What conditions do they treat?**
 PPIs are commonly prescribed for a variety of conditions, including:
 * **Gastroesophageal Reflux Disease (GERD):**  This is a condition where stomach acid flows back up into the esophagus, causing heartburn, regurgitation, and other symptoms.
 * **Peptic Ulcers:**  These are sores that develop in the lining of the stomach or duodenum (the first part of the small intestine).
 * **Zollinger-Ellison Syndrome:**  This rare condition causes the stomach to produce excessive amounts of acid.
-* **Helicobacter pylori Infection:**  This bacteria can cause ulcers and other stomach problems. PPIs are often used in combination with antibiotics to treat this infection.
+* **Helicobacter pylori Infection:**  This bacteria can cause ulcers and other stomach problems.
 **Benefits of PPIs:**
-* **Effective Acid Reduction:** PPIs are highly effective at reducing stomach acid production.
-* **Symptom Relief:** They can provide significant relief from heartburn, indigestion, and other symptoms associated with acid reflux.
-* **Improved Quality of Life:**  By reducing acid reflux, PPIs can improve the quality of life for many people.
+* **Effective:** PPIs are very effective at reducing stomach acid and relieving symptoms.
+* **Fast-acting:**  They can provide relief from symptoms within a few hours of taking them.
+* **Long-lasting:**  PPIs can provide relief for several hours or even days.
 **Potential Side Effects:**
-While generally safe, PPIs can have some side effects, including:
-* **Vitamin B12 Deficiency:**  Long-term use can interfere with the absorption of vitamin B12.
+* **Vitamin B12 Deficiency:**  Long-term use of PPIs can interfere with the absorption of vitamin B12, which is important for nerve function.
 * **Bone Loss:**  PPIs can increase the risk of bone fractures.
 * **C. difficile Infection:**  PPIs can increase the risk of developing C. difficile infection, a serious bacterial infection.
-* **Headaches:**  Some people experience headaches when taking PPIs.
 **Important Considerations:**
-* **Short-Term vs. Long-Term Use:**  PPIs are often prescribed for short-term use to treat acute symptoms. However, long-term use should be carefully considered and monitored by a doctor.
-* **Individualized Treatment:**  The best type and dosage of PPI for you will depend on your individual needs and medical history.
-* **Drug Interactions:**  PPIs can interact with other medications, so it's important to tell your doctor about all the medications you are taking.
-**Remember:**  I am an AI and cannot provide medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment. 
+* **Not a Cure:** PPIs are not a cure for any of the conditions they treat. They are used to manage symptoms and improve quality of life.
+* **Long-Term Use:**  It's important to use PPIs only as directed by your doctor. Long-term use can have potential side effects.
+* **Individualized Treatment:**  The best treatment for you will depend on your individual needs and medical history.
+**Remember:** I am an AI and cannot provide medical advice.  Always consult with your doctor or other qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -10928,28 +10913,36 @@
       <c r="G163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, cervical radiculopathy. A common and often troublesome condition. Let me explain it to you in a way that's easy to understand.
-**Imagine your spinal cord as a long, delicate cable running down your back.**  It's responsible for sending messages from your brain to your arms and legs.  
-**Now, picture tiny branches extending from this cable, called nerves.** These nerves branch out to your arms and hands, and they also run down your neck and into your shoulders.  
-**Cervical radiculopathy occurs when one of these branches, the nerve root, gets compressed or irritated.** This can happen due to a variety of reasons, including:
-* **Herniated disc:** A common culprit, a herniated disc is a disc in your spine that bulges out, pressing on a nerve root.
-* **Spinal stenosis:** This is a narrowing of the spinal canal, which can put pressure on the nerve roots.
-* **Tumors:**  Rarely, a tumor in the spine can press on a nerve root.
-* **Arthritis:**  Inflammation in the joints of the spine can also put pressure on the nerves.
-**The result?**  Pain, numbness, tingling, and weakness in the arm or hand.  The pain can be sharp, burning, or aching, and it can radiate down the arm.  The numbness and tingling can make it difficult to grip objects or perform fine motor tasks.  
-**Where does the pain come from?**  The compressed nerve root sends signals to the brain, which interprets them as pain.  The location of the pain depends on which nerve root is affected.
-**What can you do about it?**  Treatment depends on the cause and severity of the condition.  It may include:
-* **Conservative measures:**  Rest, ice, heat, over-the-counter pain relievers, and physical therapy.
-* **Medications:**  Anti-inflammatory drugs, muscle relaxants, and nerve pain medications.
-* **Injections:**  Steroid injections can help reduce inflammation and pain.
-* **Surgery:**  In rare cases, surgery may be necessary to relieve pressure on the nerve root.
-**Remember:**  Cervical radiculopathy is a serious condition, but it is often treatable.  If you are experiencing any of the symptoms described above, it is important to see a doctor for diagnosis and treatment.
-**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns. 
+Ah, cervical radiculopathy. A common and often troublesome condition. Let me explain.
+**Cervical radiculopathy, also known as cervical radiculopathy or cervical nerve root syndrome, is a condition that occurs when a nerve root in the neck is compressed or irritated.**  
+Think of your neck as a complex network of nerves, like a highway system. The cervical spine, which includes your neck vertebrae, houses these nerves.  When one of these nerves gets pinched or squeezed, it can cause a range of symptoms.
+**Here's a breakdown:**
+* **The culprit:** The culprit is usually a herniated disc, a bulging disc that presses on a nerve root.  Other causes include:
+    * **Spinal stenosis:** Narrowing of the spinal canal, which can compress the nerve roots.
+    * **Tumors:**  A tumor pressing on a nerve root.
+    * **Arthritis:**  Inflammation of the joints in the neck can put pressure on the nerves.
+    * **Trauma:**  A whiplash injury or other trauma can cause nerve compression.
+* **The symptoms:**  The symptoms vary depending on the nerve root affected, but common ones include:
+    * **Pain:**  Often described as a sharp, shooting, or burning pain that radiates down the arm and into the hand.
+    * **Numbness:**  Tingling, numbness, or loss of sensation in the arm, hand, or fingers.
+    * **Weakness:**  Difficulty gripping objects, weakness in the hand, or clumsiness.
+    * **Muscle spasms:**  Tightness or spasms in the muscles of the arm and hand.
+    * **Sensory changes:**  Changes in the way you feel temperature, pressure, or pain in the affected area.
+* **The location:**  The pain and symptoms are usually felt in the neck, shoulder, arm, and hand. The location of the pain can vary depending on which nerve root is affected.
+* **The diagnosis:**  A doctor will use a combination of physical examination, medical history, and imaging tests (like X-rays, MRI, or CT scans) to diagnose cervical radiculopathy.
+* **The treatment:**  Treatment depends on the severity of the condition and the underlying cause. It may include:
+    * **Conservative treatment:**  Rest, ice, heat, over-the-counter pain relievers, physical therapy, and injections.
+    * **Surgery:**  In rare cases, surgery may be necessary to relieve pressure on the nerve root.
+**Important to remember:**
+* **Seek medical attention:**  If you experience any of the symptoms mentioned above, it's important to see a doctor to get a proper diagnosis and treatment plan.
+* **Early intervention:**  Early diagnosis and treatment can help prevent long-term complications.
+* **Lifestyle modifications:**  Maintaining good posture, avoiding repetitive motions, and engaging in regular exercise can help prevent future episodes.
+I hope this explanation is helpful. Remember, I am not a substitute for a medical professional. If you have any concerns about your health, please consult with a doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -10996,27 +10989,31 @@
 * **Herpes Simplex Virus (HSV):** Valtrex is primarily used to treat outbreaks of genital herpes, oral herpes (cold sores), and shingles. It can also be used to prevent outbreaks in people with a history of recurrent herpes.
 * **Varicella-Zoster Virus (VZV):** Valtrex can be used to treat shingles (caused by VZV) and chickenpox (caused by the same virus). 
 **How it works:**
-Valacyclovir is a prodrug, meaning it's converted into its active form (acyclovir) in the body. Acyclovir works by interfering with the replication of the herpes simplex virus and varicella-zoster virus. It prevents the viruses from multiplying and spreading.
+Valacyclovir is a prodrug, meaning it's converted into its active form (acyclovir) in the body. Acyclovir works by interfering with the replication of the herpes virus, preventing it from spreading and causing symptoms.
 **Dosage and Administration:**
-* **Herpes Simplex Virus (HSV):** The dosage of Valtrex for treating HSV varies depending on the type of infection and the severity of symptoms. It's typically taken orally, usually 500 mg twice daily for 7-10 days.
-* **Shingles (VZV):** The dosage of Valtrex for shingles is usually 1 gram once daily for 7-10 days.
-* **Chickenpox (VZV):** Valtrex is typically used for prevention of chickenpox in people with a history of recurrent chickenpox. The dosage is usually 500 mg twice daily for 7-10 days.
+* **Herpes Simplex Virus (HSV):** The dosage of Valtrex varies depending on the type of herpes and the severity of the outbreak. It's typically taken orally, usually 500 mg twice daily for 10 days.
+* **Shingles (VZV):** The dosage is usually 500 mg twice daily for 7-10 days.
+* **Chickenpox (VZV):** Valtrex is typically used for prevention of chickenpox in people at high risk of complications.
 **Side Effects:**
-Valtrex is generally well-tolerated, but some people may experience side effects. Common side effects include:
+Valtrex is generally well-tolerated, but some people may experience side effects, such as:
 * Nausea
 * Vomiting
 * Diarrhea
 * Headache
 * Dizziness
-* Fatigue
+* Rash
 **Important Considerations:**
 * **Pregnancy and Breastfeeding:** Valtrex is not recommended for use during pregnancy or breastfeeding without consulting a doctor.
 * **Drug Interactions:** Valtrex can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
 * **Allergic Reactions:** Some people may be allergic to Valtrex. If you experience any allergic reactions, seek medical attention immediately.
-**When to See a Doctor:**
-* If you experience any unusual symptoms, such as fever, rash, or severe pain, consult your doctor immediately.
-* If you have any concerns about your treatment, talk to your doctor.
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+**When to see a doctor:**
+* If you have any questions about Valtrex or its use.
+* If you experience any side effects.
+* If you are pregnant or breastfeeding.
+* If you are taking any other medications.
+**Disclaimer:**
+I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+Remember, this information is not a substitute for professional medical advice. Always consult with your doctor or other qualified healthcare provider for any questions you may have regarding a medical condition or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11064,21 +11061,32 @@
 Ah, a question that touches upon the very essence of the human body! Let me explain, in a way a wise doctor would.
 **A neurological issue, in its simplest form, is any problem affecting the nervous system.**  This intricate network, responsible for everything from your thoughts and movements to your senses and emotions, can be disrupted by a variety of factors. 
 **Think of it like this:** The nervous system is like a vast highway system, with the brain as the central hub and nerves acting as the roads connecting everything.  When something goes wrong with this system, it can cause a range of problems.
-**Here's a breakdown of the key players in the nervous system and how they can be affected:**
-* **Brain:** The command center, responsible for thought, memory, movement, and much more.  Damage to the brain can lead to cognitive impairments, paralysis, or even death.
-* **Spinal Cord:** The highway connecting the brain to the rest of the body.  Injury or disease here can lead to paralysis, loss of sensation, or even difficulty breathing.
-* **Nerves:** The messengers that carry signals throughout the body.  Damage to nerves can cause weakness, numbness, tingling, or even paralysis.
-* **Sensory Organs:**  Eyes, ears, nose, tongue, skin.  These organs are responsible for receiving information from the environment.  Damage to these organs can lead to vision or hearing loss, taste changes, or even loss of sensation.
-**Now, let's delve into some common neurological issues:**
-* **Stroke:**  A sudden interruption of blood flow to the brain, causing damage.
-* **Multiple Sclerosis:**  An autoimmune disease where the body's immune system attacks the protective covering of nerves, leading to a range of symptoms.
-* **Parkinson's Disease:**  A progressive neurodegenerative disorder that affects movement, causing tremors, stiffness, and slowness.
-* **Alzheimer's Disease:**  A progressive neurodegenerative disorder that affects memory, thinking, and behavior.
-* **Epilepsy:**  A neurological disorder characterized by recurrent seizures.
-* **Headaches:**  Can be caused by a variety of factors, including stress, tension, and even neurological issues.
-**It's important to remember that neurological issues can be complex and varied.**  The symptoms, causes, and treatments can vary widely depending on the specific condition. 
-**If you are experiencing any neurological symptoms, it is crucial to seek medical attention immediately.**  A doctor can help diagnose the issue and recommend the appropriate treatment.
-Let me know if you have any further questions.  Remember, knowledge is power, and understanding your body is the first step towards good health. 
+**Here's a breakdown of the key players:**
+* **The Brain:** The command center, responsible for thought, memory, emotions, and movement.
+* **Spinal Cord:** The highway connecting the brain to the rest of the body, transmitting signals.
+* **Nerves:** The individual roads, carrying messages throughout the body.
+* **Sensory Organs:**  Eyes, ears, nose, tongue, skin - these organs receive information from the environment.
+* **Muscles:**  The body's movers, controlled by the nervous system.
+**Now, let's delve into the types of neurological issues:**
+* **Neurological Disorders:** These are chronic conditions that affect the nervous system, often causing long-term symptoms. Examples include:
+    * **Alzheimer's Disease:**  Progressive memory loss and cognitive decline.
+    * **Parkinson's Disease:**  Movement disorders like tremors and stiffness.
+    * **Multiple Sclerosis:**  Immune system attacks the protective covering of nerves.
+    * **Stroke:**  Interruption of blood flow to the brain, causing damage.
+* **Neurological Injuries:** These are sudden disruptions to the nervous system, often caused by trauma. Examples include:
+    * **Traumatic Brain Injury (TBI):**  Damage to the brain from a blow or jolt.
+    * **Spinal Cord Injury:**  Damage to the spinal cord, affecting movement and sensation.
+    * **Peripheral Nerve Injury:**  Damage to nerves outside the brain and spinal cord.
+* **Neurological Infections:**  These are caused by pathogens like viruses, bacteria, or fungi, affecting the nervous system. Examples include:
+    * **Meningitis:**  Inflammation of the membranes surrounding the brain and spinal cord.
+    * **Encephalitis:**  Inflammation of the brain.
+    * **Guillain-Barré Syndrome:**  Immune system attacks the peripheral nerves.
+**It's important to remember:**
+* Neurological issues can manifest in a wide range of ways, from subtle changes in behavior to severe physical disabilities.
+* The causes of neurological issues are diverse, ranging from genetic predisposition to environmental factors.
+* Diagnosis and treatment of neurological issues require a comprehensive approach, often involving a team of specialists.
+**If you suspect you or someone you know may have a neurological issue, it's crucial to seek medical attention promptly.** A thorough evaluation by a qualified healthcare professional is essential for accurate diagnosis and appropriate treatment. 
+Let me know if you have any further questions. I'm here to help. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11125,31 +11133,39 @@
       <c r="G166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question about topical steroids!  A very common one, indeed. 
-Let me explain. Topical steroids are a class of medications that are applied directly to the skin. They work by reducing inflammation and itching.  
-Here's a breakdown of some common examples:
-**Common Topical Steroid Names:**
-* **Hydrocortisone:** This is the most common and often the first-line treatment for mild to moderate skin conditions. You'll find it in creams, ointments, and lotions.
-* **Fluticasone:**  This is often used for conditions like eczema and psoriasis. It's available in creams, ointments, and sprays.
-* **Mometasone:**  Another common choice for eczema and other inflammatory skin conditions. It's available in creams, ointments, and lotions.
-* **Dexamethasone:** This is a potent steroid used for severe inflammation and allergic reactions. It's typically available in stronger formulations.
-**How They Work:**
-Topical steroids work by suppressing the immune system's response to inflammation. They do this by blocking the production of certain chemicals that cause inflammation. This helps to reduce redness, swelling, itching, and pain.
+Ah, a question about topical steroids!  A wise choice, as they are often used to manage a variety of skin conditions. 
+Here's what you need to know:
+**What are Topical Steroids?**
+Topical steroids are medications that are applied directly to the skin. They work by reducing inflammation and suppressing the immune system's response to irritants or allergens. 
+**Examples of Topical Steroids:**
+* **Hydrocortisone:** This is one of the most common topical steroids. It's available in various strengths and is often used for conditions like:
+    * **Eczema (atopic dermatitis):**  Reduces itching and inflammation.
+    * **Psoriasis:**  Helps control redness and scaling.
+    * **Insect bites and stings:**  Reduces swelling and itching.
+    * **Contact dermatitis:**  Reduces inflammation caused by contact with irritants.
+* **Clobetasol:** A potent steroid used for severe eczema, psoriasis, and other inflammatory skin conditions.
+* **Fluticasone:**  Used for asthma and nasal allergies, but also available in creams and ointments for skin conditions like eczema.
+* **Mometasone:**  Another potent steroid used for eczema, psoriasis, and other inflammatory skin conditions.
+* **Prednisolone:**  A strong steroid used for severe inflammatory conditions like eczema, psoriasis, and allergic reactions.
 **Important Considerations:**
-* **Prescription vs. Over-the-Counter:**  While some topical steroids are available over-the-counter, others require a prescription from a doctor. This is because stronger steroids can have more side effects.
-* **Side Effects:**  While generally safe, topical steroids can have side effects like skin thinning, acne, and stretch marks. 
-* **Long-Term Use:**  It's important to use topical steroids as directed by your doctor and not use them for longer than recommended. 
-* **Underlying Conditions:**  Some people may have underlying medical conditions that make topical steroids unsuitable for them. 
-**Remember:** I am not a medical professional. This information is for general knowledge only. Always consult with your doctor or a qualified healthcare provider for any medical concerns or before starting any new treatment. 
+* **Prescription Required:**  Most topical steroids are prescription medications. It's crucial to consult a doctor to determine the appropriate steroid and dosage for your specific condition.
+* **Side Effects:**  While effective, topical steroids can have side effects, including:
+    * **Skin thinning:**  Prolonged use can weaken the skin's barrier function.
+    * **Acne:**  Can worsen acne in some individuals.
+    * **Striae (stretch marks):**  Can cause stretch marks in areas of skin that stretch.
+    * **Cushing's syndrome:**  Long-term use can lead to hormonal imbalances.
+* **Avoid Overuse:**  It's important to use topical steroids only as directed by your doctor. Overuse can lead to side effects and reduce the medication's effectiveness.
+* **Sun Sensitivity:**  Topical steroids can make your skin more sensitive to the sun. Always use sunscreen when using these medications.
+**Remember:**  This information is for general knowledge only. It's crucial to consult a doctor for diagnosis and treatment of any skin condition. 
 Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -11188,27 +11204,25 @@
       <c r="G167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question about Augmentin! A common one, indeed. Let me enlighten you. 
-Augmentin is a brand name for a combination antibiotic medication. It's a powerful tool in the fight against bacterial infections, but it's crucial to understand its purpose and how to use it safely.
-**What is Augmentin made of?**
-Augmentin is a combination of two antibiotics:
-* **Amoxicillin:** This is a penicillin-type antibiotic that works by stopping bacteria from building their cell walls, leading to their destruction.
-* **Clavulanate:** This is a beta-lactamase inhibitor. Beta-lactamases are enzymes produced by some bacteria that can break down penicillin-type antibiotics like amoxicillin. Clavulanate prevents these enzymes from working, allowing amoxicillin to remain effective.
-**What does Augmentin treat?**
-Augmentin is effective against a wide range of bacterial infections, including:
-* **Respiratory tract infections:**  Like pneumonia, bronchitis, and sinusitis.
-* **Ear infections:**  Otitis media.
-* **Skin infections:**  Cellulitis, impetigo.
-* **Urinary tract infections:**  Cystitis, pyelonephritis.
-* **Sexually transmitted infections:**  Chlamydia and gonorrhea (in some cases).
-**Important Considerations:**
-* **Antibiotic Resistance:**  It's crucial to use Augmentin only when prescribed by a doctor. Overuse or misuse of antibiotics can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
-* **Side Effects:**  Like all medications, Augmentin can cause side effects. Common ones include nausea, vomiting, diarrhea, and rash. More serious side effects are possible, so it's important to report any unusual symptoms to your doctor.
-* **Interactions:**  Augmentin can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
-* **Pregnancy and Breastfeeding:**  Augmentin is generally safe for pregnant and breastfeeding women, but it's important to discuss the risks and benefits with your doctor.
-**Remember:**
-Augmentin is a powerful tool, but it's not a cure-all. It's essential to follow your doctor's instructions carefully and complete the full course of treatment, even if you start feeling better before finishing. 
-**Disclaimer:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+Ah, a question about Augmentin!  It's a common one, and for good reason.  Let's break down what this medication is all about.
+**Augmentin is a brand name for a combination antibiotic medication.**  It's a powerful tool in the fight against bacterial infections, but it's important to understand how it works and when to use it.
+**Here's the breakdown:**
+* **Active Ingredients:** Augmentin contains two key ingredients:
+    * **Amoxicillin:** This is a penicillin-type antibiotic that works by stopping bacteria from building their cell walls, leading to their destruction.
+    * **Clavulanate Potassium:** This is a beta-lactamase inhibitor. Beta-lactamases are enzymes produced by some bacteria that can break down penicillin-type antibiotics like amoxicillin. Clavulanate prevents these enzymes from working, allowing amoxicillin to remain effective.
+* **Uses:** Augmentin is used to treat a wide range of bacterial infections, including:
+    * **Respiratory tract infections:**  Like pneumonia, bronchitis, and sinusitis.
+    * **Ear infections:**  Otitis media.
+    * **Skin infections:**  Cellulitis, impetigo.
+    * **Urinary tract infections:**  Cystitis, pyelonephritis.
+    * **Sexually transmitted infections:**  Chlamydia and gonorrhea (in some cases).
+* **How it Works:** Augmentin works by combining the effectiveness of amoxicillin with the protection provided by clavulanate. This combination allows it to combat a broader range of bacteria that might otherwise be resistant to amoxicillin alone.
+* **Important Considerations:**
+    * **Antibiotic Resistance:**  It's crucial to use Augmentin only when prescribed by a doctor. Overuse or misuse of antibiotics can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
+    * **Side Effects:**  Like all medications, Augmentin can cause side effects. Common ones include nausea, vomiting, diarrhea, and rash. More serious side effects are possible, so it's important to discuss any concerns with your doctor.
+    * **Interactions:**  Augmentin can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized guidance on using Augmentin or any other medication. 
+Let me know if you have any other questions about Augmentin or any other medical topic. I'm here to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11264,7 +11278,7 @@
     * **Dry eye:**  This can irritate the eyelids and contribute to blepharitis.
     * **Allergies:**  Allergic reactions can also trigger inflammation in the eyelids.
     * **Other factors:**  Certain medications, skin conditions, and even stress can play a role.
-* **Symptoms:**  The symptoms of blepharitis can vary, but common ones include:
+* **Symptoms:**  Blepharitis can manifest in various ways, including:
     * **Redness:**  The eyelids may appear red and inflamed.
     * **Itching:**  The eyelids can be itchy, especially in the morning.
     * **Crusting:**  A crusty film may form on the eyelashes, especially in the morning.
@@ -11276,18 +11290,23 @@
     * **Posterior blepharitis:**  This type affects the back part of the eyelid, where the oil glands are located.
 * **Diagnosis:**  Your doctor will likely ask about your symptoms and medical history. They may also perform a physical exam of your eyelids. 
 * **Treatment:**  Blepharitis is usually treated with a combination of:
-    * **Warm compresses:**  These can help to soften the crusts and reduce inflammation.
+    * **Warm compresses:**  These can help to loosen crusts and reduce inflammation.
     * **Lid scrubs:**  These are gentle cleansers that can help to remove bacteria and debris from the eyelids.
-    * **Antibiotics:**  In some cases, your doctor may prescribe antibiotics to treat a bacterial infection.
+    * **Antibiotics:**  In some cases, antibiotics may be prescribed to treat bacterial infections.
     * **Artificial tears:**  These can help to lubricate the eyes and reduce dryness.
-    * **Eyelid hygiene:**  Keeping your eyelids clean and free of debris is important.
-**Important Note:**  While blepharitis is usually a mild condition, it can sometimes lead to more serious problems, such as corneal ulcers or vision loss. If you are experiencing any of the symptoms of blepharitis, it is important to see your doctor for a diagnosis and treatment plan. 
-Let me know if you have any other questions. I'm here to help! 
+    * **Anti-inflammatory medications:**  These can help to reduce inflammation.
+* **Prevention:**  While you can't always prevent blepharitis, you can take steps to reduce your risk, such as:
+    * **Good hygiene:**  Wash your hands frequently and avoid touching your eyes.
+    * **Regular eyelid cleaning:**  Use a gentle eyelid cleanser and warm compresses.
+    * **Manage dry eye:**  Use artificial tears or other eye drops as needed.
+    * **Avoid harsh makeup:**  Use hypoallergenic makeup and avoid using makeup on your eyelids.
+**Important Note:**  Blepharitis can sometimes be a symptom of a more serious underlying condition. If you experience any of the symptoms mentioned above, it's important to see your doctor for a proper diagnosis and treatment plan. 
+I hope this information is helpful. Remember, I am not a substitute for a medical professional. Always consult with your doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -11324,27 +11343,32 @@
       <c r="G169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, cefdinir. A fine example of a third-generation cephalosporin antibiotic. Let me tell you what I know about this potent medicine.
+Ah, cefdinir. A fine example of a third-generation cephalosporin antibiotic. Let me tell you what I know about this potent medication.
 **Cefdinir: A Powerful Weapon Against Bacterial Infections**
-Cefdinir is a broad-spectrum antibiotic, meaning it can fight a wide range of bacteria. It's particularly effective against:
-* **Gram-positive bacteria:**  These include bacteria like *Staphylococcus aureus* (MRSA), *Streptococcus pneumoniae*, and *Streptococcus pyogenes*.
-* **Gram-negative bacteria:**  This includes bacteria like *Escherichia coli*, *Klebsiella pneumoniae*, and *Haemophilus influenzae*.
-**How Does It Work?**
-Cefdinir works by interfering with the bacteria's ability to build their cell walls. This weakens the bacteria, causing them to burst and die. 
-**Uses:**
-Cefdinir is commonly prescribed for various bacterial infections, including:
-* **Upper respiratory tract infections:**  Like sinusitis, otitis media (ear infection), and bronchitis.
-* **Skin and soft tissue infections:**  Such as cellulitis, impetigo, and abscesses.
-* **Urinary tract infections:**  Including cystitis and pyelonephritis.
-* **Pneumonia:**  In certain cases.
+Cefdinir is a broad-spectrum antibiotic, meaning it's effective against a wide range of bacteria. It's used to treat various infections, including:
+* **Upper respiratory tract infections:**  Like sinusitis, otitis media (ear infections), and bronchitis.
+* **Skin and soft tissue infections:** Such as cellulitis, impetigo, and abscesses.
+* **Urinary tract infections:** Including cystitis and pyelonephritis.
+* **Gastrointestinal infections:**  Like traveler's diarrhea.
+**How it Works: A Tale of Bacterial Defense**
+Cefdinir works by interfering with the bacterial cell wall, a crucial component for their survival. It does this by:
+* **Preventing the formation of peptidoglycan:** This is a key component of the bacterial cell wall, and its absence weakens the cell, leading to its demise.
+**Key Features of Cefdinir:**
+* **Oral Administration:**  Cefdinir is available in tablet form, making it convenient for patients to take at home.
+* **Broad Spectrum:**  It's effective against a wide range of bacteria, including those resistant to other antibiotics.
+* **Long Half-Life:**  Cefdinir has a longer half-life than many other antibiotics, meaning it stays in your system for a longer time and provides sustained protection.
+* **Good Bioavailability:**  It's well absorbed in the gut, allowing for effective treatment.
 **Important Considerations:**
-* **Dosage and Duration:**  The dosage and duration of treatment will vary depending on the specific infection and the patient's age and health condition. 
-* **Side Effects:**  Like any medication, cefdinir can cause side effects. Common ones include diarrhea, nausea, and vomiting. More serious side effects are rare but can occur, such as allergic reactions.
-* **Antibiotic Resistance:**  It's crucial to complete the full course of antibiotics as prescribed, even if you start feeling better. This prevents the bacteria from developing resistance to the drug.
-* **Pregnancy and Breastfeeding:**  Cefdinir is generally considered safe during pregnancy and breastfeeding, but it's essential to discuss its use with your doctor.
-**Remember:**
-This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized guidance on using cefdinir or any other medication. 
-Let me know if you have any other questions about cefdinir or other medical topics. I'm here to help! 
+* **Antibiotic Resistance:**  Like all antibiotics, cefdinir can be rendered ineffective if bacteria develop resistance. 
+* **Side Effects:**  Common side effects include diarrhea, nausea, and vomiting. 
+* **Allergic Reactions:**  Cefdinir can cause allergic reactions, ranging from mild to severe.
+* **Drug Interactions:**  Cefdinir can interact with other medications, so it's crucial to inform your doctor about all the drugs you're taking.
+**When to Seek Medical Advice:**
+* **Severe Infections:**  If you have a severe infection, it's important to seek medical advice promptly.
+* **Allergic Reactions:**  If you experience any allergic reactions, seek medical attention immediately.
+* **Missed Dose:**  If you miss a dose, take it as soon as you remember. However, if it's almost time for your next dose, skip the missed dose and continue your regular schedule.
+**Remember:**  This information is for general knowledge only and should not be considered a substitute for professional medical advice. Always consult with your doctor or pharmacist for personalized guidance on using cefdinir or any other medication. 
+Let me know if you have any further questions. I'm always happy to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11388,39 +11412,36 @@
       <c r="G170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, chlorhexidine. A fascinating molecule with a wide range of applications in medicine. 
-Let's break down what you need to know about this potent antiseptic:
-**What is Chlorhexidine?**
-Chlorhexidine is a broad-spectrum antiseptic, meaning it effectively kills a wide variety of bacteria, fungi, and viruses. It's a member of the big family of "biguanides," which are known for their antimicrobial properties. 
-**How Does it Work?**
-Chlorhexidine works by disrupting the cell membranes of microorganisms, leading to their death. It does this through:
+Ah, chlorhexidine. A fascinating and versatile molecule with a long history in medicine. 
+Let's break down what you need to know about chlorhexidine:
+**What is it?**
+Chlorhexidine is a broad-spectrum antiseptic, meaning it can kill a wide range of bacteria, fungi, and viruses. It's a member of the big family of "biguanides," which are known for their antimicrobial properties.
+**How does it work?**
+Chlorhexidine works by disrupting the cell membranes of microorganisms, leading to their death. It does this through several mechanisms:
 * **Disruption of cell membrane integrity:**  Chlorhexidine molecules bind to the cell membrane, causing it to become leaky and ultimately leading to cell death.
-* **Interference with protein synthesis:**  Chlorhexidine can also interfere with the production of essential proteins needed for bacterial survival.
+* **Interference with protein synthesis:** Chlorhexidine can also interfere with the production of essential proteins needed for bacterial survival.
+* **DNA damage:**  In some cases, chlorhexidine can damage the DNA of microorganisms, further hindering their ability to function.
 **Forms and Uses:**
 Chlorhexidine is available in various forms, including:
-* **Liquid solutions:**  These are commonly used for wound cleaning, oral rinses, and skin disinfection.
+* **Liquid solutions:**  These are commonly used for wound care, oral hygiene, and skin disinfection.
 * **Creams and ointments:**  These are used for topical applications, particularly for skin infections.
-* **Oral rinses:**  These are popular for their ability to reduce plaque and gingivitis.
-* **Dental products:**  Chlorhexidine is a key ingredient in many toothpastes and mouthwashes.
+* **Mouthwash:**  Chlorhexidine mouthwash is a popular choice for maintaining oral hygiene and fighting gingivitis.
+* **Antiseptic solutions:**  These are used in hospitals and clinics for cleaning wounds and surgical sites.
 **Benefits:**
-* **Broad-spectrum antimicrobial activity:**  Effective against a wide range of bacteria, fungi, and viruses.
-* **Long-lasting action:**  Chlorhexidine can remain active on surfaces for extended periods.
-* **Low toxicity:**  Generally considered safe for topical use when used as directed.
-* **Effective in wound healing:**  It can help prevent infection and promote wound closure.
-* **Oral hygiene:**  It helps control plaque and gingivitis, reducing the risk of tooth decay and gum disease.
+* **Broad-spectrum activity:**  Chlorhexidine is effective against a wide range of microorganisms, making it a valuable tool in various medical settings.
+* **Long-lasting action:**  Chlorhexidine can remain active on surfaces for a significant period, providing prolonged protection.
+* **Low toxicity:**  Chlorhexidine is generally considered safe for topical use, with minimal side effects.
 **Potential Side Effects:**
 While generally safe, chlorhexidine can cause some side effects, including:
-* **Skin irritation:**  This is more common with prolonged or high-concentration use.
-* **Allergic reactions:**  Some individuals may experience allergic reactions, such as redness, itching, or swelling.
-* **Taste changes:**  Chlorhexidine can have a bitter taste, which may be unpleasant for some.
-* **Drug interactions:**  Chlorhexidine can interact with certain medications, so it's important to inform your doctor about all medications you are taking.
+* **Skin irritation:**  Chlorhexidine can cause redness, itching, and dryness, especially in sensitive individuals.
+* **Allergic reactions:**  Some people may develop allergic reactions to chlorhexidine, ranging from mild skin rashes to severe anaphylaxis.
+* **Oral side effects:**  Chlorhexidine mouthwash can cause staining of teeth and tongue.
 **Important Considerations:**
-* **Always follow the instructions on the product label.**
-* **Do not use chlorhexidine on broken or irritated skin.**
-* **Avoid contact with eyes and mucous membranes.**
-* **Consult your doctor if you experience any side effects.**
+* **Dosage and duration:**  The appropriate dosage and duration of treatment with chlorhexidine should be determined by a healthcare professional.
+* **Contraindications:**  Chlorhexidine is not recommended for use in individuals with certain medical conditions, such as kidney disease or liver disease.
+* **Pregnancy and breastfeeding:**  The safety of chlorhexidine during pregnancy and breastfeeding is not fully established.
 **In Conclusion:**
-Chlorhexidine is a powerful antiseptic with a wide range of applications in medicine. It is effective against a broad spectrum of microorganisms and can be used for wound care, oral hygiene, and skin disinfection. However, it's important to use it as directed and be aware of potential side effects. 
+Chlorhexidine is a powerful antiseptic with a wide range of applications in medicine. It is effective against a broad spectrum of microorganisms and can be used for various purposes, from wound care to oral hygiene. However, it is important to use it appropriately and be aware of potential side effects. 
 Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -11474,34 +11495,39 @@
 **What is Sciatica?**
 Sciatica is a term used to describe pain that radiates along the path of the sciatic nerve.  The sciatic nerve is the longest and thickest nerve in the body, originating in your lower back and extending down each leg. 
 **The Culprit: Compression**
-The pain you experience with sciatica is caused by **compression or irritation of the sciatic nerve**. This can happen due to a number of factors:
-* **Herniated Disc:**  A common culprit, a herniated disc occurs when the soft, jelly-like center of an intervertebral disc pushes through the tough outer layer. This can press on the sciatic nerve, causing pain.
-* **Spinal Stenosis:**  This condition involves narrowing of the spinal canal, which can compress the nerve roots, including the sciatic nerve.
-* **Spondylolisthesis:**  This refers to a vertebra slipping out of place, potentially putting pressure on the nerve.
-* **Piriformis Syndrome:**  The piriformis muscle, located deep in the buttock, can sometimes become tight or irritated, putting pressure on the sciatic nerve.
-* **Other Causes:**  Less common causes include tumors, infections, and even certain types of arthritis.
+The pain you experience with sciatica is caused by compression or irritation of the sciatic nerve. This can happen due to a number of factors:
+* **Herniated Disc:**  The most common cause. A disc in your spine can bulge or rupture, pressing on the sciatic nerve.
+* **Spinal Stenosis:**  This is a narrowing of the spinal canal, which can compress the nerve.
+* **Piriformis Syndrome:**  The piriformis muscle, located deep in your buttock, can become tight and put pressure on the sciatic nerve.
+* **Spinal Tumors:**  Rarely, a tumor in the spine can compress the nerve.
+* **Other Conditions:**  Less common causes include infections, arthritis, and even pregnancy.
 **Symptoms:**
-The pain associated with sciatica can be quite debilitating.  It typically starts in the lower back and radiates down the back of the leg, often affecting the buttock, thigh, and calf.  You might experience:
-* **Sharp, shooting pain:**  This is often described as a "pins and needles" sensation.
-* **Burning or tingling:**  This can be accompanied by numbness or weakness in the affected leg.
-* **Pain that worsens with movement:**  Sitting, standing, or walking can exacerbate the pain.
-* **Pain that improves with rest:**  Lying down or applying heat can sometimes relieve the pain.
+Sciatica can manifest in a variety of ways, and the severity can vary from person to person.  Here are some common symptoms:
+* **Pain:**  This is often described as a sharp, shooting, or burning sensation that travels down the leg.
+* **Numbness or Tingling:**  You may experience a loss of sensation in your leg or foot.
+* **Weakness:**  You may find it difficult to move your leg or foot.
+* **Muscle Spasms:**  You may experience muscle spasms in your leg or buttock.
+* **Pain that Worsens with Movement:**  The pain is often worse when you sit, stand, or walk.
 **Diagnosis and Treatment:**
-A doctor will typically diagnose sciatica through a physical examination, reviewing your medical history, and possibly ordering imaging tests like an X-ray or MRI. 
-Treatment options vary depending on the cause and severity of the condition.  They may include:
-* **Conservative Measures:**  Rest, ice, heat, over-the-counter pain relievers, physical therapy, and muscle relaxants.
-* **Injections:**  Corticosteroid injections can help reduce inflammation and pain.
-* **Surgery:**  In rare cases, surgery may be necessary to relieve pressure on the nerve.
-**Important Notes:**
-* **Seek Medical Attention:**  If you experience persistent or severe sciatica, it's crucial to consult a doctor.  Early diagnosis and treatment can significantly improve outcomes.
-* **Don't Self-Diagnose:**  While online resources can provide information, they cannot replace a professional medical evaluation.
-* **Lifestyle Modifications:**  Maintaining a healthy weight, engaging in regular exercise, and practicing good posture can help prevent sciatica and other back problems.
-Remember, I am an AI and cannot provide medical advice.  This information is for general knowledge and should not be considered a substitute for professional medical guidance.  Always consult with a qualified healthcare provider for any health concerns. 
+A doctor will typically diagnose sciatica based on your symptoms, medical history, and physical examination. They may also order imaging tests, such as an MRI or X-ray, to rule out other conditions.
+Treatment for sciatica depends on the underlying cause and the severity of your symptoms.  Here are some common approaches:
+* **Conservative Treatment:**  This often involves rest, ice, heat, over-the-counter pain relievers, and physical therapy.
+* **Injections:**  Steroid injections can help reduce inflammation and pain.
+* **Surgery:**  Surgery is rarely necessary for sciatica, but it may be an option in cases of severe nerve compression or when conservative treatments have failed.
+**Prevention:**
+While sciatica can be a frustrating condition, there are steps you can take to help prevent it:
+* **Maintain a Healthy Weight:**  Excess weight can put pressure on your spine.
+* **Exercise Regularly:**  Strengthening your core muscles can help support your spine.
+* **Practice Good Posture:**  Avoid slouching or hunching over.
+* **Avoid Lifting Heavy Objects:**  Use proper lifting techniques.
+* **Stretch Regularly:**  Stretching can help keep your muscles and joints flexible.
+Remember, I am an AI and cannot provide medical advice. If you are experiencing sciatica, it is important to consult with a qualified healthcare professional for diagnosis and treatment. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -11537,34 +11563,33 @@
       <c r="G172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about this! Managing hypertension in diabetic patients is crucial for their overall health.  There's no single "best" treatment, as it depends on individual factors, but here's a breakdown of key approaches:
-**1. Lifestyle Modifications: The Foundation**
-* **Diet:**  A heart-healthy diet is paramount. This means:
-    * **DASH Diet:**  Low in sodium, rich in fruits, vegetables, whole grains, and lean protein.
-    * **Limit Saturated and Trans Fats:** Found in red meat, processed foods, and fried foods.
-    * **Reduce Sugar Intake:**  Limit added sugars and processed foods.
-* **Exercise:**  Aim for at least 150 minutes of moderate-intensity aerobic activity or 75 minutes of vigorous-intensity aerobic activity per week.
-* **Weight Management:**  Even a small amount of weight loss can significantly lower blood pressure.
-* **Stress Management:**  Stress can elevate blood pressure. Techniques like yoga, meditation, and deep breathing can help.
-**2. Medications: Tailoring Treatment**
-* **Diuretics:**  Help your kidneys remove excess fluid, reducing blood volume and pressure.
-* **ACE Inhibitors (Angiotensin-Converting Enzyme Inhibitors):**  Relax blood vessels, lowering blood pressure.
-* **ARBs (Angiotensin II Receptor Blockers):**  Similar to ACE inhibitors, but work through a different mechanism.
-* **Beta Blockers:**  Slow the heart rate and reduce blood pressure.
-* **Calcium Channel Blockers:**  Relax blood vessels, lowering blood pressure.
-* **Metformin:**  A common diabetes medication that can also help lower blood pressure.
-* **SGLT2 Inhibitors:**  These newer medications can lower blood pressure as a side effect.
-**3. Monitoring and Adjustments**
-* **Regular Blood Pressure Checks:**  Monitor blood pressure regularly, especially if you have diabetes.
-* **Blood Sugar Monitoring:**  Diabetes management is crucial, and blood sugar control can impact blood pressure.
-* **Medication Adjustments:**  Your doctor may need to adjust your medication dosage or type based on your blood pressure and diabetes control.
+That's a great question, and it highlights the complex interplay between hypertension and diabetes.  There's no single "best" treatment, as the ideal approach depends on individual factors. However, I can offer a comprehensive overview of the most effective strategies for managing hypertension in diabetic patients:
+**Understanding the Challenge:**
+* **Increased Risk:**  Diabetes significantly increases the risk of hypertension, and vice versa. This is because diabetes can damage blood vessels, leading to higher blood pressure.
+* **Complex Interactions:**  Diabetes medications, lifestyle changes, and other treatments can interact with each other, making it crucial to work closely with your healthcare team.
+**Key Treatment Strategies:**
+1. **Lifestyle Modifications:**
+    * **Diet:**  A balanced diet low in sodium, saturated fat, and cholesterol is crucial. Emphasize fruits, vegetables, whole grains, and lean protein.
+    * **Exercise:**  Regular physical activity helps lower blood pressure and improve blood sugar control. Aim for at least 30 minutes of moderate-intensity exercise most days of the week.
+    * **Weight Management:**  Even a small amount of weight loss can significantly reduce blood pressure.
+    * **Stress Management:**  Stress can elevate blood pressure. Techniques like meditation, yoga, or deep breathing can be helpful.
+2. **Medications:**
+    * **Diuretics:**  These medications help your body eliminate excess fluid and sodium, reducing blood pressure.
+    * **ACE Inhibitors/ARBs:**  These medications relax blood vessels, lowering blood pressure. They are often used in combination with other medications.
+    * **Beta Blockers:**  These medications slow your heart rate and reduce blood pressure.
+    * **Calcium Channel Blockers:**  These medications relax blood vessels and reduce blood pressure.
+    * **Metformin:**  This medication is often used to improve blood sugar control and may also have a modest effect on blood pressure.
+    * **SGLT2 Inhibitors:**  These medications help lower blood sugar and may also have a beneficial effect on blood pressure.
+3. **Monitoring and Adjustments:**
+    * **Regular Blood Pressure Checks:**  Monitor your blood pressure regularly, especially if you have diabetes.
+    * **Blood Sugar Monitoring:**  Regularly check your blood sugar levels to ensure they are within a healthy range.
+    * **Medication Adjustments:**  Work with your doctor to adjust your medications as needed to achieve optimal blood pressure and blood sugar control.
 **Important Considerations:**
-* **Individualized Approach:**  Treatment plans should be tailored to your specific needs and medical history.
-* **Potential Interactions:**  Be sure to inform your doctor about all medications you're taking, including over-the-counter drugs and supplements.
-* **Side Effects:**  Be aware of potential side effects of medications and discuss them with your doctor.
-* **Regular Follow-Ups:**  Regular checkups with your doctor are essential to monitor your progress and make necessary adjustments.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized treatment recommendations. 
-Let me know if you have any other questions! 
+* **Individualized Approach:**  The best treatment plan is tailored to your specific needs and medical history.
+* **Medication Interactions:**  Be sure to inform your doctor about all medications you are taking, including over-the-counter drugs and supplements.
+* **Regular Follow-up:**  Regular checkups with your doctor are essential to monitor your progress and make necessary adjustments to your treatment plan.
+**Remember:**  Managing hypertension and diabetes is a lifelong commitment. By working closely with your healthcare team and making healthy lifestyle choices, you can effectively control your blood pressure and improve your overall health. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -11616,32 +11641,35 @@
       <c r="G173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question that delves into the fascinating world of diagnostics! Let me explain the differences between urinalysis and urine culture, two crucial tests in the medical field.
+Ah, a question that gets to the heart of diagnosing urinary tract infections (UTIs). Let me explain the differences between urinalysis and urine culture, as a wise doctor would.
 **Urinalysis:**
-* **What it is:**  A urinalysis is a general screening test that examines the physical, chemical, and microscopic properties of your urine. Think of it as a comprehensive health snapshot of your urinary system.
-* **What it checks for:**
-    * **Physical:** Color, clarity, odor, and specific gravity (how concentrated the urine is).
-    * **Chemical:** Presence of glucose, ketones, protein, blood, and other substances.
-    * **Microscopic:** The presence of cells, bacteria, crystals, and other microscopic elements.
-* **Purpose:**  Urinalysis is a first-line test to identify potential problems like urinary tract infections (UTIs), kidney disease, diabetes, and other conditions. It can also help rule out certain conditions.
-* **How it's done:** A simple urine sample is collected and analyzed using a laboratory machine.
+* **What it is:** A urinalysis is a quick, non-invasive test that examines a urine sample for various components. Think of it as a general health check-up for your urine.
+* **What it looks for:**  It checks for:
+    * **Color, clarity, and odor:**  These can indicate infection, dehydration, or other issues.
+    * **pH level:**  This can reveal if your urine is acidic or alkaline.
+    * **Protein, glucose, ketones, and blood:**  These can signal kidney problems, diabetes, or other conditions.
+    * **White blood cells and bacteria:**  These are indicators of infection.
+* **How it's done:** A simple urine sample is collected and analyzed using a dipstick or a laboratory machine.
+* **When it's used:** Urinalysis is often the first step in diagnosing UTIs, as it can provide clues about the presence of infection.
 **Urine Culture:**
-* **What it is:** A urine culture is a more specific test that isolates and identifies the bacteria present in your urine. It's like a detective investigation into the cause of your urinary tract infection.
-* **What it checks for:** The presence and type of bacteria in your urine.
-* **Purpose:**  Urine culture is used to confirm a UTI and identify the specific bacteria causing it. This information is crucial for choosing the right antibiotic treatment.
-* **How it's done:** A urine sample is collected and cultured in a laboratory. The bacteria are grown on special media, and their identification is done using various techniques.
-**Key Differences:**
-* **Scope:** Urinalysis is a broad screening test, while urine culture is a more specific test focusing on bacteria.
-* **Purpose:** Urinalysis helps identify potential problems, while urine culture confirms the presence of bacteria and guides antibiotic treatment.
-* **Procedure:** Urinalysis is a simple urine sample analysis, while urine culture involves culturing the bacteria in a laboratory.
-**In Summary:**
-Urinalysis is like a general health check-up for your urinary system, while urine culture is a targeted investigation to identify the specific bacteria causing a urinary tract infection. Both tests are essential tools in diagnosing and treating urinary tract infections and other conditions.
-Let me know if you have any further questions. I'm always happy to help! 
+* **What it is:** A urine culture is a more in-depth test that grows bacteria from your urine sample. It's like taking a closer look at the "culprits" of an infection.
+* **What it looks for:**  It specifically identifies the type of bacteria causing the infection.
+* **How it's done:** A urine sample is collected and sent to a lab, where it's incubated to allow bacteria to grow. The lab then identifies the specific bacteria present.
+* **When it's used:**  Urine culture is essential for:
+    * **Confirming a UTI:**  It's needed to confirm if the symptoms are due to a bacterial infection.
+    * **Determining the appropriate antibiotic:**  Knowing the specific bacteria helps your doctor prescribe the most effective treatment.
+    * **Monitoring treatment effectiveness:**  It helps ensure the antibiotic is working and the infection is clearing up.
+**In a nutshell:**
+* **Urinalysis:** A quick, general check-up for your urine.
+* **Urine Culture:** A deeper dive into the bacteria causing the infection.
+**Think of it this way:**
+* Urinalysis is like a snapshot of your urine, while a urine culture is like a detailed examination of the bacteria causing the infection.
+Let me know if you have any other questions. Remember, I'm here to help you understand your health! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -11683,30 +11711,30 @@
       <c r="G174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about this!  Dysuria, or pain during urination, is a common issue, and it's important to understand its causes. 
-While I can't provide medical advice, I can share some insights based on my vast medical knowledge:
-**Most Common Cause in Young, Sexually Active, Healthy Men:**
-The most common cause of dysuria in young, sexually active, healthy men is **urinary tract infection (UTI)**. 
-**Why UTIs are so common:**
-* **Anatomy:** The urethra, the tube that carries urine from the bladder out of the body, is short in men. This means bacteria can more easily travel from the rectum or the bladder to the urethra and cause infection.
-* **Sexual Activity:**  Sexual activity can introduce bacteria into the urethra, increasing the risk of infection.
-* **Hygiene:**  Poor hygiene practices, such as not wiping from front to back after using the toilet, can also contribute to UTIs.
-**Other Potential Causes:**
-While UTIs are the most frequent cause, other less common but still important possibilities include:
-* **Sexually Transmitted Infections (STIs):**  Some STIs, like chlamydia and gonorrhea, can cause dysuria. 
-* **Prostatitis:** Inflammation of the prostate gland can cause pain and discomfort during urination.
-* **Kidney Stones:**  While less common, kidney stones can cause pain and burning during urination.
-* **Other Infections:**  Less frequently, other infections like bladder infections or even sexually transmitted infections can cause dysuria.
+It's great you're asking about this!  Dysuria, or painful urination, is a common issue, and it's important to understand its causes. 
+While I can't provide medical advice, I can tell you about the most common causes of dysuria in young, sexually active, healthy men. 
+**The most likely culprit is a sexually transmitted infection (STI).**  Here's why:
+* **Epididymitis:** Inflammation of the epididymis, a tube that carries sperm, is a common cause of dysuria in young men. It's often caused by bacteria, and can be a sign of STIs like chlamydia or gonorrhea.
+* **Prostatitis:** Inflammation of the prostate gland can also cause dysuria. While it's more common in older men, it can occur in younger men as well, especially if they have a history of STIs.
+* **Urinary Tract Infections (UTIs):** While UTIs are more common in women, they can affect men too, especially if they have a history of STIs or have a weakened immune system.
+**Other less common causes:**
+* **Benign prostatic hyperplasia (BPH):** An enlarged prostate can cause urinary symptoms, including dysuria.
+* **Kidney stones:** These can cause pain and burning during urination.
+* **Urethral stricture:** A narrowing of the urethra can cause difficulty urinating and pain.
+* **Trauma:** Injury to the urethra can cause dysuria.
 **Important Notes:**
-* **Seek Medical Advice:**  If you experience dysuria, it's crucial to see a doctor for proper diagnosis and treatment. 
-* **Don't Self-Treat:**  Using over-the-counter medications without a doctor's guidance can be ineffective and potentially harmful.
-* **Prevention:**  Practicing good hygiene, staying hydrated, and limiting sexual activity can help reduce the risk of UTIs.
-Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+* **Early diagnosis and treatment are crucial.** Many STIs can be effectively treated with antibiotics, preventing complications.
+* **It's important to get tested for STIs.**  Even if you don't have symptoms, you could be carrying an STI.
+* **Practice safe sex.** Using condoms consistently and getting tested regularly can significantly reduce your risk of STIs.
+**What to do:**
+* **See a doctor.** If you're experiencing dysuria, it's important to see a doctor to get a proper diagnosis and treatment. 
+* **Be open and honest with your doctor.**  The more information you provide, the better they can help you.
+Remember, I'm not a medical professional. This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare provider for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -11764,7 +11792,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -11826,7 +11854,7 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -11869,34 +11897,35 @@
 Ah, a fever. A common ailment, but one that can be quite troublesome.  Don't worry, I'm here to help you navigate this. 
 **First, let's understand what a fever is:**
 A fever is your body's natural defense mechanism against infection. It's your immune system's way of fighting off harmful invaders like bacteria and viruses.  
-**Now, what to do if you get a fever?**
+**Now, what to do if you get a fever:**
 **1. Assess the Situation:**
-* **How high is your fever?** A fever of 100.4°F (38°C) or higher in adults and 102°F (39°C) or higher in children is generally considered a fever.
-* **What are your symptoms?**  Along with fever, are you experiencing chills, headache, body aches, fatigue, nausea, vomiting, or a cough?
-* **How long has the fever been present?** A fever lasting for more than a few days might require medical attention.
+* **How high is your fever?**  A fever of 100.4°F (38°C) or higher in adults and 102°F (39°C) or higher in children is generally considered a fever.
+* **What are your symptoms?**  Along with fever, are you experiencing chills, headache, muscle aches, fatigue, cough, sore throat, or other symptoms?
+* **How long has the fever been present?**  A fever lasting for more than a few days might require medical attention.
 * **Have you been exposed to anyone with a fever?**  This could indicate an infectious illness.
 **2.  Basic Steps:**
-* **Rest:** Give your body a chance to fight the infection.
-* **Hydrate:** Drink plenty of fluids, especially water, to prevent dehydration.
+* **Rest:**  Give your body a chance to fight the infection.
+* **Hydrate:**  Drink plenty of fluids, especially water, to prevent dehydration.
 * **Cool Down:**  Take a lukewarm bath or shower, or use a cool compress on your forehead and neck.
-* **Over-the-counter medications:** Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce fever and discomfort. Follow the recommended dosage on the label.
+* **Over-the-counter medications:**  Acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help reduce fever and discomfort.  **Always follow the recommended dosage on the label.**
 **3. When to Seek Medical Attention:**
-* **High fever:** If your fever is 104°F (40°C) or higher, especially in children.
-* **Symptoms worsen:** If your symptoms worsen, such as difficulty breathing, chest pain, confusion, or seizures.
-* **Fever lasting more than 3 days:**  Especially if accompanied by other concerning symptoms.
-* **Underlying medical conditions:** If you have a weakened immune system, diabetes, or other health issues, consult your doctor.
-* **Fever in infants and young children:**  Seek immediate medical attention.
+* **High fever:**  A fever of 104°F (40°C) or higher in adults, or 103°F (39.4°C) or higher in children.
+* **Fever lasting more than 3 days:**  Especially if accompanied by other severe symptoms.
+* **Fever with stiff neck, confusion, seizures, difficulty breathing, or rash:**  These could indicate a serious infection.
+* **Fever in infants or young children:**  They are more vulnerable to complications.
+* **Fever that doesn't respond to over-the-counter medications:**  This could indicate a more serious underlying condition.
 **4. Prevention:**
-* **Vaccination:**  Stay up-to-date on your vaccinations to protect yourself from preventable illnesses.
-* **Good hygiene:** Wash your hands frequently, cover your mouth when you cough or sneeze, and avoid close contact with sick people.
-* **Healthy lifestyle:** Eat a balanced diet, get enough sleep, and exercise regularly to boost your immune system.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+* **Wash your hands frequently:**  This is the best way to prevent the spread of germs.
+* **Get vaccinated:**  Vaccines can protect you from many common illnesses that can cause fever.
+* **Avoid close contact with sick people:**  If you are around someone who is sick, try to keep your distance.
+* **Practice good hygiene:**  Cover your mouth and nose when you cough or sneeze.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. If you are concerned about your health, please consult a doctor. 
 Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -11934,24 +11963,24 @@
           <t xml:space="preserve">
 Folliculitis, a common skin condition, is primarily caused by **bacteria**, specifically those that thrive in hair follicles.  Here's a breakdown:
 **Most Common Culprits:**
-* **Staphylococcus aureus (Staph):** This is the most frequent culprit, often associated with skin infections like boils and abscesses. It can also cause folliculitis, especially in people with compromised immune systems or those who share towels or clothing.
-* **Pseudomonas aeruginosa:** This bacteria is known for causing infections in people with weakened immune systems, often in hospital settings. It can also cause folliculitis, particularly in individuals with chronic wounds or skin conditions.
-* **Propionibacterium acnes (P. acnes):** This bacteria is normally found on the skin and is a major contributor to acne. While not always the primary cause of folliculitis, it can play a role in certain cases, especially in individuals with acne-prone skin.
+* **Staphylococcus aureus (Staph):** This is the most frequent culprit, often associated with skin infections like boils and abscesses. It can also cause folliculitis, especially in people with weakened immune systems or those who share towels or clothing.
+* **Pseudomonas aeruginosa:** This bacteria is known for causing infections in people with compromised immune systems, often in hospital settings. It can also cause folliculitis, particularly in individuals with chronic wounds or skin conditions.
+* **Propionibacterium acnes (P. acnes):** This bacteria is normally found on the skin and is a major contributor to acne. While it's not the primary cause of folliculitis, it can play a role in certain cases, especially in individuals with acne-prone skin.
 **Other Potential Causes:**
-* **Other bacteria:** Less common bacteria like Escherichia coli, Streptococcus pyogenes, and Enterobacter species can also cause folliculitis, but they are less frequent than the above-mentioned bacteria.
-* **Fungal infections:**  While less common, fungal infections like ringworm can also cause folliculitis, particularly in individuals with weakened immune systems.
+* **Trichophyton rubrum:** This fungus is responsible for ringworm, a common skin infection. While not a direct cause of folliculitis, it can sometimes cause a similar condition.
+* **Other bacteria:** Less common bacteria like Escherichia coli and Streptococcus pyogenes can also cause folliculitis, but they are less frequent than Staphylococcus aureus.
 **Factors Influencing Bacterial Growth:**
-* **Warm, moist environments:** Folliculitis is often triggered by bacteria thriving in warm, moist environments like hair follicles.
-* **Friction:**  Friction from tight clothing, shaving, or other activities can irritate the skin and create an environment for bacteria to grow.
-* **Compromised immune system:**  People with weakened immune systems are more susceptible to bacterial infections, including folliculitis.
-* **Skin conditions:**  Conditions like acne, eczema, and psoriasis can increase the risk of folliculitis.
+* **Warm, moist environments:** Folliculitis is often triggered by bacteria thriving in warm, moist areas like hair follicles.
+* **Friction:** Tight clothing, shaving, and other activities that cause friction can irritate the skin and create an environment for bacteria to grow.
+* **Compromised immune system:** People with weakened immune systems are more susceptible to bacterial infections, including folliculitis.
+* **Skin conditions:** Certain skin conditions, such as eczema or psoriasis, can make the skin more susceptible to bacterial colonization.
 **Important Note:**
 It's crucial to remember that this information is for general knowledge only. If you suspect you have folliculitis, it's essential to consult a healthcare professional for proper diagnosis and treatment. They can determine the specific cause and recommend the most appropriate course of action. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -11992,37 +12021,39 @@
       <c r="G179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question about the wonders of a colonoscopy!  It's a powerful tool for understanding the health of your colon, and I'm happy to shed some light on what it reveals. 
-**What a Colonoscopy Shows:**
-A colonoscopy is a procedure where a thin, flexible tube with a camera (called a colonoscope) is inserted into your rectum and gently guided through your colon.  It allows your doctor to visualize the entire length of your colon, from the rectum to the beginning of the small intestine. 
+Ah, a colonoscopy. A fascinating window into the inner workings of your digestive system.  
 Here's what a colonoscopy can reveal:
-**1.  Polyps:** These are small, benign growths that can develop in the colon lining.  They can be precancerous, meaning they have the potential to become cancerous.  A colonoscopy can detect polyps and remove them during the procedure.
-**2.  Inflammation:**  Conditions like inflammatory bowel disease (IBD) like Crohn's disease and ulcerative colitis can cause inflammation in the colon.  A colonoscopy can help diagnose and monitor these conditions.
-**3.  Diverticulosis:**  Small pouches that form in the colon wall, called diverticula, can become inflamed or infected.  A colonoscopy can identify these and assess their severity.
-**4.  Tumors:**  While less common, a colonoscopy can detect colon cancer or other types of tumors.  
-**5.  Bleeding:**  A colonoscopy can identify bleeding in the colon, which can be caused by polyps, ulcers, or tumors.
-**6.  Other Issues:**  A colonoscopy can also reveal other issues like:
-    *  Anal fissures
-    *  Hemorrhoids
-    *  Infections
-    *  Abscesses
-**Benefits of a Colonoscopy:**
-* **Early Detection:**  A colonoscopy is a highly effective tool for detecting colon cancer and other conditions in their early stages, when treatment is most likely to be successful.
-* **Prevention:**  Removing polyps during a colonoscopy significantly reduces the risk of developing colon cancer.
-* **Peace of Mind:**  Knowing the health of your colon can provide peace of mind and allow you to make informed decisions about your health.
-**Preparation:**
-Before a colonoscopy, you'll need to follow specific instructions from your doctor.  This usually involves a clear liquid diet for a few days before the procedure and taking laxatives to clear your colon.
-**Remember:**
-A colonoscopy is a safe and effective procedure.  It's a vital tool for maintaining your colon health and preventing serious complications.  
-**Important Note:**  I am an AI and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical advice.  Always consult with your doctor for any health concerns or before making any decisions about your health. 
+**Normal Findings:**
+* **Healthy Colon:**  A healthy colon will appear smooth and free of any abnormalities. You'll see the normal lining of the colon, with its characteristic folds and haustra.
+* **Normal Bowel Movements:**  The colonoscopy will show the normal appearance and function of your bowel movements, including the presence of stool and any signs of regularity.
+* **Normal Blood Flow:**  The colonoscopy will show the healthy blood flow within the colon, indicating a well-functioning circulatory system.
+**Abnormal Findings:**
+* **Polyps:**  These are small, benign growths that can develop in the colon. They can be flat or raised, and their size and shape can vary. 
+* **Adenomas:**  These are growths that are more likely to be cancerous than polyps. They are usually larger than polyps and can be more complex in their structure.
+* **Ulcers:**  These are sores that can develop in the lining of the colon. They can be caused by a variety of factors, including infection, inflammation, and even stress.
+* **Diverticulosis:**  This is a condition in which small pouches, called diverticula, form in the colon wall. They are usually harmless, but they can sometimes become inflamed or infected.
+* **Inflammatory Bowel Disease (IBD):**  Conditions like Crohn's disease and ulcerative colitis can cause inflammation and damage to the colon.
+* **Cancer:**  While not always visible, a colonoscopy can detect early signs of colon cancer, which is often treatable if caught early.
+* **Other Issues:**  The colonoscopy can also reveal other issues, such as bleeding, narrowing of the colon, or even fistulas (abnormal connections between organs).
+**Why is a Colonoscopy Important?**
+A colonoscopy is a crucial tool for early detection and prevention of colon cancer and other digestive diseases. It allows your doctor to:
+* **Screen for Colon Cancer:**  Regular colonoscopies are recommended for individuals over 45, and even earlier for those with a family history of colon cancer.
+* **Detect Polyps and Adenomas:**  Early detection of these growths can significantly reduce the risk of developing colon cancer.
+* **Diagnose Other Digestive Issues:**  The colonoscopy can also help diagnose other conditions, such as inflammatory bowel disease, diverticulosis, and ulcers.
+**What to Expect During a Colonoscopy:**
+* **Preparation:**  You'll be given instructions on how to prepare for the procedure, which usually involves a clear liquid diet for a few days before the procedure.
+* **Procedure:**  The procedure involves inserting a thin, flexible tube with a camera into the rectum and colon. The camera transmits images to a monitor, allowing the doctor to examine the lining of the colon.
+* **Biopsy:**  If any abnormal growths are found, a biopsy will be taken to examine them under a microscope.
+**Remember:**  A colonoscopy is a safe and effective procedure. It's a vital tool for maintaining your digestive health and preventing serious complications. 
+If you have any concerns about your colon health, please consult your doctor. They can provide personalized advice and recommendations based on your individual needs. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -12074,8 +12105,8 @@
 * **Autoimmune Diseases:**  The immune system mistakenly attacks the body's own tissues, leading to inflammation and damage. Examples include rheumatoid arthritis, lupus, and multiple sclerosis.
 * **Cancer:** Cancer cells can disrupt the immune system, making it less effective at fighting infections.
 * **Organ Transplantation:**  The immune system can reject a transplanted organ, leading to immunosuppression.
-* **Chronic Inflammatory Diseases:** Conditions like Crohn's disease and ulcerative colitis can cause chronic inflammation, impacting immune function.
-* **Diabetes:** High blood sugar levels can damage blood vessels and nerves, affecting immune cells.
+* **Chronic Inflammatory Diseases:** Conditions like Crohn's disease, ulcerative colitis, and asthma can contribute to immune system dysfunction.
+* **Diabetes:** High blood sugar levels can damage blood vessels and nerves, affecting immune function.
 * **Malnutrition:** Lack of essential nutrients can weaken the immune system.
 **2. Medications:**
 * **Chemotherapy and Radiation Therapy:** These treatments can suppress the immune system, making patients more vulnerable to infections.
@@ -12104,10 +12135,10 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -12147,44 +12178,39 @@
           <t xml:space="preserve">
 Ah, Keratosis Pilaris. A common, yet often misunderstood skin condition. Let me explain.
 **What is Keratosis Pilaris?**
-Keratosis Pilaris, often referred to as "KP," is a harmless, genetic condition that causes small, rough, and often itchy bumps to appear on the skin. These bumps are typically found on the upper arms, thighs, buttocks, and sometimes the face. 
+Keratosis Pilaris, often referred to as "KP," is a harmless, genetic condition that causes small, rough, and often itchy bumps to appear on the skin. These bumps are most commonly found on the upper arms, thighs, buttocks, and cheeks. 
 **The Science Behind It:**
-* **Keratin:**  KP is caused by a buildup of keratin, a protein that forms the outer layer of skin cells.  
-* **Follicles:**  The bumps are actually small, clogged hair follicles.  
-* **Genetics:**  It's primarily a genetic condition, meaning it's passed down through families. 
-* **Dry Skin:**  While not always the case, dry skin can exacerbate KP. 
+* **Keratin:**  KP is caused by a buildup of keratin, a protein that forms the outer layer of skin, hair, and nails.  
+* **Follicles:**  The bumps are actually caused by clogged hair follicles.  
+* **Genetics:**  KP is often hereditary, meaning it tends to run in families. 
+* **Dry Skin:**  While not the sole cause, dry skin can exacerbate KP. 
 **What Does It Look Like?**
-* **Small, rough bumps:**  These bumps are often described as "chicken skin" or "plugged pores."
-* **Redness and inflammation:**  The bumps can be red and inflamed, especially when irritated.
-* **Itchiness:**  KP can be itchy, but it's not usually painful.
+* **Small, rough bumps:**  These bumps are typically small, firm, and often have a "chicken skin" texture. 
+* **Itchiness:**  KP can be itchy, especially when the bumps are inflamed. 
+* **Color:**  The bumps can be red, pink, or even white. 
 **Causes and Risk Factors:**
-* **Genetics:**  As mentioned, it's primarily genetic.
-* **Dry skin:**  Dry skin can make KP more noticeable and worsen the condition.
-* **Hormonal changes:**  KP can be more common in women during puberty, pregnancy, and menopause.
-* **Certain medications:**  Some medications can trigger KP.
+* **Genetics:**  As mentioned, it's often hereditary.
+* **Dry Skin:**  Dry skin can make KP more prominent.
+* **Hormonal Changes:**  KP can be more common during puberty, pregnancy, and menopause.
+* **Environmental Factors:**  Cold, dry weather can worsen KP.
 **Treatment:**
-* **Moisturizers:**  Keeping the skin hydrated is crucial. Look for moisturizers with ceramides, hyaluronic acid, or other humectants.
-* **Exfoliation:**  Gentle exfoliation can help remove dead skin cells and unclog pores.
-* **Topical treatments:**  Over-the-counter creams containing salicylic acid or urea can help soften the bumps and reduce inflammation.
-* **Laser therapy:**  For more severe cases, laser therapy can be effective in reducing the bumps.
-* **Prescription medications:**  In some cases, your doctor may prescribe stronger medications, such as retinoids or corticosteroids.
+* **Moisturizers:**  Keeping the skin hydrated is crucial. Look for creams containing urea, lactic acid, or salicylic acid.
+* **Exfoliation:**  Regularly exfoliating the skin can help remove the dead skin cells that contribute to KP.
+* **Topical Medications:**  Your doctor may prescribe medications like retinoids or salicylic acid to help unclog the follicles.
+* **Laser Therapy:**  In some cases, laser therapy can be effective in treating KP.
 **Important Notes:**
-* **It's not contagious:**  KP is not contagious.
-* **It's not a sign of a serious illness:**  KP is a harmless condition.
-* **It's treatable:**  With proper care and treatment, KP can be effectively managed.
-**When to See a Doctor:**
-* **Severe itching or discomfort:**  If the bumps are causing significant discomfort or itching, see a doctor.
-* **Rapidly worsening condition:**  If the bumps are getting worse or spreading, seek medical advice.
-* **Other symptoms:**  If you experience other symptoms along with KP, such as redness, swelling, or pain, consult a doctor.
-Remember, I'm just an AI, and this information is for general knowledge only. Always consult with a qualified healthcare professional for personalized advice and treatment. 
+* **Not a Serious Condition:**  KP is not a serious medical condition and does not require treatment in most cases. 
+* **Self-Care:**  Keeping your skin hydrated and exfoliating regularly can help manage KP. 
+* **Consult a Dermatologist:**  If your KP is severe, causing discomfort, or doesn't respond to home remedies, consult a dermatologist. They can provide personalized treatment options.
+I hope this explanation is helpful. Remember, if you have any concerns about your skin, always consult a medical professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -12228,9 +12254,9 @@
 Cluster headaches are a rare, severe type of headache that typically affects one side of the head. They are characterized by:
 * **Intense, sharp pain:**  Often described as a burning, stabbing, or piercing sensation. It's usually located around the eye, temple, or forehead.
 * **Painful onset:**  The pain can come on suddenly and be incredibly debilitating.
+* **Short duration:**  While the pain can last for hours, it typically peaks within 15-60 minutes and then subsides.
 * **Frequency:**  Cluster headaches occur in clusters, meaning they come in waves of several headaches over a period of weeks or months, followed by periods of remission.
-* **Duration:**  These headaches can last anywhere from 15 minutes to several hours.
-* **Other symptoms:**  Often accompanied by:
+* **Other symptoms:**  These can include:
     * **Redness and swelling around the eye**
     * **Nasal congestion**
     * **Watering of the eyes**
@@ -12239,30 +12265,30 @@
     * **Sensitivity to light and sound**
 **Causes:**
 The exact cause of cluster headaches is still unknown, but they are thought to be related to:
-* **Neurological changes:**  Changes in the brain's blood vessels and nerve pathways.
-* **Genetics:**  There is a strong genetic component, with a family history of cluster headaches increasing the risk.
-* **Environmental factors:**  Exposure to certain chemicals, stress, and sleep disturbances may trigger clusters.
-* **Hormonal changes:**  Fluctuations in hormones, particularly estrogen, may play a role.
+* **Neurological changes:**  There may be abnormal activity in the trigeminal nerve, which is responsible for sensation in the face and head.
+* **Genetics:**  There is a strong genetic component to cluster headaches, with a family history increasing the risk.
+* **Environmental factors:**  Some studies suggest that exposure to certain chemicals, stress, and sleep disturbances may trigger clusters.
+* **Hormonal changes:**  Hormonal fluctuations, particularly in women, can also play a role.
 **Treatment:**
-While there is no cure for cluster headaches, there are effective treatments that can significantly reduce their frequency and severity. These include:
-* **Triptans:**  These are the most common and effective medications for cluster headaches. They work by constricting blood vessels in the brain and reducing inflammation.
-* **Oxygen therapy:**  Breathing pure oxygen can help to reduce pain and inflammation.
-* **Calming medications:**  Antidepressants and anti-anxiety medications can help to manage the pain and stress associated with cluster headaches.
-* **Botox injections:**  Injections of botulinum toxin into the trigeminal nerve can help to block pain signals.
+While there is no cure for cluster headaches, there are effective treatments that can help manage the pain and frequency of attacks. These include:
+* **Triptans:**  These are a class of medications that constrict blood vessels and reduce inflammation, effectively relieving the pain.
+* **Oxygen therapy:**  Breathing pure oxygen can help reduce the pain and inflammation.
+* **Calming medications:**  Antidepressants and anti-anxiety medications can help manage the pain and stress associated with cluster headaches.
+* **Botox injections:**  These injections can help block nerve signals that trigger the pain.
 * **Other therapies:**  Other treatments, such as light therapy and acupuncture, may also be helpful for some individuals.
 **Important Notes:**
-* **Seek medical attention:**  If you experience severe, recurring headaches, it's crucial to consult a doctor. 
-* **Don't self-medicate:**  Cluster headaches are complex, and self-treating can be dangerous.
-* **Treatment is individualized:**  The best treatment plan for you will depend on your individual symptoms and medical history.
+* **Seek medical attention:**  If you experience severe, recurring headaches, especially if they are accompanied by other symptoms, it's crucial to consult a doctor.
+* **Early diagnosis and treatment:**  Early diagnosis and treatment can significantly improve the quality of life for individuals with cluster headaches.
+* **Lifestyle modifications:**  Making lifestyle changes, such as getting enough sleep, managing stress, and avoiding triggers, can also help reduce the frequency and severity of attacks.
 Remember, I'm just an AI, and this information is for general knowledge only. Always consult with a qualified medical professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -12302,40 +12328,39 @@
         <is>
           <t xml:space="preserve">
 Ah, muscular pain. A common ailment, indeed.  As a wise doctor, I can tell you there's no single magic bullet, but a combination of approaches often works best.  Let's break it down:
-**First, we need to understand the cause:**
-* **Acute pain:**  This is usually from a recent injury, like a sprain or strain.  It's often sharp and throbbing.
-* **Chronic pain:** This is ongoing, often due to conditions like arthritis, fibromyalgia, or overuse. It can be dull, aching, or burning.
-**Now, let's talk about what helps:**
+**First, we need to understand the type of pain:**
+* **Acute pain:** This is sharp, sudden pain, often caused by injury. It usually subsides with rest and ice.
+* **Chronic pain:** This is persistent pain that lasts for weeks, months, or even years. It can be caused by various factors, including overuse, injury, or underlying medical conditions.
+**Now, let's explore the best ways to address muscular pain:**
 **1. Rest and Ice:**
-* **Acute pain:**  Rest is crucial to allow the injured area to heal. Ice packs can help reduce inflammation and numb the pain. Apply ice for 15-20 minutes at a time, several times a day.
-* **Chronic pain:**  While rest is important, it's not always possible.  Gentle movement and stretching can help maintain flexibility and reduce stiffness.
+* **Rest:**  Avoid activities that aggravate the pain. Give your muscles time to recover.
+* **Ice:** Apply ice packs for 15-20 minutes at a time, several times a day. This helps reduce inflammation and numb the pain.
 **2. Over-the-Counter Pain Relief:**
-* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  Ibuprofen (Advil, Motrin) and naproxen (Aleve) can help reduce inflammation and pain.
-* **Acetaminophen (Tylenol):**  This helps with pain relief, but not inflammation.
+* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  Ibuprofen (Advil, Motrin) or naproxen (Aleve) can help reduce pain and inflammation.
+* **Acetaminophen (Tylenol):**  This can help with pain relief, but it doesn't reduce inflammation.
 **3. Physical Therapy:**
-* **Strengthening exercises:**  Building muscle strength can help support joints and reduce pain.
-* **Stretching:**  Regular stretching can improve flexibility and range of motion.
-* **Manual therapy:**  A physical therapist can use hands-on techniques to manipulate muscles and joints.
-**4. Other Therapies:**
-* **Heat therapy:**  Applying heat can relax muscles and increase blood flow.
-* **Massage therapy:**  Can help relieve muscle tension and improve circulation.
-* **Acupuncture:**  Some people find relief from pain through this traditional Chinese medicine technique.
-* **Prescription medications:**  In some cases, your doctor may prescribe stronger pain relievers or muscle relaxants.
-**5. Lifestyle Changes:**
-* **Maintain a healthy weight:**  Excess weight can put extra strain on joints and muscles.
-* **Eat a balanced diet:**  A diet rich in fruits, vegetables, and lean protein can help support overall health and reduce inflammation.
-* **Stay hydrated:**  Drinking plenty of water can help keep muscles hydrated and functioning properly.
-* **Quit smoking:**  Smoking can damage blood vessels and increase inflammation.
-**Important Notes:**
-* **Consult a doctor:**  If your pain is severe, doesn't improve with home remedies, or is accompanied by other symptoms, see a doctor.
-* **Don't self-diagnose:**  It's important to get a proper diagnosis to ensure you're receiving the right treatment.
-* **Be patient:**  It takes time for muscles to heal. Don't expect immediate results.
-Remember, I'm just an AI.  This information is for general knowledge and shouldn't replace professional medical advice. Always consult with your doctor for personalized treatment. 
+* **Stretching:** Gentle stretching can improve flexibility and range of motion.
+* **Strengthening:**  Strengthening exercises can help support muscles and prevent future injuries.
+* **Manual Therapy:**  A physical therapist can use hands-on techniques to address muscle tightness and pain.
+**4. Massage Therapy:**
+* **Trigger Point Therapy:**  This technique focuses on releasing tension in specific muscle knots.
+* **Swedish Massage:**  This type of massage can help relax muscles and improve circulation.
+**5. Heat Therapy:**
+* **Heat Packs:**  Applying heat to the affected area can help relax muscles and increase blood flow.
+**6. Acupuncture:**
+* This traditional Chinese medicine technique involves inserting thin needles into specific points on the body to stimulate healing.
+**7. Other Considerations:**
+* **Hydration:**  Staying hydrated is crucial for muscle function and recovery.
+* **Nutrition:**  A balanced diet rich in protein and antioxidants can support muscle health.
+* **Sleep:**  Adequate sleep is essential for muscle repair and recovery.
+* **Underlying Conditions:**  If your pain is persistent or severe, it's important to see a doctor to rule out any underlying medical conditions.
+**Important Note:**  It's crucial to consult with a healthcare professional before starting any new treatment, especially if you have any underlying medical conditions or are taking medications. 
+Remember, the best approach to muscular pain is often a combination of these strategies.  Be patient, listen to your body, and seek professional guidance when needed. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -12381,7 +12406,7 @@
 Meningitis is an inflammation of the meninges, the protective membranes that surround the brain and spinal cord. These membranes are crucial for cushioning and protecting these vital organs. 
 **What Causes Meningitis?**
 The inflammation can be caused by a variety of factors, including:
-* **Viral Infections:**  The most common cause, often associated with the common cold or flu.
+* **Viral Infections:** The most common cause, often associated with the common cold or flu.
 * **Bacterial Infections:**  These are more serious and can be life-threatening.  Examples include *Streptococcus pneumoniae*, *Neisseria meningitidis*, and *Haemophilus influenzae*.
 * **Fungal Infections:**  Less common, but can be serious, especially in people with weakened immune systems.
 * **Parasitic Infections:**  Rarely, but can occur in certain regions.
@@ -12391,34 +12416,33 @@
 * **Stiff Neck:**  The inflammation can cause the neck muscles to become tight and painful.
 * **Headache:**  Often severe and persistent.
 * **Sensitivity to Light:**  Bright lights can be painful.
-* **Nausea and Vomiting:**  These can be common symptoms.
-* **Confusion and Disorientation:**  Especially in children.
-* **Seizures:**  Can occur in severe cases.
-* **Rash:**  A distinctive rash, often described as purple or red, can appear in some cases.
+* **Nausea and Vomiting:**  These can be common, especially in children.
+* **Confusion and Disorientation:**  This can be a sign of a more severe infection.
+* **Rash:**  A rash, often red and blotchy, can be a sign of bacterial meningitis.
+* **Seizures:**  Can occur in some cases.
 **Diagnosis: Identifying the Culprit**
 Diagnosing meningitis is crucial for prompt treatment. Doctors use a combination of methods:
-* **Physical Examination:**  Checking for signs of inflammation and stiffness.
-* **Lumbar Puncture:**  A sample of cerebrospinal fluid (CSF) is collected from the spine to examine for bacteria, viruses, or other pathogens.
-* **Blood Tests:**  To check for infection markers.
-* **Imaging Tests:**  Such as CT scans or MRIs, to visualize the brain and spinal cord.
+* **Physical Examination:**  Checking for signs of inflammation and tenderness.
+* **Lumbar Puncture:**  A sample of cerebrospinal fluid (CSF) is collected and analyzed for signs of infection.
+* **Blood Tests:**  To check for signs of infection and inflammation.
+* **Imaging Tests:**  Such as CT scans or MRIs, can help visualize the meninges and brain.
 **Treatment: A Race Against Time**
 Treatment for meningitis depends on the cause:
 * **Viral Meningitis:**  Often resolves on its own with supportive care.
-* **Bacterial Meningitis:**  Requires antibiotics, which are crucial for fighting the infection.
+* **Bacterial Meningitis:**  Requires antibiotics, often intravenously.
 * **Fungal Meningitis:**  Requires antifungal medications.
-* **Parasitic Meningitis:**  Treatment depends on the specific parasite.
-**Prevention: Protecting Yourself and Your Loved Ones**
+**Prevention: Taking Precautions**
 While some causes of meningitis are unavoidable, there are steps you can take to reduce your risk:
 * **Vaccination:**  Vaccines are available for some types of meningitis, such as pneumococcal and meningococcal.
 * **Good Hygiene:**  Washing hands frequently and avoiding close contact with sick individuals can help prevent the spread of infections.
-* **Prompt Medical Attention:**  If you experience any symptoms of meningitis, seek medical attention immediately.
+* **Prompt Medical Attention:**  If you experience any of the symptoms mentioned above, seek medical attention immediately.
 **Remember:**  Meningitis is a serious condition that requires prompt medical attention. If you suspect you or someone you know may have meningitis, do not hesitate to seek medical help. 
 Let me know if you have any further questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -12464,43 +12488,41 @@
       <c r="G185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question about Valtrex and Acyclovir!  It's a common one, and understanding the differences is crucial for effective treatment. 
-Here's a breakdown of their similarities and key distinctions:
-**Similarities:**
-* **Both are antiviral medications:**  They target viruses, specifically herpes viruses.
-* **Used to treat herpes outbreaks:**  Both are effective in reducing the frequency and severity of outbreaks of herpes simplex virus (HSV) and varicella-zoster virus (VZV), which causes chickenpox and shingles.
-* **Available in oral and topical forms:**  Valtrex is available in oral tablets and a topical cream, while Acyclovir comes in oral tablets and a topical cream.
+You're asking a great question about two important medications for treating herpes.  Let's break down the differences between Valtrex (valacyclovir) and Acyclovir (the generic version of the drug):
+**Valacyclovir (Valtrex)**
+* **Mechanism:** Valacyclovir is a prodrug, meaning it's converted into its active form (acyclovir) in the body. It works by interfering with the herpes virus's ability to replicate.
+* **Administration:** Valacyclovir is available in oral tablet form. It's typically taken once or twice daily.
+* **Duration of Treatment:**  It's often used for both acute (short-term) and preventative (long-term) treatment of herpes outbreaks.
+* **Effectiveness:** Valacyclovir is highly effective in treating herpes outbreaks and reducing the frequency of recurrences.
+* **Side Effects:**  Common side effects include nausea, headache, and diarrhea. 
+**Acyclovir (Zovirax)**
+* **Mechanism:** Acyclovir is a direct antiviral medication that directly inhibits the herpes virus's DNA polymerase, preventing it from replicating.
+* **Administration:** Acyclovir is available in oral tablet, intravenous, and topical forms.
+* **Duration of Treatment:**  It's often used for acute treatment of herpes outbreaks.
+* **Effectiveness:** Acyclovir is also highly effective in treating herpes outbreaks.
+* **Side Effects:**  Common side effects include nausea, headache, and diarrhea.
 **Key Differences:**
-* **Active Ingredient:**
-    * **Valacyclovir:**  Valacyclovir is a prodrug of acyclovir. It's converted to acyclovir in the body, making it more effective.
-    * **Acyclovir:**  Acyclovir is the active ingredient in its own right.
-* **Absorption and Duration:**
-    * **Valacyclovir:**  Valacyclovir is absorbed more quickly and has a longer duration of action than acyclovir. This means it can provide more consistent protection against herpes outbreaks.
-* **Dosage:**
-    * **Valacyclovir:**  Typically, a lower dose is needed than acyclovir.
-* **Side Effects:**
-    * **Valacyclovir:**  Can cause more gastrointestinal side effects like nausea, diarrhea, and stomach upset.
-    * **Acyclovir:**  Can cause more frequent and severe side effects like kidney problems.
-* **Cost:**
-    * **Valacyclovir:**  Generally, it's slightly more expensive than acyclovir.
-**Which is better?**
-There's no definitive "better" option. The choice between Valtrex and Acyclovir depends on individual factors:
-* **Severity of outbreaks:**  If you experience frequent or severe outbreaks, Valacyclovir might be a better choice due to its longer duration of action.
-* **Side effects:**  If you're sensitive to side effects, Valacyclovir might be preferable.
-* **Cost:**  If cost is a concern, Acyclovir might be more affordable.
-**Important Notes:**
-* **Always consult your doctor:**  This information is for general knowledge only.  It's crucial to discuss your specific situation with your doctor to determine the best treatment for you.
-* **Follow your doctor's instructions:**  Take your medication exactly as prescribed.
-* **Don't self-medicate:**  Herpes is a complex condition, and self-treating can be dangerous.
-Remember, I'm here to provide general information.  Always consult your doctor for personalized medical advice. 
+* **Form:** Valacyclovir is a prodrug, while Acyclovir is a direct antiviral.
+* **Absorption:** Valacyclovir is absorbed more quickly and is often preferred for long-term treatment.
+* **Cost:** Valacyclovir is typically more expensive than Acyclovir.
+* **Availability:** Valacyclovir is available in both generic and brand-name forms. Acyclovir is available in both generic and brand-name forms.
+**Which is Better?**
+* **For most people, both Valacyclovir and Acyclovir are equally effective in treating herpes.** 
+* **Your doctor will choose the best option for you based on your individual needs and preferences.** 
+**Important Considerations:**
+* **Dosage:**  The dosage of both medications will vary depending on the severity of your herpes outbreak or the type of herpes you have.
+* **Duration of Treatment:**  The duration of treatment will also vary depending on the severity of your herpes outbreak or the type of herpes you have.
+* **Side Effects:**  Both medications can cause side effects, but they are usually mild and temporary.
+* **Drug Interactions:**  Both medications can interact with other medications. It's important to tell your doctor about all the medications you are taking.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -12540,38 +12562,37 @@
       <c r="G186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're seeking help for vertigo!  It's a common issue, but it's important to get the right diagnosis and treatment. 
-Here's a breakdown of who to see and what to expect:
+It's great that you're seeking help for vertigo!  It can be a very frustrating and sometimes scary condition.  
+Here's a breakdown of who to see, and what to expect:
 **1. Start with Your Primary Care Physician (PCP):**
-* **Why?** They'll be your first point of contact. They can:
-    * Ask about your symptoms (duration, severity, triggers)
-    * Perform a basic physical exam
-    * Order any necessary tests (hearing tests, balance tests, etc.)
-    * Refer you to a specialist if needed
-**2. Specialists to Consider:**
-* **Otolaryngologist (ENT):**  Specializes in ear, nose, and throat conditions. They can diagnose and treat inner ear problems, which are a common cause of vertigo.
-* **Neurologist:**  Specializes in the nervous system. They can rule out neurological causes of vertigo, such as migraines or brain tumors.
-* **Vestibular Neurologist:**  A specialist in the inner ear and balance. They can perform specialized tests to assess your vestibular system.
-* **Physical Therapist:**  Can help you with exercises and rehabilitation to improve balance and coordination.
-**3. When to Seek Urgent Care:**
-* **Sudden onset of severe vertigo:**  If you experience sudden, intense vertigo that's accompanied by:
-    * Loss of consciousness
-    * Difficulty speaking
-    * Weakness or numbness
-    * Vision changes
+* **Why?** They're your first point of contact and can:
+    * Rule out any serious underlying conditions.
+    * Prescribe initial treatment (like anti-nausea medication).
+    * Refer you to a specialist if needed.
+**2. Specialists for Vertigo:**
+* **Otologist/Neurotologist:**  These doctors specialize in ear, nose, and throat disorders, including vertigo. They can diagnose the cause of your vertigo and recommend treatment options.
+* **Vestibular Neurologist:**  These doctors focus specifically on the inner ear and balance system. They can perform tests to assess your vestibular function and recommend treatment.
+* **Ophthalmologist:**  If your vertigo is accompanied by vision problems, an ophthalmologist can help rule out any eye-related issues.
+**3. When to See a Specialist:**
+* **Sudden onset of severe vertigo:** This could indicate a serious condition like a brain tumor or inner ear infection.
+* **Vertigo accompanied by:**
+    * Severe headache
     * Fever
-    * Severe headache
-* **Symptoms that worsen rapidly:**  If your vertigo is getting worse or you're experiencing new symptoms.
-**Important Notes:**
+    * Nausea and vomiting
+    * Hearing loss
+    * Vision problems
+    * Weakness or numbness in the face or limbs
+* **Vertigo that doesn't improve with over-the-counter medications.**
+**Important Considerations:**
+* **Be prepared to describe your symptoms in detail:**  When did it start? How often does it occur? What makes it better or worse?
+* **Keep a symptom diary:**  Note down your symptoms, including when they occur, how long they last, and any triggers. This information will be helpful for your doctor.
 * **Don't self-diagnose:**  Vertigo can have many causes, and it's important to get a proper diagnosis from a qualified medical professional.
-* **Keep a symptom diary:**  Note down when your vertigo occurs, what triggers it, and how severe it is. This information will be helpful for your doctor.
-* **Be prepared to answer questions:**  Your doctor will want to know about your medical history, medications, and any other relevant information.
-Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge only. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+**Remember:** I'm an AI and cannot provide medical advice. This information is for general knowledge only. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -12616,36 +12637,31 @@
       <c r="G187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question, and it highlights a crucial point about Lyme disease.  Antibiotics are **essential** for treating Lyme disease, but they don't always prevent it from progressing. Here's a breakdown:
-**Understanding Lyme Disease**
-* **Cause:** Lyme disease is caused by a bacterium called *Borrelia burgdorferi*. It's spread through the bite of infected blacklegged ticks.
-* **Symptoms:**  Early symptoms can be flu-like (fever, chills, headache, fatigue) and often go unnoticed. Later stages can involve joint pain, facial palsy, heart problems, and neurological issues.
-* **Progression:**  If left untreated, Lyme disease can progress to more serious stages, potentially affecting the heart, joints, and nervous system.
-**Antibiotics and Lyme Disease**
-* **Treatment:**  Antibiotics like doxycycline, amoxicillin, or cefuroxime are highly effective in treating Lyme disease. They target the bacteria and prevent further spread.
-* **Early Treatment:**  The earlier Lyme disease is diagnosed and treated, the better the outcome.  
-* **Prognosis:**  With prompt treatment, most people recover fully. However, untreated Lyme disease can lead to long-term complications.
-**Preventing Progression**
-* **Antibiotics are not a preventative measure:**  Antibiotics are only effective against the bacteria *Borrelia burgdorferi* and don't prevent tick bites or infection.
-* **Tick Prevention:**  The most effective way to prevent Lyme disease is to avoid tick bites. This includes:
-    * Wearing protective clothing, especially in wooded or grassy areas.
-    * Using insect repellent containing DEET.
-    * Checking for ticks after being outdoors.
-    * Removing ticks promptly if found.
-**Important Considerations**
-* **Diagnosis:**  Accurate diagnosis is crucial for effective treatment.  
-* **Early Treatment:**  Early treatment is key to preventing long-term complications.
-* **Consult a Doctor:**  If you suspect you may have Lyme disease, consult a healthcare professional immediately.
-**In summary:** Antibiotics are vital for treating Lyme disease and preventing its progression to more serious stages. However, they are not a preventative measure.  The best way to prevent Lyme disease is to avoid tick bites through proper prevention measures. 
-Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+That's a great question, and it's one that many people with Lyme disease wonder about.  Here's what I can tell you about antibiotics and Lyme disease progression:
+**Antibiotics are crucial for treating Lyme disease, but they don't always prevent it from progressing.**
+Here's a breakdown:
+* **Early Treatment is Key:**  The sooner Lyme disease is diagnosed and treated with antibiotics, the better the chances of a full recovery.  Early treatment typically involves a course of doxycycline, amoxicillin, or cefuroxime axetil.
+* **Lyme Disease Progression:** Lyme disease is caused by a bacterium called *Borrelia burgdorferi*.  If left untreated, the bacteria can spread to other parts of the body, leading to complications like:
+    * **Neurological Lyme disease:**  This can cause meningitis, facial palsy, and nerve pain.
+    * **Cardiac Lyme disease:**  This can cause heart inflammation and irregular heartbeat.
+    * **Arthritis Lyme disease:**  This can cause joint pain and swelling.
+    * **Post-treatment Lyme disease syndrome (PTLDS):**  This is a condition that can occur after treatment, with symptoms like fatigue, joint pain, and cognitive problems.
+* **Antibiotics Can Stop the Spread:**  Antibiotics are effective at killing the bacteria in the early stages of Lyme disease.  This can prevent the bacteria from spreading to other parts of the body and causing more serious complications.
+* **Not a Guarantee:**  While antibiotics can effectively treat Lyme disease, they don't always prevent all complications.  The severity of the disease and the individual's immune system can play a role in how well the antibiotics work.
+**Important Considerations:**
+* **Diagnosis is Crucial:**  It's essential to get a proper diagnosis of Lyme disease.  Many symptoms overlap with other conditions, so a doctor needs to perform tests to confirm the diagnosis.
+* **Early Treatment is Essential:**  The longer Lyme disease is left untreated, the more likely it is to progress and cause complications.
+* **Follow Your Doctor's Instructions:**  Take all prescribed antibiotics as directed and complete the full course of treatment, even if you start feeling better.
+* **Seek Medical Attention:**  If you suspect you may have Lyme disease, see a doctor immediately.
+**Remember:** I am an AI and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment of Lyme disease. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -12684,31 +12700,27 @@
       <c r="G188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about potential side effects of Keflex, especially with a low food intake.  
-**It's important to remember that I am not a medical professional and cannot give medical advice.**  
-However, I can provide some general information based on my knowledge of medications and their potential side effects. 
+I understand you're concerned about potential side effects of Keflex, especially in conjunction with low food intake.  
+**It's important to remember that I am an AI and cannot provide medical advice.**  The information below is for general knowledge only and should not be substituted for professional medical guidance. 
 **Here's what I can tell you about Keflex and its potential side effects:**
-* **Keflex (cephalexin) is an antibiotic.** It's used to treat bacterial infections like ear infections, skin infections, and urinary tract infections.
+* **Keflex (cephalexin) is an antibiotic.** It's used to treat bacterial infections like ear infections, skin infections, and respiratory infections.
 * **Common side effects of Keflex can include:**
-    * Nausea and vomiting (though these are less common than other side effects)
+    * Nausea and vomiting (though these are less common than with other antibiotics)
     * Diarrhea
     * Stomach pain
     * Headache
-    * Rash
 * **Low food intake can increase the risk of side effects.**  When you don't eat enough, your body may not be able to process medications as effectively, and this can lead to more severe side effects.
 **What to do:**
-* **Talk to your doctor.** They are the best source of information about your specific situation and how Keflex might affect you. 
-* **Discuss your low food intake with your doctor.** They can advise you on how to manage your diet while taking the medication and minimize the risk of side effects.
-* **Follow your doctor's instructions carefully.** This includes taking the medication as prescribed and reporting any side effects you experience.
-**Remember:**
-* **Never stop taking medication without consulting your doctor.**
-* **If you experience severe side effects, seek immediate medical attention.**
-**Disclaimer:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+* **Talk to your doctor.** They know your medical history and can best advise you on whether Keflex is appropriate for you and how to manage potential side effects.
+* **Follow your doctor's instructions carefully.** This includes taking the medication as prescribed and eating regular meals.
+* **Stay hydrated.** Drinking plenty of fluids can help prevent dehydration, which can worsen side effects.
+* **If you experience severe side effects, contact your doctor immediately.** This includes symptoms like severe nausea, vomiting, diarrhea that doesn't stop, or signs of dehydration (like dizziness, confusion, or dark urine).
+**Remember:** It's always best to discuss any concerns about medication with your doctor. They can provide personalized advice based on your individual needs and medical history. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -12746,34 +12758,26 @@
       <c r="G189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the connection between heart rate and weight.  It's a complex relationship, but here's what I can tell you as a doctor:
+You're right to be curious about the connection between weight and heart rate.  It's a complex relationship, but here's what I can tell you as a knowledgeable doctor:
 **Yes, being overweight can absolutely contribute to a high heart rate (also known as tachycardia).**  Here's why:
-* **Increased Workload:**  Excess weight puts extra strain on your heart. Your heart has to work harder to pump blood throughout your body, leading to a faster heart rate.
-* **Increased Blood Pressure:**  Being overweight often leads to high blood pressure. This puts further stress on your heart, forcing it to beat faster.
-* **Metabolic Changes:**  Excess weight can lead to metabolic changes that increase your heart rate. This can be due to factors like insulin resistance and inflammation.
-* **Hormonal Imbalances:**  Hormones like adrenaline and cortisol, which are released in response to stress, can also contribute to a faster heart rate. Being overweight can lead to hormonal imbalances.
-* **Cardiovascular Disease Risk:**  Being overweight increases your risk of developing cardiovascular disease, which can also lead to a faster heart rate.
-**However, it's important to remember:**
-* **Not everyone with high heart rate is overweight.**  There are many other reasons for a high heart rate, including:
-    * Anxiety
-    * Stress
-    * Fever
-    * Dehydration
-    * Certain medications
-    * Underlying medical conditions like thyroid problems or heart disease
-* **The relationship between weight and heart rate is not always direct.**  While being overweight can contribute to a higher heart rate, it's not the only factor. 
-* **Individual variation is significant.**  Some people are more susceptible to heart rate changes based on their weight than others.
-**What to do if you're concerned:**
-* **Talk to your doctor.**  They can help you determine the cause of your high heart rate and recommend appropriate treatment.
-* **Maintain a healthy weight.**  Losing even a small amount of weight can significantly improve your heart health.
-* **Engage in regular physical activity.**  Exercise can help strengthen your heart and improve its efficiency.
-* **Eat a healthy diet.**  Focus on fruits, vegetables, whole grains, and lean protein.
-**Remember:**  I'm not a substitute for medical advice.  Always consult with your doctor for any health concerns. 
+* **Increased Workload:**  Excess weight puts extra strain on your heart. Your heart has to work harder to pump blood throughout your body, especially when you're carrying extra weight. This increased workload can lead to a faster heart rate.
+* **Cardiovascular Strain:**  Being overweight can lead to high blood pressure, which puts additional stress on your heart. This can also contribute to a faster heart rate.
+* **Metabolic Changes:**  Excess weight can lead to insulin resistance, which can increase your risk of developing metabolic syndrome. This syndrome is associated with high blood pressure, high blood sugar, and high cholesterol, all of which can contribute to a faster heart rate.
+* **Inflammation:**  Being overweight can lead to chronic inflammation throughout the body. This inflammation can also contribute to a faster heart rate.
+**It's important to note:**
+* **Not everyone with high heart rate is overweight.**  There are many other reasons for a high heart rate, including stress, anxiety, fever, certain medications, and underlying medical conditions.
+* **The relationship between weight and heart rate is not always linear.**  While being overweight can contribute to a higher heart rate, the severity of the effect can vary depending on the individual and the amount of weight they carry.
+* **It's crucial to consult a doctor.**  If you're concerned about your heart rate, it's important to see a doctor to rule out any underlying medical conditions and discuss appropriate treatment options.
+**Here are some additional things to consider:**
+* **Body Mass Index (BMI):**  A BMI over 30 is considered obese, and a BMI over 25 is considered overweight. 
+* **Waist Circumference:**  Carrying excess weight around your waist is particularly harmful to your health. 
+* **Lifestyle Factors:**  Diet, exercise, and stress management all play a role in heart health.
+**In conclusion:** While being overweight can contribute to a high heart rate, it's not the only factor.  If you're concerned about your heart rate, it's important to talk to your doctor. They can help you determine the cause and recommend appropriate treatment options. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -12813,25 +12817,30 @@
 I understand you're looking for relief from heartburn, and I want to help!  However, I must emphasize that I am an AI and cannot provide medical advice.  
 **It's crucial to consult a doctor for any health concerns.** They can properly diagnose the cause of your heartburn and recommend the best treatment plan for you. 
 That being said, I can share some general information about heartburn and potential short-term solutions:
-**What is heartburn?**
+**What is Heartburn?**
 Heartburn, also known as acid reflux, is a burning sensation in your chest caused by stomach acid backing up into your esophagus. It's often triggered by eating certain foods, lying down after eating, or stress.
-**Possible short-term solutions:**
-* **Over-the-counter antacids:** These neutralize stomach acid and provide quick relief. Examples include Tums, Rolaids, and Maalox.
-* **H2 blockers:** These reduce the amount of acid your stomach produces. Examples include Pepcid AC and Zantac.
-* **Proton pump inhibitors (PPIs):** These are stronger medications that block acid production. Examples include Prilosec and Nexium.
-**Important considerations:**
-* **Underlying causes:**  Heartburn can be a symptom of a more serious condition, such as gastroesophageal reflux disease (GERD).  A doctor can help determine if this is the case.
-* **Individual needs:**  The best treatment for you will depend on the severity of your heartburn, your medical history, and potential drug interactions.
-* **Long-term solutions:**  While over-the-counter medications can provide temporary relief, addressing the underlying cause is essential for long-term management.
-**Please schedule an appointment with your doctor or a healthcare professional to discuss your heartburn and receive personalized advice.** They can assess your situation, determine the best course of action, and ensure your safety. 
+**Possible Short-Term Relief Options (Consult Your Doctor):**
+* **Antacids:** These neutralize stomach acid and provide immediate relief. Examples include Tums, Rolaids, and Maalox.
+* **H2 Blockers:** These reduce the amount of acid your stomach produces. Examples include Pepcid AC, Zantac, and Tagamet.
+* **Proton Pump Inhibitors (PPIs):** These are the most effective type of acid reducer, but they are usually taken for longer periods. Examples include Prilosec, Nexium, and Prevacid.
+**Important Considerations:**
+* **Underlying Causes:** Heartburn can be a symptom of a more serious condition, such as gastroesophageal reflux disease (GERD).  
+* **Medication Interactions:** Some medications can interact with antacids, H2 blockers, and PPIs. 
+* **Individual Needs:** The best treatment for you will depend on the severity of your heartburn, your medical history, and other factors.
+**What to Do:**
+1. **Schedule an appointment with your doctor or a healthcare professional.** They can assess your symptoms, determine the cause of your heartburn, and recommend the most appropriate treatment.
+2. **Keep a food diary:** This can help you identify foods that trigger your heartburn.
+3. **Make lifestyle changes:** Avoid eating large meals, lying down after eating, and smoking.
+4. **Practice good posture:** Sit upright when eating and avoid slouching.
+Remember, I am not a doctor. Please seek professional medical advice for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -12870,33 +12879,36 @@
       <c r="G191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for stronger pain relief options than meloxicam.  As a helpful and harmless AI, I can't give medical advice.  **It's crucial to consult your doctor for any pain management concerns.** 
-However, I can provide some general information about stronger pain relievers and the factors your doctor will consider:
-**Factors Influencing Stronger Pain Relief:**
+I understand you're looking for stronger pain relief options than meloxicam.  As a helpful and harmless AI, I can't give medical advice.  **It's crucial to consult your doctor or pharmacist for personalized recommendations.** 
+However, I can provide some general information about stronger pain medications:
+**Factors to Consider:**
 * **Severity of pain:**  The strength of the medication will depend on the intensity and type of pain you're experiencing.
-* **Underlying condition:**  Your doctor will consider the cause of your pain to determine the most appropriate treatment.
-* **Medical history:**  Any pre-existing conditions, allergies, or other medications you're taking will be taken into account.
-* **Potential side effects:**  Stronger medications can have more significant side effects, so your doctor will weigh the benefits against the risks.
+* **Underlying condition:**  Certain conditions may require specific medications or dosages.
+* **Medical history:**  Your doctor will consider any pre-existing conditions, allergies, and other medications you're taking.
+* **Potential side effects:**  Stronger medications can have more significant side effects.
 **Possible Stronger Options:**
-* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  These are often stronger than meloxicam and can be more effective for pain relief. Examples include:
+* **NSAIDs (Non-Steroidal Anti-Inflammatory Drugs):**  These are often stronger than meloxicam and can be effective for pain and inflammation. Examples include:
     * Ibuprofen (Advil, Motrin)
     * Naproxen (Aleve)
     * Diclofenac (Voltaren)
-* **Opioids:**  These are powerful pain relievers that can be effective for severe pain, but they come with a higher risk of addiction and side effects. They are typically reserved for specific situations and require careful monitoring.
-* **Other Medications:**  Your doctor may consider other options depending on your individual needs, such as:
-    * Corticosteroids
-    * Muscle relaxants
-    * Nerve blocks
-**Important Considerations:**
-* **Always follow your doctor's instructions:**  They will prescribe the appropriate dosage and duration of treatment.
-* **Be honest about your pain:**  Provide your doctor with a complete picture of your symptoms and any other medications you're taking.
-* **Don't self-medicate:**  It's dangerous to take stronger medications without a doctor's supervision.
-**Remember:**  Your doctor is your best resource for pain management. They can help you find the most effective and safe treatment for your specific needs. 
+* **Opioids:**  These are powerful pain relievers, but they have a higher risk of addiction and side effects. They are typically reserved for severe pain. Examples include:
+    * Codeine
+    * Morphine
+    * Oxycodone
+* **Other Medications:**  Your doctor may prescribe other medications, such as:
+    * Tramadol (Ultram)
+    * Gabapentin (Neurontin)
+    * Amitriptyline (Elavil)
+**Important Notes:**
+* **Never self-medicate.**  Always consult your doctor before starting any new medication.
+* **Follow your doctor's instructions carefully.**  This includes dosage, frequency, and duration of treatment.
+* **Be aware of potential side effects.**  Report any unusual symptoms to your doctor immediately.
+Remember, your doctor is your best resource for safe and effective pain management. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -12939,27 +12951,30 @@
       <c r="G192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about the location of oral herpes (cold sores or mouth herpes).  
-**Here's what I can tell you:**
-* **Oral herpes is caused by the herpes simplex virus (HSV).**  There are two main types: HSV-1 (most commonly associated with oral herpes) and HSV-2 (associated with genital herpes).
-* **The virus can cause outbreaks anywhere on the body where there are nerve endings.**  This includes the lips, but it can also appear on other areas of the face, including the chin.
-* **The chin is a common location for oral herpes outbreaks.**  This is because the chin has a lot of nerve endings and is often exposed to the elements.
-* **However, it's not always the case.**  Some people may experience outbreaks on their lips, but not on their chin. 
-**Here's why it might appear on the chin:**
-* **Nerve endings:** The chin has a high concentration of nerve endings, which can be more susceptible to HSV infection.
-* **Facial expressions:**  The chin is often used for facial expressions, which can increase the likelihood of the virus coming into contact with the skin.
-* **Stress and fatigue:**  These factors can weaken the immune system, making it easier for the virus to spread.
-**Here's why it might not appear on the chin:**
-* **Individual susceptibility:**  Some people are more susceptible to outbreaks in certain areas than others.
-* **Virus strain:**  The specific strain of HSV can also influence where outbreaks occur.
-* **Other factors:**  Other factors, such as sun exposure, hormonal changes, and medications, can also play a role.
-**Important Note:**  If you are experiencing any unusual sores or blisters, it's important to see a doctor for diagnosis and treatment.  They can determine the cause and recommend the best course of action. 
-Let me know if you have any other questions. 
+You're asking a great question about the location of oral herpes (cold sores or fever blisters).  
+**Here's the breakdown:**
+* **Oral herpes is caused by the herpes simplex virus (HSV).**  This virus can cause outbreaks anywhere on the body, but it's most commonly associated with the lips and mouth.
+* **The virus can sometimes spread to other areas, including the chin.**  This is less common than outbreaks on the lips, but it can happen. 
+* **The chin is a common site for outbreaks in some people.**  This is likely due to the proximity of the chin to the mouth and the potential for the virus to spread from the lips to the chin.
+**Factors that can influence where outbreaks occur:**
+* **Individual immune system:**  Some people are more prone to outbreaks on the chin than others.
+* **Stress and fatigue:**  These can weaken the immune system and increase the likelihood of outbreaks.
+* **Hormonal changes:**  Fluctuations in hormones, such as those experienced during menstruation or pregnancy, can trigger outbreaks.
+* **Sun exposure:**  Sunburn can weaken the immune system and increase the risk of outbreaks.
+* **Certain medications:**  Some medications can suppress the immune system and increase the risk of outbreaks.
+**Important Note:**  If you're experiencing a sore or blister on your chin, it's important to see a doctor to get a diagnosis and treatment plan.  
+**Here's what you can do:**
+* **Keep your chin clean and dry.**  This can help prevent the spread of the virus.
+* **Avoid touching your chin or mouth.**  This can help prevent the virus from spreading to other areas.
+* **Apply a cold compress to the sore.**  This can help reduce pain and inflammation.
+* **Take over-the-counter pain relievers.**  This can help relieve pain and discomfort.
+* **Consult a doctor if you have any concerns.**  They can help you determine the cause of your sore and recommend the best treatment options.
+Remember, I'm an AI and cannot provide medical advice.  Always consult a doctor for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -13015,20 +13030,19 @@
 * **Follow-up:** It's important to complete the full course of antibiotics as prescribed by your doctor. 
 **Prevention:**
 * **Safe Sex:**  The best way to prevent chlamydia is to practice safe sex. This includes using condoms consistently and correctly.
-* **Regular Testing:**  If you are sexually active, get tested for chlamydia regularly. 
-* **Open Communication:**  Talk to your partner(s) about your sexual history and get tested together.
-**Remember:**
-* **Early detection and treatment are crucial.**  Don't wait to see if symptoms appear. 
-* **Talk to your doctor.** They can provide you with accurate information and treatment options. 
-If you have any concerns about chlamydia or any other STI, please reach out to a healthcare professional. They can provide you with the best advice and care. 
+* **Regular Testing:**  If you are sexually active, it's important to get tested for chlamydia regularly. 
+**Important:**
+* **Early Detection:**  If you think you may have chlamydia, it's important to see a doctor as soon as possible. Early detection and treatment can prevent serious complications.
+* **Open Communication:**  Talk to your partner(s) about your sexual health and encourage them to get tested as well. 
+**Remember:**  Chlamydia is a treatable infection. Don't hesitate to seek medical attention if you have any concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -13069,28 +13083,28 @@
       <c r="G194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As a wise doctor, I can tell you that a corneal abrasion **does not usually cause discharge from the eye**. 
+That's a great question!  As a wise doctor, I can tell you that **a corneal abrasion usually does not cause discharge from the eye.** 
 Here's why:
 * **Corneal abrasions are superficial injuries:** They involve a scratch or scrape on the surface of the cornea, the clear, dome-shaped front part of the eye. 
-* **Discharge is a sign of infection:**  Discharge from the eye is usually a sign of an infection, such as conjunctivitis (pink eye).  
-* **Corneal abrasions are painful:** They cause pain, redness, and sensitivity to light. 
+* **Discharge is usually a sign of infection:**  Discharge from the eye is often a sign of an infection, such as conjunctivitis (pink eye).  
+* **Corneal abrasions are typically painful:**  They cause discomfort, burning, and a feeling of something in the eye. 
 **However, there are some exceptions:**
-* **Corneal abrasions can be associated with other eye conditions:**  If a corneal abrasion is caused by an underlying condition like a bacterial or viral infection, it might lead to discharge.
-* **Corneal abrasions can be complicated:** If the abrasion is deep or if it's not treated properly, it can lead to complications like corneal ulcers, which can cause discharge.
+* **Corneal abrasions can be associated with other eye conditions:**  For example, a corneal abrasion can be a complication of a severe eye injury or a condition like blepharitis (inflammation of the eyelids). In these cases, discharge might be present.
+* **Corneal abrasions can sometimes cause a slight discharge of blood:** This is usually a small amount and is not a cause for concern.
 **What to do if you suspect a corneal abrasion:**
-* **See an eye doctor immediately:**  They can diagnose the condition and prescribe the appropriate treatment.
-* **Do not rub your eye:** This can worsen the abrasion and increase the risk of infection.
-* **Apply a cold compress:** This can help reduce pain and inflammation.
-* **Use artificial tears:** These can help keep your eyes lubricated.
-**Remember:**  While corneal abrasions are usually not associated with discharge, it's important to seek medical attention if you experience any unusual symptoms. 
+* **See an eye doctor immediately:**  A corneal abrasion can lead to serious complications if not treated properly.
+* **Do not rub your eye:**  This can worsen the abrasion and increase the risk of infection.
+* **Apply a cold compress:**  This can help reduce pain and inflammation.
+* **Follow your doctor's instructions:**  They will likely prescribe eye drops to help heal the abrasion and prevent infection.
+**Remember:**  It's always best to err on the side of caution when it comes to your eye health. If you have any concerns, please consult an eye doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -13123,43 +13137,43 @@
       <c r="G195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a middle ear infection, or otitis media. A common ailment, especially in children.  Let's break down the treatment:
-**First, it's crucial to understand the cause:**
-* **Viral:** Most often, middle ear infections are caused by a viral infection, like a cold or flu. These viruses irritate the Eustachian tube, which connects the middle ear to the back of the throat.
-* **Bacterial:**  Sometimes, a bacterial infection can develop, leading to a more serious case. 
+Ah, a middle ear infection, or otitis media. It's a common ailment, especially in children.  Let's break down how I, as a wise doctor, would approach treating it.
+**First, it's crucial to understand the basics:**
+* **What is it?**  An otitis media is an inflammation of the middle ear, the air-filled space behind the eardrum. It's often caused by a bacterial or viral infection.
+* **Symptoms:**  Pain, especially when swallowing or yawning, fever, drainage from the ear, hearing loss, and irritability are common.
+* **Why is it important to treat?** Untreated, it can lead to complications like hearing loss, mastoiditis (infection of the bone behind the ear), and even meningitis (infection of the brain and spinal cord).
 **Treatment Options:**
-**1.  For Viral Infections:**
-* **Observation:**  Often, viral otitis media resolves on its own within a week or two.  
-* **Pain Relief:** Over-the-counter pain relievers like acetaminophen or ibuprofen can help manage discomfort.
-* **Decongestants:**  Decongestants can help relieve pressure in the Eustachian tube.
-**2. For Bacterial Infections:**
-* **Antibiotics:**  If a bacterial infection is confirmed, your doctor will prescribe antibiotics.  
-    * **Important:** Antibiotics are only effective against bacterial infections. They won't work on viruses.
-    * **Duration:** The course of antibiotics will depend on the severity of the infection and the type of bacteria involved. 
-* **Drainage:** In some cases, your doctor may need to drain fluid from the middle ear to relieve pressure. This is usually done in a doctor's office.
-**3.  Other Considerations:**
-* **Home Remedies:**  While not a substitute for medical treatment, some home remedies can help relieve discomfort:
-    * **Warm Compresses:** Applying a warm compress to the affected ear can help reduce pain and inflammation.
-    * **Saline Drops:**  Using saline drops to clean the ear can help remove mucus and debris.
-    * **Humidifier:**  A humidifier can help add moisture to the air, which can be helpful for people with dry air or allergies.
-* **Prevention:**  
-    * **Handwashing:**  Regular handwashing is crucial to prevent the spread of germs.
-    * **Vaccinations:**  Vaccinations for influenza and other respiratory illnesses can help reduce the risk of infection.
-    * **Avoid Smoking:**  Secondhand smoke can irritate the Eustachian tube.
-    * **Healthy Habits:**  Getting enough sleep, eating a balanced diet, and staying hydrated can help boost your immune system.
-**Important Notes:**
-* **Seek Medical Attention:**  If your child has a fever, ear pain that doesn't improve, or drainage from the ear, it's important to see a doctor promptly.
-* **Follow Instructions:**  Always follow your doctor's instructions regarding medication and treatment.
-* **Don't Delay:**  Early treatment is crucial for preventing complications, such as hearing loss.
-Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+1. **Antibiotics:**  This is the mainstay of treatment for bacterial otitis media. The specific antibiotic will depend on the type of bacteria causing the infection. 
+    * **How it works:** Antibiotics kill the bacteria, reducing inflammation and relieving symptoms.
+    * **Important note:** Antibiotics are only effective against bacterial infections. They won't help with viral infections.
+2. **Pain Relief:** Over-the-counter pain relievers like acetaminophen (Tylenol) or ibuprofen (Advil, Motrin) can help manage pain and fever.
+3. **Drainage:** In some cases, a doctor may need to drain fluid from the middle ear using a procedure called a tympanostomy tube (a small tube inserted into the eardrum). This helps to relieve pressure and improve drainage.
+4. **Home Care:**
+    * **Rest:** Encourage plenty of rest to help the body fight the infection.
+    * **Hydration:**  Keep your child well-hydrated to help thin mucus.
+    * **Warm Compresses:** Applying a warm compress to the affected ear can provide relief from pain.
+    * **Avoid Irritants:**  Keep your child away from smoke, dust, and other irritants.
+**When to See a Doctor:**
+* **Severe pain:** If your child is in significant pain, especially if it's accompanied by fever or other concerning symptoms.
+* **Hearing loss:** If you notice any hearing loss, especially if it's sudden or accompanied by other symptoms.
+* **Drainage:** If there's a lot of drainage from the ear, or if it's yellow or green in color.
+* **Fever:** If your child has a fever that doesn't go down with over-the-counter medication.
+* **Stiff neck:** If your child has a stiff neck, it could be a sign of a more serious infection.
+**Prevention:**
+* **Handwashing:**  Encourage frequent handwashing, especially before meals and after using the bathroom.
+* **Vaccinations:**  Keep your child up-to-date on their vaccinations, including the pneumococcal vaccine.
+* **Avoid Smoking:**  Avoid exposure to secondhand smoke.
+* **Healthy Habits:**  Ensure your child gets enough sleep, eats a balanced diet, and stays hydrated.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -13198,29 +13212,33 @@
           <t xml:space="preserve">
 You're smart to ask about sulfate-free options for antifungal shampoos!  Here's the breakdown:
 **Sulfate-Free Antifungal Shampoos: Yes, They Exist!**
-While sulfates are common in shampoos for their cleansing power, they can sometimes irritate the scalp and potentially hinder the effectiveness of antifungal treatments.  
-**Here's what to look for:**
-* **Look for "sulfate-free" or "sulfate-free and paraben-free" on the label.** This is the most reliable way to ensure the shampoo is free of these potential irritants.
-* **Check the ingredients list.**  You'll want to see if the shampoo contains ingredients known to be effective against fungal infections, such as:
-    * **Ketoconazole:** A common antifungal ingredient found in many shampoos.
-    * **Selenium sulfide:** Another common antifungal ingredient, often used for dandruff.
-    * **Zinc pyrithione:**  Effective against a variety of fungal infections.
-    * **Coal tar:**  Used for scalp conditions like seborrheic dermatitis.
-* **Consider the shampoo's pH level.**  Antifungal shampoos are often formulated to be slightly acidic (pH 4-5) to help balance the scalp's pH and create an environment less hospitable to fungi.
-**Important Considerations:**
-* **Consult a dermatologist:**  If you have a persistent fungal infection, it's crucial to consult a dermatologist for proper diagnosis and treatment. They can recommend the most effective antifungal shampoo for your specific condition.
-* **Follow the instructions:**  Use the shampoo as directed, and don't overuse it. 
-* **Be patient:**  It may take a few weeks to see results. 
-**Remember:**  Antifungal shampoos are not a cure-all. They can help manage symptoms and prevent the spread of fungal infections, but they may not be effective for everyone. 
-Let me know if you have any other questions! 
+Yes, there are many sulfate-free antifungal shampoos available.  Sulfates, which are detergents, can be harsh on the scalp and may even worsen fungal infections. 
+**Why Sulfate-Free is Important:**
+* **Gentle on the Scalp:** Sulfate-free shampoos are less likely to strip the natural oils from your scalp, which can be beneficial for people with sensitive skin or existing scalp conditions.
+* **Reduced Irritation:**  Sulfates can cause dryness, itching, and flaking, which can exacerbate fungal infections.
+* **Effective Treatment:**  Many antifungal shampoos are formulated with active ingredients like ketoconazole, selenium sulfide, or ciclopirox, which are effective against fungal growth. These ingredients work best when the scalp is clean and free of harsh chemicals.
+**Finding the Right Shampoo:**
+* **Consult a Dermatologist:**  If you have a persistent fungal infection, it's best to consult a dermatologist. They can diagnose the type of fungus and recommend the most effective treatment, including the appropriate antifungal shampoo.
+* **Read Labels Carefully:**  Look for shampoos that specifically mention "antifungal" or "for dandruff" on the label. 
+* **Consider Ingredients:**  Look for shampoos with ingredients like:
+    * **Ketoconazole:**  A common antifungal ingredient.
+    * **Selenium sulfide:**  Effective against various fungal infections.
+    * **Ciclopirox:**  Another common antifungal ingredient.
+    * **Zinc pyrithione:**  Can help control dandruff and fungal growth.
+* **Check for Other Benefits:**  Some antifungal shampoos also contain ingredients that can soothe the scalp, like tea tree oil or aloe vera.
+**Important Notes:**
+* **Consistency is Key:**  Use the antifungal shampoo as directed by your doctor or the product instructions. 
+* **Don't Overuse:**  Avoid using antifungal shampoos too frequently, as this can disrupt the natural balance of your scalp.
+* **Follow Up:**  Regularly monitor your scalp for improvement and consult your doctor if you experience any side effects or if the infection doesn't improve.
+Remember, I'm not a medical professional. This information is for general knowledge and shouldn't replace the advice of a qualified healthcare provider. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -13261,22 +13279,23 @@
       <c r="G197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question that gets to the heart of how we understand and categorize infections. 
-Here's the breakdown:
-**Bacterial Vaginosis (BV) is NOT an STD (Sexually Transmitted Disease) in the traditional sense.**
+You're asking a great question about a common and often misunderstood condition. 
+**Bacterial Vaginosis (BV) is not considered an STD (Sexually Transmitted Disease) in the traditional sense.** 
 Here's why:
-* **BV is a vaginal condition:** It's caused by an imbalance of bacteria in the vagina, leading to an overgrowth of certain bacteria. 
-* **It's not caused by a sexually transmitted pathogen:**  Unlike STDs like chlamydia, gonorrhea, or herpes, BV is not caused by a sexually transmitted pathogen. 
-* **It's more common in women who have had multiple sexual partners:**  BV is more prevalent in women who have had multiple sexual partners, but it can also occur in women who have never had sex.
-* **It's treatable:** BV is treatable with antibiotics.
-**However, it's important to understand the connection:**
-* **BV can be a risk factor for STDs:**  BV can increase the risk of contracting certain STDs, such as HIV. This is because an imbalance in vaginal bacteria can make the vagina more susceptible to infection.
-* **BV can be a symptom of other conditions:**  BV can sometimes be a symptom of other conditions, such as pelvic inflammatory disease (PID).
-**In summary:**
-* BV is a vaginal condition, not an STD.
-* It's caused by an imbalance of bacteria, not a sexually transmitted pathogen.
-* BV can increase the risk of contracting STDs, but it's not an STD itself.
-**If you have concerns about BV or any other vaginal health issue, it's crucial to consult a healthcare professional.** They can provide accurate diagnosis, treatment, and advice. 
+* **Cause:** BV is caused by an imbalance of bacteria in the vagina. It's not caused by a sexually transmitted pathogen like a virus or bacteria that spreads through sexual contact. 
+* **Transmission:** BV is not spread through sexual contact. It's more likely to occur due to factors like:
+    * Changes in vaginal pH
+    * Use of certain douches or feminine hygiene products
+    * Certain medications
+    * Stress
+    * Smoking
+* **Symptoms:** BV is often characterized by a fishy odor, vaginal discharge, and itching. 
+**However, it's important to note:**
+* **Risk:** BV can increase the risk of other STDs, as it can weaken the vaginal environment and make it more susceptible to infections.
+* **Treatment:** BV is treatable with antibiotics. 
+* **Importance of Screening:**  If you have symptoms of BV, it's important to see a doctor for diagnosis and treatment. 
+**In summary:** While BV is not an STD in the traditional sense, it can be a symptom of other health issues and can increase the risk of other infections. 
+**Remember:** If you have any concerns about your sexual health, it's always best to consult with a healthcare professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -13284,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -13321,24 +13340,25 @@
           <t xml:space="preserve">
 I understand you're curious about taking Imodium long-term.  While I can provide information, I am not a medical professional and cannot give medical advice.  
 **Here's what I can tell you about long-term use of Imodium:**
-* **It's not designed for long-term use:** Imodium (loperamide) is a medication for temporary relief of diarrhea. It works by slowing down the movement of your intestines, which can help reduce diarrhea. However, it's not meant for long-term use because it can lead to dependence and other side effects.
-* **Potential side effects:**  Long-term use of Imodium can lead to:
-    * **Dependence:** Your body can become accustomed to the medication, requiring higher doses to achieve the same effect.
-    * **Nutrient deficiencies:**  Diarrhea can lead to dehydration and nutrient loss, and Imodium can worsen this.
-    * **Liver problems:**  In rare cases, prolonged use of loperamide can cause liver damage.
-    * **Other side effects:**  These can include constipation, stomach pain, and dizziness.
-* **Underlying causes:**  It's important to address the underlying cause of your diarrhea.  If it's a temporary issue, like a food poisoning or a viral infection, Imodium might be helpful for a short period.  However, if it's a chronic condition, you need to consult a doctor to find a more appropriate treatment.
-* **Alternatives:**  There are other medications and lifestyle changes that can help manage diarrhea.  Your doctor can recommend the best option for you.
-**What you should do:**
-* **Talk to your doctor:**  If you're experiencing frequent or persistent diarrhea, it's crucial to consult your doctor. They can help determine the cause and recommend the best treatment plan.
-* **Don't self-medicate:**  Taking Imodium long-term without a doctor's guidance can be harmful. 
-* **Follow your doctor's instructions:**  If your doctor prescribes Imodium, follow their instructions carefully and don't exceed the recommended dosage.
-Remember, your health is paramount. Always consult a medical professional for personalized advice and treatment. 
+* **It's not generally recommended for long-term use.**  Imodium (loperamide) is a medication that works by slowing down the movement of your intestines. While it's effective for short-term relief of diarrhea, prolonged use can lead to:
+    * **Tolerance:** Your body can become accustomed to the medication, requiring higher doses to achieve the same effect.
+    * **Side effects:**  These can include nausea, vomiting, abdominal pain, and even liver problems in some cases.
+    * **Potential for complications:**  Long-term use can disrupt your body's natural digestive processes, potentially leading to dehydration and electrolyte imbalances.
+**When to see a doctor:**
+* **Persistent diarrhea:** If your diarrhea lasts for more than a few days, it's important to see a doctor to rule out any underlying medical conditions.
+* **Severe symptoms:**  If you experience severe abdominal pain, blood in your stool, or fever, seek medical attention immediately.
+* **Concerns about long-term use:**  If you're considering long-term use of Imodium, discuss it with your doctor. They can help you weigh the risks and benefits and determine if it's the right treatment for you.
+**Alternatives to Imodium:**
+* **Hydration:**  Staying hydrated is crucial for managing diarrhea. Drink plenty of fluids, such as water, clear broth, or electrolyte drinks.
+* **Dietary changes:**  Avoid foods that may worsen your symptoms, such as fatty or greasy foods, dairy products, and caffeine.
+* **Probiotics:**  Probiotics can help restore the balance of bacteria in your gut.
+* **Antibiotics:**  In some cases, antibiotics may be prescribed to treat the underlying cause of your diarrhea.
+**Remember:**  It's always best to consult with a healthcare professional for personalized advice and treatment. They can assess your individual situation and recommend the best course of action. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -13380,11 +13400,11 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about omeprazole brands.  
-As a helpful and harmless AI, I can't give medical advice, and that includes recommending specific brands of medication.  
+As a helpful and harmless AI, I can't give medical advice, and that includes recommending specific brands of medications.  
 Here's why:
 * **Every person is different:** What works for one person might not work for another. Factors like your individual health history, other medications you're taking, and potential drug interactions all play a role.
 * **Safety and efficacy:**  The effectiveness and safety of a medication depend on its formulation and dosage.  A doctor needs to assess your specific needs to determine the best option for you.
-* **Ethical considerations:**  Recommending a specific brand could be misconstrued as a professional endorsement, which I'm not qualified to give.
+* **Ethical considerations:**  Recommending a specific brand could be misconstrued as endorsing it, which I'm not able to do.
 **What I can do is provide you with general information about omeprazole:**
 * **Omeprazole is a proton pump inhibitor (PPI).** It's used to treat conditions like:
     * **Gastroesophageal reflux disease (GERD):**  Heartburn and acid reflux.
@@ -13402,10 +13422,10 @@
         </is>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -13439,35 +13459,40 @@
       <c r="G200" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, ringworm. A common name for a fungal infection, but a rather misleading one.  Let's clear up the confusion:
-**Ringworm is not caused by a worm, but by a fungus.**  
-Here's a breakdown of what causes it:
-* **The culprit:**  The fungus responsible for ringworm is called *dermatophyte*.  There are many different species, and they thrive in warm, moist environments.
-* **Transmission:**  Ringworm spreads through direct contact with an infected person, animal, or object.  This can happen through:
-    * Touching an infected person or animal.
-    * Sharing personal items like towels, clothing, or combs.
-    * Contact with contaminated surfaces like floors, showers, or gym equipment.
-* **Vulnerable areas:**  Ringworm often affects areas with hair, skin folds, and moist environments like the scalp, groin, feet, and nails.
-* **Not contagious:**  It's important to note that ringworm is not contagious in the same way that a cold or flu is. You can't catch it from someone else. However, it can spread easily within a community.
-**Factors that can increase your risk:**
-* **Weakened immune system:**  People with compromised immune systems are more susceptible to fungal infections.
-* **Warm, humid environments:**  These conditions create a favorable environment for fungal growth.
-* **Sharing personal items:**  This increases the chances of coming into contact with the fungus.
-* **Contact with animals:**  Pets can carry ringworm, especially if they're not properly cared for.
-**Remember:**
-* Ringworm is a fungal infection, not a worm.
-* It's not contagious in the same way as a cold or flu.
-* It can be treated with antifungal medications.
+Ah, ringworm. A common name for a fungal infection, but a rather misleading one!  It's not actually caused by a worm, but by a type of fungus called dermatophytes. 
+Here's a breakdown of what causes ringworm:
+**The Culprit: Dermatophytes**
+* These fungi thrive in warm, moist environments and feed on keratin, the protein found in skin, hair, and nails. 
+* They're incredibly resilient and can survive on surfaces for a long time. 
+*  They're often spread through direct contact with infected individuals, animals, or contaminated objects.
+**How It Spreads:**
+* **Direct Contact:**  The most common way is through skin-to-skin contact with an infected person, animal, or object. 
+* **Indirect Contact:**  You can also get it by touching contaminated surfaces like towels, clothing, or gym equipment.
+* **Animal Contact:**  Pets, especially dogs and cats, can carry dermatophytes and spread them to humans.
+**Risk Factors:**
+* **Weakened Immune System:** People with compromised immune systems are more susceptible to fungal infections.
+* **Warm, Humid Environments:**  These conditions create a favorable environment for dermatophytes to thrive.
+* **Sharing Personal Items:**  Sharing towels, combs, or clothing can spread the fungus.
+* **Contact with Animals:**  Pets can carry dermatophytes, especially if they're not properly groomed or have skin conditions.
+**Types of Dermatophytes:**
+* **Trichophyton:**  The most common type, responsible for most ringworm cases.
+* **Microsporum:**  Causes ringworm on the scalp and skin.
+* **Epidermophyton:**  Causes ringworm on the feet and nails.
+**Important Note:**  While ringworm is a common fungal infection, it's not contagious in the same way as a cold or flu. You can't catch it from someone just by being near them. 
+**Treatment:**
+* **Anti-fungal Medications:**  Topical creams, lotions, or oral medications are effective in treating ringworm. 
+* **Hygiene:**  Keeping the affected area clean and dry is crucial for recovery. 
+* **Avoid Sharing:**  Don't share personal items like towels, combs, or clothing. 
 If you suspect you have ringworm, it's important to see a doctor for proper diagnosis and treatment. 
 Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -13510,45 +13535,41 @@
 * **Definition:** A fissure is a small tear in the lining of the anal canal, the passageway leading from the anus to the rectum. 
 * **Causes:**  Fissures are often caused by straining during bowel movements, constipation, diarrhea, or even childbirth. 
 * **Symptoms:**  
-    * Painful, often burning sensation during bowel movements.
+    * Painful, often sharp, during bowel movements.
     * Bleeding, which can be bright red or dark.
     * Itching or irritation around the anus.
     * A feeling of incomplete evacuation.
 * **Treatment:**  
     * **Lifestyle changes:**  Increasing fiber intake, drinking plenty of water, and using stool softeners can help prevent and manage fissures.
-    * **Topical creams:**  These can help soothe the pain and reduce inflammation.
-    * **Prescription medications:**  In some cases, stronger medications may be prescribed to reduce pain and inflammation.
-    * **Surgery:**  In severe cases, surgery may be necessary to repair the fissure.
+    * **Topical medications:**  Creams or ointments containing hydrocortisone or lidocaine can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the pain and inflammation.
+    * **Surgery:**  In severe cases, a procedure called a "fissurectomy" may be necessary to repair the tear.
 **Hemorrhoids:**
 * **Definition:** Hemorrhoids are swollen veins in the rectum and anus. They can be internal (inside the rectum) or external (outside the anus).
 * **Causes:**  Hemorrhoids are often caused by prolonged straining during bowel movements, pregnancy, obesity, and chronic constipation.
 * **Symptoms:**
-    * Painless, often itchy sensation around the anus.
-    * Bleeding during bowel movements, which can be bright red or dark.
-    * Lump or bulge in the anal area.
-    * Itching or irritation around the anus.
+    * **Internal hemorrhoids:**  Often asymptomatic, but may cause bleeding during bowel movements.
+    * **External hemorrhoids:**  May cause pain, itching, bleeding, and a lump or bulge around the anus.
 * **Treatment:**
     * **Lifestyle changes:**  Increasing fiber intake, drinking plenty of water, and using stool softeners can help prevent and manage hemorrhoids.
-    * **Topical creams:**  These can help soothe the pain and reduce inflammation.
-    * **Prescription medications:**  In some cases, stronger medications may be prescribed to reduce pain and inflammation.
+    * **Topical medications:**  Creams or ointments containing hydrocortisone or lidocaine can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the pain and inflammation.
     * **Rubber band ligation:**  A procedure where a rubber band is placed around the base of the hemorrhoid to cut off blood supply.
     * **Sclerotherapy:**  A procedure where a solution is injected into the hemorrhoid to shrink it.
-    * **Hemorrhoidectomy:**  A surgical procedure to remove the hemorrhoid.
+    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoid.
 **Key Differences:**
-* **Location:** Fissures are tears in the anal canal lining, while hemorrhoids are swollen veins in the anal area.
-* **Pain:** Fissures are often painful, while hemorrhoids can be painful or itchy.
-* **Bleeding:** Both can cause bleeding, but fissures are more likely to bleed bright red blood.
-* **Treatment:**  Treatment for fissures and hemorrhoids can be similar, but the specific approach may vary depending on the severity of the condition.
-**Important Note:**  It's crucial to consult a doctor for proper diagnosis and treatment. Self-treating can be dangerous and may worsen the condition. 
-Let me know if you have any other questions. I'm here to help! 
+* **Location:** Fissures are tears in the anal canal lining, while hemorrhoids are swollen veins.
+* **Symptoms:** Fissures cause pain and bleeding during bowel movements, while hemorrhoids can cause pain, itching, bleeding, and a lump or bulge.
+* **Treatment:**  Fissures are often treated with lifestyle changes, topical medications, and sometimes surgery. Hemorrhoids are often treated with lifestyle changes, topical medications, and sometimes surgery.
+**Important Note:**  While this information is helpful, it is not a substitute for professional medical advice. If you are experiencing any of the symptoms mentioned above, please consult a doctor for a proper diagnosis and treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -13586,29 +13607,33 @@
         <is>
           <t xml:space="preserve">
 That's a great question!  While a standard urinalysis can be a helpful tool in the initial assessment of kidney stones, it's not always a definitive test. Here's a breakdown:
-**What a standard urinalysis can detect:**
-* **Blood:**  A high level of blood in the urine can indicate kidney stones, as they can cause damage to the kidneys and lead to bleeding.
-* **Protein:**  Increased protein in the urine can be a sign of kidney damage, which can be caused by kidney stones.
-* **Glucose:**  High glucose levels in the urine can indicate diabetes, which can also lead to kidney stones.
-* **White blood cells:**  An elevated white blood cell count in the urine can suggest infection, which can be a complication of kidney stones.
-* **Nitrites:**  The presence of nitrites in the urine can indicate a urinary tract infection (UTI), which can be associated with kidney stones.
-**What a standard urinalysis cannot detect:**
-* **Specific stone composition:**  A urinalysis can't tell you what type of stone you have (calcium oxalate, uric acid, struvite, etc.). This information is crucial for treatment.
-* **Stone size:**  The urinalysis can't determine the size of the stones, which is important for understanding the severity of the condition.
-* **Stone location:**  The urinalysis can't pinpoint the location of the stones in the kidney.
-* **Presence of calcium oxalate crystals:**  While a urinalysis can detect the presence of protein and blood, it can't specifically identify calcium oxalate crystals, which are a common type of kidney stone.
-**What to do if you suspect kidney stones:**
-* **Consult a doctor:**  If you experience symptoms like severe pain in your back or side, blood in your urine, frequent urination, or pain during urination, it's crucial to see a doctor.
-* **Imaging tests:**  Your doctor may order imaging tests like an X-ray, ultrasound, or CT scan to visualize the stones and determine their size and location.
-* **Urine analysis:**  A urinalysis can be helpful in identifying potential complications and guiding treatment.
+**What a standard urinalysis can tell you:**
+* **Presence of blood:**  A urinalysis can detect blood in the urine, which can be a sign of kidney stones, especially if they're causing irritation or damage.
+* **Protein:**  High levels of protein in the urine can indicate kidney damage, which can be associated with kidney stones.
+* **Glucose:**  High blood sugar can be a sign of diabetes, which can increase the risk of kidney stones.
+* **White blood cells:**  An increase in white blood cells can indicate an infection, which can be a complication of kidney stones.
+* **pH:**  The acidity or alkalinity of the urine can provide clues about the type of stones present.
+**What a standard urinalysis *cannot* tell you:**
+* **Type of stone:**  A urinalysis can't identify the specific type of stone, which is crucial for treatment.
+* **Size and location:**  It can't tell you how big the stones are or where they are located in the urinary tract.
+* **Presence of calcium oxalate crystals:**  While a urinalysis can detect calcium oxalate crystals, it's not always reliable. 
+* **Presence of other stones:**  It can't detect other types of stones like uric acid stones or struvite stones.
+**When a urinalysis is insufficient:**
+* **If you have a history of kidney stones:**  A urinalysis might be normal, but you may still need further testing.
+* **If you have symptoms of kidney stones:**  A urinalysis can help rule out other conditions, but it's not enough to diagnose kidney stones.
+* **If you have a high risk of kidney stones:**  A urinalysis can help identify risk factors, but further testing is needed to confirm the diagnosis.
+**What to do next:**
+* **Talk to your doctor:**  If you suspect you have kidney stones, it's important to see your doctor. They will likely order additional tests, such as:
+    * **Imaging studies:**  X-rays, CT scans, or ultrasounds can help visualize the stones and their location.
+    * **Urine analysis with microscopy:**  This can help identify the type of stone.
+    * **Blood tests:**  These can help assess kidney function and rule out other conditions.
 **In summary:**
-A standard urinalysis can be a valuable initial step in assessing kidney stones, but it's not a definitive test. It can help identify some potential complications and guide further investigations.  For a complete diagnosis and treatment plan, you'll need a combination of tests, including imaging and potentially a kidney biopsy. 
-Remember, I am an AI and cannot provide medical advice. Always consult a qualified healthcare professional for diagnosis and treatment. 
+A standard urinalysis can be a helpful starting point in the diagnosis of kidney stones, but it's not a definitive test. It's important to consult with your doctor for a comprehensive evaluation and appropriate treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>

--- a/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
+++ b/Evaluation/Step0/Com&Fac/en/gemma2b-it/en_gemma2b_result.xlsx
@@ -515,55 +515,40 @@
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're seeking information about Lexapro! It's a common medication for depression and anxiety, and understanding it is important for anyone taking it. 
+It's great that you're seeking information about Lexapro!  It's a common medication for depression and anxiety, and understanding it is important. 
 **Here's what I can tell you about Lexapro (escitalopram):**
 **What is Lexapro?**
 * Lexapro is an antidepressant medication belonging to a class of drugs called selective serotonin reuptake inhibitors (SSRIs). 
 * It works by increasing the levels of serotonin in the brain, a neurotransmitter that plays a role in mood regulation.
 **How is it used?**
-* Lexapro is prescribed for the treatment of:
-    * Major depressive disorder (MDD)
-    * Generalized anxiety disorder (GAD)
-    * Panic disorder
-    * Social anxiety disorder
-    * Obsessive-compulsive disorder (OCD)
-* It's typically taken once a day, usually in the morning.
+* Lexapro is prescribed for:
+    * **Major Depressive Disorder (MDD):**  It's used to treat moderate to severe depression.
+    * **Generalized Anxiety Disorder (GAD):** It can help manage excessive worry and anxiety.
+    * **Social Anxiety Disorder:** It can help reduce social anxiety symptoms.
+    * **Panic Disorder:** It can help manage panic attacks.
 **How does it work?**
-* Lexapro increases serotonin levels in the brain, which helps to improve mood, reduce anxiety, and alleviate symptoms of depression.
-* It's important to note that Lexapro doesn't work instantly. It typically takes several weeks for the full effects to be felt.
-**Potential Side Effects:**
-* Like all medications, Lexapro can cause side effects. Some common ones include:
+* Lexapro works by affecting the way serotonin is processed in the brain. It prevents the reabsorption of serotonin, allowing it to stay in the brain longer and have a greater impact.
+**Important Considerations:**
+* **Prescription Only:** Lexapro is a prescription medication and should only be taken under the guidance of a healthcare professional.
+* **Side Effects:** Like all medications, Lexapro can cause side effects. Common ones include:
     * Nausea
-    * Diarrhea
+    * Dry mouth
     * Insomnia
-    * Dry mouth
+    * Dizziness
     * Headache
-    * Dizziness
     * Sexual problems
-* Less common but more serious side effects include:
-    * Suicidal thoughts or actions (especially in young adults)
-    * Serotonin syndrome (a rare but potentially life-threatening condition)
-* It's crucial to discuss any side effects you experience with your doctor.
-**Important Considerations:**
-* **Dosage:** The dosage of Lexapro is individualized based on your specific needs and medical history. 
-* **Withdrawal:** Abruptly stopping Lexapro can lead to withdrawal symptoms, so it's important to taper off the medication under your doctor's supervision.
+* **Withdrawal Symptoms:** Abruptly stopping Lexapro can lead to withdrawal symptoms, so it's crucial to follow your doctor's instructions for tapering off the medication.
+* **Drug Interactions:** Lexapro can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
 * **Pregnancy and Breastfeeding:** Lexapro is not recommended for pregnant or breastfeeding women.
-* **Drug Interactions:** Lexapro can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
-**Remember:**
-* This information is for general knowledge only and should not be considered medical advice. 
-* It's essential to consult with your doctor or a qualified healthcare professional for personalized guidance and treatment. 
-* They can assess your individual needs, determine the appropriate dosage, monitor for side effects, and address any concerns you may have.
-**Where to Find More Information:**
-* **Your Doctor:** Your doctor is the best source of information about Lexapro and your specific treatment plan.
-* **National Institute of Mental Health (NIMH):** https://www.nimh.nih.gov/
-* **National Alliance on Mental Illness (NAMI):** https://www.nami.org/
-* **Anxiety and Depression Association of America (ADAA):** https://adaa.org/ 
-I hope this information is helpful. Please remember that seeking professional medical advice is crucial for your health and well-being. 
+* **Individualized Treatment:** The effectiveness of Lexapro can vary from person to person. It may take several weeks or months to see the full effects.
+**Important Note:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. 
+**To get the most accurate and personalized information about Lexapro, please consult with your doctor or a qualified healthcare professional.** They can assess your individual needs, discuss potential benefits and risks, and determine if Lexapro is the right treatment for you. 
+Remember, seeking professional medical advice is crucial for safe and effective treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -602,30 +587,28 @@
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about treating scabies, and you're interested in oral options.  
-**It's important to know that I am not a medical professional, and this information is not a substitute for advice from a doctor.**  Scabies is a serious condition that requires proper diagnosis and treatment. 
-That being said, here's what I can tell you about scabies treatment:
-**Scabies is a contagious skin infestation caused by the mite Sarcoptes scabiei.**  It's spread through direct skin-to-skin contact with an infected person. 
-**Traditional Treatment:**
-* **Topical Medications:** The most common and effective treatment for scabies is topical medications containing permethrin or crotamiton. These are applied directly to the skin and kill the mites and their eggs. 
-* **Oral Medications:**  While oral medications are sometimes used in severe cases, they are not the first-line treatment for scabies. They are typically reserved for individuals who have difficulty using topical treatments or have a severe infestation.
-**Oral Options:**
-* **Ivermectin:** Ivermectin is an antiparasitic medication that is sometimes used to treat scabies. It is typically prescribed in oral form. 
-* **Other Oral Medications:** There are other oral medications that are being researched for the treatment of scabies, but they are not yet widely available.
-**Important Considerations:**
-* **Diagnosis:** It's crucial to get a proper diagnosis from a doctor before starting any treatment. Scabies can be easily confused with other skin conditions.
-* **Treatment Duration:**  Treatment for scabies usually involves a course of topical medications applied to the skin. It's important to follow the doctor's instructions carefully and complete the entire course of treatment.
-* **Household Treatment:**  It's important to treat everyone in the household who has been exposed to scabies, as the mites can spread easily. 
-* **Side Effects:**  Some medications used to treat scabies can have side effects. It's important to discuss any potential side effects with your doctor.
-**Where to Get Help:**
-* **Your Doctor:** The best source of information and treatment for scabies is your doctor. They can diagnose the condition, prescribe the appropriate treatment, and provide guidance on how to prevent the spread of scabies.
-* **Local Health Department:** Your local health department may offer free or low-cost treatment for scabies.
-**Remember:**  Scabies is a serious condition that can be easily spread. It's important to seek medical attention if you suspect you have scabies. 
+I understand you're looking for information about treating scabies with oral medications.  
+It's important to note that I am an AI and cannot provide medical advice.  **Always consult a healthcare professional for diagnosis and treatment of scabies.** 
+That being said, I can share some general information about oral medications for scabies:
+**Oral medications are not the primary treatment for scabies.**  They are typically used in conjunction with topical treatments, like permethrin cream, to ensure complete eradication of the mites and their eggs. 
+Here's what you should know:
+* **Oral medications are less common:**  They are often reserved for specific situations, such as severe cases or when topical treatments are ineffective.
+* **They work by targeting the mites:**  These medications can kill the adult mites and eggs, but they may not be as effective as topical treatments in eliminating the infestation.
+* **They can have side effects:**  Like any medication, oral treatments for scabies can have side effects, including nausea, vomiting, and diarrhea.
+* **They require a prescription:**  You must consult a doctor to determine if oral medication is appropriate for you.
+**Here are some oral medications that may be prescribed for scabies:**
+* **Ivermectin:**  This medication is often used for scabies, but it's important to follow your doctor's instructions carefully.
+* **Other medications:**  Your doctor may prescribe other medications depending on your individual needs and the severity of your scabies.
+**Remember:**
+* **Early diagnosis and treatment are crucial:**  Scabies can spread quickly, so it's important to seek medical attention as soon as possible.
+* **Follow your doctor's instructions:**  This includes taking the medication as prescribed and completing the full course of treatment.
+* **Practice good hygiene:**  Washing bedding and clothing in hot water and drying them on high heat can help prevent the spread of scabies.
+**Please schedule an appointment with your doctor or a dermatologist to discuss your scabies and get the best treatment plan for you.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -667,21 +650,21 @@
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about being contagious with a respiratory infection.  Unfortunately, I can't give you a definitive answer without more information.  
-Here's why:
-* **I'm not a medical professional.** I'm an AI, and while I can access and process information, I can't diagnose medical conditions. 
-* **Many respiratory infections are common.**  There are many viruses and bacteria that can cause respiratory illnesses, and symptoms can overlap. 
-* **Contagiousness varies.**  The contagiousness of an infection depends on the specific virus or bacteria, the severity of the illness, and individual factors like your immune system.
-**To determine if you're contagious, you need to consider:**
-1. **Your symptoms:**  What are your specific symptoms?  Common respiratory symptoms include cough, sore throat, runny nose, fever, and shortness of breath. 
-2. **When did your symptoms start?**  The incubation period for many respiratory infections is 2-14 days.
-3. **Your recent exposure:**  Have you been around people who are sick?
-4. **Your medical history:**  Do you have any underlying health conditions that might make you more susceptible to infection?
-**What you should do:**
-* **Consult a doctor:**  The best way to know if you're contagious is to see a doctor. They can assess your symptoms, determine the cause, and advise you on the appropriate course of action.
-* **Isolate yourself:**  If you suspect you have a contagious respiratory infection, it's important to isolate yourself from others to prevent spreading the illness.
-* **Practice good hygiene:**  Wash your hands frequently, cover your coughs and sneezes, and avoid touching your face.
-**Remember:**  I can't provide medical advice.  Please seek professional medical help for a proper diagnosis and treatment plan. 
+I understand you're concerned about being contagious with a respiratory infection.  Unfortunately, I can't give you a diagnosis. I'm an AI, not a doctor! 
+**Here's what I can tell you to help you understand the situation better:**
+* **Contagiousness varies:**  Many respiratory infections are contagious, meaning you can spread them to others.  However, the contagiousness depends on the specific infection, its severity, and how long you've been sick.
+* **Symptoms are key:**  The most important thing is to identify the symptoms you're experiencing.  Common respiratory infections include:
+    * **Common cold:**  Runny nose, sore throat, cough, congestion.
+    * **Flu (influenza):**  Fever, chills, muscle aches, cough, sore throat, headache, fatigue.
+    * **COVID-19:**  Fever, cough, shortness of breath, fatigue, loss of taste or smell.
+* **Testing is crucial:**  If you're concerned about being contagious, the best thing to do is get tested.  A doctor can determine the specific infection and advise you on how to manage it and prevent spreading it.
+* **Isolation is important:**  If you have a contagious respiratory infection, it's important to isolate yourself from others to prevent spreading the infection.  This means staying home, avoiding contact with others, and wearing a mask if necessary.
+**What to do:**
+1. **See a doctor:**  The best way to know if you're contagious is to see a doctor. They can assess your symptoms, perform a test if needed, and provide personalized advice.
+2. **Stay home:**  If you're sick, stay home to avoid spreading the infection.
+3. **Practice good hygiene:**  Wash your hands frequently, cover your coughs and sneezes, and avoid touching your face.
+4. **Get vaccinated:**  Vaccines can help prevent many respiratory infections, including the flu and COVID-19.
+Remember, I'm not a doctor, and this information is not a substitute for professional medical advice. Please consult a healthcare professional for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -689,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -745,40 +728,40 @@
     * **Initial outbreak:**  Painful, fluid-filled blisters or sores on or around the genitals, anus, or mouth.
     * **Recurring outbreaks:**  Blisters may appear and disappear, or they may be more frequent and severe.
     * **No symptoms:**  Many people with herpes have no symptoms at all.
-* **Treatment:**  Antiviral medications can reduce the frequency and severity of outbreaks, but there is no cure.
-* **Complications:**  While rare, complications can include:
-    * **Eye infections:**  Herpes can spread to the eyes, causing corneal ulcers.
-    * **Brain infections:**  Rare but serious, especially in newborns.
-    * **Mental health issues:**  Stress and anxiety can be exacerbated by the condition.
+* **Treatment:**  Antiviral medications can reduce the frequency and severity of outbreaks. There is no cure for herpes.
+* **Complications:**  
+    * **Transmission to others:**  Herpes is highly contagious.
+    * **Complications during pregnancy:**  Herpes can be transmitted to the baby during childbirth.
+    * **Mental health:**  Living with herpes can be emotionally challenging.
 **HPV (Human Papillomavirus)**
 * **Cause:**  A group of over 200 different types of viruses. Some types are high-risk and can cause cancer, while others are low-risk and cause no health problems.
 * **Transmission:**  Direct skin-to-skin contact, including sexual activity.
 * **Symptoms:**  
-    * **Most HPV infections are asymptomatic:**  They clear up on their own without causing any noticeable symptoms.
+    * **Most HPV infections are asymptomatic:**  They clear up on their own without causing any symptoms.
     * **Genital warts:**  Small, fleshy growths on the genitals, anus, or mouth.
     * **Cervical cancer:**  High-risk HPV types can cause cervical cancer.
 * **Treatment:**  
     * **Genital warts:**  Can be treated with topical medications or cryotherapy (freezing).
-    * **Cervical cancer:**  Treatment depends on the stage of the cancer, but may include surgery, radiation therapy, or chemotherapy.
-* **Prevention:**  
-    * **HPV vaccine:**  Highly effective in preventing infection with high-risk HPV types.
-    * **Safe sex practices:**  Using condoms can reduce the risk of HPV transmission.
+    * **Cervical cancer:**  Treatment depends on the stage of the cancer.
+* **Complications:**  
+    * **Cervical cancer:**  Can be fatal if not detected and treated early.
+    * **Other cancers:**  Some HPV types can cause cancers of the anus, vulva, vagina, penis, and throat.
 **Key Differences:**
 * **Cause:** Herpes is caused by a virus, while HPV is a group of viruses.
-* **Symptoms:** Herpes often causes painful blisters, while HPV can cause genital warts or cervical cancer.
-* **Treatment:** Herpes has antiviral medications, while HPV treatment depends on the type and severity.
-* **Prevention:** The HPV vaccine is highly effective, while condoms can reduce the risk of both herpes and HPV.
+* **Symptoms:** Herpes often causes painful blisters, while HPV can cause no symptoms or genital warts.
+* **Treatment:** Herpes is treated with antiviral medications, while HPV treatment depends on the type and severity.
+* **Complications:** Herpes can be transmitted to others and cause complications during pregnancy, while HPV can cause cervical cancer and other cancers.
 **Important Notes:**
-* **Both herpes and HPV can be managed effectively.**
-* **Early diagnosis and treatment are crucial for both conditions.**
-* **Regular STI testing is essential for everyone, especially those who are sexually active.**
-* **If you have any concerns about your sexual health, please consult a healthcare professional.**
-Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
+* **Testing:**  It's important to get tested for both herpes and HPV if you have concerns.
+* **Prevention:**  Using condoms can help prevent both herpes and HPV.
+* **Vaccination:**  The HPV vaccine is highly effective in preventing HPV infection.
+* **Early Detection:**  Regular Pap smears are recommended for women to detect cervical cancer caused by HPV.
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -824,36 +807,30 @@
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're in pain!  It's no fun dealing with cold sores and mouth ulcers.  While I can't give medical advice, I can share some information that might help you find relief. 
-**First, let's talk about cold sores:**
-* **Cause:** Cold sores are caused by the herpes simplex virus (HSV).  They're highly contagious and can be triggered by stress, sun exposure, or even a weakened immune system.
-* **Treatment:**  There are antiviral medications that can help shorten the duration and severity of outbreaks.  
-    * **Prescription options:** Your doctor can prescribe a medication like acyclovir, valacyclovir, or famciclovir. These are very effective at reducing the outbreak's symptoms.
-    * **Over-the-counter options:**  Some over-the-counter creams and gels containing docosanol can also help. 
-* **Prevention:**  
-    * **Avoid close contact with people who have cold sores.**
-    * **Practice good hygiene.** Wash your hands frequently and avoid touching your mouth or sores.
-    * **Manage stress.** Stress can trigger outbreaks.
-**Now, about mouth ulcers:**
-* **Cause:**  Mouth ulcers are small, painful sores that can be caused by a variety of factors, including:
-    * **Trauma:**  Biting your cheek, biting your tongue, or irritation from dentures.
-    * **Stress:**  Stress can weaken your immune system and make you more susceptible to ulcers.
-    * **Infections:**  Viral or bacterial infections can also cause ulcers.
-    * **Medications:**  Some medications can cause ulcers as a side effect.
-* **Treatment:**  
-    * **Over-the-counter options:**  Over-the-counter pain relievers and topical creams can help soothe the pain and speed up healing.
-    * **Prescription options:**  Your doctor may prescribe stronger medications if the ulcers are severe or don't respond to over-the-counter treatments.
-**Important:**  It's crucial to see a doctor for a proper diagnosis and treatment plan. They can determine the cause of your ulcers and recommend the best course of action. 
-**Here are some additional tips:**
-* **Stay hydrated:**  Drinking plenty of fluids can help keep your mouth moist and prevent further irritation.
-* **Avoid spicy or acidic foods:**  These can irritate your mouth and make ulcers worse.
-* **Practice good oral hygiene:**  Brush and floss regularly to keep your mouth clean and healthy.
-Remember, I'm not a medical professional.  This information is for general knowledge only and should not be considered medical advice.  Please consult with your doctor for personalized guidance and treatment options. 
+I understand you're in pain!  It's no fun dealing with cold sores and mouth ulcers.  While I can't give medical advice, I can tell you about common treatments and what to discuss with your doctor. 
+**Here's what I can tell you about cold sores and mouth ulcers:**
+**Cold Sores:**
+* **Cause:**  Cold sores are caused by the herpes simplex virus (HSV).  They are highly contagious and can be triggered by stress, sun exposure, or even a weakened immune system.
+* **Treatment:**  There are antiviral medications that can help shorten the duration and severity of outbreaks.  Your doctor can prescribe these, and they're often most effective when started early in the outbreak.
+* **Over-the-counter options:**  Some over-the-counter creams and ointments can help soothe the pain and reduce the appearance of cold sores.  Look for products containing docosanol, which is a natural antiviral.
+**Mouth Ulcers:**
+* **Cause:**  Mouth ulcers, also known as canker sores, are small, painful sores that appear inside the mouth.  They can be caused by stress, injury, or an overactive immune system.
+* **Treatment:**  There are various over-the-counter remedies that can help soothe the pain and speed up healing.  These include:
+    * **Anti-inflammatory medications:**  Over-the-counter pain relievers like ibuprofen or naproxen can help reduce inflammation.
+    * **Mouthwashes:**  Some mouthwashes contain ingredients like benzocaine or lidocaine that can numb the pain.
+    * **Saline rinses:**  Rinsing your mouth with warm salt water can help clean the area and reduce inflammation.
+* **Prescription options:**  In some cases, your doctor may prescribe stronger medications, such as topical corticosteroids or antibiotics, if the ulcer is severe or doesn't respond to over-the-counter treatments.
+**What to do:**
+1. **See your doctor:**  It's important to see your doctor to get a proper diagnosis and discuss the best treatment options for you.  They can also help rule out any underlying medical conditions that may be contributing to your symptoms.
+2. **Don't self-medicate:**  While over-the-counter remedies can be helpful, it's important to avoid self-medicating.  Some medications can interact with other medications you're taking, and some can have side effects.
+3. **Practice good hygiene:**  Wash your hands frequently and avoid touching your mouth or sores.  This can help prevent the spread of cold sores and mouth ulcers.
+4. **Manage stress:**  Stress can trigger outbreaks of cold sores and mouth ulcers.  Try to find healthy ways to manage stress, such as exercise, yoga, or meditation.
+Remember, I'm not a doctor, and this information is not a substitute for professional medical advice.  Always consult with your doctor for diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -900,37 +877,40 @@
         <is>
           <t xml:space="preserve">
 Ah, a classic question!  Let's delve into the world of white tongue, a symptom that can be caused by a variety of factors. 
-**First, it's important to understand that a white tongue doesn't always indicate a serious problem.**  However, it's crucial to consult a doctor to determine the underlying cause and receive appropriate treatment. 
-Here's a breakdown of common causes:
+**First, it's crucial to understand that a white tongue doesn't always indicate a serious problem.**  However, it's important to get it checked out by a doctor to rule out any underlying conditions. 
+Here's a breakdown of the most common causes:
 **1.  Oral Hygiene:**
-* **Poor Oral Hygiene:**  This is the most common cause.  If you don't brush and floss regularly, food particles and bacteria can build up on your tongue, leading to a white coating.
-* **Dry Mouth:**  Saliva helps to keep the tongue clean and moist.  If you have dry mouth (xerostomia), your tongue can become dry and white.
+* **Poor Oral Hygiene:**  This is the most common culprit.  If you don't brush and floss regularly, food particles and bacteria can build up on your tongue, leading to a white coating.
+* **Dry Mouth:**  Saliva helps to keep your tongue clean.  If you have dry mouth (xerostomia), your tongue can become dry and white.
 **2.  Nutritional Deficiencies:**
 * **Vitamin B12 Deficiency:**  This can cause a white, thick coating on the tongue.
 * **Iron Deficiency:**  A lack of iron can also lead to a white tongue.
-**3.  Medical Conditions:**
+**3.  Medications:**
+* **Certain Antibiotics:**  Some antibiotics can cause a white coating on the tongue as a side effect.
+* **Anti-seizure Medications:**  Some anti-seizure medications can also cause a white tongue.
+**4.  Medical Conditions:**
 * **Oral Thrush (Candidiasis):**  This is a fungal infection that can cause a white, cottage cheese-like coating on the tongue.
-* **Leukoplakia:**  This is a white, thickened patch of tissue on the tongue that can be caused by chronic irritation or smoking.
-* **Oral Cancer:**  While less common, a white tongue can be a symptom of oral cancer.
-* **Diabetes:**  High blood sugar can cause a white coating on the tongue.
-* **HIV/AIDS:**  This can cause a white tongue, along with other symptoms.
-* **Medications:**  Some medications can cause a white tongue as a side effect.
-**4.  Other Factors:**
-* **Stress:**  Stress can affect your immune system and lead to a white tongue.
-* **Smoking:**  Smoking can irritate the tongue and cause it to become white.
+* **Leukoplakia:**  This is a white, thickened patch of tissue on the tongue that can be caused by smoking, alcohol, or certain medications.
+* **Oral Cancer:**  While less common, a white tongue can be a sign of oral cancer.
+* **Diabetes:**  High blood sugar can cause a white tongue.
+* **HIV/AIDS:**  This can cause a white tongue as a result of oral thrush.
+* **Autoimmune Disorders:**  Some autoimmune disorders can cause a white tongue.
+**5.  Other Factors:**
+* **Stress:**  Stress can affect your immune system, making you more susceptible to infections, including oral thrush.
+* **Smoking:**  Smoking can cause a white tongue.
 * **Alcohol Consumption:**  Excessive alcohol consumption can also lead to a white tongue.
 **What to do:**
-* **See a doctor:**  If you have a white tongue, it's important to see a doctor to determine the cause and receive appropriate treatment.
-* **Maintain good oral hygiene:**  Brush your teeth twice a day, floss daily, and use a tongue scraper to remove bacteria and debris.
-* **Stay hydrated:**  Drink plenty of water to keep your mouth moist.
-* **Quit smoking:**  Smoking can irritate your tongue and increase your risk of oral cancer.
-* **Manage underlying conditions:**  If you have a medical condition that may be causing your white tongue, such as diabetes or HIV/AIDS, it's important to manage it properly.
-**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for diagnosis and treatment. 
+* **See a doctor:**  If you have a white tongue, it's important to see a doctor to rule out any serious underlying conditions.
+* **Improve oral hygiene:**  Brush your tongue gently with a soft-bristled toothbrush and floss daily.
+* **Stay hydrated:**  Drink plenty of water to help keep your mouth moist.
+* **Avoid smoking and excessive alcohol consumption.**
+**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult with a qualified healthcare professional for diagnosis and treatment. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -969,28 +949,23 @@
         <is>
           <t xml:space="preserve">
 It's great that you're asking about potential side effects and how to manage your medication.  
-**Missing a dose of Saxenda (liraglutide) can have a few different effects, and it's important to understand the potential consequences.**
-**Here's what you need to know:**
-* **The Impact:**  Saxenda is a GLP-1 receptor agonist, meaning it helps regulate your appetite and blood sugar. Missing a dose can affect your weight loss journey and potentially lead to:
-    * **Reduced appetite control:** You might experience increased hunger and cravings.
-    * **Increased hunger pangs:** You might feel more hungry than usual.
-    * **Potential weight gain:**  If you miss doses, you might gain weight more quickly.
-    * **Fluctuations in blood sugar:**  This can be especially important if you have diabetes.
-* **The Importance of Consistency:**  The key to Saxenda's effectiveness is taking it consistently as prescribed.  
-* **What to Do:**
-    * **Don't panic:** If you miss a dose, don't worry too much. Just take your next dose at the scheduled time.
-    * **Don't double up:**  Don't take two doses at once. This can be dangerous.
-    * **Talk to your doctor:** If you're concerned about missing doses, talk to your doctor or pharmacist. They can help you understand the best way to manage your medication.
+**Missing a dose of Saxenda (liraglutide) can have a few potential effects, but it's important to remember that I am not a medical professional and this information is not a substitute for medical advice.** 
+Here's what you should know:
+* **The best course of action is to always follow your doctor's instructions.** They will have prescribed the correct dosage and frequency for you. 
+* **If you miss a dose, take it as soon as you remember.** Don't worry too much if it's close to the next scheduled dose. 
+* **If you miss a dose and it's close to the next scheduled dose, skip the missed dose and continue with your regular schedule.** 
+* **If you miss a dose and it's not close to the next scheduled dose, take the missed dose as soon as you remember.** 
+* **If you miss a dose and you're unsure what to do, contact your doctor or pharmacist.** They can provide personalized guidance.
 **Important Considerations:**
-* **Individual Variation:**  Everyone responds to medication differently. What works for one person might not work for another.
-* **Underlying Conditions:**  If you have any underlying health conditions, it's important to discuss your medication with your doctor.
-* **Lifestyle Factors:**  Your diet, exercise, and stress levels can all affect how your body responds to medication.
-**Remember:**  This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized guidance on your Saxenda treatment. 
+* **Saxenda is a GLP-1 receptor agonist.** It helps regulate appetite and blood sugar levels. 
+* **Missing doses can affect your weight loss journey.** It's crucial to be consistent with your medication schedule.
+* **Always consult your doctor or pharmacist if you have any concerns about your medication.** They can provide personalized advice based on your individual needs and medical history.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult your doctor or pharmacist for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1033,36 +1008,35 @@
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about mild muscle relaxants.  It's great that you're being proactive about your health! 
-**However, I must emphasize that I am not a medical professional and cannot provide medical advice.**  The information below is for general knowledge purposes only and should not be substituted for the guidance of a qualified healthcare provider. 
+I understand you're looking for information about mild muscle relaxants.  It's great you're being proactive about your health! 
+**However, I must emphasize that I am not a medical professional and cannot provide medical advice.**  The information below is for general knowledge purposes only and should not be substituted for the guidance of a qualified doctor. 
 **What are Muscle Relaxants?**
-Muscle relaxants are medications that help reduce muscle spasms and pain. They work by affecting the way your nerves communicate with your muscles. 
+Muscle relaxants are medications that help reduce muscle spasms and tension. They work by affecting the nerves and muscles, making them less sensitive to signals that cause them to contract. 
 **Types of Muscle Relaxants:**
-There are several types of muscle relaxants, including:
-* **Non-steroidal anti-inflammatory drugs (NSAIDs):** These are commonly used for pain relief and inflammation. Examples include ibuprofen (Advil, Motrin) and naproxen (Aleve).
-* **Benzodiazepines:** These are a class of drugs that can help relax muscles and reduce anxiety. Examples include diazepam (Valium) and alprazolam (Xanax).
-* **Anticholinergics:** These drugs block the action of acetylcholine, a neurotransmitter that plays a role in muscle contraction. Examples include cyclobenzaprine (Flexeril) and orphenadrine (Norflex).
-* **Anticonvulsants:** These medications are typically used to treat seizures but can also be used to relieve muscle spasms. Examples include gabapentin (Neurontin) and pregabalin (Lyrica).
-**Mild Muscle Relaxants:**
-The term "mild" is subjective and depends on the individual.  Here are some examples of muscle relaxants that are often considered mild:
-* **Cyclobenzaprine (Flexeril):** This is a muscle relaxant that is often used to treat muscle spasms and pain. It is available in both oral and injectable forms.
-* **Duloxetine (Cymbalta):** This is a medication that is used to treat depression and nerve pain. It can also be used to treat muscle spasms.
-* **Gabapentin (Neurontin):** This is a medication that is used to treat seizures and nerve pain. It can also be used to treat muscle spasms.
+There are several types of muscle relaxants, each with its own mechanism of action and potential side effects. Some common types include:
+* **Non-steroidal anti-inflammatory drugs (NSAIDs):**  Like ibuprofen or naproxen, these can help reduce inflammation and pain, which can sometimes ease muscle tension.
+* **Benzodiazepines:**  These are a class of drugs that can help relax muscles and reduce anxiety. Examples include diazepam (Valium) and alprazolam (Xanax).
+* **Anticholinergics:**  These drugs block the action of acetylcholine, a neurotransmitter that plays a role in muscle contraction. Examples include cyclobenzaprine (Flexeril) and orphenadrine (Norflex).
+* **Anticonvulsants:**  These medications, originally used to treat seizures, can also help relax muscles. Examples include gabapentin (Neurontin) and pregabalin (Lyrica).
+**When to Consider a Muscle Relaxant:**
+Muscle relaxants can be helpful for a variety of conditions, including:
+* **Muscle spasms:**  These can be caused by various factors, such as injury, overuse, or certain medical conditions.
+* **Fibromyalgia:**  This condition causes widespread muscle pain and tenderness.
+* **Restless leg syndrome:**  This condition causes an irresistible urge to move the legs, often at night.
+* **Chronic pain:**  Muscle relaxants can help manage pain associated with conditions like arthritis or back pain.
 **Important Considerations:**
-* **Underlying Cause:** It's crucial to identify the underlying cause of your muscle spasms.  Muscle relaxants may not be effective if the cause is not addressed.
-* **Dosage and Duration:** The dosage and duration of treatment will vary depending on the individual and the severity of the muscle spasms.
-* **Side Effects:** Muscle relaxants can have side effects, such as drowsiness, dizziness, and dry mouth.
-* **Interactions:** Muscle relaxants can interact with other medications.
-* **Pregnancy and Breastfeeding:** Some muscle relaxants are not safe for use during pregnancy or breastfeeding.
-**When to See a Doctor:**
-If you are experiencing muscle spasms, it is important to see a doctor to determine the cause and receive appropriate treatment.  
-**Remember:** This information is for general knowledge purposes only and should not be substituted for the guidance of a qualified healthcare provider. 
-Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your specific situation and receive personalized advice. 
+* **Underlying Cause:**  It's crucial to identify the underlying cause of your muscle tension or spasms.  Muscle relaxants may not be the best solution if the issue is not properly addressed.
+* **Potential Side Effects:**  Muscle relaxants can have side effects, including drowsiness, dizziness, and confusion. They can also interact with other medications.
+* **Dosage and Duration:**  The dosage and duration of treatment will vary depending on the individual and the condition being treated.
+* **Alternative Treatments:**  There are often non-medication options for managing muscle tension, such as physical therapy, massage, and exercise.
+**What to Do Next:**
+If you're experiencing muscle tension or spasms, it's essential to consult with a doctor. They can help determine the cause of your symptoms and recommend the most appropriate treatment plan. 
+**Remember:**  Self-treating can be dangerous. Always seek professional medical advice before taking any medication. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1107,32 +1081,31 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As a wise doctor, I can tell you that activated charcoal is a controversial topic when it comes to treating stomach bugs. Here's a breakdown of what we know:
-**What is Activated Charcoal?**
-Activated charcoal is a highly porous form of carbon that's been treated to increase its surface area. This makes it incredibly effective at absorbing substances in the digestive tract.
-**Potential Benefits:**
-* **Absorption of Toxins:** Activated charcoal can bind to certain toxins and chemicals in the gut, potentially reducing their absorption into the bloodstream. This is why it's sometimes used to treat poisoning.
-* **Reducing Diarrhea:**  It can absorb excess water and electrolytes, potentially helping to reduce diarrhea.
-**Potential Risks and Concerns:**
-* **Limited Evidence for Stomach Bugs:** There's limited scientific evidence to support the use of activated charcoal for treating stomach bugs like the common cold or gastroenteritis. 
-* **Potential for Side Effects:** Activated charcoal can cause constipation, bloating, and nutrient deficiencies. It can also interfere with the absorption of certain medications.
-* **Not a Substitute for Treatment:** Activated charcoal should not be used as a substitute for proper medical care. It's important to address the underlying cause of your stomach bug, which may include dehydration, infection, or food poisoning.
-**What to Do:**
-* **Consult a Doctor:** If you suspect you have a stomach bug, it's crucial to consult a doctor. They can determine the cause of your symptoms and recommend the appropriate treatment.
-* **Hydration is Key:**  The most important thing for treating a stomach bug is to stay hydrated. Sip on clear fluids like water, broth, or electrolyte drinks.
-* **Rest:** Give your body time to recover. 
-* **Over-the-Counter Medications:** Over-the-counter medications like bismuth subsalicylate (Pepto-Bismol) can help reduce nausea and diarrhea.
-**In Conclusion:**
-While activated charcoal has potential benefits, it's not a proven treatment for stomach bugs. It's best to consult a doctor for diagnosis and treatment. They can advise you on the best course of action based on your specific situation. 
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+As a wise doctor, I can tell you that activated charcoal is a popular home remedy for stomach bugs, but it's important to understand the science behind it and its limitations. 
+**Here's what I know about activated charcoal and stomach bugs:**
+**What is activated charcoal?**
+Activated charcoal is a highly porous form of carbon that has been treated to increase its surface area. This makes it incredibly effective at absorbing substances, including toxins, medications, and even some food particles.
+**How does it work for stomach bugs?**
+The idea behind using activated charcoal for stomach bugs is that it can bind to and absorb the toxins and bacteria that cause the illness. This may help to:
+* **Reduce the severity of symptoms:** By removing toxins, charcoal may lessen nausea, vomiting, and diarrhea.
+* **Prevent further absorption:** It may help prevent the absorption of harmful substances into the bloodstream.
+**However, there are some important things to consider:**
+* **Limited evidence:** While some studies suggest potential benefits, the evidence for activated charcoal's effectiveness in treating stomach bugs is limited and inconclusive. 
+* **Potential side effects:** Activated charcoal can have side effects, including constipation, dehydration, and nutrient deficiencies. 
+* **Not a substitute for medical care:** Activated charcoal should not be used as a substitute for proper medical care. It's crucial to consult a doctor for diagnosis and treatment of stomach bugs.
+* **Dosage and timing:** The dosage and timing of activated charcoal can vary depending on the severity of the illness and the individual's health. It's important to follow the instructions on the product label or consult a doctor for guidance.
+* **Interactions with medications:** Activated charcoal can interact with certain medications, so it's important to inform your doctor about all the medications you are taking.
+**In conclusion:**
+While activated charcoal may offer some potential benefits for stomach bugs, it's not a guaranteed cure and can have side effects. It's crucial to consult a doctor for diagnosis and treatment. They can determine the best course of action based on your individual needs and medical history. 
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1179,36 +1152,42 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for relief from congestion.  I'm an AI and can't give medical advice, but I can offer some general information and suggestions. 
-**First, it's crucial to understand that congestion can have many causes, from a common cold to allergies to more serious conditions.  It's important to consult a doctor to determine the underlying cause and get the right treatment.**
-That said, here are some general tips that may help relieve congestion:
-**For Short-Term Relief:**
-* **Hydration:** Drink plenty of fluids, like water, broth, or herbal teas. This helps thin mucus and makes it easier to clear.
-* **Humidifier:** Use a cool-mist humidifier to add moisture to the air, which can help loosen mucus.
-* **Saline Rinse:**  Use a saline nasal spray or rinse to help clear nasal passages.
-* **Warm Compress:** Apply a warm compress to your forehead or sinuses to help relieve pressure.
-* **Elevate Your Head:** Sleep with your head elevated to help drain mucus.
-* **Over-the-Counter Medications:**  
-    * **Decongestants:**  These can help shrink swollen blood vessels in the nasal passages, but use them cautiously as they can cause side effects.
-    * **Expectorants:** These help thin mucus and make it easier to cough up.
-    * **Antihistamines:** These can help relieve allergy-related congestion.
-**For Long-Term Relief:**
-* **Identify and Manage Allergies:**  If allergies are a factor, talk to your doctor about allergy testing and treatment options.
-* **Maintain a Healthy Lifestyle:**  Get enough sleep, eat a balanced diet, and exercise regularly to boost your immune system.
-* **Avoid Irritants:**  Stay away from smoke, dust, and other irritants that can worsen congestion.
-**When to See a Doctor:**
-* **Severe or Persistent Congestion:** If your congestion is severe or doesn't improve with home remedies, see a doctor.
-* **Fever:**  A fever along with congestion could indicate a more serious infection.
-* **Difficulty Breathing:**  If you experience difficulty breathing, shortness of breath, or chest pain, seek immediate medical attention.
-* **Other Symptoms:**  If you have other symptoms like a sore throat, cough, or headache, see a doctor.
-**Remember:** This information is not a substitute for professional medical advice. Always consult with a doctor for diagnosis and treatment. 
+**First, it's crucial to understand that congestion can have many causes, from a simple cold to allergies or even a more serious condition.**  
+**Here are some general things you can try to relieve congestion:**
+**1. Hydration:**
+* **Drink plenty of fluids:** Water, broth, herbal teas, and even warm lemon water can help thin mucus and make it easier to clear.
+**2. Humidifier:**
+* **Use a humidifier:** Adding moisture to the air can help loosen mucus and make breathing easier.
+**3. Saline Rinse:**
+* **Use a saline nasal spray or rinse:** This can help clear out nasal passages and reduce inflammation.
+**4. Over-the-Counter Medications:**
+* **Decongestants:** These can help shrink swollen blood vessels in the nasal passages, but use them cautiously as they can have side effects.
+* **Antihistamines:** These can help reduce allergy-related congestion.
+* **Expectorants:** These can help thin mucus and make it easier to cough up.
+**5. Warm Compress:**
+* **Apply a warm compress to your forehead or sinuses:** This can help relieve pressure and pain.
+**6. Rest:**
+* **Get plenty of rest:** Your body needs time to fight off whatever is causing your congestion.
+**7. Avoid Irritants:**
+* **Stay away from smoke, dust, and other irritants:** These can worsen congestion.
+**8. Elevate Your Head:**
+* **Sleep with your head elevated:** This can help drain mucus from your sinuses.
+**9. Consider Natural Remedies:**
+* **Steam inhalation:** Inhaling steam from a bowl of hot water can help loosen mucus.
+* **Honey:** A spoonful of honey can soothe a sore throat and help thin mucus.
+**Important:**
+* **Consult a doctor if:** Your congestion is severe, lasts for more than a week, is accompanied by fever, headache, or other concerning symptoms.
+* **Be cautious with medications:** Always follow the directions on the label and consult a doctor if you have any concerns.
+* **Don't self-diagnose:**  It's important to get a proper diagnosis from a medical professional to ensure you're receiving the right treatment.
+Remember, I'm an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1269,14 +1248,14 @@
 * **Dietary Sources:**  Include plenty of leafy green vegetables (like spinach and kale), eggs, fish (especially fatty fish like salmon and tuna), and nuts in your diet.
 * **Supplementation:**  If you're concerned about your intake, consider taking lutein and zeaxanthin supplements, and omega-3 supplements like fish oil.
 **Important Considerations**
-* **Individual Needs:**  The optimal dosage of lutein and omega-3 for vision health varies depending on individual factors like age, diet, and existing eye conditions.  Consult with your doctor or a registered dietitian to determine the best approach for you.
+* **Individual Needs:**  The optimal dosage of lutein and omega-3 for vision health varies depending on age, lifestyle, and existing eye conditions.  Consult with your doctor or a registered dietitian to determine the best approach for you.
 * **Underlying Conditions:**  If you have any eye conditions, such as AMD, it's crucial to discuss your dietary choices and supplement use with your ophthalmologist.
 Remember, maintaining healthy vision is a lifelong endeavor.  By incorporating lutein and omega-3 into your diet and lifestyle, you can significantly contribute to your eye health and enjoy clear, vibrant vision for years to come. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1327,7 +1306,7 @@
     * Nausea
     * Abdominal cramps
     * Fever (often mild)
-* **Transmission:**  Highly contagious through contact with contaminated surfaces, food, or water, or by person-to-person contact.
+* **Transmission:**  Highly contagious through contact with contaminated surfaces, food, or water. It's also spread through person-to-person contact.
 * **Duration:** Typically lasts 1-3 days, but can be longer.
 **The Flu (Influenza):**
 * **Cause:** A virus that infects the respiratory system.
@@ -1339,7 +1318,7 @@
     * Muscle aches
     * Headache
     * Fatigue
-* **Transmission:** Spread through respiratory droplets from coughing or sneezing.
+* **Transmission:** Spread through droplets from coughs and sneezes.
 * **Duration:** Typically lasts 3-7 days, but can be longer.
 **Key Differences:**
 * **Target Organ:** Stomach flu primarily affects the stomach and intestines, while the flu primarily affects the respiratory system.
@@ -1347,13 +1326,13 @@
 * **Treatment:**  Stomach flu is treated with rest, fluids, and over-the-counter medications for nausea and diarrhea. The flu is treated with rest, fluids, and over-the-counter medications for fever and aches. Antiviral medications may be prescribed for severe cases.
 **Important Note:**
 * **Both illnesses can be serious, especially for young children, older adults, and people with underlying health conditions.**
-* **It's important to see a doctor if you experience severe symptoms or if your symptoms don't improve after a few days.**
+* **It's important to see a doctor if you experience severe symptoms or if you have concerns about your health.**
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1400,39 +1379,38 @@
       <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about potential side effects of Robaxin (which is the brand name for the drug **methocarbamol**).  
-**Here's what I can tell you about Robaxin and its potential side effects:**
-**Robaxin is a muscle relaxant, primarily used to treat muscle spasms and pain.** It works by reducing the activity of nerves that control muscle contractions. 
+I understand you're curious about potential side effects of Robaxin.  It's great you're thinking about this! 
+**Robaxin (methocarbamol) is a muscle relaxant used to treat muscle spasms and pain.** It's important to remember that I am an AI and cannot give medical advice.  **Always consult with a doctor or pharmacist for personalized guidance.**
+That said, here's what I can tell you about potential side effects based on general medical knowledge:
 **Common Side Effects:**
-* **Drowsiness:** This is the most common side effect, especially when starting the medication. It's important to avoid driving or operating machinery until you know how Robaxin affects you.
-* **Dizziness:**  This can also occur, especially when first starting the medication.
-* **Headache:** Some people experience headaches while taking Robaxin.
-* **Nausea:**  This is another possible side effect, but it's usually mild.
-* **Constipation:**  Robaxin can slow down your bowel movements.
-* **Fatigue:**  You may feel tired or weak while taking Robaxin.
+* **Drowsiness:** This is the most common side effect, especially when starting Robaxin. 
+* **Dizziness:**  This can occur, especially when first starting or changing dosage.
+* **Nausea:** Some people experience nausea, especially when taking Robaxin with food.
+* **Headache:**  Headaches can be a side effect, but they are usually mild.
+* **Fatigue:**  Feeling tired or weak is another possible side effect.
 **Less Common Side Effects:**
-* **Muscle weakness:**  This can occur, especially if you take Robaxin for a long time.
-* **Allergic reactions:**  While rare, some people can have allergic reactions to Robaxin. Symptoms can include hives, itching, swelling, and difficulty breathing.
-* **Liver problems:**  Robaxin can be harmful to the liver, especially if you have liver disease.
-* **Kidney problems:**  Robaxin can also affect kidney function.
+* **Constipation:**  Robaxin can slow down bowel movements.
+* **Dry mouth:**  This is a common side effect of many medications.
+* **Blurred vision:**  This can occur, especially in people with pre-existing vision problems.
+* **Muscle weakness:**  This is a rare but possible side effect.
+**Serious Side Effects:**
+* **Liver problems:**  Robaxin can cause liver damage, so it's important to tell your doctor if you have any liver problems.
+* **Kidney problems:**  Robaxin can also affect kidney function, so it's important to tell your doctor if you have any kidney problems.
+* **Allergic reactions:**  Some people may have allergic reactions to Robaxin, which can be serious.
 **Important Considerations:**
-* **Dosage:**  The dosage of Robaxin varies depending on the individual and the condition being treated. It's crucial to follow your doctor's instructions carefully.
-* **Duration of Use:**  Robaxin should only be used for as long as necessary. 
+* **Dosage:**  The dosage of Robaxin will vary depending on the individual and the condition being treated.
+* **Duration of use:**  It's important to use Robaxin only as directed by your doctor.
 * **Interactions:**  Robaxin can interact with other medications, so it's important to tell your doctor about all the medications you are taking.
-* **Pregnancy and Breastfeeding:**  It's important to talk to your doctor before taking Robaxin if you are pregnant or breastfeeding.
-**What to Do if You Experience Side Effects:**
-* **Talk to your doctor:**  If you experience any side effects, it's important to talk to your doctor. They may be able to adjust your dosage or switch you to a different medication.
-* **Stop taking Robaxin:**  If you experience any severe side effects, such as difficulty breathing, swelling of the face or throat, or a rash, stop taking Robaxin immediately and seek medical attention.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or pharmacist for personalized advice about Robaxin or any other medication. 
-Let me know if you have any other questions. 
+* **Pregnancy and breastfeeding:**  It's important to talk to your doctor before taking Robaxin if you are pregnant or breastfeeding.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a healthcare professional for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1469,37 +1447,35 @@
       <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're absolutely right to ask!  There are indeed many different types of nausea medications, each with its own mechanism of action and best uses.  
+You're absolutely right to ask!  There are indeed many types of nausea medications, each with its own mechanism of action and best uses.  
 Here's a breakdown of the main categories:
 **1. Antihistamines:**
-* **Mechanism:** These medications block the action of histamine, a chemical released during allergic reactions and in some cases of motion sickness. 
-* **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Cyclizine (Antivert)
-* **Uses:** Effective for motion sickness, migraines, and some cases of nausea caused by chemotherapy.
+* **Mechanism:** Block the action of histamine, a chemical released during allergic reactions and inflammation. This can help reduce nausea associated with motion sickness, migraines, and some digestive issues.
+* **Examples:** Dimenhydrinate (Dramamine), Meclizine (Bonine), Promethazine (Phenergan)
+* **Considerations:** Can cause drowsiness, dry mouth, and blurred vision.
 **2. Anti-emetics:**
-* **Mechanism:** These medications work on the central nervous system to suppress vomiting. They can be further classified as:
-    * **Serotonin antagonists:**  These block the action of serotonin, a neurotransmitter involved in vomiting. Examples include Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend).
-    * **Dopamine antagonists:** These block dopamine receptors, which are involved in the vomiting reflex. Examples include Prochlorperazine (Compazine), Metoclopramide (Reglan).
-* **Uses:**  Effective for nausea and vomiting caused by chemotherapy, surgery, pregnancy, and motion sickness.
+* **Mechanism:**  These medications work on the central nervous system to suppress vomiting. They can be divided into:
+    * **Serotonin antagonists and reuptake inhibitors (5-HT3 receptor antagonists):** Ondansetron (Zofran), Granisetron (Kytril), Aprepitant (Emend)
+    * **Dopamine antagonists:** Metoclopramide (Reglan)
+    * **Other:** Prochlorperazine (Compazine), Chlorpromazine (Thorazine)
+* **Considerations:**  Some anti-emetics can cause dizziness, fatigue, and constipation.
 **3. Other Medications:**
-* **Anti-diarrheal medications:**  These can sometimes help with nausea, especially if it's caused by diarrhea. Examples include Loperamide (Imodium).
-* **Benzodiazepines:**  These are often used for severe nausea and vomiting, especially in cases of post-operative nausea and vomiting. Examples include Diazepam (Valium), Lorazepam (Ativan).
-* **Prescription medications:**  Some medications, like scopolamine patches, are specifically designed for motion sickness and can be very effective.
-**Important Considerations:**
-* **Underlying Cause:** The type of medication you need will depend on the cause of your nausea.  For example, motion sickness might be treated with antihistamines, while chemotherapy-induced nausea might require anti-emetics.
-* **Individual Response:**  People respond differently to medications. What works for one person might not work for another.
-* **Side Effects:**  All medications have potential side effects. It's important to discuss these with your doctor.
-* **Drug Interactions:**  Some medications can interact with each other, so it's important to tell your doctor about all the medications you're taking.
-**When to See a Doctor:**
-* If your nausea is severe or persistent.
-* If you have other symptoms, such as fever, abdominal pain, or blood in your vomit.
-* If your nausea is accompanied by vomiting that is not easily controlled.
-* If you are pregnant or breastfeeding.
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
+* **Anti-anxiety medications:** Benzodiazepines like diazepam (Valium) can help reduce anxiety, which can contribute to nausea.
+* **Anti-depressants:** Some antidepressants, like tricyclic antidepressants, can also be used to treat nausea.
+* **Ginger:**  A natural remedy that can be effective for nausea, especially in cases of motion sickness.
+* **Peppermint oil:**  Another natural remedy that can help with nausea.
+**Choosing the Right Medication:**
+The best type of nausea medication for you will depend on the cause of your nausea and your individual medical history. 
+**Important Notes:**
+* **Always consult with a doctor:**  It's crucial to discuss your symptoms and medical history with a doctor before taking any medication. They can help determine the underlying cause of your nausea and recommend the most appropriate treatment.
+* **Follow dosage instructions:**  Taking the correct dosage of medication is essential for effectiveness and safety.
+* **Be aware of potential side effects:**  All medications can have side effects. Be sure to discuss any concerns with your doctor.
+I hope this information is helpful! Remember, I'm not a substitute for professional medical advice. Always consult with a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1545,38 +1521,33 @@
       <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about anxiety medications!  It's important to remember that I'm an AI and can't give medical advice.  **Always consult with a qualified healthcare professional for diagnosis and treatment.** 
-That said, I can tell you about medications similar to buspirone, which is an anxiolytic (anti-anxiety) medication. 
-**Buspirone is a serotonin receptor partial agonist.** This means it works by influencing serotonin levels in the brain, which plays a role in mood regulation and anxiety. 
-Here are some medications that share similar mechanisms of action or target similar pathways in the brain:
-**1. Serotonin Reuptake Inhibitors (SSRIs):**
-* **Fluoxetine (Prozac):** A common SSRI used for depression and anxiety.
-* **Sertraline (Zoloft):** Another widely used SSRI for anxiety and depression.
-* **Paroxetine (Paxil):**  Effective for anxiety and depression.
-* **Citalopram (Celexa):**  Used for anxiety and depression.
-**2. Serotonin-Norepinephrine Reuptake Inhibitors (SNRIs):**
-* **Venlafaxine (Effexor):**  Effective for both anxiety and depression.
-* **Duloxetine (Cymbalta):**  Used for depression, anxiety, and chronic pain.
-**3. Benzodiazepines:**
-* **Alprazolam (Xanax):**  A short-acting benzodiazepine used for anxiety and panic attacks.
-* **Diazepam (Valium):**  A long-acting benzodiazepine used for anxiety and muscle spasms.
-* **Lorazepam (Ativan):**  Used for anxiety and insomnia.
+It's great you're interested in exploring options for anxiety management!  Buspirone is a unique medication, and while there are other options, it's important to remember that **I am not a medical professional and cannot give medical advice.**  
+Here's what I can tell you about medications similar to buspirone:
+**Similar Mechanisms of Action:**
+* **Serotonin Antagonists:** Buspirone is a serotonin antagonist, meaning it blocks serotonin receptors in the brain.  Other medications in this class include:
+    * **Citalopram (Celexa):** A selective serotonin reuptake inhibitor (SSRI) that also works on serotonin receptors.
+    * **Escitalopram (Lexapro):** Another SSRI with similar mechanisms to citalopram.
+    * **Fluoxetine (Prozac):** Another SSRI, often used for depression but also effective for anxiety.
+    * **Paroxetine (Paxil):** Another SSRI, often used for depression and anxiety.
+* **Benzodiazepines:** These are a class of drugs that enhance the effects of GABA, a neurotransmitter that calms the brain.  While they are effective for short-term anxiety relief, they can be habit-forming and have side effects.  Examples include:
+    * **Alprazolam (Xanax):** A short-acting benzodiazepine used for anxiety and panic attacks.
+    * **Diazepam (Valium):** A long-acting benzodiazepine used for anxiety and muscle spasms.
+    * **Lorazepam (Ativan):** A short-acting benzodiazepine used for anxiety and insomnia.
 **Important Considerations:**
-* **Individualized Treatment:** The best medication for you will depend on your specific symptoms, medical history, and other factors. 
-* **Side Effects:** All medications have potential side effects. 
-* **Drug Interactions:** Some medications can interact with each other.
-* **Withdrawal Symptoms:** Abruptly stopping certain medications can lead to withdrawal symptoms.
-**What to Discuss with Your Doctor:**
-* **Your Symptoms:** Be clear about your anxiety symptoms and how long you've been experiencing them.
-* **Your Medical History:**  Tell your doctor about any other medical conditions, medications you're taking, and allergies.
-* **Your Lifestyle:**  Discuss your lifestyle, including stress levels, sleep habits, and diet.
-* **Your Goals:**  Talk about your goals for treatment, such as reducing anxiety symptoms or improving quality of life.
-Remember, finding the right medication and treatment plan is a process that requires open communication with your doctor. 
+* **Individual Needs:** The best medication for you will depend on your specific symptoms, medical history, and other factors. 
+* **Side Effects:** All medications have potential side effects.  Buspirone can cause drowsiness, dizziness, and nausea.  Other medications can have different side effects.
+* **Drug Interactions:** Some medications can interact with each other, so it's important to tell your doctor about all the medications you are taking.
+* **Long-Term Use:** Some medications, like SSRIs, are often used for long-term anxiety management.  Others are used for short-term relief.
+**What to Do:**
+* **Talk to your doctor:** The best way to find the right medication for you is to discuss your symptoms and concerns with your doctor. They can help you weigh the risks and benefits of different options and determine the best course of treatment.
+* **Be open and honest:** Tell your doctor about any other medications you are taking, including over-the-counter drugs and supplements.
+* **Ask questions:** Don't be afraid to ask your doctor any questions you have about your medication.
+Remember, finding the right medication for anxiety is a journey. It may take some time to find the right fit for you.  Be patient, work closely with your doctor, and don't hesitate to ask for help. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1620,33 +1591,32 @@
       <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're paying attention to your body and seeking information!  While it's true that menstrual cycles can cause some back pain, it's important to remember that I'm not a medical professional and can't give medical advice. 
-Here's what I can tell you about the connection between menstrual cycles and back pain:
-**Possible Causes of Back Pain During Your Cycle:**
-* **Hormonal Fluctuations:**  The surge in estrogen and progesterone leading up to your period can cause muscle tension, ligaments to relax, and even changes in the spine's alignment. This can lead to discomfort, especially in the lower back.
-* **Increased Pressure on the Pelvis:**  As your uterus expands during your cycle, it can put pressure on your lower back and pelvis, causing pain.
-* **Muscle Imbalances:**  Changes in hormone levels can affect muscle strength and flexibility, leading to imbalances that can cause back pain.
-* **Other Factors:**  Other factors like poor posture, stress, and even exercise can contribute to back pain.
+I understand you're experiencing back pain and wondering if it's related to your upcoming period. While it's a common concern, I can't provide medical advice. 
+Here's what I can tell you about the connection between menstruation and back pain:
+**Possible Reasons for Back Pain During Your Cycle:**
+* **Hormonal Fluctuations:**  The surge in estrogen and progesterone during your cycle can cause muscle tension, particularly in the lower back. This can lead to pain, stiffness, and even headaches.
+* **Increased Pressure on the Pelvis:**  As your uterus expands during your period, it can put pressure on your lower back, causing discomfort.
+* **Changes in Posture:**  Some women experience changes in their posture during their cycle, which can contribute to back pain.
+* **Other Underlying Conditions:**  While less common, back pain can be a symptom of other conditions like endometriosis, fibroids, or even arthritis.
+**Important Considerations:**
+* **Individual Variation:**  Everyone experiences their cycle differently. Some women experience minimal discomfort, while others have more pronounced symptoms.
+* **Other Factors:**  Your back pain could be caused by other factors unrelated to your cycle, such as poor posture, lifting heavy objects, or even stress.
+* **Severity:**  If your back pain is severe, persistent, or accompanied by other symptoms like fever, nausea, or bleeding, it's crucial to consult a doctor.
 **What to Do:**
-* **Keep Track of Your Symptoms:**  Note when the pain is most intense, what makes it better or worse, and any other symptoms you experience. This information can be helpful for your doctor.
-* **Over-the-Counter Pain Relief:**  Ibuprofen or acetaminophen can help manage pain and inflammation.
-* **Gentle Exercise:**  Light stretching and gentle exercise can help improve flexibility and muscle strength.
+* **Keep Track:**  Note down when your back pain occurs, its intensity, and any other symptoms you experience. This information can be helpful for your doctor.
+* **Over-the-Counter Pain Relief:**  Ibuprofen or acetaminophen can help manage mild back pain.
+* **Gentle Exercise:**  Light stretching and gentle exercise can help improve blood flow and reduce muscle tension.
 * **Heat or Cold Therapy:**  Applying heat or cold packs to the affected area can provide temporary relief.
-* **Rest:**  Give your body time to recover and avoid activities that worsen the pain.
-**When to See a Doctor:**
-* **Severe or Persistent Pain:**  If your back pain is severe, doesn't improve with home remedies, or is accompanied by other symptoms like fever, chills, or numbness, see a doctor immediately.
-* **Sudden Onset:**  If your back pain starts suddenly and is accompanied by other symptoms, seek medical attention.
-* **Pregnant:**  If you're pregnant, back pain can be more common and may require specific care.
-**Important Note:**  It's crucial to consult with a healthcare professional for a proper diagnosis and treatment plan. They can assess your individual situation, rule out any underlying medical conditions, and provide personalized advice. 
-Remember, I'm here to provide general information, but I can't replace the expertise of a doctor. 
+* **Consult a Doctor:**  If your back pain is severe, persistent, or accompanied by other symptoms, it's essential to seek medical advice. 
+**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1688,24 +1658,26 @@
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about your fatty liver and wondering about Imodium.  However, I must emphasize that I am an AI and cannot give medical advice.  
-**It's crucial to consult your doctor or a qualified healthcare professional about any medication, especially when you have a pre-existing condition like fatty liver.** 
-Here's why:
-* **Imodium (loperamide) is an anti-diarrheal medication.** It works by slowing down the movement of your intestines, reducing diarrhea. 
-* **Fatty liver disease is a complex condition.**  It's often caused by factors like obesity, diabetes, and high cholesterol.  
-* **Medications can interact with existing conditions.**  Imodium might interact with other medications you're taking or worsen existing liver problems. 
-* **Your doctor knows your specific situation.** They can assess your individual needs, consider your medical history, and advise you on the safest course of action.
-**Instead of self-treating, please schedule an appointment with your doctor.** They can:
-* **Diagnose the cause of your fatty liver.**
-* **Determine if Imodium is appropriate for you.**
-* **Recommend safe and effective treatment options.**
-* **Monitor your progress and adjust your treatment plan as needed.**
-Remember, your health is paramount. Don't hesitate to seek professional medical advice. 
+I understand you're concerned about your fatty liver and wondering if Imodium is safe to take.  
+**I must strongly emphasize that I am not a medical professional and cannot give medical advice.**  
+However, I can provide some general information about fatty liver and medications. 
+**Here's what you need to know:**
+* **Fatty liver disease (FLD)** is a condition where fat builds up in the liver. It can be caused by various factors, including obesity, diabetes, and high cholesterol. 
+* **Imodium (loperamide)** is an over-the-counter medication used to treat diarrhea. It works by slowing down the movement of food through your intestines.
+* **Potential interactions:** While Imodium is generally considered safe for most people, it can interact with certain medications and conditions.  It's crucial to discuss any medications you're taking, including over-the-counter drugs, with your doctor or pharmacist, especially if you have a fatty liver. 
+**Why it's important to talk to your doctor:**
+* **Individualized care:** Your doctor can assess your specific situation, including the severity of your fatty liver, any other health conditions you have, and any medications you're currently taking. 
+* **Potential risks:**  Taking Imodium without your doctor's guidance could potentially worsen your fatty liver or interact with other medications. 
+* **Alternative treatments:** Your doctor can recommend the best course of action for managing your fatty liver, which may include lifestyle changes, dietary modifications, and other medications.
+**Remember:**  Always consult with your doctor before taking any new medication, even over-the-counter ones. They are your best resource for personalized medical advice. 
+**Here are some additional resources you may find helpful:**
+* **The American Liver Foundation:** https://liverfoundation.org/
+* **The National Institute of Diabetes and Digestive and Kidney Diseases:** https://www.niddk.nih.gov/ 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1747,19 +1719,20 @@
       <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're seeking information about your medication!  However, I need to be very clear: **I am not a medical professional and cannot give medical advice.** 
-That said, I can offer some general information about Benadryl and Claritin:
-* **Benadryl (diphenhydramine)** is an antihistamine that is often used to relieve allergy symptoms like sneezing, runny nose, and itchy eyes. It can cause drowsiness, which is why it's often used at night.
-* **Claritin (loratadine)** is another antihistamine, but it's a non-drowsy option. It's generally considered safe to take during the day.
-**Here's why you should talk to your doctor about this:**
-* **Individual Reactions:** Everyone reacts to medications differently. What works for one person might not work for another, and could even cause unexpected side effects.
-* **Drug Interactions:**  Taking Claritin with Benadryl could potentially lead to unwanted interactions or side effects. 
-* **Underlying Conditions:** Your doctor can consider any underlying health conditions you may have and advise on the best course of action.
-**Here's what you can do:**
-1. **Schedule an appointment with your doctor or pharmacist.** They can assess your specific situation and provide personalized advice.
-2. **Be honest about your symptoms and concerns.** This will help them make the best recommendations for you.
-3. **Follow your doctor's instructions carefully.** This includes dosage, frequency, and any potential interactions with other medications.
-Remember, your health is paramount. Always consult with a medical professional for personalized advice. 
+It's great that you're thinking about managing your allergies and side effects!  
+Here's the thing about Benadryl and Claritin:
+* **Benadryl (Diphenhydramine)** is a first-generation antihistamine. It's very effective at blocking histamine, which is the chemical your body releases during allergic reactions. However, it's also a potent sedative, which is why you're experiencing drowsiness. 
+* **Claritin (Loratadine)** is a second-generation antihistamine. It's less likely to cause drowsiness than Benadryl. 
+**Taking Claritin during the day is generally safe and effective for managing allergies.**  
+**Here's what you should consider:**
+* **Your individual sensitivity:** Some people are more sensitive to antihistamines than others. If you're prone to drowsiness, Claritin might be a better choice.
+* **Severity of your allergies:** If your allergies are mild, Claritin might be sufficient. If your allergies are severe, you may need to consider other options.
+* **Other medications:** Claritin can interact with certain medications, so it's important to talk to your doctor or pharmacist about any other medications you're taking.
+**Important:**
+* **Always consult your doctor:**  It's crucial to discuss your allergy symptoms and medication options with your doctor. They can help you determine the best course of treatment for your specific needs.
+* **Follow dosage instructions:**  Always take your medication as directed by your doctor or pharmacist. 
+* **Be aware of potential side effects:**  While Claritin is generally well-tolerated, it can cause side effects like dizziness, headache, and dry mouth. 
+Remember, managing allergies is a personal journey. Finding the right medication and dosage that works for you is key. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1808,36 +1781,33 @@
       <c r="G20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be concerned about testicular pain, as it can be a symptom of chlamydia and other conditions.  Here's a breakdown of what you need to know:
-**Testicular Pain and Chlamydia**
-* **Chlamydia is a bacterial infection that can affect the reproductive organs, including the testicles.**  It's often asymptomatic, meaning people can have it without knowing it.  
-* **Pain in the testicles can be a sign of chlamydia.** It can range from mild discomfort to severe pain, and it's often accompanied by other symptoms like:
-    * **Discharge from the penis or testicles**
-    * **Painful urination**
-    * **Swollen testicles**
-    * **Fever**
-    * **Chills**
-* **However, testicular pain can also be caused by other conditions, such as:**
-    * **Epididymitis:** Inflammation of the epididymis, a tube that carries sperm.
-    * **Orchitis:** Inflammation of one or both testicles.
-    * **Testicular torsion:** A twisting of the spermatic cord, which can cut off blood flow to the testicle.
-    * **Testicular cancer:** Although less common, testicular pain can be a symptom of this serious condition.
-**Why It's Important to Seek Medical Attention**
-* **Early diagnosis and treatment of chlamydia are crucial to prevent complications.** Untreated chlamydia can lead to infertility, pelvic inflammatory disease (PID), and other health problems.
-* **A doctor can properly diagnose the cause of testicular pain.** They will perform a physical exam, ask about your symptoms, and may order tests to rule out other conditions.
-**What to Do**
-* **If you experience testicular pain, especially if it's accompanied by other symptoms, see a doctor immediately.** 
-* **Don't self-diagnose or self-treat.** 
-* **Be open and honest with your doctor about your symptoms and sexual history.** This will help them provide the best possible care.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. 
+You're right to be curious about testicular pain and chlamydia. It's a common question, and the answer is **yes, testicular pain can be a symptom of chlamydia**. 
+Here's a breakdown of why:
+* **Chlamydia's Impact:** Chlamydia is a sexually transmitted infection (STI) caused by the bacterium *Chlamydia trachomatis*. It primarily affects the reproductive organs, including the urethra, cervix, and rectum.  
+* **Testicular Involvement:** While chlamydia is most commonly associated with urethritis (inflammation of the urethra), it can also affect the testicles. This is less common but can occur.
+* **Pain Mechanisms:**  The pain associated with testicular chlamydia can be caused by:
+    * **Inflammation:** The infection can cause inflammation in the testicles, leading to pain.
+    * **Swollen Epididymis:** The epididymis, a tube that carries sperm, can become swollen and painful due to the infection.
+    * **Fluid Buildup:** The infection can cause fluid to build up in the scrotum, leading to discomfort.
+* **Other Symptoms:**  Besides testicular pain, chlamydia can also cause:
+    * **Discharge:** A discharge from the penis or testicles.
+    * **Burning Sensation:** A burning sensation during urination.
+    * **Painful Urination:** Difficulty urinating or pain during urination.
+    * **Fever:** A low-grade fever.
+    * **Swollen Lymph Nodes:** Swollen lymph nodes in the groin area.
+**Important Notes:**
+* **Early Detection is Key:**  Chlamydia is often asymptomatic, meaning people can have it without experiencing any symptoms. This is why regular STI testing is crucial, especially for sexually active individuals.
+* **Seek Medical Attention:** If you experience any of the symptoms mentioned above, it's essential to see a doctor for diagnosis and treatment. 
+* **Treatment:** Chlamydia is easily treatable with antibiotics. 
+**Remember:**  It's always best to consult with a healthcare professional for any health concerns. They can provide personalized advice and treatment based on your individual situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1873,29 +1843,24 @@
         <is>
           <t xml:space="preserve">
 Ah, a question about colchicine! A fascinating and effective medication, indeed. 
-**What is Colchicine?**
-Colchicine is a medication derived from the autumn crocus plant (Colchicum autumnale). It's a natural compound with potent anti-inflammatory properties, primarily used to treat acute gout attacks. 
-**How Does it Work?**
-Colchicine works by blocking the production of inflammatory chemicals called cytokines. These chemicals are responsible for the pain, swelling, and redness associated with gout. It also inhibits the movement of white blood cells, which are involved in the inflammatory process.
-**Uses of Colchicine:**
-* **Acute Gout Attacks:** This is its primary use. It can significantly reduce the pain, swelling, and redness associated with gout flares.
-* **Prevention of Gout:**  While not a cure, colchicine can help prevent future gout attacks in individuals with a history of frequent gout episodes.
-* **Other Inflammatory Conditions:**  Colchicine has shown promise in treating other inflammatory conditions like Behçet's disease, familial Mediterranean fever, and certain types of arthritis.
-**Administration:**
-Colchicine is typically taken orally, usually in a dose of 0.5 to 1.2 mg. The dosage and duration of treatment will vary depending on the individual and the severity of the condition.
-**Side Effects:**
-While generally safe, colchicine can cause side effects, including:
-* **Gastrointestinal Issues:** Nausea, vomiting, diarrhea, and abdominal pain are common.
-* **Headache:**  A frequent side effect.
-* **Skin Rash:**  A less common but possible side effect.
-* **Liver Damage:**  Rare but serious, especially with high doses or prolonged use.
-**Important Considerations:**
-* **Consult a Doctor:**  Always consult a doctor before taking colchicine, especially if you have any underlying medical conditions or are taking other medications.
-* **Pregnancy and Breastfeeding:**  Colchicine is not recommended for pregnant or breastfeeding women.
-* **Drug Interactions:**  Colchicine can interact with other medications, so it's crucial to inform your doctor about all medications you are taking.
-**In Conclusion:**
-Colchicine is a valuable tool in managing gout and other inflammatory conditions. It works by reducing inflammation and pain. However, it's essential to use it under the guidance of a healthcare professional and be aware of potential side effects. 
-Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
+Let me tell you, colchicine is a medication with a long history, dating back to the 19th century. It's a natural compound derived from the autumn crocus plant, *Colchicum autumnale*.  
+Here's a breakdown of what you need to know:
+**What it does:**
+* **Anti-inflammatory:**  Colchicine's primary action is to reduce inflammation. It works by blocking the production of certain chemicals called cytokines, which are involved in the inflammatory response.
+* **Pain relief:**  It's particularly effective in relieving pain associated with inflammatory conditions like gout. 
+* **Other uses:**  While primarily known for gout, colchicine is also used to treat:
+    * **Acute gout attacks:**  It can significantly reduce the pain and swelling associated with these attacks.
+    * **Other inflammatory conditions:**  It can be used to treat conditions like Behçet's disease, familial Mediterranean fever, and certain types of arthritis.
+**How it works:**
+Colchicine works by interfering with the movement of certain molecules within cells. This disruption affects the inflammatory process, reducing the production of inflammatory chemicals and thus, the pain and swelling.
+**Important considerations:**
+* **Dosage:**  The dosage of colchicine varies depending on the condition being treated and the individual patient. It's crucial to follow your doctor's instructions carefully.
+* **Side effects:**  While generally safe, colchicine can cause side effects like nausea, vomiting, diarrhea, and abdominal pain. In rare cases, it can also cause liver damage.
+* **Interactions:**  Colchicine can interact with other medications, so it's important to inform your doctor about all the medications you're taking.
+* **Contraindications:**  Colchicine is not suitable for everyone. It's contraindicated in individuals with certain medical conditions, such as liver disease, kidney disease, and severe heart problems.
+**In summary:**
+Colchicine is a powerful anti-inflammatory medication that effectively treats gout and other inflammatory conditions. It works by blocking the production of inflammatory chemicals, reducing pain and swelling. However, it's important to use it under the guidance of a healthcare professional and be aware of potential side effects and interactions.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -1945,31 +1910,34 @@
       <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about UTI treatment!  Clindamycin is an antibiotic, and it's indeed used to treat certain types of infections, but it's **not the first-line choice for UTIs**. 
-Here's a breakdown of why:
-**Clindamycin's Role:**
-* **Effective against certain bacteria:** Clindamycin is effective against bacteria like *Staphylococcus aureus* and *Streptococcus* species, which can cause UTIs.
-* **Not a primary UTI treatment:**  While it can be used, it's not the standard treatment for UTIs. This is because UTIs are primarily caused by bacteria like *Escherichia coli* (E. coli). 
-**Why Clindamycin is Less Common for UTIs:**
-* **Resistance:**  E. coli can develop resistance to clindamycin, making it less effective.
-* **Side effects:** Clindamycin can cause side effects like diarrhea, nausea, and skin reactions.
-* **Other options:**  There are other antibiotics specifically designed for UTIs that are more effective and have fewer side effects.
-**What to Do:**
-* **See a doctor:** If you suspect a UTI, it's crucial to see a doctor for proper diagnosis and treatment. 
-* **Standard treatment:**  Your doctor will likely prescribe a different antibiotic, such as:
-    * **Nitrofurantoin:** This is often the first-line treatment for uncomplicated UTIs.
-    * **Trimethoprim/sulfamethoxazole (TMP/SMX):** This is another common choice.
-    * **Fosfomycin:** This is a single-dose antibiotic that can be effective for UTIs.
-* **Follow instructions:**  Take the prescribed antibiotic exactly as directed by your doctor.
-**Important Notes:**
-* **Self-treating can be dangerous:**  Don't try to self-diagnose or self-treat a UTI. 
-* **Antibiotic resistance:**  Using antibiotics inappropriately can contribute to antibiotic resistance, making infections harder to treat in the future.
-Remember, I'm an AI and cannot provide medical advice. Always consult a healthcare professional for diagnosis and treatment. 
+You're asking a great question about a common concern!  Let's break down how Clindamycin is used for UTIs.
+**Clindamycin: A Powerful Antibiotic**
+Clindamycin is a powerful antibiotic that belongs to a class called lincosamides. It's effective against a wide range of bacteria, including those that cause UTIs. 
+**UTIs: A Common Infection**
+Urinary tract infections (UTIs) are infections that occur in any part of the urinary system, including the kidneys, ureters, bladder, and urethra. They are often caused by bacteria, particularly E. coli.
+**Clindamycin for UTIs: When It's Used**
+Clindamycin is often used to treat UTIs, particularly those caused by bacteria resistant to other antibiotics.  Here's why:
+* **Broad Spectrum:** It's effective against a variety of bacteria, including those that cause UTIs.
+* **Oral and Intravenous:** It can be taken orally or intravenously, depending on the severity of the infection and the patient's condition.
+* **Good for Resistant Infections:**  It's often a good choice when other antibiotics haven't been effective.
+**Important Considerations**
+* **Not Always the First Choice:** While effective, Clindamycin isn't always the first-line treatment for UTIs.  Your doctor will consider factors like the severity of the infection, your medical history, and potential side effects.
+* **Potential Side Effects:** Like all antibiotics, Clindamycin can cause side effects, including:
+    * Diarrhea
+    * Nausea
+    * Vomiting
+    * Stomach pain
+    * Yeast infections
+    * Allergic reactions
+* **Important to Complete the Course:** It's crucial to complete the full course of antibiotics prescribed by your doctor, even if you start feeling better before finishing. This ensures that all bacteria are eliminated and prevents the infection from returning.
+**When to See a Doctor**
+If you suspect you have a UTI, it's important to see a doctor for proper diagnosis and treatment.  They can determine the cause of your symptoms and prescribe the most appropriate medication.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2028,7 +1996,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2069,27 +2037,22 @@
       <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for information about taking Pepto-Bismol or Tylenol with your antibiotics.  While I can provide general information, **I am not a medical professional and cannot give medical advice.**  
+I understand you're looking for information about taking Pepto-Bismol or Tylenol alongside your antibiotic.  While I can provide general information, **I am not a medical professional and cannot give medical advice.**  
 Here's what I can tell you:
 **It's crucial to consult your doctor or pharmacist before taking any over-the-counter medications with your antibiotics.**  
 Here's why:
 * **Drug Interactions:** Antibiotics and over-the-counter medications can interact in unpredictable ways. Some combinations can reduce the effectiveness of the antibiotic or cause harmful side effects.
 * **Individual Needs:** Your doctor knows your specific medical history, allergies, and the type of antibiotic you're taking. They can advise you on the best course of action for your individual situation.
-* **Underlying Conditions:** Certain conditions might make it unsafe to take certain medications with antibiotics.
+* **Underlying Conditions:** Certain conditions might make it unsafe to take certain medications together.
 **General Information:**
 * **Pepto-Bismol (Bismuth subsalicylate):** This medication is used to treat indigestion, diarrhea, and nausea. It can help with some side effects of antibiotics, but it's not a substitute for proper medical care.
-* **Tylenol (Acetaminophen):** This medication is used to reduce fever and relieve pain. It can be used to manage some side effects of antibiotics, but it's important to follow the recommended dosage.
-**Always follow your doctor's instructions and never self-medicate.**  They are your best resource for safe and effective treatment. 
-**Remember:**
-* **Never mix medications without consulting your doctor.**
-* **Be sure to tell your doctor about all medications you are taking, including over-the-counter drugs, vitamins, and supplements.**
-* **If you experience any unusual side effects, contact your doctor immediately.** 
-I hope this information is helpful. Please prioritize your health and consult your doctor for personalized advice. 
+* **Tylenol (Acetaminophen):** This is a pain reliever and fever reducer. It can be used to manage fever and discomfort associated with antibiotics, but it's important to follow the recommended dosage.
+**Always prioritize your health and safety by consulting your doctor or pharmacist before taking any medications.** They can provide personalized advice based on your specific needs and medical history. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2136,19 +2099,26 @@
 I understand you're looking for information about combining NyQuil and Benadryl. While I can provide general information, I am not a medical professional and cannot give medical advice. 
 **It's crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter drugs like NyQuil and Benadryl.**
 Here's what I can tell you generally:
-* **NyQuil** contains acetaminophen (fever reducer), dextromethorphan (cough suppressant), and doxylamine succinate (antihistamine). 
-* **Benadryl** (diphenhydramine) is an antihistamine. 
-* **Combining these medications can have potential interactions and side effects.** 
-**Here are some reasons why you should talk to your doctor or pharmacist:**
-* **Drug interactions:**  NyQuil and Benadryl can interact with each other and other medications you might be taking. 
-* **Side effects:**  Combining these medications could increase the risk of side effects like drowsiness, dizziness, confusion, and even more serious complications.
-* **Underlying conditions:** Your doctor can assess your individual health history and determine if combining these medications is safe for you.
-**Remember:** Your health is paramount. Always seek professional medical advice before taking any medications, even over-the-counter ones. 
+* **NyQuil** contains acetaminophen (fever reducer), dextromethorphan (cough suppressant), and doxylamine succinate (antihistamine).
+* **Benadryl** (diphenhydramine) is an antihistamine.
+**Potential Interactions:**
+* **Drowsiness:** Both NyQuil and Benadryl can cause drowsiness. Combining them could significantly increase the risk of drowsiness and potentially lead to accidents or impaired judgment.
+* **Liver Toxicity:** Acetaminophen is a liver-toxic drug. Taking too much acetaminophen can cause liver damage. 
+* **Other Interactions:** There may be other interactions between the ingredients in NyQuil and Benadryl that your doctor needs to be aware of.
+**Why it's important to talk to your doctor:**
+* **Individual Needs:** Your doctor knows your medical history, allergies, and current medications. They can assess if combining these medications is safe for you.
+* **Dosage:** The correct dosage of each medication is crucial to avoid potential side effects and interactions.
+* **Underlying Conditions:** Certain medical conditions may make it unsafe to combine these medications.
+**Remember:**
+* **Read the labels:** Always read the labels of all medications you take.
+* **Follow instructions:** Take medications as directed by your doctor or pharmacist.
+* **Seek professional advice:** If you have any questions or concerns about your medications, always consult with your doctor or pharmacist.
+Please prioritize your health and safety by seeking professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2191,13 +2161,17 @@
 **It is crucial to consult with your doctor or pharmacist before combining any medications, including over-the-counter options like Dramamine and prescription medications.** 
 Here's why:
 * **Drug interactions:**  Some medications can interact with each other, potentially causing harmful side effects or reducing the effectiveness of one or both drugs. 
-* **Individual factors:** Your specific medical history, allergies, and other medications you're taking can influence whether a combination is safe.
-* **Dosage:** The correct dosage of each medication is essential for safety and effectiveness.
+* **Individual factors:** Your medical history, allergies, and other medications you're taking can influence how your body reacts to a combination.
+* **Dosage:**  The correct dosage of each medication is essential for safety and effectiveness.
 **What your doctor or pharmacist can do:**
-* **Assess your individual situation:** They will consider your medical history, current medications, and any potential risks.
-* **Provide personalized advice:** They can advise you on whether combining the medications is safe and recommend the appropriate dosage.
-* **Monitor for side effects:** They can monitor you for any adverse reactions and adjust the treatment plan if necessary.
+* **Assess your specific situation:** They will consider your medical history, current medications, and any potential risks.
+* **Provide personalized advice:** They can advise you on whether combining the medications is safe and appropriate for you.
+* **Recommend alternative options:** If necessary, they can suggest alternative medications or dosage adjustments.
 **Remember:** Never self-medicate or change your medication regimen without consulting a healthcare professional. 
+**Here are some general points about Dramamine and nausea:**
+* **Dramamine (dimenhydrinate)** is an antihistamine that is commonly used to treat nausea and motion sickness.
+* **Prescription medications** for nausea may have different mechanisms of action and potential side effects. 
+**Please prioritize your health and safety by seeking professional medical advice.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2247,23 +2221,24 @@
 It's great you're asking about this!  It's a common question, and the answer is nuanced.  Here's what I, as a wise doctor, can tell you:
 **The short answer is: It depends.**  
 **Here's why:**
-* **Type 1 Diabetes:** People with type 1 diabetes have their own insulin production compromised.  They need insulin to regulate blood sugar.  Eating sweets can cause blood sugar to spike, leading to complications.  **They should avoid sugary foods and drinks and focus on a balanced diet.**
-* **Type 2 Diabetes:**  People with type 2 diabetes have insulin resistance, meaning their body doesn't use insulin effectively.  While sweets can cause blood sugar to spike, they are not inherently "bad" for everyone with type 2 diabetes.  
-    * **Moderation is key:**  It's about portion control and choosing healthier options.
-    * **Focus on whole foods:**  Fruits, vegetables, lean protein, and whole grains are better choices.
-    * **Blood sugar monitoring:**  Regularly checking blood sugar levels is crucial to manage blood sugar fluctuations.
-    * **Individualized approach:**  A doctor can help create a personalized meal plan based on individual needs and blood sugar control.
-**Important Considerations:**
-* **Type of Sweet:**  The type of sweet matters.  
-    * **Natural sugars:**  Found in fruits, honey, and maple syrup, are generally okay in moderation.
-    * **Added sugars:**  Found in processed foods, sodas, and candies, are the biggest culprits for blood sugar spikes.
-* **Portion Size:**  Even healthy sweets should be consumed in moderation.
-* **Individual Needs:**  Every person with diabetes is different.  What works for one person may not work for another.  
-* **Medication:**  Diabetes medications can affect how the body processes sugar.  It's important to discuss food choices with your doctor.
-**Remember:**
-* **Consult a doctor:**  It's crucial to work with a healthcare professional to create a safe and effective diabetes management plan.
-* **Focus on overall health:**  A healthy diet, regular exercise, and stress management are essential for managing diabetes.
-Let me know if you have any other questions! 
+* **Type 1 Diabetes:** People with type 1 diabetes need to carefully manage their blood sugar levels.  They often need to avoid sugary foods and drinks, as they can cause rapid spikes in blood sugar.  
+* **Type 2 Diabetes:**  People with type 2 diabetes can often eat sweets in moderation, but it's crucial to be mindful of portion sizes and the type of sugar. 
+* **Gestational Diabetes:**  Women who develop gestational diabetes during pregnancy need to be extra careful about their sugar intake.  
+**Here's what you need to consider:**
+* **Type of Sweet:**  
+    * **Natural Sugars:** Fruits, honey, and maple syrup contain natural sugars, but they also come with fiber and nutrients.  These can be part of a healthy diet in moderation.
+    * **Added Sugars:**  Sugary drinks, candies, and processed foods often contain high amounts of added sugar, which can cause blood sugar spikes.  
+* **Portion Size:**  Even healthy foods can raise blood sugar if eaten in large quantities.  
+* **Individual Needs:**  Every person with diabetes is different.  A doctor can help you determine the best diet for your specific needs.
+* **Blood Sugar Monitoring:**  Regular blood sugar monitoring is essential for managing diabetes.  This will help you understand how different foods affect your blood sugar levels.
+**Here are some tips for managing sweets with diabetes:**
+* **Read food labels carefully:** Pay attention to the amount of sugar in each serving.
+* **Choose whole, unprocessed foods:**  Fruits, vegetables, and lean protein are good choices.
+* **Limit sugary drinks:**  Water, unsweetened tea, and sparkling water are healthier alternatives.
+* **Be mindful of portion sizes:**  Even healthy foods can raise blood sugar if eaten in large quantities.
+* **Talk to your doctor or a registered dietitian:** They can help you create a personalized meal plan that meets your needs.
+**Remember:**  Managing diabetes is a lifelong journey.  It's important to work closely with your healthcare team to develop a plan that works for you. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice.  This information is for general knowledge and should not be substituted for professional medical guidance.  Always consult with your doctor or a qualified healthcare professional for personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2314,21 +2289,22 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about taking painkillers and antibiotics together.  **However, I am an AI and cannot give medical advice.** 
-It's crucial to **always consult with your doctor or pharmacist** about medication interactions. They can provide personalized guidance based on your specific situation and the medications you're taking. 
+It's crucial to **consult your doctor or pharmacist** about this. They can assess your specific situation, the medications you're taking, and potential interactions. 
 Here's why it's important to talk to a medical professional:
-* **Drug Interactions:** Painkillers and antibiotics can sometimes interact with each other, potentially reducing the effectiveness of one or causing side effects. 
-* **Individual Needs:** Your doctor knows your medical history, allergies, and other medications you might be taking, which is essential for safe and effective treatment.
-* **Dosage and Timing:** The correct dosage and timing of medications are crucial for their effectiveness and safety. 
+* **Drug Interactions:** Painkillers and antibiotics can sometimes interact, potentially reducing the effectiveness of one or causing side effects. 
+* **Individual Needs:** Your doctor knows your medical history, allergies, and other medications you might be taking, which is crucial for safe medication use.
+* **Dosage and Timing:** The correct dosage and timing of medications are essential for their effectiveness and safety.
 **General Information:**
+* **Always follow your doctor's instructions.** They are the best source of information about your specific medications.
 * **Never mix medications without consulting a healthcare professional.** 
-* **Always read the label and follow the instructions on your medication packaging.**
-* **Keep a list of all your medications and supplements with you at all times.**
-**Remember:** Your health is paramount. Seeking professional medical advice is the safest and most responsible way to manage your medications. 
+* **Be aware of potential side effects.**  
+* **Keep a list of all medications and supplements you take.** This will help your doctor monitor your health.
+Remember, your health is paramount. Seeking professional medical advice is the safest and most responsible way to manage your medications. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2367,31 +2343,25 @@
       <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the connection between sinus infections and neck pain and vein swelling. While not a direct cause-and-effect relationship, there are definitely ways sinus infections can contribute to these symptoms. 
-Here's a breakdown of how it works:
+You're right to be curious about the connection between sinus infections and neck pain and vein distention. While not a direct cause, there's a strong link between the two. Here's a breakdown of why:
 **Sinus Infections and Neck Pain:**
-* **Inflammation:**  Sinus infections cause inflammation in the sinuses, which are air-filled cavities in the skull. This inflammation can spread to nearby tissues, including the muscles and joints in the neck. This inflammation can lead to pain and stiffness in the neck.
-* **Pressure:**  The swelling and pressure from the sinus infection can also put pressure on the nerves in the neck, causing pain and discomfort.
-* **Post-nasal drip:**  The mucus produced during a sinus infection can drip down the back of the throat and into the neck, irritating the tissues and causing pain.
-**Sinus Infections and Neck Vein Dilation:**
-* **Pressure:**  The same pressure and inflammation that cause neck pain can also affect the veins in the neck.  The swelling and pressure can cause the veins to dilate, making them appear larger and more prominent.
-* **Blood flow:**  Sinus infections can also cause temporary changes in blood flow, which can lead to temporary swelling in the veins.
+* **Inflammation:** Sinus infections, also known as sinusitis, cause inflammation in the sinuses, the air-filled cavities in your skull. This inflammation can spread to nearby tissues, including the muscles and joints in your neck.
+* **Pressure:** The swelling and pressure from the sinus infection can put pressure on the surrounding structures, including the nerves and blood vessels in your neck. This pressure can lead to pain and stiffness.
+* **Post-nasal drip:**  The mucus produced during a sinus infection can drip down the back of your throat and into your neck, irritating the tissues and causing pain.
+**Sinus Infections and Neck Vein Distention:**
+* **Inflammation and Swelling:**  The same inflammation and swelling that cause neck pain can also affect the veins in your neck. This can cause them to become engorged, leading to a visible bulge or distention.
+* **Pressure on Veins:**  The pressure from the sinus infection can also put pressure on the veins in your neck, making them more likely to swell.
 **Important Considerations:**
-* **Not always present:**  Not everyone with a sinus infection will experience neck pain or vein dilation. 
-* **Other causes:**  Neck pain and vein dilation can be caused by other factors, such as muscle strain, arthritis, or even thyroid problems. 
-* **Seek medical advice:**  If you are experiencing persistent neck pain or vein swelling, it's important to see a doctor to rule out any underlying medical conditions.
-**What to do:**
-* **Over-the-counter pain relievers:**  Acetaminophen or ibuprofen can help reduce pain and inflammation.
-* **Warm compresses:**  Applying a warm compress to the neck can help relieve pain and stiffness.
-* **Rest:**  Getting enough rest can help your body fight the infection and reduce inflammation.
-* **Hydration:**  Drinking plenty of fluids can help thin the mucus and make it easier to drain.
-* **Nasal saline spray:**  Using a saline spray can help clear the sinuses and reduce pressure.
-**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment. 
+* **Not Always Present:**  Not everyone with a sinus infection will experience neck pain or vein distention. It's a common symptom, but not a universal one.
+* **Other Causes:** Neck pain and vein distention can also be caused by other factors, such as poor posture, muscle strain, or even underlying medical conditions.
+* **Seek Medical Advice:** If you're experiencing persistent neck pain or vein distention, it's important to consult a doctor to rule out any serious underlying conditions.
+**In Summary:**
+While not a direct cause, sinus infections can contribute to neck pain and vein distention through inflammation, pressure, and post-nasal drip. If you're experiencing these symptoms, it's best to consult a doctor to get a proper diagnosis and treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2429,31 +2399,28 @@
       <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're struggling with insomnia and looking for a quick fix. While I can't provide medical advice, I can offer some short-term strategies that might help you get some rest:
-**Immediate Relief:**
-* **Relaxation Techniques:** Deep breathing exercises, progressive muscle relaxation, or guided meditation can calm your mind and body. Apps like Calm or Headspace can be helpful.
-* **Warm Bath or Shower:** The warmth can help relax your muscles and ease tension.
-* **Avoid Caffeine and Alcohol:** These substances can interfere with sleep patterns.
-* **Limit Screen Time:** The blue light emitted from screens can suppress melatonin production, making it harder to fall asleep.
-* **White Noise:** A fan, white noise machine, or calming nature sounds can mask disruptive noises and create a more peaceful environment.
-**Short-Term Lifestyle Changes:**
-* **Regular Sleep Schedule:** Go to bed and wake up at the same time each day, even on weekends, to regulate your body's natural sleep-wake cycle.
-* **Create a Relaxing Bedtime Routine:**  A warm bath, reading, or light stretching can signal your body that it's time to wind down.
-* **Comfortable Sleep Environment:** Make sure your bedroom is dark, quiet, and cool. Invest in a comfortable mattress and pillows.
-* **Avoid Large Meals Before Bed:** Eating a heavy meal close to bedtime can disrupt sleep.
+I understand you're struggling with insomnia and looking for a quick fix. While I can't provide medical advice, I can offer some general tips that might help you get some rest:
+**Short-Term Solutions for Insomnia:**
+* **Relaxation Techniques:**  Deep breathing exercises, progressive muscle relaxation, and meditation can calm your mind and body, making it easier to fall asleep. Apps like Calm or Headspace can guide you through these techniques.
+* **Warm Bath or Shower:**  The warmth can help relax your muscles and signal your body it's time to wind down.
+* **Avoid Caffeine and Alcohol:**  These substances can interfere with your sleep cycle, making it harder to fall asleep and stay asleep.
+* **Limit Screen Time:**  The blue light emitted from electronic devices can suppress melatonin production, a hormone that regulates sleep. Avoid screens for at least an hour before bed.
+* **Create a Sleep Sanctuary:**  Make your bedroom a haven for sleep. Keep it cool, dark, and quiet. Invest in blackout curtains, a white noise machine, or earplugs if needed.
+* **Stick to a Regular Sleep Schedule:**  Even on weekends, try to go to bed and wake up around the same time each day to regulate your body's natural sleep-wake cycle.
+* **Light Exercise:**  Regular physical activity can improve sleep quality, but avoid exercising too close to bedtime.
 **Important Note:**
-These strategies are temporary solutions and may not address the underlying cause of your insomnia. If your insomnia persists or is severe, it's crucial to consult a medical professional. They can help you identify the cause of your insomnia and recommend appropriate treatment options, which may include:
-* **Cognitive Behavioral Therapy for Insomnia (CBT-I):** This therapy helps you identify and change thoughts and behaviors that contribute to insomnia.
-* **Prescription Medications:** In some cases, your doctor may prescribe sleep medications to help you fall asleep and stay asleep.
-Remember, addressing insomnia requires a holistic approach. While these short-term strategies can provide temporary relief, seeking professional help is essential for long-term management and improvement. 
+These are general tips and may not be suitable for everyone. If your insomnia is persistent or severe, it's crucial to consult a medical professional. They can help determine the underlying cause and recommend appropriate treatment options, which may include:
+* **Cognitive Behavioral Therapy for Insomnia (CBT-I):**  This therapy helps you identify and change thoughts and behaviors that contribute to insomnia.
+* **Prescription Medications:**  In some cases, your doctor may prescribe sleep medications to help you fall asleep and stay asleep.
+Remember, addressing insomnia requires a multifaceted approach. While these short-term solutions can provide temporary relief, seeking professional help is essential for long-term management and addressing any underlying medical conditions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2491,33 +2458,34 @@
 **Lifestyle Changes:**
 * **Regular Exercise:**  Physical activity is a powerful stress reliever. Aim for at least 30 minutes of moderate-intensity exercise most days of the week. 
 * **Mindfulness and Meditation:**  These practices help you focus on the present moment, reducing rumination and worry. There are many free guided meditations available online.
-* **Quality Sleep:**  Aim for 7-9 hours of sleep per night. Poor sleep can worsen anxiety symptoms. 
-* **Healthy Diet:**  A balanced diet rich in fruits, vegetables, and whole grains can support overall well-being and mood. Limit processed foods, sugar, and caffeine.
-* **Limit Alcohol and Drugs:**  These substances can worsen anxiety in the long run.
+* **Quality Sleep:**  Aim for 7-9 hours of sleep per night.  A consistent sleep schedule and a relaxing bedtime routine can improve sleep quality.
+* **Healthy Diet:**  Eating a balanced diet rich in fruits, vegetables, and whole grains can support overall well-being and mood. Limit processed foods, sugar, and caffeine.
+* **Limit Alcohol and Drugs:**  These substances can worsen anxiety symptoms in the long run.
 **Natural Supplements:**
-* **Ashwagandha:**  This adaptogenic herb may help reduce stress and anxiety. 
-* **Chamomile:**  Known for its calming effects, chamomile tea can be soothing before bed.
-* **Lavender:**  The scent of lavender has been shown to have calming effects. You can use essential oil in a diffuser or add a few drops to your bath.
-* **Magnesium:**  This mineral plays a role in regulating mood and sleep. 
-* **Omega-3 Fatty Acids:**  Found in fatty fish, flaxseeds, and walnuts, omega-3s may have anti-inflammatory effects that can benefit anxiety.
+* **Ashwagandha:**  This adaptogenic herb may help reduce stress and anxiety by regulating cortisol levels.
+* **Chamomile:**  Known for its calming properties, chamomile tea can promote relaxation and sleep.
+* **Lavender:**  The scent of lavender has been shown to have a calming effect on the nervous system.
+* **Magnesium:**  This mineral plays a role in muscle relaxation and may help reduce anxiety symptoms.
+* **Omega-3 Fatty Acids:**  Found in fatty fish and supplements, omega-3s may have anti-inflammatory effects and support brain health.
 **Other Natural Approaches:**
-* **Spending Time in Nature:**  Being outdoors can have a calming effect.
-* **Connecting with Others:**  Social support is crucial for mental health.
-* **Engaging in Hobbies:**  Doing things you enjoy can provide a sense of accomplishment and relaxation.
-* **Aromatherapy:**  Certain scents, like lavender, chamomile, and bergamot, can have calming effects.
+* **Spending Time in Nature:**  Being outdoors can have a calming effect on the mind and body.
+* **Deep Breathing Exercises:**  Slow, deep breaths can help regulate your heart rate and reduce anxiety.
+* **Aromatherapy:**  Certain essential oils, like lavender, chamomile, and bergamot, can have calming effects.
+* **Yoga and Tai Chi:**  These practices combine movement, breathing, and mindfulness to promote relaxation and reduce stress.
 **Important Notes:**
-* **Consult a Healthcare Professional:**  It's essential to talk to your doctor before starting any new supplements or making significant lifestyle changes, especially if you have any underlying health conditions.
+* **Consult with a Healthcare Professional:**  It's crucial to talk to your doctor before starting any new supplements or making significant lifestyle changes, especially if you have any underlying health conditions.
 * **Individual Responses Vary:**  What works for one person may not work for another. It's important to find what works best for you.
 * **Natural Doesn't Mean Risk-Free:**  While generally safe, some natural remedies can have side effects or interact with medications. 
-Remember, anxiety is a complex condition, and finding the right combination of approaches may take time. Be patient with yourself and seek professional help if needed. 
+* **Anxiety is a Complex Condition:**  Natural approaches can be helpful, but they are not a substitute for professional treatment. If your anxiety is severe or persistent, seek help from a mental health professional.
+Remember, managing anxiety is a journey, and finding what works best for you may take time. Be patient with yourself and explore different options until you find a combination that helps you feel better. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2558,22 +2526,25 @@
 * **Sinusitis is often caused by a viral infection:**  Most cases of sinusitis are caused by a virus, and antibiotics are ineffective against viruses. 
 * **Antibiotic overuse can lead to antibiotic resistance:**  Using antibiotics unnecessarily can contribute to the development of resistant bacteria, making future infections harder to treat.
 * **Underlying conditions:**  Your doctor can assess your overall health and determine if there are any underlying conditions that might be contributing to your sinusitis.
-**What your doctor might recommend:**
-* **Antiviral medications:**  If your sinusitis is caused by a virus, your doctor might prescribe antiviral medications to help shorten the duration of your illness.
-* **Decongestants and nasal corticosteroids:**  These medications can help relieve nasal congestion and inflammation.
-* **Pain relievers:**  Over-the-counter pain relievers like ibuprofen or acetaminophen can help manage pain and fever.
-* **Saline nasal spray:**  This can help clear nasal passages and reduce inflammation.
-* **In some cases, antibiotics may be prescribed:**  If your doctor suspects a bacterial infection, they may prescribe antibiotics. 
-**Remember:**  It's essential to follow your doctor's instructions carefully and complete the full course of antibiotics, even if you start feeling better before finishing the medication. 
-Please schedule an appointment with your doctor or a healthcare professional to discuss your sinusitis and receive the appropriate treatment. 
+**What your doctor will likely do:**
+* **Assess your symptoms:** They will ask about your symptoms, medical history, and any recent exposures.
+* **Perform a physical exam:** This will help them evaluate your nasal passages and sinuses.
+* **Order tests:**  They may order a nasal swab or imaging tests to confirm the cause of your sinusitis.
+* **Prescribe the appropriate treatment:**  If your sinusitis is caused by a bacterial infection, your doctor may prescribe antibiotics. They will also recommend other treatments, such as:
+    * **Nasal corticosteroids:** These reduce inflammation in the nasal passages.
+    * **Decongestants:** These help to relieve nasal congestion.
+    * **Saline nasal sprays:** These help to clear nasal passages.
+    * **Hydration:** Drinking plenty of fluids can help to thin mucus and make it easier to drain.
+**Remember:**  It's important to follow your doctor's instructions carefully and complete the full course of antibiotics, even if you start feeling better before finishing the medication. 
+Please schedule an appointment with your doctor or a healthcare professional to discuss your sinusitis and get the appropriate treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2610,40 +2581,27 @@
       <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  Let's break down the relationship between corticosteroids and clobetasol.
-**Corticosteroids**
-* **What they are:** Corticosteroids are a class of drugs that mimic the effects of cortisol, a hormone naturally produced by the adrenal glands. 
-* **How they work:** They have powerful anti-inflammatory and immunosuppressive properties. This means they can reduce swelling, redness, and pain, and they can suppress the immune system's response.
-* **Uses:** Corticosteroids are used to treat a wide range of conditions, including:
-    * Allergies
-    * Asthma
-    * Inflammatory bowel disease
-    * Arthritis
-    * Skin conditions like eczema and psoriasis
-    * Autoimmune diseases
-    * Certain types of cancer
-**Clobetasol**
-* **What it is:** Clobetasol is a specific type of corticosteroid. It's a **topical** corticosteroid, meaning it's applied directly to the skin.
-* **How it works:** Clobetasol works similarly to other corticosteroids, reducing inflammation and suppressing the immune system.
-* **Uses:** Clobetasol is commonly used to treat:
-    * Severe eczema (atopic dermatitis)
-    * Psoriasis
-    * Contact dermatitis
-    * Other skin conditions
-**Are they the same?**
-* **Yes, in a general sense.**  Clobetasol is a specific type of corticosteroid, and all clobetasol belongs to the broader category of corticosteroids. 
-* **But, there are differences.**  The specific chemical structure and potency of clobetasol can vary slightly from other corticosteroids. 
+That's a great question!  While both corticosteroids and clobetasol are powerful medications used to treat inflammation and skin conditions, they are not the same thing. 
+Here's a breakdown:
+**Corticosteroids** are a broad class of drugs that work by reducing inflammation. They are derived from the adrenal glands and are available in various forms, including:
+* **Oral:** Prednisone, prednisolone
+* **Injectable:** Dexamethasone, methylprednisolone
+* **Topical:** Hydrocortisone, betamethasone, clobetasol
+**Clobetasol** is a specific **topical** corticosteroid. It's a potent anti-inflammatory agent that's often used to treat:
+* **Atopic dermatitis (eczema):**  It helps reduce itching, redness, and inflammation.
+* **Psoriasis:** It can help control the rapid skin cell growth.
+* **Contact dermatitis:** It can help reduce inflammation caused by allergic reactions.
+* **Other skin conditions:** It can be used for various other skin conditions like lichen planus, seborrheic dermatitis, and acne.
+**Key Differences:**
+* **Classification:** Corticosteroids are a broad class, while clobetasol is a specific member of that class.
+* **Form:** Clobetasol is a topical steroid, while others are available orally, intravenously, or intramuscularly.
+* **Potency:** Clobetasol is a potent topical corticosteroid, while other corticosteroids have varying potencies.
 **Important Considerations:**
-* **Prescription:**  Corticosteroids, including clobetasol, are potent medications that require a prescription from a healthcare professional. 
-* **Side effects:**  Like all medications, corticosteroids can have side effects, including:
-    * Skin thinning
-    * Acne
-    * Weight gain
-    * Mood changes
-    * Increased risk of infections
-* **Long-term use:**  Long-term use of corticosteroids can have serious side effects, so it's important to use them only as directed by your doctor.
-**In summary:** Clobetasol is a specific type of corticosteroid, and it's a powerful tool for treating various skin conditions. However, it's important to remember that all corticosteroids have potential side effects and should be used under the guidance of a healthcare professional. 
-Let me know if you have any other questions! 
+* **Side Effects:** All corticosteroids, including clobetasol, can have side effects like skin thinning, stretch marks, and increased risk of infections.
+* **Prescription:** Clobetasol is a prescription medication and should only be used under the guidance of a healthcare professional.
+* **Individualized Treatment:** The choice of corticosteroid and its dosage depends on the specific condition being treated and the individual patient's needs.
+**In summary:**
+While clobetasol is a specific type of corticosteroid, it's important to remember that corticosteroids are a broad class of drugs with varying potencies and uses. Always consult with a healthcare professional for proper diagnosis and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2717,10 +2675,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2760,27 +2718,26 @@
       <c r="G35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great you're asking about potential connections between symptoms. While I can't provide medical advice, I can offer information based on my knowledge. 
-**Esophagitis and Neck Stiffness**
-* **Esophagitis:** This is inflammation of the esophagus, the tube that carries food from your mouth to your stomach. It can be caused by various factors, including acid reflux, certain medications, and infections. 
-* **Muscle Stiffness in the Neck:** This can be caused by a variety of things, including:
-    * **Cervical spondylosis:** Wear and tear on the joints in the neck.
-    * **Muscle strain:** From overuse, injury, or poor posture.
-    * **Cervical radiculopathy:** Compression of a nerve in the neck.
-    * **Other neurological conditions:** Such as multiple sclerosis or a stroke.
-**Possible Connections**
-While esophagitis and muscle stiffness in the neck are not directly linked, there are some potential connections to consider:
-* **Muscle Tension:** Esophagitis can cause discomfort and pain, which could lead to muscle tension in the neck and shoulders. This is similar to how stress or anxiety can cause muscle tension.
-* **Referred Pain:**  Sometimes, pain from one area can be felt in another area.  If the pain from esophagitis is severe, it could potentially radiate to the neck, causing muscle stiffness.
-* **Indirect Effects:**  Certain medications used to treat esophagitis can have side effects that might contribute to muscle stiffness.
-**Important Considerations**
-* **Individual Variation:**  The connection between esophagitis and neck stiffness is not universal.  
-* **Other Causes:** Neck stiffness can have many causes, and it's crucial to rule out other conditions.
-* **Professional Diagnosis:**  If you're experiencing neck stiffness and swallowing difficulties, it's essential to consult a doctor. They can perform a physical exam, order tests, and provide a proper diagnosis.
-**What to Do**
-* **See a Doctor:** If you're experiencing both esophagitis and neck stiffness, it's important to see a doctor. They can help determine the cause of your symptoms and recommend the appropriate treatment.
-* **Keep a Symptom Diary:**  Note down when your symptoms occur, what you ate or drank, and any other relevant information. This can help your doctor identify potential triggers.
-Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. 
+It's great you're asking about potential connections between esophagitis and neck muscle stiffness.  While they are not directly linked, there are some ways they could be related, and it's important to understand the nuances.
+**Esophagitis** is inflammation of the esophagus, the tube that carries food from your mouth to your stomach.  It can be caused by various factors, including:
+* **Gastroesophageal reflux disease (GERD):**  Stomach acid backing up into the esophagus.
+* **Medications:** Certain drugs can irritate the esophagus.
+* **Infections:** Viral or bacterial infections can cause inflammation.
+* **Allergies:** Food allergies or sensitivities can trigger esophagitis.
+**Neck muscle stiffness** can be caused by a variety of factors, including:
+* **Muscle strain or injury:**  Overuse, poor posture, or sudden movements can cause muscle stiffness.
+* **Arthritis:**  Inflammation of the joints can cause stiffness.
+* **Cervical radiculopathy (pinched nerve):**  Pressure on a nerve in the neck can cause pain and stiffness.
+* **Other neurological conditions:**  Multiple sclerosis, stroke, or other neurological conditions can cause neck stiffness.
+**Possible Connections:**
+* **Indirect Relationship:**  Esophagitis can cause discomfort and pain, which might be mistaken for muscle stiffness in the neck.  The pain could radiate from the esophagus to the neck, especially if the inflammation is severe.
+* **Referred Pain:**  The esophagus and neck muscles are connected through the vagus nerve.  Inflammation in the esophagus could potentially trigger pain signals that are perceived as neck stiffness.
+* **Psychological Factors:**  Anxiety or stress can sometimes manifest as muscle tension, including in the neck.  If someone is experiencing esophagitis, they might be more prone to anxiety or stress, which could contribute to neck stiffness.
+**Important Considerations:**
+* **Diagnosis:**  It's crucial to see a doctor for a proper diagnosis.  They can perform a physical exam, review your medical history, and order tests (like an endoscopy) to determine the cause of your symptoms.
+* **Treatment:**  Treatment for esophagitis depends on the underlying cause.  It may involve lifestyle changes, medications, or surgery.  Neck muscle stiffness can be treated with rest, ice, heat, and physical therapy.
+* **Self-Diagnosis:**  Do not self-diagnose.  It's important to seek professional medical advice for any health concerns.
+**In summary:** While esophagitis and neck muscle stiffness are not directly linked, there are potential indirect connections.  It's essential to consult a doctor for a proper diagnosis and treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -2788,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2823,29 +2780,30 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about Sertraline and premature ejaculation.  
-It's important to preface this by saying: I am an AI and cannot provide medical advice. The information below is for general knowledge purposes only and should not be substituted for professional medical guidance. 
+It's important to preface this by saying: I am an AI and cannot provide medical advice.  The information below is for general knowledge purposes only and should not be substituted for professional medical guidance. 
 **Sertraline and Premature Ejaculation**
-Sertraline, commonly known by the brand name Zoloft, is an antidepressant medication that belongs to a class of drugs called selective serotonin reuptake inhibitors (SSRIs). While it's primarily used to treat depression and anxiety, some research suggests it may also be helpful for managing premature ejaculation (PE).
-**Here's what we know:**
-* **Limited Research:**  There isn't a large body of research specifically focusing on the effectiveness of Sertraline for PE. Most studies have been small and focused on other conditions.
-* **Possible Mechanism:** Sertraline works by increasing serotonin levels in the brain. Serotonin plays a role in regulating sexual function and arousal. Some researchers believe that by increasing serotonin, Sertraline might help delay ejaculation.
-* **Potential Benefits:** Some anecdotal evidence and small studies suggest that Sertraline may be effective in reducing the frequency and severity of PE. However, these findings are not conclusive.
-* **Individual Variability:**  It's important to remember that everyone responds differently to medications. What works for one person may not work for another. 
-* **Side Effects:** Sertraline can have side effects, including nausea, dizziness, and sexual side effects. 
-**What to Do:**
-* **Consult a Doctor:** If you're experiencing premature ejaculation, the best course of action is to consult a healthcare professional. They can assess your individual situation, discuss potential treatment options, and determine if Sertraline is appropriate for you.
-* **Discuss Other Options:** There are other medications and therapies available for PE, including:
-    * **Anti-androgens:** These medications can help reduce testosterone levels, which may be contributing to PE.
-    * **Cognitive Behavioral Therapy (CBT):** This type of therapy can help you understand and manage the psychological aspects of PE.
-    * **Kegel Exercises:** These exercises can help strengthen pelvic floor muscles, which may improve control over ejaculation.
-    * **Other Medications:** There are other medications specifically designed for PE, such as finasteride and duloxetine.
-**Remember:** It's crucial to discuss any potential treatment options with your doctor to ensure they are safe and appropriate for you. 
-Please prioritize your health and seek professional medical advice for any concerns you have about premature ejaculation or any other medical condition. 
+Sertraline is an antidepressant medication, primarily used to treat depression and anxiety. It belongs to a class of drugs called selective serotonin reuptake inhibitors (SSRIs).  
+**Limited Research and Uncertainties**
+While some studies have investigated the potential of SSRIs like Sertraline for premature ejaculation, the evidence is not conclusive.  Here's what we know:
+* **Limited Clinical Trials:**  There haven't been large-scale, well-designed clinical trials specifically focusing on Sertraline's effectiveness for premature ejaculation. 
+* **Possible Mechanisms:**  Sertraline's mechanism of action in treating depression and anxiety may indirectly affect sexual function. It's thought that it could potentially:
+    * **Increase serotonin levels:** Serotonin plays a role in regulating sexual arousal and response.
+    * **Improve mood and reduce anxiety:**  These factors can contribute to better sexual experiences.
+* **Individual Variability:**  The effectiveness of Sertraline for premature ejaculation can vary significantly from person to person. 
+* **Side Effects:**  Sertraline can have side effects, including nausea, dizziness, and sexual side effects. 
+**Important Considerations:**
+* **Consult a Medical Professional:**  If you're experiencing premature ejaculation, it's crucial to consult a qualified healthcare professional. They can:
+    * **Properly diagnose the issue:**  Premature ejaculation can have various underlying causes.
+    * **Recommend appropriate treatment:**  This may include therapy, behavioral techniques, or medication.
+    * **Monitor your progress:**  They can adjust treatment as needed.
+* **Don't Self-Medicate:**  Never start or stop taking any medication without consulting your doctor. 
+* **Be Realistic:**  While some individuals may find relief with Sertraline, it's not a guaranteed solution for everyone.
+**Remember:**  Your doctor is your best resource for information and guidance regarding your health. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2886,33 +2844,34 @@
           <t xml:space="preserve">
 You're right to be curious about the connection between depression and memory loss. It's a complex issue, and the answer isn't always straightforward. 
 Here's what we know:
-**1. Depression and Memory:**
-* **Direct Link?**  There's no simple, direct causal link between depression and memory loss. However, depression can significantly impact cognitive function, including memory. 
-* **Indirect Link:** Depression can create a cascade of problems that indirectly affect memory. For example:
-    * **Stress and Anxiety:** Depression is often accompanied by chronic stress and anxiety, which can impair memory consolidation and retrieval.
-    * **Hormonal Changes:** Depression can disrupt the balance of hormones like cortisol and estrogen, which are crucial for brain health and memory.
-    * **Sleep Disturbances:** Depression can lead to insomnia or other sleep problems, which are known to negatively impact memory.
-    * **Lifestyle Factors:** Depression can lead to unhealthy habits like poor diet, lack of exercise, and social isolation, all of which can contribute to cognitive decline.
-**2. Types of Memory Affected:**
-* **Working Memory:** This is the ability to hold information in mind temporarily for immediate use. Depression can impair working memory, making it difficult to focus, remember instructions, or follow conversations.
-* **Long-Term Memory:** This is the ability to store information for long periods. Depression can affect long-term memory, making it harder to recall past events, learn new information, or retrieve memories.
-* **Episodic Memory:** This is the memory of specific events and experiences. Depression can make it difficult to recall personal experiences and details of past events.
-**3. Specific Conditions:**
-* **Major Depressive Disorder (MDD):**  Studies have shown that individuals with MDD are more likely to experience memory problems, including difficulties with working memory, long-term memory, and episodic memory.
-* **Post-Traumatic Stress Disorder (PTSD):**  Individuals with PTSD often experience memory problems, including flashbacks and intrusive memories. Depression is a common comorbidity with PTSD.
-* **Neurodegenerative Diseases:**  Depression can be a risk factor for neurodegenerative diseases like Alzheimer's disease. While not a direct cause, depression can exacerbate cognitive decline.
-**4. Treatment:**
-* **Therapy:** Cognitive behavioral therapy (CBT) and other forms of therapy can help individuals with depression manage their symptoms and improve their cognitive function.
+**The Link Between Depression and Memory:**
+* **Direct Impact:** Depression can directly affect the brain's hippocampus, a crucial area for memory formation and retrieval.  This can lead to difficulties with:
+    * **Short-term memory:**  Struggling to remember recent events or conversations.
+    * **Long-term memory:**  Having trouble recalling past experiences or learning new information.
+    * **Spatial memory:**  Finding it hard to navigate familiar places or remember directions.
+* **Indirect Impact:** Depression can also impact memory indirectly through:
+    * **Stress and anxiety:**  These can interfere with cognitive function, including memory.
+    * **Sleep disturbances:**  Depression often causes sleep problems, which can impair memory consolidation.
+    * **Lifestyle changes:**  Depression can lead to unhealthy habits like poor diet and lack of exercise, both of which can affect brain health and memory.
+* **Medication Side Effects:** Some antidepressants can have side effects that impact memory, such as drowsiness or confusion.
+**The Importance of Diagnosis:**
+It's crucial to remember that memory problems can be caused by many things, not just depression.  If you're experiencing memory loss, it's important to:
+* **Consult a doctor:**  They can help determine the underlying cause and recommend appropriate treatment.
+* **Rule out other conditions:**  Conditions like thyroid disorders, vitamin deficiencies, and certain medications can also cause memory problems.
+**Treatment Options:**
+* **Therapy:** Cognitive behavioral therapy (CBT) can help manage depression and improve memory function.
 * **Medication:** Antidepressants can help alleviate depression symptoms and improve cognitive function.
-* **Lifestyle Changes:**  Regular exercise, a healthy diet, and adequate sleep can all contribute to better cognitive health.
-**Important Note:**
-It's crucial to remember that memory problems can be caused by many factors, not just depression. If you're experiencing memory loss, it's essential to consult a doctor to rule out any underlying medical conditions. 
-Let me know if you have any other questions. 
+* **Lifestyle changes:**  Regular exercise, a healthy diet, and adequate sleep can all benefit brain health and memory.
+**Important Considerations:**
+* **Not everyone with depression experiences memory problems.**  The severity and type of memory issues can vary widely.
+* **Early diagnosis and treatment are crucial.**  Addressing depression early can help prevent or minimize cognitive decline.
+* **There is hope.**  With proper treatment and lifestyle changes, many people with depression can experience significant improvements in their memory and overall cognitive function.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you are concerned about your memory or mental health, please consult a qualified healthcare professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -2954,30 +2913,37 @@
       <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're being proactive about your health!  As a wise doctor, I can tell you that getting test results before starting treatment for either chlamydia or gonorrhea is **absolutely crucial**. Here's why:
-**Why Test Results Matter:**
-* **Accurate Diagnosis:**  Both chlamydia and gonorrhea are sexually transmitted infections (STIs) that can be easily misdiagnosed.  A test confirms the presence of the infection, ensuring you receive the right treatment.
-* **Treatment Effectiveness:**  Untreated STIs can lead to serious complications, including infertility, pelvic inflammatory disease (PID), and even increased risk of HIV.  Knowing the specific infection allows for the most effective treatment.
-* **Preventing Spread:**  Knowing your status helps you inform your sexual partners so they can get tested and treated, preventing further spread of the infection.
-* **Individualized Treatment:**  The type of treatment for chlamydia and gonorrhea can vary depending on the individual's symptoms and the severity of the infection.  Testing helps determine the best course of action.
-**What Tests Are Used:**
-* **Urine Test:**  This is the most common test for chlamydia and gonorrhea. It's quick, easy, and non-invasive.
-* **Swab Test:**  This involves collecting a sample from the cervix or urethra. It's used for chlamydia and gonorrhea, and sometimes for other STIs.
-* **Blood Test:**  This test can be used to detect antibodies to chlamydia and gonorrhea, but it's not as common as urine or swab tests.
+I understand your concern about getting test results before starting treatment for either Chlamydia or Gonorrhea.  It's great that you're being proactive about your health! 
+**Here's the breakdown:**
+**Why Tests Are Important:**
+* **Accurate Diagnosis:**  Both Chlamydia and Gonorrhea are sexually transmitted infections (STIs) that require specific testing to confirm the diagnosis.  
+* **Appropriate Treatment:**  The treatment for these infections is different depending on the specific bacteria causing the infection.  
+* **Preventing Complications:** Untreated STIs can lead to serious health complications, including pelvic inflammatory disease (PID) in women, infertility, and increased risk of HIV.
+**What Happens When You Have a Test:**
+* **Sample Collection:** A healthcare provider will collect a sample, usually a urine sample or a swab from the cervix or urethra.
+* **Laboratory Testing:** The sample is sent to a lab for testing. 
+* **Results:** The lab will analyze the sample and provide you with the results. 
+**Treatment Options:**
+* **Chlamydia:**  Chlamydia is typically treated with a single dose of antibiotics.
+* **Gonorrhea:** Gonorrhea is also treated with a single dose of antibiotics.
+**Important Considerations:**
+* **Early Detection:**  The sooner you get tested and treated, the better. 
+* **Partner Notification:**  It's crucial to inform your sexual partners so they can also get tested and treated. 
+* **Follow-Up:**  Your doctor will likely recommend a follow-up appointment to ensure the infection is cleared and to discuss any potential complications.
 **What to Do:**
-1. **Talk to Your Doctor:**  Schedule an appointment with your doctor or a healthcare provider. They can order the appropriate tests and discuss your treatment options.
-2. **Be Open and Honest:**  Be open and honest with your doctor about your sexual history and any symptoms you're experiencing.
-3. **Follow Instructions:**  Follow your doctor's instructions carefully regarding treatment and follow-up appointments.
-**Remember:**  Early detection and treatment are key to preventing complications and protecting your health. Don't hesitate to seek medical advice if you have any concerns. 
+1. **Schedule an Appointment:**  Make an appointment with your doctor or a sexual health clinic. 
+2. **Be Open and Honest:**  Be open and honest with your healthcare provider about your sexual history and any symptoms you may be experiencing.
+3. **Ask Questions:**  Don't hesitate to ask your doctor any questions you have about testing, treatment, or potential complications.
+**Remember:**  Getting tested and treated for STIs is essential for your health and the health of your partners. 
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3017,28 +2983,31 @@
       <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As a wise doctor, I can tell you that bananas can be helpful for diarrhea, but it's not a guaranteed cure and there are some important things to consider. 
-Here's what we know:
-**Why Bananas Might Help:**
-* **Electrolytes:** Bananas are rich in potassium, which is lost through diarrhea. Replenishing electrolytes can help restore balance and prevent dehydration.
+Ah, a question about a common ailment!  Bananas can indeed offer some relief from diarrhea, but it's important to understand the nuances. 
+Here's what I know:
+**The Good:**
+* **Electrolytes:** Bananas are rich in potassium, an electrolyte that can be lost through diarrhea. Replenishing these electrolytes can help restore balance and prevent dehydration, which is a serious concern with diarrhea.
 * **Fiber:** Bananas contain fiber, which can help regulate bowel movements and soften stool, making it easier to pass.
-* **Easy to Digest:** Bananas are generally easy to digest, even when someone is experiencing diarrhea. This can be helpful for those who are feeling nauseous or have a sensitive stomach.
-**Important Considerations:**
-* **Not a Cure:** Bananas are not a cure for diarrhea. They can help manage symptoms, but they won't address the underlying cause. 
-* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they have a sensitive stomach. 
-* **Underlying Conditions:** If you have chronic diarrhea or suspect a more serious underlying condition, it's crucial to consult a doctor. 
-* **Other Foods:**  Other foods like rice, toast, and clear broth can also be helpful for diarrhea. 
-**When to Seek Medical Advice:**
-* **Severe Diarrhea:** If your diarrhea is severe, bloody, or accompanied by fever, abdominal pain, or dehydration, seek medical attention immediately.
-* **Persistent Diarrhea:** If your diarrhea lasts for more than a few days, it's important to see a doctor to rule out any underlying conditions.
-* **Underlying Conditions:** If you have a history of digestive disorders, such as Crohn's disease or irritable bowel syndrome, it's important to discuss your diarrhea with your doctor.
+* **Easy to Digest:**  Bananas are generally easy to digest, even when someone is experiencing digestive upset. 
+**The Not-So-Good:**
+* **Sugar Content:** While bananas are a good source of potassium, they are also high in sugar. This can be problematic for people with diarrhea, as it can worsen dehydration and potentially lead to blood sugar spikes.
+* **Individual Reactions:** Some people may experience digestive discomfort from bananas, especially if they are sensitive to fructose. 
+* **Not a Cure:**  Bananas are not a cure for diarrhea. They can help manage symptoms, but it's crucial to address the underlying cause of the diarrhea.
+**What to Consider:**
+* **Severity of Diarrhea:** For mild diarrhea, a banana can be a helpful snack. For severe diarrhea, it's essential to consult a doctor.
+* **Underlying Conditions:** If you have any underlying medical conditions, such as diabetes or kidney problems, talk to your doctor before consuming bananas.
+* **Other Foods:**  Focus on a balanced diet with plenty of fluids.  Other foods that can help with diarrhea include:
+    * **BRAT diet:** Bananas, rice, applesauce, and toast are bland and easy to digest.
+    * **Coconut water:**  Provides electrolytes and is easily absorbed.
+    * **Oral rehydration solutions (ORS):**  These are specifically designed to replenish electrolytes and fluids lost through diarrhea.
 **In Conclusion:**
-Bananas can be a helpful addition to your diet when you have diarrhea, but they are not a cure. It's important to stay hydrated, eat bland foods, and seek medical advice if your symptoms are severe or persistent. 
+Bananas can be a helpful addition to your diet when dealing with diarrhea, but they are not a cure.  It's important to address the underlying cause of the diarrhea and to stay hydrated. If your diarrhea is severe or persistent, please consult a doctor. 
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3095,25 +3064,29 @@
     * **Too loose:**  This can lead to bunching and rubbing, causing discomfort and potential skin irritation.
 * **Hygiene:**  Cheap socks may not be made with high-quality materials that are easy to clean and maintain, leading to:
     * **Bacterial growth:**  This can cause odor and skin irritation.
+    * **Fungal growth:**  Similar to athlete's foot, but can also lead to other skin infections.
 **The Potential Benefits:**
 * **Affordability:**  Cheap socks are a budget-friendly option, making them accessible to many.
 * **Availability:**  They are readily available in most stores.
+* **Variety:**  You can find a wide range of styles and colors to suit your needs.
 **The Verdict:**
-While cheap socks can pose some risks, they are not inherently bad.  The key is to choose wisely:
-* **Look for breathable materials:**  Natural fibers like cotton or wool are generally better for breathability.
-* **Check the fit:**  Ensure they are not too tight or too loose.
-* **Consider the brand:**  Some brands are known for their quality and comfort.
-* **Wash them regularly:**  This helps prevent bacterial growth and odor.
-**Remember:**  If you experience persistent skin irritation, foot problems, or other discomfort, consult a doctor or podiatrist. They can help diagnose the cause and recommend appropriate treatment. 
-Let me know if you have any other questions! 
+While cheap socks can be a convenient and affordable option, they do come with potential risks.  
+**Here's what I recommend:**
+* **Choose breathable materials:** Look for socks made from natural fibers like cotton, wool, or bamboo.
+* **Opt for a good fit:**  Socks should be snug but not too tight.
+* **Wash them regularly:**  This helps prevent bacterial and fungal growth.
+* **Consider the activity:**  Choose socks appropriate for your activity level. For example, athletic socks are designed for moisture-wicking and support.
+* **Listen to your body:**  If you experience any discomfort or irritation, switch to a different type of sock.
+**Remember:**  The best socks are the ones that fit well, feel comfortable, and keep your feet healthy.  Don't be afraid to experiment and find what works best for you. 
+**Disclaimer:** I am an AI and cannot provide medical advice. If you have any concerns about your foot health, please consult a medical professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3159,38 +3132,39 @@
 As a wise doctor, I can tell you that while fissures and hemorrhoids can sometimes heal on their own, it's not a guaranteed outcome and often requires careful management. 
 Here's a breakdown of the situation:
 **Fissures:**
-* **Healing Potential:**  Fissures, those small tears in the anal lining, can heal with proper care. 
+* **Healing Potential:**  Fissures, those small tears in the lining of the anus, can heal with proper care. 
 * **Factors Affecting Healing:**  Healing time depends on the severity of the fissure, the individual's overall health, and their adherence to treatment. 
-* **Treatment:**  While some fissures may heal on their own, most benefit from conservative measures like:
-    * **Dietary Changes:**  Increasing fiber intake, drinking plenty of water, and avoiding straining during bowel movements.
-    * **Over-the-Counter Remedies:**  Creams and ointments containing hydrocortisone or lidocaine can provide temporary relief.
-    * **Lifestyle Modifications:**  Avoiding tight clothing, maintaining a healthy weight, and engaging in regular physical activity.
-    * **Prescription Medications:**  In some cases, your doctor may prescribe stronger medications like topical steroids or antibiotics.
+* **Treatment:**  Most fissures heal with conservative measures like:
+    * **Dietary changes:**  Increasing fiber intake, drinking plenty of water, and avoiding straining during bowel movements.
+    * **Over-the-counter medications:**  Topical creams or ointments containing hydrocortisone or lidocaine can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
+    * **Lifestyle changes:**  Avoiding tight clothing, maintaining a healthy weight, and engaging in regular physical activity can help.
+* **When to See a Doctor:**  If your fissure doesn't improve within a few weeks, or if you experience severe pain, bleeding, or signs of infection, seek medical attention.
 **Hemorrhoids:**
-* **Healing Potential:**  Hemorrhoids, those swollen veins in the rectum and anus, are not typically self-healing. 
-* **Factors Affecting Healing:**  Hemorrhoids can be caused by various factors, including straining during bowel movements, pregnancy, and chronic constipation.  
-* **Treatment:**  Hemorrhoids often require medical attention. Treatment options include:
-    * **Lifestyle Changes:**  Dietary modifications, increased fiber intake, and regular exercise.
-    * **Over-the-Counter Remedies:**  Creams and ointments containing witch hazel or hydrocortisone can provide temporary relief.
-    * **Prescription Medications:**  Your doctor may prescribe stronger medications like topical steroids or antibiotics.
-    * **Procedures:**  In some cases, procedures like rubber band ligation or sclerotherapy may be necessary to reduce the size of hemorrhoids.
-**Important Considerations:**
-* **Severity:**  The severity of the fissure or hemorrhoids will influence the healing process. 
-* **Underlying Conditions:**  Underlying conditions like diabetes, inflammatory bowel disease, or vascular disease can affect healing.
-* **Complications:**  Untreated fissures and hemorrhoids can lead to complications like bleeding, infection, and chronic pain.
-**When to See a Doctor:**
-* **Severe Pain:**  If you experience severe pain, bleeding, or discomfort, seek medical attention immediately.
-* **Persistent Symptoms:**  If your symptoms don't improve with home remedies, consult your doctor.
-* **Complications:**  If you develop any complications, such as fever, swelling, or pus, seek medical attention promptly.
-**Remember:**  This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for diagnosis and treatment of any medical condition. 
+* **Healing Potential:**  Hemorrhoids, those swollen veins in the rectum and anus, can sometimes heal with conservative measures, but they often recur.
+* **Factors Affecting Healing:**  Similar to fissures, the healing potential depends on the severity of the hemorrhoids, individual health, and treatment adherence.
+* **Treatment:**  Hemorrhoids can be managed with:
+    * **Lifestyle changes:**  Dietary modifications, increased fiber intake, and regular exercise can help.
+    * **Over-the-counter medications:**  Topical creams or ointments containing witch hazel or hydrocortisone can provide temporary relief.
+    * **Sitz baths:**  Soaking the affected area in warm water can soothe the irritation.
+    * **Hemorrhoid creams:**  These creams can help reduce inflammation and pain.
+    * **Rubber band ligation:**  A procedure where a rubber band is placed around the base of the hemorrhoid to cut off blood supply.
+    * **Sclerotherapy:**  A procedure where a solution is injected into the hemorrhoid to shrink it.
+    * **Hemorrhoidectomy:**  Surgical removal of the hemorrhoids.
+* **When to See a Doctor:**  If your hemorrhoids are causing significant pain, bleeding, or interfere with your daily life, consult a doctor.
+**Important Notes:**
+* **Self-treatment can be risky:**  While some home remedies can provide temporary relief, it's crucial to consult a doctor for proper diagnosis and treatment.
+* **Underlying conditions:**  Hemorrhoids and fissures can sometimes be a symptom of underlying medical conditions, such as constipation, pregnancy, or chronic diarrhea. 
+* **Prevention:**  Maintaining a healthy lifestyle, including a balanced diet, regular exercise, and adequate fiber intake, can help prevent both fissures and hemorrhoids.
+Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3231,31 +3205,32 @@
           <t xml:space="preserve">
 That's a great question!  It's important to understand that migraines are complex and can manifest in many ways. 
 **Here's the breakdown:**
-* **Not all migraines involve headaches:** While a throbbing headache is a classic symptom, migraines can also present with other symptoms like:
-    * **Nausea and vomiting:** This is often a prominent feature, even before the headache starts.
-    * **Sensitivity to light and sound:**  This can be intense and debilitating.
-    * **Aura:**  A visual disturbance like flashing lights, blind spots, or zigzag patterns. This can occur before the headache.
-    * **Fatigue:**  Feeling unusually tired and drained.
-    * **Dizziness:**  Feeling lightheaded or unsteady.
-    * **Mood changes:**  Feeling irritable, anxious, or depressed.
-* **Migraines are more than just a headache:**  They are a neurological disorder characterized by intense, throbbing pain, often on one side of the head.  However, the pain is not always the primary symptom.
-**Why you might not have a headache right now:**
-* **Migraines can be unpredictable:**  They can come and go without warning, and the severity and duration can vary greatly from person to person.
-* **Migraines can be triggered by various factors:**  Stress, lack of sleep, certain foods, hormonal changes, and environmental factors can all play a role.
-* **You may be experiencing a different type of headache:**  There are many other types of headaches, some of which can mimic migraines.
-**What to do:**
-* **Keep a headache diary:**  Track your headaches, including their frequency, severity, duration, and any associated symptoms. This can help you identify potential triggers.
-* **Consult a doctor:**  If you experience frequent or severe headaches, it's important to see a doctor to rule out other conditions and get a proper diagnosis. 
-* **Don't self-diagnose:**  Migraines can be tricky, and it's important to get a professional opinion.
-Remember, I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with a doctor for any health concerns. 
+* **Not all migraines involve headaches:** While many people experience headaches as a hallmark symptom of migraines, it's not a universal rule. Some people experience migraines without any headache at all. 
+* **Migraines are more than just pain:** Migraines are a neurological disorder characterized by intense, throbbing pain, often on one side of the head. However, they can also involve a range of other symptoms, including:
+    * Nausea and vomiting
+    * Sensitivity to light and sound
+    * Dizziness
+    * Aura (visual disturbances like flashing lights or blind spots)
+    * Fatigue
+    * Mood changes
+* **Triggers vary:** Migraines are often triggered by various factors, including stress, hormonal changes, certain foods, lack of sleep, and environmental factors. 
+* **Individual experiences:**  The experience of migraines can vary greatly from person to person. Some people experience severe, debilitating migraines, while others have milder symptoms.
+**So, can you have a migraine without a headache?**
+Yes, absolutely.  It's possible to experience other symptoms like nausea, sensitivity to light, or aura, even without a headache. 
+**What should you do?**
+If you're experiencing any of the symptoms associated with migraines, it's important to consult a doctor. They can help you:
+* **Diagnose the cause:**  A doctor can help determine if your symptoms are due to migraines or another condition.
+* **Develop a treatment plan:**  There are various treatments available for migraines, including medication, lifestyle changes, and alternative therapies.
+* **Manage your symptoms:**  With proper management, you can reduce the frequency and severity of your migraines.
+**Remember:**  It's crucial to seek professional medical advice for any health concerns. Don't rely solely on online information for diagnosis or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3295,35 +3270,36 @@
       <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're looking for ways to manage migraines.  As a helpful and knowledgeable AI, I can offer some general advice, but remember, I'm not a medical professional. **It's crucial to consult with a doctor for personalized advice and treatment.** 
-That said, here are some common strategies people find helpful in preventing migraines:
-**Lifestyle Modifications:**
-* **Identify and Avoid Triggers:**  Keep a migraine diary to track potential triggers like stress, certain foods (chocolate, aged cheese, processed meats), alcohol, caffeine, weather changes, hormonal fluctuations, and sleep disturbances. Once you identify your triggers, try to avoid them.
-* **Regular Sleep Schedule:** Aim for 7-8 hours of quality sleep each night. A consistent sleep schedule can help regulate your body's natural rhythms.
-* **Stress Management:**  Practice relaxation techniques like yoga, meditation, deep breathing exercises, or spending time in nature.
-* **Regular Exercise:**  Moderate exercise can be beneficial, but avoid strenuous activity right before a migraine.
-* **Hydration:**  Drink plenty of water throughout the day. Dehydration can trigger migraines.
-* **Dietary Adjustments:**  Some people find that eliminating certain foods or following a specific diet (Mediterranean, DASH) can help. 
-* **Caffeine and Alcohol Management:**  Limit caffeine intake, especially in the afternoon and evening. Alcohol can also trigger migraines in some people.
-**Medications:**
-* **Over-the-Counter Pain Relievers:**  Nonsteroidal anti-inflammatory drugs (NSAIDs) like ibuprofen or naproxen can help reduce pain and inflammation.
-* **Triptans:**  These are prescription medications specifically designed to treat migraines. They work by constricting blood vessels in the brain.
-* **Anti-nausea Medications:**  These can help manage nausea and vomiting associated with migraines.
-* **Preventive Medications:**  If your migraines are frequent or severe, your doctor may prescribe preventive medications like beta-blockers, antidepressants, or anticonvulsants.
-**Other Therapies:**
-* **Biofeedback:**  This technique helps you learn to control your body's responses to stress and pain.
-* **Acupuncture:**  Some people find acupuncture helpful in reducing migraine frequency and severity.
-* **Massage Therapy:**  Massage can help relax muscles and reduce tension, which may help prevent migraines.
-**Important Notes:**
-* **Individualized Treatment:**  What works for one person may not work for another. It's important to work with your doctor to find the best treatment plan for you.
-* **Consistency is Key:**  It may take time to find the right combination of strategies that work for you. Be patient and consistent with your efforts.
-* **Don't Self-Treat:**  Never start or stop any medication without consulting your doctor.
-Remember, I'm here to provide general information. Please consult with a qualified healthcare professional for personalized advice and treatment. 
+I understand you're looking for ways to avoid migraines.  As a wise doctor, I can offer some insights, but remember, I'm not a substitute for a qualified medical professional.  
+**First, it's crucial to understand that migraines are complex and have many potential triggers.**  What works for one person might not work for another.  
+Here's a breakdown of what I can recommend, but always consult your doctor for personalized advice:
+**1. Identify Your Triggers:**
+* **Keep a migraine diary:**  Track your headaches, noting when they occur, what you ate, drank, did, and any environmental factors. This can help you pinpoint your triggers.
+* **Common triggers:**  Stress, lack of sleep, hormonal changes, certain foods (like aged cheese, processed meats, chocolate), alcohol, caffeine withdrawal, weather changes, and even bright lights or strong smells can trigger migraines.
+**2. Lifestyle Modifications:**
+* **Regular sleep schedule:** Aim for 7-8 hours of quality sleep each night.
+* **Stress management:**  Practice relaxation techniques like yoga, meditation, or deep breathing exercises.
+* **Regular exercise:**  Physical activity can help reduce stress and improve overall health.
+* **Hydration:**  Drink plenty of water throughout the day.
+* **Healthy diet:**  Focus on a balanced diet rich in fruits, vegetables, and whole grains. Avoid processed foods, sugary drinks, and excessive caffeine.
+**3. Medications:**
+* **Over-the-counter pain relievers:**  Ibuprofen or naproxen can help reduce pain and inflammation.
+* **Triptans:**  These are prescription medications specifically designed to treat migraines. They can be effective but may have side effects.
+* **Anti-nausea medications:**  These can help manage nausea and vomiting associated with migraines.
+* **Preventive medications:**  If your migraines are frequent or severe, your doctor may prescribe preventive medications like beta-blockers, antidepressants, or anti-seizure drugs.
+**4. Alternative Therapies:**
+* **Acupuncture:**  Some people find relief from migraines through acupuncture.
+* **Massage therapy:**  Massage can help relax muscles and reduce tension, which may help prevent migraines.
+* **Biofeedback:**  This technique helps you learn to control your body's responses, including muscle tension and heart rate, which can help reduce migraine frequency.
+**5. Seek Professional Help:**
+* **Consult a neurologist:**  If your migraines are severe or frequent, a neurologist can help diagnose the underlying cause and recommend the best treatment plan.
+* **Don't self-medicate:**  Always consult your doctor before starting any new medication.
+**Remember:**  Migraines are a serious condition, and it's important to seek professional help for diagnosis and treatment.  By working with your doctor and making lifestyle changes, you can take control of your migraines and live a more fulfilling life. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3366,29 +3342,23 @@
         <is>
           <t xml:space="preserve">
 It's great you're asking about potential side effects of Buspar (buspirone).  
-**Yes, Buspar can cause drowsiness, but it's not a common side effect.** 
-Here's a breakdown of what you need to know:
-* **Buspirone's Mechanism:** Buspirone is an anxiolytic, meaning it helps reduce anxiety. It works by affecting neurotransmitters in the brain, particularly serotonin. 
-* **Drowsiness as a Side Effect:**  While Buspar is generally well-tolerated, some people experience drowsiness as a side effect. This is often mild and temporary. 
-* **Factors Influencing Drowsiness:**  The likelihood of experiencing drowsiness can vary depending on:
-    * **Individual Sensitivity:** Some people are more sensitive to Buspar's effects than others.
-    * **Dosage:** Higher doses may increase the likelihood of drowsiness.
-    * **Other Medications:** Buspar can interact with other medications, potentially increasing drowsiness.
-    * **Underlying Conditions:** Certain medical conditions can also contribute to drowsiness.
-* **Managing Drowsiness:**
-    * **Talk to Your Doctor:** If you experience excessive drowsiness, it's crucial to discuss it with your doctor. They can adjust your dosage or consider alternative medications.
-    * **Avoid Driving or Operating Machinery:**  If drowsiness is a significant concern, avoid driving or operating machinery until you've discussed it with your doctor.
-    * **Lifestyle Changes:**  Getting enough sleep, staying hydrated, and avoiding alcohol or caffeine can help manage drowsiness.
+**Buspar is a medication primarily used to treat anxiety.** It works by affecting certain neurotransmitters in the brain, but it's not a sedative like some sleep medications. 
+**Yes, Buspar can cause drowsiness as a side effect.**  This is a common one, and it's usually mild and temporary. 
+Here's what you should know:
+* **Drowsiness is a possible side effect, but not everyone experiences it.**  Some people may find it bothersome, while others may not notice it at all.
+* **The severity of drowsiness can vary.** It might be a mild feeling of tiredness, or it could be more pronounced.
+* **Drowsiness is usually temporary.** It tends to improve as your body adjusts to the medication.
+* **If you experience excessive drowsiness, talk to your doctor.** They can adjust your dosage or suggest alternative medications.
 **Important Considerations:**
-* **Buspar is not a sleep aid:** It's important to remember that Buspar is not a sleep medication. If you're struggling with insomnia, it's essential to consult a doctor about appropriate treatment options.
-* **Individualized Response:**  Everyone reacts differently to medications. What works for one person may not work for another. 
-* **Open Communication:**  It's crucial to be open and honest with your doctor about any side effects you experience. This will help them provide the best possible care.
-**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with your doctor or a qualified healthcare professional for personalized guidance regarding your health and medications. 
+* **Buspar is not a sleep aid.** It's designed to help with anxiety, not sleep problems.
+* **Drowsiness can sometimes be a sign of other issues.** If you're experiencing excessive drowsiness alongside other symptoms, it's important to discuss them with your doctor.
+* **Always follow your doctor's instructions.** This includes taking your medication as prescribed and reporting any side effects.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult with your doctor or pharmacist for personalized advice about Buspar or any other medication. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3431,26 +3401,23 @@
 Allopurinol is a medication used to treat gout, a condition characterized by high levels of uric acid in the blood. While it's generally safe and effective for its intended purpose, it can have some side effects, and its impact on fertility is a topic of ongoing research. 
 Here's what we know:
 **Potential Impact on Fertility:**
-* **Male Fertility:**  There is some evidence suggesting that allopurinol may have a negative impact on male fertility. Studies have shown that it can reduce sperm count and motility, potentially leading to decreased fertility. However, the exact mechanisms are not fully understood and more research is needed.
-* **Female Fertility:**  The impact of allopurinol on female fertility is less clear. Some studies have reported no significant effect, while others have suggested a potential decrease in ovulation. 
-* **Mechanism:** The exact mechanism by which allopurinol might affect fertility is not entirely clear. It's thought to potentially interfere with the production of certain hormones involved in the reproductive process.
-**Important Considerations:**
-* **Dosage and Duration:** The impact of allopurinol on fertility may vary depending on the dosage and duration of treatment. 
-* **Individual Variation:**  Individual responses to allopurinol can vary widely. Some people may experience no side effects, while others may experience more significant issues.
-* **Underlying Conditions:**  Allopurinol is often prescribed for individuals with gout, which can be a complex condition with its own impact on fertility. 
+* **Mechanism:** Allopurinol works by inhibiting the enzyme xanthine oxidase, which is responsible for the production of uric acid.  
+* **Studies:** Some studies have suggested that Allopurinol may have a negative impact on sperm quality and motility in men. However, the evidence is not conclusive, and more research is needed.
+* **Individual Variation:** The impact of Allopurinol on fertility can vary significantly from person to person. Factors like dosage, duration of treatment, and individual health conditions can all play a role.
+* **Other Factors:** It's important to remember that fertility is a complex issue influenced by many factors, including age, lifestyle, and overall health. Allopurinol is just one potential factor that could potentially affect fertility.
 **Recommendations:**
-* **Consult a Doctor:** If you are considering taking allopurinol and are concerned about its potential impact on fertility, it is crucial to discuss this with your doctor. They can assess your individual situation, consider your medical history, and advise you on the best course of action.
-* **Alternative Treatments:**  Your doctor may be able to recommend alternative treatments for gout that have a lower risk of affecting fertility.
-* **Monitoring:**  If you are taking allopurinol and are experiencing any fertility concerns, it is important to monitor your symptoms and report any changes to your doctor.
-**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
+* **Consult a Doctor:** If you are considering using Allopurinol for gout and are concerned about its potential impact on fertility, it's crucial to discuss this with your doctor. They can assess your individual situation, consider your medical history, and advise you on the best course of action.
+* **Alternative Treatments:** Your doctor may be able to recommend alternative treatments for gout that have a lower risk of affecting fertility.
+* **Monitoring:** If you are taking Allopurinol and are trying to conceive, it's important to monitor your fertility closely and discuss any concerns with your doctor.
+**Important Note:** This information is for general knowledge and should not be considered medical advice. Always consult with a qualified healthcare professional for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3489,25 +3456,29 @@
       <c r="G46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question, and it's important to understand the nuances of migraines. 
-**Generally, a migraine is not a condition that lasts for days at a time.**  
-Here's why:
-* **Typical Duration:** Migraines typically last between 4 and 72 hours. 
-* **Acute Onset:**  They are characterized by a sudden onset of severe headache, often accompanied by other symptoms like nausea, vomiting, sensitivity to light and sound, and visual disturbances.
-* **Episodic Nature:** Migraines are episodic, meaning they come and go in cycles. 
-**However, there are some situations where a migraine might feel like it lasts longer:**
-* **Chronic Migraines:**  Some individuals experience chronic migraines, which are frequent and persistent. These can sometimes feel like they last for days or even weeks.
-* **Severe Migraines:**  In rare cases, a migraine can be so severe that it feels like it lasts for days. This is often due to a combination of factors, including:
-    * **Underlying medical conditions:**  Certain medical conditions can trigger or worsen migraines, leading to prolonged pain.
-    * **Medication overuse:**  Taking pain relievers too frequently can lead to rebound headaches, which can feel like they last longer.
-    * **Stress and other triggers:**  Stress, lack of sleep, and other triggers can exacerbate migraines and make them feel more prolonged.
-**Important Note:** If you are experiencing migraines that are lasting longer than usual, or if they are causing you significant distress, it is crucial to consult a doctor. They can help determine the cause of your prolonged headaches and recommend appropriate treatment options. 
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+That's a great question, and it's important to understand that migraines can be quite complex. 
+**Here's what I can tell you about migraines lasting for days:**
+* **Typical Migraine Duration:**  Most migraines last for **4 to 72 hours**. This is a general range, and individual experiences can vary.
+* **Prolonged Migraines:** While rare, migraines can indeed last for days, sometimes even up to a week. This is often referred to as a **"chronic migraine"**.
+* **Triggers and Severity:** Prolonged migraines are often associated with:
+    * **Severe migraine attacks:**  These can be triggered by stress, hormonal changes, certain foods, or other factors.
+    * **Underlying medical conditions:**  Conditions like epilepsy, sleep disorders, or even certain medications can contribute to prolonged migraines.
+* **Diagnosis:** If you're experiencing migraines that last for days, it's crucial to consult a doctor. They can help determine the cause and recommend appropriate treatment.
+**Here's what a doctor would likely do:**
+* **Detailed Medical History:**  They'll ask about your symptoms, triggers, and medical history.
+* **Physical Examination:**  They'll check for any underlying conditions.
+* **Neurological Tests:**  These may include brain imaging or nerve conduction studies to rule out other conditions.
+* **Treatment:**  Treatment options may include:
+    * **Medications:**  Triptans, anti-nausea medications, and other pain relievers.
+    * **Lifestyle Changes:**  Stress management techniques, regular sleep schedules, and dietary modifications.
+    * **Alternative Therapies:**  Acupuncture, massage, and biofeedback.
+**Important Note:**  It's crucial to remember that I am not a medical professional. This information is for general knowledge and should not be considered medical advice. If you are experiencing prolonged migraines, please consult a doctor for proper diagnosis and treatment. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3549,32 +3520,34 @@
       <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question, and it's important to understand the relationship between bronchitis and pneumonia. 
-**Here's the breakdown:**
-* **Bronchitis** is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It's usually caused by a virus, but it can also be caused by bacteria or irritants like smoke. 
-* **Pneumonia** is an infection that inflames the air sacs in one or both lungs. It can be caused by bacteria, viruses, or fungi.
+That's a great question!  Let's break down the relationship between bronchitis and pneumonia.
+**Bronchitis** is an inflammation of the bronchial tubes, the airways that carry air to and from your lungs. It's usually caused by a virus, but it can also be caused by bacteria or irritants like smoke. 
+**Pneumonia** is an infection that inflames the air sacs in one or both lungs. These air sacs may fill with fluid or pus, causing coughing, fever, and difficulty breathing.
 **The Connection:**
-Bronchitis can *increase the risk* of developing pneumonia.  Here's why:
-* **Weakened Immune System:**  Bronchitis often weakens the immune system, making it harder to fight off infections.
-* **Inflammation:** The inflammation caused by bronchitis can make it easier for bacteria or viruses to enter the lungs and cause pneumonia.
-* **Fluid Build-up:**  Bronchitis can cause fluid to build up in the airways, making it harder for the lungs to clear out bacteria and viruses.
-**Can Bronchitis Turn into Pneumonia?**
-It's not a simple "yes" or "no" answer.  Here's what's important:
-* **Progression:**  Bronchitis can *progress* to pneumonia, but it's not a guaranteed outcome. 
-* **Severity:**  The severity of bronchitis and the individual's overall health play a significant role.
-* **Risk Factors:**  People with weakened immune systems, chronic lung conditions, or underlying health problems are at higher risk of developing pneumonia after bronchitis.
-**What to Do:**
-* **See a Doctor:** If you have bronchitis, it's important to see a doctor to get a proper diagnosis and treatment. 
-* **Monitor Symptoms:**  Pay attention to any changes in your symptoms, such as fever, cough, shortness of breath, or chest pain.
-* **Rest:**  Get plenty of rest to help your body fight off the infection.
-* **Hydration:**  Drink plenty of fluids to help thin mucus and prevent dehydration.
-* **Over-the-Counter Relief:**  Over-the-counter medications can help relieve symptoms like cough and congestion.
-**Important Note:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult with a qualified healthcare professional for any health concerns. 
+* **Bronchitis can increase the risk of developing pneumonia.**  When you have bronchitis, your airways are already inflamed and irritated. This makes it easier for bacteria or viruses to enter your lungs and cause pneumonia.
+* **Pneumonia can develop from bronchitis.**  If a person has a severe case of bronchitis, it can progress to pneumonia. This is especially true if the bronchitis is caused by a virus and the person is already weakened by other factors.
+* **The severity of the condition matters.**  Most cases of bronchitis resolve on their own, and the risk of developing pneumonia is low. However, if the bronchitis is severe or lasts for a long time, the risk of developing pneumonia increases.
+**Here's how it usually unfolds:**
+1. **Bronchitis:** You experience symptoms like cough, phlegm, and shortness of breath.
+2. **Inflammation:** The airways become inflamed and irritated.
+3. **Vulnerability:** Your body becomes more susceptible to infections, including bacteria and viruses.
+4. **Pneumonia:** If a bacteria or virus enters your lungs, it can cause pneumonia.
+**Important Notes:**
+* **Early diagnosis and treatment are crucial.** If you have symptoms of bronchitis, it's important to see a doctor to get a diagnosis and treatment plan.
+* **Prevention is key.**  Practice good hygiene, get vaccinated, and avoid smoking to reduce your risk of both bronchitis and pneumonia.
+* **Seek medical attention immediately if you experience:**
+    * High fever
+    * Difficulty breathing
+    * Chest pain
+    * Confusion
+    * Bluish lips or fingernails
+**In summary:** While bronchitis can increase the risk of developing pneumonia, it's not a guaranteed progression. The severity of the bronchitis, the individual's overall health, and the presence of other factors all play a role. 
+Remember, I'm not a substitute for a medical professional. If you have concerns about your health, please consult a doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3616,22 +3589,24 @@
       <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're asking about herpes and its symptoms.  It's important to understand that I'm not a medical professional, and this information is for general knowledge only.  **Always consult a doctor for diagnosis and treatment.**
-That said, here's what I can tell you about herpes and rectal discharge:
-**Herpes and Rectal Discharge:**
-* **Yes, herpes can cause rectal discharge.**  Herpes simplex virus (HSV), which causes genital herpes, can also infect the rectum. 
-* **Symptoms can vary:**  The symptoms of rectal herpes can be similar to those of genital herpes, including:
-    * **Painful sores or blisters:** These can appear in the anus, rectum, or surrounding area.
-    * **Discharge:** This can be clear, white, or yellowish, and may be accompanied by itching, burning, or discomfort.
-    * **Itching and irritation:**  The area may feel itchy, irritated, or raw.
-* **Transmission:**  HSV can be transmitted through sexual contact, but it can also be spread through skin-to-skin contact, especially if there are open sores.
-* **Other factors:**  Rectal discharge can also be caused by other conditions, so it's important to see a doctor for a proper diagnosis.
+It's great you're asking about herpes and its symptoms.  Let's talk about rectal discharge and herpes. 
+**Yes, herpes can cause rectal discharge.** 
+Here's why:
+* **Herpes is a virus:**  Herpes simplex virus (HSV) is a common virus that can cause sores, blisters, and other symptoms. 
+* **HSV-1 and HSV-2:** There are two main types of HSV: HSV-1 (usually causes oral herpes) and HSV-2 (usually causes genital herpes). 
+* **Rectal herpes:**  While HSV-1 is more commonly associated with oral herpes, HSV-2 can also cause outbreaks in the rectum. 
+* **Symptoms:**  Rectal discharge from herpes can be clear, white, or yellowish. It may be accompanied by:
+    * Pain or discomfort
+    * Itching
+    * Burning sensation
+    * Bleeding
+    * Swelling
 **Important Considerations:**
-* **Diagnosis:**  A doctor can diagnose herpes through a physical exam, a swab of the discharge, and possibly a blood test.
-* **Treatment:**  Antiviral medications can help manage herpes outbreaks and reduce the frequency of symptoms.
-* **Prevention:**  Using condoms during sexual activity can help prevent the spread of herpes.
-* **Support:**  Living with herpes can be challenging, but there are resources available to help you manage the condition.
-**Remember:**  If you are experiencing any symptoms of herpes or have concerns about your sexual health, please consult a doctor. They can provide you with accurate information and personalized advice. 
+* **Not everyone with herpes experiences rectal discharge.**  Some people may have no symptoms at all.
+* **Diagnosis:** If you're concerned about rectal discharge, it's crucial to see a doctor for a proper diagnosis. They can perform a physical exam and may recommend a test to confirm the presence of HSV.
+* **Treatment:**  Antiviral medications can help manage herpes outbreaks and reduce the frequency of symptoms. 
+* **Prevention:**  Practicing safe sex, including using condoms, can help prevent the spread of HSV.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. If you have concerns about your health, please consult a doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -3677,27 +3652,29 @@
         <is>
           <t xml:space="preserve">
 It's great you're thinking about the potential side effects of medications!  Hydroxyzine is a common antihistamine, and like any medication, it can have some effects on the body. 
-Here's what we know about hydroxyzine and its potential impact on metabolism and weight:
+Here's what I can tell you about hydroxyzine and its potential impact on metabolism and weight:
 **Hydroxyzine and Metabolism:**
-* **Generally, hydroxyzine does not significantly affect metabolism.** It's not a metabolically active drug in the way that, for example, some antidepressants might be. 
-* **However, it can cause some mild side effects that might indirectly impact metabolism.** These include:
+* **Generally, hydroxyzine does not significantly affect metabolism.** It's not a metabolic stimulant or inhibitor in the way that some other drugs might be. 
+* **However, it can cause some mild side effects that might indirectly impact metabolism:**
     * **Drowsiness:** This can lead to reduced activity levels and potentially affect calorie expenditure.
     * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
     * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
 **Hydroxyzine and Weight Gain:**
-* **Hydroxyzine itself is not a known cause of weight gain.** It's not a fat-storing drug.
-* **However, some people may experience weight gain as a side effect of other medications they are taking.** This is because some medications can affect appetite, metabolism, or hormone levels. 
-* **It's important to note that weight gain can be influenced by many factors, including diet, exercise, and overall health.** 
+* **Hydroxyzine itself is not a direct cause of weight gain.** It doesn't directly increase fat storage or promote weight gain.
+* **However, some potential indirect factors could contribute to weight changes:**
+    * **Drowsiness:** As mentioned above, it can lead to reduced activity levels and potentially affect calorie expenditure.
+    * **Dry mouth:** This can sometimes lead to a slight increase in appetite, but it's not a major concern.
+    * **Constipation:** This can also indirectly affect metabolism by slowing down digestion.
 **Important Considerations:**
-* **Individual responses to medications vary.** What one person experiences as a side effect, another might not.
-* **Always discuss any concerns about medication side effects with your doctor.** They can help you understand the potential risks and benefits of hydroxyzine in your specific situation.
-* **If you are experiencing weight gain or other side effects, it's important to talk to your doctor.** They can help determine if the medication is the cause and adjust your treatment plan if necessary.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+* **Individual responses vary:**  How hydroxyzine affects you personally can depend on factors like your overall health, dosage, and other medications you're taking.
+* **Talk to your doctor:** If you're concerned about weight gain or other side effects, it's crucial to discuss them with your doctor. They can assess your individual situation and provide personalized advice.
+* **Lifestyle factors:**  Remember that diet, exercise, and overall lifestyle choices play a significant role in weight management. 
+**In summary:** Hydroxyzine is unlikely to directly cause significant weight gain. However, some potential indirect effects on metabolism and appetite could contribute to weight changes. If you have concerns, always consult your doctor. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3736,38 +3713,40 @@
       <c r="G50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and it's definitely a complex issue. 
-Here's what I can tell you, drawing on my vast medical knowledge:
-**The Basics: How Thyroid Hormones Work**
-* **Thyroid hormones** (T3 and T4) are crucial for regulating metabolism, energy expenditure, and body temperature. 
-* **Hypothyroidism**, or an underactive thyroid, occurs when your thyroid gland doesn't produce enough of these hormones. 
-* **Metabolic slowdown:** This leads to a decrease in your body's metabolic rate, meaning you burn fewer calories at rest. 
-**The Weight Gain Connection**
-* **Slowed metabolism:** As mentioned, a sluggish metabolism is a key factor in weight gain with hypothyroidism. Your body simply burns fewer calories, making it harder to lose weight.
-* **Increased fat storage:**  The body may also store more fat, especially around the abdomen, due to the hormonal changes associated with hypothyroidism.
-* **Other factors:**  It's important to note that weight gain with hypothyroidism is not always straightforward. Other factors can contribute, such as:
-    * **Insulin resistance:**  Hypothyroidism can increase insulin resistance, making it harder for your body to use glucose effectively. This can lead to fat storage.
-    * **Changes in appetite:**  Some people with hypothyroidism experience changes in appetite, leading to overeating or undereating.
-    * **Medication side effects:** Certain medications can also contribute to weight gain.
-**Important Considerations**
-* **Not everyone with hypothyroidism gains weight:**  The extent of weight gain varies greatly from person to person. Some individuals may experience minimal weight gain, while others may see significant changes.
-* **Individual factors:**  Age, genetics, activity level, and overall health all play a role in how your body responds to hypothyroidism.
-* **Diagnosis and treatment:**  It's crucial to get a proper diagnosis of hypothyroidism through blood tests. Once diagnosed, treatment with thyroid hormone replacement therapy can effectively address the underlying issue and help manage weight.
-**What to Do**
-* **Consult a doctor:**  If you're concerned about weight gain, especially if you suspect hypothyroidism, schedule an appointment with your doctor. They can order blood tests to confirm the diagnosis and discuss treatment options.
-* **Lifestyle changes:**  In addition to medication, lifestyle changes can also help manage weight and improve overall health. These include:
-    * **Regular exercise:**  Even moderate exercise can boost metabolism and help burn calories.
-    * **Balanced diet:**  Focus on a healthy diet rich in fruits, vegetables, lean protein, and whole grains.
-    * **Stress management:**  Stress can exacerbate weight gain, so finding healthy ways to manage stress is important.
-**Remember:**  I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
+You're right to be curious about the link between low thyroid and weight gain. It's a common concern, and I'm happy to shed some light on it. 
+**Here's the breakdown:**
+**What is Hypothyroidism?**
+Hypothyroidism, or an underactive thyroid, occurs when your thyroid gland doesn't produce enough thyroid hormone. This hormone plays a crucial role in regulating your metabolism, which is how your body burns calories. 
+**How Does Hypothyroidism Affect Weight?**
+When your thyroid hormone levels are low, your metabolism slows down. This means your body burns fewer calories, making it easier to gain weight.  Here's how it works:
+* **Slowed Metabolism:**  The thyroid hormone is essential for regulating your metabolic rate. When levels are low, your body burns fewer calories, even at rest.
+* **Increased Fat Storage:**  With a slower metabolism, your body may store more fat, leading to weight gain.
+* **Muscle Loss:**  Hypothyroidism can also lead to muscle loss, which further contributes to weight gain.
+* **Changes in Appetite:**  Some people with hypothyroidism experience changes in appetite, leading to overeating or cravings for high-calorie foods.
+**Other Factors to Consider:**
+* **Age:**  Hypothyroidism is more common in older adults.
+* **Genetics:**  Family history of hypothyroidism can increase your risk.
+* **Autoimmune Diseases:**  Conditions like Hashimoto's thyroiditis, an autoimmune disorder, can cause hypothyroidism.
+* **Medications:**  Certain medications can interfere with thyroid hormone production.
+**Important Note:**
+It's crucial to remember that weight gain due to hypothyroidism is often a symptom, not the cause.  It's essential to get a proper diagnosis from a doctor. 
+**What to Do:**
+* **See a Doctor:**  If you suspect you may have hypothyroidism, schedule an appointment with your doctor. They can order blood tests to check your thyroid hormone levels.
+* **Treatment:**  If diagnosed, your doctor will likely prescribe thyroid hormone replacement therapy to restore your thyroid hormone levels.
+* **Lifestyle Changes:**  Alongside treatment, adopting a healthy lifestyle can help manage weight and improve overall health. This includes:
+    * **Regular Exercise:**  Physical activity helps boost metabolism and burn calories.
+    * **Balanced Diet:**  Focus on nutrient-rich foods, including fruits, vegetables, lean protein, and whole grains.
+    * **Stress Management:**  Stress can affect thyroid hormone levels, so finding healthy ways to manage stress is important.
+**Remember:**  Hypothyroidism is treatable, and with proper management, you can maintain a healthy weight and improve your overall well-being. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3804,31 +3783,31 @@
       <c r="G51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective. Here's a breakdown of why:
+Metformin is a widely used medication for type 2 diabetes, and it's generally considered to be very effective.  Here's a breakdown of why:
 **How Metformin Works:**
 * **Reduces Glucose Production:** Metformin's primary action is to decrease the amount of glucose (sugar) produced by the liver. 
 * **Improves Insulin Sensitivity:** It also enhances the body's response to insulin, making it more effective at lowering blood sugar levels.
-* **Slows Glucose Absorption:** Metformin can slow down the absorption of glucose from the intestines, further contributing to blood sugar control.
+* **Slows Glucose Absorption:** Metformin can slow down the absorption of glucose from the intestines.
 **Effectiveness:**
-* **Significant Blood Sugar Reduction:** Studies consistently show that metformin effectively lowers blood sugar levels in people with type 2 diabetes. 
-* **Improved Glycemic Control:** It helps achieve better glycemic control, meaning it helps keep blood sugar levels within a healthy range.
-* **Cardiovascular Benefits:**  Metformin has been linked to a reduced risk of heart disease and stroke in people with type 2 diabetes.
+* **Significant Blood Sugar Reduction:** Studies consistently show that metformin significantly reduces blood sugar levels in people with type 2 diabetes. 
+* **Long-Term Benefits:**  It's a long-term treatment option, often used in conjunction with lifestyle changes (diet and exercise) to manage blood sugar effectively.
+* **Cardiovascular Benefits:**  Research suggests that metformin may also offer cardiovascular protection, potentially reducing the risk of heart disease and stroke.
 **Potential Side Effects:**
-* **Gastrointestinal Issues:**  The most common side effects are usually mild and include nausea, diarrhea, and stomach upset. These are often manageable with adjustments to dosage or timing of medication.
+* **Gastrointestinal Issues:**  The most common side effects are usually mild and include nausea, diarrhea, and stomach upset. These are often manageable with adjustments to the dosage or timing of the medication.
 * **Vitamin B12 Deficiency:**  Metformin can interfere with vitamin B12 absorption, so regular blood tests are recommended to monitor levels.
 * **Lactic Acidosis:**  In rare cases, metformin can cause lactic acidosis, a serious condition. This is more likely to occur in people with kidney problems or liver disease.
 **Important Considerations:**
 * **Individualized Treatment:**  The effectiveness of metformin can vary from person to person. It's important to work closely with your doctor to determine the right dosage and treatment plan.
-* **Lifestyle Changes:**  Metformin is most effective when combined with lifestyle changes, such as a healthy diet, regular exercise, and weight management.
-* **Monitoring:**  Regular blood sugar monitoring is crucial to ensure metformin is working effectively and to detect any potential side effects.
+* **Not a Cure:**  Metformin is not a cure for type 2 diabetes, but it helps manage the condition effectively.
+* **Other Medications:**  Metformin may be used in combination with other medications, such as sulfonylureas or DPP-4 inhibitors, to achieve optimal blood sugar control.
 **In Conclusion:**
-Metformin is a highly effective medication for type 2 diabetes, offering significant benefits in blood sugar control, cardiovascular health, and overall well-being. While it can have some side effects, they are generally manageable.  
-**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
+Metformin is a highly effective medication for type 2 diabetes, offering significant blood sugar reduction and potential cardiovascular benefits. While it can have side effects, they are usually manageable.  It's crucial to discuss your individual needs and potential risks with your doctor to determine if metformin is the right treatment for you. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -3891,7 +3870,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3935,24 +3914,28 @@
 **It's not quite as simple as "bacteria determine the antibiotic."**  Here's a more nuanced explanation:
 * **Antibiotics target bacterial processes:** Antibiotics are designed to interfere with essential processes in bacteria, like cell wall synthesis, protein production, or DNA replication.  
 * **Bacteria evolve resistance:** Bacteria are incredibly adaptable. Over time, they can develop resistance to antibiotics through natural selection. This means that bacteria that are resistant to one antibiotic may survive and reproduce, passing on their resistance genes to their offspring.
-* **Antibiotic discovery is a complex process:**  Scientists don't just "discover" antibiotics based on bacteria. They use a combination of:
+* **Antibiotic discovery is a complex process:**  Scientists don't "discover" antibiotics by simply looking at bacteria.  They use a combination of:
     * **Screening natural sources:**  Many antibiotics are derived from natural sources like fungi or soil bacteria.
-    * **Chemical synthesis:**  Scientists can synthesize new compounds that target bacterial processes.
-    * **Understanding bacterial genetics:**  Researchers study the genes of bacteria to identify potential targets for new antibiotics.
+    * **Chemical synthesis:**  Scientists can synthesize new compounds that have antibiotic properties.
+    * **Understanding bacterial mechanisms:**  Researchers study the mechanisms of bacterial growth and survival to identify potential targets for antibiotics.
 **So, how does bacteria influence antibiotic development?**
-* **Understanding bacterial mechanisms:**  By studying the mechanisms of bacterial survival and resistance, scientists can identify new targets for antibiotics.
-* **Identifying resistance mechanisms:**  Understanding how bacteria develop resistance to existing antibiotics helps scientists develop new antibiotics that can overcome these mechanisms.
-* **Developing new antibiotics:**  Research on bacterial genetics and metabolism can lead to the discovery of new antibiotics.
-**The bottom line:** Bacteria are not the sole determinant of antibiotic development.  It's a complex interplay between scientific research, understanding bacterial biology, and the development of new compounds. 
+1. **Understanding bacterial resistance:**  Studying bacteria that are resistant to antibiotics helps us understand how they develop resistance mechanisms. This knowledge is crucial for developing new antibiotics that can overcome these resistance mechanisms.
+2. **Identifying new targets:**  By studying the unique processes and structures of bacteria, scientists can identify new targets for antibiotics. This could lead to the development of new classes of antibiotics that are effective against resistant bacteria.
+3. **Developing new antibiotic classes:**  The discovery of new antibiotics often involves understanding the specific mechanisms of action of existing antibiotics. This knowledge can be used to design new antibiotics that target different bacterial processes.
+**In summary:**
+* Bacteria don't "determine" the antibiotic.
+* Bacteria are the target of antibiotics.
+* Understanding bacterial resistance is crucial for developing new antibiotics.
+* Scientists use a combination of approaches to discover and develop new antibiotics.
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3991,23 +3974,31 @@
       <c r="G54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Engorged breasts can sometimes cause chills, but it's not a direct cause-and-effect relationship. Here's why:
-**Understanding Engorgement:**
-* **What it is:** Engorgement happens when breast tissue becomes swollen and painful due to an increase in milk production. This is often a common side effect of breastfeeding, especially in the early days.
-* **Why it happens:**  The body produces more milk than the baby can drain, leading to the milk ducts becoming blocked. This can cause the breasts to feel hard, painful, and tender.
-**Chills and Engorgement:**
-* **Possible connection:**  The discomfort and pain associated with engorgement can trigger a feeling of coldness or chills. This is because the body's natural response to pain and inflammation is to try and conserve heat.
-* **Other factors:**  However, chills are not a guaranteed symptom of engorgement. Other factors can contribute to chills, such as:
-    * **Low body temperature:**  This can be caused by various factors, including illness, dehydration, or even just being cold.
-    * **Hormonal changes:**  Hormonal fluctuations during pregnancy or breastfeeding can also cause chills.
-    * **Underlying medical conditions:**  Certain medical conditions, such as hypothyroidism or anemia, can also cause chills.
+It's great you're asking about this! While engorgement itself doesn't directly cause chills, it can be a symptom of a more serious underlying issue that *can* lead to chills. 
+Here's a breakdown:
+**Engorgement:**
+* **What it is:**  Engorgement happens when breast tissue becomes swollen and painful due to milk production exceeding the capacity of the ducts. 
+* **Causes:**  This is most common during breastfeeding, but can also occur with hormonal changes, medications, or even certain foods.
+* **Symptoms:**  Swollen, tender breasts, pain, difficulty feeding, and sometimes a feeling of fullness.
+**Chills:**
+* **What they are:**  Chills are a sudden feeling of coldness, often accompanied by shivering.
+* **Causes:**  Chills can be caused by a variety of factors, including:
+    * **Infection:**  A common cause, especially in the case of breast infections like mastitis.
+    * **Hormonal changes:**  Fluctuations in hormones can trigger chills.
+    * **Low body temperature:**  This can be caused by various factors, including illness, dehydration, or even certain medications.
+    * **Stress:**  Emotional stress can also lead to chills.
+**The Connection:**
+* **Mastitis:**  Engorgement can be a symptom of mastitis, a painful breast infection. Mastitis can cause chills, fever, and other symptoms like redness and swelling.
+* **Other infections:**  Other infections, like a yeast infection, can also cause chills and discomfort in the breasts.
+* **Underlying conditions:**  In some cases, engorgement can be a sign of a more serious underlying condition, such as a hormonal imbalance or a thyroid problem.
 **What to do:**
-* **If you're experiencing chills:**  It's important to address the underlying cause. If you're breastfeeding, try these tips:
-    * **Frequent nursing:**  Frequent and effective breastfeeding is crucial to drain the breasts.
-    * **Warm compresses:**  Applying a warm compress to the breasts can help to relax the muscles and improve blood flow.
+* **Consult a doctor:**  If you experience chills along with engorgement, it's important to see a doctor to rule out any underlying infections or medical conditions.
+* **Self-care:**  In the meantime, you can try the following to relieve engorgement:
+    * **Frequent nursing or pumping:**  This helps to drain the breasts and reduce swelling.
+    * **Warm compresses:**  Applying a warm compress to the breasts can help to relax the muscles and reduce pain.
     * **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help to reduce pain and inflammation.
-* **Consult a doctor:**  If your chills are severe, persistent, or accompanied by other symptoms, such as fever, rash, or difficulty breathing, it's important to consult a doctor.
-**Important Note:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+    * **Proper breastfeeding technique:**  Ensure you are breastfeeding correctly to avoid engorgement.
+**Remember:**  I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -4015,7 +4006,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4053,30 +4044,28 @@
       <c r="G55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about diagnosing epididymitis, and it's important to understand that a urine test isn't the primary tool for this condition. 
-Here's a breakdown of how epididymitis is diagnosed and why a urine test isn't always the first step:
-**What is Epididymitis?**
-Epididymitis is an inflammation of the epididymis, a coiled tube on the back of each testicle that stores and transports sperm. It's often caused by a bacterial infection, but it can also be caused by other factors like:
-* **Sexually transmitted infections (STIs):** Chlamydia and gonorrhea are common culprits.
-* **Epididymitis can be a complication of other conditions:**  Like prostatitis (inflammation of the prostate gland) or testicular torsion.
-* **Trauma:**  Injury to the area can also lead to inflammation.
-**Diagnosis of Epididymitis:**
-1. **Physical Examination:** Your doctor will examine your testicles and the surrounding area. They'll look for tenderness, swelling, and redness.
-2. **Medical History:**  Your doctor will ask about your symptoms, sexual history, and any recent illnesses.
-3. **Urine Test:** While not the primary diagnostic tool, a urine test can help rule out a urinary tract infection (UTI), which can sometimes mimic epididymitis.
-4. **Blood Tests:**  These can help check for signs of infection and inflammation.
-5. **Ultrasound:**  An ultrasound is a non-invasive imaging technique that can visualize the epididymis and surrounding tissues, helping to confirm the diagnosis.
-6. **Semen Analysis:**  If the cause of epididymitis is unclear, a semen analysis can be helpful.
-**Why a Urine Test Isn't Always the First Step:**
-* **Epididymitis is often caused by a bacterial infection, but it can also be caused by other factors.**  A urine test is primarily used to check for UTIs, which are a separate condition.
-* **Epididymitis is often diagnosed based on symptoms and physical examination.**  A urine test might be ordered if there are signs of a UTI, but it's not the primary diagnostic tool.
-**Important Note:**  It's crucial to see a doctor if you suspect you have epididymitis. Early diagnosis and treatment are essential to prevent complications. 
-Let me know if you have any other questions about epididymitis or any other medical condition. 
+You're asking a great question about a common and sometimes tricky condition.  Let's break down how epididymitis is diagnosed:
+**Epididymitis: A Quick Overview**
+Epididymitis is inflammation of the epididymis, a coiled tube on the back of each testicle that stores and transports sperm. It's usually caused by a bacterial infection, but can also be caused by viruses or other irritants.
+**Diagnosis: It's Not Just a Urine Test**
+While a urine test can be part of the diagnostic process, it's not the only one. Here's a more comprehensive approach:
+1. **Medical History and Physical Exam:** Your doctor will ask about your symptoms, sexual history, and any recent illnesses. They'll also perform a physical exam, checking for tenderness, swelling, and redness in the affected area.
+2. **Urine Test:** A urinalysis can help rule out urinary tract infections (UTIs), which can sometimes mimic epididymitis. It checks for bacteria, white blood cells, and other indicators of infection.
+3. **Semen Analysis:**  If the diagnosis is suspected, a semen analysis can be done to check for sperm count, motility, and morphology. This is important because epididymitis can affect sperm production.
+4. **Imaging Tests:**  In some cases, imaging tests like ultrasound or MRI may be used to visualize the epididymis and rule out other conditions.
+5. **Blood Tests:**  Blood tests can be used to check for signs of infection, inflammation, and other potential causes of epididymitis.
+**Why It's Not Just a Urine Test**
+While a urine test can be helpful, it's not always conclusive.  Here's why:
+* **Epididymitis can be caused by a variety of factors:**  Bacterial infections are common, but other causes include sexually transmitted infections, trauma, and even certain medications.
+* **Urine tests can be misleading:**  UTIs can cause similar symptoms to epididymitis, and a urine test alone might not be enough to confirm the diagnosis.
+* **Imaging and blood tests are necessary:**  These tests can provide more information about the cause and severity of the inflammation.
+**Important Note:**  It's crucial to see a doctor for any suspected epididymitis.  Early diagnosis and treatment are essential to prevent complications. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4113,28 +4102,30 @@
       <c r="G56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about gabapentin. It's a common medication, but its classification as a controlled substance is a bit nuanced. 
+You're right to be curious about Gabapentin. It's a common medication, but its classification as a controlled substance is a bit nuanced. 
 Here's what you need to know:
-**Gabapentin is NOT a Schedule I, II, III, or IV controlled substance.**
-* **Schedule I:**  These are drugs with a high potential for abuse and no currently accepted medical use in the U.S. (e.g., heroin, LSD).
-* **Schedule II:** These are drugs with a high potential for abuse and are used for medical purposes but have a high risk of dependence. (e.g., morphine, oxycodone).
-* **Schedule III:** These are drugs with moderate potential for abuse and are used for medical purposes. (e.g., anabolic steroids, ketamine).
-* **Schedule IV:** These are drugs with low potential for abuse and are used for medical purposes. (e.g., benzodiazepines, zolpidem).
-**Why is Gabapentin not in these schedules?**
-* **Limited Abuse Potential:** While gabapentin can be misused, it's not typically abused in the same way as other drugs in Schedule I-IV. 
-* **Medical Use:** It's primarily prescribed for managing nerve pain, seizures, and restless legs syndrome. 
-* **Regulation:**  Gabapentin is regulated by the FDA, but its classification as a Schedule I-IV controlled substance is not relevant to its availability and use.
+**Gabapentin is NOT a Schedule I, II, III, or IV controlled substance.**  This means it's **not considered to have a high potential for abuse or addiction.**
+**However, it's important to understand the context:**
+* **Schedule I substances** are drugs with a high potential for abuse and no currently accepted medical use. Examples include heroin and LSD.
+* **Schedule II substances** have a high potential for abuse and are used for medical purposes, but with strict controls. Examples include morphine and cocaine.
+* **Schedule III substances** have a moderate potential for abuse and are used for medical purposes. Examples include anabolic steroids and ketamine.
+* **Schedule IV substances** have a low potential for abuse and are used for medical purposes. Examples include benzodiazepines and barbiturates.
+**Why is Gabapentin not classified as a Schedule I, II, III, or IV controlled substance?**
+* **Limited abuse potential:** While Gabapentin can be misused, it's not typically associated with the same level of addiction and dependence as other controlled substances.
+* **Medical use:** It's primarily prescribed for managing nerve pain, seizures, and restless legs syndrome. 
+* **Regulation:**  Gabapentin is regulated by the FDA, but its classification as a controlled substance is not based on its abuse potential.
 **Important Considerations:**
-* **Prescription Only:** Gabapentin is a prescription medication, meaning it can only be obtained with a doctor's order.
-* **Potential for Dependence:** Like all medications, gabapentin can have side effects and potential for dependence. 
+* **Prescription:** Gabapentin is a prescription medication, meaning it can only be obtained with a doctor's order.
+* **Side effects:** Like all medications, Gabapentin can have side effects, and it's important to discuss any concerns with your doctor.
 * **Interactions:** Gabapentin can interact with other medications, so it's crucial to inform your doctor about all the medications you're taking.
-**Always consult with a healthcare professional for any medical advice or questions about medications.** They can provide personalized guidance based on your individual needs and medical history. 
-Let me know if you have any other questions about gabapentin or other medications. 
+**In conclusion:**
+While Gabapentin is not a controlled substance in the traditional sense, it's still a medication that should be used responsibly and under the guidance of a healthcare professional. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4173,22 +4164,21 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information on applying ointment to a pierced nipple.  However, I must emphasize that I am an AI and cannot provide medical advice.  
-**It is crucial to consult a qualified healthcare professional for any piercing-related concerns.** 
+**It is crucial to consult a qualified healthcare professional for any concerns about your piercing.** 
 That being said, I can offer some general information about piercings and wound care:
 * **Pierced Nipples:**  Nipples are a sensitive area, and piercings can be prone to infection. 
-* **Ointments:**  Ointments are often used to help keep a piercing clean and moisturized.  
+* **Ointments:**  Ointments are often used to help keep piercings clean and moisturized.  
 * **Proper Application:**  Applying ointment to a pierced nipple requires specific care to avoid irritation and infection. 
 **Here's what a doctor would likely advise:**
-1. **Cleanliness:**  The most important thing is to keep the piercing clean.  The doctor will likely recommend gentle, unscented soap and warm water for cleaning.
-2. **Ointment Choice:**  They will recommend an ointment specifically designed for piercings, such as:
-    * **Antibiotic ointment:**  Helps prevent infection.
-    * **Petroleum jelly:**  Moisturizes the area and helps prevent dryness.
-3. **Application:**  The doctor will demonstrate the proper way to apply the ointment to the piercing, ensuring it doesn't get in the piercing itself.
+1. **Cleanliness:**  The most important thing is to keep the piercing clean.  Your doctor will likely recommend gentle, unscented soap and warm water for cleaning.
+2. **Ointment Choice:**  They may recommend a specific ointment, such as petroleum jelly or a hypoallergenic cream, depending on your individual needs. 
+3. **Application:**  They will guide you on how to apply the ointment, ensuring it doesn't get into the piercing itself.
 4. **Frequency:**  They will advise on how often to apply the ointment.
-5. **Signs of Infection:**  The doctor will explain what to look for if the piercing becomes infected, such as redness, swelling, pain, pus, or discharge.
+5. **Signs of Infection:**  They will teach you to recognize signs of infection, such as redness, swelling, pain, discharge, or fever.
 **Remember:**
-* **Never use harsh chemicals or home remedies on a piercing.**
+* **Never use harsh chemicals or strong fragrances on a piercing.**
 * **Avoid touching the piercing with dirty hands.**
+* **Don't use home remedies without consulting a doctor.**
 * **If you experience any signs of infection, seek medical attention immediately.**
 Please schedule an appointment with your doctor or a qualified piercer to get personalized advice and care for your piercing. 
 &lt;end_of_turn&gt;</t>
@@ -4198,7 +4188,7 @@
         <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4231,32 +4221,31 @@
       <c r="G58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's understandable to be puzzled when you're the only one feeling unwell in your household.  Here's a breakdown of why you might be experiencing this, and what to consider:
-**Possible Reasons You're the Only One:**
-* **Timing:**  Viruses spread through droplets, and it's possible you were exposed to the virus at a time when others in the house were not yet showing symptoms. 
-* **Virus Type:** Some viruses are more contagious than others.  A virus that's highly contagious might be spreading through the house, but you might have been exposed at a different time or in a different way.
-* **Exposure:** You might have been exposed to the virus through a different route than others in the house. For example, you might have been exposed to the virus through contaminated surfaces, food, or air.
-* **Individual Immune Response:**  Everyone's immune system reacts differently to viruses. You might have a stronger immune response than others, making you less likely to get sick.
-* **Underlying Health Conditions:**  Pre-existing health conditions can affect how your body responds to viruses. 
-* **Timing of Symptoms:**  Some viruses have a longer incubation period, meaning you might have been exposed to the virus before you started feeling sick.
+It's understandable to be puzzled when you're the only one feeling unwell in your household. While it's possible to be the only one with a viral infection, it's important to remember that there are many factors that could be at play. 
+Here's a breakdown of potential explanations and what you can do:
+**Possible Explanations:**
+* **Timing:**  Viruses can have incubation periods, meaning you might have been exposed to the virus before you started feeling sick. 
+* **Exposure:** You might have been exposed to the virus through a different route than others in the house. For example, you could have been exposed to the virus through:
+    * **Contact with an infected person:** Even if others in the house are not showing symptoms, they could still be carrying the virus.
+    * **Contaminated surfaces:**  Viruses can live on surfaces for a while, so it's possible you came into contact with the virus on a doorknob, countertop, or other object.
+    * **Airborne transmission:** Some viruses spread through the air, especially in enclosed spaces. 
+* **Individual Immune Response:**  Everyone's immune system is different. Some people may be more susceptible to certain viruses than others.
+* **Underlying Health Conditions:**  Pre-existing health conditions can make you more vulnerable to infections.
+* **Misdiagnosis:**  Sometimes, symptoms can be similar to other conditions, leading to a misdiagnosis.
 **What to Do:**
-1. **Consider the Symptoms:**  What are your symptoms? Are they consistent with a common cold, flu, or something else? 
-2. **Isolate:**  If you're feeling unwell, it's best to isolate yourself from others in the house to prevent further spread.
-3. **Hygiene:**  Practice good hygiene, including frequent handwashing, covering coughs and sneezes, and avoiding touching your face.
-4. **Rest:**  Give your body time to recover by getting plenty of rest.
-5. **Hydration:**  Drink plenty of fluids to stay hydrated.
-6. **Monitor Symptoms:**  Keep an eye on your symptoms and seek medical attention if they worsen or you develop new symptoms.
-**Important Note:**  I am an AI and cannot provide medical advice. If you are concerned about your health, please consult a medical professional. 
-**Additional Information:**
-* **Common Viruses:**  The common cold, influenza (flu), COVID-19, and other respiratory viruses are all possible culprits.
-* **Prevention:**  Vaccination, handwashing, and avoiding close contact with sick individuals are effective ways to prevent the spread of viruses. 
-* **Testing:**  If you are concerned about your symptoms, a doctor can order a test to determine the cause of your illness. 
-Remember, it's important to take care of yourself and follow the advice of your healthcare provider. 
+1. **Monitor Your Symptoms:**  Pay close attention to your symptoms and how they change over time. 
+2. **Isolate Yourself:**  If you're feeling unwell, it's best to isolate yourself from others in the house to prevent the spread of the virus.
+3. **Practice Good Hygiene:**  Wash your hands frequently with soap and water for at least 20 seconds. Avoid touching your face, especially your eyes, nose, and mouth.
+4. **Clean and Disinfect:**  Clean and disinfect frequently touched surfaces, such as doorknobs, light switches, and countertops.
+5. **Stay Hydrated:**  Drink plenty of fluids to help your body fight the infection.
+6. **Rest:**  Get plenty of rest to help your body recover.
+7. **Contact Your Doctor:**  If your symptoms are severe or don't improve after a few days, it's important to contact your doctor. They can help determine the cause of your illness and recommend the best course of treatment.
+**Important Note:**  I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4301,41 +4290,35 @@
       <c r="G59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a common question!  Canker sores and herpes simplex virus (HSV) infections can be tricky to differentiate, as they both cause painful, red sores.  Here's a breakdown to help you understand the key differences:
+Ah, a common question! Canker sores and herpes simplex virus (HSV) infections can be tricky to differentiate, as they both cause painful, red sores.  Here's a breakdown to help you understand the key differences:
 **Canker Sores (Aphthous Ulcers)**
 * **Appearance:** Small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
 * **Cause:**  The exact cause is unknown, but they are thought to be triggered by stress, injury, or an overactive immune system.
-* **Duration:**  Typically last 7-14 days, but can sometimes persist longer.
+* **Duration:**  They typically last 7-14 days, but can sometimes persist longer.
 * **Pain:**  Moderate to severe pain, often described as burning or stinging.
 * **Location:**  Most commonly found inside the mouth, but can appear on the lips.
-* **Appearance:**  Typically round, shallow ulcers with a white or yellow center and red borders.
+* **Appearance:**  They are typically small, round, shallow ulcers with a white or yellow center and red borders. They are typically found inside the mouth, but can sometimes appear on the lips.
 **Herpes Simplex Virus (HSV)**
-* **Appearance:**  Small, fluid-filled blisters that eventually rupture, forming painful sores. These sores are often clustered together and can be found on the lips, mouth, or genitals.
+* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
 * **Cause:**  A viral infection caused by the herpes simplex virus.
-* **Duration:**  The sores typically last 2-3 weeks, but can sometimes persist longer.
+* **Duration:**  The blisters can last 2-3 days, but the virus can remain dormant in the body for years.
 * **Pain:**  Severe pain, often described as burning or stinging.
-* **Location:**  Most commonly found on the lips, but can also appear on the genitals, buttocks, or other areas of the body.
-* **Appearance:**  Small, fluid-filled blisters that eventually rupture, forming painful sores. These sores are often clustered together and can be found on the lips, mouth, or genitals.
-**Key Differences:**
-* **Appearance:** Canker sores are shallow, round ulcers with a white or yellow center, while herpes sores are fluid-filled blisters that eventually rupture.
-* **Location:** Canker sores are typically found inside the mouth, while herpes sores can appear on the lips, mouth, genitals, or other areas of the body.
-* **Duration:** Canker sores typically last 7-14 days, while herpes sores can last 2-3 weeks.
-* **Pain:** Canker sores can be painful, but herpes sores are often more severe and can be accompanied by fever and swollen lymph nodes.
-* **Triggers:** Canker sores are thought to be triggered by stress, injury, or an overactive immune system, while herpes is caused by a virus.
-**Important Notes:**
-* **Self-diagnosis is not recommended.** If you are concerned about a sore in your mouth, it is best to consult a doctor for a proper diagnosis.
-* **Treatment varies.** Canker sores are usually treated with over-the-counter pain relievers and mouthwashes. Herpes is treated with antiviral medications.
-* **Prevention is key.**  Good oral hygiene, stress management, and avoiding triggers can help prevent both canker sores and herpes outbreaks.
-**When to See a Doctor:**
-* If you have a sore that is not healing or is getting worse.
-* If you have a sore that is accompanied by fever, swollen lymph nodes, or other symptoms.
-* If you are concerned about the cause of your sore.
-Remember, I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Always consult a doctor for any health concerns. 
+* **Location:**  Most commonly found on the lips, but can also appear on other parts of the body.
+* **Appearance:**  Small, fluid-filled blisters that can become painful ulcers. They are typically found on the lips, but can also appear on other parts of the body, like the genitals, buttocks, or thighs.
+**How to Differentiate:**
+* **Location:** Canker sores are primarily found inside the mouth, while herpes sores can appear on the lips, genitals, or other areas of the body.
+* **Appearance:** Canker sores have a white or yellow center surrounded by a red border, while herpes sores have fluid-filled blisters that can become ulcers.
+* **Duration:** Canker sores typically last 7-14 days, while herpes outbreaks can last for several days or weeks.
+* **Pain:** Canker sores are usually more painful than herpes sores.
+* **Triggers:** Canker sores are often triggered by stress, injury, or an overactive immune system, while herpes outbreaks are triggered by stress, illness, or sun exposure.
+**Important Note:**
+It's crucial to remember that I am not a medical professional. This information is for general knowledge only and should not be used for self-diagnosis or treatment. If you are concerned about a sore in your mouth, please consult a doctor or other healthcare provider for a proper diagnosis and treatment plan. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4413,10 +4396,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4457,8 +4440,8 @@
           <t xml:space="preserve">
 Ah, post-nasal drip. A common ailment that can be quite bothersome.  Let's delve into the ways to prevent it. 
 **Understanding the Culprit:**
-Post-nasal drip occurs when excess mucus drips down the back of your throat, causing a persistent feeling of a tickle or a cough.  It's often caused by:
-* **Allergies:**  Pollen, dust mites, pet dander, and mold can trigger your body to produce excessive mucus.
+Post-nasal drip occurs when excess mucus drips down the back of your throat, causing irritation and discomfort.  It's often caused by:
+* **Allergies:**  Pollen, dust mites, pet dander, and mold can trigger your immune system to produce excessive mucus.
 * **Infections:**  Viral infections like the common cold or flu, as well as bacterial infections like sinusitis, can cause inflammation and increased mucus production.
 * **Irritants:** Smoke, pollution, and even dry air can irritate your nasal passages and lead to excess mucus.
 * **Medications:** Some medications, like decongestants, can actually increase mucus production in the long run.
@@ -4466,35 +4449,34 @@
 1. **Identify and Manage Allergies:**
     * **Allergy Testing:**  If you suspect allergies, consult an allergist for testing and treatment.
     * **Avoid Triggers:**  Identify and minimize exposure to your allergens. This might involve using air purifiers, keeping windows closed, and avoiding certain foods.
-    * **Medications:** Antihistamines, nasal corticosteroids, and decongestants can help manage allergy symptoms.
+    * **Medications:**  Antihistamines, nasal corticosteroids, and decongestants can help manage allergy symptoms.
 2. **Combat Infections:**
-    * **Hygiene:**  Wash your hands frequently, especially after being in public places.
+    * **Hygiene:**  Wash your hands frequently and avoid touching your face.
     * **Rest:**  Give your body time to recover from colds and flu.
-    * **Hydration:**  Drink plenty of fluids to thin mucus and help it drain.
-    * **Over-the-Counter Relief:**  Saline nasal sprays and decongestants can provide temporary relief.
+    * **Over-the-Counter Relief:**  Use saline nasal sprays or decongestants to help clear your nasal passages.
 3. **Manage Irritants:**
     * **Humidifier:**  Use a humidifier to add moisture to the air, especially during dry winter months.
     * **Avoid Smoke:**  Stay away from smoke and other irritants.
-    * **Air Quality:**  Consider air purifiers to remove pollutants from the air.
+    * **Air Quality:**  Monitor air quality and avoid areas with high pollution levels.
 4. **Lifestyle Changes:**
-    * **Healthy Diet:**  A balanced diet rich in fruits, vegetables, and whole grains can support your immune system.
-    * **Exercise:**  Regular physical activity can boost your immune system and reduce stress.
-    * **Stress Management:**  Stress can weaken your immune system, so find healthy ways to manage stress, such as meditation or yoga.
+    * **Hydration:**  Drink plenty of fluids, especially water, to thin mucus and help it drain.
+    * **Healthy Diet:**  Eat a balanced diet rich in fruits, vegetables, and whole grains.
+    * **Exercise:**  Regular physical activity can help boost your immune system.
 5. **Consider Medications:**
-    * **Decongestants:**  Short-term use of decongestants can help relieve nasal congestion.
-    * **Antihistamines:**  These can help reduce allergy symptoms.
-    * **Nasal Corticosteroids:**  These can help reduce inflammation and mucus production.
+    * **Decongestants:**  Short-term use of decongestants can help relieve congestion.
+    * **Antihistamines:**  Can help reduce allergy symptoms.
+    * **Nasal Corticosteroids:**  Long-term use can help reduce inflammation and mucus production.
 **Important Note:**
 It's crucial to consult a doctor if your post-nasal drip is persistent, severe, or accompanied by other symptoms like fever, facial pain, or difficulty breathing. They can help determine the underlying cause and recommend the most appropriate treatment.
-Remember, prevention is key! By understanding the causes of post-nasal drip and taking proactive steps, you can significantly reduce its occurrence and improve your overall comfort. 
+Remember, prevention is key! By understanding the causes and taking proactive steps, you can significantly reduce the likelihood of experiencing post-nasal drip. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4535,36 +4517,40 @@
       <c r="G62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, otitis externa, commonly known as swimmer's ear. It's a painful condition that affects the outer ear canal.  Let's delve into its causes:
-**The Usual Suspects:**
-* **Water Trapping:**  The primary culprit is water trapped in the ear canal. This can happen after swimming, showering, or even prolonged exposure to moisture.  
-* **Bacteria:**  The warm, moist environment in the ear canal provides a perfect breeding ground for bacteria, particularly *Pseudomonas aeruginosa* and *Staphylococcus aureus*.
-* **Foreign Objects:**  Small objects like ear buds, cotton swabs, or even hair can get lodged in the ear canal, creating a perfect environment for bacteria to multiply.
-* **Skin Conditions:**  Conditions like eczema or psoriasis can make the skin in the ear canal more susceptible to infection.
-* **Immune System:**  A weakened immune system can make you more prone to infections, including otitis externa.
-**How It Happens:**
-1. **Entry:**  Water, bacteria, or other irritants enter the ear canal.
-2. **Inflammation:**  The body's immune system responds to the irritant, causing inflammation and swelling in the ear canal.
-3. **Pain and Discharge:**  The inflammation causes pain, itching, and a discharge of fluid or pus from the ear.
-4. **Infection:**  If the infection is left untreated, it can spread deeper into the ear, leading to more serious complications.
+Ah, otitis externa, or swimmer's ear. It's a common condition, especially for those who spend time in water. Let me explain how it develops:
+**The Culprit: Bacteria**
+At its core, otitis externa is an infection of the outer ear canal. The culprit is usually bacteria, but sometimes fungi or yeast can also be involved. 
+**The Pathway to Infection**
+1. **Water Trapping:**  The most common cause is water trapped in the ear canal. This can happen after swimming, showering, or even just wearing earplugs for extended periods. 
+2. **Moist Environment:**  The warm, moist environment created by water provides a perfect breeding ground for bacteria. 
+3. **Ear Canal Damage:**  The canal itself can be damaged by things like:
+    * **Foreign objects:**  Small objects like cotton swabs, earplugs, or even hair can push debris into the canal and irritate the skin.
+    * **Excessive ear cleaning:**  While it's tempting to clean the ear, it's important to do so gently and avoid pushing anything into the canal.
+    * **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
+4. **Immune Response:**  When bacteria enter the ear canal, the body's immune system kicks in. This can lead to inflammation and swelling, which can cause pain and discomfort.
 **Risk Factors:**
 * **Swimming:**  Swimming is a major risk factor, especially in chlorinated pools or lakes.
-* **Earwax:**  Excessive earwax can block the ear canal, trapping water and bacteria.
+* **Earwax:**  Excessive earwax can block the canal and trap water.
 * **Age:**  Infants and young children are more susceptible to otitis externa.
-* **Diabetes:**  People with diabetes have a higher risk of developing infections.
-* **Weakened Immune System:**  People with compromised immune systems are more vulnerable to infections.
+* **Diabetes:**  People with diabetes may have a weakened immune system, making them more prone to infection.
+* **Skin conditions:**  Conditions like eczema or psoriasis can make the skin more susceptible to infection.
 **Prevention is Key:**
-* **Dry Your Ears:**  After swimming or showering, dry your ears thoroughly with a towel.
-* **Avoid Cotton Swabs:**  Never insert cotton swabs into your ear canal.
-* **Cleanse the Ear Canal:**  Use a mild, over-the-counter ear wash solution to clean the ear canal.
-* **Avoid Irritants:**  Avoid using harsh soaps or lotions near the ear canal.
-* **Consult a Doctor:**  If you experience any symptoms of otitis externa, consult a doctor immediately.
-Remember, early diagnosis and treatment are crucial to prevent complications.  If you have any concerns, please don't hesitate to seek medical advice. 
+* **Dry your ears thoroughly:**  After swimming or showering, dry your ears completely with a towel.
+* **Avoid cotton swabs:**  They can push debris deeper into the canal and irritate the skin.
+* **Use earplugs:**  If you're swimming, use earplugs to keep water out of your ears.
+* **Keep your ears clean:**  Gently clean the outer ear with a damp cloth, but avoid inserting anything into the canal.
+* **Manage underlying conditions:**  If you have diabetes or other conditions that weaken your immune system, talk to your doctor about ways to prevent infection.
+**When to See a Doctor:**
+* **Severe pain:**  If the pain is intense or doesn't improve with home care.
+* **Fever:**  A fever can indicate a more serious infection.
+* **Discharge:**  A discharge from the ear can be a sign of infection.
+* **Hearing loss:**  If you experience any hearing loss, see a doctor immediately.
+Remember, early diagnosis and treatment are crucial for preventing complications. Don't hesitate to seek medical advice if you suspect you have otitis externa. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4602,33 +4588,38 @@
       <c r="G63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, a question that delves into the fascinating world of heart health!  Let me explain the difference between heart rate and heart rate variability (HRV) in a way that's easy to understand.
-**Heart Rate:**
-* **What it is:**  Simply put, heart rate is the number of times your heart beats per minute. It's a basic measure of your heart's activity.
-* **How it's measured:**  A doctor can measure your heart rate using a stethoscope or a heart monitor.
-* **What it tells us:**  Your heart rate can be influenced by many factors, including your age, fitness level, stress, and medications. It can be a good indicator of your overall health, but it doesn't tell the whole story.
+Ah, a question that delves into the fascinating world of our cardiovascular rhythms!  Let me explain the difference between heart rate and heart rate variability (HRV) in a way that's both clear and insightful.
+**Heart Rate (HR):**
+* **Simply put:**  It's the number of times your heart beats per minute. 
+* **Measurement:**  It's usually measured by a pulse oximeter, a stethoscope, or a heart rate monitor.
+* **Factors:**  It's influenced by many things, including:
+    * **Age:**  Generally, HR tends to increase with age.
+    * **Fitness Level:**  Athletes tend to have lower resting HR.
+    * **Stress:**  Stress can elevate HR.
+    * **Medications:**  Some medications can affect HR.
+    * **Medical Conditions:**  Certain conditions can cause irregular heart rhythms.
 **Heart Rate Variability (HRV):**
-* **What it is:**  HRV is a measure of the variation in time between your heartbeats. It's like a snapshot of your heart's rhythm, showing how flexible and responsive it is.
-* **How it's measured:**  HRV is calculated using a heart monitor that records your heart's electrical activity over time.
-* **What it tells us:**  HRV is a more complex and nuanced measure of your heart's health. It reflects your body's ability to adapt to changing conditions, like stress, exercise, and sleep. 
-**Here's the key difference:**
-* **Heart rate** is a single number, like a snapshot of your heart's activity at a specific moment.
-* **HRV** is a dynamic measure, showing how your heart beats change over time. It's like a movie of your heart's rhythm, revealing its flexibility and responsiveness.
-**Why is HRV important?**
-* **Stress and recovery:**  Higher HRV generally indicates better stress management and recovery from physical or emotional stress.
-* **Overall health:**  Low HRV can be associated with various health issues, including cardiovascular disease, sleep disorders, and even mental health conditions.
-* **Personalized medicine:**  HRV is becoming increasingly important in personalized medicine, as it can help doctors tailor treatment plans to individual needs.
-**Think of it this way:**
-* **Heart rate** is like the speed of a car.
-* **HRV** is like the car's ability to accelerate and brake smoothly.
-**In conclusion:**
-While heart rate is a valuable indicator of your heart's activity, HRV provides a more comprehensive picture of your heart's health and its ability to adapt to various conditions.  It's a valuable tool for understanding your overall well-being and can help you make informed decisions about your health. 
-Let me know if you have any other questions! 
+* **A more nuanced concept:**  HRV is a measure of the variation in time between each heartbeat. 
+* **Think of it like this:**  Imagine your heart is a metronome, and HRV is how much the tempo fluctuates.
+* **Measurement:**  HRV is typically measured using a device that records your heart's electrical activity.
+* **Key Points:**
+    * **Higher HRV:**  Indicates a more resilient and adaptable heart. It suggests a healthy balance between the sympathetic (fight-or-flight) and parasympathetic (rest-and-digest) nervous systems.
+    * **Lower HRV:**  Suggests a less adaptable heart, potentially indicating stress, fatigue, or illness.
+**The Connection:**
+HRV is a valuable indicator of your overall cardiovascular health.  While HR is a simple measure of your heart's activity, HRV provides a more nuanced picture of how your heart responds to different stimuli.
+**Why is HRV Important?**
+* **Stress and Recovery:**  HRV can help us understand how our bodies cope with stress.  A low HRV can be a sign of chronic stress, while a high HRV can indicate a healthy stress response.
+* **Sleep Quality:**  HRV is often linked to sleep quality.  A good HRV at night suggests restful sleep.
+* **Disease Prediction:**  Studies have shown that low HRV can be an early indicator of cardiovascular disease, even before symptoms appear.
+* **Performance:**  Athletes use HRV to monitor training and recovery.
+**In Summary:**
+Think of HR as the number of beats, and HRV as the rhythm and flexibility of those beats.  HRV is a more complex and dynamic measure of your heart's health, offering valuable insights into your overall well-being.
+Let me know if you have any further questions. I'm always happy to delve deeper into the fascinating world of human physiology! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4704,7 +4695,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4742,37 +4733,41 @@
       <c r="G65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question about two medications that are both used to manage type 2 diabetes and weight loss.  Let's break down the key differences between Saxenda and Ozempic:
+You're asking a great question about two medications that are both used to manage type 2 diabetes, but have different mechanisms and potential benefits. 
+Here's a breakdown of how Saxenda and Ozempic differ:
 **Saxenda (liraglutide)**
-* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics a naturally occurring hormone in the body called glucagon-like peptide-1 (GLP-1). GLP-1 helps regulate blood sugar levels and promotes feelings of fullness.
-* **Administration:** Saxenda is administered as a weekly injection.
-* **Primary Use:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related comorbidity, such as high blood pressure, high cholesterol, or type 2 diabetes.
-* **Benefits:** Saxenda can help with weight loss, improve blood sugar control, and reduce the risk of cardiovascular events.
-* **Side Effects:** Common side effects include nausea, vomiting, diarrhea, constipation, and abdominal pain.
+* **Mechanism:** Saxenda is a GLP-1 receptor agonist. This means it mimics a naturally occurring hormone called glucagon-like peptide-1 (GLP-1) that helps regulate blood sugar levels.  
+* **Primary Use:** Saxenda is primarily used for weight management in adults with obesity or overweight with at least one weight-related comorbidity, like high blood pressure, high cholesterol, or type 2 diabetes.
+* **Benefits:**
+    * **Weight Loss:** Saxenda can help people lose weight by reducing appetite and increasing feelings of fullness.
+    * **Blood Sugar Control:** Saxenda can improve blood sugar control in people with type 2 diabetes.
+    * **Cardiovascular Benefits:** Saxenda may also help lower blood pressure and cholesterol, reducing the risk of heart disease.
+* **Side Effects:**  Common side effects include nausea, vomiting, diarrhea, constipation, and abdominal pain. 
 **Ozempic (semaglutide)**
-* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, similar to Saxenda.
-* **Administration:** Ozempic is administered as a weekly injection.
-* **Primary Use:** Ozempic is approved for the treatment of type 2 diabetes. It is also used for weight management in adults with obesity or overweight with at least one weight-related comorbidity.
-* **Benefits:** Ozempic can help with blood sugar control, weight loss, and reducing the risk of cardiovascular events.
-* **Side Effects:**  Ozempic can cause similar side effects to Saxenda, including nausea, vomiting, diarrhea, constipation, and abdominal pain.  It can also cause thyroid tumors in rare cases.
+* **Mechanism:** Ozempic is also a GLP-1 receptor agonist, but it's a slightly different version of the molecule. 
+* **Primary Use:** Ozempic is primarily used for type 2 diabetes. It's approved for use in adults with type 2 diabetes who have at least one other risk factor for cardiovascular disease.
+* **Benefits:**
+    * **Blood Sugar Control:** Ozempic is highly effective in lowering blood sugar levels in people with type 2 diabetes.
+    * **Weight Loss:** Ozempic can also help people lose weight, although its primary use is for diabetes management.
+* **Side Effects:**  Ozempic can cause similar side effects to Saxenda, including nausea, vomiting, diarrhea, constipation, and abdominal pain. It can also cause thyroid tumors in rare cases.
 **Key Differences:**
-* **Primary Use:** While both are used for weight management and type 2 diabetes, Ozempic is specifically approved for type 2 diabetes, while Saxenda is approved for both weight management and type 2 diabetes.
-* **Dosage:** Ozempic is available in a higher dose than Saxenda.
+* **Primary Use:** Saxenda is primarily for weight management, while Ozempic is primarily for type 2 diabetes.
+* **Dosage:** Saxenda is typically administered once daily, while Ozempic is administered once weekly.
 * **Cost:** Ozempic is generally more expensive than Saxenda.
 **Important Considerations:**
-* **Individualized Treatment:** The best medication for you will depend on your individual medical history, current health status, and preferences. 
-* **Consultation with a Doctor:** It's crucial to discuss your options with a healthcare professional. They can assess your needs, consider potential risks and benefits, and determine the most appropriate medication for you.
-* **Monitoring:** Both medications require regular monitoring by your doctor to ensure they are working effectively and to manage any side effects.
+* **Individualized Treatment:** The best medication for you will depend on your individual needs and medical history. 
+* **Consultation with a Doctor:** It's crucial to discuss your medical history and any potential risks and benefits with your doctor before starting any new medication.
+* **Monitoring:** Both medications require regular monitoring of blood sugar levels and other health markers.
 **In Summary:**
-Both Saxenda and Ozempic are effective medications for managing type 2 diabetes and weight loss.  The choice between them depends on your individual needs and preferences.  Always consult with your doctor to determine the best treatment plan for you. 
+Both Saxenda and Ozempic are effective medications for managing type 2 diabetes and weight.  The choice between the two depends on your individual needs and medical history.  Always consult with your doctor to determine the best treatment option for you. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4817,22 +4812,24 @@
           <t xml:space="preserve">
 I understand you're wondering about the timing between ibuprofen and naproxen.  While I can provide general information, I am not a medical professional and cannot give medical advice. 
 **Here's what I can tell you:**
-* **NSAIDs and Drug Interactions:** Both ibuprofen and naproxen are non-steroidal anti-inflammatory drugs (NSAIDs) that work by reducing inflammation and pain. They can sometimes interact with each other, potentially leading to side effects like stomach upset, ulcers, or bleeding. 
-* **Timing is Important:**  The general recommendation is to **wait at least 4 hours** between taking ibuprofen and naproxen. This allows your body to process the first dose and reduces the risk of potential interactions. 
-* **Individual Factors:**  However, the exact timing may vary depending on individual factors like:
-    * **Dosage:** Higher doses of either medication may require a longer wait.
-    * **Health Conditions:**  Pre-existing conditions like ulcers or bleeding disorders may require even more careful timing.
-    * **Other Medications:**  You should always consult your doctor or pharmacist about potential interactions with other medications you are taking.
-**What to do:**
-* **Consult Your Doctor or Pharmacist:** The best course of action is to speak with your doctor or pharmacist. They can assess your individual situation, consider your medical history, and provide personalized advice on the appropriate timing for taking naproxen after ibuprofen. 
-* **Read Medication Labels:** Always carefully read the labels on your medications and follow the recommended dosage instructions. 
-* **Be Aware of Side Effects:**  Be aware of any potential side effects and contact your doctor immediately if you experience any unusual symptoms.
-Remember, your health is paramount. Always seek professional medical advice for personalized guidance. 
+* **Naproxen and ibuprofen are both NSAIDs (non-steroidal anti-inflammatory drugs).** They work by reducing pain and inflammation, but they can have similar side effects.
+* **Taking NSAIDs together can increase the risk of side effects.** This is because they both inhibit the production of prostaglandins, which are chemicals involved in inflammation and pain.
+* **The exact time to wait between ibuprofen and naproxen depends on the individual and the specific medications.** 
+* **It's best to consult with your doctor or pharmacist.** They can provide personalized advice based on your medical history, current medications, and individual needs.
+**Here are some general guidelines:**
+* **The general recommendation is to wait at least 4 hours between taking ibuprofen and naproxen.** This allows enough time for the first medication to be metabolized and for the body to clear it.
+* **However, this is just a general guideline.** Your doctor or pharmacist may recommend a different waiting period based on your specific situation.
+* **Always follow the instructions on the medication labels.**
+**Remember:**
+* **Never take more than the recommended dose of any medication.**
+* **If you experience any side effects, stop taking the medication and contact your doctor immediately.**
+* **It's important to discuss any concerns about medication interactions with your healthcare provider.**
+**Please schedule an appointment with your doctor or pharmacist to get personalized advice about your specific situation.** 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -4872,24 +4869,29 @@
       <c r="G67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, shin splints. A common ailment that can be quite frustrating.  
-Here's the breakdown of how long shin splints typically last:
-**Generally, shin splints can last anywhere from a few weeks to several months.** 
-**Factors that influence duration:**
-* **Severity:** Mild shin splints might resolve within a couple of weeks with rest and appropriate treatment. More severe cases, however, might take longer to heal.
-* **Underlying cause:**  If the shin splints are caused by overuse, they'll likely resolve faster than those stemming from a stress fracture or other underlying medical condition.
-* **Treatment:**  Following a doctor's advice, including rest, ice, compression, elevation (RICE), and potentially physical therapy, can significantly speed up the healing process.
-* **Individual healing rate:**  Everyone heals at their own pace. Some people recover faster than others.
+Ah, shin splints. A common ailment that can be quite frustrating.  Let's delve into the duration of these painful woes.
+**Shin splints, or medial tibial stress syndrome (MTSS), typically last between 4 to 8 weeks.**  However, it's important to remember that this is a general timeframe, and the actual duration can vary significantly depending on several factors:
+**Factors Affecting Recovery Time:**
+* **Severity of the injury:** Mild cases may resolve within a few weeks, while more severe cases may require longer recovery.
+* **Individual healing rate:** Everyone heals at a different pace. Some people recover faster than others.
+* **Underlying conditions:** Existing medical conditions like diabetes or arthritis can affect healing time.
+* **Treatment adherence:** Following your doctor's instructions and engaging in the prescribed rehabilitation program is crucial for a faster recovery.
+* **Activity level:**  The intensity and frequency of your activity can influence healing. 
+**Signs of Improvement:**
+* **Reduced pain:**  As the inflammation subsides, you'll likely experience less pain when walking or running.
+* **Improved range of motion:**  You'll be able to move your ankle and foot more freely.
+* **Increased strength:**  Your calf muscles and shin muscles will gradually regain strength.
 **Important Notes:**
-* **Don't ignore the pain:**  Shin splints can be quite painful, and ignoring them can lead to further complications. 
-* **Seek professional advice:**  If your shin splints are persistent or severe, it's crucial to consult a doctor or physical therapist. They can diagnose the cause and recommend the most appropriate treatment plan.
-* **Prevention is key:**  To avoid shin splints in the future, focus on proper warm-up, gradual exercise progression, and adequate rest.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. 
+* **Don't push yourself too hard too soon:**  It's tempting to jump back into your usual activities, but it's crucial to gradually increase your activity level to avoid re-injury.
+* **Listen to your body:**  If you experience any pain or discomfort, stop and rest.
+* **Consult your doctor:**  If your shin splints don't improve after a few weeks or if you experience any unusual symptoms, seek medical advice.
+Remember, patience is key.  Shin splints are a common injury, and with proper care and rehabilitation, you'll be back to your usual activities in no time. 
+Let me know if you have any other questions. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -4931,18 +4933,30 @@
       <c r="G68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's great that you're interested in understanding how Wellbutrin works and its potential effects.  
-**Here's what I can tell you about the timeline for noticing Wellbutrin's effects:**
-* **It can take several weeks to see noticeable changes.**  Wellbutrin (bupropion) is a medication that helps manage depression and seasonal affective disorder (SAD). It works by affecting the levels of certain chemicals in the brain. 
-* **Early signs of improvement may be subtle.** You might experience a slight increase in energy, motivation, or mood. These changes can be difficult to pinpoint and may not be dramatic.
-* **Consistency is key.**  It's crucial to take Wellbutrin as prescribed and consistently for several weeks to allow the medication to build up in your system and reach its full potential. 
-* **Individual responses vary.**  Everyone responds differently to medications. Some people may experience noticeable effects within a few days, while others may take several weeks or even months to see significant improvements. 
-* **Don't give up too soon.**  It's important to be patient and continue taking Wellbutrin as directed, even if you don't see immediate results. 
+It's great that you're interested in understanding how Wellbutrin works and its effects.  
+As a wise doctor, I can tell you that the timeline for noticing the effects of Wellbutrin (bupropion) can vary significantly from person to person. It's important to remember that everyone responds differently to medications, and there's no one-size-fits-all answer. 
+Here's a general overview of what you might expect:
+**Initial Effects (1-2 Weeks):**
+* **Mood Elevation:** You might start to feel a bit more energetic and less depressed. This is often the first noticeable change.
+* **Reduced Anhedonia:**  You might find yourself experiencing a renewed interest in activities you used to enjoy.
+* **Improved Focus:**  You might notice an increase in concentration and mental clarity.
+**Full Effects (4-8 Weeks):**
+* **Significant Mood Improvement:**  You may experience a more substantial reduction in depressive symptoms, including feelings of sadness, hopelessness, and fatigue.
+* **Increased Motivation:**  You might find yourself feeling more motivated to engage in daily activities and pursue goals.
+* **Improved Sleep:**  You might experience better sleep patterns and fewer sleep disturbances.
+**Long-Term Effects (Ongoing):**
+* **Sustained Mood Elevation:**  The effects of Wellbutrin can continue to improve over time, leading to a more stable and positive mood.
+* **Reduced Risk of Relapse:**  Wellbutrin can help reduce the likelihood of experiencing depressive episodes in the future.
 **Important Considerations:**
-* **Talk to your doctor.**  It's essential to discuss your expectations and any concerns you have with your doctor. They can help you understand the potential benefits and risks of Wellbutrin and provide personalized guidance.
-* **Don't self-medicate.**  Wellbutrin is a prescription medication, and it's crucial to follow your doctor's instructions carefully. 
-* **Be aware of potential side effects.**  Wellbutrin can cause side effects, such as nausea, dry mouth, insomnia, and headaches. If you experience any of these side effects, talk to your doctor.
-**Remember:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+* **Individual Variability:**  The time it takes to notice the effects of Wellbutrin can vary greatly. Some people may experience noticeable improvements within a few days, while others may take several weeks.
+* **Dosage and Treatment Plan:**  The dosage of Wellbutrin and the overall treatment plan can influence the speed of effects. Your doctor will tailor your treatment to your specific needs.
+* **Underlying Conditions:**  The presence of other medical conditions or medications can affect how Wellbutrin works.
+* **Consistency and Follow-Up:**  It's crucial to take Wellbutrin consistently as prescribed and to follow up with your doctor regularly to monitor your progress and adjust your treatment plan if needed.
+**Remember:**
+* **Don't Stop Taking Wellbutrin Without Talking to Your Doctor:**  Abruptly stopping Wellbutrin can lead to withdrawal symptoms and potentially worsen your symptoms.
+* **Be Patient and Persistent:**  It may take time to experience the full benefits of Wellbutrin. Don't get discouraged if you don't see immediate results.
+* **Seek Professional Help:**  If you're struggling with depression or other mental health concerns, please reach out to a qualified healthcare professional for diagnosis and treatment.
+I hope this information is helpful.  Remember, I am an AI and cannot provide medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -4992,25 +5006,26 @@
 However, it's important to remember that this is just an average.  The actual length of your flu can vary depending on several factors:
 * **Severity of the infection:** A mild case might clear up in a few days, while a severe case could linger for weeks.
 * **Individual immune response:** Some people recover faster than others due to their immune system's strength.
-* **Underlying health conditions:** People with pre-existing conditions like asthma or heart disease may experience a longer recovery.
+* **Underlying health conditions:** People with weakened immune systems or chronic illnesses may experience a longer recovery.
 * **Age:** Children and older adults tend to have longer flu symptoms.
 **Here's a breakdown of what to expect:**
-* **First 2-3 days:**  You'll likely experience the most intense symptoms like fever, chills, cough, sore throat, muscle aches, and fatigue.
-* **Days 3-5:**  Symptoms may start to improve, but you might still feel tired and have a cough.
-* **Days 5-10:**  Most symptoms should be gone, but you may still have some lingering fatigue.
+* **Symptoms:** You'll likely experience fever, chills, cough, sore throat, muscle aches, fatigue, and headache. These symptoms usually peak within 1-4 days of infection.
+* **Recovery:**  Most people start feeling better within 7-10 days, but it can take longer for some.
+* **Complications:**  In some cases, the flu can lead to complications like pneumonia, bronchitis, or ear infections. These complications can extend the recovery period.
 **Important Notes:**
-* **Don't underestimate the flu:** Even if you feel better, it's crucial to rest and stay hydrated.
-* **Complications can occur:**  The flu can lead to complications like pneumonia, bronchitis, or ear infections. If you experience difficulty breathing, chest pain, or high fever, seek medical attention immediately.
-* **Prevention is key:**  Getting vaccinated annually is the best way to protect yourself from the flu.
-Remember, I'm just an AI. If you have any concerns about your health or the duration of your flu symptoms, please consult a medical professional. They can provide personalized advice and treatment. 
+* **Don't self-diagnose:** If you suspect you have the flu, it's crucial to consult a doctor for proper diagnosis and treatment.
+* **Rest and fluids:**  Give your body the time it needs to recover by getting plenty of rest and staying hydrated.
+* **Over-the-counter medications:**  Over-the-counter medications can help manage symptoms like fever and aches.
+* **Vaccination:**  Getting the annual flu vaccine is the best way to prevent the flu and its complications.
+Remember, I'm just an AI, and this information is not a substitute for professional medical advice. Always consult your doctor for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5049,20 +5064,21 @@
 **However, I must emphasize that I am not a medical professional and cannot give medical advice.**  
 The best person to answer your question about Saxenda dosage changes is your doctor. They know your individual medical history, current weight, and other factors that influence your treatment. 
 That said, I can provide some general information about Saxenda and dosage adjustments:
-* **Saxenda is a prescription medication:** It's used to help people with obesity lose weight and keep it off. 
-* **Dosage increases are gradual:**  Your doctor will likely start you on a lower dose and gradually increase it as needed, based on your progress and response to the medication. 
-* **Monitoring is crucial:** Your doctor will monitor your weight and other health markers to ensure the medication is working safely and effectively for you. 
-* **Individualized treatment:** There is no one-size-fits-all approach to Saxenda dosage. Your doctor will tailor your treatment plan to your specific needs.
-**Here's what you should do:**
-1. **Schedule an appointment with your doctor:**  Discuss your interest in moving to a higher dose of Saxenda. 
-2. **Be prepared to discuss:** Your weight loss goals, your current weight, any side effects you're experiencing, and your overall health.
-3. **Follow your doctor's instructions:** They will provide the best guidance for your individual situation.
-Remember, your doctor is your best resource for information about your health and medication. 
+* **Saxenda (liraglutide) is a prescription medication used for weight management.** It's a GLP-1 receptor agonist, meaning it mimics a hormone that helps regulate appetite and blood sugar.
+* **Dosage is typically started at a low dose and gradually increased over time.** This is to allow your body to adjust and minimize potential side effects.
+* **The exact duration of the initial dose phase varies depending on individual response and medical guidance.** Your doctor will determine the appropriate timeline based on your progress and any side effects you experience.
+* **Commonly, Saxenda dosage increases are made after a period of consistent weight loss and stable blood sugar levels.** 
+* **It's crucial to follow your doctor's instructions carefully.** They will monitor your progress and adjust your dosage as needed.
+**Here's what you can do:**
+1. **Schedule an appointment with your doctor.** Discuss your weight loss goals and any concerns you have about Saxenda dosage.
+2. **Be prepared to discuss your weight loss journey.** This includes your diet, exercise routine, and any other medications you're taking.
+3. **Ask your doctor about the expected duration of the initial dose phase.** They can provide personalized guidance based on your individual needs.
+Remember, your doctor is your best resource for information about your Saxenda treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5105,19 +5121,19 @@
 I understand you're looking for information about ibuprofen dosage.  However, I am an AI and cannot give medical advice. 
 **It is crucial to consult with a healthcare professional for any questions regarding medication dosage.** 
 Here's why:
-* **Individual Needs:** The appropriate dosage of ibuprofen varies depending on factors like your age, weight, the severity of your pain, and any other medical conditions you may have. 
-* **Potential Risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and liver damage. 
-* **Drug Interactions:** Ibuprofen can interact with other medications you may be taking. 
-**Instead of asking me, please reach out to a doctor or pharmacist.** They can provide personalized advice and ensure you take ibuprofen safely and effectively. 
-Remember, your health is paramount. Don't hesitate to seek professional medical guidance. 
+* **Individual Needs:** The appropriate dosage of ibuprofen varies greatly depending on factors like your age, weight, medical history, the severity of your pain, and other medications you're taking. 
+* **Potential Risks:** Taking too much ibuprofen can lead to serious side effects, including stomach ulcers, kidney problems, and even liver damage. 
+* **Drug Interactions:** Ibuprofen can interact with other medications, so it's important to discuss all your medications with your doctor.
+**Instead of asking me, please reach out to a doctor or pharmacist.** They can provide you with safe and personalized advice on ibuprofen dosage. 
+Remember, your health is paramount, and seeking professional medical guidance is always the best course of action. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5159,36 +5175,30 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about melatonin dosage.  While I can provide some general information, I must emphasize that **I am not a medical professional and cannot give medical advice.**  
-**It's crucial to consult with your doctor or a qualified healthcare provider before taking any supplements, including melatonin.** They can assess your individual needs, consider any potential interactions with other medications you're taking, and determine the appropriate dosage for you.
+**It's crucial to consult with your doctor or a qualified healthcare provider before taking any supplements, including melatonin.** They can assess your individual needs, consider potential interactions with other medications you might be taking, and determine the appropriate dosage for you.
 That being said, here's some general information about melatonin:
 * **Melatonin is a hormone naturally produced by your body.** It regulates your sleep-wake cycle (circadian rhythm).
-* **Melatonin supplements are available over-the-counter.** They are often used to help with sleep problems like insomnia.
-* **Typical recommended doses for adults range from 0.5 to 5 mg.** However, the optimal dosage can vary depending on individual factors.
-* **Factors that may influence dosage include:**
-    * **Age:** Children and older adults may require different dosages.
-    * **Sleep problems:** The severity of your sleep issues may influence the dosage.
-    * **Underlying health conditions:** Certain medical conditions may affect how your body responds to melatonin.
-    * **Other medications:** Some medications can interact with melatonin.
-**Potential side effects of melatonin include:**
-* **Drowsiness:** This is the most common side effect.
-* **Headache:** Some people experience headaches after taking melatonin.
-* **Nausea:** This is less common but can occur.
-* **Dizziness:** This can happen in some individuals.
-**Remember:**
-* **Start with a low dose and gradually increase it if needed.**
-* **Take melatonin at bedtime.**
-* **Avoid taking melatonin close to bedtime if you're taking other medications.**
-* **Be aware of potential interactions with other medications.**
-* **If you experience any side effects, stop taking melatonin and consult your doctor.**
-**Again, please consult with your doctor or a qualified healthcare provider before taking melatonin.** They can provide personalized advice and ensure your safety. 
+* **Melatonin supplements are available over-the-counter.** They are often marketed for improving sleep quality, but their effectiveness can vary.
+* **Typical recommended doses for adults range from 0.5 to 10 mg.** However, this can vary depending on the individual and the reason for taking melatonin.
+* **The optimal dosage for you will depend on factors like:**
+    * **Your age:** Children and older adults may require different dosages.
+    * **Your sleep problems:**  The severity of your sleep issues will influence the dosage.
+    * **Your individual response:** Some people may need higher or lower doses than others.
+* **Potential side effects:** Melatonin can cause drowsiness, headaches, dizziness, and nausea. 
+* **Long-term use:** The long-term effects of melatonin are not fully understood.
+**Here are some additional points to consider:**
+* **Melatonin is not a cure for sleep disorders.** It may help improve sleep quality, but it's not a substitute for addressing underlying sleep problems.
+* **Melatonin can interact with certain medications.**  It's important to inform your doctor about all medications you are taking.
+* **Melatonin can be affected by light exposure.**  Avoid taking melatonin close to bedtime if you are sensitive to light.
+**Remember, your doctor is your best resource for personalized advice about melatonin dosage.** They can help you determine if it's right for you and guide you on the appropriate dosage and usage. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -5231,31 +5241,25 @@
 * **Fibroids:** Non-cancerous growths in the uterus that can cause pain, especially during menstruation.
 * **Kidney Stones:** These can cause sharp, intense pain in the lower abdomen, often radiating to the back.
 * **Gastrointestinal Issues:** Conditions like irritable bowel syndrome (IBS), Crohn's disease, or ulcerative colitis can cause abdominal pain.
-* **Menstrual Cramps:** These are common and can cause pain in the lower abdomen, especially during menstruation.
+* **Urinary Tract Infection (UTI):** Pain in the lower abdomen can be a symptom of a UTI.
+**Important Notes:**
+* **Severity:** The severity of pain can vary from mild discomfort to severe, sharp pain.
+* **Location:** The pain may be localized to the right lower abdomen or radiate to other areas.
+* **Other Symptoms:**  You may experience other symptoms like fever, nausea, vomiting, diarrhea, constipation, or changes in bowel habits.
+* **Medical History:** Your medical history, including any previous surgeries, pregnancies, or family history of certain conditions, can be important.
 **What to Do:**
-* **See a Doctor:** It's crucial to see a doctor to get a proper diagnosis. They will ask about your symptoms, medical history, and perform a physical exam. 
-* **Describe Your Symptoms:** Be as detailed as possible about the pain, including:
-    * Location (right lower abdomen)
-    * Intensity (sharp, dull, cramping)
-    * Duration (constant, intermittent)
-    * Associated symptoms (fever, nausea, vomiting, diarrhea, constipation)
-* **Be Prepared:** Write down any questions you have for your doctor.
-**Important Notes:**
-* **Self-diagnosis is dangerous:**  Don't rely on online information for medical advice. 
-* **Seek immediate medical attention if:**
-    * You have severe pain, especially if it's sudden and sharp.
-    * You have fever, chills, or nausea.
-    * You have blood in your stool or urine.
-    * You have difficulty urinating.
-Remember, I'm here to provide general information, but a doctor is the only one who can provide a proper diagnosis and treatment plan. 
+* **See a Doctor:** It's crucial to see a doctor to get a proper diagnosis and treatment plan. 
+* **Describe Your Symptoms:** Be prepared to describe your pain in detail, including its location, intensity, duration, and any associated symptoms.
+* **Follow Medical Advice:**  Follow your doctor's instructions carefully and don't self-treat.
+Remember, I am not a medical professional. This information is for general knowledge only and should not be considered medical advice. Please consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5298,32 +5302,26 @@
 **ALT and Liver Health:**
 * **ALT's Role:** ALT is an enzyme primarily found in the liver. It helps break down amino acids, and its levels in the blood can indicate liver damage.
 * **Causes of Elevated ALT:**  Elevated ALT can be caused by a variety of factors, including:
-    * **Viral hepatitis:**  This is a common cause of elevated ALT, particularly hepatitis A, B, and C.
-    * **Alcohol abuse:** Excessive alcohol consumption can damage the liver and lead to elevated ALT.
-    * **Non-alcoholic fatty liver disease (NAFLD):** This condition is linked to obesity, diabetes, and high cholesterol, and can cause liver damage.
-    * **Other liver diseases:**  Conditions like cirrhosis, hepatitis, and certain cancers can also cause elevated ALT.
-    * **Medications:** Some medications can also cause elevated ALT levels as a side effect.
+    * **Viral Hepatitis:**  Infections like hepatitis A, B, and C can cause inflammation and damage to the liver, leading to elevated ALT.
+    * **Alcohol Abuse:** Excessive alcohol consumption can also damage the liver and raise ALT levels.
+    * **Non-Alcoholic Fatty Liver Disease (NAFLD):** This condition, often linked to obesity and diabetes, can cause liver inflammation and elevated ALT.
+    * **Other Liver Conditions:**  Conditions like liver cirrhosis, autoimmune hepatitis, and certain medications can also elevate ALT.
 **Diarrhea and Liver Health:**
-* **Indirect Connection:** While elevated ALT doesn't directly cause diarrhea, it's important to note that certain conditions associated with elevated ALT can lead to digestive issues. 
+* **Indirect Connection:** While elevated ALT doesn't directly cause diarrhea, it's important to note that certain conditions causing liver damage can also lead to digestive issues.
 * **Possible Indirect Links:**
-    * **Inflammation:** Liver damage can cause inflammation throughout the body, which can affect the digestive system and lead to diarrhea.
+    * **Inflammation:** Liver inflammation can affect the digestive system, potentially causing diarrhea.
     * **Malabsorption:**  Liver damage can impair the body's ability to absorb nutrients, leading to malabsorption and diarrhea.
-    * **Gut microbiome disruption:**  Liver disease can disrupt the balance of bacteria in the gut, potentially contributing to digestive problems.
+    * **Gut Microbiome Disruption:**  Liver disease can disrupt the balance of bacteria in the gut, potentially contributing to diarrhea.
 **What to Do:**
 * **Consult a Doctor:**  It's crucial to consult a doctor to determine the cause of your elevated ALT. They will likely order further tests to assess your liver health and rule out any underlying conditions.
-* **Don't Self-Diagnose:**  It's important not to self-diagnose based on online information.  A doctor can provide a proper diagnosis and treatment plan.
-* **Lifestyle Changes:**  If your doctor determines that your elevated ALT is due to lifestyle factors like alcohol abuse or NAFLD, they may recommend lifestyle changes such as:
-    * **Limiting alcohol consumption.**
-    * **Maintaining a healthy weight.**
-    * **Adopting a balanced diet.**
-    * **Regular exercise.**
+* **Don't Self-Diagnose:**  It's important not to self-diagnose based on online information. A doctor can provide a proper diagnosis and treatment plan.
+* **Lifestyle Changes:**  If your doctor determines that your elevated ALT is due to lifestyle factors like alcohol abuse or NAFLD, they may recommend lifestyle changes like diet modifications, exercise, and weight management.
 **Remember:**  I am an AI and cannot provide medical advice. This information is for general knowledge and should not be considered a substitute for professional medical advice. 
-Please schedule an appointment with your doctor to discuss your elevated ALT levels and any associated symptoms. They can provide you with the best guidance for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5359,31 +5357,32 @@
       <c r="G75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's great you're planning ahead for your trip to Brazil!  Here's a breakdown of recommended vaccinations for young, healthy adults traveling to Brazil, but remember, this is general advice and **you should always consult your doctor or a travel clinic for personalized recommendations**:
-**Essential Vaccinations:**
-* **Yellow Fever:**  Brazil is a yellow fever endemic area.  **It is mandatory to be vaccinated with yellow fever if you are traveling to Brazil from a country where yellow fever is present.**  
-* **Hepatitis A:**  This is a common viral infection that can cause liver inflammation.  It's recommended for travelers to areas with poor sanitation.
-* **Hepatitis B:**  This is another viral infection that can cause liver inflammation.  It's recommended for travelers to areas with poor sanitation.
-* **Typhoid:**  This bacterial infection can cause fever, abdominal pain, and diarrhea.  It's recommended for travelers to areas with poor sanitation.
-* **Rabies:**  This viral infection can be fatal.  It's recommended for travelers who may be exposed to wild animals.
-**Recommended Vaccinations:**
-* **Tetanus:**  This bacterial infection can cause muscle spasms and can be fatal.  It's recommended for all travelers.
-* **Diphtheria:**  This bacterial infection can cause a sore throat, fever, and difficulty breathing.  It's recommended for all travelers.
-* **Polio:**  This viral infection can cause paralysis.  It's recommended for all travelers.
-* **Measles, Mumps, Rubella (MMR):**  These are highly contagious viral infections that can cause serious complications.  It's recommended for all travelers, especially if they haven't been vaccinated.
-* **Meningococcal:**  This bacterial infection can cause meningitis, a serious infection of the brain and spinal cord.  It's recommended for travelers who may be exposed to high-risk individuals.
-**Important Considerations:**
-* **Travel Insurance:**  Make sure you have comprehensive travel insurance that covers medical emergencies and evacuation.
-* **Food and Water Safety:**  Drink bottled water and avoid ice in drinks.  Wash your hands frequently.
-* **Mosquito Protection:**  Use insect repellent and wear long sleeves and pants when outdoors, especially at dawn and dusk.
-* **Malaria Prevention:**  Consult your doctor about malaria prophylaxis, especially if you'll be spending time in rural areas.
-* **Consult Your Doctor:**  It's crucial to discuss your travel plans with your doctor or a travel clinic. They can assess your individual risk factors and recommend the best vaccination schedule for you.
-**Remember:** This information is for general knowledge only and should not be considered a substitute for professional medical advice. Always consult with your doctor or a travel clinic before traveling to ensure you are fully protected. 
+That's great you're thinking ahead about your health while traveling!  Here's what I can tell you about vaccinations for a trip to Brazil:
+**Important Note:** I am an AI and cannot provide medical advice.  **Always consult your doctor or a travel health clinic for personalized recommendations.** They can assess your individual health history, travel plans, and potential risks.
+**General Recommendations for Brazil:**
+* **Yellow Fever:**  Brazil is considered a high-risk area for yellow fever.  **It is mandatory to be vaccinated against yellow fever if you are traveling to Brazil from a country where yellow fever is endemic.**  
+* **Hepatitis A and B:**  These are common in many parts of the world, including Brazil.  Vaccination can significantly reduce your risk of infection.
+* **Typhoid:**  Typhoid fever is a bacterial infection that can be spread through contaminated food and water.  Vaccination is recommended for travelers to Brazil.
+* **Rabies:**  While rabies is rare in Brazil, it is important to be aware of the risk and take precautions.  
+* **Meningococcal Disease:**  Meningococcal disease is a serious bacterial infection that can cause meningitis.  Vaccination is recommended for travelers to Brazil, especially if they will be spending time in crowded areas.
+* **Other Considerations:**
+    * **Malaria:**  Malaria is present in some parts of Brazil.  Your doctor can advise on the risk and whether antimalarial medication is necessary.
+    * **Dengue:**  Dengue fever is a mosquito-borne illness that can cause severe symptoms.  Your doctor can advise on the risk and whether preventative measures are necessary.
+    * **Zika Virus:**  Zika virus is another mosquito-borne illness that can cause birth defects.  Your doctor can advise on the risk and whether preventative measures are necessary.
+**Getting Vaccinated:**
+* **Talk to your doctor:**  They can assess your individual risk factors and recommend the best vaccination schedule for you.
+* **Schedule appointments:**  Many clinics offer travel vaccinations.  Book your appointments well in advance, as some vaccines require multiple doses.
+* **Check for travel clinics:**  Your doctor may refer you to a travel health clinic for specialized advice.
+**Remember:**
+* **Start early:**  Vaccinations take time to become effective.  Start your vaccination schedule well before your trip.
+* **Follow instructions:**  Take all recommended doses of vaccines and follow any instructions provided by your doctor.
+* **Stay informed:**  Keep up-to-date on any travel advisories or health alerts for Brazil.
+Have a safe and enjoyable trip to Brazil! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5433,25 +5432,23 @@
     * Feeling like the bladder isn't empty even after urination
     * Pain or burning during urination
 * **Diagnosis:**  Your doctor will likely perform a physical exam and order a urine test to check for infection. They may also recommend a PSA test (a blood test that measures prostate-specific antigen) and a digital rectal exam (DRE).
-**Why You Should See a Doctor:**
-* **Early detection is key:**  Early diagnosis and treatment can help manage symptoms and prevent complications.
-* **Rule out other conditions:**  While BPH is common, it's important to rule out other potential causes of your symptoms.
-* **Treatment options:**  Depending on the severity of your symptoms, your doctor may recommend lifestyle changes, medications, or minimally invasive procedures.
-**Don't Delay:**
-If you're experiencing any of the symptoms mentioned above, it's important to see a doctor. Early diagnosis and treatment can make a significant difference in your quality of life. 
-**Remember:**
-* **You are not alone:**  Many men experience BPH, regardless of age.
-* **There are effective treatments:**  There are various options available to manage BPH symptoms.
-* **Open communication is key:**  Talk to your doctor about your concerns and any questions you have.
-**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
+**Why You Might Be Concerned:**
+* **Early detection is key:**  Early diagnosis and treatment can help prevent complications and improve quality of life.
+* **Lifestyle factors:**  Certain lifestyle factors, like smoking and a high-fat diet, may increase your risk of BPH.
+* **Family history:**  If you have a family history of BPH, you may be more likely to develop it.
+**What to Do:**
+* **Talk to your doctor:**  If you're experiencing any of the symptoms mentioned above, it's important to talk to your doctor. They can help determine the cause of your symptoms and recommend the best course of treatment.
+* **Don't self-diagnose:**  It's important to avoid self-diagnosing and seeking treatment without professional guidance.
+* **Be proactive:**  Regular checkups and open communication with your doctor are crucial for maintaining your overall health.
+Remember, I'm not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with your doctor for personalized guidance and treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5489,19 +5486,25 @@
 Here's what you need to know about Mounjaro:
 * **Mechanism:** Mounjaro is a glucagon-like peptide-1 (GLP-1) receptor agonist and a glucose-dependent insulinotropic polypeptide (GIP) receptor agonist. It works by mimicking the effects of naturally occurring hormones that help regulate blood sugar levels.
 * **Benefits:** Mounjaro has shown significant improvements in blood sugar control in people with type 2 diabetes. It can also help with weight loss, which is a major benefit for many individuals with type 2 diabetes.
-* **Dosage:** The FDA-approved dosage for Mounjaro is 2.5 mg once weekly.
+* **Dosage:** The FDA-approved dosage for Mounjaro is 2.5 mg once daily.
 * **Side Effects:** Like all medications, Mounjaro can have side effects. Common side effects include nausea, vomiting, diarrhea, and constipation. More serious side effects, though rare, can include pancreatitis and gallbladder problems.
-* **Contraindications:** Mounjaro is not recommended for people with certain medical conditions, such as pancreatitis, kidney disease, or a history of medullary thyroid cancer. 
-* **Important Considerations:** 
-    * Mounjaro is not a cure for type 2 diabetes. It is a medication that helps manage blood sugar levels.
-    * It is important to discuss the potential benefits and risks of Mounjaro with your doctor to determine if it is the right treatment for you.
-    * Mounjaro is typically used in conjunction with diet and exercise.
-**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be considered a substitute for professional medical advice. Always consult with your doctor or other qualified healthcare provider for any health concerns or before making any decisions related to your health or treatment. 
+* **Contraindications:** Mounjaro is not recommended for people with certain medical conditions, including:
+    * Type 1 diabetes
+    * Kidney disease
+    * Liver disease
+    * Pancreatitis
+    * Severe gastrointestinal problems
+    * Pregnancy or breastfeeding
+* **Important Considerations:**
+    * Mounjaro is a prescription medication and should only be taken under the supervision of a healthcare professional.
+    * It is important to discuss your medical history and any other medications you are taking with your doctor before starting Mounjaro.
+    * Mounjaro is not a cure for type 2 diabetes, but it can help manage the condition and improve your overall health.
+**Remember:** This information is for general knowledge only and should not be considered medical advice. Always consult with your doctor or other qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5545,7 +5548,7 @@
 You're right to be skeptical! Hydroxyzine is not a cure for poison ivy. It's a medication used to manage the symptoms of allergic reactions, including itching and discomfort. 
 Here's a breakdown of why hydroxyzine is not a cure and what actually helps with poison ivy:
 **What Hydroxyzine Does:**
-* **Reduces itching:** Hydroxyzine works by blocking the release of histamine, a chemical that causes the itching and inflammation associated with allergic reactions. 
+* **Reduces itching:** Hydroxyzine works by blocking the release of histamine, a chemical that causes the itching and inflammation associated with allergic reactions.
 * **Mild sedation:** It can also help with anxiety and restlessness, which can be associated with the discomfort of poison ivy.
 **What Doesn't Work:**
 * **Poison ivy is an allergic reaction:**  It's not a bacterial infection that can be treated with antibiotics. 
@@ -5555,20 +5558,20 @@
 * **Topical corticosteroids:** These creams can reduce inflammation and itching.
 * **Oatmeal baths:** Soaking in cool water with colloidal oatmeal can soothe the skin.
 * **Calamine lotion:** This can help with itching and dryness.
-* **Cool compresses:** Applying cool compresses can help reduce inflammation and itching.
+* **Cool compresses:** Applying a cool compress to the affected area can help reduce inflammation.
 * **Avoid scratching:** Scratching can worsen the rash and increase the risk of infection.
 **Important Notes:**
 * **See a doctor:** If you have a severe reaction to poison ivy, or if the rash is spreading or showing signs of infection (redness, swelling, pus), see a doctor immediately.
-* **Avoid home remedies:** While some home remedies can be helpful, it's important to consult a doctor before using any new treatment, especially if you have any underlying health conditions.
-Remember, hydroxyzine is a helpful tool for managing the symptoms of an allergic reaction, but it's not a cure for poison ivy.  Focus on the proven treatments to manage the symptoms and allow your body to heal. 
+* **Avoid home remedies:** While some home remedies can be helpful, it's important to consult a doctor before using any new treatment, especially if you have allergies or other medical conditions.
+Remember, hydroxyzine is a helpful tool for managing the symptoms of an allergic reaction, but it's not a cure for poison ivy.  Focus on the proven treatments and seek medical attention if needed. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5605,28 +5608,28 @@
       <c r="G79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It's completely understandable to have a fear of needles! It's a common phobia, and you're not alone.  The good news is, there are ways to manage this fear and make the thyroid test as comfortable as possible. 
-Here's what I can tell you:
-**Understanding the Thyroid Test**
-* **What it is:** A thyroid test is a blood test that measures the levels of thyroid hormones in your blood. It's used to diagnose and monitor thyroid disorders like hypothyroidism (underactive thyroid) and hyperthyroidism (overactive thyroid).
-* **Why it's done:**  Thyroid hormones are crucial for regulating metabolism, energy levels, and many other bodily functions.  A thyroid test helps doctors determine if your thyroid is functioning properly.
+It's completely understandable to have a fear of needles! It's a common phobia, and it's great that you're seeking ways to manage it.  
+Here's what I can tell you about thyroid tests and how to approach them:
+**Understanding Thyroid Tests**
+* **Why are they done?** Thyroid tests are crucial for diagnosing and monitoring thyroid disorders. They help determine if your thyroid is producing enough or too much thyroid hormone.
+* **Types of tests:**  There are several types of thyroid tests, including:
+    * **Blood tests:** These are the most common and involve drawing a small amount of blood. They measure the levels of thyroid hormones (T3, T4, TSH) in your blood.
+    * **Thyroid scan:** This test uses a small amount of radioactive iodine to create images of your thyroid gland. It helps visualize the size, shape, and function of your thyroid.
+* **The needle:**  The blood test for thyroid hormones involves a small needle inserted into a vein in your arm. 
 **Managing Your Fear**
-1. **Open Communication:**  The most important step is to be honest with your doctor. Tell them about your fear of needles. They can:
-    * **Explain the procedure:**  They'll explain what to expect, making it less intimidating.
-    * **Offer alternatives:**  They might suggest a different type of test, like a fine-needle aspiration biopsy, which is less invasive.
-    * **Provide reassurance:**  They'll help you feel more at ease and address any concerns you have.
-2. **Relaxation Techniques:**  Before the test, try these techniques:
-    * **Deep breathing:**  Slow, deep breaths can calm your nerves.
-    * **Meditation or mindfulness:**  These practices can help you focus on the present moment and reduce anxiety.
-    * **Distraction:**  Listen to music, read a book, or chat with a friend to keep your mind off the needle.
-3. **Numbing Cream:**  Your doctor might apply a numbing cream to the area before the test. This can help minimize discomfort.
-4. **Support:**  Having someone with you during the test can be comforting.  A friend or family member can provide emotional support and distract you.
-5. **Practice:**  If you're particularly anxious, consider practicing with a small, harmless needle. This can help you get used to the sensation.
-**Important Considerations:**
-* **Don't avoid the test:**  Ignoring the test can lead to complications if your thyroid is not properly managed.
-* **Be patient:**  It may take some time to find the right approach that works for you. 
-* **Seek professional help:**  If your fear of needles is severe and significantly impacts your life, consider seeking professional help from a therapist specializing in anxiety or phobias.
-Remember, your doctor is there to help you.  Open communication and a collaborative approach will make the process easier and ensure you get the care you need. 
+1. **Open Communication:**  The first step is to be honest with your doctor. Explain your fear of needles and ask about ways to make the procedure more comfortable.
+2. **Talk to your doctor about sedation:**  Some doctors offer sedation options, such as a mild sedative or a local anesthetic, to help you relax during the test.
+3. **Practice relaxation techniques:**  Deep breathing, meditation, or progressive muscle relaxation can help calm your nerves before and during the test.
+4. **Distraction:**  Bring a book, listen to music, or chat with your doctor or a friend to keep your mind occupied.
+5. **Choose a comfortable position:**  Let your doctor know if you prefer to be sitting or lying down during the test.
+6. **Consider a "practice" test:**  Some clinics offer a practice test with a small, less invasive needle to help you get used to the sensation.
+**Alternative Testing Methods**
+* **Ultrasound:**  In some cases, an ultrasound of the thyroid gland may be used instead of a blood test. This is a painless procedure that uses sound waves to create images of the thyroid.
+* **Fine-needle aspiration biopsy:**  This is a minimally invasive procedure that involves a thin needle being inserted into the thyroid gland to collect a small sample of tissue for analysis.
+**Important Considerations**
+* **Don't delay treatment:**  Thyroid disorders can have serious health consequences if left untreated. It's important to get your thyroid checked even if you're afraid of needles.
+* **Find a supportive doctor:**  A good doctor will be understanding and work with you to find a solution that makes you feel comfortable.
+**Remember:**  Your health is a priority. Don't let fear prevent you from getting the care you need. Talk to your doctor about your concerns and explore the options available to you. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5634,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5672,11 +5675,11 @@
         <is>
           <t xml:space="preserve">
 You're right to ask about shingles recurrence, it's a common question!  Here's what I can tell you:
-**Yes, you can absolutely be diagnosed with shingles more than once.** 
+**Yes, you can absolutely get shingles more than once.** 
 Here's why:
-* **Shingles is caused by the reactivation of the varicella-zoster virus (VZV).** This virus is the same one that causes chickenpox.  
+* **Shingles is caused by the reactivation of the varicella-zoster virus (VZV).** This virus is the same one that causes chickenpox. 
 * **VZV remains dormant in your body after chickenpox.** It can reactivate later in life, often decades after the initial infection.
-* **The risk of shingles increases with age.**  This is because the immune system weakens with age, making it easier for the virus to reactivate.
+* **The risk of shingles increases with age.**  This is because your immune system weakens with age, making it easier for the virus to reactivate.
 **Factors that increase the risk of shingles recurrence:**
 * **Age:**  The risk of shingles increases significantly after 50.
 * **Weakened immune system:**  Conditions like HIV/AIDS, cancer, or certain medications can weaken your immune system.
@@ -5684,10 +5687,10 @@
 * **Underlying medical conditions:**  Diabetes, heart disease, and other chronic illnesses can increase your risk.
 **Important to note:**
 * **Shingles is not contagious.** You cannot catch shingles from someone who has it.
-* **Shingles is a painful condition.**  The rash can be very uncomfortable and can cause nerve pain that can last for weeks or months.
-* **Treatment for shingles is available.**  Antiviral medications can shorten the duration of the rash and reduce the severity of the pain.
+* **Shingles is a painful condition.** It can cause a rash, blisters, and nerve pain.
+* **Treatment for shingles is available.**  Antiviral medications can shorten the duration of the illness and reduce the risk of complications.
 **If you think you may have shingles, it's important to see a doctor for diagnosis and treatment.** 
-**Remember:**  While shingles can be a painful and uncomfortable experience, it's treatable.  Don't hesitate to seek medical attention if you have any concerns. 
+**Remember:**  While shingles can be a painful and uncomfortable experience, it's important to remember that it is treatable and preventable. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5754,7 +5757,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -5802,7 +5805,7 @@
           <t xml:space="preserve">
 That's a great question, and it highlights a common concern when it comes to probiotics and antibiotics.  Here's what I can tell you, drawing on my vast medical knowledge:
 **The Short Answer:**
-There's no definitive "one size fits all" answer. The timing of probiotic intake relative to antibiotics depends on several factors, and it's best to discuss this with your doctor.
+There's no one-size-fits-all answer. The timing of probiotic intake relative to antibiotics depends on several factors, and it's best to discuss this with your doctor.
 **The Longer Explanation:**
 * **Probiotics and Antibiotics: A Complex Relationship**
     * **Probiotics:** These are live microorganisms that, when consumed in adequate amounts, can provide health benefits. They can help restore balance in your gut microbiome, which is crucial for digestion, immunity, and overall health.
@@ -5810,17 +5813,18 @@
 * **Potential Interactions:**
     * **Competition for Resources:** Antibiotics can kill off beneficial bacteria in your gut, while probiotics aim to replenish them. This can create a competitive environment, potentially hindering the effectiveness of both.
     * **Impact on Absorption:** Some antibiotics can interfere with the absorption of certain nutrients, including those found in probiotics.
-    * **Individual Sensitivity:**  Everyone's gut microbiome is unique, and some individuals may be more sensitive to the effects of antibiotics and probiotics than others.
+    * **Individual Sensitivity:**  Some people may experience adverse reactions to probiotics when taken with certain antibiotics.
 * **When Timing Matters:**
-    * **Broad-Spectrum Antibiotics:** These antibiotics target a wide range of bacteria, which can have a more significant impact on your gut microbiome. In these cases, it's generally recommended to take probiotics at least a few hours after taking the antibiotic.
-    * **Narrow-Spectrum Antibiotics:** These antibiotics target specific types of bacteria, and the impact on the gut microbiome may be less pronounced. You may be able to take probiotics alongside the antibiotic without significant issues.
+    * **Broad-Spectrum Antibiotics:** These antibiotics target a wide range of bacteria, which can have a more significant impact on your gut microbiome. In these cases, it's generally recommended to take probiotics at a different time than the antibiotic.
+    * **Narrow-Spectrum Antibiotics:** These antibiotics target specific types of bacteria, and the impact on the gut microbiome may be less pronounced. In these cases, timing may be less critical.
     * **Specific Probiotic Strains:** Some probiotic strains are more resilient to antibiotic effects than others. Your doctor can advise you on the best strains for your situation.
-* **Your Doctor is Your Best Resource:**
-    * **Individualized Advice:** Your doctor can assess your specific situation, including the type of antibiotic you're taking, your overall health, and any pre-existing conditions. They can provide personalized recommendations on the timing of probiotic intake.
-    * **Monitoring and Adjustments:** If you experience any adverse effects, such as digestive discomfort or worsening symptoms, your doctor can adjust the timing of your probiotic intake or recommend alternative options.
+* **Your Doctor's Guidance is Key:**
+    * **Individualized Approach:** The best timing for probiotics and antibiotics depends on your specific situation, the type of antibiotic you're taking, and your overall health. 
+    * **Potential Risks and Benefits:** Your doctor can help you weigh the potential risks and benefits of taking probiotics with your antibiotic.
+    * **Monitoring and Adjustments:**  Your doctor may recommend monitoring your gut microbiome and adjusting your probiotic regimen as needed.
 **In Conclusion:**
-While there's no universal rule, it's generally advisable to take probiotics at least a few hours after taking antibiotics. However, the best approach is to discuss this with your doctor. They can help you determine the optimal timing for your specific situation and ensure you're getting the most benefit from both probiotics and antibiotics. 
-Remember, your health is paramount. Always consult with your doctor for personalized medical advice. 
+While there's no universal rule, it's generally advisable to take probiotics at a different time than antibiotics, especially when using broad-spectrum antibiotics. However, this is a general guideline, and your doctor is the best source of information for your specific situation. 
+**Remember:** This information is for general knowledge and should not be considered medical advice. Always consult with your doctor before making any changes to your medication regimen or starting any new supplements. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -5828,7 +5832,7 @@
         <v>0.5</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5863,26 +5867,23 @@
           <t xml:space="preserve">
 I understand you're eager to see results from your new medication, but it's important to remember that **it takes time for lisinopril to work and for your blood pressure to stabilize.** 
 Here's why you shouldn't expect immediate results:
-* **Lisinopril is a medication that takes time to work.** It typically takes a few weeks for lisinopril to reach its full effect on blood pressure. 
-* **Individual responses to medication vary.** Some people may see results sooner than others. 
-* **Blood pressure is complex.** It's influenced by many factors, including lifestyle, diet, stress, and other medications you might be taking. 
+* **Lisinopril is a blood pressure medication, not a quick fix.** It works by blocking the production of angiotensin II, a hormone that constricts blood vessels. This helps lower blood pressure over time.
+* **It takes several days to weeks for lisinopril to reach its full effect.**  You may not see a significant change in your blood pressure right away.
+* **Individual responses to medication vary.** Some people experience immediate effects, while others may need a few weeks to see a noticeable difference.
 **What you should do:**
-* **Continue taking lisinopril as prescribed by your doctor.** Don't stop taking it without consulting your doctor.
-* **Monitor your blood pressure regularly.** Your doctor will likely recommend checking your blood pressure at home or at the doctor's office. 
-* **Keep a record of your blood pressure readings.** This will help you and your doctor track your progress.
-* **Be patient.** It takes time for lisinopril to work and for your blood pressure to stabilize. 
-**Important:**
-* **Do not adjust your dosage or stop taking lisinopril without consulting your doctor.** 
-* **If you experience any side effects, contact your doctor immediately.** 
-Remember, I am an AI and cannot provide medical advice. **Always consult with your doctor for any health concerns or before making any changes to your medication.** 
+* **Continue taking lisinopril as prescribed by your doctor.** Don't adjust your dosage or stop taking the medication without consulting your doctor.
+* **Monitor your blood pressure regularly.**  Your doctor will likely recommend checking your blood pressure at home or at the doctor's office. 
+* **Be patient.** It takes time for lisinopril to work. Don't get discouraged if you don't see immediate results. 
+* **Communicate with your doctor.** If you have any concerns about your blood pressure or the medication, don't hesitate to contact your doctor.
+**Important:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical guidance. Always consult your doctor for any health concerns or before making any changes to your medication regimen. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5923,25 +5924,21 @@
 You're right to be cautious! While hydrocortisone cream is a common and effective treatment for various skin conditions, it's **not recommended for use on the face without consulting a doctor**. 
 Here's why:
 * **Skin Sensitivity:** The face is a delicate area with thinner skin and more sensitive nerve endings. Applying hydrocortisone cream directly to the face can lead to:
-    * **Irritation:**  It can cause redness, itching, and burning.
-    * **Acne:**  It can worsen existing acne or trigger new breakouts.
-    * **Allergic Reactions:**  Some people are allergic to hydrocortisone, and applying it to the face can cause severe reactions.
-* **Potential for Systemic Absorption:**  The face is closer to the bloodstream than other areas of the body. This means that hydrocortisone can be absorbed through the skin more easily, potentially leading to systemic side effects like:
-    * **High blood pressure:**  This is a rare but serious side effect.
-    * **Mood changes:**  Hydrocortisone can affect mood and behavior.
-    * **Weakened immune system:**  Long-term use can suppress the immune system.
+    * **Irritation:** It can cause redness, itching, and burning.
+    * **Allergic Reactions:**  You might develop a rash or other allergic reaction.
+    * **Thinning of Skin:**  Prolonged use can weaken the skin's barrier function, making it more susceptible to infections.
+* **Potential for Acne:**  Hydrocortisone cream can worsen acne by disrupting the skin's natural oil balance.
+* **Drug Interactions:**  Hydrocortisone cream can interact with certain medications, especially those used for acne or other skin conditions.
 **What to do instead:**
-* **Consult a Dermatologist:**  If you're experiencing skin irritation or inflammation, a dermatologist can diagnose the cause and recommend the appropriate treatment. They can also advise on safe and effective topical creams for your specific skin type.
-* **Consider Alternatives:**  There are other topical treatments for skin conditions that are safe for the face, such as:
-    * **Calamine lotion:**  This can help soothe itching and irritation.
-    * **Aloe vera gel:**  This can help reduce inflammation and redness.
-    * **Antihistamines:**  These can help relieve itching and allergic reactions.
-**Remember:**  Always consult a healthcare professional before using any new medication or treatment, especially on sensitive areas like the face. 
+* **Consult a Dermatologist:**  A dermatologist can assess your skin condition and recommend the most appropriate treatment. They can also advise on safe and effective ways to manage your skin.
+* **Consider Alternatives:**  There are other topical treatments for skin conditions that are specifically formulated for the face and are safer to use. 
+* **Follow Instructions Carefully:**  If you do use hydrocortisone cream, always follow the instructions on the label and avoid applying it to broken or irritated skin.
+**Remember:**  Your health is paramount. Don't hesitate to seek professional medical advice before using any medication on your face. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5985,24 +5982,26 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for information about the best time to take trazodone.  
-**I am an AI and cannot give medical advice.**  It's crucial to discuss this with your doctor or pharmacist. They can provide personalized guidance based on your specific situation and medical history. 
-However, I can share some general information about trazodone:
-* **Trazodone is typically taken once daily.**  The exact timing may vary depending on your doctor's instructions and your individual response to the medication. 
+As a helpful and harmless AI, I can't give medical advice.  **It's crucial to discuss this with your doctor or pharmacist.** They know your specific medical history, current medications, and individual needs. 
+However, I can provide some general information about trazodone:
+* **Trazodone is typically taken once daily.**  The exact timing may vary depending on your doctor's recommendation and your individual response to the medication. 
 * **It's often taken in the evening.** This helps with sleep issues, which is one of the primary uses of trazodone. 
-* **Your doctor may recommend a specific time based on your symptoms and other medications you're taking.** 
+* **Your doctor may adjust the timing based on your symptoms and response to the medication.** 
 **Here's why it's important to talk to your doctor:**
-* **They can assess your individual needs:** Your doctor knows your medical history, current medications, and any potential interactions with trazodone.
-* **They can adjust the dosage:**  The dosage of trazodone can be adjusted based on your response to the medication.
-* **They can monitor for side effects:**  Your doctor can monitor you for any potential side effects and make adjustments as needed.
+* **They can determine the best dosage for you.**
+* **They can assess potential interactions with other medications you're taking.**
+* **They can monitor your progress and make adjustments as needed.**
+* **They can address any side effects you experience.**
 **Remember:** Never change your medication dosage or timing without consulting your doctor. 
+Please schedule an appointment with your healthcare provider to discuss the best time to take trazodone for your specific situation. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6041,29 +6040,29 @@
       <c r="G86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're asking about the effectiveness of Metrogel in the context of bacterial vaginosis (BV).  Let's break down the situation:
-**What is BV?**
-Bacterial vaginosis is a common condition caused by an imbalance in the vaginal microbiome.  This imbalance allows harmful bacteria to overgrow, leading to symptoms like vaginal discharge, odor, and itching.
-**What is Metrogel?**
-Metrogel is a topical cream containing metronidazole, an antibiotic that targets the overgrowth of bacteria. It's commonly used to treat BV.
-**The Question:**
-You're asking if Metrogel would have been effective if BV was caused by a different type of bacteria.  
+I understand you're asking about the effectiveness of Metrogel in the context of bacterial vaginosis (BV).  Let's break down the question and address it with the knowledge I have:
+**Understanding the Question:**
+* **BV:** Bacterial vaginosis is a common condition caused by an imbalance in the vaginal microbiome, leading to an overgrowth of certain bacteria.
+* **Metrogel:** Metrogel is a topical cream containing metronidazole, an antibiotic effective against BV-causing bacteria.
+* **"If it was BV wouldn't the Metrogel have worked?"** This implies that if BV was present, the Metrogel would have been effective in treating it.
 **The Answer:**
-It's important to understand that:
-* **BV is caused by a specific type of bacteria:**  The bacteria that cause BV are anaerobic bacteria, meaning they thrive in low-oxygen environments. 
-* **Metronidazole targets these bacteria:**  Metronidazole works by killing these anaerobic bacteria. 
-* **BV is a complex condition:**  While metronidazole is effective against the bacteria that cause BV, it's not a cure-all.  BV can sometimes recur, and other factors can contribute to its development.
-**So, would Metrogel work if BV was caused by a different type of bacteria?**
-It's possible, but not guaranteed.  Here's why:
-* **Metronidazole's effectiveness is specific:**  Metronidazole is designed to target anaerobic bacteria.  If the cause of BV was a different type of bacteria, it might not be as effective.
-* **Other treatments may be needed:**  Depending on the cause of BV, other treatments might be necessary. 
-**Important Note:**
-I am an AI and cannot provide medical advice.  If you are experiencing symptoms of BV, it's crucial to consult a healthcare professional for proper diagnosis and treatment. They can determine the cause of your symptoms and recommend the most appropriate course of action. 
+While Metrogel is a very effective treatment for BV, it's not a guaranteed cure. Here's why:
+* **BV is a complex condition:**  BV can be caused by various factors, and its severity can vary. 
+* **Treatment effectiveness:**  Metrogel is highly effective in treating BV, but it's not always a one-time fix. It may take multiple applications to clear the infection completely.
+* **Underlying factors:**  BV can sometimes recur, even after treatment. This can be due to factors like hormonal changes, stress, or other underlying health conditions.
+* **Other treatments:**  In some cases, other treatments like antibiotics or probiotics may be necessary to manage BV.
+**Important Considerations:**
+* **Diagnosis:** It's crucial to get a proper diagnosis from a healthcare professional to confirm BV. Self-diagnosing can be dangerous.
+* **Treatment plan:**  A doctor will assess your individual situation and recommend the most appropriate treatment plan, which may include Metrogel, other antibiotics, or other therapies.
+* **Follow-up:**  It's important to follow your doctor's instructions and complete the full course of treatment to ensure complete eradication of BV.
+**In Conclusion:**
+While Metrogel is a powerful tool for treating BV, it's not a guaranteed cure. The effectiveness of treatment depends on various factors, including the severity of the infection, the individual's overall health, and adherence to the prescribed treatment plan. 
+**Remember:**  Always consult a healthcare professional for any health concerns or before starting any new treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6106,31 +6105,24 @@
 It's great that you're paying attention to your body! Muscle aches can be a common experience, but it's important to understand the context and potential causes. 
 **Here's what I can tell you about muscle aches that persist without exercise:**
 **1. It's Not Always a Cause for Concern:**
-* **Muscle soreness:**  This is a normal response to exercise, especially if you're new to a workout routine or haven't exercised in a while. It's a sign your muscles are adapting and getting stronger. 
-* **Overuse:**  If you're constantly using the same muscles, they can become fatigued and sore. This is often due to repetitive motions or activities.
-* **Dehydration:**  Not drinking enough water can lead to muscle cramps and soreness.
-* **Poor posture:**  Poor posture can put strain on muscles, leading to aches and stiffness.
+* **Muscle soreness:**  This is a normal response to exercise, especially if you're new to it or pushing yourself. It's a sign your muscles are adapting and getting stronger. 
+* **Dehydration:**  Sometimes, muscle aches can be a sign of dehydration. Make sure you're drinking enough water throughout the day.
+* **Overuse:**  If you're constantly using the same muscles, they can become fatigued and sore. This is especially true if you're working out for long periods or doing repetitive motions.
+* **Stress:**  Stress can manifest physically, including muscle aches. 
 **2. When to Be Concerned:**
-* **Pain that doesn't improve:**  If the muscle aches persist for more than a few days, even with rest, it's worth checking in with your doctor.
-* **Severe pain:**  If the pain is intense, sharp, or accompanied by swelling, redness, or warmth, it could be a sign of a more serious issue.
-* **Pain that radiates:**  If the pain spreads beyond the muscle or is accompanied by numbness or tingling, it could be a sign of nerve involvement.
-* **Other symptoms:**  If you experience fever, chills, fatigue, or other unusual symptoms alongside the muscle aches, it's important to seek medical attention.
-* **Underlying medical conditions:**  Certain medical conditions, such as arthritis, fibromyalgia, or autoimmune disorders, can cause muscle aches.
+* **Severe pain:**  If the pain is intense, sharp, or doesn't improve with rest, it could be a sign of a more serious issue.
+* **Pain that doesn't improve:**  If the pain persists for more than a few days or doesn't respond to over-the-counter pain relievers, it's important to see a doctor.
+* **Other symptoms:**  If you experience other symptoms like fever, swelling, redness, or numbness along with the muscle aches, it could be a sign of an infection or other medical condition.
+* **Sudden onset:**  If the pain starts suddenly and is accompanied by other symptoms, it's important to seek medical attention.
+* **Underlying medical conditions:**  If you have a history of certain medical conditions, such as arthritis, fibromyalgia, or diabetes, muscle aches could be a symptom of these conditions.
 **3. What to Do:**
-* **Rest:**  Give your muscles time to recover. Avoid strenuous activities that could worsen the pain.
-* **Ice:**  Apply ice packs to the affected area for 15-20 minutes at a time, several times a day.
-* **Heat:**  After the initial 24-48 hours, you can try applying heat to the area to relax the muscles.
+* **Rest:**  Give your muscles time to recover. Avoid strenuous activity and focus on gentle stretches and light movements.
+* **Hydration:**  Drink plenty of water to stay hydrated.
 * **Over-the-counter pain relievers:**  Ibuprofen or acetaminophen can help reduce pain and inflammation.
-* **Stretching:**  Gentle stretching can help improve flexibility and reduce muscle tension.
-* **Massage:**  A massage can help relax muscles and improve blood flow.
-* **Hydration:**  Drink plenty of water to stay hydrated.
-**4. When to See a Doctor:**
-* **Persistent pain:**  If the pain doesn't improve after a few days of home care.
-* **Severe pain:**  If the pain is intense or accompanied by other symptoms.
-* **Pain that radiates:**  If the pain spreads beyond the muscle or is accompanied by numbness or tingling.
-* **Other symptoms:**  If you experience fever, chills, fatigue, or other unusual symptoms.
-**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. If you are concerned about your muscle aches, please consult with your doctor. 
-Let me know if you have any other questions! 
+* **Heat or cold therapy:**  Applying heat or cold to the affected area can help relieve pain and stiffness.
+* **Massage:**  A gentle massage can help improve blood flow and reduce muscle tension.
+* **See a doctor:**  If the pain is severe, doesn't improve, or is accompanied by other symptoms, it's important to see a doctor to rule out any underlying medical conditions.
+**Remember:** I am not a medical professional. This information is for general knowledge and should not be considered medical advice. Always consult with a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6138,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -6178,24 +6170,31 @@
       <c r="G88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I understand you're concerned about the side effects of Prozac and whether you can safely stop taking it.  
-**It's crucial to understand that I am not a medical professional and cannot give medical advice.**  The information below is for general knowledge only and should not be substituted for the guidance of your doctor. 
-**Here's what I can tell you about Prozac and tapering off:**
-* **Your doctor is your best resource:**  They know your individual medical history, current medications, and the specific dosage of Prozac you're taking. They can best advise you on the safest way to manage your treatment.
-* **Tapering off is generally recommended:**  Prozac is a selective serotonin reuptake inhibitor (SSRI) and can have withdrawal symptoms if abruptly stopped.  
-* **Gradual reduction is key:**  Your doctor will likely recommend a gradual reduction in your dosage over a period of time. This helps minimize the severity of withdrawal symptoms.
-* **Symptoms of withdrawal can vary:**  Common side effects include nausea, dizziness, fatigue, and insomnia.  
-* **Your doctor will monitor you:**  They will likely monitor your progress and adjust your dosage or treatment plan as needed.
-**Here's what you can do:**
-1. **Talk to your doctor:**  Schedule an appointment to discuss your concerns about side effects and the possibility of tapering off Prozac.
-2. **Be open and honest:**  Share all your symptoms and any concerns you have about the medication.
-3. **Follow your doctor's instructions:**  Adhere to the prescribed dosage and taper off slowly as directed.
-**Remember:**  Your doctor is your partner in managing your health.  Open communication and a collaborative approach are essential for a safe and effective treatment plan. 
+I understand your concern about the side effects of Prozac. It's great that you're being proactive about your health! 
+**Here's the thing:** I can't give medical advice. I'm an AI, not a doctor.  
+However, I can tell you that **it's absolutely crucial to discuss any concerns about Prozac with your prescribing doctor.** They are the only ones who can assess your individual situation and advise you on the best course of action. 
+That being said, here's some general information about tapering off Prozac:
+* **It's generally recommended to taper off Prozac gradually under the guidance of your doctor.** This helps minimize withdrawal symptoms and ensures a smoother transition. 
+* **The duration of the taper will vary depending on the individual and the severity of the side effects.** Your doctor will consider factors like the dosage, the length of time you've been taking Prozac, and your overall health.
+* **Withdrawal symptoms can include:**
+    * Flu-like symptoms (headache, fatigue, nausea)
+    * Anxiety
+    * Depression
+    * Sleep disturbances
+* **Your doctor will likely monitor you closely during the tapering process.** They may suggest adjusting your dosage or frequency of medication.
+**Remember:** 
+* **Never abruptly stop taking Prozac without consulting your doctor.** This can lead to serious complications.
+* **Be open and honest with your doctor about any side effects you experience.** This will help them make the best decisions for your care.
+**Here are some additional resources that may be helpful:**
+* **Your doctor:** They are your primary source of information and support.
+* **The National Institute of Mental Health (NIMH):** https://www.nimh.nih.gov/
+* **The American Psychiatric Association (APA):** https://www.psychiatry.org/
+I hope this information is helpful. Please prioritize your health and consult your doctor for personalized advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6241,7 +6240,7 @@
 * **Location of the strain:** Muscles in the legs and feet tend to heal faster than those in the back or neck.
 * **Your age and overall health:** Younger, healthier individuals generally recover faster.
 * **Your adherence to treatment:** Rest, ice, compression, and elevation (RICE) are crucial for healing.
-* **Underlying conditions:** Existing medical conditions can affect healing time.
+* **Underlying conditions:** Existing medical conditions can affect recovery time.
 **General Timeline:**
 * **First 24-48 hours:**  Pain and swelling are at their peak.
 * **Days 3-7:**  Pain starts to decrease, but you may still experience stiffness.
@@ -6251,12 +6250,12 @@
 * **Don't push yourself too hard:**  Avoid activities that aggravate the pain.
 * **Listen to your body:**  Rest when you need to.
 * **Seek professional advice:**  If the pain is severe, doesn't improve, or you experience other symptoms like numbness or tingling, consult a doctor.
-**Remember:** I'm an AI and cannot provide medical advice.  It's essential to consult a doctor for a proper diagnosis and treatment plan. They can assess your specific situation and provide personalized guidance. 
+**Remember:** I'm an AI and cannot provide medical advice.  It's essential to consult a doctor for a proper diagnosis and personalized treatment plan. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6297,33 +6296,33 @@
           <t xml:space="preserve">
 Let's break down creatinine and why it's important. 
 **What is Creatinine?**
-Creatinine is a waste product produced by your muscles as a byproduct of energy production.  Think of it as a tiny, natural "cleaning crew" that gets rid of waste from your muscles. 
+Creatinine is a waste product produced by your muscles as a byproduct of energy production.  Think of it as a tiny, natural "cleaning agent" your body uses to get rid of waste. 
 **How Creatinine Works:**
-1. **Muscle Activity:** When you move, your muscles use energy. This process generates waste products, including creatinine.
-2. **Kidneys Filter:** Your kidneys are like filters that remove waste products from your blood. They break down creatinine into a form that can be excreted in your urine.
-3. **Creatinine in Urine:** The amount of creatinine in your urine is a good indicator of how well your kidneys are working.
+1. **Muscle Activity:** When you move, your muscles use oxygen to create energy. This process produces waste products, including creatinine.
+2. **Kidneys Filter:** Your kidneys are like your body's natural filtration system. They filter your blood and remove waste products, including creatinine.
+3. **Urine Production:** The filtered creatinine is then excreted in your urine.
 **Why is Creatinine Important?**
-Creatinine levels in your blood and urine are used to:
-* **Assess Kidney Function:**  A high creatinine level can indicate that your kidneys are not filtering waste effectively. This can be a sign of kidney disease.
-* **Monitor Kidney Disease Progression:**  Doctors use creatinine levels to track how well kidney disease is progressing.
-* **Diagnose Other Conditions:**  Elevated creatinine levels can sometimes be a sign of other health problems, such as dehydration, muscle damage, or certain medications.
+Creatinine levels in your blood can tell your doctor a lot about your kidney function.  Here's why:
+* **Kidney Health:**  The kidneys are responsible for filtering waste products from your blood. If your kidneys aren't working properly, creatinine levels can rise in your blood. This is called **hypercreatininemia**.
+* **Muscle Mass:** Creatinine levels can also be affected by your muscle mass.  People with more muscle mass tend to have higher creatinine levels.
+* **Other Factors:**  Other factors like dehydration, certain medications, and even diet can influence creatinine levels.
 **Creatinine Tests:**
-* **Blood Creatinine Test:**  A blood test measures the amount of creatinine in your blood.
-* **Urine Creatinine Test:**  A urine test measures the amount of creatinine in your urine.
-**What Does a High Creatinine Level Mean?**
-A high creatinine level can be a sign of:
-* **Kidney Disease:**  The most common cause of high creatinine levels.
-* **Dehydration:**  When you're dehydrated, your kidneys have to work harder to filter waste, leading to higher creatinine levels.
-* **Muscle Damage:**  Injury or illness can cause muscle breakdown, leading to increased creatinine levels.
-* **Certain Medications:**  Some medications can affect creatinine levels.
+Doctors use a blood test called a **creatinine clearance test** to measure creatinine levels. This test helps determine how well your kidneys are filtering waste products.
+**What Does High Creatinine Mean?**
+High creatinine levels can indicate:
+* **Kidney Disease:**  This is the most common reason for elevated creatinine.
+* **Muscle Damage:**  If you have muscle damage, it can also lead to higher creatinine levels.
+* **Dehydration:**  When you're dehydrated, your kidneys may not be able to filter creatinine as effectively.
+**What Does Low Creatinine Mean?**
+Low creatinine levels are usually not a cause for concern. However, it's important to discuss any unusual changes in your creatinine levels with your doctor.
 **Important Note:**
-It's crucial to remember that creatinine levels are just one piece of the puzzle when it comes to diagnosing health problems.  A doctor will consider your overall medical history, symptoms, and other test results to make a diagnosis.
-**If you have concerns about your creatinine levels, please consult your doctor.** They can provide personalized advice and treatment options. 
+I am an AI and cannot provide medical advice.  If you have concerns about your creatinine levels, please consult your doctor. They can interpret your test results and provide personalized guidance. 
+Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6360,38 +6359,29 @@
       <c r="G91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ah, Abreva. A familiar name in the world of cold sore treatment.  Let's delve into its effectiveness and whether it's still a good choice for you.
-**Abreva: The Basics**
-Abreva (docosanol) is a topical cream that's been around for a while. It works by:
-* **Reducing the spread of the virus:** Abreva doesn't cure the cold sore, but it can help prevent it from spreading to other areas of your body.
-* **Shortening the duration:**  It can significantly reduce the length of time you experience cold sores.
-**Is Abreva Still Effective?**
-The answer is: it depends. 
-* **For Early Treatment:** Abreva is most effective when applied early in the development of a cold sore.  The sooner you start, the better it works.
-* **For Prevention:** Abreva can be helpful in preventing cold sores, especially if you're prone to them.
-* **For Severe Cases:**  While Abreva can help manage the symptoms, it may not be as effective in treating very large or painful cold sores.
-**Factors Affecting Effectiveness:**
-* **Individual Response:**  Everyone's body reacts differently to Abreva. Some people find it highly effective, while others may see minimal improvement.
-* **Cold Sore Severity:**  The severity of the cold sore can influence how well Abreva works.
-* **Timing of Application:**  Applying Abreva too late in the development of a cold sore may not be as effective.
-**Alternatives to Abreva:**
-* **Over-the-counter antiviral creams:**  These creams contain ingredients like docosanol, but they may not be as potent as Abreva.
-* **Natural remedies:**  Some people find relief from cold sores with natural remedies like tea tree oil, aloe vera, or vitamin E. However, these remedies are not scientifically proven to be as effective as Abreva.
-**Important Considerations:**
-* **Consult a Doctor:**  If you have frequent or severe cold sores, it's best to consult a doctor to discuss the best treatment options for you.
-* **Side Effects:**  Abreva can cause some side effects, such as redness, itching, or burning.
-* **Drug Interactions:**  Abreva may interact with certain medications.
-**In Conclusion:**
-Abreva can be a valuable tool for managing cold sores, but its effectiveness depends on various factors.  If you're considering using Abreva, talk to your doctor to determine if it's the right choice for you. 
-Remember, I'm not a medical professional. This information is for general knowledge and shouldn't replace the advice of a qualified healthcare provider. 
+Ah, Abreva. A familiar name in the world of cold sore treatment.  It's a good question, and the answer is nuanced. 
+**Here's what I know about Abreva and its effectiveness:**
+* **It's still a viable option:** Abreva (docosanol) is a topical medication that has been proven effective in reducing the duration and severity of cold sores. It works by inhibiting the virus's ability to spread and replicate.
+* **Effectiveness varies:** While Abreva is generally effective, its effectiveness can vary from person to person. Some individuals may experience significant relief, while others may see only minor improvements. 
+* **Early treatment is key:** The sooner you start Abreva after the first signs of a cold sore appear, the better the results will be. 
+* **Not a cure:** Abreva doesn't cure cold sores. It simply helps to shorten the duration and reduce the severity of the outbreak.
+* **Potential side effects:** Abreva can cause some side effects, such as redness, itching, or burning at the application site. These side effects are usually mild and temporary.
+**Here are some factors to consider:**
+* **Your individual response:** Everyone's body reacts differently to medications. What works for one person may not work for another.
+* **The severity of the outbreak:** Abreva may be more effective for mild outbreaks, while more severe outbreaks may require a different treatment approach.
+* **Your overall health:** Certain medical conditions or medications can affect how your body responds to Abreva. 
+* **Alternative treatments:** There are other cold sore treatments available, such as antiviral creams and gels. 
+**The bottom line:**
+Abreva is still a valuable tool for managing cold sores, but it's not a magic bullet. It's important to consult with your doctor or a dermatologist to determine the best treatment plan for your individual needs. They can help you weigh the pros and cons of Abreva and other options, and ensure you're using it safely and effectively. 
+**Remember:** I am an AI and cannot provide medical advice. Always consult with a qualified healthcare professional for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6436,21 +6426,21 @@
 **It's important to understand that I am not a medical professional and cannot provide medical advice.**  
 However, I can offer some general information based on my knowledge of medical practices:
 * **Self-treating fungal infections can be risky.**  While OTC antifungal creams like Tinactin can be effective, they are not a substitute for proper diagnosis and treatment by a qualified healthcare professional. 
-* **Misdiagnosis is common.**  Many conditions can mimic fungal infections, and using the wrong treatment can worsen the problem. 
+* **Misdiagnosis is possible.**  Many conditions can mimic fungal infections, and using the wrong treatment can worsen the problem. 
 * **Underlying conditions.**  Fungal infections can be more serious in people with weakened immune systems or underlying health conditions. 
 **Here's what I recommend:**
 1. **See a doctor.**  The best course of action is to consult a doctor or dermatologist. They can examine the area, determine the cause of the issue, and prescribe the appropriate treatment. 
 2. **Don't self-medicate.**  Using OTC antifungal creams without a doctor's guidance can be ineffective and potentially harmful. 
-3. **Be open and honest with your doctor.**  Provide them with all relevant information about your symptoms, medical history, and any medications you are taking.
-**Remember:**  While Tinactin can be helpful for some fungal infections, it's crucial to get a proper diagnosis and treatment plan from a qualified healthcare professional. 
+3. **Follow your doctor's instructions.**  If your doctor prescribes an antifungal medication, follow their instructions carefully and complete the full course of treatment.
+**Remember:**  While Tinactin can be helpful for some fungal infections, it's crucial to get a proper diagnosis and treatment plan from a medical professional. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6483,27 +6473,27 @@
       <c r="G93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  While both Augmentin and Amoxicillin are antibiotics, they are not exactly the same thing. Here's a breakdown:
+That's a great question!  While both Augmentin and Amoxicillin are powerful antibiotics, they are not exactly the same thing. Here's a breakdown:
 **Amoxicillin** is a broad-spectrum antibiotic that works by killing bacteria. It's often used to treat a wide range of infections, including ear infections, sinus infections, pneumonia, and skin infections.
 **Augmentin** is a combination antibiotic that contains **amoxicillin** and **clavulanate potassium**. Clavulanate potassium is a beta-lactamase inhibitor. 
-**Here's how they are different:**
+**Here's how they differ:**
 * **Augmentin's advantage:**  The addition of clavulanate potassium makes Augmentin more effective against bacteria that produce beta-lactamase, an enzyme that can break down the effectiveness of beta-lactam antibiotics like amoxicillin. This makes Augmentin a good choice for treating infections caused by bacteria that are resistant to amoxicillin alone.
 * **Amoxicillin's advantage:**  Amoxicillin is a more affordable option and is often the first-line treatment for many infections.
 **Important Considerations:**
-* **Prescription:** Both Augmentin and Amoxicillin require a prescription from a healthcare professional. 
-* **Antibiotic Resistance:**  It's crucial to use antibiotics only when necessary and as prescribed. Overuse or misuse of antibiotics can contribute to the development of antibiotic-resistant bacteria, making infections harder to treat in the future.
+* **Prescription:** Both Augmentin and Amoxicillin require a prescription from a doctor. 
+* **Antibiotic Resistance:**  It's crucial to take antibiotics only when prescribed and complete the full course of treatment, even if you start feeling better. This helps prevent the development of antibiotic resistance.
 * **Side Effects:**  Both Augmentin and Amoxicillin can cause side effects, such as nausea, diarrhea, and rash. 
-* **Allergic Reactions:**  Some people may be allergic to amoxicillin or clavulanate potassium.
+* **Allergic Reactions:**  Some people are allergic to penicillin-type antibiotics, including amoxicillin. 
 **In summary:**
 * Augmentin is a combination antibiotic that includes amoxicillin and a beta-lactamase inhibitor.
 * Amoxicillin is a single antibiotic that is effective against a wide range of bacteria.
 * Augmentin is often used when amoxicillin alone is not effective against resistant bacteria.
-**Always consult with your doctor or pharmacist to determine the best antibiotic for your specific needs.** They can assess your individual situation and provide personalized advice. 
+**Always consult with your doctor to determine the best antibiotic for your specific needs.** They can assess your individual situation and recommend the most appropriate treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -6558,18 +6548,19 @@
 * **Side Effects:**  Both medications can cause side effects, and combining them could potentially increase the likelihood of experiencing some of these side effects. 
 * **Individualized Treatment:**  The effectiveness and safety of any medication depend on individual factors like your medical history, other medications you're taking, and your specific condition.
 **Why You Need to Talk to Your Doctor:**
-* **Personalized Assessment:** Your doctor can evaluate your medical history, current medications, and potential risks to determine if Buspar and Zoloft are safe for you to take together.
-* **Dosage Adjustments:**  They can adjust your dosages if necessary to minimize any potential interactions or side effects.
-* **Monitoring:**  Your doctor can monitor your progress and make adjustments to your treatment plan as needed.
-**Remember:**  Never start or stop taking any medication without consulting your doctor.  They are your best resource for safe and effective treatment. 
+* **Personalized Assessment:** Your doctor can evaluate your medical history, current medications, and potential risks to determine if Buspar and Zoloft are safe for you.
+* **Dosage Adjustments:**  They can adjust your dosages to minimize any potential interactions or side effects.
+* **Monitoring:**  Your doctor can monitor your progress and make necessary adjustments to your treatment plan.
+**Remember:**  Never start or stop any medication without consulting your doctor.  They are your best resource for safe and effective treatment. 
+Please schedule an appointment with your doctor or a qualified healthcare professional to discuss your concerns about combining Buspar and Zoloft. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6603,17 +6594,17 @@
       <c r="G95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking about Saxenda, a medication used for weight management.  Here's what you need to know:
-**Saxenda is indeed administered as a daily injection.** 
+You're asking about Saxenda, a medication used for weight management.  Here's what I can tell you about its administration:
+**Saxenda is administered as a daily injection.** 
 Here's a breakdown:
 * **Dosage:** Saxenda comes in a pre-filled pen that delivers a specific dose of liraglutide, a GLP-1 receptor agonist. 
-* **Administration:**  It's injected once daily, usually in the abdomen, thigh, or upper arm. 
-* **Benefits:**  This daily injection helps regulate appetite, control blood sugar, and promote weight loss. 
+* **Administration:** The medication is injected once daily, usually in the abdomen, thigh, or upper arm. 
+* **Convenience:**  The daily injection is a convenient way to manage weight, as it requires a simple, consistent routine.
 **Important Considerations:**
-* **Consult a Doctor:**  It's crucial to discuss Saxenda with your doctor. They will determine if it's appropriate for you, considering your medical history, current medications, and potential side effects.
-* **Proper Technique:**  Your doctor will teach you the correct injection technique to ensure safe and effective use.
-* **Side Effects:**  Like all medications, Saxenda can cause side effects. Your doctor will monitor you for any issues and adjust the dosage if needed.
-**Remember:**  This information is for general knowledge only. It's not a substitute for professional medical advice. Always consult your doctor for personalized guidance on your health and treatment options. 
+* **Consult your doctor:**  It's crucial to discuss Saxenda with your doctor to determine if it's the right medication for you and to receive proper guidance on dosage and administration.
+* **Potential side effects:** Like all medications, Saxenda can have side effects. Your doctor will discuss these with you and monitor your progress.
+* **Lifestyle changes:** Saxenda is most effective when combined with a healthy diet and regular exercise. 
+**Remember:** I am an AI and cannot provide medical advice. The information above is for general knowledge and should not be substituted for professional medical guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6621,7 +6612,7 @@
         <v>0.5</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6659,15 +6650,12 @@
         <is>
           <t xml:space="preserve">
 You're asking a great question!  Valacyclovir and Valtrex are essentially the same thing. 
-Here's the breakdown:
+Here's why:
 * **Valacyclovir** is the **active ingredient** in Valtrex. It's the medication that actually fights the virus.
 * **Valtrex** is the **brand name** for valacyclovir. It's the name you'll see on the prescription label and in drugstore shelves.
-Think of it like this:  Valacyclovir is the ingredient, and Valtrex is the product that uses that ingredient. 
-**Why is this important?**
-* **Dosage:**  Both Valacyclovir and Valtrex are prescribed for the same conditions, like herpes outbreaks. 
-* **Availability:**  You'll find both Valacyclovir and Valtrex in the same pharmacies. 
-* **Cost:**  The brand name (Valtrex) might be slightly more expensive than the generic (Valacyclovir).
-**Important Note:**  Always consult with your doctor or pharmacist about the best medication for your specific needs. They can provide personalized advice and ensure you're taking the correct dosage. 
+Think of it like this:  "Valacyclovir" is the ingredient, and "Valtrex" is the name of the product that contains that ingredient. 
+**Important Note:** While they are the same, it's crucial to always take medication as prescribed by your doctor. 
+Let me know if you have any other questions about medications or health! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -6717,31 +6705,32 @@
 It's great that you're thinking about the potential impact of Accutane on your future pregnancy.  Let's break down the information:
 **Accutane and Antibiotics: Different Beasts**
 * **Accutane (isotretinoin)** is a powerful medication used to treat severe acne. It works by reducing oil production and shrinking oil glands. It's a synthetic form of vitamin A.
-* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They work by targeting specific mechanisms within bacteria.
+* **Antibiotics** are designed to kill or inhibit the growth of bacteria. They work in different ways, targeting specific bacterial structures or processes.
 **Accutane and Pregnancy: A Serious Concern**
-Accutane is classified as a teratogen, meaning it can cause birth defects.  **This is a significant concern for pregnant women.**  
-**Why Accutane is a Concern for Pregnancy:**
-* **Teratogenic Effects:** Accutane can cause birth defects, particularly in the face, heart, and brain. 
-* **Dosage and Timing:** The risk of birth defects is highest during the first trimester of pregnancy. 
-* **Potential for Harm:** Even if you're not actively pregnant, Accutane can affect a developing fetus.
-**Important Considerations:**
-* **Consult Your Doctor:**  This is crucial.  Your doctor can assess your individual risk factors and discuss alternative treatment options.
-* **Pregnancy Testing:**  It's essential to get tested for pregnancy before starting Accutane.
-* **Alternative Treatments:**  There are other acne treatments available that are less likely to pose risks to a developing fetus.
-* **Medication Safety:**  Always follow your doctor's instructions regarding Accutane use and potential side effects.
-**Remember:**
-* Accutane is a powerful medication with potential risks. 
-* It's essential to prioritize your health and the health of your future child.
-* Open communication with your doctor is vital for making informed decisions.
+Accutane is classified as a teratogen, meaning it can cause birth defects.  **This is a significant concern, especially during pregnancy.**  
+**Here's why Accutane is a concern during pregnancy:**
+* **Teratogenic Effects:** Accutane can cause serious birth defects, including:
+    * **Facial abnormalities:**  Cleft lip or palate, abnormal jaw development
+    * **Heart defects:**  Congenital heart disease
+    * **Brain and spinal cord defects:**  Spina bifida, hydrocephalus
+    * **Other issues:**  Limb abnormalities, vision problems
+* **Dosage and Timing:** The risk of birth defects is highest during the first trimester of pregnancy.  Even if you've taken Accutane in the past, it's crucial to discuss your current pregnancy with your doctor.
+* **Alternative Treatments:**  There are other acne treatments available that are considered safer during pregnancy. Your doctor can help you find the best option for your individual needs.
+**What to Do:**
+1. **Talk to Your Doctor:**  This is the most important step.  Be open and honest about your acne treatment history and your pregnancy plans.
+2. **Follow Medical Advice:**  Your doctor will assess your individual risk factors and recommend the safest course of action.
+3. **Consider Alternatives:**  Explore non-Accutane options for treating your acne.
+4. **Be Informed:**  Research reputable sources like the FDA and the American College of Obstetricians and Gynecologists (ACOG) for accurate information.
+**Remember:**  Your doctor is your best resource for information and guidance regarding Accutane and pregnancy.  Don't hesitate to ask questions and discuss your concerns openly. 
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6784,21 +6773,21 @@
 The short answer is: **No, blepharitis is not contagious in the traditional sense.** 
 Here's why:
 * **Cause:** Blepharitis is primarily caused by inflammation of the eyelids, often due to:
-    * **Demodex mites:** These microscopic creatures live on everyone's skin, including the eyelids. In some people, they can overpopulate and cause irritation.
+    * **Demodex mites:** These microscopic creatures live on everyone's skin, including the eyelids. In some individuals, they can overpopulate and cause irritation.
     * **Blocked oil glands:**  These glands produce oil to lubricate the eyes. When they become clogged, it can lead to inflammation.
     * **Other factors:**  Dry eyes, allergies, and certain skin conditions can also contribute.
 * **Transmission:**  Blepharitis is not spread from person to person like a cold or flu. You cannot catch it by touching someone with blepharitis. 
-* **Spread:**  While blepharitis itself isn't contagious, the bacteria that can cause secondary infections *can* be spread.  This is why good hygiene practices are important, such as:
+* **Spread:**  While blepharitis itself is not contagious, the bacteria that can cause secondary infections *can* be spread.  This is why good hygiene practices are important, such as:
     * **Washing your hands frequently.**
     * **Avoiding sharing eye makeup or towels.**
     * **Cleaning your eyelids gently with a warm, damp washcloth.**
-**Important Note:**  While blepharitis itself isn't contagious, it can be a symptom of underlying conditions that *can* be contagious.  If you have blepharitis, it's important to see a doctor to rule out any other potential causes and to get appropriate treatment.
-Let me know if you have any other questions about blepharitis or any other medical topic. I'm here to help! 
+**Important Note:**  While blepharitis itself is not contagious, it can be a symptom of underlying conditions that *can* be contagious.  If you have blepharitis, it's important to see an eye doctor to rule out any other potential causes and to ensure proper treatment. 
+Let me know if you have any other questions about blepharitis or any other medical concerns. I'm here to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6840,21 +6829,22 @@
     * **Rapid influenza diagnostic tests (RIDTs):** These are quick tests that detect the presence of influenza viruses in a sample (like a nasal swab). They provide results within minutes.
     * **Polymerase chain reaction (PCR) tests:** These are more sensitive tests that detect the genetic material of the influenza virus. They are often used in clinical settings and can provide more definitive results.
     * **Serological tests:** These tests detect antibodies produced by the body in response to an influenza infection. They can be used to confirm a past infection.
-* **Influenza test:** This term is more specific and refers to a test that specifically identifies the influenza virus. It's the most accurate way to diagnose influenza.
+* **Influenza test:** This term is more specific and refers to a test that specifically identifies the influenza virus. It's important to note that this doesn't necessarily mean it's a rapid test. 
 **In essence:**
 * **"Flu test" is a broader term** that encompasses various tests used to diagnose influenza.
 * **"Influenza test" is a more specific term** that refers to a test that identifies the influenza virus itself.
 **Which test is right for you?**
 The best test for you will depend on your individual situation and the information you need. 
 * **If you're experiencing flu-like symptoms and need a quick diagnosis, a rapid influenza diagnostic test (RIDT) might be the best option.**
-* **If you need a more definitive diagnosis or are concerned about a potential influenza infection, a PCR test or a serological test might be recommended.**
-**It's always best to consult with your doctor to determine the most appropriate test for your needs.** 
+* **If you need a more definitive diagnosis or are concerned about a potential influenza infection, a PCR test might be recommended.**
+* **If you're concerned about a past influenza infection, a serological test might be helpful.**
+**Always consult with your doctor to determine the best course of action for your specific needs.** 
 Let me know if you have any other questions! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -6904,12 +6894,12 @@
 * Ibuprofen is like a plumber who fixes the leaky pipe (inflammation and pain).
 * Acetaminophen is like a bandage that stops the bleeding (fever and pain).
 **They are often combined in medications like Advil and Motrin**, but they are distinct drugs with different mechanisms of action. 
-**Important Note:** Always consult with a healthcare professional before taking any medication, including ibuprofen or acetaminophen. They can help you determine the best treatment for your specific needs and potential interactions with other medications you may be taking. 
+**Important Note:** Always consult with a healthcare professional before taking any medication, including ibuprofen and acetaminophen. They can help you determine the best treatment for your specific needs and potential interactions with other medications you may be taking. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -6973,7 +6963,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7029,7 +7019,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7075,29 +7065,30 @@
         <is>
           <t xml:space="preserve">
 It's absolutely normal to experience abdominal cramping with the stomach flu, and it's a common symptom.  Here's why:
-**The Culprit:  Inflammation and Irritability**
-The stomach flu, also known as gastroenteritis, is caused by a virus that inflames the lining of your stomach and intestines. This inflammation causes:
-* **Increased Intestinal Motility:** Your intestines become more active, leading to cramps and sometimes diarrhea.
-* **Nausea and Vomiting:** These can also contribute to abdominal discomfort.
-* **Dehydration:**  The vomiting and diarrhea can lead to dehydration, which can worsen the cramping.
-**Severity Varies**
-The severity of the cramping can vary from person to person. Some people experience mild cramping, while others may have severe, debilitating pain. 
-**When to Worry**
-While abdominal cramping is common, it's important to be aware of when it might be a cause for concern:
-* **Severe Pain:** If the cramping is so intense that it's difficult to bear, or if it's accompanied by fever, blood in your stool, or severe dehydration, seek medical attention immediately.
-* **Persistent Cramping:** If the cramping lasts for more than a few days, or if it doesn't improve with home care, consult your doctor.
-* **Other Symptoms:** If you experience other concerning symptoms like high fever, bloody diarrhea, or severe vomiting, seek medical attention.
-**What You Can Do**
-* **Hydration is Key:**  Drink plenty of fluids, especially water, to prevent dehydration.
-* **Rest:** Give your body time to recover.
-* **Over-the-Counter Relief:**  Over-the-counter medications like ibuprofen or acetaminophen can help reduce pain and fever.
-* **BRAT Diet:**  A bland diet of bananas, rice, applesauce, and toast can be easier to digest.
-**Remember:** I am an AI and cannot provide medical advice. If you have any concerns about your health, please consult a medical professional. 
+**Understanding the Cause:**
+* **Inflammation:** The stomach flu, also known as gastroenteritis, is caused by a virus that inflames the lining of your stomach and intestines. This inflammation causes pain, cramping, and discomfort.
+* **Dehydration:**  The stomach flu often leads to severe vomiting and diarrhea, which can quickly dehydrate you. Dehydration can also contribute to abdominal cramping.
+* **Muscle Spasms:**  The intense cramping you feel is often due to muscle spasms in your stomach and intestines as they try to expel the virus and fluids.
+**Severity and When to Worry:**
+* **Mild Cramping:**  Mild cramping is usually a normal part of the recovery process. It's often accompanied by nausea, vomiting, and diarrhea.
+* **Severe Cramping:**  If the cramping is severe, persistent, or accompanied by:
+    * **High fever:**  A fever above 101°F (38.3°C) can indicate a more serious infection.
+    * **Blood in your stool or vomit:**  This could be a sign of a more severe infection or complication.
+    * **Severe dehydration:**  Signs include dizziness, dry mouth, dark urine, and decreased urination.
+    * **Inability to keep fluids down:**  This can lead to rapid dehydration.
+    * **Severe pain:**  If the pain is unbearable, seek medical attention.
+**What to Do:**
+* **Rest:**  Give your body time to recover.
+* **Hydrate:**  Drink plenty of fluids, especially water, clear broth, or electrolyte drinks.
+* **Over-the-counter medications:**  Acetaminophen or ibuprofen can help reduce fever and pain.
+* **BRAT diet:**  This bland diet (bananas, rice, applesauce, toast) can be easier to digest.
+* **Seek medical attention:**  If you experience severe symptoms, persistent cramping, or signs of dehydration, consult a doctor.
+**Remember:** I am an AI and cannot provide medical advice. This information is for general knowledge and should not replace professional medical guidance. Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7140,25 +7131,26 @@
 I understand you're curious about taking antibiotics with your thyroid medication.  **It's absolutely crucial to talk to your doctor about this.**  
 Here's why:
 * **Drug Interactions:** Antibiotics and thyroid medications can interact, potentially affecting their effectiveness or causing side effects. 
-* **Individualized Treatment:**  The best course of action depends on your specific medications, dosage, and medical history. 
+* **Individualized Care:**  The best course of action depends on the specific medications you're taking, their dosages, and your individual medical history. 
 * **Potential Risks:**  Some interactions can be serious, leading to complications or even requiring adjustments to your treatment plan.
 **Here's what I can tell you generally:**
-* **Antibiotics:** These medications target bacteria and can disrupt the balance of bacteria in your body. 
-* **Thyroid Medications:** These medications, like levothyroxine, help regulate your thyroid hormone levels. 
-* **Potential Interactions:** Some antibiotics can interfere with how your thyroid medication is absorbed or metabolized. 
-**Why you need to talk to your doctor:**
-* **They know your medical history:** Your doctor has a complete picture of your health, including any allergies, other medications you're taking, and any underlying conditions.
-* **They can assess the risks:** They can determine if there's a potential for interaction and the severity of the risk.
-* **They can prescribe the right medication:** If an interaction is possible, they can prescribe a different antibiotic or adjust your thyroid medication dosage.
-**Please don't self-medicate or change your medication regimen without consulting your doctor.**  They are your best resource for ensuring your safety and optimal treatment. 
+* **Antibiotics:** These medications fight bacterial infections. 
+* **Thyroid Medications:** These medications are used to manage thyroid hormone levels. 
+* **Potential Interactions:** Some antibiotics can interfere with how your thyroid medication is absorbed or processed by your body. 
+* **Common Interactions:**  Certain antibiotics like tetracyclines and macrolides can affect thyroid hormone levels.
+**What to do:**
+1. **Consult Your Doctor:**  This is the most important step.  They can assess your specific situation, consider your medical history, and advise you on the safest course of action.
+2. **Provide a Complete Medication List:**  Be sure to tell your doctor about all medications you're taking, including over-the-counter drugs, supplements, and herbal remedies.
+3. **Follow Instructions Carefully:**  Always follow your doctor's instructions regarding dosage and timing of your medications.
+**Remember:**  I am an AI and cannot provide medical advice.  Your doctor is your best resource for information about your health and medications. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -7208,19 +7200,18 @@
 * **The amount of medication that passes into breast milk is usually low.** However, it's still possible for it to affect your baby.
 **What Your Doctor Can Tell You:**
 * **Your doctor can assess your individual situation.** They will consider your medical history, the severity of your allergies, and the potential risks and benefits for you and your baby.
-* **They can discuss alternative medications that may be safer for breastfeeding mothers.**
-* **They can advise you on the appropriate dosage and duration of treatment.**
+* **They can advise you on the safest course of action.** This may involve taking a different medication, adjusting your dosage, or limiting your use of Zyrtec or Claritin.
+* **They can also provide information on alternative treatments for your allergies.**
 **Important Considerations:**
 * **Always talk to your doctor before taking any medication while breastfeeding.**
-* **If you experience any side effects in your baby, contact your doctor immediately.**
 * **Be sure to follow your doctor's instructions carefully.**
-**In Conclusion:**
-While Zyrtec and Claritin are generally considered safe for most adults, it's crucial to discuss their use while breastfeeding with your doctor. They can provide personalized advice based on your individual circumstances and help you make the best decision for you and your baby. 
+* **Monitor your baby for any unusual symptoms after taking these medications.**
+**Remember:** Your doctor is your best resource for personalized advice about your health and your baby's. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -7264,36 +7255,31 @@
       <c r="G106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a very important question about a complex topic. Let's break down the relationship between low lipase and the conditions you mentioned:
+You're asking a very important question about a complex topic.  Let's break down the relationship between low lipase and the conditions you mentioned:
 **Lipase: The Digestive Enzyme**
-Lipase is an enzyme crucial for digesting fats. It's produced by the pancreas and released into the small intestine.  
-**Low Lipase: A Sign of Trouble**
-Low lipase levels in the blood can indicate a problem with the pancreas. This is because the pancreas is responsible for producing lipase. 
-**Pancreatic Cancer**
-* **Lipase and Pancreatic Cancer:**  While low lipase levels can be a sign of pancreatic cancer, it's not a definitive indicator.  
-* **Why it's not always a direct sign:**  Pancreatic cancer can cause inflammation and damage to the pancreas, leading to a decrease in lipase production. However, it's not always the primary cause of low lipase.
-* **Other factors:**  Other conditions like chronic pancreatitis, cystic fibrosis, and even certain medications can also cause low lipase levels.
-**Chronic Pancreatitis**
-* **Lipase and Chronic Pancreatitis:** Chronic pancreatitis is a long-term inflammation of the pancreas. It's a common cause of low lipase levels. 
-* **Why it's a strong indicator:**  Chronic pancreatitis damages the pancreas, leading to reduced lipase production. 
-* **Other symptoms:**  Chronic pancreatitis often presents with symptoms like abdominal pain, nausea, vomiting, and weight loss.
-**Cystic Fibrosis**
-* **Lipase and Cystic Fibrosis:** Cystic fibrosis is a genetic disorder that affects the lungs and digestive system. It can also cause pancreatic insufficiency, which is a condition where the pancreas doesn't produce enough digestive enzymes, including lipase.
-* **Why it's a common cause:**  Cystic fibrosis can lead to damage to the pancreas, resulting in low lipase levels. 
+Lipase is an enzyme crucial for digesting fats. It's produced by the pancreas and released into the small intestine.  Low lipase levels indicate a problem with the pancreas's ability to produce or release this enzyme.
+**Low Lipase: Causes and Associations**
+* **Chronic Pancreatitis:** This is the most common cause of low lipase.  Chronic inflammation of the pancreas can damage the cells that produce lipase, leading to decreased levels.
+* **Cystic Fibrosis:**  This genetic disorder affects the lungs and digestive system.  Cystic fibrosis can cause pancreatic damage, leading to low lipase levels.
+* **Pancreatic Cancer:**  While low lipase is not a definitive diagnostic marker for pancreatic cancer, it can be a *possible* indicator.  Here's why:
+    * **Tumor Location:**  Pancreatic cancer can sometimes affect the areas of the pancreas responsible for lipase production. This can lead to a decrease in lipase levels.
+    * **Tumor Burden:**  The extent of the tumor and its impact on the pancreas can also influence lipase levels. 
+    * **Other Factors:**  It's important to remember that low lipase can also be caused by other factors, such as:
+        * **Biliary obstruction:**  Blockage of the bile duct can interfere with the flow of bile, which contains lipase.
+        * **Certain medications:**  Some medications can affect lipase production.
+        * **Alcohol abuse:**  Excessive alcohol consumption can damage the pancreas.
 **Important Considerations**
-* **Diagnosis:**  Low lipase levels are just one piece of the puzzle. A doctor will consider other factors like symptoms, family history, and other blood tests to make a diagnosis.
-* **Other Causes:**  Low lipase can also be caused by other conditions like:
-    * **Biliary obstruction:**  Blockage in the bile duct can interfere with the flow of bile, which can affect lipase production.
-    * **Medications:**  Certain medications can also affect lipase levels.
-* **Treatment:**  Treatment for low lipase depends on the underlying cause. 
+* **Diagnosis:**  Low lipase is just one piece of the puzzle.  A complete evaluation, including blood tests, imaging studies (like CT scans or MRIs), and possibly a biopsy, is needed to diagnose the underlying cause.
+* **Individualized Care:**  The treatment for low lipase depends on the underlying cause.  For example, chronic pancreatitis may require lifestyle changes, medications, and sometimes surgery.  Cystic fibrosis requires a combination of medications and therapies.  Pancreatic cancer treatment is complex and depends on the stage and type of cancer.
+* **Early Detection:**  Early detection of pancreatic cancer is crucial for successful treatment.  Regular checkups and screenings are important, especially for individuals with risk factors.
 **In Summary**
-Low lipase levels can be a sign of pancreatic cancer, but it's not always a direct indicator. Chronic pancreatitis and cystic fibrosis are more common causes.  
-**It's crucial to consult a doctor for a proper diagnosis and treatment plan.** They can order additional tests and consider your individual medical history to determine the cause of your low lipase levels. 
+While low lipase is not a definitive indicator of pancreatic cancer, it can be a possible sign.  It's essential to consult a doctor for a proper diagnosis and treatment plan.  Don't rely on self-diagnosis or online information. 
+**Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -7357,7 +7343,8 @@
 * **Follow instructions:**  Always follow your doctor's instructions regarding dosage, frequency, and duration of treatment.
 * **Side effects:** Be aware of potential side effects and report any unusual symptoms to your doctor immediately.
 **In summary:**
-Meloxicam and naproxen are both effective NSAIDs for pain and inflammation, but they differ in their mechanism of action, side effect profiles, and duration of action.  Choosing the right medication depends on your individual needs and medical history.  Always consult your doctor for personalized advice. 
+While both meloxicam and naproxen are effective NSAIDs, they differ in their mechanism of action, side effect profiles, and duration of action. Your doctor can help you determine which medication is best suited for your specific needs. 
+Remember, this information is for general knowledge only and should not be considered medical advice. Always consult with your doctor for personalized guidance. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -7365,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -7400,18 +7387,25 @@
         <is>
           <t xml:space="preserve">
 Mycophenolate, often sold under the brand name CellCept, is indeed an immunosuppressant.  Here's a breakdown of its mechanism and uses:
-**How Mycophenolate Works:**
-* **Inhibits purine synthesis:** Mycophenolate is a prodrug that gets converted into a metabolite that blocks the enzyme inosine monophosphate dehydrogenase (IMPDH). IMPDH is crucial for the synthesis of guanine nucleotides, which are essential building blocks for DNA and RNA.
-* **Reduces lymphocyte proliferation:** By inhibiting guanine nucleotide synthesis, mycophenolate effectively reduces the proliferation of lymphocytes, a type of white blood cell crucial for the immune response. This is the primary mechanism by which it suppresses the immune system.
-**Uses of Mycophenolate:**
-* **Organ transplantation:** Mycophenolate is commonly used to prevent organ rejection after transplantation. It helps to suppress the immune system's attack on the transplanted organ.
-* **Autoimmune diseases:** It is also used to treat autoimmune diseases like rheumatoid arthritis, lupus, and Crohn's disease. These conditions involve the immune system attacking the body's own tissues.
-* **Other conditions:** Mycophenolate is also used to treat certain types of cancers and to prevent rejection of bone marrow transplants.
+**What is Mycophenolate?**
+Mycophenolate is a medication that works by interfering with the production of purines, which are essential building blocks for DNA and RNA.  
+**How it Works:**
+* **Purine Synthesis Inhibition:** Mycophenolate specifically targets the enzyme inosine monophosphate dehydrogenase (IMPDH). IMPDH is crucial for the synthesis of guanine nucleotides, which are needed for DNA and RNA production. 
+* **Immune Cell Suppression:** By inhibiting purine synthesis, mycophenolate effectively reduces the production of lymphocytes, a type of white blood cell crucial for the immune response. This leads to a decrease in the activity of T cells and B cells, which are key players in the adaptive immune system.
+**Uses:**
+Mycophenolate is primarily used for:
+* **Organ Transplantation:** It is a cornerstone of immunosuppressive therapy for preventing organ rejection after transplantation. 
+* **Autoimmune Diseases:** It is also used to manage autoimmune diseases like lupus, rheumatoid arthritis, and vasculitis.
+* **Other Conditions:** Mycophenolate is sometimes used to treat certain types of cancers and other inflammatory conditions.
 **Important Considerations:**
-* **Side effects:** Mycophenolate can cause side effects like nausea, diarrhea, and increased susceptibility to infections. 
-* **Dosage and monitoring:** The dosage and monitoring of mycophenolate are crucial to ensure its effectiveness and minimize side effects. 
-* **Drug interactions:** Mycophenolate can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
-**In summary:** Mycophenolate is a powerful immunosuppressant that plays a vital role in organ transplantation and the treatment of various autoimmune and other conditions. However, it's essential to use it under the guidance of a healthcare professional and to be aware of its potential side effects and interactions. 
+* **Side Effects:** Mycophenolate can cause a range of side effects, including:
+    * **Gastrointestinal issues:** Nausea, diarrhea, and stomach pain are common.
+    * **Bone marrow suppression:** This can lead to anemia, neutropenia (low white blood cell count), and thrombocytopenia (low platelet count).
+    * **Increased risk of infections:** The immunosuppressive effect can make patients more susceptible to infections.
+* **Dosage and Monitoring:** The dosage and monitoring of mycophenolate are crucial to minimize side effects and ensure its effectiveness. 
+* **Drug Interactions:** Mycophenolate can interact with other medications, so it's important to inform your doctor about all the medications you are taking.
+**In Summary:**
+Mycophenolate is a powerful immunosuppressant that plays a vital role in organ transplantation and the management of autoimmune diseases. However, it's essential to understand its potential side effects and the importance of careful monitoring and dosage adjustments. 
 **Disclaimer:** I am an AI chatbot and cannot provide medical advice. The information provided above is for general knowledge and informational purposes only, and does not constitute medical advice. It is essential to consult with a qualified healthcare professional for any health concerns or before making any decisions related to your health or treatment. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7454,13 +7448,24 @@
       <c r="G109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're asking a great question that highlights a common point of confusion! 
-**Pepto-Bismol and Pepto-Bismol are the same thing.** 
-Pepto-Bismol is a brand name for a medication that contains bismuth subsalicylate. This medication is commonly used to treat:
-* **Indigestion and heartburn:** It helps coat the stomach lining and reduce stomach acid.
-* **Nausea and vomiting:** It can help settle the stomach and reduce the feeling of nausea.
-* **Diarrhea:** It can help reduce the severity and duration of diarrhea.
-**Important Note:** While Pepto-Bismol is generally safe, it's important to follow the directions on the label and consult with a doctor if you have any concerns. 
+You're asking a great question that highlights a common point of confusion!  
+**Pepto-Bismol is indeed the brand name for a medication containing bismuth subsalicylate.** 
+Here's a breakdown:
+* **Bismuth subsalicylate** is the active ingredient in Pepto-Bismol. It's a medication that works by:
+    * **Reducing stomach acid:** This helps soothe an upset stomach and reduce heartburn.
+    * **Anti-diarrheal:** It can help slow down the movement of your intestines, which can reduce diarrhea.
+    * **Anti-inflammatory:** It can help reduce inflammation in the digestive tract.
+* **Pepto-Bismol** is a popular over-the-counter medication for various digestive issues, including:
+    * Nausea and vomiting
+    * Diarrhea
+    * Indigestion
+    * Heartburn
+    * Traveler's diarrhea
+**Important Note:** While Pepto-Bismol is generally safe for most people, it's important to follow the directions on the label and consult with a doctor if you have any concerns. 
+**Here are some additional points to consider:**
+* **Brand names:**  While Pepto-Bismol is the most well-known brand, there are other brands that contain bismuth subsalicylate, such as Pepto-Bismol Liquid, Pepto-Bismol Chewable Tablets, and Pepto-Bismol Capsules.
+* **Dosage:** The dosage of Pepto-Bismol varies depending on the specific product and the condition being treated. Always follow the instructions on the label.
+* **Interactions:**  Bismuth subsalicylate can interact with certain medications, so it's important to tell your doctor about all the medications you are taking before using Pepto-Bismol.
 Let me know if you have any other questions about Pepto-Bismol or other medications! 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7507,29 +7512,31 @@
       <c r="G110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question!  Let's break down the science behind poison ivy and its spread.
-**Poison ivy is not contagious in the way we typically think of contagious diseases.**  It's not a virus or bacteria that spreads through the air or bodily fluids. 
-Here's why:
-* **It's an allergic reaction:** Poison ivy causes an allergic reaction in people, not a contagious infection.  The culprit is urushiol, a sticky oil found in the plant's leaves, stems, and roots.
-* **Urushiol is a potent allergen:** When urushiol comes into contact with your skin, it triggers an immune response in your body. This response causes the characteristic rash, itching, and inflammation.
-* **It's not spread through direct contact:** You don't catch poison ivy from someone else's skin.  You get it by touching the urushiol oil on the plant itself. 
-**However, there are some ways you can spread poison ivy:**
-* **Touching contaminated objects:** If you touch something that has urushiol on it (like a fence, a tree, or clothing) and then touch your face or other parts of your body, you can transfer the oil and trigger a reaction.
-* **Sharing personal items:**  If you share clothing, towels, or other items that have come into contact with poison ivy, you could transfer the oil.
-**Important to remember:**
-* **Wash your skin thoroughly:** If you've been in contact with poison ivy, wash your skin immediately with soap and water. This helps remove the urushiol oil.
-* **Avoid touching:**  Avoid touching poison ivy plants or anything that might have come into contact with them.
-* **Wear protective clothing:**  Wear long sleeves and pants when you're in areas where poison ivy is common.
-**In summary:**  Poison ivy is not contagious in the traditional sense, but it can be spread through contact with the urushiol oil.  Washing your skin and avoiding contact with the plant are the best ways to prevent an allergic reaction. 
-If you have any concerns about poison ivy or an allergic reaction, please consult a medical professional. 
+Ah, a question that plagues many a gardener and outdoor enthusiast!  Let me clear the air on this one. 
+**Poison ivy is not contagious in the way you might think.**  It's not a virus or bacteria that spreads from person to person. 
+Here's the breakdown:
+* **It's an allergic reaction:**  Poison ivy causes an allergic reaction in most people. This reaction is triggered by urushiol, a sticky oil found in the plant's leaves, stems, and roots. 
+* **Urushiol is the culprit:**  Urushiol is a potent allergen that can stick to your skin, clothing, and tools.  It's not something you can catch from someone else.
+* **Contact is key:**  You get poison ivy rash by coming into contact with urushiol. This can happen through:
+    * Touching the plant itself
+    * Touching something that has touched the plant
+    * Being near the plant and inhaling the oil
+* **It's not a "disease":**  Poison ivy rash is not a contagious disease. It's a localized allergic reaction.
+**So, how to avoid it?**
+* **Wear protective clothing:**  Long sleeves, pants, and gloves when working in areas where poison ivy might be present.
+* **Wash your skin:**  Wash any exposed skin immediately after being in contact with poison ivy.
+* **Avoid touching:**  Don't touch the plant or anything that might have touched it.
+* **Keep your tools clean:**  Clean your gardening tools thoroughly after use.
+**Remember:**  If you do get a rash, it's important to treat it promptly. Over-the-counter hydrocortisone cream can help relieve itching and inflammation. 
+Let me know if you have any other questions about poison ivy or other medical topics. I'm here to help! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7567,25 +7574,25 @@
       <c r="G111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-You're right to be curious about the color change in urine!  Pyridium, also known as **phenazopyridine**, is indeed the culprit behind that characteristic orange hue. 
-Here's a breakdown of how it works:
-* **Mechanism:** Pyridium is a urinary analgesic, meaning it helps relieve pain and discomfort associated with urinary tract infections (UTIs) and other conditions. It works by reducing the pain signals sent to the brain.
-* **Chemical Action:**  Pyridium is a **photosensitizer**. This means it absorbs light, particularly in the blue-green spectrum, and converts it into a different wavelength. This process is what causes the urine to turn orange.
-* **Appearance:** The orange color is a result of the breakdown of pyridium in the body and its interaction with light. It's a temporary change, and the color will fade over time as the medication is metabolized.
+You're asking about a common side effect of pyridium, a medication used to treat urinary tract infections (UTIs). 
+**Yes, pyridium can cause urine to turn orange.** 
+Here's why:
+* **Pyridium's Chemical Structure:** Pyridium is a medication that contains a chemical called **furosemide**, which is a diuretic.  
+* **Furosemide's Effect:** Furosemide works by increasing the amount of urine your body produces. This increased urine flow can lead to the presence of certain pigments in the urine.
+* **Pigment Formation:** The pigments in urine are often caused by the breakdown of certain substances in the body.  Furosemide can increase the breakdown of certain pigments, leading to the orange color.
 **Important Notes:**
-* **Not a cure:**  While pyridium can help manage pain and discomfort, it doesn't cure UTIs. It's crucial to address the underlying infection with antibiotics.
-* **Potential side effects:**  Pyridium can cause side effects like nausea, vomiting, and allergic reactions. It's important to discuss any concerns with your doctor.
-* **Drug interactions:**  Pyridium can interact with other medications, so it's essential to inform your doctor about all the drugs you're taking.
-**In summary:** Pyridium is the medication that causes urine to turn orange. It's a useful tool for managing pain and discomfort associated with UTIs, but it's not a cure and can have side effects. 
-If you have any further questions or concerns about pyridium or your health, please consult your doctor. 
+* **Not everyone experiences this side effect:** While pyridium can cause urine to turn orange, it's not a universal side effect. 
+* **The color is temporary:** The orange color usually fades within a few days or weeks after stopping the medication.
+* **Consult your doctor:** If you're concerned about the color of your urine, or if you experience any other side effects from pyridium, it's important to contact your doctor.
+Let me know if you have any other questions about pyridium or UTIs. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7624,21 +7631,17 @@
           <t xml:space="preserve">
 You're asking a great question about Saxenda, a medication used for weight management. 
 **Yes, Saxenda (liraglutide) is a GLP-1 receptor agonist.** 
-Here's a breakdown:
-* **GLP-1 (Glucagon-like peptide-1):** This is a naturally occurring hormone in your body that plays a crucial role in regulating blood sugar levels. 
-* **GLP-1 Receptor Agonists:** These are medications that mimic the action of GLP-1, binding to GLP-1 receptors in the body. This binding triggers various effects, including:
-    * **Increased insulin secretion:**  This helps your body use glucose more effectively.
-    * **Reduced glucagon secretion:**  This helps lower blood sugar levels.
-    * **Slowed gastric emptying:** This helps you feel fuller for longer, reducing overall calorie intake.
+Here's a breakdown of what that means:
+* **GLP-1:**  GLP-1 stands for Glucagon-like peptide-1. It's a naturally occurring hormone produced in the gut after you eat. 
+* **GLP-1 Receptor Agonist:**  This means that Saxenda mimics the action of GLP-1. It binds to GLP-1 receptors in the body, triggering a cascade of effects that help regulate blood sugar, appetite, and metabolism.
 **How Saxenda Works:**
-Saxenda is a GLP-1 receptor agonist that works by mimicking the effects of GLP-1. It helps manage weight by:
-* **Reducing appetite:**  It signals to your brain that you're full, making you less likely to overeat.
-* **Slowing down digestion:**  This helps you feel fuller for longer and reduces the amount of food you consume.
-* **Improving insulin sensitivity:**  This helps your body use glucose more effectively, which can help lower blood sugar levels.
+* **Blood Sugar Control:**  GLP-1 helps the pancreas release more insulin when blood sugar levels are high, and it slows down the release of glucagon, which raises blood sugar. This makes Saxenda effective in managing type 2 diabetes.
+* **Appetite Suppression:**  GLP-1 reduces appetite by signaling to the brain that you're full, helping you eat less.
+* **Metabolism Boost:**  GLP-1 promotes the breakdown of fat and increases energy expenditure, contributing to weight loss.
 **Important Note:**
-While Saxenda is effective for weight management, it's crucial to remember that it's not a magic bullet. It's most effective when combined with a healthy diet and regular exercise. 
+While Saxenda is a GLP-1 receptor agonist, it's important to remember that it's not a substitute for a healthy lifestyle.  Weight management requires a combination of diet, exercise, and behavioral changes. 
 **Always consult with your doctor:**
-It's essential to discuss any medication, including Saxenda, with your doctor. They can assess your individual needs, determine if Saxenda is appropriate for you, and monitor your progress. 
+If you're considering Saxenda or any other medication for weight management, it's crucial to discuss it with your doctor. They can assess your individual needs, medical history, and potential risks and benefits. 
 Let me know if you have any other questions about Saxenda or weight management. 
 &lt;end_of_turn&gt;</t>
         </is>
@@ -7647,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -7687,30 +7690,28 @@
 It's great you're paying attention to your body and seeking information!  Shoulder pain that comes with breathing can be concerning, but it's not always a cause for alarm.  Here's what I can tell you, keeping in mind I'm an AI and not a real doctor:
 **Possible Causes:**
 * **Costochondritis:** This is inflammation of the cartilage that connects your ribs to your breastbone. It can cause pain in the chest, shoulder, and sometimes even the neck. Breathing can worsen the pain because it puts pressure on the inflamed cartilage.
+* **Muscle Strain or Injury:**  A strained or injured shoulder muscle can cause pain that worsens with breathing, especially deep breaths.
 * **Pleurisy:** This is inflammation of the lining of the lungs (pleura). It can cause sharp, stabbing pain that worsens with deep breaths.
-* **Muscle Strain or Injury:**  A strained or injured shoulder muscle can cause pain that's aggravated by breathing, especially if you're doing activities that require deep breaths.
-* **Rib Fractures:**  A broken rib can cause pain that radiates to the shoulder and worsens with breathing.
+* **Anxiety or Panic Attacks:**  These can cause a tightening of the chest and shoulder muscles, leading to pain that feels like it's coming from the shoulder.
 * **Other Conditions:** Less common causes include lung infections, heart problems, and even certain types of arthritis.
 **When to See a Doctor:**
-It's important to see a doctor if:
-* **The pain is severe or doesn't improve with over-the-counter pain relievers.**
-* **You have other symptoms, such as fever, shortness of breath, or chest pain.**
-* **The pain is accompanied by a cough or difficulty breathing.**
-* **The pain is persistent or doesn't go away after a few days.**
+* **Sudden onset of pain:** If the pain is new and severe, especially if it's accompanied by other symptoms like fever, shortness of breath, or chest pain, seek medical attention immediately.
+* **Pain that doesn't improve:** If your pain doesn't improve with over-the-counter pain relievers or home remedies, see a doctor.
+* **Pain that limits your daily activities:** If you're unable to perform your usual activities due to shoulder pain, it's important to seek medical advice.
+* **Other symptoms:** If you experience any other symptoms along with shoulder pain, such as fever, shortness of breath, or chest pain, consult a doctor.
 **What to Expect at the Doctor's Office:**
-* **Physical Examination:** Your doctor will examine your shoulder and chest to check for tenderness, swelling, and range of motion.
-* **Medical History:** Your doctor will ask about your symptoms, past medical history, and any medications you're taking.
-* **Imaging Tests:**  In some cases, your doctor may order an X-ray, CT scan, or MRI to get a better look at your shoulder and chest.
+* **Physical Examination:** Your doctor will examine your shoulder and chest to assess for tenderness, swelling, and range of motion.
+* **Medical History:** They will ask about your symptoms, past medical history, and any medications you're taking.
+* **Imaging Tests:** In some cases, your doctor may order an X-ray, CT scan, or MRI to rule out any underlying conditions.
 **Important Notes:**
-* **Self-diagnosis is dangerous.**  It's important to see a doctor for a proper diagnosis and treatment plan.
-* **Don't ignore pain.**  Even if it's mild, pain can be a sign of a problem that needs attention.
-* **Be open and honest with your doctor.**  The more information you provide, the better they can help you.
-Remember, I'm here to provide general information, but I can't give medical advice.  Please consult a healthcare professional for any health concerns. 
+* **Self-diagnosis is dangerous:**  It's crucial to avoid self-diagnosing and seeking medical advice from unqualified sources.
+* **Early intervention is key:**  The sooner you seek medical attention, the better the chances of a successful treatment plan.
+Remember, I'm an AI and cannot provide medical advice. This information is for general knowledge and should not be substituted for professional medical advice. Please consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -7750,30 +7751,24 @@
       <c r="G114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-That's a great question, and it highlights a common point of confusion!  While both miconazole powder and baby powder are often found in powder form, they are **not the same** and have very different purposes. 
-Here's a breakdown:
-**Miconazole powder:**
-* **Active ingredient:** Miconazole is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. 
-* **Purpose:**  It's applied directly to the skin to kill or prevent the growth of fungi.
-* **Safety:**  Miconazole is generally safe for topical use, but it can cause skin irritation or allergic reactions in some people. It's important to follow the instructions on the product label carefully.
-**Baby powder:**
-* **Active ingredient:** Baby powder typically contains cornstarch or talc. 
-* **Purpose:** It's used to absorb moisture and prevent chafing, especially on delicate skin.
-* **Safety:**  Talc, a mineral often used in baby powder, has been linked to health concerns, including ovarian cancer.  Many brands now use cornstarch as a safer alternative.
-**Key Differences:**
-* **Purpose:** Miconazole is an antifungal medication, while baby powder is a skin protectant.
-* **Active ingredients:** Miconazole contains an antifungal agent, while baby powder contains cornstarch or talc.
-* **Safety:** Miconazole is generally safe for topical use, but talc can pose health risks.
-**Important Note:**  Never use miconazole powder on areas of your body that are not infected with a fungal infection. It can be harmful if used inappropriately. 
-**If you have any concerns about using either product, it's always best to consult with a healthcare professional.** 
+It's great you're asking about the differences between miconazole powder and baby powder!  While they both might be found in a store, they are very different products with very different uses. 
+**Miconazole powder** is an antifungal medication. It's used to treat fungal infections like athlete's foot, jock itch, and ringworm. It works by killing the fungus that causes these infections. 
+**Baby powder** is typically made from talc, a soft mineral. It's used to absorb moisture and prevent chafing, especially on delicate skin. 
+**Here's why they are NOT the same:**
+* **Active Ingredients:** Miconazole powder contains an antifungal agent, while baby powder does not. 
+* **Purpose:** Miconazole powder is for treating fungal infections, while baby powder is for preventing chafing and moisture.
+* **Safety:** Miconazole powder can be irritating to the skin if used improperly. It's important to follow the instructions on the label and to test it on a small area of skin before using it on a larger area. Baby powder is generally considered safe for babies, but it's important to choose a brand that is free of talc.
+* **Application:** Miconazole powder is applied directly to the affected area, while baby powder is typically applied to the body after bathing.
+**Important Note:**  It's crucial to consult with a healthcare professional for any skin concerns or before using any medication or product on your skin. They can provide personalized advice based on your individual needs and medical history. 
+Let me know if you have any other questions about medical topics! 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7813,16 +7808,17 @@
 **However, I must strongly advise against using topical nitroglycerin for anal fissures.** 
 Here's why:
 * **Nitroglycerin is a powerful vasodilator.** This means it widens blood vessels, which can be dangerous in the anal area. It can cause:
-    * **Severe pain:**  Nitroglycerin can cause intense pain, especially in the sensitive anal area.
-    * **Bleeding:**  The widening of blood vessels can lead to increased bleeding.
-    * **Hypotension:**  Nitroglycerin can cause a drop in blood pressure, which can be dangerous.
-    * **Interactions:**  Nitroglycerin can interact with other medications you might be taking.
-* **There are safer and more effective treatments for anal fissures.**  These include:
-    * **Topical medications:**  Creams containing **dimethylsulfoxide (DMSO)** or **topical lidocaine** are often prescribed for anal fissures. These medications help to reduce pain and inflammation.
-    * **Lifestyle changes:**  Eating a high-fiber diet, drinking plenty of fluids, and avoiding straining during bowel movements can help prevent and heal anal fissures.
-    * **Surgery:**  In some cases, surgery may be necessary to repair a severe or recurring fissure.
-**It's crucial to consult a doctor for diagnosis and treatment of anal fissures.** They can determine the best course of action for your specific situation. Self-treating with medications like nitroglycerin can be dangerous and ineffective. 
-**Please schedule an appointment with your doctor or a gastroenterologist to discuss your concerns and receive appropriate treatment.** 
+    * **Severe pain and discomfort.**
+    * **Increased bleeding.**
+    * **Potential for tissue damage.**
+    * **Interactions with other medications.**
+* **There are safer and more effective treatments for anal fissures.** These include:
+    * **Topical medications:**  These can include hydrocortisone cream, lidocaine cream, or topical nitroglycerin. **However, I strongly advise against using topical nitroglycerin.**
+    * **Lifestyle changes:**  Eating a high-fiber diet, drinking plenty of fluids, and avoiding straining during bowel movements can help prevent and heal fissures.
+    * **Prescription medications:**  Your doctor may prescribe stronger medications, such as stool softeners or antibiotics, depending on the severity of your fissure.
+    * **Surgery:**  In rare cases, surgery may be necessary to repair a severe fissure.
+**It's crucial to consult with a qualified medical professional for diagnosis and treatment of anal fissures.** They can assess your individual needs and recommend the most appropriate treatment plan. 
+**Please remember:** I am an AI and cannot provide medical advice. The information provided above is for general knowledge and should not be considered a substitute for professional medical advice. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
@@ -7830,7 +7826,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -7872,27 +7868,27 @@
           <t xml:space="preserve">
 It's great that you're paying attention to your body!  A clear urine color is generally a good sign, but it's important to remember that I'm an AI and not a doctor.  **It's crucial to consult a medical professional for any health concerns.** 
 That being said, here's some general information about clear urine:
-**What's Normal:**
+**What's normal:**
 * **Clear urine** usually indicates that your kidneys are functioning well and your body is efficiently removing waste products. 
 * **Minimal to no color** in your urine is a sign of good hydration and healthy kidneys.
-**Possible Reasons for Clear Urine:**
+**Possible reasons for clear urine:**
 * **Hydration:**  The most common reason for clear urine is simply drinking enough water.  
-* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and may appear slightly darker.
-* **Recent Medication:** Some medications can affect urine color. 
-* **Diet:**  Certain foods and drinks can impact urine color. 
-* **Medical Conditions:**  While clear urine is usually a good sign, it's important to note that it can sometimes be a symptom of underlying medical conditions. 
-**When to See a Doctor:**
+* **Dehydration:**  If you're dehydrated, your urine will be more concentrated and appear darker.
+* **Recent medication:** Some medications can cause changes in urine color.
+* **Diet:**  Certain foods and drinks can affect urine color. For example, beets can make urine red.
+* **Medical conditions:**  While clear urine is usually a good sign, it can sometimes be a symptom of underlying medical conditions.  
+**When to see a doctor:**
 * **Sudden change in urine color:** If your urine suddenly changes color, it's important to see a doctor.
-* **Blood in urine:**  Blood in your urine is a serious condition that requires immediate medical attention.
-* **Pain or burning during urination:**  These symptoms could indicate a urinary tract infection or other medical issue.
-* **Frequent urination:**  If you're urinating more often than usual, it's worth checking in with your doctor.
-* **Other symptoms:**  If you're experiencing any other symptoms, such as fever, chills, or pain, it's important to see a doctor.
-**Important Note:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for any health concerns. 
+* **Blood in your urine:**  Blood in your urine is a serious condition that requires immediate medical attention.
+* **Pain or burning during urination:**  These symptoms could indicate a urinary tract infection or other medical condition.
+* **Frequent urination:**  If you're urinating more often than usual, it's important to see a doctor.
+* **Other symptoms:**  If you're experiencing any other symptoms, such as fever, chills, or pain in your back or side, it's important to see a doctor.
+**Remember:**  This information is for general knowledge only and should not be considered medical advice.  Always consult a doctor for any health concerns. 
 &lt;end_of_turn&gt;</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -7935,27 +7931,25 @@
         <is>
           <t xml:space="preserve">
 I understand you're looking for relief from a bite on your face. While I can provide general information, I am not a medical professional and cannot give medical advice. 
-**It's crucial to see a doctor or other qualified healthcare provider for any bite wound, especially on the face.**  
-Here's why:
-* **Infection Risk:** Bite wounds are susceptible to infection, and the face is a delicate area. A healthcare professional can assess the wound and determine the best course of treatment to minimize the risk of infection.
-* **Proper Cleaning:**  They can properly clean the wound to remove debris and bacteria.
-* **Underlying Issues:**  A bite wound could be a sign of a more serious underlying issue, such as a bite from a venomous animal or a bite from a person with a contagious disease.
-* **Scarring:**  The severity of the bite and the location can affect the healing process and the potential for scarring.
-**While waiting for your appointment, here are some general tips:**
-* **Control Bleeding:** Apply gentle pressure to the wound with a clean cloth.
-* **Clean the Wound:** Gently wash the wound with soap and water.
-* **Cover the Wound:** Apply a clean bandage to protect the wound.
-* **Over-the-Counter Pain Relief:**  You can use over-the-counter pain relievers like ibuprofen or acetaminophen to manage any discomfort.
-**Remember:**  These are just general tips and do not replace professional medical advice. 
-**Please schedule an appointment with a doctor or other qualified healthcare provider as soon as possible.** They can provide the best care for your specific situation. 
+**It's crucial to see a doctor or dermatologist for any bite wound, especially on the face.**  They can properly assess the bite, determine the cause, and recommend the best treatment. 
+Here's what I can tell you about potential treatments for bite wounds:
+* **Antibiotics:**  Depending on the cause of the bite (animal, insect, etc.), your doctor may prescribe antibiotics to prevent infection.
+* **Pain relief:** Over-the-counter pain relievers like ibuprofen or acetaminophen can help manage pain and inflammation.
+* **Steroid creams:**  Steroid creams can help reduce swelling and itching, but they are not always necessary and should be used